--- a/周数据/《个人上线率统计表》-黄纯伟.xlsx
+++ b/周数据/《个人上线率统计表》-黄纯伟.xlsx
@@ -291,10 +291,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>成都</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>沽涷成都店</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -336,6 +332,10 @@
   </si>
   <si>
     <t>025-86807279</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>泰兴</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -1116,7 +1116,13 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1132,12 +1138,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1493,7 +1493,7 @@
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="79">
+      <c r="A3" s="73">
         <v>12</v>
       </c>
       <c r="B3" s="30">
@@ -1534,7 +1534,7 @@
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="73"/>
+      <c r="A4" s="74"/>
       <c r="B4" s="30">
         <v>51</v>
       </c>
@@ -1573,7 +1573,7 @@
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="73"/>
+      <c r="A5" s="74"/>
       <c r="B5" s="30">
         <v>52</v>
       </c>
@@ -1614,7 +1614,7 @@
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="73"/>
+      <c r="A6" s="74"/>
       <c r="B6" s="30"/>
       <c r="C6" s="31"/>
       <c r="D6" s="32"/>
@@ -1647,7 +1647,7 @@
       </c>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="73"/>
+      <c r="A7" s="74"/>
       <c r="B7" s="30"/>
       <c r="C7" s="31"/>
       <c r="D7" s="32"/>
@@ -1680,7 +1680,7 @@
       </c>
     </row>
     <row r="8" spans="1:13" ht="14.25" thickBot="1">
-      <c r="A8" s="80"/>
+      <c r="A8" s="75"/>
       <c r="B8" s="35"/>
       <c r="C8" s="36"/>
       <c r="D8" s="37"/>
@@ -1754,7 +1754,7 @@
       </c>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="74"/>
+      <c r="A10" s="76"/>
       <c r="B10" s="30"/>
       <c r="C10" s="31"/>
       <c r="D10" s="32"/>
@@ -1787,7 +1787,7 @@
       </c>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="74"/>
+      <c r="A11" s="76"/>
       <c r="B11" s="30"/>
       <c r="C11" s="31"/>
       <c r="D11" s="32"/>
@@ -1820,7 +1820,7 @@
       </c>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="74"/>
+      <c r="A12" s="76"/>
       <c r="B12" s="30"/>
       <c r="C12" s="31"/>
       <c r="D12" s="32"/>
@@ -1853,7 +1853,7 @@
       </c>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="74"/>
+      <c r="A13" s="76"/>
       <c r="B13" s="30"/>
       <c r="C13" s="31"/>
       <c r="D13" s="32"/>
@@ -1886,7 +1886,7 @@
       </c>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="74"/>
+      <c r="A14" s="76"/>
       <c r="B14" s="30"/>
       <c r="C14" s="31"/>
       <c r="D14" s="32"/>
@@ -1919,7 +1919,7 @@
       </c>
     </row>
     <row r="15" spans="1:13" ht="14.25" thickBot="1">
-      <c r="A15" s="75"/>
+      <c r="A15" s="77"/>
       <c r="B15" s="35"/>
       <c r="C15" s="36"/>
       <c r="D15" s="37"/>
@@ -2035,32 +2035,32 @@
       </c>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="76">
+      <c r="A2" s="78">
         <v>51</v>
       </c>
       <c r="B2" s="55">
         <v>43084</v>
       </c>
       <c r="C2" s="56" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2" s="56" t="s">
         <v>86</v>
       </c>
-      <c r="D2" s="56" t="s">
+      <c r="E2" s="56" t="s">
         <v>87</v>
       </c>
-      <c r="E2" s="56" t="s">
-        <v>88</v>
-      </c>
       <c r="F2" s="56" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G2" s="11">
         <v>76101513</v>
       </c>
       <c r="H2" s="56" t="s">
+        <v>88</v>
+      </c>
+      <c r="I2" s="56" t="s">
         <v>89</v>
-      </c>
-      <c r="I2" s="56" t="s">
-        <v>90</v>
       </c>
       <c r="J2" s="56" t="s">
         <v>44</v>
@@ -2069,20 +2069,20 @@
         <v>17602558329</v>
       </c>
       <c r="L2" s="56" t="s">
+        <v>90</v>
+      </c>
+      <c r="M2" s="56" t="s">
         <v>91</v>
       </c>
-      <c r="M2" s="56" t="s">
+      <c r="N2" s="68" t="s">
         <v>92</v>
-      </c>
-      <c r="N2" s="68" t="s">
-        <v>93</v>
       </c>
       <c r="O2" s="11" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="77"/>
+      <c r="A3" s="79"/>
       <c r="B3" s="55">
         <v>43085</v>
       </c>
@@ -2127,7 +2127,7 @@
       </c>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="78"/>
+      <c r="A4" s="80"/>
       <c r="B4" s="55">
         <v>43085</v>
       </c>
@@ -2188,13 +2188,13 @@
         <v>81</v>
       </c>
       <c r="F5" s="56" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="G5" s="1">
-        <v>76119689</v>
+        <v>76119685</v>
       </c>
       <c r="H5" s="56" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="I5" s="56" t="s">
         <v>40</v>
@@ -2206,10 +2206,10 @@
         <v>17602558329</v>
       </c>
       <c r="L5" s="67" t="s">
+        <v>83</v>
+      </c>
+      <c r="M5" s="67" t="s">
         <v>84</v>
-      </c>
-      <c r="M5" s="67" t="s">
-        <v>85</v>
       </c>
       <c r="N5" s="67">
         <v>18601585219</v>
@@ -7273,7 +7273,7 @@
   <dimension ref="A1:G90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
@@ -7311,7 +7311,7 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="76">
+      <c r="A2" s="78">
         <v>51</v>
       </c>
       <c r="B2" s="57" t="s">
@@ -7334,7 +7334,7 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="77"/>
+      <c r="A3" s="79"/>
       <c r="B3" s="57" t="s">
         <v>56</v>
       </c>
@@ -7355,7 +7355,7 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="77"/>
+      <c r="A4" s="79"/>
       <c r="B4" s="57" t="s">
         <v>57</v>
       </c>
@@ -7376,7 +7376,7 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="77"/>
+      <c r="A5" s="79"/>
       <c r="B5" s="57" t="s">
         <v>78</v>
       </c>
@@ -7400,8 +7400,8 @@
       <c r="A6" s="66">
         <v>52</v>
       </c>
-      <c r="B6" s="57" t="s">
-        <v>76</v>
+      <c r="B6" s="9" t="s">
+        <v>82</v>
       </c>
       <c r="C6" s="16">
         <v>43095</v>
@@ -7483,7 +7483,7 @@
       <c r="G13" s="11"/>
     </row>
     <row r="14" spans="1:7" ht="14.25">
-      <c r="A14" s="76"/>
+      <c r="A14" s="78"/>
       <c r="B14" s="12"/>
       <c r="C14" s="13"/>
       <c r="D14" s="14"/>
@@ -7492,7 +7492,7 @@
       <c r="G14" s="12"/>
     </row>
     <row r="15" spans="1:7" ht="14.25">
-      <c r="A15" s="77"/>
+      <c r="A15" s="79"/>
       <c r="B15" s="12"/>
       <c r="C15" s="15"/>
       <c r="D15" s="14"/>
@@ -7501,7 +7501,7 @@
       <c r="G15" s="12"/>
     </row>
     <row r="16" spans="1:7" ht="14.25">
-      <c r="A16" s="77"/>
+      <c r="A16" s="79"/>
       <c r="B16" s="9"/>
       <c r="C16" s="15"/>
       <c r="D16" s="14"/>
@@ -7510,7 +7510,7 @@
       <c r="G16" s="9"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="77"/>
+      <c r="A17" s="79"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
       <c r="D17" s="10"/>
@@ -7519,7 +7519,7 @@
       <c r="G17" s="11"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="77"/>
+      <c r="A18" s="79"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
       <c r="D18" s="10"/>
@@ -7528,7 +7528,7 @@
       <c r="G18" s="11"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="77"/>
+      <c r="A19" s="79"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
       <c r="D19" s="10"/>
@@ -7537,7 +7537,7 @@
       <c r="G19" s="11"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="77"/>
+      <c r="A20" s="79"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
       <c r="D20" s="10"/>
@@ -7546,7 +7546,7 @@
       <c r="G20" s="11"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="77"/>
+      <c r="A21" s="79"/>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
       <c r="D21" s="10"/>
@@ -7555,7 +7555,7 @@
       <c r="G21" s="11"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="77"/>
+      <c r="A22" s="79"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
       <c r="D22" s="10"/>
@@ -7564,7 +7564,7 @@
       <c r="G22" s="11"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="77"/>
+      <c r="A23" s="79"/>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
       <c r="D23" s="10"/>
@@ -7573,7 +7573,7 @@
       <c r="G23" s="11"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="77"/>
+      <c r="A24" s="79"/>
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
       <c r="D24" s="10"/>
@@ -7582,7 +7582,7 @@
       <c r="G24" s="11"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="77"/>
+      <c r="A25" s="79"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
       <c r="D25" s="10"/>
@@ -7591,7 +7591,7 @@
       <c r="G25" s="11"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="78"/>
+      <c r="A26" s="80"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
       <c r="D26" s="10"/>
@@ -7600,7 +7600,7 @@
       <c r="G26" s="11"/>
     </row>
     <row r="27" spans="1:7" ht="14.25">
-      <c r="A27" s="76"/>
+      <c r="A27" s="78"/>
       <c r="B27" s="12"/>
       <c r="C27" s="15"/>
       <c r="D27" s="14"/>
@@ -7609,7 +7609,7 @@
       <c r="G27" s="12"/>
     </row>
     <row r="28" spans="1:7" ht="14.25">
-      <c r="A28" s="77"/>
+      <c r="A28" s="79"/>
       <c r="B28" s="9"/>
       <c r="C28" s="15"/>
       <c r="D28" s="14"/>
@@ -7618,7 +7618,7 @@
       <c r="G28" s="9"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="77"/>
+      <c r="A29" s="79"/>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
       <c r="D29" s="10"/>
@@ -7627,7 +7627,7 @@
       <c r="G29" s="11"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="77"/>
+      <c r="A30" s="79"/>
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
       <c r="D30" s="10"/>
@@ -7636,7 +7636,7 @@
       <c r="G30" s="11"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="77"/>
+      <c r="A31" s="79"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
       <c r="D31" s="10"/>
@@ -7645,7 +7645,7 @@
       <c r="G31" s="11"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="77"/>
+      <c r="A32" s="79"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
       <c r="D32" s="10"/>
@@ -7654,7 +7654,7 @@
       <c r="G32" s="11"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="77"/>
+      <c r="A33" s="79"/>
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
       <c r="D33" s="10"/>
@@ -7663,7 +7663,7 @@
       <c r="G33" s="11"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="77"/>
+      <c r="A34" s="79"/>
       <c r="B34" s="9"/>
       <c r="C34" s="9"/>
       <c r="D34" s="10"/>
@@ -7672,7 +7672,7 @@
       <c r="G34" s="11"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="77"/>
+      <c r="A35" s="79"/>
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
       <c r="D35" s="10"/>
@@ -7681,7 +7681,7 @@
       <c r="G35" s="11"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="77"/>
+      <c r="A36" s="79"/>
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
       <c r="D36" s="10"/>
@@ -7690,7 +7690,7 @@
       <c r="G36" s="11"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="77"/>
+      <c r="A37" s="79"/>
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
       <c r="D37" s="10"/>
@@ -7699,7 +7699,7 @@
       <c r="G37" s="11"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="77"/>
+      <c r="A38" s="79"/>
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
       <c r="D38" s="10"/>
@@ -7708,7 +7708,7 @@
       <c r="G38" s="11"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="77"/>
+      <c r="A39" s="79"/>
       <c r="B39" s="11"/>
       <c r="C39" s="11"/>
       <c r="D39" s="10"/>
@@ -7717,7 +7717,7 @@
       <c r="G39" s="11"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="77"/>
+      <c r="A40" s="79"/>
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
       <c r="D40" s="10"/>
@@ -7726,7 +7726,7 @@
       <c r="G40" s="11"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="78"/>
+      <c r="A41" s="80"/>
       <c r="B41" s="11"/>
       <c r="C41" s="11"/>
       <c r="D41" s="10"/>
@@ -7735,7 +7735,7 @@
       <c r="G41" s="11"/>
     </row>
     <row r="42" spans="1:7" ht="14.25">
-      <c r="A42" s="76"/>
+      <c r="A42" s="78"/>
       <c r="B42" s="9"/>
       <c r="C42" s="15"/>
       <c r="D42" s="14"/>
@@ -7744,7 +7744,7 @@
       <c r="G42" s="9"/>
     </row>
     <row r="43" spans="1:7" ht="14.25">
-      <c r="A43" s="77"/>
+      <c r="A43" s="79"/>
       <c r="B43" s="9"/>
       <c r="C43" s="16"/>
       <c r="D43" s="14"/>
@@ -7753,7 +7753,7 @@
       <c r="G43" s="4"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="77"/>
+      <c r="A44" s="79"/>
       <c r="B44" s="9"/>
       <c r="C44" s="9"/>
       <c r="D44" s="10"/>
@@ -7762,7 +7762,7 @@
       <c r="G44" s="11"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="77"/>
+      <c r="A45" s="79"/>
       <c r="B45" s="9"/>
       <c r="C45" s="9"/>
       <c r="D45" s="10"/>
@@ -7771,7 +7771,7 @@
       <c r="G45" s="11"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="77"/>
+      <c r="A46" s="79"/>
       <c r="B46" s="9"/>
       <c r="C46" s="9"/>
       <c r="D46" s="10"/>
@@ -7780,7 +7780,7 @@
       <c r="G46" s="11"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="77"/>
+      <c r="A47" s="79"/>
       <c r="B47" s="9"/>
       <c r="C47" s="9"/>
       <c r="D47" s="10"/>
@@ -7789,7 +7789,7 @@
       <c r="G47" s="11"/>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="77"/>
+      <c r="A48" s="79"/>
       <c r="B48" s="9"/>
       <c r="C48" s="9"/>
       <c r="D48" s="10"/>
@@ -7798,7 +7798,7 @@
       <c r="G48" s="11"/>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="77"/>
+      <c r="A49" s="79"/>
       <c r="B49" s="9"/>
       <c r="C49" s="9"/>
       <c r="D49" s="10"/>
@@ -7807,7 +7807,7 @@
       <c r="G49" s="11"/>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="77"/>
+      <c r="A50" s="79"/>
       <c r="B50" s="11"/>
       <c r="C50" s="11"/>
       <c r="D50" s="10"/>
@@ -7816,7 +7816,7 @@
       <c r="G50" s="11"/>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="77"/>
+      <c r="A51" s="79"/>
       <c r="B51" s="11"/>
       <c r="C51" s="11"/>
       <c r="D51" s="10"/>
@@ -7825,7 +7825,7 @@
       <c r="G51" s="11"/>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="77"/>
+      <c r="A52" s="79"/>
       <c r="B52" s="11"/>
       <c r="C52" s="11"/>
       <c r="D52" s="10"/>
@@ -7834,7 +7834,7 @@
       <c r="G52" s="11"/>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="77"/>
+      <c r="A53" s="79"/>
       <c r="B53" s="11"/>
       <c r="C53" s="11"/>
       <c r="D53" s="10"/>
@@ -7843,7 +7843,7 @@
       <c r="G53" s="11"/>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="77"/>
+      <c r="A54" s="79"/>
       <c r="B54" s="11"/>
       <c r="C54" s="11"/>
       <c r="D54" s="10"/>
@@ -7852,7 +7852,7 @@
       <c r="G54" s="11"/>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="77"/>
+      <c r="A55" s="79"/>
       <c r="B55" s="11"/>
       <c r="C55" s="11"/>
       <c r="D55" s="10"/>
@@ -7861,7 +7861,7 @@
       <c r="G55" s="11"/>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="78"/>
+      <c r="A56" s="80"/>
       <c r="B56" s="9"/>
       <c r="C56" s="9"/>
       <c r="D56" s="10"/>
@@ -7870,7 +7870,7 @@
       <c r="G56" s="11"/>
     </row>
     <row r="57" spans="1:7" ht="14.25">
-      <c r="A57" s="76"/>
+      <c r="A57" s="78"/>
       <c r="B57" s="9"/>
       <c r="C57" s="15"/>
       <c r="D57" s="14"/>
@@ -7879,7 +7879,7 @@
       <c r="G57" s="9"/>
     </row>
     <row r="58" spans="1:7" ht="14.25">
-      <c r="A58" s="77"/>
+      <c r="A58" s="79"/>
       <c r="B58" s="9"/>
       <c r="C58" s="16"/>
       <c r="D58" s="14"/>
@@ -7888,7 +7888,7 @@
       <c r="G58" s="4"/>
     </row>
     <row r="59" spans="1:7" ht="14.25">
-      <c r="A59" s="77"/>
+      <c r="A59" s="79"/>
       <c r="B59" s="9"/>
       <c r="C59" s="16"/>
       <c r="D59" s="14"/>
@@ -7897,7 +7897,7 @@
       <c r="G59" s="4"/>
     </row>
     <row r="60" spans="1:7" ht="14.25">
-      <c r="A60" s="77"/>
+      <c r="A60" s="79"/>
       <c r="B60" s="9"/>
       <c r="C60" s="16"/>
       <c r="D60" s="14"/>
@@ -7906,7 +7906,7 @@
       <c r="G60" s="17"/>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="77"/>
+      <c r="A61" s="79"/>
       <c r="B61" s="9"/>
       <c r="C61" s="9"/>
       <c r="D61" s="10"/>
@@ -7915,7 +7915,7 @@
       <c r="G61" s="11"/>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" s="77"/>
+      <c r="A62" s="79"/>
       <c r="B62" s="9"/>
       <c r="C62" s="9"/>
       <c r="D62" s="10"/>
@@ -7924,7 +7924,7 @@
       <c r="G62" s="11"/>
     </row>
     <row r="63" spans="1:7">
-      <c r="A63" s="77"/>
+      <c r="A63" s="79"/>
       <c r="B63" s="9"/>
       <c r="C63" s="9"/>
       <c r="D63" s="10"/>
@@ -7933,7 +7933,7 @@
       <c r="G63" s="11"/>
     </row>
     <row r="64" spans="1:7">
-      <c r="A64" s="77"/>
+      <c r="A64" s="79"/>
       <c r="B64" s="9"/>
       <c r="C64" s="9"/>
       <c r="D64" s="10"/>
@@ -7942,7 +7942,7 @@
       <c r="G64" s="11"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="77"/>
+      <c r="A65" s="79"/>
       <c r="B65" s="9"/>
       <c r="C65" s="9"/>
       <c r="D65" s="10"/>
@@ -7951,7 +7951,7 @@
       <c r="G65" s="11"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="77"/>
+      <c r="A66" s="79"/>
       <c r="B66" s="9"/>
       <c r="C66" s="9"/>
       <c r="D66" s="10"/>
@@ -7960,7 +7960,7 @@
       <c r="G66" s="11"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="77"/>
+      <c r="A67" s="79"/>
       <c r="B67" s="9"/>
       <c r="C67" s="9"/>
       <c r="D67" s="10"/>
@@ -7969,7 +7969,7 @@
       <c r="G67" s="11"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="78"/>
+      <c r="A68" s="80"/>
       <c r="B68" s="9"/>
       <c r="C68" s="9"/>
       <c r="D68" s="10"/>
@@ -7978,7 +7978,7 @@
       <c r="G68" s="11"/>
     </row>
     <row r="69" spans="1:7" ht="14.25">
-      <c r="A69" s="76"/>
+      <c r="A69" s="78"/>
       <c r="B69" s="9"/>
       <c r="C69" s="15"/>
       <c r="D69" s="14"/>
@@ -7987,7 +7987,7 @@
       <c r="G69" s="9"/>
     </row>
     <row r="70" spans="1:7" ht="14.25">
-      <c r="A70" s="77"/>
+      <c r="A70" s="79"/>
       <c r="B70" s="9"/>
       <c r="C70" s="16"/>
       <c r="D70" s="14"/>
@@ -7996,7 +7996,7 @@
       <c r="G70" s="4"/>
     </row>
     <row r="71" spans="1:7" ht="14.25">
-      <c r="A71" s="77"/>
+      <c r="A71" s="79"/>
       <c r="B71" s="9"/>
       <c r="C71" s="16"/>
       <c r="D71" s="14"/>
@@ -8005,7 +8005,7 @@
       <c r="G71" s="4"/>
     </row>
     <row r="72" spans="1:7" ht="14.25">
-      <c r="A72" s="77"/>
+      <c r="A72" s="79"/>
       <c r="B72" s="9"/>
       <c r="C72" s="16"/>
       <c r="D72" s="14"/>
@@ -8014,7 +8014,7 @@
       <c r="G72" s="17"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="77"/>
+      <c r="A73" s="79"/>
       <c r="B73" s="9"/>
       <c r="C73" s="9"/>
       <c r="D73" s="10"/>
@@ -8023,7 +8023,7 @@
       <c r="G73" s="11"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="77"/>
+      <c r="A74" s="79"/>
       <c r="B74" s="9"/>
       <c r="C74" s="9"/>
       <c r="D74" s="10"/>
@@ -8032,7 +8032,7 @@
       <c r="G74" s="11"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="77"/>
+      <c r="A75" s="79"/>
       <c r="B75" s="9"/>
       <c r="C75" s="9"/>
       <c r="D75" s="10"/>
@@ -8041,7 +8041,7 @@
       <c r="G75" s="11"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="77"/>
+      <c r="A76" s="79"/>
       <c r="B76" s="9"/>
       <c r="C76" s="9"/>
       <c r="D76" s="10"/>
@@ -8050,7 +8050,7 @@
       <c r="G76" s="11"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="77"/>
+      <c r="A77" s="79"/>
       <c r="B77" s="9"/>
       <c r="C77" s="9"/>
       <c r="D77" s="10"/>
@@ -8059,7 +8059,7 @@
       <c r="G77" s="11"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="77"/>
+      <c r="A78" s="79"/>
       <c r="B78" s="9"/>
       <c r="C78" s="9"/>
       <c r="D78" s="10"/>
@@ -8068,7 +8068,7 @@
       <c r="G78" s="11"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="77"/>
+      <c r="A79" s="79"/>
       <c r="B79" s="9"/>
       <c r="C79" s="9"/>
       <c r="D79" s="10"/>
@@ -8077,7 +8077,7 @@
       <c r="G79" s="11"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="78"/>
+      <c r="A80" s="80"/>
       <c r="B80" s="9"/>
       <c r="C80" s="9"/>
       <c r="D80" s="10"/>
@@ -8086,7 +8086,7 @@
       <c r="G80" s="11"/>
     </row>
     <row r="81" spans="1:7" ht="14.25">
-      <c r="A81" s="77"/>
+      <c r="A81" s="79"/>
       <c r="B81" s="9"/>
       <c r="C81" s="16"/>
       <c r="D81" s="14"/>
@@ -8095,7 +8095,7 @@
       <c r="G81" s="4"/>
     </row>
     <row r="82" spans="1:7" ht="14.25">
-      <c r="A82" s="77"/>
+      <c r="A82" s="79"/>
       <c r="B82" s="9"/>
       <c r="C82" s="16"/>
       <c r="D82" s="14"/>
@@ -8104,7 +8104,7 @@
       <c r="G82" s="17"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="77"/>
+      <c r="A83" s="79"/>
       <c r="B83" s="9"/>
       <c r="C83" s="9"/>
       <c r="D83" s="10"/>
@@ -8113,7 +8113,7 @@
       <c r="G83" s="11"/>
     </row>
     <row r="84" spans="1:7">
-      <c r="A84" s="77"/>
+      <c r="A84" s="79"/>
       <c r="B84" s="9"/>
       <c r="C84" s="9"/>
       <c r="D84" s="10"/>
@@ -8122,7 +8122,7 @@
       <c r="G84" s="11"/>
     </row>
     <row r="85" spans="1:7">
-      <c r="A85" s="77"/>
+      <c r="A85" s="79"/>
       <c r="B85" s="9"/>
       <c r="C85" s="9"/>
       <c r="D85" s="10"/>
@@ -8131,7 +8131,7 @@
       <c r="G85" s="11"/>
     </row>
     <row r="86" spans="1:7">
-      <c r="A86" s="77"/>
+      <c r="A86" s="79"/>
       <c r="B86" s="9"/>
       <c r="C86" s="9"/>
       <c r="D86" s="10"/>
@@ -8140,7 +8140,7 @@
       <c r="G86" s="11"/>
     </row>
     <row r="87" spans="1:7">
-      <c r="A87" s="77"/>
+      <c r="A87" s="79"/>
       <c r="B87" s="9"/>
       <c r="C87" s="9"/>
       <c r="D87" s="10"/>
@@ -8149,7 +8149,7 @@
       <c r="G87" s="11"/>
     </row>
     <row r="88" spans="1:7">
-      <c r="A88" s="77"/>
+      <c r="A88" s="79"/>
       <c r="B88" s="9"/>
       <c r="C88" s="9"/>
       <c r="D88" s="10"/>
@@ -8158,7 +8158,7 @@
       <c r="G88" s="11"/>
     </row>
     <row r="89" spans="1:7">
-      <c r="A89" s="77"/>
+      <c r="A89" s="79"/>
       <c r="B89" s="9"/>
       <c r="C89" s="9"/>
       <c r="D89" s="10"/>
@@ -8167,7 +8167,7 @@
       <c r="G89" s="11"/>
     </row>
     <row r="90" spans="1:7">
-      <c r="A90" s="78"/>
+      <c r="A90" s="80"/>
       <c r="B90" s="9"/>
       <c r="C90" s="9"/>
       <c r="D90" s="10"/>

--- a/周数据/《个人上线率统计表》-黄纯伟.xlsx
+++ b/周数据/《个人上线率统计表》-黄纯伟.xlsx
@@ -12,12 +12,12 @@
     <sheet name="未上线项目明细" sheetId="3" r:id="rId3"/>
     <sheet name="加班明细" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519" concurrentCalc="0"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="111">
   <si>
     <t>个人上线率分析表</t>
   </si>
@@ -198,168 +198,211 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
+    <t>沽涷明州里店</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017.9.10</t>
+  </si>
+  <si>
+    <t>加班地点/商户名称</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>实施</t>
+  </si>
+  <si>
+    <t>2017.9.23</t>
+  </si>
+  <si>
+    <t>南京/一门忠辣</t>
+  </si>
+  <si>
+    <t>2017.10.1</t>
+  </si>
+  <si>
+    <t>常州/小青森（常州江南环球港店）</t>
+  </si>
+  <si>
+    <t>售后</t>
+  </si>
+  <si>
+    <t>2017.10.5</t>
+  </si>
+  <si>
+    <t>南京/南京潮牛餐饮管理有限公司</t>
+  </si>
+  <si>
+    <t>2017.11.11</t>
+  </si>
+  <si>
+    <t>南京/鸭得堡（天赋广场店）</t>
+  </si>
+  <si>
+    <t>2017.12.10</t>
+  </si>
+  <si>
+    <t>南京/鸭得堡（无锡店）</t>
+  </si>
+  <si>
+    <t>南京/虞家锅盔（三阳广场店）</t>
+  </si>
+  <si>
+    <t>单店</t>
+  </si>
+  <si>
+    <t>沽涷泰兴店</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>驻店</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>至善天玺餐饮管理有限公司</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>沽涷</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>房总</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>负责人</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>库存</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>天翼源餐饮管理</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>天翼源</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>汪家味私房菜</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>南京</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>汪传宏</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>老板</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>025-86807279</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>泰兴</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>成都</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>沽涷成都店</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>南京</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>老魏生煎</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>肖如梦</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>已到店实施，商户未开业</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>常州</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>沽涷吾悦国际店</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>南京</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>怒烤烤串（台州椒江耀达店）</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
     <t>沽涷车轿街店</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>沽涷明州里店</t>
+    <t>宁波</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>2017.9.10</t>
-  </si>
-  <si>
-    <t>加班地点/商户名称</t>
+    <t>李漂娜</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>实施</t>
-  </si>
-  <si>
-    <t>2017.9.23</t>
-  </si>
-  <si>
-    <t>南京/一门忠辣</t>
-  </si>
-  <si>
-    <t>2017.10.1</t>
-  </si>
-  <si>
-    <t>常州/小青森（常州江南环球港店）</t>
-  </si>
-  <si>
-    <t>售后</t>
-  </si>
-  <si>
-    <t>2017.10.5</t>
-  </si>
-  <si>
-    <t>南京/南京潮牛餐饮管理有限公司</t>
-  </si>
-  <si>
-    <t>2017.11.11</t>
-  </si>
-  <si>
-    <t>南京/鸭得堡（天赋广场店）</t>
-  </si>
-  <si>
-    <t>2017.12.10</t>
-  </si>
-  <si>
-    <t>南京/鸭得堡（无锡店）</t>
-  </si>
-  <si>
-    <t>南京/虞家锅盔（三阳广场店）</t>
-  </si>
-  <si>
-    <t>单店</t>
-  </si>
-  <si>
-    <t>武耀</t>
+    <t>巴适满堂美蛙鱼头火锅</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>沽涷泰兴店</t>
+    <t>宜兴</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>宜兴鱼头火锅</t>
+    <t>邵总</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>驻店</t>
+    <t>老板娘</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>至善天玺餐饮管理有限公司</t>
+    <t>新品牌</t>
+  </si>
+  <si>
+    <t>怒烤烤串（南京云锦路店）</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>沽涷</t>
+    <t>沽涷无锡茂业店</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>房总</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>负责人</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>库存</t>
+    <t>沽涷无锡苏宁店</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>天翼源餐饮管理</t>
+    <t>沽凍无锡宝龙店</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>天翼源</t>
+    <t>跟商户约时间远程实施</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>汪家味私房菜</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>南京</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>汪传宏</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>老板</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>025-86807279</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>泰兴</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>成都</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>沽涷成都店</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>南京</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>老魏生煎</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>肖如梦</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>已到店实施，商户未开业</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>常州</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>沽涷吾悦国际店</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>南京</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>怒烤烤串（台州椒江耀达店）</t>
+    <t>商户没开业，跟商户约时间实施</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -530,7 +573,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="30">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -701,21 +744,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color auto="1"/>
@@ -742,30 +770,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color auto="1"/>
@@ -774,32 +778,6 @@
         <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -907,7 +885,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color auto="1"/>
       </left>
       <right style="medium">
@@ -916,7 +894,119 @@
       <top style="thin">
         <color auto="1"/>
       </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -925,7 +1015,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -998,10 +1088,7 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1013,13 +1100,10 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1031,25 +1115,22 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1064,31 +1145,31 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="8" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="8" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="9" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="8" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="8" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="9" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="9" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
@@ -1106,7 +1187,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1115,7 +1196,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1131,14 +1212,8 @@
     <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1149,19 +1224,7 @@
     <xf numFmtId="9" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1170,17 +1233,68 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="8" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="9" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1454,10 +1568,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
@@ -1476,538 +1590,506 @@
     <col min="13" max="13" width="18.625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="14.25">
-      <c r="A1" s="72" t="s">
+    <row r="1" spans="1:13" ht="15" thickBot="1">
+      <c r="A1" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="73"/>
-      <c r="L1" s="73"/>
-      <c r="M1" s="75"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="70"/>
     </row>
     <row r="2" spans="1:13" ht="14.25" thickBot="1">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="D2" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="28" t="s">
+      <c r="F2" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="28" t="s">
+      <c r="G2" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="29" t="s">
+      <c r="H2" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="40" t="s">
+      <c r="I2" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="41" t="s">
+      <c r="J2" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="42" t="s">
+      <c r="K2" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="43" t="s">
+      <c r="L2" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="44" t="s">
+      <c r="M2" s="41" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="78">
+      <c r="A3" s="83">
         <v>12</v>
       </c>
-      <c r="B3" s="30">
+      <c r="B3" s="87">
         <v>50</v>
       </c>
-      <c r="C3" s="31">
+      <c r="C3" s="29">
         <v>3</v>
       </c>
-      <c r="D3" s="32">
+      <c r="D3" s="30">
         <v>2</v>
       </c>
-      <c r="E3" s="32">
+      <c r="E3" s="30">
         <f>C3-D3</f>
         <v>1</v>
       </c>
-      <c r="F3" s="33"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="33">
+      <c r="F3" s="31"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="31">
         <f>F3-G3</f>
         <v>0</v>
       </c>
-      <c r="I3" s="45"/>
-      <c r="J3" s="46">
+      <c r="I3" s="42"/>
+      <c r="J3" s="43">
         <f>I3/L3*100%</f>
         <v>0</v>
       </c>
-      <c r="K3" s="47">
+      <c r="K3" s="44">
         <f>C3+G3</f>
         <v>3</v>
       </c>
-      <c r="L3" s="48">
+      <c r="L3" s="45">
         <f>D3+G3</f>
         <v>2</v>
       </c>
-      <c r="M3" s="49">
+      <c r="M3" s="46">
         <f>L3/K3*100%</f>
         <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="79"/>
-      <c r="B4" s="30">
+      <c r="A4" s="84"/>
+      <c r="B4" s="88">
         <v>51</v>
       </c>
-      <c r="C4" s="31">
+      <c r="C4" s="29">
         <v>3</v>
       </c>
-      <c r="D4" s="32">
+      <c r="D4" s="30">
         <v>0</v>
       </c>
-      <c r="E4" s="32">
+      <c r="E4" s="30">
         <f>C4-D4</f>
         <v>3</v>
       </c>
-      <c r="F4" s="33"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="33">
+      <c r="F4" s="31"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="31">
         <f t="shared" ref="H4:H8" si="0">F4-G4</f>
         <v>0</v>
       </c>
-      <c r="I4" s="45"/>
-      <c r="J4" s="46" t="e">
+      <c r="I4" s="42"/>
+      <c r="J4" s="43" t="e">
         <f>I4/L4*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K4" s="47">
+      <c r="K4" s="44">
         <f t="shared" ref="K4:K8" si="1">C4+G4</f>
         <v>3</v>
       </c>
-      <c r="L4" s="48">
+      <c r="L4" s="45">
         <f t="shared" ref="L4:L8" si="2">D4+G4</f>
         <v>0</v>
       </c>
-      <c r="M4" s="49">
+      <c r="M4" s="46">
         <f t="shared" ref="M4:M8" si="3">L4/K4*100%</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="79"/>
-      <c r="B5" s="30">
+      <c r="A5" s="84"/>
+      <c r="B5" s="88">
         <v>52</v>
       </c>
-      <c r="C5" s="31">
+      <c r="C5" s="29">
         <v>2</v>
       </c>
-      <c r="D5" s="32">
+      <c r="D5" s="30">
         <v>1</v>
       </c>
-      <c r="E5" s="32">
+      <c r="E5" s="30">
         <f t="shared" ref="E5:E8" si="4">C5-D5</f>
         <v>1</v>
       </c>
-      <c r="F5" s="33"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="33">
+      <c r="F5" s="31"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I5" s="45">
+      <c r="I5" s="42">
         <v>1</v>
       </c>
-      <c r="J5" s="46">
+      <c r="J5" s="43">
         <f t="shared" ref="J5:J8" si="5">I5/L5*100%</f>
         <v>1</v>
       </c>
-      <c r="K5" s="47">
+      <c r="K5" s="44">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="L5" s="48">
+      <c r="L5" s="45">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="M5" s="49">
+      <c r="M5" s="46">
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="69">
+      <c r="A6" s="91">
         <v>1</v>
       </c>
-      <c r="B6" s="30">
+      <c r="B6" s="88">
         <v>1</v>
       </c>
-      <c r="C6" s="31">
-        <v>1</v>
-      </c>
-      <c r="D6" s="32">
+      <c r="C6" s="29">
+        <v>2</v>
+      </c>
+      <c r="D6" s="30">
         <v>0</v>
       </c>
-      <c r="E6" s="32">
+      <c r="E6" s="30">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="F6" s="33"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="33">
+        <v>2</v>
+      </c>
+      <c r="F6" s="31"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I6" s="45">
+      <c r="I6" s="42">
         <v>2</v>
       </c>
-      <c r="J6" s="46" t="e">
+      <c r="J6" s="43" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K6" s="47">
+      <c r="K6" s="44">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L6" s="48">
+        <v>2</v>
+      </c>
+      <c r="L6" s="45">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M6" s="49">
+      <c r="M6" s="46">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="70"/>
-      <c r="B7" s="30"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32">
+      <c r="A7" s="92"/>
+      <c r="B7" s="88">
+        <v>2</v>
+      </c>
+      <c r="C7" s="29">
+        <v>4</v>
+      </c>
+      <c r="D7" s="30">
+        <v>2</v>
+      </c>
+      <c r="E7" s="30">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="F7" s="31"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I7" s="42">
+        <v>1</v>
+      </c>
+      <c r="J7" s="43">
+        <f t="shared" si="5"/>
+        <v>0.5</v>
+      </c>
+      <c r="K7" s="44">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="L7" s="45">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="M7" s="46">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="93"/>
+      <c r="B8" s="88"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F7" s="33"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="33">
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I7" s="45"/>
-      <c r="J7" s="46" t="e">
+      <c r="I8" s="42"/>
+      <c r="J8" s="78" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K7" s="47">
+      <c r="K8" s="79">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L7" s="48">
+      <c r="L8" s="80">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M7" s="49" t="e">
+      <c r="M8" s="81" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="14.25" thickBot="1">
-      <c r="A8" s="71"/>
-      <c r="B8" s="35"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37">
-        <f t="shared" si="4"/>
+    <row r="9" spans="1:13">
+      <c r="A9" s="85"/>
+      <c r="B9" s="89"/>
+      <c r="C9" s="75"/>
+      <c r="D9" s="76"/>
+      <c r="E9" s="76">
+        <f t="shared" ref="E9:E14" si="6">C9-D9</f>
         <v>0</v>
       </c>
-      <c r="F8" s="38"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="38">
-        <f t="shared" si="0"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32">
+        <f>F9-G9</f>
         <v>0</v>
       </c>
-      <c r="I8" s="50"/>
-      <c r="J8" s="51" t="e">
-        <f t="shared" si="5"/>
+      <c r="I9" s="77"/>
+      <c r="J9" s="43" t="e">
+        <f>I9/L9*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K8" s="52">
-        <f t="shared" si="1"/>
+      <c r="K9" s="44">
+        <f>C9+G9</f>
         <v>0</v>
       </c>
-      <c r="L8" s="53">
-        <f t="shared" si="2"/>
+      <c r="L9" s="45">
+        <f>D9+G9</f>
         <v>0</v>
       </c>
-      <c r="M8" s="54" t="e">
-        <f t="shared" si="3"/>
+      <c r="M9" s="46" t="e">
+        <f>L9/K9*100%</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="14.25" thickBot="1">
-      <c r="A9" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="F9" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="G9" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="H9" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="I9" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="J9" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="K9" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="L9" s="43" t="s">
-        <v>12</v>
-      </c>
-      <c r="M9" s="44" t="s">
-        <v>13</v>
-      </c>
-    </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="76"/>
-      <c r="B10" s="30"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32">
-        <f t="shared" ref="E10:E15" si="6">C10-D10</f>
+      <c r="A10" s="85"/>
+      <c r="B10" s="88"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F10" s="33"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="33">
-        <f>F10-G10</f>
+      <c r="F10" s="31"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="31">
+        <f t="shared" ref="H10:H14" si="7">F10-G10</f>
         <v>0</v>
       </c>
-      <c r="I10" s="45"/>
-      <c r="J10" s="46" t="e">
+      <c r="I10" s="42"/>
+      <c r="J10" s="43" t="e">
         <f>I10/L10*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K10" s="47">
-        <f>C10+G10</f>
+      <c r="K10" s="44">
+        <f t="shared" ref="K10:K14" si="8">C10+G10</f>
         <v>0</v>
       </c>
-      <c r="L10" s="48">
-        <f>D10+G10</f>
+      <c r="L10" s="45">
+        <f t="shared" ref="L10:L14" si="9">D10+G10</f>
         <v>0</v>
       </c>
-      <c r="M10" s="49" t="e">
-        <f>L10/K10*100%</f>
+      <c r="M10" s="46" t="e">
+        <f t="shared" ref="M10:M14" si="10">L10/K10*100%</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="76"/>
-      <c r="B11" s="30"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32">
+      <c r="A11" s="85"/>
+      <c r="B11" s="88"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F11" s="33"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="33">
-        <f t="shared" ref="H11:H15" si="7">F11-G11</f>
+      <c r="F11" s="31"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="31">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I11" s="45"/>
-      <c r="J11" s="46" t="e">
-        <f>I11/L11*100%</f>
+      <c r="I11" s="42"/>
+      <c r="J11" s="43" t="e">
+        <f t="shared" ref="J11:J14" si="11">I11/L11*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K11" s="47">
-        <f t="shared" ref="K11:K15" si="8">C11+G11</f>
+      <c r="K11" s="44">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="L11" s="48">
-        <f t="shared" ref="L11:L15" si="9">D11+G11</f>
+      <c r="L11" s="45">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="M11" s="49" t="e">
-        <f t="shared" ref="M11:M15" si="10">L11/K11*100%</f>
+      <c r="M11" s="46" t="e">
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="76"/>
-      <c r="B12" s="30"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32">
+      <c r="A12" s="85"/>
+      <c r="B12" s="88"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F12" s="33"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="33">
+      <c r="F12" s="31"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="31">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I12" s="45"/>
-      <c r="J12" s="46" t="e">
-        <f t="shared" ref="J12:J15" si="11">I12/L12*100%</f>
+      <c r="I12" s="42"/>
+      <c r="J12" s="43" t="e">
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K12" s="47">
+      <c r="K12" s="44">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="L12" s="48">
+      <c r="L12" s="45">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="M12" s="49" t="e">
+      <c r="M12" s="46" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="76"/>
-      <c r="B13" s="30"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32">
+      <c r="A13" s="85"/>
+      <c r="B13" s="88"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F13" s="33"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="33">
+      <c r="F13" s="31"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="31">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I13" s="45"/>
-      <c r="J13" s="46" t="e">
+      <c r="I13" s="42"/>
+      <c r="J13" s="43" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K13" s="47">
+      <c r="K13" s="44">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="L13" s="48">
+      <c r="L13" s="45">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="M13" s="49" t="e">
+      <c r="M13" s="46" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
-      <c r="A14" s="76"/>
-      <c r="B14" s="30"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32">
+    <row r="14" spans="1:13" ht="14.25" thickBot="1">
+      <c r="A14" s="86"/>
+      <c r="B14" s="90"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F14" s="33"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="33">
+      <c r="F14" s="35"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="35">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I14" s="45"/>
-      <c r="J14" s="46" t="e">
+      <c r="I14" s="47"/>
+      <c r="J14" s="48" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K14" s="47">
+      <c r="K14" s="49">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="L14" s="48">
+      <c r="L14" s="50">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="M14" s="49" t="e">
+      <c r="M14" s="51" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="14.25" thickBot="1">
-      <c r="A15" s="77"/>
-      <c r="B15" s="35"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="37">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F15" s="38"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="38">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I15" s="50"/>
-      <c r="J15" s="51" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K15" s="52">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="L15" s="53">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="M15" s="54" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A1:M1"/>
-    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="A9:A14"/>
     <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A6:A7"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
@@ -2028,10 +2110,10 @@
     <col min="1" max="2" width="12.875" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
     <col min="4" max="4" width="23.25" customWidth="1"/>
-    <col min="5" max="5" width="15.75" customWidth="1"/>
+    <col min="5" max="5" width="21.375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.75" customWidth="1"/>
     <col min="7" max="7" width="10.25" customWidth="1"/>
-    <col min="8" max="8" width="17.125" customWidth="1"/>
+    <col min="8" max="8" width="21.375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.875" customWidth="1"/>
     <col min="10" max="10" width="13.875" customWidth="1"/>
     <col min="11" max="11" width="18" customWidth="1"/>
@@ -2086,43 +2168,43 @@
       </c>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="80">
+      <c r="A2" s="71">
         <v>51</v>
       </c>
-      <c r="B2" s="67">
+      <c r="B2" s="64">
         <v>43085</v>
       </c>
-      <c r="C2" s="55" t="s">
+      <c r="C2" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="55" t="s">
+      <c r="D2" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="55" t="s">
+      <c r="E2" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="F2" s="55" t="s">
+      <c r="F2" s="52" t="s">
         <v>41</v>
       </c>
       <c r="G2" s="1">
         <v>76115600</v>
       </c>
-      <c r="H2" s="55" t="s">
+      <c r="H2" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="I2" s="55" t="s">
+      <c r="I2" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="J2" s="55" t="s">
+      <c r="J2" s="52" t="s">
         <v>44</v>
       </c>
       <c r="K2" s="1">
         <v>17602558329</v>
       </c>
-      <c r="L2" s="55" t="s">
+      <c r="L2" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="M2" s="55" t="s">
+      <c r="M2" s="52" t="s">
         <v>46</v>
       </c>
       <c r="N2" s="1">
@@ -2133,41 +2215,41 @@
       </c>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="81"/>
-      <c r="B3" s="67">
+      <c r="A3" s="72"/>
+      <c r="B3" s="64">
         <v>43085</v>
       </c>
-      <c r="C3" s="55" t="s">
+      <c r="C3" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="55" t="s">
+      <c r="D3" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="55" t="s">
+      <c r="E3" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="55" t="s">
+      <c r="F3" s="52" t="s">
         <v>48</v>
       </c>
       <c r="G3" s="1">
         <v>76116311</v>
       </c>
-      <c r="H3" s="55" t="s">
+      <c r="H3" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="I3" s="55" t="s">
+      <c r="I3" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="J3" s="55" t="s">
+      <c r="J3" s="52" t="s">
         <v>44</v>
       </c>
       <c r="K3" s="11">
         <v>17602558329</v>
       </c>
-      <c r="L3" s="55" t="s">
+      <c r="L3" s="52" t="s">
         <v>50</v>
       </c>
-      <c r="M3" s="55" t="s">
+      <c r="M3" s="52" t="s">
         <v>46</v>
       </c>
       <c r="N3" s="1">
@@ -2178,91 +2260,91 @@
       </c>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="80">
+      <c r="A4" s="71">
         <v>52</v>
       </c>
-      <c r="B4" s="67">
+      <c r="B4" s="64">
         <v>43084</v>
       </c>
-      <c r="C4" s="55" t="s">
-        <v>81</v>
-      </c>
-      <c r="D4" s="55" t="s">
+      <c r="C4" s="52" t="s">
+        <v>78</v>
+      </c>
+      <c r="D4" s="52" t="s">
+        <v>79</v>
+      </c>
+      <c r="E4" s="52" t="s">
+        <v>80</v>
+      </c>
+      <c r="F4" s="52" t="s">
         <v>82</v>
-      </c>
-      <c r="E4" s="55" t="s">
-        <v>83</v>
-      </c>
-      <c r="F4" s="55" t="s">
-        <v>85</v>
       </c>
       <c r="G4" s="11">
         <v>76101513</v>
       </c>
-      <c r="H4" s="55" t="s">
-        <v>84</v>
-      </c>
-      <c r="I4" s="55" t="s">
-        <v>85</v>
-      </c>
-      <c r="J4" s="55" t="s">
+      <c r="H4" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="I4" s="52" t="s">
+        <v>82</v>
+      </c>
+      <c r="J4" s="52" t="s">
         <v>44</v>
       </c>
       <c r="K4" s="11">
         <v>17602558329</v>
       </c>
-      <c r="L4" s="55" t="s">
-        <v>86</v>
-      </c>
-      <c r="M4" s="55" t="s">
-        <v>87</v>
-      </c>
-      <c r="N4" s="66" t="s">
-        <v>88</v>
+      <c r="L4" s="52" t="s">
+        <v>83</v>
+      </c>
+      <c r="M4" s="52" t="s">
+        <v>84</v>
+      </c>
+      <c r="N4" s="63" t="s">
+        <v>85</v>
       </c>
       <c r="O4" s="11" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="81"/>
-      <c r="B5" s="67">
+      <c r="A5" s="72"/>
+      <c r="B5" s="64">
         <v>43097</v>
       </c>
-      <c r="C5" s="55" t="s">
+      <c r="C5" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="55" t="s">
-        <v>77</v>
-      </c>
-      <c r="E5" s="55" t="s">
-        <v>78</v>
-      </c>
-      <c r="F5" s="55" t="s">
-        <v>89</v>
+      <c r="D5" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="E5" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="F5" s="52" t="s">
+        <v>86</v>
       </c>
       <c r="G5" s="1">
         <v>76119685</v>
       </c>
-      <c r="H5" s="55" t="s">
-        <v>74</v>
-      </c>
-      <c r="I5" s="55" t="s">
+      <c r="H5" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="I5" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="J5" s="55" t="s">
+      <c r="J5" s="52" t="s">
         <v>44</v>
       </c>
       <c r="K5" s="11">
         <v>17602558329</v>
       </c>
-      <c r="L5" s="65" t="s">
-        <v>79</v>
-      </c>
-      <c r="M5" s="65" t="s">
-        <v>80</v>
-      </c>
-      <c r="N5" s="65">
+      <c r="L5" s="62" t="s">
+        <v>76</v>
+      </c>
+      <c r="M5" s="62" t="s">
+        <v>77</v>
+      </c>
+      <c r="N5" s="62">
         <v>18601585219</v>
       </c>
       <c r="O5" s="11" t="s">
@@ -2270,46 +2352,46 @@
       </c>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="80">
+      <c r="A6" s="71">
         <v>1</v>
       </c>
-      <c r="B6" s="68">
+      <c r="B6" s="65">
         <v>43103</v>
       </c>
-      <c r="C6" s="55" t="s">
+      <c r="C6" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="55" t="s">
-        <v>77</v>
-      </c>
-      <c r="E6" s="55" t="s">
-        <v>78</v>
-      </c>
-      <c r="F6" s="55" t="s">
-        <v>90</v>
+      <c r="D6" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="E6" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="F6" s="52" t="s">
+        <v>87</v>
       </c>
       <c r="G6" s="1">
         <v>76119689</v>
       </c>
-      <c r="H6" s="55" t="s">
-        <v>91</v>
-      </c>
-      <c r="I6" s="55" t="s">
-        <v>92</v>
-      </c>
-      <c r="J6" s="55" t="s">
+      <c r="H6" s="52" t="s">
+        <v>88</v>
+      </c>
+      <c r="I6" s="52" t="s">
+        <v>89</v>
+      </c>
+      <c r="J6" s="52" t="s">
         <v>44</v>
       </c>
       <c r="K6" s="11">
         <v>17602558329</v>
       </c>
-      <c r="L6" s="65" t="s">
-        <v>79</v>
-      </c>
-      <c r="M6" s="65" t="s">
-        <v>80</v>
-      </c>
-      <c r="N6" s="65">
+      <c r="L6" s="62" t="s">
+        <v>76</v>
+      </c>
+      <c r="M6" s="62" t="s">
+        <v>77</v>
+      </c>
+      <c r="N6" s="62">
         <v>18601585219</v>
       </c>
       <c r="O6" s="11" t="s">
@@ -2317,44 +2399,44 @@
       </c>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="81"/>
-      <c r="B7" s="68">
+      <c r="A7" s="72"/>
+      <c r="B7" s="65">
         <v>43103</v>
       </c>
-      <c r="C7" s="55" t="s">
+      <c r="C7" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="55" t="s">
-        <v>77</v>
-      </c>
-      <c r="E7" s="55" t="s">
-        <v>78</v>
-      </c>
-      <c r="F7" s="55" t="s">
-        <v>96</v>
+      <c r="D7" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="E7" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="F7" s="52" t="s">
+        <v>93</v>
       </c>
       <c r="G7" s="1">
         <v>76115775</v>
       </c>
-      <c r="H7" s="55" t="s">
-        <v>97</v>
-      </c>
-      <c r="I7" s="55" t="s">
-        <v>98</v>
-      </c>
-      <c r="J7" s="55" t="s">
+      <c r="H7" s="52" t="s">
+        <v>94</v>
+      </c>
+      <c r="I7" s="52" t="s">
+        <v>95</v>
+      </c>
+      <c r="J7" s="52" t="s">
         <v>44</v>
       </c>
       <c r="K7" s="11">
         <v>17602558329</v>
       </c>
-      <c r="L7" s="65" t="s">
-        <v>79</v>
-      </c>
-      <c r="M7" s="65" t="s">
-        <v>80</v>
-      </c>
-      <c r="N7" s="65">
+      <c r="L7" s="62" t="s">
+        <v>76</v>
+      </c>
+      <c r="M7" s="62" t="s">
+        <v>77</v>
+      </c>
+      <c r="N7" s="62">
         <v>18601585219</v>
       </c>
       <c r="O7" s="11" t="s">
@@ -2362,38 +2444,96 @@
       </c>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
+      <c r="A8" s="71">
+        <v>2</v>
+      </c>
+      <c r="B8" s="65">
+        <v>43109</v>
+      </c>
+      <c r="C8" s="52" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="52" t="s">
+        <v>100</v>
+      </c>
+      <c r="E8" s="52" t="s">
+        <v>100</v>
+      </c>
+      <c r="F8" s="52" t="s">
+        <v>101</v>
+      </c>
+      <c r="G8" s="1">
+        <v>76120305</v>
+      </c>
+      <c r="H8" s="52" t="s">
+        <v>100</v>
+      </c>
+      <c r="I8" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="J8" s="52" t="s">
+        <v>44</v>
+      </c>
+      <c r="K8" s="11">
+        <v>17602558329</v>
+      </c>
+      <c r="L8" s="52" t="s">
+        <v>102</v>
+      </c>
+      <c r="M8" s="52" t="s">
+        <v>103</v>
+      </c>
+      <c r="N8" s="1">
+        <v>13921387360</v>
+      </c>
+      <c r="O8" s="11" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="9" spans="1:15">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
+      <c r="A9" s="72"/>
+      <c r="B9" s="65">
+        <v>43109</v>
+      </c>
+      <c r="C9" s="52" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="E9" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="F9" s="52" t="s">
+        <v>98</v>
+      </c>
+      <c r="G9" s="1">
+        <v>76117397</v>
+      </c>
+      <c r="H9" s="52" t="s">
+        <v>97</v>
+      </c>
+      <c r="I9" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="J9" s="52" t="s">
+        <v>44</v>
+      </c>
+      <c r="K9" s="11">
+        <v>17602558329</v>
+      </c>
+      <c r="L9" s="52" t="s">
+        <v>99</v>
+      </c>
+      <c r="M9" s="52" t="s">
+        <v>103</v>
+      </c>
+      <c r="N9" s="1">
+        <v>13567912454</v>
+      </c>
+      <c r="O9" s="11" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="1"/>
@@ -7360,10 +7500,11 @@
       <c r="O301" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <dataValidations count="2">
@@ -7381,7 +7522,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G89"/>
+  <dimension ref="A1:G87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I2" sqref="I2"/>
@@ -7422,16 +7563,16 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="83">
+      <c r="A2" s="66">
         <v>51</v>
       </c>
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="53" t="s">
         <v>55</v>
       </c>
       <c r="C2" s="16">
         <v>43080</v>
       </c>
-      <c r="D2" s="57" t="s">
+      <c r="D2" s="54" t="s">
         <v>51</v>
       </c>
       <c r="E2" s="11" t="s">
@@ -7440,19 +7581,21 @@
       <c r="F2" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="G2" s="55" t="s">
+      <c r="G2" s="52" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="85"/>
-      <c r="B3" s="56" t="s">
-        <v>56</v>
+      <c r="A3" s="66">
+        <v>52</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>96</v>
       </c>
       <c r="C3" s="16">
         <v>43080</v>
       </c>
-      <c r="D3" s="57" t="s">
+      <c r="D3" s="54" t="s">
         <v>51</v>
       </c>
       <c r="E3" s="11" t="s">
@@ -7461,97 +7604,119 @@
       <c r="F3" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="G3" s="55" t="s">
+      <c r="G3" s="52" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="84"/>
+      <c r="A4" s="73">
+        <v>1</v>
+      </c>
       <c r="B4" s="9" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="C4" s="16">
-        <v>43080</v>
-      </c>
-      <c r="D4" s="57" t="s">
-        <v>51</v>
+        <v>43102</v>
+      </c>
+      <c r="D4" s="54" t="s">
+        <v>92</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="F4" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="G4" s="55" t="s">
-        <v>54</v>
+      <c r="G4" s="52" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="4">
+      <c r="A5" s="73"/>
+      <c r="B5" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C5" s="16">
+        <v>43104</v>
+      </c>
+      <c r="D5" s="54" t="s">
+        <v>110</v>
+      </c>
+      <c r="E5" s="11" t="s">
         <v>52</v>
-      </c>
-      <c r="B5" s="56" t="s">
-        <v>75</v>
-      </c>
-      <c r="C5" s="16">
-        <v>43091</v>
-      </c>
-      <c r="D5" s="57" t="s">
-        <v>95</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>72</v>
       </c>
       <c r="F5" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="G5" s="55" t="s">
-        <v>73</v>
+      <c r="G5" s="52" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="4">
-        <v>1</v>
-      </c>
+      <c r="A6" s="73"/>
       <c r="B6" s="9" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="C6" s="16">
-        <v>43102</v>
-      </c>
-      <c r="D6" s="57" t="s">
-        <v>95</v>
+        <v>43105</v>
+      </c>
+      <c r="D6" s="54" t="s">
+        <v>109</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="F6" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="G6" s="55" t="s">
-        <v>94</v>
+      <c r="G6" s="52" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="58"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
+      <c r="A7" s="73"/>
+      <c r="B7" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C7" s="16">
+        <v>43105</v>
+      </c>
+      <c r="D7" s="54" t="s">
+        <v>109</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="G7" s="52" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="58"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
+      <c r="A8" s="73"/>
+      <c r="B8" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="C8" s="16">
+        <v>43105</v>
+      </c>
+      <c r="D8" s="54" t="s">
+        <v>109</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="G8" s="52" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="58"/>
+      <c r="A9" s="55"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
       <c r="D9" s="10"/>
@@ -7560,7 +7725,7 @@
       <c r="G9" s="11"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="58"/>
+      <c r="A10" s="56"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
       <c r="D10" s="10"/>
@@ -7568,53 +7733,53 @@
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
     </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="58"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="10"/>
+    <row r="11" spans="1:7" ht="14.25">
+      <c r="A11" s="71"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="14"/>
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="59"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="10"/>
+      <c r="G11" s="12"/>
+    </row>
+    <row r="12" spans="1:7" ht="14.25">
+      <c r="A12" s="74"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="14"/>
       <c r="E12" s="11"/>
       <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
+      <c r="G12" s="12"/>
     </row>
     <row r="13" spans="1:7" ht="14.25">
-      <c r="A13" s="80"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="13"/>
+      <c r="A13" s="74"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="15"/>
       <c r="D13" s="14"/>
       <c r="E13" s="11"/>
       <c r="F13" s="11"/>
-      <c r="G13" s="12"/>
-    </row>
-    <row r="14" spans="1:7" ht="14.25">
-      <c r="A14" s="82"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="14"/>
+      <c r="G13" s="9"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="74"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="10"/>
       <c r="E14" s="11"/>
       <c r="F14" s="11"/>
-      <c r="G14" s="12"/>
-    </row>
-    <row r="15" spans="1:7" ht="14.25">
-      <c r="A15" s="82"/>
+      <c r="G14" s="11"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="74"/>
       <c r="B15" s="9"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="14"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="10"/>
       <c r="E15" s="11"/>
       <c r="F15" s="11"/>
-      <c r="G15" s="9"/>
+      <c r="G15" s="11"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="82"/>
+      <c r="A16" s="74"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
       <c r="D16" s="10"/>
@@ -7623,7 +7788,7 @@
       <c r="G16" s="11"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="82"/>
+      <c r="A17" s="74"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
       <c r="D17" s="10"/>
@@ -7632,7 +7797,7 @@
       <c r="G17" s="11"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="82"/>
+      <c r="A18" s="74"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
       <c r="D18" s="10"/>
@@ -7641,25 +7806,25 @@
       <c r="G18" s="11"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="82"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
+      <c r="A19" s="74"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
       <c r="D19" s="10"/>
       <c r="E19" s="11"/>
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="82"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
+      <c r="A20" s="74"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
       <c r="D20" s="10"/>
       <c r="E20" s="11"/>
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="82"/>
+      <c r="A21" s="74"/>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
       <c r="D21" s="10"/>
@@ -7668,7 +7833,7 @@
       <c r="G21" s="11"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="82"/>
+      <c r="A22" s="74"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
       <c r="D22" s="10"/>
@@ -7677,7 +7842,7 @@
       <c r="G22" s="11"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="82"/>
+      <c r="A23" s="72"/>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
       <c r="D23" s="10"/>
@@ -7685,62 +7850,62 @@
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
     </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="82"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="10"/>
+    <row r="24" spans="1:7" ht="14.25">
+      <c r="A24" s="71"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="14"/>
       <c r="E24" s="11"/>
       <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="81"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="10"/>
+      <c r="G24" s="12"/>
+    </row>
+    <row r="25" spans="1:7" ht="14.25">
+      <c r="A25" s="74"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="14"/>
       <c r="E25" s="11"/>
       <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-    </row>
-    <row r="26" spans="1:7" ht="14.25">
-      <c r="A26" s="80"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="14"/>
+      <c r="G25" s="9"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="74"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="10"/>
       <c r="E26" s="11"/>
       <c r="F26" s="11"/>
-      <c r="G26" s="12"/>
-    </row>
-    <row r="27" spans="1:7" ht="14.25">
-      <c r="A27" s="82"/>
+      <c r="G26" s="11"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="74"/>
       <c r="B27" s="9"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="14"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="10"/>
       <c r="E27" s="11"/>
       <c r="F27" s="11"/>
-      <c r="G27" s="9"/>
+      <c r="G27" s="11"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="82"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
+      <c r="A28" s="74"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
       <c r="D28" s="10"/>
       <c r="E28" s="11"/>
       <c r="F28" s="11"/>
       <c r="G28" s="11"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="82"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
+      <c r="A29" s="74"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
       <c r="D29" s="10"/>
       <c r="E29" s="11"/>
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="82"/>
+      <c r="A30" s="74"/>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
       <c r="D30" s="10"/>
@@ -7749,43 +7914,43 @@
       <c r="G30" s="11"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="82"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
+      <c r="A31" s="74"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
       <c r="D31" s="10"/>
       <c r="E31" s="11"/>
       <c r="F31" s="11"/>
       <c r="G31" s="11"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="82"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="11"/>
+      <c r="A32" s="74"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
       <c r="D32" s="10"/>
       <c r="E32" s="11"/>
       <c r="F32" s="11"/>
       <c r="G32" s="11"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="82"/>
-      <c r="B33" s="9"/>
-      <c r="C33" s="9"/>
+      <c r="A33" s="74"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="11"/>
       <c r="D33" s="10"/>
       <c r="E33" s="11"/>
       <c r="F33" s="11"/>
       <c r="G33" s="11"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="82"/>
-      <c r="B34" s="9"/>
-      <c r="C34" s="9"/>
+      <c r="A34" s="74"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="11"/>
       <c r="D34" s="10"/>
       <c r="E34" s="11"/>
       <c r="F34" s="11"/>
       <c r="G34" s="11"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="82"/>
+      <c r="A35" s="74"/>
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
       <c r="D35" s="10"/>
@@ -7794,7 +7959,7 @@
       <c r="G35" s="11"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="82"/>
+      <c r="A36" s="74"/>
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
       <c r="D36" s="10"/>
@@ -7803,7 +7968,7 @@
       <c r="G36" s="11"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="82"/>
+      <c r="A37" s="74"/>
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
       <c r="D37" s="10"/>
@@ -7812,7 +7977,7 @@
       <c r="G37" s="11"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="82"/>
+      <c r="A38" s="72"/>
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
       <c r="D38" s="10"/>
@@ -7820,44 +7985,44 @@
       <c r="F38" s="11"/>
       <c r="G38" s="11"/>
     </row>
-    <row r="39" spans="1:7">
-      <c r="A39" s="82"/>
-      <c r="B39" s="11"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="10"/>
+    <row r="39" spans="1:7" ht="14.25">
+      <c r="A39" s="71"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="14"/>
       <c r="E39" s="11"/>
       <c r="F39" s="11"/>
-      <c r="G39" s="11"/>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="A40" s="81"/>
-      <c r="B40" s="11"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="10"/>
+      <c r="G39" s="9"/>
+    </row>
+    <row r="40" spans="1:7" ht="14.25">
+      <c r="A40" s="74"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="14"/>
       <c r="E40" s="11"/>
       <c r="F40" s="11"/>
-      <c r="G40" s="11"/>
-    </row>
-    <row r="41" spans="1:7" ht="14.25">
-      <c r="A41" s="80"/>
+      <c r="G40" s="4"/>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="74"/>
       <c r="B41" s="9"/>
-      <c r="C41" s="15"/>
-      <c r="D41" s="14"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="10"/>
       <c r="E41" s="11"/>
       <c r="F41" s="11"/>
-      <c r="G41" s="9"/>
-    </row>
-    <row r="42" spans="1:7" ht="14.25">
-      <c r="A42" s="82"/>
+      <c r="G41" s="11"/>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="74"/>
       <c r="B42" s="9"/>
-      <c r="C42" s="16"/>
-      <c r="D42" s="14"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="10"/>
       <c r="E42" s="11"/>
       <c r="F42" s="11"/>
-      <c r="G42" s="4"/>
+      <c r="G42" s="11"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="82"/>
+      <c r="A43" s="74"/>
       <c r="B43" s="9"/>
       <c r="C43" s="9"/>
       <c r="D43" s="10"/>
@@ -7866,7 +8031,7 @@
       <c r="G43" s="11"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="82"/>
+      <c r="A44" s="74"/>
       <c r="B44" s="9"/>
       <c r="C44" s="9"/>
       <c r="D44" s="10"/>
@@ -7875,7 +8040,7 @@
       <c r="G44" s="11"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="82"/>
+      <c r="A45" s="74"/>
       <c r="B45" s="9"/>
       <c r="C45" s="9"/>
       <c r="D45" s="10"/>
@@ -7884,7 +8049,7 @@
       <c r="G45" s="11"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="82"/>
+      <c r="A46" s="74"/>
       <c r="B46" s="9"/>
       <c r="C46" s="9"/>
       <c r="D46" s="10"/>
@@ -7893,25 +8058,25 @@
       <c r="G46" s="11"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="82"/>
-      <c r="B47" s="9"/>
-      <c r="C47" s="9"/>
+      <c r="A47" s="74"/>
+      <c r="B47" s="11"/>
+      <c r="C47" s="11"/>
       <c r="D47" s="10"/>
       <c r="E47" s="11"/>
       <c r="F47" s="11"/>
       <c r="G47" s="11"/>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="82"/>
-      <c r="B48" s="9"/>
-      <c r="C48" s="9"/>
+      <c r="A48" s="74"/>
+      <c r="B48" s="11"/>
+      <c r="C48" s="11"/>
       <c r="D48" s="10"/>
       <c r="E48" s="11"/>
       <c r="F48" s="11"/>
       <c r="G48" s="11"/>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="82"/>
+      <c r="A49" s="74"/>
       <c r="B49" s="11"/>
       <c r="C49" s="11"/>
       <c r="D49" s="10"/>
@@ -7920,7 +8085,7 @@
       <c r="G49" s="11"/>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="82"/>
+      <c r="A50" s="74"/>
       <c r="B50" s="11"/>
       <c r="C50" s="11"/>
       <c r="D50" s="10"/>
@@ -7929,7 +8094,7 @@
       <c r="G50" s="11"/>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="82"/>
+      <c r="A51" s="74"/>
       <c r="B51" s="11"/>
       <c r="C51" s="11"/>
       <c r="D51" s="10"/>
@@ -7938,7 +8103,7 @@
       <c r="G51" s="11"/>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="82"/>
+      <c r="A52" s="74"/>
       <c r="B52" s="11"/>
       <c r="C52" s="11"/>
       <c r="D52" s="10"/>
@@ -7947,70 +8112,70 @@
       <c r="G52" s="11"/>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="82"/>
-      <c r="B53" s="11"/>
-      <c r="C53" s="11"/>
+      <c r="A53" s="72"/>
+      <c r="B53" s="9"/>
+      <c r="C53" s="9"/>
       <c r="D53" s="10"/>
       <c r="E53" s="11"/>
       <c r="F53" s="11"/>
       <c r="G53" s="11"/>
     </row>
-    <row r="54" spans="1:7">
-      <c r="A54" s="82"/>
-      <c r="B54" s="11"/>
-      <c r="C54" s="11"/>
-      <c r="D54" s="10"/>
+    <row r="54" spans="1:7" ht="14.25">
+      <c r="A54" s="71"/>
+      <c r="B54" s="9"/>
+      <c r="C54" s="15"/>
+      <c r="D54" s="14"/>
       <c r="E54" s="11"/>
       <c r="F54" s="11"/>
-      <c r="G54" s="11"/>
-    </row>
-    <row r="55" spans="1:7">
-      <c r="A55" s="81"/>
+      <c r="G54" s="9"/>
+    </row>
+    <row r="55" spans="1:7" ht="14.25">
+      <c r="A55" s="74"/>
       <c r="B55" s="9"/>
-      <c r="C55" s="9"/>
-      <c r="D55" s="10"/>
+      <c r="C55" s="16"/>
+      <c r="D55" s="14"/>
       <c r="E55" s="11"/>
       <c r="F55" s="11"/>
-      <c r="G55" s="11"/>
+      <c r="G55" s="4"/>
     </row>
     <row r="56" spans="1:7" ht="14.25">
-      <c r="A56" s="80"/>
+      <c r="A56" s="74"/>
       <c r="B56" s="9"/>
-      <c r="C56" s="15"/>
+      <c r="C56" s="16"/>
       <c r="D56" s="14"/>
       <c r="E56" s="11"/>
       <c r="F56" s="11"/>
-      <c r="G56" s="9"/>
+      <c r="G56" s="4"/>
     </row>
     <row r="57" spans="1:7" ht="14.25">
-      <c r="A57" s="82"/>
+      <c r="A57" s="74"/>
       <c r="B57" s="9"/>
       <c r="C57" s="16"/>
       <c r="D57" s="14"/>
       <c r="E57" s="11"/>
       <c r="F57" s="11"/>
-      <c r="G57" s="4"/>
-    </row>
-    <row r="58" spans="1:7" ht="14.25">
-      <c r="A58" s="82"/>
+      <c r="G57" s="17"/>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" s="74"/>
       <c r="B58" s="9"/>
-      <c r="C58" s="16"/>
-      <c r="D58" s="14"/>
+      <c r="C58" s="9"/>
+      <c r="D58" s="10"/>
       <c r="E58" s="11"/>
       <c r="F58" s="11"/>
-      <c r="G58" s="4"/>
-    </row>
-    <row r="59" spans="1:7" ht="14.25">
-      <c r="A59" s="82"/>
+      <c r="G58" s="11"/>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="74"/>
       <c r="B59" s="9"/>
-      <c r="C59" s="16"/>
-      <c r="D59" s="14"/>
+      <c r="C59" s="9"/>
+      <c r="D59" s="10"/>
       <c r="E59" s="11"/>
       <c r="F59" s="11"/>
-      <c r="G59" s="17"/>
+      <c r="G59" s="11"/>
     </row>
     <row r="60" spans="1:7">
-      <c r="A60" s="82"/>
+      <c r="A60" s="74"/>
       <c r="B60" s="9"/>
       <c r="C60" s="9"/>
       <c r="D60" s="10"/>
@@ -8019,7 +8184,7 @@
       <c r="G60" s="11"/>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="82"/>
+      <c r="A61" s="74"/>
       <c r="B61" s="9"/>
       <c r="C61" s="9"/>
       <c r="D61" s="10"/>
@@ -8028,7 +8193,7 @@
       <c r="G61" s="11"/>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" s="82"/>
+      <c r="A62" s="74"/>
       <c r="B62" s="9"/>
       <c r="C62" s="9"/>
       <c r="D62" s="10"/>
@@ -8037,7 +8202,7 @@
       <c r="G62" s="11"/>
     </row>
     <row r="63" spans="1:7">
-      <c r="A63" s="82"/>
+      <c r="A63" s="74"/>
       <c r="B63" s="9"/>
       <c r="C63" s="9"/>
       <c r="D63" s="10"/>
@@ -8046,7 +8211,7 @@
       <c r="G63" s="11"/>
     </row>
     <row r="64" spans="1:7">
-      <c r="A64" s="82"/>
+      <c r="A64" s="74"/>
       <c r="B64" s="9"/>
       <c r="C64" s="9"/>
       <c r="D64" s="10"/>
@@ -8055,7 +8220,7 @@
       <c r="G64" s="11"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="82"/>
+      <c r="A65" s="72"/>
       <c r="B65" s="9"/>
       <c r="C65" s="9"/>
       <c r="D65" s="10"/>
@@ -8063,62 +8228,62 @@
       <c r="F65" s="11"/>
       <c r="G65" s="11"/>
     </row>
-    <row r="66" spans="1:7">
-      <c r="A66" s="82"/>
+    <row r="66" spans="1:7" ht="14.25">
+      <c r="A66" s="71"/>
       <c r="B66" s="9"/>
-      <c r="C66" s="9"/>
-      <c r="D66" s="10"/>
+      <c r="C66" s="15"/>
+      <c r="D66" s="14"/>
       <c r="E66" s="11"/>
       <c r="F66" s="11"/>
-      <c r="G66" s="11"/>
-    </row>
-    <row r="67" spans="1:7">
-      <c r="A67" s="81"/>
+      <c r="G66" s="9"/>
+    </row>
+    <row r="67" spans="1:7" ht="14.25">
+      <c r="A67" s="74"/>
       <c r="B67" s="9"/>
-      <c r="C67" s="9"/>
-      <c r="D67" s="10"/>
+      <c r="C67" s="16"/>
+      <c r="D67" s="14"/>
       <c r="E67" s="11"/>
       <c r="F67" s="11"/>
-      <c r="G67" s="11"/>
+      <c r="G67" s="4"/>
     </row>
     <row r="68" spans="1:7" ht="14.25">
-      <c r="A68" s="80"/>
+      <c r="A68" s="74"/>
       <c r="B68" s="9"/>
-      <c r="C68" s="15"/>
+      <c r="C68" s="16"/>
       <c r="D68" s="14"/>
       <c r="E68" s="11"/>
       <c r="F68" s="11"/>
-      <c r="G68" s="9"/>
+      <c r="G68" s="4"/>
     </row>
     <row r="69" spans="1:7" ht="14.25">
-      <c r="A69" s="82"/>
+      <c r="A69" s="74"/>
       <c r="B69" s="9"/>
       <c r="C69" s="16"/>
       <c r="D69" s="14"/>
       <c r="E69" s="11"/>
       <c r="F69" s="11"/>
-      <c r="G69" s="4"/>
-    </row>
-    <row r="70" spans="1:7" ht="14.25">
-      <c r="A70" s="82"/>
+      <c r="G69" s="17"/>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" s="74"/>
       <c r="B70" s="9"/>
-      <c r="C70" s="16"/>
-      <c r="D70" s="14"/>
+      <c r="C70" s="9"/>
+      <c r="D70" s="10"/>
       <c r="E70" s="11"/>
       <c r="F70" s="11"/>
-      <c r="G70" s="4"/>
-    </row>
-    <row r="71" spans="1:7" ht="14.25">
-      <c r="A71" s="82"/>
+      <c r="G70" s="11"/>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" s="74"/>
       <c r="B71" s="9"/>
-      <c r="C71" s="16"/>
-      <c r="D71" s="14"/>
+      <c r="C71" s="9"/>
+      <c r="D71" s="10"/>
       <c r="E71" s="11"/>
       <c r="F71" s="11"/>
-      <c r="G71" s="17"/>
+      <c r="G71" s="11"/>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="82"/>
+      <c r="A72" s="74"/>
       <c r="B72" s="9"/>
       <c r="C72" s="9"/>
       <c r="D72" s="10"/>
@@ -8127,7 +8292,7 @@
       <c r="G72" s="11"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="82"/>
+      <c r="A73" s="74"/>
       <c r="B73" s="9"/>
       <c r="C73" s="9"/>
       <c r="D73" s="10"/>
@@ -8136,7 +8301,7 @@
       <c r="G73" s="11"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="82"/>
+      <c r="A74" s="74"/>
       <c r="B74" s="9"/>
       <c r="C74" s="9"/>
       <c r="D74" s="10"/>
@@ -8145,7 +8310,7 @@
       <c r="G74" s="11"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="82"/>
+      <c r="A75" s="74"/>
       <c r="B75" s="9"/>
       <c r="C75" s="9"/>
       <c r="D75" s="10"/>
@@ -8154,7 +8319,7 @@
       <c r="G75" s="11"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="82"/>
+      <c r="A76" s="74"/>
       <c r="B76" s="9"/>
       <c r="C76" s="9"/>
       <c r="D76" s="10"/>
@@ -8163,7 +8328,7 @@
       <c r="G76" s="11"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="82"/>
+      <c r="A77" s="72"/>
       <c r="B77" s="9"/>
       <c r="C77" s="9"/>
       <c r="D77" s="10"/>
@@ -8171,44 +8336,44 @@
       <c r="F77" s="11"/>
       <c r="G77" s="11"/>
     </row>
-    <row r="78" spans="1:7">
-      <c r="A78" s="82"/>
+    <row r="78" spans="1:7" ht="14.25">
+      <c r="A78" s="74"/>
       <c r="B78" s="9"/>
-      <c r="C78" s="9"/>
-      <c r="D78" s="10"/>
+      <c r="C78" s="16"/>
+      <c r="D78" s="14"/>
       <c r="E78" s="11"/>
       <c r="F78" s="11"/>
-      <c r="G78" s="11"/>
-    </row>
-    <row r="79" spans="1:7">
-      <c r="A79" s="81"/>
+      <c r="G78" s="4"/>
+    </row>
+    <row r="79" spans="1:7" ht="14.25">
+      <c r="A79" s="74"/>
       <c r="B79" s="9"/>
-      <c r="C79" s="9"/>
-      <c r="D79" s="10"/>
+      <c r="C79" s="16"/>
+      <c r="D79" s="14"/>
       <c r="E79" s="11"/>
       <c r="F79" s="11"/>
-      <c r="G79" s="11"/>
-    </row>
-    <row r="80" spans="1:7" ht="14.25">
-      <c r="A80" s="82"/>
+      <c r="G79" s="17"/>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80" s="74"/>
       <c r="B80" s="9"/>
-      <c r="C80" s="16"/>
-      <c r="D80" s="14"/>
+      <c r="C80" s="9"/>
+      <c r="D80" s="10"/>
       <c r="E80" s="11"/>
       <c r="F80" s="11"/>
-      <c r="G80" s="4"/>
-    </row>
-    <row r="81" spans="1:7" ht="14.25">
-      <c r="A81" s="82"/>
+      <c r="G80" s="11"/>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81" s="74"/>
       <c r="B81" s="9"/>
-      <c r="C81" s="16"/>
-      <c r="D81" s="14"/>
+      <c r="C81" s="9"/>
+      <c r="D81" s="10"/>
       <c r="E81" s="11"/>
       <c r="F81" s="11"/>
-      <c r="G81" s="17"/>
+      <c r="G81" s="11"/>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="82"/>
+      <c r="A82" s="74"/>
       <c r="B82" s="9"/>
       <c r="C82" s="9"/>
       <c r="D82" s="10"/>
@@ -8217,7 +8382,7 @@
       <c r="G82" s="11"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="82"/>
+      <c r="A83" s="74"/>
       <c r="B83" s="9"/>
       <c r="C83" s="9"/>
       <c r="D83" s="10"/>
@@ -8226,7 +8391,7 @@
       <c r="G83" s="11"/>
     </row>
     <row r="84" spans="1:7">
-      <c r="A84" s="82"/>
+      <c r="A84" s="74"/>
       <c r="B84" s="9"/>
       <c r="C84" s="9"/>
       <c r="D84" s="10"/>
@@ -8235,7 +8400,7 @@
       <c r="G84" s="11"/>
     </row>
     <row r="85" spans="1:7">
-      <c r="A85" s="82"/>
+      <c r="A85" s="74"/>
       <c r="B85" s="9"/>
       <c r="C85" s="9"/>
       <c r="D85" s="10"/>
@@ -8244,7 +8409,7 @@
       <c r="G85" s="11"/>
     </row>
     <row r="86" spans="1:7">
-      <c r="A86" s="82"/>
+      <c r="A86" s="74"/>
       <c r="B86" s="9"/>
       <c r="C86" s="9"/>
       <c r="D86" s="10"/>
@@ -8253,7 +8418,7 @@
       <c r="G86" s="11"/>
     </row>
     <row r="87" spans="1:7">
-      <c r="A87" s="82"/>
+      <c r="A87" s="72"/>
       <c r="B87" s="9"/>
       <c r="C87" s="9"/>
       <c r="D87" s="10"/>
@@ -8261,33 +8426,15 @@
       <c r="F87" s="11"/>
       <c r="G87" s="11"/>
     </row>
-    <row r="88" spans="1:7">
-      <c r="A88" s="82"/>
-      <c r="B88" s="9"/>
-      <c r="C88" s="9"/>
-      <c r="D88" s="10"/>
-      <c r="E88" s="11"/>
-      <c r="F88" s="11"/>
-      <c r="G88" s="11"/>
-    </row>
-    <row r="89" spans="1:7">
-      <c r="A89" s="81"/>
-      <c r="B89" s="9"/>
-      <c r="C89" s="9"/>
-      <c r="D89" s="10"/>
-      <c r="E89" s="11"/>
-      <c r="F89" s="11"/>
-      <c r="G89" s="11"/>
-    </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A68:A79"/>
-    <mergeCell ref="A80:A89"/>
-    <mergeCell ref="A13:A25"/>
-    <mergeCell ref="A26:A40"/>
-    <mergeCell ref="A41:A55"/>
-    <mergeCell ref="A56:A67"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="A66:A77"/>
+    <mergeCell ref="A78:A87"/>
+    <mergeCell ref="A11:A23"/>
+    <mergeCell ref="A24:A38"/>
+    <mergeCell ref="A39:A53"/>
+    <mergeCell ref="A54:A65"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <dataValidations count="3">
@@ -8317,7 +8464,7 @@
     <col min="1" max="1" width="9.75" style="4" customWidth="1"/>
     <col min="2" max="2" width="15.125" style="1" customWidth="1"/>
     <col min="3" max="3" width="17" style="1" customWidth="1"/>
-    <col min="4" max="4" width="29.5" style="62" customWidth="1"/>
+    <col min="4" max="4" width="29.5" style="59" customWidth="1"/>
     <col min="5" max="5" width="16" style="4" customWidth="1"/>
     <col min="6" max="6" width="17.875" bestFit="1" customWidth="1"/>
   </cols>
@@ -8332,10 +8479,10 @@
       <c r="C1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="63" t="s">
-        <v>58</v>
-      </c>
-      <c r="E1" s="60" t="s">
+      <c r="D1" s="60" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" s="57" t="s">
         <v>36</v>
       </c>
     </row>
@@ -8347,13 +8494,13 @@
         <v>43</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D2" s="61" t="s">
-        <v>71</v>
+        <v>56</v>
+      </c>
+      <c r="D2" s="58" t="s">
+        <v>70</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -8364,13 +8511,13 @@
         <v>43</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="58" t="s">
         <v>60</v>
       </c>
-      <c r="D3" s="61" t="s">
-        <v>61</v>
-      </c>
       <c r="E3" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -8381,13 +8528,13 @@
         <v>43</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="58" t="s">
         <v>62</v>
       </c>
-      <c r="D4" s="61" t="s">
+      <c r="E4" s="4" t="s">
         <v>63</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -8398,13 +8545,13 @@
         <v>43</v>
       </c>
       <c r="C5" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" s="58" t="s">
         <v>65</v>
       </c>
-      <c r="D5" s="61" t="s">
-        <v>66</v>
-      </c>
-      <c r="E5" s="64" t="s">
-        <v>76</v>
+      <c r="E5" s="61" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -8415,13 +8562,13 @@
         <v>43</v>
       </c>
       <c r="C6" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" s="58" t="s">
         <v>67</v>
       </c>
-      <c r="D6" s="61" t="s">
-        <v>68</v>
-      </c>
       <c r="E6" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -8432,13 +8579,13 @@
         <v>43</v>
       </c>
       <c r="C7" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="D7" s="61" t="s">
-        <v>70</v>
-      </c>
       <c r="E7" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/周数据/《个人上线率统计表》-黄纯伟.xlsx
+++ b/周数据/《个人上线率统计表》-黄纯伟.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="108">
   <si>
     <t>个人上线率分析表</t>
   </si>
@@ -184,10 +184,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>远程实施，商户未开业</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>连锁</t>
   </si>
   <si>
@@ -198,211 +194,251 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
+    <t>加班地点/商户名称</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>实施</t>
+  </si>
+  <si>
+    <t>单店</t>
+  </si>
+  <si>
+    <t>沽涷泰兴店</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>至善天玺餐饮管理有限公司</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>沽涷</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>房总</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>负责人</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>库存</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>天翼源餐饮管理</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>天翼源</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>汪家味私房菜</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>南京</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>汪传宏</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>老板</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>025-86807279</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>泰兴</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>成都</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>沽涷成都店</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>南京</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>老魏生煎</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>肖如梦</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>已到店实施，商户未开业</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>常州</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>沽涷吾悦国际店</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>南京</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>沽涷车轿街店</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>宁波</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>李漂娜</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>巴适满堂美蛙鱼头火锅</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>宜兴</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>邵总</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>老板娘</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>新品牌</t>
+  </si>
+  <si>
+    <t>怒烤烤串（南京云锦路店）</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>沽涷无锡茂业店</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>沽涷无锡苏宁店</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>沽凍无锡宝龙店</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>跟商户约时间远程实施</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>商户没开业，跟商户约时间实施</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>沽涷成都万达店</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2017.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>30</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>宜兴/巴适满堂美蛙鱼头火锅</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>南京兴济鸿贸易有限公司</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>怒烤烤串</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>台州</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>怒烤烤串（台州椒江耀达店）</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>南京</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>高飞</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>负责人</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>宁波</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
     <t>沽涷明州里店</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>2017.9.10</t>
-  </si>
-  <si>
-    <t>加班地点/商户名称</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>实施</t>
-  </si>
-  <si>
-    <t>2017.9.23</t>
-  </si>
-  <si>
-    <t>南京/一门忠辣</t>
-  </si>
-  <si>
-    <t>2017.10.1</t>
-  </si>
-  <si>
-    <t>常州/小青森（常州江南环球港店）</t>
-  </si>
-  <si>
-    <t>售后</t>
-  </si>
-  <si>
-    <t>2017.10.5</t>
-  </si>
-  <si>
-    <t>南京/南京潮牛餐饮管理有限公司</t>
-  </si>
-  <si>
-    <t>2017.11.11</t>
-  </si>
-  <si>
-    <t>南京/鸭得堡（天赋广场店）</t>
-  </si>
-  <si>
-    <t>2017.12.10</t>
-  </si>
-  <si>
-    <t>南京/鸭得堡（无锡店）</t>
-  </si>
-  <si>
-    <t>南京/虞家锅盔（三阳广场店）</t>
-  </si>
-  <si>
-    <t>单店</t>
-  </si>
-  <si>
-    <t>沽涷泰兴店</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>驻店</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>至善天玺餐饮管理有限公司</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>沽涷</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>房总</t>
+    <t>王来仕</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>负责人</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>库存</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>天翼源餐饮管理</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>天翼源</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>汪家味私房菜</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>南京</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>汪传宏</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>老板</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>025-86807279</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>泰兴</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>成都</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>沽涷成都店</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>南京</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>老魏生煎</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>肖如梦</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>已到店实施，商户未开业</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>常州</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>沽涷吾悦国际店</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>南京</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>怒烤烤串（台州椒江耀达店）</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>沽涷车轿街店</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>宁波</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>李漂娜</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>巴适满堂美蛙鱼头火锅</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>宜兴</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>邵总</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>老板娘</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>新品牌</t>
-  </si>
-  <si>
-    <t>怒烤烤串（南京云锦路店）</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>沽涷无锡茂业店</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>沽涷无锡苏宁店</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>沽凍无锡宝龙店</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>跟商户约时间远程实施</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>商户没开业，跟商户约时间实施</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -506,15 +542,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <sz val="9"/>
+      <name val="等线"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="10">
@@ -1015,7 +1052,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1175,14 +1212,8 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1213,7 +1244,61 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="8" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="9" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1227,6 +1312,21 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1238,63 +1338,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="8" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="9" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1570,7 +1613,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
@@ -1591,24 +1634,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15" thickBot="1">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="70"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="86"/>
     </row>
     <row r="2" spans="1:13" ht="14.25" thickBot="1">
-      <c r="A2" s="82" t="s">
+      <c r="A2" s="72" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="24" t="s">
@@ -1649,10 +1692,10 @@
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="83">
+      <c r="A3" s="87">
         <v>12</v>
       </c>
-      <c r="B3" s="87">
+      <c r="B3" s="73">
         <v>50</v>
       </c>
       <c r="C3" s="29">
@@ -1690,8 +1733,8 @@
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="84"/>
-      <c r="B4" s="88">
+      <c r="A4" s="88"/>
+      <c r="B4" s="74">
         <v>51</v>
       </c>
       <c r="C4" s="29">
@@ -1729,8 +1772,8 @@
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="84"/>
-      <c r="B5" s="88">
+      <c r="A5" s="88"/>
+      <c r="B5" s="74">
         <v>52</v>
       </c>
       <c r="C5" s="29">
@@ -1770,10 +1813,10 @@
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="91">
+      <c r="A6" s="89">
         <v>1</v>
       </c>
-      <c r="B6" s="88">
+      <c r="B6" s="74">
         <v>1</v>
       </c>
       <c r="C6" s="29">
@@ -1813,8 +1856,8 @@
       </c>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="92"/>
-      <c r="B7" s="88">
+      <c r="A7" s="90"/>
+      <c r="B7" s="74">
         <v>2</v>
       </c>
       <c r="C7" s="29">
@@ -1854,10 +1897,16 @@
       </c>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="93"/>
-      <c r="B8" s="88"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="30"/>
+      <c r="A8" s="91"/>
+      <c r="B8" s="74">
+        <v>3</v>
+      </c>
+      <c r="C8" s="29">
+        <v>2</v>
+      </c>
+      <c r="D8" s="30">
+        <v>2</v>
+      </c>
       <c r="E8" s="30">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -1868,30 +1917,32 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I8" s="42"/>
-      <c r="J8" s="78" t="e">
+      <c r="I8" s="42">
+        <v>2</v>
+      </c>
+      <c r="J8" s="68">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K8" s="79">
+        <v>1</v>
+      </c>
+      <c r="K8" s="69">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L8" s="80">
+        <v>2</v>
+      </c>
+      <c r="L8" s="70">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M8" s="81" t="e">
+        <v>2</v>
+      </c>
+      <c r="M8" s="71">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="85"/>
-      <c r="B9" s="89"/>
-      <c r="C9" s="75"/>
-      <c r="D9" s="76"/>
-      <c r="E9" s="76">
+      <c r="A9" s="78"/>
+      <c r="B9" s="75"/>
+      <c r="C9" s="65"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="66">
         <f t="shared" ref="E9:E14" si="6">C9-D9</f>
         <v>0</v>
       </c>
@@ -1901,7 +1952,7 @@
         <f>F9-G9</f>
         <v>0</v>
       </c>
-      <c r="I9" s="77"/>
+      <c r="I9" s="67"/>
       <c r="J9" s="43" t="e">
         <f>I9/L9*100%</f>
         <v>#DIV/0!</v>
@@ -1920,8 +1971,8 @@
       </c>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="85"/>
-      <c r="B10" s="88"/>
+      <c r="A10" s="79"/>
+      <c r="B10" s="74"/>
       <c r="C10" s="29"/>
       <c r="D10" s="30"/>
       <c r="E10" s="30">
@@ -1953,8 +2004,8 @@
       </c>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="85"/>
-      <c r="B11" s="88"/>
+      <c r="A11" s="79"/>
+      <c r="B11" s="74"/>
       <c r="C11" s="29"/>
       <c r="D11" s="30"/>
       <c r="E11" s="30">
@@ -1986,8 +2037,8 @@
       </c>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="85"/>
-      <c r="B12" s="88"/>
+      <c r="A12" s="79"/>
+      <c r="B12" s="74"/>
       <c r="C12" s="29"/>
       <c r="D12" s="30"/>
       <c r="E12" s="30">
@@ -2019,8 +2070,8 @@
       </c>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="85"/>
-      <c r="B13" s="88"/>
+      <c r="A13" s="79"/>
+      <c r="B13" s="74"/>
       <c r="C13" s="29"/>
       <c r="D13" s="30"/>
       <c r="E13" s="30">
@@ -2052,8 +2103,8 @@
       </c>
     </row>
     <row r="14" spans="1:13" ht="14.25" thickBot="1">
-      <c r="A14" s="86"/>
-      <c r="B14" s="90"/>
+      <c r="A14" s="80"/>
+      <c r="B14" s="76"/>
       <c r="C14" s="33"/>
       <c r="D14" s="34"/>
       <c r="E14" s="34">
@@ -2085,11 +2136,10 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="3">
     <mergeCell ref="A1:M1"/>
-    <mergeCell ref="A9:A14"/>
     <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A6:A8"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
@@ -2113,7 +2163,7 @@
     <col min="5" max="5" width="21.375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.75" customWidth="1"/>
     <col min="7" max="7" width="10.25" customWidth="1"/>
-    <col min="8" max="8" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.875" customWidth="1"/>
     <col min="10" max="10" width="13.875" customWidth="1"/>
     <col min="11" max="11" width="18" customWidth="1"/>
@@ -2168,10 +2218,10 @@
       </c>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="71">
+      <c r="A2" s="92">
         <v>51</v>
       </c>
-      <c r="B2" s="64">
+      <c r="B2" s="62">
         <v>43085</v>
       </c>
       <c r="C2" s="52" t="s">
@@ -2215,8 +2265,8 @@
       </c>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="72"/>
-      <c r="B3" s="64">
+      <c r="A3" s="93"/>
+      <c r="B3" s="62">
         <v>43085</v>
       </c>
       <c r="C3" s="52" t="s">
@@ -2260,32 +2310,32 @@
       </c>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="71">
+      <c r="A4" s="92">
         <v>52</v>
       </c>
-      <c r="B4" s="64">
+      <c r="B4" s="62">
         <v>43084</v>
       </c>
       <c r="C4" s="52" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="D4" s="52" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="E4" s="52" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="F4" s="52" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="G4" s="11">
         <v>76101513</v>
       </c>
       <c r="H4" s="52" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="I4" s="52" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="J4" s="52" t="s">
         <v>44</v>
@@ -2294,40 +2344,40 @@
         <v>17602558329</v>
       </c>
       <c r="L4" s="52" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="M4" s="52" t="s">
-        <v>84</v>
-      </c>
-      <c r="N4" s="63" t="s">
-        <v>85</v>
+        <v>68</v>
+      </c>
+      <c r="N4" s="61" t="s">
+        <v>69</v>
       </c>
       <c r="O4" s="11" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="72"/>
-      <c r="B5" s="64">
+      <c r="A5" s="93"/>
+      <c r="B5" s="62">
         <v>43097</v>
       </c>
       <c r="C5" s="52" t="s">
         <v>37</v>
       </c>
       <c r="D5" s="52" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="E5" s="52" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="F5" s="52" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="G5" s="1">
         <v>76119685</v>
       </c>
       <c r="H5" s="52" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="I5" s="52" t="s">
         <v>40</v>
@@ -2338,13 +2388,13 @@
       <c r="K5" s="11">
         <v>17602558329</v>
       </c>
-      <c r="L5" s="62" t="s">
-        <v>76</v>
-      </c>
-      <c r="M5" s="62" t="s">
-        <v>77</v>
-      </c>
-      <c r="N5" s="62">
+      <c r="L5" s="60" t="s">
+        <v>60</v>
+      </c>
+      <c r="M5" s="60" t="s">
+        <v>61</v>
+      </c>
+      <c r="N5" s="60">
         <v>18601585219</v>
       </c>
       <c r="O5" s="11" t="s">
@@ -2352,32 +2402,32 @@
       </c>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="71">
+      <c r="A6" s="92">
         <v>1</v>
       </c>
-      <c r="B6" s="65">
+      <c r="B6" s="63">
         <v>43103</v>
       </c>
       <c r="C6" s="52" t="s">
         <v>37</v>
       </c>
       <c r="D6" s="52" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="E6" s="52" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="F6" s="52" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="G6" s="1">
         <v>76119689</v>
       </c>
       <c r="H6" s="52" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="I6" s="52" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="J6" s="52" t="s">
         <v>44</v>
@@ -2385,13 +2435,13 @@
       <c r="K6" s="11">
         <v>17602558329</v>
       </c>
-      <c r="L6" s="62" t="s">
-        <v>76</v>
-      </c>
-      <c r="M6" s="62" t="s">
-        <v>77</v>
-      </c>
-      <c r="N6" s="62">
+      <c r="L6" s="60" t="s">
+        <v>60</v>
+      </c>
+      <c r="M6" s="60" t="s">
+        <v>61</v>
+      </c>
+      <c r="N6" s="60">
         <v>18601585219</v>
       </c>
       <c r="O6" s="11" t="s">
@@ -2399,30 +2449,30 @@
       </c>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="72"/>
-      <c r="B7" s="65">
+      <c r="A7" s="93"/>
+      <c r="B7" s="63">
         <v>43103</v>
       </c>
       <c r="C7" s="52" t="s">
         <v>37</v>
       </c>
       <c r="D7" s="52" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="E7" s="52" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="F7" s="52" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="G7" s="1">
         <v>76115775</v>
       </c>
       <c r="H7" s="52" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="I7" s="52" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="J7" s="52" t="s">
         <v>44</v>
@@ -2430,13 +2480,13 @@
       <c r="K7" s="11">
         <v>17602558329</v>
       </c>
-      <c r="L7" s="62" t="s">
-        <v>76</v>
-      </c>
-      <c r="M7" s="62" t="s">
-        <v>77</v>
-      </c>
-      <c r="N7" s="62">
+      <c r="L7" s="60" t="s">
+        <v>60</v>
+      </c>
+      <c r="M7" s="60" t="s">
+        <v>61</v>
+      </c>
+      <c r="N7" s="60">
         <v>18601585219</v>
       </c>
       <c r="O7" s="11" t="s">
@@ -2444,29 +2494,29 @@
       </c>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="71">
+      <c r="A8" s="92">
         <v>2</v>
       </c>
-      <c r="B8" s="65">
+      <c r="B8" s="63">
         <v>43109</v>
       </c>
       <c r="C8" s="52" t="s">
         <v>37</v>
       </c>
       <c r="D8" s="52" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="E8" s="52" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="F8" s="52" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="G8" s="1">
         <v>76120305</v>
       </c>
       <c r="H8" s="52" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="I8" s="52" t="s">
         <v>40</v>
@@ -2478,40 +2528,40 @@
         <v>17602558329</v>
       </c>
       <c r="L8" s="52" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="M8" s="52" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="N8" s="1">
         <v>13921387360</v>
       </c>
       <c r="O8" s="11" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:15">
-      <c r="A9" s="72"/>
-      <c r="B9" s="65">
+      <c r="A9" s="93"/>
+      <c r="B9" s="63">
         <v>43109</v>
       </c>
       <c r="C9" s="52" t="s">
         <v>37</v>
       </c>
       <c r="D9" s="52" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="E9" s="52" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="F9" s="52" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="G9" s="1">
         <v>76117397</v>
       </c>
       <c r="H9" s="52" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="I9" s="52" t="s">
         <v>40</v>
@@ -2523,10 +2573,10 @@
         <v>17602558329</v>
       </c>
       <c r="L9" s="52" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="M9" s="52" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="N9" s="1">
         <v>13567912454</v>
@@ -2536,38 +2586,96 @@
       </c>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
+      <c r="A10" s="92">
+        <v>3</v>
+      </c>
+      <c r="B10" s="63">
+        <v>43116</v>
+      </c>
+      <c r="C10" s="52" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="52" t="s">
+        <v>97</v>
+      </c>
+      <c r="E10" s="52" t="s">
+        <v>98</v>
+      </c>
+      <c r="F10" s="52" t="s">
+        <v>99</v>
+      </c>
+      <c r="G10" s="1">
+        <v>76110597</v>
+      </c>
+      <c r="H10" s="52" t="s">
+        <v>100</v>
+      </c>
+      <c r="I10" s="52" t="s">
+        <v>101</v>
+      </c>
+      <c r="J10" s="52" t="s">
+        <v>44</v>
+      </c>
+      <c r="K10" s="11">
+        <v>17602558329</v>
+      </c>
+      <c r="L10" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="M10" s="52" t="s">
+        <v>103</v>
+      </c>
+      <c r="N10" s="82">
+        <v>15651888368</v>
+      </c>
+      <c r="O10" s="11" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="11" spans="1:15">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
+      <c r="A11" s="93"/>
+      <c r="B11" s="63">
+        <v>43116</v>
+      </c>
+      <c r="C11" s="52" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="52" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" s="52" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="52" t="s">
+        <v>104</v>
+      </c>
+      <c r="G11" s="1">
+        <v>76117399</v>
+      </c>
+      <c r="H11" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="I11" s="52" t="s">
+        <v>101</v>
+      </c>
+      <c r="J11" s="52" t="s">
+        <v>44</v>
+      </c>
+      <c r="K11" s="11">
+        <v>17602558329</v>
+      </c>
+      <c r="L11" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="M11" s="81" t="s">
+        <v>107</v>
+      </c>
+      <c r="N11" s="82">
+        <v>13780054964</v>
+      </c>
+      <c r="O11" s="11" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="1"/>
@@ -7500,11 +7608,12 @@
       <c r="O301" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <dataValidations count="2">
@@ -7522,7 +7631,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G87"/>
+  <dimension ref="A1:G85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I2" sqref="I2"/>
@@ -7563,205 +7672,191 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="66">
+      <c r="A2" s="94">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="16">
+        <v>43102</v>
+      </c>
+      <c r="D2" s="53" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" s="52" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="94"/>
+      <c r="B3" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" s="16">
+        <v>43104</v>
+      </c>
+      <c r="D3" s="53" t="s">
+        <v>93</v>
+      </c>
+      <c r="E3" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="53" t="s">
-        <v>55</v>
-      </c>
-      <c r="C2" s="16">
-        <v>43080</v>
-      </c>
-      <c r="D2" s="54" t="s">
+      <c r="F3" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="G3" s="52" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="94"/>
+      <c r="B4" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" s="16">
+        <v>43105</v>
+      </c>
+      <c r="D4" s="53" t="s">
+        <v>92</v>
+      </c>
+      <c r="E4" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="F4" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="G4" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="G2" s="52" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="66">
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="94"/>
+      <c r="B5" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C5" s="16">
+        <v>43105</v>
+      </c>
+      <c r="D5" s="53" t="s">
+        <v>92</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="C3" s="16">
-        <v>43080</v>
-      </c>
-      <c r="D3" s="54" t="s">
-        <v>51</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="F3" s="11" t="s">
+      <c r="G5" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="G3" s="52" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="73">
-        <v>1</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="C4" s="16">
-        <v>43102</v>
-      </c>
-      <c r="D4" s="54" t="s">
-        <v>92</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="G4" s="52" t="s">
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="94"/>
+      <c r="B6" s="9" t="s">
         <v>91</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="73"/>
-      <c r="B5" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="C5" s="16">
-        <v>43104</v>
-      </c>
-      <c r="D5" s="54" t="s">
-        <v>110</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="G5" s="52" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="73"/>
-      <c r="B6" s="9" t="s">
-        <v>106</v>
       </c>
       <c r="C6" s="16">
         <v>43105</v>
       </c>
-      <c r="D6" s="54" t="s">
-        <v>109</v>
+      <c r="D6" s="53" t="s">
+        <v>92</v>
       </c>
       <c r="E6" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="G6" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="G6" s="52" t="s">
-        <v>54</v>
-      </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="73"/>
+      <c r="A7" s="64">
+        <v>2</v>
+      </c>
       <c r="B7" s="9" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="C7" s="16">
-        <v>43105</v>
-      </c>
-      <c r="D7" s="54" t="s">
-        <v>109</v>
+        <v>43111</v>
+      </c>
+      <c r="D7" s="53" t="s">
+        <v>93</v>
       </c>
       <c r="E7" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="G7" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="G7" s="52" t="s">
-        <v>54</v>
-      </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="73"/>
-      <c r="B8" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="C8" s="16">
-        <v>43105</v>
-      </c>
-      <c r="D8" s="54" t="s">
-        <v>109</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="G8" s="52" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="55"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="10"/>
+      <c r="A8" s="54"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+    </row>
+    <row r="9" spans="1:7" ht="14.25">
+      <c r="A9" s="92"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="14"/>
       <c r="E9" s="11"/>
       <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="56"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="10"/>
+      <c r="G9" s="12"/>
+    </row>
+    <row r="10" spans="1:7" ht="14.25">
+      <c r="A10" s="95"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="14"/>
       <c r="E10" s="11"/>
       <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
+      <c r="G10" s="12"/>
     </row>
     <row r="11" spans="1:7" ht="14.25">
-      <c r="A11" s="71"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="13"/>
+      <c r="A11" s="95"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="15"/>
       <c r="D11" s="14"/>
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
-      <c r="G11" s="12"/>
-    </row>
-    <row r="12" spans="1:7" ht="14.25">
-      <c r="A12" s="74"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="14"/>
+      <c r="G11" s="9"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="95"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="10"/>
       <c r="E12" s="11"/>
       <c r="F12" s="11"/>
-      <c r="G12" s="12"/>
-    </row>
-    <row r="13" spans="1:7" ht="14.25">
-      <c r="A13" s="74"/>
+      <c r="G12" s="11"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="95"/>
       <c r="B13" s="9"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="14"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="10"/>
       <c r="E13" s="11"/>
       <c r="F13" s="11"/>
-      <c r="G13" s="9"/>
+      <c r="G13" s="11"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="74"/>
+      <c r="A14" s="95"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
       <c r="D14" s="10"/>
@@ -7770,7 +7865,7 @@
       <c r="G14" s="11"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="74"/>
+      <c r="A15" s="95"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
       <c r="D15" s="10"/>
@@ -7779,7 +7874,7 @@
       <c r="G15" s="11"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="74"/>
+      <c r="A16" s="95"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
       <c r="D16" s="10"/>
@@ -7788,25 +7883,25 @@
       <c r="G16" s="11"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="74"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
+      <c r="A17" s="95"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
       <c r="D17" s="10"/>
       <c r="E17" s="11"/>
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="74"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
+      <c r="A18" s="95"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
       <c r="D18" s="10"/>
       <c r="E18" s="11"/>
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="74"/>
+      <c r="A19" s="95"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
       <c r="D19" s="10"/>
@@ -7815,7 +7910,7 @@
       <c r="G19" s="11"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="74"/>
+      <c r="A20" s="95"/>
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
       <c r="D20" s="10"/>
@@ -7824,7 +7919,7 @@
       <c r="G20" s="11"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="74"/>
+      <c r="A21" s="93"/>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
       <c r="D21" s="10"/>
@@ -7832,62 +7927,62 @@
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
     </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="74"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="10"/>
+    <row r="22" spans="1:7" ht="14.25">
+      <c r="A22" s="92"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="14"/>
       <c r="E22" s="11"/>
       <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="72"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="10"/>
+      <c r="G22" s="12"/>
+    </row>
+    <row r="23" spans="1:7" ht="14.25">
+      <c r="A23" s="95"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="14"/>
       <c r="E23" s="11"/>
       <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-    </row>
-    <row r="24" spans="1:7" ht="14.25">
-      <c r="A24" s="71"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="14"/>
+      <c r="G23" s="9"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="95"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="10"/>
       <c r="E24" s="11"/>
       <c r="F24" s="11"/>
-      <c r="G24" s="12"/>
-    </row>
-    <row r="25" spans="1:7" ht="14.25">
-      <c r="A25" s="74"/>
+      <c r="G24" s="11"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="95"/>
       <c r="B25" s="9"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="14"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="10"/>
       <c r="E25" s="11"/>
       <c r="F25" s="11"/>
-      <c r="G25" s="9"/>
+      <c r="G25" s="11"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="74"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
+      <c r="A26" s="95"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
       <c r="D26" s="10"/>
       <c r="E26" s="11"/>
       <c r="F26" s="11"/>
       <c r="G26" s="11"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="74"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
+      <c r="A27" s="95"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
       <c r="D27" s="10"/>
       <c r="E27" s="11"/>
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="74"/>
+      <c r="A28" s="95"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
       <c r="D28" s="10"/>
@@ -7896,43 +7991,43 @@
       <c r="G28" s="11"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="74"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="11"/>
+      <c r="A29" s="95"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
       <c r="D29" s="10"/>
       <c r="E29" s="11"/>
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="74"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
+      <c r="A30" s="95"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
       <c r="D30" s="10"/>
       <c r="E30" s="11"/>
       <c r="F30" s="11"/>
       <c r="G30" s="11"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="74"/>
-      <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
+      <c r="A31" s="95"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
       <c r="D31" s="10"/>
       <c r="E31" s="11"/>
       <c r="F31" s="11"/>
       <c r="G31" s="11"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="74"/>
-      <c r="B32" s="9"/>
-      <c r="C32" s="9"/>
+      <c r="A32" s="95"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
       <c r="D32" s="10"/>
       <c r="E32" s="11"/>
       <c r="F32" s="11"/>
       <c r="G32" s="11"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="74"/>
+      <c r="A33" s="95"/>
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
       <c r="D33" s="10"/>
@@ -7941,7 +8036,7 @@
       <c r="G33" s="11"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="74"/>
+      <c r="A34" s="95"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
       <c r="D34" s="10"/>
@@ -7950,7 +8045,7 @@
       <c r="G34" s="11"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="74"/>
+      <c r="A35" s="95"/>
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
       <c r="D35" s="10"/>
@@ -7959,7 +8054,7 @@
       <c r="G35" s="11"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="74"/>
+      <c r="A36" s="93"/>
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
       <c r="D36" s="10"/>
@@ -7967,44 +8062,44 @@
       <c r="F36" s="11"/>
       <c r="G36" s="11"/>
     </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="74"/>
-      <c r="B37" s="11"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="10"/>
+    <row r="37" spans="1:7" ht="14.25">
+      <c r="A37" s="92"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="14"/>
       <c r="E37" s="11"/>
       <c r="F37" s="11"/>
-      <c r="G37" s="11"/>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="72"/>
-      <c r="B38" s="11"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="10"/>
+      <c r="G37" s="9"/>
+    </row>
+    <row r="38" spans="1:7" ht="14.25">
+      <c r="A38" s="95"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="14"/>
       <c r="E38" s="11"/>
       <c r="F38" s="11"/>
-      <c r="G38" s="11"/>
-    </row>
-    <row r="39" spans="1:7" ht="14.25">
-      <c r="A39" s="71"/>
+      <c r="G38" s="4"/>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="95"/>
       <c r="B39" s="9"/>
-      <c r="C39" s="15"/>
-      <c r="D39" s="14"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="10"/>
       <c r="E39" s="11"/>
       <c r="F39" s="11"/>
-      <c r="G39" s="9"/>
-    </row>
-    <row r="40" spans="1:7" ht="14.25">
-      <c r="A40" s="74"/>
+      <c r="G39" s="11"/>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="95"/>
       <c r="B40" s="9"/>
-      <c r="C40" s="16"/>
-      <c r="D40" s="14"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="10"/>
       <c r="E40" s="11"/>
       <c r="F40" s="11"/>
-      <c r="G40" s="4"/>
+      <c r="G40" s="11"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="74"/>
+      <c r="A41" s="95"/>
       <c r="B41" s="9"/>
       <c r="C41" s="9"/>
       <c r="D41" s="10"/>
@@ -8013,7 +8108,7 @@
       <c r="G41" s="11"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="74"/>
+      <c r="A42" s="95"/>
       <c r="B42" s="9"/>
       <c r="C42" s="9"/>
       <c r="D42" s="10"/>
@@ -8022,7 +8117,7 @@
       <c r="G42" s="11"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="74"/>
+      <c r="A43" s="95"/>
       <c r="B43" s="9"/>
       <c r="C43" s="9"/>
       <c r="D43" s="10"/>
@@ -8031,7 +8126,7 @@
       <c r="G43" s="11"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="74"/>
+      <c r="A44" s="95"/>
       <c r="B44" s="9"/>
       <c r="C44" s="9"/>
       <c r="D44" s="10"/>
@@ -8040,25 +8135,25 @@
       <c r="G44" s="11"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="74"/>
-      <c r="B45" s="9"/>
-      <c r="C45" s="9"/>
+      <c r="A45" s="95"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="11"/>
       <c r="D45" s="10"/>
       <c r="E45" s="11"/>
       <c r="F45" s="11"/>
       <c r="G45" s="11"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="74"/>
-      <c r="B46" s="9"/>
-      <c r="C46" s="9"/>
+      <c r="A46" s="95"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="11"/>
       <c r="D46" s="10"/>
       <c r="E46" s="11"/>
       <c r="F46" s="11"/>
       <c r="G46" s="11"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="74"/>
+      <c r="A47" s="95"/>
       <c r="B47" s="11"/>
       <c r="C47" s="11"/>
       <c r="D47" s="10"/>
@@ -8067,7 +8162,7 @@
       <c r="G47" s="11"/>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="74"/>
+      <c r="A48" s="95"/>
       <c r="B48" s="11"/>
       <c r="C48" s="11"/>
       <c r="D48" s="10"/>
@@ -8076,7 +8171,7 @@
       <c r="G48" s="11"/>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="74"/>
+      <c r="A49" s="95"/>
       <c r="B49" s="11"/>
       <c r="C49" s="11"/>
       <c r="D49" s="10"/>
@@ -8085,7 +8180,7 @@
       <c r="G49" s="11"/>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="74"/>
+      <c r="A50" s="95"/>
       <c r="B50" s="11"/>
       <c r="C50" s="11"/>
       <c r="D50" s="10"/>
@@ -8094,70 +8189,70 @@
       <c r="G50" s="11"/>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="74"/>
-      <c r="B51" s="11"/>
-      <c r="C51" s="11"/>
+      <c r="A51" s="93"/>
+      <c r="B51" s="9"/>
+      <c r="C51" s="9"/>
       <c r="D51" s="10"/>
       <c r="E51" s="11"/>
       <c r="F51" s="11"/>
       <c r="G51" s="11"/>
     </row>
-    <row r="52" spans="1:7">
-      <c r="A52" s="74"/>
-      <c r="B52" s="11"/>
-      <c r="C52" s="11"/>
-      <c r="D52" s="10"/>
+    <row r="52" spans="1:7" ht="14.25">
+      <c r="A52" s="92"/>
+      <c r="B52" s="9"/>
+      <c r="C52" s="15"/>
+      <c r="D52" s="14"/>
       <c r="E52" s="11"/>
       <c r="F52" s="11"/>
-      <c r="G52" s="11"/>
-    </row>
-    <row r="53" spans="1:7">
-      <c r="A53" s="72"/>
+      <c r="G52" s="9"/>
+    </row>
+    <row r="53" spans="1:7" ht="14.25">
+      <c r="A53" s="95"/>
       <c r="B53" s="9"/>
-      <c r="C53" s="9"/>
-      <c r="D53" s="10"/>
+      <c r="C53" s="16"/>
+      <c r="D53" s="14"/>
       <c r="E53" s="11"/>
       <c r="F53" s="11"/>
-      <c r="G53" s="11"/>
+      <c r="G53" s="4"/>
     </row>
     <row r="54" spans="1:7" ht="14.25">
-      <c r="A54" s="71"/>
+      <c r="A54" s="95"/>
       <c r="B54" s="9"/>
-      <c r="C54" s="15"/>
+      <c r="C54" s="16"/>
       <c r="D54" s="14"/>
       <c r="E54" s="11"/>
       <c r="F54" s="11"/>
-      <c r="G54" s="9"/>
+      <c r="G54" s="4"/>
     </row>
     <row r="55" spans="1:7" ht="14.25">
-      <c r="A55" s="74"/>
+      <c r="A55" s="95"/>
       <c r="B55" s="9"/>
       <c r="C55" s="16"/>
       <c r="D55" s="14"/>
       <c r="E55" s="11"/>
       <c r="F55" s="11"/>
-      <c r="G55" s="4"/>
-    </row>
-    <row r="56" spans="1:7" ht="14.25">
-      <c r="A56" s="74"/>
+      <c r="G55" s="17"/>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="95"/>
       <c r="B56" s="9"/>
-      <c r="C56" s="16"/>
-      <c r="D56" s="14"/>
+      <c r="C56" s="9"/>
+      <c r="D56" s="10"/>
       <c r="E56" s="11"/>
       <c r="F56" s="11"/>
-      <c r="G56" s="4"/>
-    </row>
-    <row r="57" spans="1:7" ht="14.25">
-      <c r="A57" s="74"/>
+      <c r="G56" s="11"/>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="95"/>
       <c r="B57" s="9"/>
-      <c r="C57" s="16"/>
-      <c r="D57" s="14"/>
+      <c r="C57" s="9"/>
+      <c r="D57" s="10"/>
       <c r="E57" s="11"/>
       <c r="F57" s="11"/>
-      <c r="G57" s="17"/>
+      <c r="G57" s="11"/>
     </row>
     <row r="58" spans="1:7">
-      <c r="A58" s="74"/>
+      <c r="A58" s="95"/>
       <c r="B58" s="9"/>
       <c r="C58" s="9"/>
       <c r="D58" s="10"/>
@@ -8166,7 +8261,7 @@
       <c r="G58" s="11"/>
     </row>
     <row r="59" spans="1:7">
-      <c r="A59" s="74"/>
+      <c r="A59" s="95"/>
       <c r="B59" s="9"/>
       <c r="C59" s="9"/>
       <c r="D59" s="10"/>
@@ -8175,7 +8270,7 @@
       <c r="G59" s="11"/>
     </row>
     <row r="60" spans="1:7">
-      <c r="A60" s="74"/>
+      <c r="A60" s="95"/>
       <c r="B60" s="9"/>
       <c r="C60" s="9"/>
       <c r="D60" s="10"/>
@@ -8184,7 +8279,7 @@
       <c r="G60" s="11"/>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="74"/>
+      <c r="A61" s="95"/>
       <c r="B61" s="9"/>
       <c r="C61" s="9"/>
       <c r="D61" s="10"/>
@@ -8193,7 +8288,7 @@
       <c r="G61" s="11"/>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" s="74"/>
+      <c r="A62" s="95"/>
       <c r="B62" s="9"/>
       <c r="C62" s="9"/>
       <c r="D62" s="10"/>
@@ -8202,7 +8297,7 @@
       <c r="G62" s="11"/>
     </row>
     <row r="63" spans="1:7">
-      <c r="A63" s="74"/>
+      <c r="A63" s="93"/>
       <c r="B63" s="9"/>
       <c r="C63" s="9"/>
       <c r="D63" s="10"/>
@@ -8210,62 +8305,62 @@
       <c r="F63" s="11"/>
       <c r="G63" s="11"/>
     </row>
-    <row r="64" spans="1:7">
-      <c r="A64" s="74"/>
+    <row r="64" spans="1:7" ht="14.25">
+      <c r="A64" s="92"/>
       <c r="B64" s="9"/>
-      <c r="C64" s="9"/>
-      <c r="D64" s="10"/>
+      <c r="C64" s="15"/>
+      <c r="D64" s="14"/>
       <c r="E64" s="11"/>
       <c r="F64" s="11"/>
-      <c r="G64" s="11"/>
-    </row>
-    <row r="65" spans="1:7">
-      <c r="A65" s="72"/>
+      <c r="G64" s="9"/>
+    </row>
+    <row r="65" spans="1:7" ht="14.25">
+      <c r="A65" s="95"/>
       <c r="B65" s="9"/>
-      <c r="C65" s="9"/>
-      <c r="D65" s="10"/>
+      <c r="C65" s="16"/>
+      <c r="D65" s="14"/>
       <c r="E65" s="11"/>
       <c r="F65" s="11"/>
-      <c r="G65" s="11"/>
+      <c r="G65" s="4"/>
     </row>
     <row r="66" spans="1:7" ht="14.25">
-      <c r="A66" s="71"/>
+      <c r="A66" s="95"/>
       <c r="B66" s="9"/>
-      <c r="C66" s="15"/>
+      <c r="C66" s="16"/>
       <c r="D66" s="14"/>
       <c r="E66" s="11"/>
       <c r="F66" s="11"/>
-      <c r="G66" s="9"/>
+      <c r="G66" s="4"/>
     </row>
     <row r="67" spans="1:7" ht="14.25">
-      <c r="A67" s="74"/>
+      <c r="A67" s="95"/>
       <c r="B67" s="9"/>
       <c r="C67" s="16"/>
       <c r="D67" s="14"/>
       <c r="E67" s="11"/>
       <c r="F67" s="11"/>
-      <c r="G67" s="4"/>
-    </row>
-    <row r="68" spans="1:7" ht="14.25">
-      <c r="A68" s="74"/>
+      <c r="G67" s="17"/>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" s="95"/>
       <c r="B68" s="9"/>
-      <c r="C68" s="16"/>
-      <c r="D68" s="14"/>
+      <c r="C68" s="9"/>
+      <c r="D68" s="10"/>
       <c r="E68" s="11"/>
       <c r="F68" s="11"/>
-      <c r="G68" s="4"/>
-    </row>
-    <row r="69" spans="1:7" ht="14.25">
-      <c r="A69" s="74"/>
+      <c r="G68" s="11"/>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" s="95"/>
       <c r="B69" s="9"/>
-      <c r="C69" s="16"/>
-      <c r="D69" s="14"/>
+      <c r="C69" s="9"/>
+      <c r="D69" s="10"/>
       <c r="E69" s="11"/>
       <c r="F69" s="11"/>
-      <c r="G69" s="17"/>
+      <c r="G69" s="11"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="74"/>
+      <c r="A70" s="95"/>
       <c r="B70" s="9"/>
       <c r="C70" s="9"/>
       <c r="D70" s="10"/>
@@ -8274,7 +8369,7 @@
       <c r="G70" s="11"/>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="74"/>
+      <c r="A71" s="95"/>
       <c r="B71" s="9"/>
       <c r="C71" s="9"/>
       <c r="D71" s="10"/>
@@ -8283,7 +8378,7 @@
       <c r="G71" s="11"/>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="74"/>
+      <c r="A72" s="95"/>
       <c r="B72" s="9"/>
       <c r="C72" s="9"/>
       <c r="D72" s="10"/>
@@ -8292,7 +8387,7 @@
       <c r="G72" s="11"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="74"/>
+      <c r="A73" s="95"/>
       <c r="B73" s="9"/>
       <c r="C73" s="9"/>
       <c r="D73" s="10"/>
@@ -8301,7 +8396,7 @@
       <c r="G73" s="11"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="74"/>
+      <c r="A74" s="95"/>
       <c r="B74" s="9"/>
       <c r="C74" s="9"/>
       <c r="D74" s="10"/>
@@ -8310,7 +8405,7 @@
       <c r="G74" s="11"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="74"/>
+      <c r="A75" s="93"/>
       <c r="B75" s="9"/>
       <c r="C75" s="9"/>
       <c r="D75" s="10"/>
@@ -8318,44 +8413,44 @@
       <c r="F75" s="11"/>
       <c r="G75" s="11"/>
     </row>
-    <row r="76" spans="1:7">
-      <c r="A76" s="74"/>
+    <row r="76" spans="1:7" ht="14.25">
+      <c r="A76" s="95"/>
       <c r="B76" s="9"/>
-      <c r="C76" s="9"/>
-      <c r="D76" s="10"/>
+      <c r="C76" s="16"/>
+      <c r="D76" s="14"/>
       <c r="E76" s="11"/>
       <c r="F76" s="11"/>
-      <c r="G76" s="11"/>
-    </row>
-    <row r="77" spans="1:7">
-      <c r="A77" s="72"/>
+      <c r="G76" s="4"/>
+    </row>
+    <row r="77" spans="1:7" ht="14.25">
+      <c r="A77" s="95"/>
       <c r="B77" s="9"/>
-      <c r="C77" s="9"/>
-      <c r="D77" s="10"/>
+      <c r="C77" s="16"/>
+      <c r="D77" s="14"/>
       <c r="E77" s="11"/>
       <c r="F77" s="11"/>
-      <c r="G77" s="11"/>
-    </row>
-    <row r="78" spans="1:7" ht="14.25">
-      <c r="A78" s="74"/>
+      <c r="G77" s="17"/>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78" s="95"/>
       <c r="B78" s="9"/>
-      <c r="C78" s="16"/>
-      <c r="D78" s="14"/>
+      <c r="C78" s="9"/>
+      <c r="D78" s="10"/>
       <c r="E78" s="11"/>
       <c r="F78" s="11"/>
-      <c r="G78" s="4"/>
-    </row>
-    <row r="79" spans="1:7" ht="14.25">
-      <c r="A79" s="74"/>
+      <c r="G78" s="11"/>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79" s="95"/>
       <c r="B79" s="9"/>
-      <c r="C79" s="16"/>
-      <c r="D79" s="14"/>
+      <c r="C79" s="9"/>
+      <c r="D79" s="10"/>
       <c r="E79" s="11"/>
       <c r="F79" s="11"/>
-      <c r="G79" s="17"/>
+      <c r="G79" s="11"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="74"/>
+      <c r="A80" s="95"/>
       <c r="B80" s="9"/>
       <c r="C80" s="9"/>
       <c r="D80" s="10"/>
@@ -8364,7 +8459,7 @@
       <c r="G80" s="11"/>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="74"/>
+      <c r="A81" s="95"/>
       <c r="B81" s="9"/>
       <c r="C81" s="9"/>
       <c r="D81" s="10"/>
@@ -8373,7 +8468,7 @@
       <c r="G81" s="11"/>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="74"/>
+      <c r="A82" s="95"/>
       <c r="B82" s="9"/>
       <c r="C82" s="9"/>
       <c r="D82" s="10"/>
@@ -8382,7 +8477,7 @@
       <c r="G82" s="11"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="74"/>
+      <c r="A83" s="95"/>
       <c r="B83" s="9"/>
       <c r="C83" s="9"/>
       <c r="D83" s="10"/>
@@ -8391,7 +8486,7 @@
       <c r="G83" s="11"/>
     </row>
     <row r="84" spans="1:7">
-      <c r="A84" s="74"/>
+      <c r="A84" s="95"/>
       <c r="B84" s="9"/>
       <c r="C84" s="9"/>
       <c r="D84" s="10"/>
@@ -8400,7 +8495,7 @@
       <c r="G84" s="11"/>
     </row>
     <row r="85" spans="1:7">
-      <c r="A85" s="74"/>
+      <c r="A85" s="93"/>
       <c r="B85" s="9"/>
       <c r="C85" s="9"/>
       <c r="D85" s="10"/>
@@ -8408,33 +8503,15 @@
       <c r="F85" s="11"/>
       <c r="G85" s="11"/>
     </row>
-    <row r="86" spans="1:7">
-      <c r="A86" s="74"/>
-      <c r="B86" s="9"/>
-      <c r="C86" s="9"/>
-      <c r="D86" s="10"/>
-      <c r="E86" s="11"/>
-      <c r="F86" s="11"/>
-      <c r="G86" s="11"/>
-    </row>
-    <row r="87" spans="1:7">
-      <c r="A87" s="72"/>
-      <c r="B87" s="9"/>
-      <c r="C87" s="9"/>
-      <c r="D87" s="10"/>
-      <c r="E87" s="11"/>
-      <c r="F87" s="11"/>
-      <c r="G87" s="11"/>
-    </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A4:A8"/>
-    <mergeCell ref="A66:A77"/>
-    <mergeCell ref="A78:A87"/>
-    <mergeCell ref="A11:A23"/>
-    <mergeCell ref="A24:A38"/>
-    <mergeCell ref="A39:A53"/>
-    <mergeCell ref="A54:A65"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A64:A75"/>
+    <mergeCell ref="A76:A85"/>
+    <mergeCell ref="A9:A21"/>
+    <mergeCell ref="A22:A36"/>
+    <mergeCell ref="A37:A51"/>
+    <mergeCell ref="A52:A63"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <dataValidations count="3">
@@ -8464,7 +8541,7 @@
     <col min="1" max="1" width="9.75" style="4" customWidth="1"/>
     <col min="2" max="2" width="15.125" style="1" customWidth="1"/>
     <col min="3" max="3" width="17" style="1" customWidth="1"/>
-    <col min="4" max="4" width="29.5" style="59" customWidth="1"/>
+    <col min="4" max="4" width="29.5" style="57" customWidth="1"/>
     <col min="5" max="5" width="16" style="4" customWidth="1"/>
     <col min="6" max="6" width="17.875" bestFit="1" customWidth="1"/>
   </cols>
@@ -8479,114 +8556,55 @@
       <c r="C1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="60" t="s">
-        <v>57</v>
-      </c>
-      <c r="E1" s="57" t="s">
+      <c r="D1" s="58" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" s="55" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="4">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D2" s="58" t="s">
-        <v>70</v>
+      <c r="C2" s="59" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2" s="77" t="s">
+        <v>96</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="4">
-        <v>9</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D3" s="58" t="s">
-        <v>60</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>58</v>
-      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="56"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="4">
-        <v>10</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D4" s="58" t="s">
-        <v>62</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>63</v>
-      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="56"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="4">
-        <v>10</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D5" s="58" t="s">
-        <v>65</v>
-      </c>
-      <c r="E5" s="61" t="s">
-        <v>73</v>
-      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="59"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="4">
-        <v>11</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D6" s="58" t="s">
-        <v>67</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>58</v>
-      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="56"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="4">
-        <v>12</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D7" s="58" t="s">
-        <v>69</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>58</v>
-      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="56"/>
     </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>

--- a/周数据/《个人上线率统计表》-黄纯伟.xlsx
+++ b/周数据/《个人上线率统计表》-黄纯伟.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="113">
   <si>
     <t>个人上线率分析表</t>
   </si>
@@ -439,6 +439,26 @@
   </si>
   <si>
     <t>老板</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>泰州</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>沽涷泰州店</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>张锐</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>老板</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>已到店实施，商户未开业</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -1052,7 +1072,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1294,11 +1314,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1614,7 +1640,7 @@
   <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
@@ -1634,21 +1660,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15" thickBot="1">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="85"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="86"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="88"/>
     </row>
     <row r="2" spans="1:13" ht="14.25" thickBot="1">
       <c r="A2" s="72" t="s">
@@ -1692,7 +1718,7 @@
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="87">
+      <c r="A3" s="89">
         <v>12</v>
       </c>
       <c r="B3" s="73">
@@ -1733,7 +1759,7 @@
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="88"/>
+      <c r="A4" s="90"/>
       <c r="B4" s="74">
         <v>51</v>
       </c>
@@ -1772,7 +1798,7 @@
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="88"/>
+      <c r="A5" s="90"/>
       <c r="B5" s="74">
         <v>52</v>
       </c>
@@ -1813,7 +1839,7 @@
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="89">
+      <c r="A6" s="91">
         <v>1</v>
       </c>
       <c r="B6" s="74">
@@ -1856,7 +1882,7 @@
       </c>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="90"/>
+      <c r="A7" s="92"/>
       <c r="B7" s="74">
         <v>2</v>
       </c>
@@ -1897,7 +1923,7 @@
       </c>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="91"/>
+      <c r="A8" s="93"/>
       <c r="B8" s="74">
         <v>3</v>
       </c>
@@ -1939,9 +1965,15 @@
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="78"/>
-      <c r="B9" s="75"/>
-      <c r="C9" s="65"/>
-      <c r="D9" s="66"/>
+      <c r="B9" s="75">
+        <v>4</v>
+      </c>
+      <c r="C9" s="65">
+        <v>1</v>
+      </c>
+      <c r="D9" s="66">
+        <v>1</v>
+      </c>
       <c r="E9" s="66">
         <f t="shared" ref="E9:E14" si="6">C9-D9</f>
         <v>0</v>
@@ -1952,22 +1984,24 @@
         <f>F9-G9</f>
         <v>0</v>
       </c>
-      <c r="I9" s="67"/>
-      <c r="J9" s="43" t="e">
+      <c r="I9" s="67">
+        <v>1</v>
+      </c>
+      <c r="J9" s="43">
         <f>I9/L9*100%</f>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
       <c r="K9" s="44">
         <f>C9+G9</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9" s="45">
         <f>D9+G9</f>
-        <v>0</v>
-      </c>
-      <c r="M9" s="46" t="e">
+        <v>1</v>
+      </c>
+      <c r="M9" s="46">
         <f>L9/K9*100%</f>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -2218,7 +2252,7 @@
       </c>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="92">
+      <c r="A2" s="94">
         <v>51</v>
       </c>
       <c r="B2" s="62">
@@ -2265,7 +2299,7 @@
       </c>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="93"/>
+      <c r="A3" s="95"/>
       <c r="B3" s="62">
         <v>43085</v>
       </c>
@@ -2310,7 +2344,7 @@
       </c>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="92">
+      <c r="A4" s="94">
         <v>52</v>
       </c>
       <c r="B4" s="62">
@@ -2357,7 +2391,7 @@
       </c>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="93"/>
+      <c r="A5" s="95"/>
       <c r="B5" s="62">
         <v>43097</v>
       </c>
@@ -2402,7 +2436,7 @@
       </c>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="92">
+      <c r="A6" s="94">
         <v>1</v>
       </c>
       <c r="B6" s="63">
@@ -2449,7 +2483,7 @@
       </c>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="93"/>
+      <c r="A7" s="95"/>
       <c r="B7" s="63">
         <v>43103</v>
       </c>
@@ -2494,7 +2528,7 @@
       </c>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="92">
+      <c r="A8" s="94">
         <v>2</v>
       </c>
       <c r="B8" s="63">
@@ -2541,7 +2575,7 @@
       </c>
     </row>
     <row r="9" spans="1:15">
-      <c r="A9" s="93"/>
+      <c r="A9" s="95"/>
       <c r="B9" s="63">
         <v>43109</v>
       </c>
@@ -2586,7 +2620,7 @@
       </c>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="92">
+      <c r="A10" s="94">
         <v>3</v>
       </c>
       <c r="B10" s="63">
@@ -2625,7 +2659,7 @@
       <c r="M10" s="52" t="s">
         <v>103</v>
       </c>
-      <c r="N10" s="82">
+      <c r="N10" s="81">
         <v>15651888368</v>
       </c>
       <c r="O10" s="11" t="s">
@@ -2633,7 +2667,7 @@
       </c>
     </row>
     <row r="11" spans="1:15">
-      <c r="A11" s="93"/>
+      <c r="A11" s="95"/>
       <c r="B11" s="63">
         <v>43116</v>
       </c>
@@ -2667,10 +2701,10 @@
       <c r="L11" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="M11" s="81" t="s">
+      <c r="M11" s="84" t="s">
         <v>107</v>
       </c>
-      <c r="N11" s="82">
+      <c r="N11" s="81">
         <v>13780054964</v>
       </c>
       <c r="O11" s="11" t="s">
@@ -2678,21 +2712,51 @@
       </c>
     </row>
     <row r="12" spans="1:15">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
+      <c r="A12" s="82">
+        <v>4</v>
+      </c>
+      <c r="B12" s="63">
+        <v>43122</v>
+      </c>
+      <c r="C12" s="52" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="52" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" s="52" t="s">
+        <v>59</v>
+      </c>
+      <c r="F12" s="52" t="s">
+        <v>108</v>
+      </c>
+      <c r="G12" s="1">
+        <v>76121691</v>
+      </c>
+      <c r="H12" s="52" t="s">
+        <v>109</v>
+      </c>
+      <c r="I12" s="52" t="s">
+        <v>101</v>
+      </c>
+      <c r="J12" s="52" t="s">
+        <v>44</v>
+      </c>
+      <c r="K12" s="11">
+        <v>17602558329</v>
+      </c>
+      <c r="L12" t="s">
+        <v>110</v>
+      </c>
+      <c r="M12" s="84" t="s">
+        <v>111</v>
+      </c>
+      <c r="N12" s="83">
+        <v>18852665200</v>
+      </c>
+      <c r="O12" s="11" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="1"/>
@@ -7672,7 +7736,7 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="94">
+      <c r="A2" s="96">
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
@@ -7682,7 +7746,7 @@
         <v>43102</v>
       </c>
       <c r="D2" s="53" t="s">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="E2" s="11" t="s">
         <v>56</v>
@@ -7695,7 +7759,7 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="94"/>
+      <c r="A3" s="96"/>
       <c r="B3" s="9" t="s">
         <v>88</v>
       </c>
@@ -7703,7 +7767,7 @@
         <v>43104</v>
       </c>
       <c r="D3" s="53" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="E3" s="11" t="s">
         <v>51</v>
@@ -7716,7 +7780,7 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="94"/>
+      <c r="A4" s="96"/>
       <c r="B4" s="9" t="s">
         <v>89</v>
       </c>
@@ -7737,7 +7801,7 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="94"/>
+      <c r="A5" s="96"/>
       <c r="B5" s="9" t="s">
         <v>90</v>
       </c>
@@ -7758,7 +7822,7 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="94"/>
+      <c r="A6" s="96"/>
       <c r="B6" s="9" t="s">
         <v>91</v>
       </c>
@@ -7811,7 +7875,7 @@
       <c r="G8" s="11"/>
     </row>
     <row r="9" spans="1:7" ht="14.25">
-      <c r="A9" s="92"/>
+      <c r="A9" s="94"/>
       <c r="B9" s="12"/>
       <c r="C9" s="13"/>
       <c r="D9" s="14"/>
@@ -7820,7 +7884,7 @@
       <c r="G9" s="12"/>
     </row>
     <row r="10" spans="1:7" ht="14.25">
-      <c r="A10" s="95"/>
+      <c r="A10" s="97"/>
       <c r="B10" s="12"/>
       <c r="C10" s="15"/>
       <c r="D10" s="14"/>
@@ -7829,7 +7893,7 @@
       <c r="G10" s="12"/>
     </row>
     <row r="11" spans="1:7" ht="14.25">
-      <c r="A11" s="95"/>
+      <c r="A11" s="97"/>
       <c r="B11" s="9"/>
       <c r="C11" s="15"/>
       <c r="D11" s="14"/>
@@ -7838,7 +7902,7 @@
       <c r="G11" s="9"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="95"/>
+      <c r="A12" s="97"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
       <c r="D12" s="10"/>
@@ -7847,7 +7911,7 @@
       <c r="G12" s="11"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="95"/>
+      <c r="A13" s="97"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
       <c r="D13" s="10"/>
@@ -7856,7 +7920,7 @@
       <c r="G13" s="11"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="95"/>
+      <c r="A14" s="97"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
       <c r="D14" s="10"/>
@@ -7865,7 +7929,7 @@
       <c r="G14" s="11"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="95"/>
+      <c r="A15" s="97"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
       <c r="D15" s="10"/>
@@ -7874,7 +7938,7 @@
       <c r="G15" s="11"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="95"/>
+      <c r="A16" s="97"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
       <c r="D16" s="10"/>
@@ -7883,7 +7947,7 @@
       <c r="G16" s="11"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="95"/>
+      <c r="A17" s="97"/>
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
       <c r="D17" s="10"/>
@@ -7892,7 +7956,7 @@
       <c r="G17" s="11"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="95"/>
+      <c r="A18" s="97"/>
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
       <c r="D18" s="10"/>
@@ -7901,7 +7965,7 @@
       <c r="G18" s="11"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="95"/>
+      <c r="A19" s="97"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
       <c r="D19" s="10"/>
@@ -7910,7 +7974,7 @@
       <c r="G19" s="11"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="95"/>
+      <c r="A20" s="97"/>
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
       <c r="D20" s="10"/>
@@ -7919,7 +7983,7 @@
       <c r="G20" s="11"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="93"/>
+      <c r="A21" s="95"/>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
       <c r="D21" s="10"/>
@@ -7928,7 +7992,7 @@
       <c r="G21" s="11"/>
     </row>
     <row r="22" spans="1:7" ht="14.25">
-      <c r="A22" s="92"/>
+      <c r="A22" s="94"/>
       <c r="B22" s="12"/>
       <c r="C22" s="15"/>
       <c r="D22" s="14"/>
@@ -7937,7 +8001,7 @@
       <c r="G22" s="12"/>
     </row>
     <row r="23" spans="1:7" ht="14.25">
-      <c r="A23" s="95"/>
+      <c r="A23" s="97"/>
       <c r="B23" s="9"/>
       <c r="C23" s="15"/>
       <c r="D23" s="14"/>
@@ -7946,7 +8010,7 @@
       <c r="G23" s="9"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="95"/>
+      <c r="A24" s="97"/>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
       <c r="D24" s="10"/>
@@ -7955,7 +8019,7 @@
       <c r="G24" s="11"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="95"/>
+      <c r="A25" s="97"/>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
       <c r="D25" s="10"/>
@@ -7964,7 +8028,7 @@
       <c r="G25" s="11"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="95"/>
+      <c r="A26" s="97"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
       <c r="D26" s="10"/>
@@ -7973,7 +8037,7 @@
       <c r="G26" s="11"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="95"/>
+      <c r="A27" s="97"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
       <c r="D27" s="10"/>
@@ -7982,7 +8046,7 @@
       <c r="G27" s="11"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="95"/>
+      <c r="A28" s="97"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
       <c r="D28" s="10"/>
@@ -7991,7 +8055,7 @@
       <c r="G28" s="11"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="95"/>
+      <c r="A29" s="97"/>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
       <c r="D29" s="10"/>
@@ -8000,7 +8064,7 @@
       <c r="G29" s="11"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="95"/>
+      <c r="A30" s="97"/>
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
       <c r="D30" s="10"/>
@@ -8009,7 +8073,7 @@
       <c r="G30" s="11"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="95"/>
+      <c r="A31" s="97"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
       <c r="D31" s="10"/>
@@ -8018,7 +8082,7 @@
       <c r="G31" s="11"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="95"/>
+      <c r="A32" s="97"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
       <c r="D32" s="10"/>
@@ -8027,7 +8091,7 @@
       <c r="G32" s="11"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="95"/>
+      <c r="A33" s="97"/>
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
       <c r="D33" s="10"/>
@@ -8036,7 +8100,7 @@
       <c r="G33" s="11"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="95"/>
+      <c r="A34" s="97"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
       <c r="D34" s="10"/>
@@ -8045,7 +8109,7 @@
       <c r="G34" s="11"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="95"/>
+      <c r="A35" s="97"/>
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
       <c r="D35" s="10"/>
@@ -8054,7 +8118,7 @@
       <c r="G35" s="11"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="93"/>
+      <c r="A36" s="95"/>
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
       <c r="D36" s="10"/>
@@ -8063,7 +8127,7 @@
       <c r="G36" s="11"/>
     </row>
     <row r="37" spans="1:7" ht="14.25">
-      <c r="A37" s="92"/>
+      <c r="A37" s="94"/>
       <c r="B37" s="9"/>
       <c r="C37" s="15"/>
       <c r="D37" s="14"/>
@@ -8072,7 +8136,7 @@
       <c r="G37" s="9"/>
     </row>
     <row r="38" spans="1:7" ht="14.25">
-      <c r="A38" s="95"/>
+      <c r="A38" s="97"/>
       <c r="B38" s="9"/>
       <c r="C38" s="16"/>
       <c r="D38" s="14"/>
@@ -8081,7 +8145,7 @@
       <c r="G38" s="4"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="95"/>
+      <c r="A39" s="97"/>
       <c r="B39" s="9"/>
       <c r="C39" s="9"/>
       <c r="D39" s="10"/>
@@ -8090,7 +8154,7 @@
       <c r="G39" s="11"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="95"/>
+      <c r="A40" s="97"/>
       <c r="B40" s="9"/>
       <c r="C40" s="9"/>
       <c r="D40" s="10"/>
@@ -8099,7 +8163,7 @@
       <c r="G40" s="11"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="95"/>
+      <c r="A41" s="97"/>
       <c r="B41" s="9"/>
       <c r="C41" s="9"/>
       <c r="D41" s="10"/>
@@ -8108,7 +8172,7 @@
       <c r="G41" s="11"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="95"/>
+      <c r="A42" s="97"/>
       <c r="B42" s="9"/>
       <c r="C42" s="9"/>
       <c r="D42" s="10"/>
@@ -8117,7 +8181,7 @@
       <c r="G42" s="11"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="95"/>
+      <c r="A43" s="97"/>
       <c r="B43" s="9"/>
       <c r="C43" s="9"/>
       <c r="D43" s="10"/>
@@ -8126,7 +8190,7 @@
       <c r="G43" s="11"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="95"/>
+      <c r="A44" s="97"/>
       <c r="B44" s="9"/>
       <c r="C44" s="9"/>
       <c r="D44" s="10"/>
@@ -8135,7 +8199,7 @@
       <c r="G44" s="11"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="95"/>
+      <c r="A45" s="97"/>
       <c r="B45" s="11"/>
       <c r="C45" s="11"/>
       <c r="D45" s="10"/>
@@ -8144,7 +8208,7 @@
       <c r="G45" s="11"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="95"/>
+      <c r="A46" s="97"/>
       <c r="B46" s="11"/>
       <c r="C46" s="11"/>
       <c r="D46" s="10"/>
@@ -8153,7 +8217,7 @@
       <c r="G46" s="11"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="95"/>
+      <c r="A47" s="97"/>
       <c r="B47" s="11"/>
       <c r="C47" s="11"/>
       <c r="D47" s="10"/>
@@ -8162,7 +8226,7 @@
       <c r="G47" s="11"/>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="95"/>
+      <c r="A48" s="97"/>
       <c r="B48" s="11"/>
       <c r="C48" s="11"/>
       <c r="D48" s="10"/>
@@ -8171,7 +8235,7 @@
       <c r="G48" s="11"/>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="95"/>
+      <c r="A49" s="97"/>
       <c r="B49" s="11"/>
       <c r="C49" s="11"/>
       <c r="D49" s="10"/>
@@ -8180,7 +8244,7 @@
       <c r="G49" s="11"/>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="95"/>
+      <c r="A50" s="97"/>
       <c r="B50" s="11"/>
       <c r="C50" s="11"/>
       <c r="D50" s="10"/>
@@ -8189,7 +8253,7 @@
       <c r="G50" s="11"/>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="93"/>
+      <c r="A51" s="95"/>
       <c r="B51" s="9"/>
       <c r="C51" s="9"/>
       <c r="D51" s="10"/>
@@ -8198,7 +8262,7 @@
       <c r="G51" s="11"/>
     </row>
     <row r="52" spans="1:7" ht="14.25">
-      <c r="A52" s="92"/>
+      <c r="A52" s="94"/>
       <c r="B52" s="9"/>
       <c r="C52" s="15"/>
       <c r="D52" s="14"/>
@@ -8207,7 +8271,7 @@
       <c r="G52" s="9"/>
     </row>
     <row r="53" spans="1:7" ht="14.25">
-      <c r="A53" s="95"/>
+      <c r="A53" s="97"/>
       <c r="B53" s="9"/>
       <c r="C53" s="16"/>
       <c r="D53" s="14"/>
@@ -8216,7 +8280,7 @@
       <c r="G53" s="4"/>
     </row>
     <row r="54" spans="1:7" ht="14.25">
-      <c r="A54" s="95"/>
+      <c r="A54" s="97"/>
       <c r="B54" s="9"/>
       <c r="C54" s="16"/>
       <c r="D54" s="14"/>
@@ -8225,7 +8289,7 @@
       <c r="G54" s="4"/>
     </row>
     <row r="55" spans="1:7" ht="14.25">
-      <c r="A55" s="95"/>
+      <c r="A55" s="97"/>
       <c r="B55" s="9"/>
       <c r="C55" s="16"/>
       <c r="D55" s="14"/>
@@ -8234,7 +8298,7 @@
       <c r="G55" s="17"/>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="95"/>
+      <c r="A56" s="97"/>
       <c r="B56" s="9"/>
       <c r="C56" s="9"/>
       <c r="D56" s="10"/>
@@ -8243,7 +8307,7 @@
       <c r="G56" s="11"/>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="95"/>
+      <c r="A57" s="97"/>
       <c r="B57" s="9"/>
       <c r="C57" s="9"/>
       <c r="D57" s="10"/>
@@ -8252,7 +8316,7 @@
       <c r="G57" s="11"/>
     </row>
     <row r="58" spans="1:7">
-      <c r="A58" s="95"/>
+      <c r="A58" s="97"/>
       <c r="B58" s="9"/>
       <c r="C58" s="9"/>
       <c r="D58" s="10"/>
@@ -8261,7 +8325,7 @@
       <c r="G58" s="11"/>
     </row>
     <row r="59" spans="1:7">
-      <c r="A59" s="95"/>
+      <c r="A59" s="97"/>
       <c r="B59" s="9"/>
       <c r="C59" s="9"/>
       <c r="D59" s="10"/>
@@ -8270,7 +8334,7 @@
       <c r="G59" s="11"/>
     </row>
     <row r="60" spans="1:7">
-      <c r="A60" s="95"/>
+      <c r="A60" s="97"/>
       <c r="B60" s="9"/>
       <c r="C60" s="9"/>
       <c r="D60" s="10"/>
@@ -8279,7 +8343,7 @@
       <c r="G60" s="11"/>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="95"/>
+      <c r="A61" s="97"/>
       <c r="B61" s="9"/>
       <c r="C61" s="9"/>
       <c r="D61" s="10"/>
@@ -8288,7 +8352,7 @@
       <c r="G61" s="11"/>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" s="95"/>
+      <c r="A62" s="97"/>
       <c r="B62" s="9"/>
       <c r="C62" s="9"/>
       <c r="D62" s="10"/>
@@ -8297,7 +8361,7 @@
       <c r="G62" s="11"/>
     </row>
     <row r="63" spans="1:7">
-      <c r="A63" s="93"/>
+      <c r="A63" s="95"/>
       <c r="B63" s="9"/>
       <c r="C63" s="9"/>
       <c r="D63" s="10"/>
@@ -8306,7 +8370,7 @@
       <c r="G63" s="11"/>
     </row>
     <row r="64" spans="1:7" ht="14.25">
-      <c r="A64" s="92"/>
+      <c r="A64" s="94"/>
       <c r="B64" s="9"/>
       <c r="C64" s="15"/>
       <c r="D64" s="14"/>
@@ -8315,7 +8379,7 @@
       <c r="G64" s="9"/>
     </row>
     <row r="65" spans="1:7" ht="14.25">
-      <c r="A65" s="95"/>
+      <c r="A65" s="97"/>
       <c r="B65" s="9"/>
       <c r="C65" s="16"/>
       <c r="D65" s="14"/>
@@ -8324,7 +8388,7 @@
       <c r="G65" s="4"/>
     </row>
     <row r="66" spans="1:7" ht="14.25">
-      <c r="A66" s="95"/>
+      <c r="A66" s="97"/>
       <c r="B66" s="9"/>
       <c r="C66" s="16"/>
       <c r="D66" s="14"/>
@@ -8333,7 +8397,7 @@
       <c r="G66" s="4"/>
     </row>
     <row r="67" spans="1:7" ht="14.25">
-      <c r="A67" s="95"/>
+      <c r="A67" s="97"/>
       <c r="B67" s="9"/>
       <c r="C67" s="16"/>
       <c r="D67" s="14"/>
@@ -8342,7 +8406,7 @@
       <c r="G67" s="17"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="95"/>
+      <c r="A68" s="97"/>
       <c r="B68" s="9"/>
       <c r="C68" s="9"/>
       <c r="D68" s="10"/>
@@ -8351,7 +8415,7 @@
       <c r="G68" s="11"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="95"/>
+      <c r="A69" s="97"/>
       <c r="B69" s="9"/>
       <c r="C69" s="9"/>
       <c r="D69" s="10"/>
@@ -8360,7 +8424,7 @@
       <c r="G69" s="11"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="95"/>
+      <c r="A70" s="97"/>
       <c r="B70" s="9"/>
       <c r="C70" s="9"/>
       <c r="D70" s="10"/>
@@ -8369,7 +8433,7 @@
       <c r="G70" s="11"/>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="95"/>
+      <c r="A71" s="97"/>
       <c r="B71" s="9"/>
       <c r="C71" s="9"/>
       <c r="D71" s="10"/>
@@ -8378,7 +8442,7 @@
       <c r="G71" s="11"/>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="95"/>
+      <c r="A72" s="97"/>
       <c r="B72" s="9"/>
       <c r="C72" s="9"/>
       <c r="D72" s="10"/>
@@ -8387,7 +8451,7 @@
       <c r="G72" s="11"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="95"/>
+      <c r="A73" s="97"/>
       <c r="B73" s="9"/>
       <c r="C73" s="9"/>
       <c r="D73" s="10"/>
@@ -8396,7 +8460,7 @@
       <c r="G73" s="11"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="95"/>
+      <c r="A74" s="97"/>
       <c r="B74" s="9"/>
       <c r="C74" s="9"/>
       <c r="D74" s="10"/>
@@ -8405,7 +8469,7 @@
       <c r="G74" s="11"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="93"/>
+      <c r="A75" s="95"/>
       <c r="B75" s="9"/>
       <c r="C75" s="9"/>
       <c r="D75" s="10"/>
@@ -8414,7 +8478,7 @@
       <c r="G75" s="11"/>
     </row>
     <row r="76" spans="1:7" ht="14.25">
-      <c r="A76" s="95"/>
+      <c r="A76" s="97"/>
       <c r="B76" s="9"/>
       <c r="C76" s="16"/>
       <c r="D76" s="14"/>
@@ -8423,7 +8487,7 @@
       <c r="G76" s="4"/>
     </row>
     <row r="77" spans="1:7" ht="14.25">
-      <c r="A77" s="95"/>
+      <c r="A77" s="97"/>
       <c r="B77" s="9"/>
       <c r="C77" s="16"/>
       <c r="D77" s="14"/>
@@ -8432,7 +8496,7 @@
       <c r="G77" s="17"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="95"/>
+      <c r="A78" s="97"/>
       <c r="B78" s="9"/>
       <c r="C78" s="9"/>
       <c r="D78" s="10"/>
@@ -8441,7 +8505,7 @@
       <c r="G78" s="11"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="95"/>
+      <c r="A79" s="97"/>
       <c r="B79" s="9"/>
       <c r="C79" s="9"/>
       <c r="D79" s="10"/>
@@ -8450,7 +8514,7 @@
       <c r="G79" s="11"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="95"/>
+      <c r="A80" s="97"/>
       <c r="B80" s="9"/>
       <c r="C80" s="9"/>
       <c r="D80" s="10"/>
@@ -8459,7 +8523,7 @@
       <c r="G80" s="11"/>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="95"/>
+      <c r="A81" s="97"/>
       <c r="B81" s="9"/>
       <c r="C81" s="9"/>
       <c r="D81" s="10"/>
@@ -8468,7 +8532,7 @@
       <c r="G81" s="11"/>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="95"/>
+      <c r="A82" s="97"/>
       <c r="B82" s="9"/>
       <c r="C82" s="9"/>
       <c r="D82" s="10"/>
@@ -8477,7 +8541,7 @@
       <c r="G82" s="11"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="95"/>
+      <c r="A83" s="97"/>
       <c r="B83" s="9"/>
       <c r="C83" s="9"/>
       <c r="D83" s="10"/>
@@ -8486,7 +8550,7 @@
       <c r="G83" s="11"/>
     </row>
     <row r="84" spans="1:7">
-      <c r="A84" s="95"/>
+      <c r="A84" s="97"/>
       <c r="B84" s="9"/>
       <c r="C84" s="9"/>
       <c r="D84" s="10"/>
@@ -8495,7 +8559,7 @@
       <c r="G84" s="11"/>
     </row>
     <row r="85" spans="1:7">
-      <c r="A85" s="93"/>
+      <c r="A85" s="95"/>
       <c r="B85" s="9"/>
       <c r="C85" s="9"/>
       <c r="D85" s="10"/>

--- a/周数据/《个人上线率统计表》-黄纯伟.xlsx
+++ b/周数据/《个人上线率统计表》-黄纯伟.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20610" windowHeight="9330" activeTab="1"/>
@@ -12,12 +12,12 @@
     <sheet name="未上线项目明细" sheetId="3" r:id="rId3"/>
     <sheet name="加班明细" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="132">
   <si>
     <t>个人上线率分析表</t>
   </si>
@@ -280,15 +280,154 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
+    <t>常州</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>沽涷吾悦国际店</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>南京</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>沽涷车轿街店</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>宁波</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>李漂娜</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>巴适满堂美蛙鱼头火锅</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>宜兴</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>邵总</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>老板娘</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>新品牌</t>
+  </si>
+  <si>
+    <t>沽涷无锡苏宁店</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>沽凍无锡宝龙店</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>跟商户约时间远程实施</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>沽涷成都万达店</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>宜兴/巴适满堂美蛙鱼头火锅</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>南京兴济鸿贸易有限公司</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>怒烤烤串</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>台州</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>怒烤烤串（台州椒江耀达店）</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>南京</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>高飞</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>负责人</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>宁波</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>沽涷明州里店</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>王来仕</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>老板</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>泰州</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>沽涷泰州店</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>张锐</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>老板</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
     <t>已到店实施，商户未开业</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>常州</t>
+    <t>苏州/两个天堂</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>沽涷吾悦国际店</t>
+    <t>无锡</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>沽涷无锡茂业店</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄孝兰</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>老板娘</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>南京兴济鸿贸易有限公司</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
@@ -296,67 +435,40 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>沽涷车轿街店</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>宁波</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>李漂娜</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>巴适满堂美蛙鱼头火锅</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>宜兴</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>邵总</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>老板娘</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>新品牌</t>
-  </si>
-  <si>
     <t>怒烤烤串（南京云锦路店）</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>沽涷无锡茂业店</t>
+    <t>孔健</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>沽涷无锡苏宁店</t>
+    <t>老板</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>沽凍无锡宝龙店</t>
+    <t>两个天堂餐饮管理有限公司</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>跟商户约时间远程实施</t>
+    <t>有点烫</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>商户没开业，跟商户约时间实施</t>
+    <t>苏州</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>沽涷成都万达店</t>
+    <t>有点烫欧尚店</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
+    <t>王化洲</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
     <r>
-      <t>2017.</t>
+      <t>I</t>
     </r>
     <r>
       <rPr>
@@ -367,98 +479,40 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>12</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>30</t>
+      <t>T负责人</t>
     </r>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>宜兴/巴适满堂美蛙鱼头火锅</t>
+    <t>沽涷江阴精品店</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>南京兴济鸿贸易有限公司</t>
+    <t>商户没开业，跟商户约时间远程实施</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>怒烤烤串</t>
+    <t>沈芳芳</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>台州</t>
+    <t>怒烤烤串（南京富春江东街店）</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>怒烤烤串（台州椒江耀达店）</t>
+    <t>怒烤烤串（慈溪银泰店）</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>南京</t>
+    <t>跟商户约时间实施</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>高飞</t>
+    <t>哈姆特（鸡鸣寺店）</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>负责人</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>宁波</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>沽涷明州里店</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>王来仕</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>老板</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>泰州</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>沽涷泰州店</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>张锐</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>老板</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>已到店实施，商户未开业</t>
+    <t>堵雪军</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -469,7 +523,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -572,6 +626,13 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="10">
@@ -1072,7 +1133,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1110,9 +1171,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1326,6 +1384,18 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1356,13 +1426,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1640,7 +1719,7 @@
   <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
@@ -1653,518 +1732,524 @@
     <col min="7" max="7" width="15.5" style="5" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="17.875" style="5" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="17.875" style="5" customWidth="1"/>
-    <col min="10" max="10" width="17.875" style="23" customWidth="1"/>
+    <col min="10" max="10" width="17.875" style="22" customWidth="1"/>
     <col min="11" max="11" width="16" style="5" customWidth="1"/>
     <col min="12" max="12" width="17.875" style="5" customWidth="1"/>
     <col min="13" max="13" width="18.625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15" thickBot="1">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="86"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="86"/>
-      <c r="L1" s="86"/>
-      <c r="M1" s="88"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="91"/>
     </row>
     <row r="2" spans="1:13" ht="14.25" thickBot="1">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="27" t="s">
+      <c r="F2" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="27" t="s">
+      <c r="G2" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="28" t="s">
+      <c r="H2" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="37" t="s">
+      <c r="I2" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="38" t="s">
+      <c r="J2" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="39" t="s">
+      <c r="K2" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="40" t="s">
+      <c r="L2" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="41" t="s">
+      <c r="M2" s="40" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="89">
+      <c r="A3" s="92">
         <v>12</v>
       </c>
-      <c r="B3" s="73">
+      <c r="B3" s="72">
         <v>50</v>
       </c>
-      <c r="C3" s="29">
+      <c r="C3" s="28">
         <v>3</v>
       </c>
-      <c r="D3" s="30">
+      <c r="D3" s="29">
         <v>2</v>
       </c>
-      <c r="E3" s="30">
+      <c r="E3" s="29">
         <f>C3-D3</f>
         <v>1</v>
       </c>
-      <c r="F3" s="31"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="31">
+      <c r="F3" s="30"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="30">
         <f>F3-G3</f>
         <v>0</v>
       </c>
-      <c r="I3" s="42"/>
-      <c r="J3" s="43">
+      <c r="I3" s="41"/>
+      <c r="J3" s="42">
         <f>I3/L3*100%</f>
         <v>0</v>
       </c>
-      <c r="K3" s="44">
+      <c r="K3" s="43">
         <f>C3+G3</f>
         <v>3</v>
       </c>
-      <c r="L3" s="45">
+      <c r="L3" s="44">
         <f>D3+G3</f>
         <v>2</v>
       </c>
-      <c r="M3" s="46">
+      <c r="M3" s="45">
         <f>L3/K3*100%</f>
         <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="90"/>
-      <c r="B4" s="74">
+      <c r="A4" s="93"/>
+      <c r="B4" s="73">
         <v>51</v>
       </c>
-      <c r="C4" s="29">
+      <c r="C4" s="28">
         <v>3</v>
       </c>
-      <c r="D4" s="30">
+      <c r="D4" s="29">
         <v>0</v>
       </c>
-      <c r="E4" s="30">
+      <c r="E4" s="29">
         <f>C4-D4</f>
         <v>3</v>
       </c>
-      <c r="F4" s="31"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="31">
+      <c r="F4" s="30"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="30">
         <f t="shared" ref="H4:H8" si="0">F4-G4</f>
         <v>0</v>
       </c>
-      <c r="I4" s="42"/>
-      <c r="J4" s="43" t="e">
+      <c r="I4" s="41"/>
+      <c r="J4" s="42" t="e">
         <f>I4/L4*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K4" s="44">
+      <c r="K4" s="43">
         <f t="shared" ref="K4:K8" si="1">C4+G4</f>
         <v>3</v>
       </c>
-      <c r="L4" s="45">
+      <c r="L4" s="44">
         <f t="shared" ref="L4:L8" si="2">D4+G4</f>
         <v>0</v>
       </c>
-      <c r="M4" s="46">
+      <c r="M4" s="45">
         <f t="shared" ref="M4:M8" si="3">L4/K4*100%</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="90"/>
-      <c r="B5" s="74">
+      <c r="A5" s="93"/>
+      <c r="B5" s="73">
         <v>52</v>
       </c>
-      <c r="C5" s="29">
+      <c r="C5" s="28">
         <v>2</v>
       </c>
-      <c r="D5" s="30">
+      <c r="D5" s="29">
         <v>1</v>
       </c>
-      <c r="E5" s="30">
+      <c r="E5" s="29">
         <f t="shared" ref="E5:E8" si="4">C5-D5</f>
         <v>1</v>
       </c>
-      <c r="F5" s="31"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="31">
+      <c r="F5" s="30"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I5" s="42">
+      <c r="I5" s="41">
         <v>1</v>
       </c>
-      <c r="J5" s="43">
+      <c r="J5" s="42">
         <f t="shared" ref="J5:J8" si="5">I5/L5*100%</f>
         <v>1</v>
       </c>
-      <c r="K5" s="44">
+      <c r="K5" s="43">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="L5" s="45">
+      <c r="L5" s="44">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="M5" s="46">
+      <c r="M5" s="45">
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="91">
+      <c r="A6" s="94">
         <v>1</v>
       </c>
-      <c r="B6" s="74">
+      <c r="B6" s="73">
         <v>1</v>
       </c>
-      <c r="C6" s="29">
+      <c r="C6" s="28">
         <v>2</v>
       </c>
-      <c r="D6" s="30">
+      <c r="D6" s="29">
         <v>0</v>
       </c>
-      <c r="E6" s="30">
+      <c r="E6" s="29">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="F6" s="31"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="31">
+      <c r="F6" s="30"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I6" s="42">
+      <c r="I6" s="41">
         <v>2</v>
       </c>
-      <c r="J6" s="43" t="e">
+      <c r="J6" s="42" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K6" s="44">
+      <c r="K6" s="43">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="L6" s="45">
+      <c r="L6" s="44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M6" s="46">
+      <c r="M6" s="45">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="92"/>
-      <c r="B7" s="74">
+      <c r="A7" s="95"/>
+      <c r="B7" s="73">
         <v>2</v>
       </c>
-      <c r="C7" s="29">
+      <c r="C7" s="28">
         <v>4</v>
       </c>
-      <c r="D7" s="30">
+      <c r="D7" s="29">
         <v>2</v>
       </c>
-      <c r="E7" s="30">
+      <c r="E7" s="29">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="F7" s="31"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="31">
+      <c r="F7" s="30"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I7" s="42">
+      <c r="I7" s="41">
         <v>1</v>
       </c>
-      <c r="J7" s="43">
+      <c r="J7" s="42">
         <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
-      <c r="K7" s="44">
+      <c r="K7" s="43">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="L7" s="45">
+      <c r="L7" s="44">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="M7" s="46">
+      <c r="M7" s="45">
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="93"/>
-      <c r="B8" s="74">
+      <c r="A8" s="96"/>
+      <c r="B8" s="73">
         <v>3</v>
       </c>
-      <c r="C8" s="29">
+      <c r="C8" s="28">
         <v>2</v>
       </c>
-      <c r="D8" s="30">
+      <c r="D8" s="29">
         <v>2</v>
       </c>
-      <c r="E8" s="30">
+      <c r="E8" s="29">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31">
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I8" s="42">
+      <c r="I8" s="41">
         <v>2</v>
       </c>
-      <c r="J8" s="68">
+      <c r="J8" s="67">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="K8" s="69">
+      <c r="K8" s="68">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="L8" s="70">
+      <c r="L8" s="69">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="M8" s="71">
+      <c r="M8" s="70">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="78"/>
-      <c r="B9" s="75">
+      <c r="A9" s="77"/>
+      <c r="B9" s="74">
         <v>4</v>
       </c>
-      <c r="C9" s="65">
+      <c r="C9" s="64">
         <v>1</v>
       </c>
-      <c r="D9" s="66">
+      <c r="D9" s="65">
         <v>1</v>
       </c>
-      <c r="E9" s="66">
+      <c r="E9" s="65">
         <f t="shared" ref="E9:E14" si="6">C9-D9</f>
         <v>0</v>
       </c>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32">
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31">
         <f>F9-G9</f>
         <v>0</v>
       </c>
-      <c r="I9" s="67">
+      <c r="I9" s="66">
         <v>1</v>
       </c>
-      <c r="J9" s="43">
+      <c r="J9" s="42">
         <f>I9/L9*100%</f>
         <v>1</v>
       </c>
-      <c r="K9" s="44">
+      <c r="K9" s="43">
         <f>C9+G9</f>
         <v>1</v>
       </c>
-      <c r="L9" s="45">
+      <c r="L9" s="44">
         <f>D9+G9</f>
         <v>1</v>
       </c>
-      <c r="M9" s="46">
+      <c r="M9" s="45">
         <f>L9/K9*100%</f>
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="79"/>
-      <c r="B10" s="74"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30">
+      <c r="A10" s="78"/>
+      <c r="B10" s="73">
+        <v>5</v>
+      </c>
+      <c r="C10" s="28">
+        <v>1</v>
+      </c>
+      <c r="D10" s="29">
+        <v>1</v>
+      </c>
+      <c r="E10" s="29">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F10" s="31"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="31">
+      <c r="F10" s="30"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="30">
         <f t="shared" ref="H10:H14" si="7">F10-G10</f>
         <v>0</v>
       </c>
-      <c r="I10" s="42"/>
-      <c r="J10" s="43" t="e">
+      <c r="I10" s="41"/>
+      <c r="J10" s="42">
         <f>I10/L10*100%</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K10" s="44">
+        <v>0</v>
+      </c>
+      <c r="K10" s="43">
         <f t="shared" ref="K10:K14" si="8">C10+G10</f>
-        <v>0</v>
-      </c>
-      <c r="L10" s="45">
+        <v>1</v>
+      </c>
+      <c r="L10" s="44">
         <f t="shared" ref="L10:L14" si="9">D10+G10</f>
-        <v>0</v>
-      </c>
-      <c r="M10" s="46" t="e">
+        <v>1</v>
+      </c>
+      <c r="M10" s="45">
         <f t="shared" ref="M10:M14" si="10">L10/K10*100%</f>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="79"/>
-      <c r="B11" s="74"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30">
+      <c r="A11" s="78"/>
+      <c r="B11" s="73"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F11" s="31"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="31">
+      <c r="F11" s="30"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="30">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I11" s="42"/>
-      <c r="J11" s="43" t="e">
+      <c r="I11" s="41"/>
+      <c r="J11" s="42" t="e">
         <f t="shared" ref="J11:J14" si="11">I11/L11*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K11" s="44">
+      <c r="K11" s="43">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="L11" s="45">
+      <c r="L11" s="44">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="M11" s="46" t="e">
+      <c r="M11" s="45" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="79"/>
-      <c r="B12" s="74"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30">
+      <c r="A12" s="78"/>
+      <c r="B12" s="73"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F12" s="31"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="31">
+      <c r="F12" s="30"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="30">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I12" s="42"/>
-      <c r="J12" s="43" t="e">
+      <c r="I12" s="41"/>
+      <c r="J12" s="42" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K12" s="44">
+      <c r="K12" s="43">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="L12" s="45">
+      <c r="L12" s="44">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="M12" s="46" t="e">
+      <c r="M12" s="45" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="79"/>
-      <c r="B13" s="74"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30">
+      <c r="A13" s="78"/>
+      <c r="B13" s="73"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F13" s="31"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="31">
+      <c r="F13" s="30"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="30">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I13" s="42"/>
-      <c r="J13" s="43" t="e">
+      <c r="I13" s="41"/>
+      <c r="J13" s="42" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K13" s="44">
+      <c r="K13" s="43">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="L13" s="45">
+      <c r="L13" s="44">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="M13" s="46" t="e">
+      <c r="M13" s="45" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="14.25" thickBot="1">
-      <c r="A14" s="80"/>
-      <c r="B14" s="76"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34">
+      <c r="A14" s="79"/>
+      <c r="B14" s="75"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F14" s="35"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="35">
+      <c r="F14" s="34"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="34">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I14" s="47"/>
-      <c r="J14" s="48" t="e">
+      <c r="I14" s="46"/>
+      <c r="J14" s="47" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K14" s="49">
+      <c r="K14" s="48">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="L14" s="50">
+      <c r="L14" s="49">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="M14" s="51" t="e">
+      <c r="M14" s="50" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
@@ -2204,91 +2289,91 @@
     <col min="12" max="14" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="18" customFormat="1" ht="27">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:15" s="17" customFormat="1" ht="27">
+      <c r="A1" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="H1" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="I1" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="20" t="s">
+      <c r="J1" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="20" t="s">
+      <c r="K1" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="19" t="s">
+      <c r="L1" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="19" t="s">
+      <c r="M1" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="N1" s="19" t="s">
+      <c r="N1" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="19" t="s">
+      <c r="O1" s="18" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="94">
+      <c r="A2" s="97">
         <v>51</v>
       </c>
-      <c r="B2" s="62">
+      <c r="B2" s="61">
         <v>43085</v>
       </c>
-      <c r="C2" s="52" t="s">
+      <c r="C2" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="52" t="s">
+      <c r="D2" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="52" t="s">
+      <c r="E2" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="F2" s="52" t="s">
+      <c r="F2" s="51" t="s">
         <v>41</v>
       </c>
       <c r="G2" s="1">
         <v>76115600</v>
       </c>
-      <c r="H2" s="52" t="s">
+      <c r="H2" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="I2" s="52" t="s">
+      <c r="I2" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="J2" s="52" t="s">
+      <c r="J2" s="51" t="s">
         <v>44</v>
       </c>
       <c r="K2" s="1">
         <v>17602558329</v>
       </c>
-      <c r="L2" s="52" t="s">
+      <c r="L2" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="M2" s="52" t="s">
+      <c r="M2" s="51" t="s">
         <v>46</v>
       </c>
       <c r="N2" s="1">
@@ -2299,41 +2384,41 @@
       </c>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="95"/>
-      <c r="B3" s="62">
+      <c r="A3" s="99"/>
+      <c r="B3" s="61">
         <v>43085</v>
       </c>
-      <c r="C3" s="52" t="s">
+      <c r="C3" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="52" t="s">
+      <c r="D3" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="52" t="s">
+      <c r="E3" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="52" t="s">
+      <c r="F3" s="51" t="s">
         <v>48</v>
       </c>
       <c r="G3" s="1">
         <v>76116311</v>
       </c>
-      <c r="H3" s="52" t="s">
+      <c r="H3" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="I3" s="52" t="s">
+      <c r="I3" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="J3" s="52" t="s">
+      <c r="J3" s="51" t="s">
         <v>44</v>
       </c>
       <c r="K3" s="11">
         <v>17602558329</v>
       </c>
-      <c r="L3" s="52" t="s">
+      <c r="L3" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="M3" s="52" t="s">
+      <c r="M3" s="51" t="s">
         <v>46</v>
       </c>
       <c r="N3" s="1">
@@ -2344,46 +2429,46 @@
       </c>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="94">
+      <c r="A4" s="97">
         <v>52</v>
       </c>
-      <c r="B4" s="62">
+      <c r="B4" s="61">
         <v>43084</v>
       </c>
-      <c r="C4" s="52" t="s">
+      <c r="C4" s="51" t="s">
         <v>62</v>
       </c>
-      <c r="D4" s="52" t="s">
+      <c r="D4" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="E4" s="52" t="s">
+      <c r="E4" s="51" t="s">
         <v>64</v>
       </c>
-      <c r="F4" s="52" t="s">
+      <c r="F4" s="51" t="s">
         <v>66</v>
       </c>
       <c r="G4" s="11">
         <v>76101513</v>
       </c>
-      <c r="H4" s="52" t="s">
+      <c r="H4" s="51" t="s">
         <v>65</v>
       </c>
-      <c r="I4" s="52" t="s">
+      <c r="I4" s="51" t="s">
         <v>66</v>
       </c>
-      <c r="J4" s="52" t="s">
+      <c r="J4" s="51" t="s">
         <v>44</v>
       </c>
       <c r="K4" s="11">
         <v>17602558329</v>
       </c>
-      <c r="L4" s="52" t="s">
+      <c r="L4" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="M4" s="52" t="s">
+      <c r="M4" s="51" t="s">
         <v>68</v>
       </c>
-      <c r="N4" s="61" t="s">
+      <c r="N4" s="60" t="s">
         <v>69</v>
       </c>
       <c r="O4" s="11" t="s">
@@ -2391,44 +2476,44 @@
       </c>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="95"/>
-      <c r="B5" s="62">
+      <c r="A5" s="99"/>
+      <c r="B5" s="61">
         <v>43097</v>
       </c>
-      <c r="C5" s="52" t="s">
+      <c r="C5" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="52" t="s">
+      <c r="D5" s="51" t="s">
         <v>58</v>
       </c>
-      <c r="E5" s="52" t="s">
+      <c r="E5" s="51" t="s">
         <v>59</v>
       </c>
-      <c r="F5" s="52" t="s">
+      <c r="F5" s="51" t="s">
         <v>70</v>
       </c>
       <c r="G5" s="1">
         <v>76119685</v>
       </c>
-      <c r="H5" s="52" t="s">
+      <c r="H5" s="51" t="s">
         <v>57</v>
       </c>
-      <c r="I5" s="52" t="s">
+      <c r="I5" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="J5" s="52" t="s">
+      <c r="J5" s="51" t="s">
         <v>44</v>
       </c>
       <c r="K5" s="11">
         <v>17602558329</v>
       </c>
-      <c r="L5" s="60" t="s">
+      <c r="L5" s="59" t="s">
         <v>60</v>
       </c>
-      <c r="M5" s="60" t="s">
+      <c r="M5" s="59" t="s">
         <v>61</v>
       </c>
-      <c r="N5" s="60">
+      <c r="N5" s="59">
         <v>18601585219</v>
       </c>
       <c r="O5" s="11" t="s">
@@ -2436,46 +2521,46 @@
       </c>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="94">
+      <c r="A6" s="97">
         <v>1</v>
       </c>
-      <c r="B6" s="63">
+      <c r="B6" s="62">
         <v>43103</v>
       </c>
-      <c r="C6" s="52" t="s">
+      <c r="C6" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="52" t="s">
+      <c r="D6" s="51" t="s">
         <v>58</v>
       </c>
-      <c r="E6" s="52" t="s">
+      <c r="E6" s="51" t="s">
         <v>59</v>
       </c>
-      <c r="F6" s="52" t="s">
+      <c r="F6" s="51" t="s">
         <v>71</v>
       </c>
       <c r="G6" s="1">
         <v>76119689</v>
       </c>
-      <c r="H6" s="52" t="s">
+      <c r="H6" s="51" t="s">
         <v>72</v>
       </c>
-      <c r="I6" s="52" t="s">
+      <c r="I6" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="J6" s="52" t="s">
+      <c r="J6" s="51" t="s">
         <v>44</v>
       </c>
       <c r="K6" s="11">
         <v>17602558329</v>
       </c>
-      <c r="L6" s="60" t="s">
+      <c r="L6" s="59" t="s">
         <v>60</v>
       </c>
-      <c r="M6" s="60" t="s">
+      <c r="M6" s="59" t="s">
         <v>61</v>
       </c>
-      <c r="N6" s="60">
+      <c r="N6" s="59">
         <v>18601585219</v>
       </c>
       <c r="O6" s="11" t="s">
@@ -2483,44 +2568,44 @@
       </c>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="95"/>
-      <c r="B7" s="63">
+      <c r="A7" s="99"/>
+      <c r="B7" s="62">
         <v>43103</v>
       </c>
-      <c r="C7" s="52" t="s">
+      <c r="C7" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="52" t="s">
+      <c r="D7" s="51" t="s">
         <v>58</v>
       </c>
-      <c r="E7" s="52" t="s">
+      <c r="E7" s="51" t="s">
         <v>59</v>
       </c>
-      <c r="F7" s="52" t="s">
-        <v>77</v>
+      <c r="F7" s="51" t="s">
+        <v>76</v>
       </c>
       <c r="G7" s="1">
         <v>76115775</v>
       </c>
-      <c r="H7" s="52" t="s">
+      <c r="H7" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="I7" s="51" t="s">
         <v>78</v>
       </c>
-      <c r="I7" s="52" t="s">
-        <v>79</v>
-      </c>
-      <c r="J7" s="52" t="s">
+      <c r="J7" s="51" t="s">
         <v>44</v>
       </c>
       <c r="K7" s="11">
         <v>17602558329</v>
       </c>
-      <c r="L7" s="60" t="s">
+      <c r="L7" s="59" t="s">
         <v>60</v>
       </c>
-      <c r="M7" s="60" t="s">
+      <c r="M7" s="59" t="s">
         <v>61</v>
       </c>
-      <c r="N7" s="60">
+      <c r="N7" s="59">
         <v>18601585219</v>
       </c>
       <c r="O7" s="11" t="s">
@@ -2528,89 +2613,89 @@
       </c>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="94">
+      <c r="A8" s="97">
         <v>2</v>
       </c>
-      <c r="B8" s="63">
+      <c r="B8" s="62">
         <v>43109</v>
       </c>
-      <c r="C8" s="52" t="s">
+      <c r="C8" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="52" t="s">
+      <c r="D8" s="51" t="s">
+        <v>82</v>
+      </c>
+      <c r="E8" s="51" t="s">
+        <v>82</v>
+      </c>
+      <c r="F8" s="51" t="s">
         <v>83</v>
-      </c>
-      <c r="E8" s="52" t="s">
-        <v>83</v>
-      </c>
-      <c r="F8" s="52" t="s">
-        <v>84</v>
       </c>
       <c r="G8" s="1">
         <v>76120305</v>
       </c>
-      <c r="H8" s="52" t="s">
-        <v>83</v>
-      </c>
-      <c r="I8" s="52" t="s">
+      <c r="H8" s="51" t="s">
+        <v>82</v>
+      </c>
+      <c r="I8" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="J8" s="52" t="s">
+      <c r="J8" s="51" t="s">
         <v>44</v>
       </c>
       <c r="K8" s="11">
         <v>17602558329</v>
       </c>
-      <c r="L8" s="52" t="s">
+      <c r="L8" s="51" t="s">
+        <v>84</v>
+      </c>
+      <c r="M8" s="51" t="s">
         <v>85</v>
-      </c>
-      <c r="M8" s="52" t="s">
-        <v>86</v>
       </c>
       <c r="N8" s="1">
         <v>13921387360</v>
       </c>
       <c r="O8" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:15">
-      <c r="A9" s="95"/>
-      <c r="B9" s="63">
+      <c r="A9" s="99"/>
+      <c r="B9" s="62">
         <v>43109</v>
       </c>
-      <c r="C9" s="52" t="s">
+      <c r="C9" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="52" t="s">
+      <c r="D9" s="51" t="s">
         <v>58</v>
       </c>
-      <c r="E9" s="52" t="s">
+      <c r="E9" s="51" t="s">
         <v>59</v>
       </c>
-      <c r="F9" s="52" t="s">
-        <v>81</v>
+      <c r="F9" s="51" t="s">
+        <v>80</v>
       </c>
       <c r="G9" s="1">
         <v>76117397</v>
       </c>
-      <c r="H9" s="52" t="s">
-        <v>80</v>
-      </c>
-      <c r="I9" s="52" t="s">
+      <c r="H9" s="51" t="s">
+        <v>79</v>
+      </c>
+      <c r="I9" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="J9" s="52" t="s">
+      <c r="J9" s="51" t="s">
         <v>44</v>
       </c>
       <c r="K9" s="11">
         <v>17602558329</v>
       </c>
-      <c r="L9" s="52" t="s">
-        <v>82</v>
-      </c>
-      <c r="M9" s="52" t="s">
-        <v>86</v>
+      <c r="L9" s="51" t="s">
+        <v>81</v>
+      </c>
+      <c r="M9" s="51" t="s">
+        <v>85</v>
       </c>
       <c r="N9" s="1">
         <v>13567912454</v>
@@ -2620,46 +2705,46 @@
       </c>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="94">
+      <c r="A10" s="97">
         <v>3</v>
       </c>
-      <c r="B10" s="63">
+      <c r="B10" s="62">
         <v>43116</v>
       </c>
-      <c r="C10" s="52" t="s">
+      <c r="C10" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="52" t="s">
-        <v>97</v>
-      </c>
-      <c r="E10" s="52" t="s">
-        <v>98</v>
-      </c>
-      <c r="F10" s="52" t="s">
-        <v>99</v>
+      <c r="D10" s="51" t="s">
+        <v>92</v>
+      </c>
+      <c r="E10" s="51" t="s">
+        <v>93</v>
+      </c>
+      <c r="F10" s="51" t="s">
+        <v>94</v>
       </c>
       <c r="G10" s="1">
         <v>76110597</v>
       </c>
-      <c r="H10" s="52" t="s">
-        <v>100</v>
-      </c>
-      <c r="I10" s="52" t="s">
-        <v>101</v>
-      </c>
-      <c r="J10" s="52" t="s">
+      <c r="H10" s="51" t="s">
+        <v>95</v>
+      </c>
+      <c r="I10" s="51" t="s">
+        <v>96</v>
+      </c>
+      <c r="J10" s="51" t="s">
         <v>44</v>
       </c>
       <c r="K10" s="11">
         <v>17602558329</v>
       </c>
       <c r="L10" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="M10" s="52" t="s">
-        <v>103</v>
-      </c>
-      <c r="N10" s="81">
+        <v>97</v>
+      </c>
+      <c r="M10" s="51" t="s">
+        <v>98</v>
+      </c>
+      <c r="N10" s="80">
         <v>15651888368</v>
       </c>
       <c r="O10" s="11" t="s">
@@ -2667,44 +2752,44 @@
       </c>
     </row>
     <row r="11" spans="1:15">
-      <c r="A11" s="95"/>
-      <c r="B11" s="63">
+      <c r="A11" s="99"/>
+      <c r="B11" s="62">
         <v>43116</v>
       </c>
-      <c r="C11" s="52" t="s">
+      <c r="C11" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="52" t="s">
+      <c r="D11" s="51" t="s">
         <v>58</v>
       </c>
-      <c r="E11" s="52" t="s">
+      <c r="E11" s="51" t="s">
         <v>59</v>
       </c>
-      <c r="F11" s="52" t="s">
-        <v>104</v>
+      <c r="F11" s="51" t="s">
+        <v>99</v>
       </c>
       <c r="G11" s="1">
         <v>76117399</v>
       </c>
-      <c r="H11" s="52" t="s">
-        <v>105</v>
-      </c>
-      <c r="I11" s="52" t="s">
-        <v>101</v>
-      </c>
-      <c r="J11" s="52" t="s">
+      <c r="H11" s="51" t="s">
+        <v>100</v>
+      </c>
+      <c r="I11" s="51" t="s">
+        <v>96</v>
+      </c>
+      <c r="J11" s="51" t="s">
         <v>44</v>
       </c>
       <c r="K11" s="11">
         <v>17602558329</v>
       </c>
       <c r="L11" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="M11" s="84" t="s">
-        <v>107</v>
-      </c>
-      <c r="N11" s="81">
+        <v>101</v>
+      </c>
+      <c r="M11" s="83" t="s">
+        <v>102</v>
+      </c>
+      <c r="N11" s="80">
         <v>13780054964</v>
       </c>
       <c r="O11" s="11" t="s">
@@ -2712,46 +2797,46 @@
       </c>
     </row>
     <row r="12" spans="1:15">
-      <c r="A12" s="82">
+      <c r="A12" s="81">
         <v>4</v>
       </c>
-      <c r="B12" s="63">
+      <c r="B12" s="62">
         <v>43122</v>
       </c>
-      <c r="C12" s="52" t="s">
+      <c r="C12" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="52" t="s">
+      <c r="D12" s="51" t="s">
         <v>58</v>
       </c>
-      <c r="E12" s="52" t="s">
+      <c r="E12" s="51" t="s">
         <v>59</v>
       </c>
-      <c r="F12" s="52" t="s">
-        <v>108</v>
+      <c r="F12" s="51" t="s">
+        <v>103</v>
       </c>
       <c r="G12" s="1">
         <v>76121691</v>
       </c>
-      <c r="H12" s="52" t="s">
-        <v>109</v>
-      </c>
-      <c r="I12" s="52" t="s">
-        <v>101</v>
-      </c>
-      <c r="J12" s="52" t="s">
+      <c r="H12" s="51" t="s">
+        <v>104</v>
+      </c>
+      <c r="I12" s="51" t="s">
+        <v>96</v>
+      </c>
+      <c r="J12" s="51" t="s">
         <v>44</v>
       </c>
       <c r="K12" s="11">
         <v>17602558329</v>
       </c>
       <c r="L12" t="s">
-        <v>110</v>
-      </c>
-      <c r="M12" s="84" t="s">
-        <v>111</v>
-      </c>
-      <c r="N12" s="83">
+        <v>105</v>
+      </c>
+      <c r="M12" s="83" t="s">
+        <v>106</v>
+      </c>
+      <c r="N12" s="82">
         <v>18852665200</v>
       </c>
       <c r="O12" s="11" t="s">
@@ -2759,55 +2844,141 @@
       </c>
     </row>
     <row r="13" spans="1:15">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
+      <c r="A13" s="97">
+        <v>5</v>
+      </c>
+      <c r="B13" s="62">
+        <v>43130</v>
+      </c>
+      <c r="C13" s="51" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="51" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" s="51" t="s">
+        <v>59</v>
+      </c>
+      <c r="F13" s="51" t="s">
+        <v>109</v>
+      </c>
+      <c r="G13" s="1">
+        <v>76121956</v>
+      </c>
+      <c r="H13" s="51" t="s">
+        <v>110</v>
+      </c>
+      <c r="I13" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="J13" s="51" t="s">
+        <v>44</v>
+      </c>
+      <c r="K13" s="11">
+        <v>17602558329</v>
+      </c>
+      <c r="L13" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="M13" s="51" t="s">
+        <v>112</v>
+      </c>
+      <c r="N13" s="1">
+        <v>13921280802</v>
+      </c>
+      <c r="O13" s="11" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="14" spans="1:15">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
+      <c r="A14" s="98"/>
+      <c r="B14" s="62">
+        <v>43130</v>
+      </c>
+      <c r="C14" s="51" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="51" t="s">
+        <v>113</v>
+      </c>
+      <c r="E14" s="51" t="s">
+        <v>93</v>
+      </c>
+      <c r="F14" s="51" t="s">
+        <v>114</v>
+      </c>
+      <c r="G14" s="1">
+        <v>76121671</v>
+      </c>
+      <c r="H14" s="51" t="s">
+        <v>115</v>
+      </c>
+      <c r="I14" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="J14" s="51" t="s">
+        <v>44</v>
+      </c>
+      <c r="K14" s="11">
+        <v>17602558329</v>
+      </c>
+      <c r="L14" s="87" t="s">
+        <v>116</v>
+      </c>
+      <c r="M14" s="51" t="s">
+        <v>117</v>
+      </c>
+      <c r="N14" s="82">
+        <v>13605150024</v>
+      </c>
+      <c r="O14" s="11" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="15" spans="1:15">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
+      <c r="A15" s="99"/>
+      <c r="B15" s="62">
+        <v>43131</v>
+      </c>
+      <c r="C15" s="51" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="51" t="s">
+        <v>118</v>
+      </c>
+      <c r="E15" s="51" t="s">
+        <v>119</v>
+      </c>
+      <c r="F15" s="51" t="s">
+        <v>120</v>
+      </c>
+      <c r="G15" s="1">
+        <v>76125223</v>
+      </c>
+      <c r="H15" s="51" t="s">
+        <v>121</v>
+      </c>
+      <c r="I15" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="J15" s="51" t="s">
+        <v>44</v>
+      </c>
+      <c r="K15" s="11">
+        <v>17602558329</v>
+      </c>
+      <c r="L15" s="51" t="s">
+        <v>122</v>
+      </c>
+      <c r="M15" s="51" t="s">
+        <v>123</v>
+      </c>
+      <c r="N15" s="1">
+        <v>18112604296</v>
+      </c>
+      <c r="O15" s="11" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="1"/>
@@ -7672,7 +7843,8 @@
       <c r="O301" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="A13:A15"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A6:A7"/>
@@ -7695,7 +7867,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G85"/>
+  <dimension ref="A1:G84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I2" sqref="I2"/>
@@ -7736,17 +7908,17 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="96">
+      <c r="A2" s="97">
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="C2" s="16">
+      <c r="C2" s="103">
         <v>43102</v>
       </c>
-      <c r="D2" s="53" t="s">
-        <v>112</v>
+      <c r="D2" s="52" t="s">
+        <v>107</v>
       </c>
       <c r="E2" s="11" t="s">
         <v>56</v>
@@ -7754,20 +7926,20 @@
       <c r="F2" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="G2" s="52" t="s">
+      <c r="G2" s="51" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="96"/>
+      <c r="A3" s="98"/>
       <c r="B3" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="C3" s="16">
-        <v>43104</v>
-      </c>
-      <c r="D3" s="53" t="s">
-        <v>76</v>
+        <v>87</v>
+      </c>
+      <c r="C3" s="103">
+        <v>43105</v>
+      </c>
+      <c r="D3" s="52" t="s">
+        <v>89</v>
       </c>
       <c r="E3" s="11" t="s">
         <v>51</v>
@@ -7775,20 +7947,20 @@
       <c r="F3" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="G3" s="52" t="s">
+      <c r="G3" s="51" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="96"/>
+      <c r="A4" s="99"/>
       <c r="B4" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4" s="103">
+        <v>43105</v>
+      </c>
+      <c r="D4" s="52" t="s">
         <v>89</v>
-      </c>
-      <c r="C4" s="16">
-        <v>43105</v>
-      </c>
-      <c r="D4" s="53" t="s">
-        <v>92</v>
       </c>
       <c r="E4" s="11" t="s">
         <v>51</v>
@@ -7796,20 +7968,22 @@
       <c r="F4" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="G4" s="52" t="s">
+      <c r="G4" s="51" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="96"/>
+      <c r="A5" s="63">
+        <v>2</v>
+      </c>
       <c r="B5" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="C5" s="16">
-        <v>43105</v>
-      </c>
-      <c r="D5" s="53" t="s">
-        <v>92</v>
+      <c r="C5" s="103">
+        <v>43111</v>
+      </c>
+      <c r="D5" s="52" t="s">
+        <v>125</v>
       </c>
       <c r="E5" s="11" t="s">
         <v>51</v>
@@ -7817,20 +7991,22 @@
       <c r="F5" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="G5" s="52" t="s">
+      <c r="G5" s="51" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="96"/>
-      <c r="B6" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="C6" s="16">
-        <v>43105</v>
-      </c>
-      <c r="D6" s="53" t="s">
-        <v>92</v>
+      <c r="A6" s="86">
+        <v>3</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C6" s="103">
+        <v>43119</v>
+      </c>
+      <c r="D6" s="52" t="s">
+        <v>107</v>
       </c>
       <c r="E6" s="11" t="s">
         <v>51</v>
@@ -7838,22 +8014,22 @@
       <c r="F6" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="G6" s="52" t="s">
-        <v>53</v>
+      <c r="G6" s="51" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="64">
-        <v>2</v>
+      <c r="A7" s="97">
+        <v>4</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="C7" s="16">
-        <v>43111</v>
-      </c>
-      <c r="D7" s="53" t="s">
-        <v>93</v>
+        <v>124</v>
+      </c>
+      <c r="C7" s="103">
+        <v>43126</v>
+      </c>
+      <c r="D7" s="52" t="s">
+        <v>89</v>
       </c>
       <c r="E7" s="11" t="s">
         <v>51</v>
@@ -7861,48 +8037,72 @@
       <c r="F7" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="G7" s="52" t="s">
-        <v>53</v>
+      <c r="G7" s="51" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="54"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-    </row>
-    <row r="9" spans="1:7" ht="14.25">
-      <c r="A9" s="94"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="12"/>
+      <c r="A8" s="98"/>
+      <c r="B8" s="101" t="s">
+        <v>127</v>
+      </c>
+      <c r="C8" s="103">
+        <v>43126</v>
+      </c>
+      <c r="D8" s="102" t="s">
+        <v>129</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="G8" s="51" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="99"/>
+      <c r="B9" s="101" t="s">
+        <v>128</v>
+      </c>
+      <c r="C9" s="103">
+        <v>43126</v>
+      </c>
+      <c r="D9" s="102" t="s">
+        <v>129</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="G9" s="51" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="10" spans="1:7" ht="14.25">
-      <c r="A10" s="97"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="14"/>
+      <c r="A10" s="100"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="13"/>
       <c r="E10" s="11"/>
       <c r="F10" s="11"/>
-      <c r="G10" s="12"/>
-    </row>
-    <row r="11" spans="1:7" ht="14.25">
-      <c r="A11" s="97"/>
+      <c r="G10" s="9"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="100"/>
       <c r="B11" s="9"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="14"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="10"/>
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
-      <c r="G11" s="9"/>
+      <c r="G11" s="11"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="97"/>
+      <c r="A12" s="100"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
       <c r="D12" s="10"/>
@@ -7911,7 +8111,7 @@
       <c r="G12" s="11"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="97"/>
+      <c r="A13" s="100"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
       <c r="D13" s="10"/>
@@ -7920,7 +8120,7 @@
       <c r="G13" s="11"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="97"/>
+      <c r="A14" s="100"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
       <c r="D14" s="10"/>
@@ -7929,7 +8129,7 @@
       <c r="G14" s="11"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="97"/>
+      <c r="A15" s="100"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
       <c r="D15" s="10"/>
@@ -7938,16 +8138,16 @@
       <c r="G15" s="11"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="97"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
+      <c r="A16" s="100"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
       <c r="D16" s="10"/>
       <c r="E16" s="11"/>
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="97"/>
+      <c r="A17" s="100"/>
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
       <c r="D17" s="10"/>
@@ -7956,7 +8156,7 @@
       <c r="G17" s="11"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="97"/>
+      <c r="A18" s="100"/>
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
       <c r="D18" s="10"/>
@@ -7965,7 +8165,7 @@
       <c r="G18" s="11"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="97"/>
+      <c r="A19" s="100"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
       <c r="D19" s="10"/>
@@ -7974,7 +8174,7 @@
       <c r="G19" s="11"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="97"/>
+      <c r="A20" s="53"/>
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
       <c r="D20" s="10"/>
@@ -7982,35 +8182,35 @@
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
     </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="95"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="10"/>
+    <row r="21" spans="1:7" ht="14.25">
+      <c r="A21" s="97"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="13"/>
       <c r="E21" s="11"/>
       <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
+      <c r="G21" s="12"/>
     </row>
     <row r="22" spans="1:7" ht="14.25">
-      <c r="A22" s="94"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="14"/>
+      <c r="A22" s="98"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="13"/>
       <c r="E22" s="11"/>
       <c r="F22" s="11"/>
-      <c r="G22" s="12"/>
-    </row>
-    <row r="23" spans="1:7" ht="14.25">
-      <c r="A23" s="97"/>
+      <c r="G22" s="9"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="98"/>
       <c r="B23" s="9"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="14"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="10"/>
       <c r="E23" s="11"/>
       <c r="F23" s="11"/>
-      <c r="G23" s="9"/>
+      <c r="G23" s="11"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="97"/>
+      <c r="A24" s="98"/>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
       <c r="D24" s="10"/>
@@ -8019,16 +8219,16 @@
       <c r="G24" s="11"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="97"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
+      <c r="A25" s="98"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
       <c r="D25" s="10"/>
       <c r="E25" s="11"/>
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="97"/>
+      <c r="A26" s="98"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
       <c r="D26" s="10"/>
@@ -8037,7 +8237,7 @@
       <c r="G26" s="11"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="97"/>
+      <c r="A27" s="98"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
       <c r="D27" s="10"/>
@@ -8046,16 +8246,16 @@
       <c r="G27" s="11"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="97"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
+      <c r="A28" s="98"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
       <c r="D28" s="10"/>
       <c r="E28" s="11"/>
       <c r="F28" s="11"/>
       <c r="G28" s="11"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="97"/>
+      <c r="A29" s="98"/>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
       <c r="D29" s="10"/>
@@ -8064,16 +8264,16 @@
       <c r="G29" s="11"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="97"/>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
+      <c r="A30" s="98"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
       <c r="D30" s="10"/>
       <c r="E30" s="11"/>
       <c r="F30" s="11"/>
       <c r="G30" s="11"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="97"/>
+      <c r="A31" s="98"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
       <c r="D31" s="10"/>
@@ -8082,7 +8282,7 @@
       <c r="G31" s="11"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="97"/>
+      <c r="A32" s="98"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
       <c r="D32" s="10"/>
@@ -8091,7 +8291,7 @@
       <c r="G32" s="11"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="97"/>
+      <c r="A33" s="98"/>
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
       <c r="D33" s="10"/>
@@ -8100,7 +8300,7 @@
       <c r="G33" s="11"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="97"/>
+      <c r="A34" s="98"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
       <c r="D34" s="10"/>
@@ -8109,7 +8309,7 @@
       <c r="G34" s="11"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="97"/>
+      <c r="A35" s="99"/>
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
       <c r="D35" s="10"/>
@@ -8117,35 +8317,35 @@
       <c r="F35" s="11"/>
       <c r="G35" s="11"/>
     </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="95"/>
-      <c r="B36" s="11"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="10"/>
+    <row r="36" spans="1:7" ht="14.25">
+      <c r="A36" s="97"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="13"/>
       <c r="E36" s="11"/>
       <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
+      <c r="G36" s="9"/>
     </row>
     <row r="37" spans="1:7" ht="14.25">
-      <c r="A37" s="94"/>
+      <c r="A37" s="98"/>
       <c r="B37" s="9"/>
       <c r="C37" s="15"/>
-      <c r="D37" s="14"/>
+      <c r="D37" s="13"/>
       <c r="E37" s="11"/>
       <c r="F37" s="11"/>
-      <c r="G37" s="9"/>
-    </row>
-    <row r="38" spans="1:7" ht="14.25">
-      <c r="A38" s="97"/>
+      <c r="G37" s="4"/>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="98"/>
       <c r="B38" s="9"/>
-      <c r="C38" s="16"/>
-      <c r="D38" s="14"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="10"/>
       <c r="E38" s="11"/>
       <c r="F38" s="11"/>
-      <c r="G38" s="4"/>
+      <c r="G38" s="11"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="97"/>
+      <c r="A39" s="98"/>
       <c r="B39" s="9"/>
       <c r="C39" s="9"/>
       <c r="D39" s="10"/>
@@ -8154,7 +8354,7 @@
       <c r="G39" s="11"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="97"/>
+      <c r="A40" s="98"/>
       <c r="B40" s="9"/>
       <c r="C40" s="9"/>
       <c r="D40" s="10"/>
@@ -8163,7 +8363,7 @@
       <c r="G40" s="11"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="97"/>
+      <c r="A41" s="98"/>
       <c r="B41" s="9"/>
       <c r="C41" s="9"/>
       <c r="D41" s="10"/>
@@ -8172,7 +8372,7 @@
       <c r="G41" s="11"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="97"/>
+      <c r="A42" s="98"/>
       <c r="B42" s="9"/>
       <c r="C42" s="9"/>
       <c r="D42" s="10"/>
@@ -8181,7 +8381,7 @@
       <c r="G42" s="11"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="97"/>
+      <c r="A43" s="98"/>
       <c r="B43" s="9"/>
       <c r="C43" s="9"/>
       <c r="D43" s="10"/>
@@ -8190,16 +8390,16 @@
       <c r="G43" s="11"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="97"/>
-      <c r="B44" s="9"/>
-      <c r="C44" s="9"/>
+      <c r="A44" s="98"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="11"/>
       <c r="D44" s="10"/>
       <c r="E44" s="11"/>
       <c r="F44" s="11"/>
       <c r="G44" s="11"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="97"/>
+      <c r="A45" s="98"/>
       <c r="B45" s="11"/>
       <c r="C45" s="11"/>
       <c r="D45" s="10"/>
@@ -8208,7 +8408,7 @@
       <c r="G45" s="11"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="97"/>
+      <c r="A46" s="98"/>
       <c r="B46" s="11"/>
       <c r="C46" s="11"/>
       <c r="D46" s="10"/>
@@ -8217,7 +8417,7 @@
       <c r="G46" s="11"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="97"/>
+      <c r="A47" s="98"/>
       <c r="B47" s="11"/>
       <c r="C47" s="11"/>
       <c r="D47" s="10"/>
@@ -8226,7 +8426,7 @@
       <c r="G47" s="11"/>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="97"/>
+      <c r="A48" s="98"/>
       <c r="B48" s="11"/>
       <c r="C48" s="11"/>
       <c r="D48" s="10"/>
@@ -8235,7 +8435,7 @@
       <c r="G48" s="11"/>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="97"/>
+      <c r="A49" s="98"/>
       <c r="B49" s="11"/>
       <c r="C49" s="11"/>
       <c r="D49" s="10"/>
@@ -8244,61 +8444,61 @@
       <c r="G49" s="11"/>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="97"/>
-      <c r="B50" s="11"/>
-      <c r="C50" s="11"/>
+      <c r="A50" s="99"/>
+      <c r="B50" s="9"/>
+      <c r="C50" s="9"/>
       <c r="D50" s="10"/>
       <c r="E50" s="11"/>
       <c r="F50" s="11"/>
       <c r="G50" s="11"/>
     </row>
-    <row r="51" spans="1:7">
-      <c r="A51" s="95"/>
+    <row r="51" spans="1:7" ht="14.25">
+      <c r="A51" s="97"/>
       <c r="B51" s="9"/>
-      <c r="C51" s="9"/>
-      <c r="D51" s="10"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="13"/>
       <c r="E51" s="11"/>
       <c r="F51" s="11"/>
-      <c r="G51" s="11"/>
+      <c r="G51" s="9"/>
     </row>
     <row r="52" spans="1:7" ht="14.25">
-      <c r="A52" s="94"/>
+      <c r="A52" s="98"/>
       <c r="B52" s="9"/>
       <c r="C52" s="15"/>
-      <c r="D52" s="14"/>
+      <c r="D52" s="13"/>
       <c r="E52" s="11"/>
       <c r="F52" s="11"/>
-      <c r="G52" s="9"/>
+      <c r="G52" s="4"/>
     </row>
     <row r="53" spans="1:7" ht="14.25">
-      <c r="A53" s="97"/>
+      <c r="A53" s="98"/>
       <c r="B53" s="9"/>
-      <c r="C53" s="16"/>
-      <c r="D53" s="14"/>
+      <c r="C53" s="15"/>
+      <c r="D53" s="13"/>
       <c r="E53" s="11"/>
       <c r="F53" s="11"/>
       <c r="G53" s="4"/>
     </row>
     <row r="54" spans="1:7" ht="14.25">
-      <c r="A54" s="97"/>
+      <c r="A54" s="98"/>
       <c r="B54" s="9"/>
-      <c r="C54" s="16"/>
-      <c r="D54" s="14"/>
+      <c r="C54" s="15"/>
+      <c r="D54" s="13"/>
       <c r="E54" s="11"/>
       <c r="F54" s="11"/>
-      <c r="G54" s="4"/>
-    </row>
-    <row r="55" spans="1:7" ht="14.25">
-      <c r="A55" s="97"/>
+      <c r="G54" s="16"/>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="98"/>
       <c r="B55" s="9"/>
-      <c r="C55" s="16"/>
-      <c r="D55" s="14"/>
+      <c r="C55" s="9"/>
+      <c r="D55" s="10"/>
       <c r="E55" s="11"/>
       <c r="F55" s="11"/>
-      <c r="G55" s="17"/>
+      <c r="G55" s="11"/>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="97"/>
+      <c r="A56" s="98"/>
       <c r="B56" s="9"/>
       <c r="C56" s="9"/>
       <c r="D56" s="10"/>
@@ -8307,7 +8507,7 @@
       <c r="G56" s="11"/>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="97"/>
+      <c r="A57" s="98"/>
       <c r="B57" s="9"/>
       <c r="C57" s="9"/>
       <c r="D57" s="10"/>
@@ -8316,7 +8516,7 @@
       <c r="G57" s="11"/>
     </row>
     <row r="58" spans="1:7">
-      <c r="A58" s="97"/>
+      <c r="A58" s="98"/>
       <c r="B58" s="9"/>
       <c r="C58" s="9"/>
       <c r="D58" s="10"/>
@@ -8325,7 +8525,7 @@
       <c r="G58" s="11"/>
     </row>
     <row r="59" spans="1:7">
-      <c r="A59" s="97"/>
+      <c r="A59" s="98"/>
       <c r="B59" s="9"/>
       <c r="C59" s="9"/>
       <c r="D59" s="10"/>
@@ -8334,7 +8534,7 @@
       <c r="G59" s="11"/>
     </row>
     <row r="60" spans="1:7">
-      <c r="A60" s="97"/>
+      <c r="A60" s="98"/>
       <c r="B60" s="9"/>
       <c r="C60" s="9"/>
       <c r="D60" s="10"/>
@@ -8343,7 +8543,7 @@
       <c r="G60" s="11"/>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="97"/>
+      <c r="A61" s="98"/>
       <c r="B61" s="9"/>
       <c r="C61" s="9"/>
       <c r="D61" s="10"/>
@@ -8352,7 +8552,7 @@
       <c r="G61" s="11"/>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" s="97"/>
+      <c r="A62" s="99"/>
       <c r="B62" s="9"/>
       <c r="C62" s="9"/>
       <c r="D62" s="10"/>
@@ -8360,53 +8560,53 @@
       <c r="F62" s="11"/>
       <c r="G62" s="11"/>
     </row>
-    <row r="63" spans="1:7">
-      <c r="A63" s="95"/>
+    <row r="63" spans="1:7" ht="14.25">
+      <c r="A63" s="97"/>
       <c r="B63" s="9"/>
-      <c r="C63" s="9"/>
-      <c r="D63" s="10"/>
+      <c r="C63" s="14"/>
+      <c r="D63" s="13"/>
       <c r="E63" s="11"/>
       <c r="F63" s="11"/>
-      <c r="G63" s="11"/>
+      <c r="G63" s="9"/>
     </row>
     <row r="64" spans="1:7" ht="14.25">
-      <c r="A64" s="94"/>
+      <c r="A64" s="98"/>
       <c r="B64" s="9"/>
       <c r="C64" s="15"/>
-      <c r="D64" s="14"/>
+      <c r="D64" s="13"/>
       <c r="E64" s="11"/>
       <c r="F64" s="11"/>
-      <c r="G64" s="9"/>
+      <c r="G64" s="4"/>
     </row>
     <row r="65" spans="1:7" ht="14.25">
-      <c r="A65" s="97"/>
+      <c r="A65" s="98"/>
       <c r="B65" s="9"/>
-      <c r="C65" s="16"/>
-      <c r="D65" s="14"/>
+      <c r="C65" s="15"/>
+      <c r="D65" s="13"/>
       <c r="E65" s="11"/>
       <c r="F65" s="11"/>
       <c r="G65" s="4"/>
     </row>
     <row r="66" spans="1:7" ht="14.25">
-      <c r="A66" s="97"/>
+      <c r="A66" s="98"/>
       <c r="B66" s="9"/>
-      <c r="C66" s="16"/>
-      <c r="D66" s="14"/>
+      <c r="C66" s="15"/>
+      <c r="D66" s="13"/>
       <c r="E66" s="11"/>
       <c r="F66" s="11"/>
-      <c r="G66" s="4"/>
-    </row>
-    <row r="67" spans="1:7" ht="14.25">
-      <c r="A67" s="97"/>
+      <c r="G66" s="16"/>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" s="98"/>
       <c r="B67" s="9"/>
-      <c r="C67" s="16"/>
-      <c r="D67" s="14"/>
+      <c r="C67" s="9"/>
+      <c r="D67" s="10"/>
       <c r="E67" s="11"/>
       <c r="F67" s="11"/>
-      <c r="G67" s="17"/>
+      <c r="G67" s="11"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="97"/>
+      <c r="A68" s="98"/>
       <c r="B68" s="9"/>
       <c r="C68" s="9"/>
       <c r="D68" s="10"/>
@@ -8415,7 +8615,7 @@
       <c r="G68" s="11"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="97"/>
+      <c r="A69" s="98"/>
       <c r="B69" s="9"/>
       <c r="C69" s="9"/>
       <c r="D69" s="10"/>
@@ -8424,7 +8624,7 @@
       <c r="G69" s="11"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="97"/>
+      <c r="A70" s="98"/>
       <c r="B70" s="9"/>
       <c r="C70" s="9"/>
       <c r="D70" s="10"/>
@@ -8433,7 +8633,7 @@
       <c r="G70" s="11"/>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="97"/>
+      <c r="A71" s="98"/>
       <c r="B71" s="9"/>
       <c r="C71" s="9"/>
       <c r="D71" s="10"/>
@@ -8442,7 +8642,7 @@
       <c r="G71" s="11"/>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="97"/>
+      <c r="A72" s="98"/>
       <c r="B72" s="9"/>
       <c r="C72" s="9"/>
       <c r="D72" s="10"/>
@@ -8451,7 +8651,7 @@
       <c r="G72" s="11"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="97"/>
+      <c r="A73" s="98"/>
       <c r="B73" s="9"/>
       <c r="C73" s="9"/>
       <c r="D73" s="10"/>
@@ -8460,7 +8660,7 @@
       <c r="G73" s="11"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="97"/>
+      <c r="A74" s="99"/>
       <c r="B74" s="9"/>
       <c r="C74" s="9"/>
       <c r="D74" s="10"/>
@@ -8468,35 +8668,35 @@
       <c r="F74" s="11"/>
       <c r="G74" s="11"/>
     </row>
-    <row r="75" spans="1:7">
-      <c r="A75" s="95"/>
+    <row r="75" spans="1:7" ht="14.25">
+      <c r="A75" s="98"/>
       <c r="B75" s="9"/>
-      <c r="C75" s="9"/>
-      <c r="D75" s="10"/>
+      <c r="C75" s="15"/>
+      <c r="D75" s="13"/>
       <c r="E75" s="11"/>
       <c r="F75" s="11"/>
-      <c r="G75" s="11"/>
+      <c r="G75" s="4"/>
     </row>
     <row r="76" spans="1:7" ht="14.25">
-      <c r="A76" s="97"/>
+      <c r="A76" s="98"/>
       <c r="B76" s="9"/>
-      <c r="C76" s="16"/>
-      <c r="D76" s="14"/>
+      <c r="C76" s="15"/>
+      <c r="D76" s="13"/>
       <c r="E76" s="11"/>
       <c r="F76" s="11"/>
-      <c r="G76" s="4"/>
-    </row>
-    <row r="77" spans="1:7" ht="14.25">
-      <c r="A77" s="97"/>
+      <c r="G76" s="16"/>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77" s="98"/>
       <c r="B77" s="9"/>
-      <c r="C77" s="16"/>
-      <c r="D77" s="14"/>
+      <c r="C77" s="9"/>
+      <c r="D77" s="10"/>
       <c r="E77" s="11"/>
       <c r="F77" s="11"/>
-      <c r="G77" s="17"/>
+      <c r="G77" s="11"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="97"/>
+      <c r="A78" s="98"/>
       <c r="B78" s="9"/>
       <c r="C78" s="9"/>
       <c r="D78" s="10"/>
@@ -8505,7 +8705,7 @@
       <c r="G78" s="11"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="97"/>
+      <c r="A79" s="98"/>
       <c r="B79" s="9"/>
       <c r="C79" s="9"/>
       <c r="D79" s="10"/>
@@ -8514,7 +8714,7 @@
       <c r="G79" s="11"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="97"/>
+      <c r="A80" s="98"/>
       <c r="B80" s="9"/>
       <c r="C80" s="9"/>
       <c r="D80" s="10"/>
@@ -8523,7 +8723,7 @@
       <c r="G80" s="11"/>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="97"/>
+      <c r="A81" s="98"/>
       <c r="B81" s="9"/>
       <c r="C81" s="9"/>
       <c r="D81" s="10"/>
@@ -8532,7 +8732,7 @@
       <c r="G81" s="11"/>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="97"/>
+      <c r="A82" s="98"/>
       <c r="B82" s="9"/>
       <c r="C82" s="9"/>
       <c r="D82" s="10"/>
@@ -8541,7 +8741,7 @@
       <c r="G82" s="11"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="97"/>
+      <c r="A83" s="98"/>
       <c r="B83" s="9"/>
       <c r="C83" s="9"/>
       <c r="D83" s="10"/>
@@ -8550,7 +8750,7 @@
       <c r="G83" s="11"/>
     </row>
     <row r="84" spans="1:7">
-      <c r="A84" s="97"/>
+      <c r="A84" s="99"/>
       <c r="B84" s="9"/>
       <c r="C84" s="9"/>
       <c r="D84" s="10"/>
@@ -8558,24 +8758,15 @@
       <c r="F84" s="11"/>
       <c r="G84" s="11"/>
     </row>
-    <row r="85" spans="1:7">
-      <c r="A85" s="95"/>
-      <c r="B85" s="9"/>
-      <c r="C85" s="9"/>
-      <c r="D85" s="10"/>
-      <c r="E85" s="11"/>
-      <c r="F85" s="11"/>
-      <c r="G85" s="11"/>
-    </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A64:A75"/>
-    <mergeCell ref="A76:A85"/>
-    <mergeCell ref="A9:A21"/>
-    <mergeCell ref="A22:A36"/>
-    <mergeCell ref="A37:A51"/>
-    <mergeCell ref="A52:A63"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A63:A74"/>
+    <mergeCell ref="A75:A84"/>
+    <mergeCell ref="A21:A35"/>
+    <mergeCell ref="A36:A50"/>
+    <mergeCell ref="A51:A62"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <dataValidations count="3">
@@ -8605,7 +8796,7 @@
     <col min="1" max="1" width="9.75" style="4" customWidth="1"/>
     <col min="2" max="2" width="15.125" style="1" customWidth="1"/>
     <col min="3" max="3" width="17" style="1" customWidth="1"/>
-    <col min="4" max="4" width="29.5" style="57" customWidth="1"/>
+    <col min="4" max="4" width="29.5" style="56" customWidth="1"/>
     <col min="5" max="5" width="16" style="4" customWidth="1"/>
     <col min="6" max="6" width="17.875" bestFit="1" customWidth="1"/>
   </cols>
@@ -8620,10 +8811,10 @@
       <c r="C1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="58" t="s">
+      <c r="D1" s="57" t="s">
         <v>54</v>
       </c>
-      <c r="E1" s="55" t="s">
+      <c r="E1" s="54" t="s">
         <v>36</v>
       </c>
     </row>
@@ -8634,41 +8825,65 @@
       <c r="B2" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="59" t="s">
-        <v>95</v>
-      </c>
-      <c r="D2" s="77" t="s">
-        <v>96</v>
+      <c r="C2" s="85">
+        <v>43099</v>
+      </c>
+      <c r="D2" s="76" t="s">
+        <v>91</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="56"/>
+      <c r="A3" s="4">
+        <v>1</v>
+      </c>
+      <c r="B3" s="84" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="85">
+        <v>43127</v>
+      </c>
+      <c r="D3" s="76" t="s">
+        <v>108</v>
+      </c>
+      <c r="E3" s="84" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="56"/>
+      <c r="A4" s="4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="84" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="85">
+        <v>43128</v>
+      </c>
+      <c r="D4" s="76" t="s">
+        <v>108</v>
+      </c>
+      <c r="E4" s="84" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="5" spans="1:5">
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="59"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="58"/>
     </row>
     <row r="6" spans="1:5">
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
-      <c r="D6" s="56"/>
+      <c r="D6" s="55"/>
     </row>
     <row r="7" spans="1:5">
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
-      <c r="D7" s="56"/>
+      <c r="D7" s="55"/>
     </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>

--- a/周数据/《个人上线率统计表》-黄纯伟.xlsx
+++ b/周数据/《个人上线率统计表》-黄纯伟.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="134">
   <si>
     <t>个人上线率分析表</t>
   </si>
@@ -456,10 +456,6 @@
   </si>
   <si>
     <t>苏州</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>有点烫欧尚店</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
@@ -508,12 +504,24 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>哈姆特（鸡鸣寺店）</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>堵雪军</t>
     <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>有点烫金鸡湖欧尚店</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>有点烫西城永捷店</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>有点烫苏州中心店</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>鸡鸣赐茶</t>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1133,7 +1141,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1396,6 +1404,18 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1426,22 +1446,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1719,7 +1730,7 @@
   <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
@@ -1739,21 +1750,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15" thickBot="1">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="89"/>
-      <c r="M1" s="91"/>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="94"/>
+      <c r="K1" s="93"/>
+      <c r="L1" s="93"/>
+      <c r="M1" s="95"/>
     </row>
     <row r="2" spans="1:13" ht="14.25" thickBot="1">
       <c r="A2" s="71" t="s">
@@ -1797,7 +1808,7 @@
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="92">
+      <c r="A3" s="96">
         <v>12</v>
       </c>
       <c r="B3" s="72">
@@ -1838,7 +1849,7 @@
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="93"/>
+      <c r="A4" s="97"/>
       <c r="B4" s="73">
         <v>51</v>
       </c>
@@ -1877,7 +1888,7 @@
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="93"/>
+      <c r="A5" s="97"/>
       <c r="B5" s="73">
         <v>52</v>
       </c>
@@ -1918,7 +1929,7 @@
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="94">
+      <c r="A6" s="98">
         <v>1</v>
       </c>
       <c r="B6" s="73">
@@ -1961,7 +1972,7 @@
       </c>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="95"/>
+      <c r="A7" s="99"/>
       <c r="B7" s="73">
         <v>2</v>
       </c>
@@ -2002,7 +2013,7 @@
       </c>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="96"/>
+      <c r="A8" s="100"/>
       <c r="B8" s="73">
         <v>3</v>
       </c>
@@ -2124,12 +2135,18 @@
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="78"/>
-      <c r="B11" s="73"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="29"/>
+      <c r="B11" s="73">
+        <v>6</v>
+      </c>
+      <c r="C11" s="28">
+        <v>1</v>
+      </c>
+      <c r="D11" s="29">
+        <v>2</v>
+      </c>
       <c r="E11" s="29">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f>C11-D11</f>
+        <v>-1</v>
       </c>
       <c r="F11" s="30"/>
       <c r="G11" s="31"/>
@@ -2138,21 +2155,21 @@
         <v>0</v>
       </c>
       <c r="I11" s="41"/>
-      <c r="J11" s="42" t="e">
+      <c r="J11" s="42">
         <f t="shared" ref="J11:J14" si="11">I11/L11*100%</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="K11" s="43">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L11" s="44">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="M11" s="45" t="e">
+        <v>2</v>
+      </c>
+      <c r="M11" s="45">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -2337,7 +2354,7 @@
       </c>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="97">
+      <c r="A2" s="101">
         <v>51</v>
       </c>
       <c r="B2" s="61">
@@ -2384,7 +2401,7 @@
       </c>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="99"/>
+      <c r="A3" s="102"/>
       <c r="B3" s="61">
         <v>43085</v>
       </c>
@@ -2429,7 +2446,7 @@
       </c>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="97">
+      <c r="A4" s="101">
         <v>52</v>
       </c>
       <c r="B4" s="61">
@@ -2476,7 +2493,7 @@
       </c>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="99"/>
+      <c r="A5" s="102"/>
       <c r="B5" s="61">
         <v>43097</v>
       </c>
@@ -2521,7 +2538,7 @@
       </c>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="97">
+      <c r="A6" s="101">
         <v>1</v>
       </c>
       <c r="B6" s="62">
@@ -2568,7 +2585,7 @@
       </c>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="99"/>
+      <c r="A7" s="102"/>
       <c r="B7" s="62">
         <v>43103</v>
       </c>
@@ -2613,7 +2630,7 @@
       </c>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="97">
+      <c r="A8" s="101">
         <v>2</v>
       </c>
       <c r="B8" s="62">
@@ -2660,7 +2677,7 @@
       </c>
     </row>
     <row r="9" spans="1:15">
-      <c r="A9" s="99"/>
+      <c r="A9" s="102"/>
       <c r="B9" s="62">
         <v>43109</v>
       </c>
@@ -2705,7 +2722,7 @@
       </c>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="97">
+      <c r="A10" s="101">
         <v>3</v>
       </c>
       <c r="B10" s="62">
@@ -2752,7 +2769,7 @@
       </c>
     </row>
     <row r="11" spans="1:15">
-      <c r="A11" s="99"/>
+      <c r="A11" s="102"/>
       <c r="B11" s="62">
         <v>43116</v>
       </c>
@@ -2844,7 +2861,7 @@
       </c>
     </row>
     <row r="13" spans="1:15">
-      <c r="A13" s="97">
+      <c r="A13" s="101">
         <v>5</v>
       </c>
       <c r="B13" s="62">
@@ -2891,7 +2908,7 @@
       </c>
     </row>
     <row r="14" spans="1:15">
-      <c r="A14" s="98"/>
+      <c r="A14" s="103"/>
       <c r="B14" s="62">
         <v>43130</v>
       </c>
@@ -2936,7 +2953,7 @@
       </c>
     </row>
     <row r="15" spans="1:15">
-      <c r="A15" s="99"/>
+      <c r="A15" s="102"/>
       <c r="B15" s="62">
         <v>43131</v>
       </c>
@@ -2956,7 +2973,7 @@
         <v>76125223</v>
       </c>
       <c r="H15" s="51" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="I15" s="51" t="s">
         <v>40</v>
@@ -2968,10 +2985,10 @@
         <v>17602558329</v>
       </c>
       <c r="L15" s="51" t="s">
+        <v>121</v>
+      </c>
+      <c r="M15" s="51" t="s">
         <v>122</v>
-      </c>
-      <c r="M15" s="51" t="s">
-        <v>123</v>
       </c>
       <c r="N15" s="1">
         <v>18112604296</v>
@@ -2981,38 +2998,96 @@
       </c>
     </row>
     <row r="16" spans="1:15">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
+      <c r="A16" s="101">
+        <v>6</v>
+      </c>
+      <c r="B16" s="62">
+        <v>43138</v>
+      </c>
+      <c r="C16" s="51" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="51" t="s">
+        <v>118</v>
+      </c>
+      <c r="E16" s="51" t="s">
+        <v>119</v>
+      </c>
+      <c r="F16" s="51" t="s">
+        <v>120</v>
+      </c>
+      <c r="G16" s="1">
+        <v>76128577</v>
+      </c>
+      <c r="H16" s="51" t="s">
+        <v>131</v>
+      </c>
+      <c r="I16" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="J16" s="51" t="s">
+        <v>44</v>
+      </c>
+      <c r="K16" s="11">
+        <v>17602558329</v>
+      </c>
+      <c r="L16" s="51" t="s">
+        <v>121</v>
+      </c>
+      <c r="M16" s="51" t="s">
+        <v>122</v>
+      </c>
+      <c r="N16" s="11">
+        <v>18112604296</v>
+      </c>
+      <c r="O16" s="11" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="17" spans="1:15">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
+      <c r="A17" s="102"/>
+      <c r="B17" s="62">
+        <v>43138</v>
+      </c>
+      <c r="C17" s="51" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="51" t="s">
+        <v>118</v>
+      </c>
+      <c r="E17" s="51" t="s">
+        <v>119</v>
+      </c>
+      <c r="F17" s="51" t="s">
+        <v>120</v>
+      </c>
+      <c r="G17" s="1">
+        <v>76128579</v>
+      </c>
+      <c r="H17" s="51" t="s">
+        <v>132</v>
+      </c>
+      <c r="I17" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="J17" s="51" t="s">
+        <v>44</v>
+      </c>
+      <c r="K17" s="11">
+        <v>17602558329</v>
+      </c>
+      <c r="L17" s="51" t="s">
+        <v>121</v>
+      </c>
+      <c r="M17" s="51" t="s">
+        <v>122</v>
+      </c>
+      <c r="N17" s="11">
+        <v>18112604296</v>
+      </c>
+      <c r="O17" s="11" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="1"/>
@@ -7843,7 +7918,8 @@
       <c r="O301" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="A16:A17"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A5"/>
@@ -7908,13 +7984,13 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="97">
+      <c r="A2" s="101">
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="C2" s="103">
+      <c r="C2" s="91">
         <v>43102</v>
       </c>
       <c r="D2" s="52" t="s">
@@ -7931,11 +8007,11 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="98"/>
+      <c r="A3" s="103"/>
       <c r="B3" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="C3" s="103">
+      <c r="C3" s="91">
         <v>43105</v>
       </c>
       <c r="D3" s="52" t="s">
@@ -7952,11 +8028,11 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="99"/>
+      <c r="A4" s="102"/>
       <c r="B4" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="C4" s="103">
+      <c r="C4" s="91">
         <v>43105</v>
       </c>
       <c r="D4" s="52" t="s">
@@ -7979,11 +8055,11 @@
       <c r="B5" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="C5" s="103">
+      <c r="C5" s="91">
         <v>43111</v>
       </c>
       <c r="D5" s="52" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E5" s="11" t="s">
         <v>51</v>
@@ -7999,10 +8075,10 @@
       <c r="A6" s="86">
         <v>3</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="C6" s="103">
+      <c r="B6" s="104" t="s">
+        <v>133</v>
+      </c>
+      <c r="C6" s="91">
         <v>43119</v>
       </c>
       <c r="D6" s="52" t="s">
@@ -8015,17 +8091,17 @@
         <v>52</v>
       </c>
       <c r="G6" s="51" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="97">
+      <c r="A7" s="101">
         <v>4</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="C7" s="103">
+        <v>123</v>
+      </c>
+      <c r="C7" s="91">
         <v>43126</v>
       </c>
       <c r="D7" s="52" t="s">
@@ -8038,19 +8114,19 @@
         <v>52</v>
       </c>
       <c r="G7" s="51" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="103"/>
+      <c r="B8" s="89" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="98"/>
-      <c r="B8" s="101" t="s">
-        <v>127</v>
-      </c>
-      <c r="C8" s="103">
+      <c r="C8" s="91">
         <v>43126</v>
       </c>
-      <c r="D8" s="102" t="s">
-        <v>129</v>
+      <c r="D8" s="90" t="s">
+        <v>128</v>
       </c>
       <c r="E8" s="11" t="s">
         <v>51</v>
@@ -8059,19 +8135,19 @@
         <v>52</v>
       </c>
       <c r="G8" s="51" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="99"/>
-      <c r="B9" s="101" t="s">
+      <c r="A9" s="102"/>
+      <c r="B9" s="89" t="s">
+        <v>127</v>
+      </c>
+      <c r="C9" s="91">
+        <v>43126</v>
+      </c>
+      <c r="D9" s="90" t="s">
         <v>128</v>
-      </c>
-      <c r="C9" s="103">
-        <v>43126</v>
-      </c>
-      <c r="D9" s="102" t="s">
-        <v>129</v>
       </c>
       <c r="E9" s="11" t="s">
         <v>51</v>
@@ -8080,11 +8156,11 @@
         <v>52</v>
       </c>
       <c r="G9" s="51" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="14.25">
-      <c r="A10" s="100"/>
+      <c r="A10" s="88"/>
       <c r="B10" s="9"/>
       <c r="C10" s="14"/>
       <c r="D10" s="13"/>
@@ -8093,7 +8169,7 @@
       <c r="G10" s="9"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="100"/>
+      <c r="A11" s="88"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
       <c r="D11" s="10"/>
@@ -8102,7 +8178,7 @@
       <c r="G11" s="11"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="100"/>
+      <c r="A12" s="88"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
       <c r="D12" s="10"/>
@@ -8111,7 +8187,7 @@
       <c r="G12" s="11"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="100"/>
+      <c r="A13" s="88"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
       <c r="D13" s="10"/>
@@ -8120,7 +8196,7 @@
       <c r="G13" s="11"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="100"/>
+      <c r="A14" s="88"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
       <c r="D14" s="10"/>
@@ -8129,7 +8205,7 @@
       <c r="G14" s="11"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="100"/>
+      <c r="A15" s="88"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
       <c r="D15" s="10"/>
@@ -8138,7 +8214,7 @@
       <c r="G15" s="11"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="100"/>
+      <c r="A16" s="88"/>
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
       <c r="D16" s="10"/>
@@ -8147,7 +8223,7 @@
       <c r="G16" s="11"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="100"/>
+      <c r="A17" s="88"/>
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
       <c r="D17" s="10"/>
@@ -8156,7 +8232,7 @@
       <c r="G17" s="11"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="100"/>
+      <c r="A18" s="88"/>
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
       <c r="D18" s="10"/>
@@ -8165,7 +8241,7 @@
       <c r="G18" s="11"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="100"/>
+      <c r="A19" s="88"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
       <c r="D19" s="10"/>
@@ -8183,7 +8259,7 @@
       <c r="G20" s="11"/>
     </row>
     <row r="21" spans="1:7" ht="14.25">
-      <c r="A21" s="97"/>
+      <c r="A21" s="101"/>
       <c r="B21" s="12"/>
       <c r="C21" s="14"/>
       <c r="D21" s="13"/>
@@ -8192,7 +8268,7 @@
       <c r="G21" s="12"/>
     </row>
     <row r="22" spans="1:7" ht="14.25">
-      <c r="A22" s="98"/>
+      <c r="A22" s="103"/>
       <c r="B22" s="9"/>
       <c r="C22" s="14"/>
       <c r="D22" s="13"/>
@@ -8201,7 +8277,7 @@
       <c r="G22" s="9"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="98"/>
+      <c r="A23" s="103"/>
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
       <c r="D23" s="10"/>
@@ -8210,7 +8286,7 @@
       <c r="G23" s="11"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="98"/>
+      <c r="A24" s="103"/>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
       <c r="D24" s="10"/>
@@ -8219,7 +8295,7 @@
       <c r="G24" s="11"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="98"/>
+      <c r="A25" s="103"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
       <c r="D25" s="10"/>
@@ -8228,7 +8304,7 @@
       <c r="G25" s="11"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="98"/>
+      <c r="A26" s="103"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
       <c r="D26" s="10"/>
@@ -8237,7 +8313,7 @@
       <c r="G26" s="11"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="98"/>
+      <c r="A27" s="103"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
       <c r="D27" s="10"/>
@@ -8246,7 +8322,7 @@
       <c r="G27" s="11"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="98"/>
+      <c r="A28" s="103"/>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
       <c r="D28" s="10"/>
@@ -8255,7 +8331,7 @@
       <c r="G28" s="11"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="98"/>
+      <c r="A29" s="103"/>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
       <c r="D29" s="10"/>
@@ -8264,7 +8340,7 @@
       <c r="G29" s="11"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="98"/>
+      <c r="A30" s="103"/>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
       <c r="D30" s="10"/>
@@ -8273,7 +8349,7 @@
       <c r="G30" s="11"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="98"/>
+      <c r="A31" s="103"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
       <c r="D31" s="10"/>
@@ -8282,7 +8358,7 @@
       <c r="G31" s="11"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="98"/>
+      <c r="A32" s="103"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
       <c r="D32" s="10"/>
@@ -8291,7 +8367,7 @@
       <c r="G32" s="11"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="98"/>
+      <c r="A33" s="103"/>
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
       <c r="D33" s="10"/>
@@ -8300,7 +8376,7 @@
       <c r="G33" s="11"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="98"/>
+      <c r="A34" s="103"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
       <c r="D34" s="10"/>
@@ -8309,7 +8385,7 @@
       <c r="G34" s="11"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="99"/>
+      <c r="A35" s="102"/>
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
       <c r="D35" s="10"/>
@@ -8318,7 +8394,7 @@
       <c r="G35" s="11"/>
     </row>
     <row r="36" spans="1:7" ht="14.25">
-      <c r="A36" s="97"/>
+      <c r="A36" s="101"/>
       <c r="B36" s="9"/>
       <c r="C36" s="14"/>
       <c r="D36" s="13"/>
@@ -8327,7 +8403,7 @@
       <c r="G36" s="9"/>
     </row>
     <row r="37" spans="1:7" ht="14.25">
-      <c r="A37" s="98"/>
+      <c r="A37" s="103"/>
       <c r="B37" s="9"/>
       <c r="C37" s="15"/>
       <c r="D37" s="13"/>
@@ -8336,7 +8412,7 @@
       <c r="G37" s="4"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="98"/>
+      <c r="A38" s="103"/>
       <c r="B38" s="9"/>
       <c r="C38" s="9"/>
       <c r="D38" s="10"/>
@@ -8345,7 +8421,7 @@
       <c r="G38" s="11"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="98"/>
+      <c r="A39" s="103"/>
       <c r="B39" s="9"/>
       <c r="C39" s="9"/>
       <c r="D39" s="10"/>
@@ -8354,7 +8430,7 @@
       <c r="G39" s="11"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="98"/>
+      <c r="A40" s="103"/>
       <c r="B40" s="9"/>
       <c r="C40" s="9"/>
       <c r="D40" s="10"/>
@@ -8363,7 +8439,7 @@
       <c r="G40" s="11"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="98"/>
+      <c r="A41" s="103"/>
       <c r="B41" s="9"/>
       <c r="C41" s="9"/>
       <c r="D41" s="10"/>
@@ -8372,7 +8448,7 @@
       <c r="G41" s="11"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="98"/>
+      <c r="A42" s="103"/>
       <c r="B42" s="9"/>
       <c r="C42" s="9"/>
       <c r="D42" s="10"/>
@@ -8381,7 +8457,7 @@
       <c r="G42" s="11"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="98"/>
+      <c r="A43" s="103"/>
       <c r="B43" s="9"/>
       <c r="C43" s="9"/>
       <c r="D43" s="10"/>
@@ -8390,7 +8466,7 @@
       <c r="G43" s="11"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="98"/>
+      <c r="A44" s="103"/>
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
       <c r="D44" s="10"/>
@@ -8399,7 +8475,7 @@
       <c r="G44" s="11"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="98"/>
+      <c r="A45" s="103"/>
       <c r="B45" s="11"/>
       <c r="C45" s="11"/>
       <c r="D45" s="10"/>
@@ -8408,7 +8484,7 @@
       <c r="G45" s="11"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="98"/>
+      <c r="A46" s="103"/>
       <c r="B46" s="11"/>
       <c r="C46" s="11"/>
       <c r="D46" s="10"/>
@@ -8417,7 +8493,7 @@
       <c r="G46" s="11"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="98"/>
+      <c r="A47" s="103"/>
       <c r="B47" s="11"/>
       <c r="C47" s="11"/>
       <c r="D47" s="10"/>
@@ -8426,7 +8502,7 @@
       <c r="G47" s="11"/>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="98"/>
+      <c r="A48" s="103"/>
       <c r="B48" s="11"/>
       <c r="C48" s="11"/>
       <c r="D48" s="10"/>
@@ -8435,7 +8511,7 @@
       <c r="G48" s="11"/>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="98"/>
+      <c r="A49" s="103"/>
       <c r="B49" s="11"/>
       <c r="C49" s="11"/>
       <c r="D49" s="10"/>
@@ -8444,7 +8520,7 @@
       <c r="G49" s="11"/>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="99"/>
+      <c r="A50" s="102"/>
       <c r="B50" s="9"/>
       <c r="C50" s="9"/>
       <c r="D50" s="10"/>
@@ -8453,7 +8529,7 @@
       <c r="G50" s="11"/>
     </row>
     <row r="51" spans="1:7" ht="14.25">
-      <c r="A51" s="97"/>
+      <c r="A51" s="101"/>
       <c r="B51" s="9"/>
       <c r="C51" s="14"/>
       <c r="D51" s="13"/>
@@ -8462,7 +8538,7 @@
       <c r="G51" s="9"/>
     </row>
     <row r="52" spans="1:7" ht="14.25">
-      <c r="A52" s="98"/>
+      <c r="A52" s="103"/>
       <c r="B52" s="9"/>
       <c r="C52" s="15"/>
       <c r="D52" s="13"/>
@@ -8471,7 +8547,7 @@
       <c r="G52" s="4"/>
     </row>
     <row r="53" spans="1:7" ht="14.25">
-      <c r="A53" s="98"/>
+      <c r="A53" s="103"/>
       <c r="B53" s="9"/>
       <c r="C53" s="15"/>
       <c r="D53" s="13"/>
@@ -8480,7 +8556,7 @@
       <c r="G53" s="4"/>
     </row>
     <row r="54" spans="1:7" ht="14.25">
-      <c r="A54" s="98"/>
+      <c r="A54" s="103"/>
       <c r="B54" s="9"/>
       <c r="C54" s="15"/>
       <c r="D54" s="13"/>
@@ -8489,7 +8565,7 @@
       <c r="G54" s="16"/>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="98"/>
+      <c r="A55" s="103"/>
       <c r="B55" s="9"/>
       <c r="C55" s="9"/>
       <c r="D55" s="10"/>
@@ -8498,7 +8574,7 @@
       <c r="G55" s="11"/>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="98"/>
+      <c r="A56" s="103"/>
       <c r="B56" s="9"/>
       <c r="C56" s="9"/>
       <c r="D56" s="10"/>
@@ -8507,7 +8583,7 @@
       <c r="G56" s="11"/>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="98"/>
+      <c r="A57" s="103"/>
       <c r="B57" s="9"/>
       <c r="C57" s="9"/>
       <c r="D57" s="10"/>
@@ -8516,7 +8592,7 @@
       <c r="G57" s="11"/>
     </row>
     <row r="58" spans="1:7">
-      <c r="A58" s="98"/>
+      <c r="A58" s="103"/>
       <c r="B58" s="9"/>
       <c r="C58" s="9"/>
       <c r="D58" s="10"/>
@@ -8525,7 +8601,7 @@
       <c r="G58" s="11"/>
     </row>
     <row r="59" spans="1:7">
-      <c r="A59" s="98"/>
+      <c r="A59" s="103"/>
       <c r="B59" s="9"/>
       <c r="C59" s="9"/>
       <c r="D59" s="10"/>
@@ -8534,7 +8610,7 @@
       <c r="G59" s="11"/>
     </row>
     <row r="60" spans="1:7">
-      <c r="A60" s="98"/>
+      <c r="A60" s="103"/>
       <c r="B60" s="9"/>
       <c r="C60" s="9"/>
       <c r="D60" s="10"/>
@@ -8543,7 +8619,7 @@
       <c r="G60" s="11"/>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="98"/>
+      <c r="A61" s="103"/>
       <c r="B61" s="9"/>
       <c r="C61" s="9"/>
       <c r="D61" s="10"/>
@@ -8552,7 +8628,7 @@
       <c r="G61" s="11"/>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" s="99"/>
+      <c r="A62" s="102"/>
       <c r="B62" s="9"/>
       <c r="C62" s="9"/>
       <c r="D62" s="10"/>
@@ -8561,7 +8637,7 @@
       <c r="G62" s="11"/>
     </row>
     <row r="63" spans="1:7" ht="14.25">
-      <c r="A63" s="97"/>
+      <c r="A63" s="101"/>
       <c r="B63" s="9"/>
       <c r="C63" s="14"/>
       <c r="D63" s="13"/>
@@ -8570,7 +8646,7 @@
       <c r="G63" s="9"/>
     </row>
     <row r="64" spans="1:7" ht="14.25">
-      <c r="A64" s="98"/>
+      <c r="A64" s="103"/>
       <c r="B64" s="9"/>
       <c r="C64" s="15"/>
       <c r="D64" s="13"/>
@@ -8579,7 +8655,7 @@
       <c r="G64" s="4"/>
     </row>
     <row r="65" spans="1:7" ht="14.25">
-      <c r="A65" s="98"/>
+      <c r="A65" s="103"/>
       <c r="B65" s="9"/>
       <c r="C65" s="15"/>
       <c r="D65" s="13"/>
@@ -8588,7 +8664,7 @@
       <c r="G65" s="4"/>
     </row>
     <row r="66" spans="1:7" ht="14.25">
-      <c r="A66" s="98"/>
+      <c r="A66" s="103"/>
       <c r="B66" s="9"/>
       <c r="C66" s="15"/>
       <c r="D66" s="13"/>
@@ -8597,7 +8673,7 @@
       <c r="G66" s="16"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="98"/>
+      <c r="A67" s="103"/>
       <c r="B67" s="9"/>
       <c r="C67" s="9"/>
       <c r="D67" s="10"/>
@@ -8606,7 +8682,7 @@
       <c r="G67" s="11"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="98"/>
+      <c r="A68" s="103"/>
       <c r="B68" s="9"/>
       <c r="C68" s="9"/>
       <c r="D68" s="10"/>
@@ -8615,7 +8691,7 @@
       <c r="G68" s="11"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="98"/>
+      <c r="A69" s="103"/>
       <c r="B69" s="9"/>
       <c r="C69" s="9"/>
       <c r="D69" s="10"/>
@@ -8624,7 +8700,7 @@
       <c r="G69" s="11"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="98"/>
+      <c r="A70" s="103"/>
       <c r="B70" s="9"/>
       <c r="C70" s="9"/>
       <c r="D70" s="10"/>
@@ -8633,7 +8709,7 @@
       <c r="G70" s="11"/>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="98"/>
+      <c r="A71" s="103"/>
       <c r="B71" s="9"/>
       <c r="C71" s="9"/>
       <c r="D71" s="10"/>
@@ -8642,7 +8718,7 @@
       <c r="G71" s="11"/>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="98"/>
+      <c r="A72" s="103"/>
       <c r="B72" s="9"/>
       <c r="C72" s="9"/>
       <c r="D72" s="10"/>
@@ -8651,7 +8727,7 @@
       <c r="G72" s="11"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="98"/>
+      <c r="A73" s="103"/>
       <c r="B73" s="9"/>
       <c r="C73" s="9"/>
       <c r="D73" s="10"/>
@@ -8660,7 +8736,7 @@
       <c r="G73" s="11"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="99"/>
+      <c r="A74" s="102"/>
       <c r="B74" s="9"/>
       <c r="C74" s="9"/>
       <c r="D74" s="10"/>
@@ -8669,7 +8745,7 @@
       <c r="G74" s="11"/>
     </row>
     <row r="75" spans="1:7" ht="14.25">
-      <c r="A75" s="98"/>
+      <c r="A75" s="103"/>
       <c r="B75" s="9"/>
       <c r="C75" s="15"/>
       <c r="D75" s="13"/>
@@ -8678,7 +8754,7 @@
       <c r="G75" s="4"/>
     </row>
     <row r="76" spans="1:7" ht="14.25">
-      <c r="A76" s="98"/>
+      <c r="A76" s="103"/>
       <c r="B76" s="9"/>
       <c r="C76" s="15"/>
       <c r="D76" s="13"/>
@@ -8687,7 +8763,7 @@
       <c r="G76" s="16"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="98"/>
+      <c r="A77" s="103"/>
       <c r="B77" s="9"/>
       <c r="C77" s="9"/>
       <c r="D77" s="10"/>
@@ -8696,7 +8772,7 @@
       <c r="G77" s="11"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="98"/>
+      <c r="A78" s="103"/>
       <c r="B78" s="9"/>
       <c r="C78" s="9"/>
       <c r="D78" s="10"/>
@@ -8705,7 +8781,7 @@
       <c r="G78" s="11"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="98"/>
+      <c r="A79" s="103"/>
       <c r="B79" s="9"/>
       <c r="C79" s="9"/>
       <c r="D79" s="10"/>
@@ -8714,7 +8790,7 @@
       <c r="G79" s="11"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="98"/>
+      <c r="A80" s="103"/>
       <c r="B80" s="9"/>
       <c r="C80" s="9"/>
       <c r="D80" s="10"/>
@@ -8723,7 +8799,7 @@
       <c r="G80" s="11"/>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="98"/>
+      <c r="A81" s="103"/>
       <c r="B81" s="9"/>
       <c r="C81" s="9"/>
       <c r="D81" s="10"/>
@@ -8732,7 +8808,7 @@
       <c r="G81" s="11"/>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="98"/>
+      <c r="A82" s="103"/>
       <c r="B82" s="9"/>
       <c r="C82" s="9"/>
       <c r="D82" s="10"/>
@@ -8741,7 +8817,7 @@
       <c r="G82" s="11"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="98"/>
+      <c r="A83" s="103"/>
       <c r="B83" s="9"/>
       <c r="C83" s="9"/>
       <c r="D83" s="10"/>
@@ -8750,7 +8826,7 @@
       <c r="G83" s="11"/>
     </row>
     <row r="84" spans="1:7">
-      <c r="A84" s="99"/>
+      <c r="A84" s="102"/>
       <c r="B84" s="9"/>
       <c r="C84" s="9"/>
       <c r="D84" s="10"/>

--- a/周数据/《个人上线率统计表》-黄纯伟.xlsx
+++ b/周数据/《个人上线率统计表》-黄纯伟.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20610" windowHeight="9330" activeTab="1"/>
@@ -12,12 +12,12 @@
     <sheet name="未上线项目明细" sheetId="3" r:id="rId3"/>
     <sheet name="加班明细" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="154">
   <si>
     <t>个人上线率分析表</t>
   </si>
@@ -188,10 +188,6 @@
   </si>
   <si>
     <t>SAAS</t>
-  </si>
-  <si>
-    <t>沈芳芳</t>
-    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>加班地点/商户名称</t>
@@ -224,19 +220,15 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>库存</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>天翼源餐饮管理</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>天翼源</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>汪家味私房菜</t>
+    <t>泰兴</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>成都</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>沽涷成都店</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
@@ -244,27 +236,19 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>汪传宏</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>老板</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>025-86807279</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>泰兴</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>成都</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>沽涷成都店</t>
+    <t>老魏生煎</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>肖如梦</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>常州</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>沽涷吾悦国际店</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
@@ -272,26 +256,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>老魏生煎</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>肖如梦</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>常州</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>沽涷吾悦国际店</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>南京</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>沽涷车轿街店</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -321,22 +285,6 @@
   </si>
   <si>
     <t>新品牌</t>
-  </si>
-  <si>
-    <t>沽涷无锡苏宁店</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>沽凍无锡宝龙店</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>跟商户约时间远程实施</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>沽涷成都万达店</t>
-    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>宜兴/巴适满堂美蛙鱼头火锅</t>
@@ -480,48 +428,179 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
+    <t>沈芳芳</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>怒烤烤串（南京富春江东街店）</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>怒烤烤串（慈溪银泰店）</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>跟商户约时间实施</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>有点烫金鸡湖欧尚店</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>有点烫西城永捷店</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>有点烫苏州中心店</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄纯伟</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>南京/哈姆特天印大道店</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>售后</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>鸡芝家（晓庄店）</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>跟商户约时间远程实施</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>沽涷成都万达店</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
     <t>沽涷江阴精品店</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>商户没开业，跟商户约时间远程实施</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>沈芳芳</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>怒烤烤串（南京富春江东街店）</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>怒烤烤串（慈溪银泰店）</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>跟商户约时间实施</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>堵雪军</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>有点烫金鸡湖欧尚店</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>有点烫西城永捷店</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>有点烫苏州中心店</t>
+    <t>饺翻天金鸡湖欧尚城店</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>饺翻天印象城购物中心店</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>饺翻天新区永旺梦乐城店</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>饺翻天吴中万达广场店</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>饺翻天相城欧尚店</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>两个天堂餐饮管理有限公司</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>跟商户约时间远程实施</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>SAAS+微信+供应链</t>
+  </si>
+  <si>
+    <t>李燕东</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>三千粉</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>厦门</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>三千粉厦门机场店</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>苏州</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>三千粉吴江水秀天地店</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>饺翻天</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>饺翻天吴江水秀天地店</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>扬州</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>饺翻天江都金鹰店</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>饺翻天吴江吾悦广场店</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>华食企业管理有限公司</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>哈姆特</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>南京</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>鸡鸣赐茶</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄宇</t>
     <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>老板</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>店铺签约100家，目前还有87家未开户，5家未装，8家已上线</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>无锡</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>无锡</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>沽涷无锡苏宁店</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>沽凍无锡宝龙店</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1141,7 +1220,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1178,9 +1257,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1320,139 +1396,145 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="8" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="9" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="8" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="9" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1727,7 +1809,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="O2" sqref="O2"/>
@@ -1743,531 +1825,731 @@
     <col min="7" max="7" width="15.5" style="5" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="17.875" style="5" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="17.875" style="5" customWidth="1"/>
-    <col min="10" max="10" width="17.875" style="22" customWidth="1"/>
+    <col min="10" max="10" width="17.875" style="21" customWidth="1"/>
     <col min="11" max="11" width="16" style="5" customWidth="1"/>
     <col min="12" max="12" width="17.875" style="5" customWidth="1"/>
     <col min="13" max="13" width="18.625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15" thickBot="1">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="94"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="93"/>
-      <c r="M1" s="95"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="94"/>
+      <c r="L1" s="94"/>
+      <c r="M1" s="96"/>
     </row>
     <row r="2" spans="1:13" ht="14.25" thickBot="1">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="E2" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="F2" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="26" t="s">
+      <c r="G2" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="27" t="s">
+      <c r="H2" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="36" t="s">
+      <c r="I2" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="37" t="s">
+      <c r="J2" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="38" t="s">
+      <c r="K2" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="39" t="s">
+      <c r="L2" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="40" t="s">
+      <c r="M2" s="39" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="96">
+      <c r="A3" s="97">
         <v>12</v>
       </c>
-      <c r="B3" s="72">
+      <c r="B3" s="69">
         <v>50</v>
       </c>
-      <c r="C3" s="28">
+      <c r="C3" s="27">
         <v>3</v>
       </c>
-      <c r="D3" s="29">
+      <c r="D3" s="28">
         <v>2</v>
       </c>
-      <c r="E3" s="29">
+      <c r="E3" s="28">
         <f>C3-D3</f>
         <v>1</v>
       </c>
-      <c r="F3" s="30"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="30">
+      <c r="F3" s="29"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="29">
         <f>F3-G3</f>
         <v>0</v>
       </c>
-      <c r="I3" s="41"/>
-      <c r="J3" s="42">
+      <c r="I3" s="40"/>
+      <c r="J3" s="41">
         <f>I3/L3*100%</f>
         <v>0</v>
       </c>
-      <c r="K3" s="43">
+      <c r="K3" s="42">
         <f>C3+G3</f>
         <v>3</v>
       </c>
-      <c r="L3" s="44">
+      <c r="L3" s="43">
         <f>D3+G3</f>
         <v>2</v>
       </c>
-      <c r="M3" s="45">
+      <c r="M3" s="44">
         <f>L3/K3*100%</f>
         <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="97"/>
-      <c r="B4" s="73">
+      <c r="A4" s="98"/>
+      <c r="B4" s="70">
         <v>51</v>
       </c>
-      <c r="C4" s="28">
+      <c r="C4" s="27">
         <v>3</v>
       </c>
-      <c r="D4" s="29">
+      <c r="D4" s="28">
         <v>0</v>
       </c>
-      <c r="E4" s="29">
+      <c r="E4" s="28">
         <f>C4-D4</f>
         <v>3</v>
       </c>
-      <c r="F4" s="30"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="30">
+      <c r="F4" s="29"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="29">
         <f t="shared" ref="H4:H8" si="0">F4-G4</f>
         <v>0</v>
       </c>
-      <c r="I4" s="41"/>
-      <c r="J4" s="42" t="e">
+      <c r="I4" s="40"/>
+      <c r="J4" s="41" t="e">
         <f>I4/L4*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K4" s="43">
+      <c r="K4" s="42">
         <f t="shared" ref="K4:K8" si="1">C4+G4</f>
         <v>3</v>
       </c>
-      <c r="L4" s="44">
+      <c r="L4" s="43">
         <f t="shared" ref="L4:L8" si="2">D4+G4</f>
         <v>0</v>
       </c>
-      <c r="M4" s="45">
+      <c r="M4" s="44">
         <f t="shared" ref="M4:M8" si="3">L4/K4*100%</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="97"/>
-      <c r="B5" s="73">
+      <c r="A5" s="98"/>
+      <c r="B5" s="70">
         <v>52</v>
       </c>
-      <c r="C5" s="28">
+      <c r="C5" s="27">
         <v>2</v>
       </c>
-      <c r="D5" s="29">
+      <c r="D5" s="28">
         <v>1</v>
       </c>
-      <c r="E5" s="29">
+      <c r="E5" s="28">
         <f t="shared" ref="E5:E8" si="4">C5-D5</f>
         <v>1</v>
       </c>
-      <c r="F5" s="30"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="30">
+      <c r="F5" s="29"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="29">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I5" s="41">
+      <c r="I5" s="40">
         <v>1</v>
       </c>
-      <c r="J5" s="42">
+      <c r="J5" s="41">
         <f t="shared" ref="J5:J8" si="5">I5/L5*100%</f>
         <v>1</v>
       </c>
-      <c r="K5" s="43">
+      <c r="K5" s="42">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="L5" s="44">
+      <c r="L5" s="43">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="M5" s="45">
+      <c r="M5" s="44">
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="98">
+      <c r="A6" s="99">
         <v>1</v>
       </c>
-      <c r="B6" s="73">
+      <c r="B6" s="70">
         <v>1</v>
       </c>
-      <c r="C6" s="28">
+      <c r="C6" s="27">
         <v>2</v>
       </c>
-      <c r="D6" s="29">
+      <c r="D6" s="28">
         <v>0</v>
       </c>
-      <c r="E6" s="29">
+      <c r="E6" s="28">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="F6" s="30"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="30">
+      <c r="F6" s="29"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="29">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I6" s="41">
+      <c r="I6" s="40">
         <v>2</v>
       </c>
-      <c r="J6" s="42" t="e">
+      <c r="J6" s="41" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K6" s="43">
+      <c r="K6" s="42">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="L6" s="44">
+      <c r="L6" s="43">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M6" s="45">
+      <c r="M6" s="44">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="99"/>
-      <c r="B7" s="73">
+      <c r="A7" s="100"/>
+      <c r="B7" s="70">
         <v>2</v>
       </c>
-      <c r="C7" s="28">
+      <c r="C7" s="27">
         <v>4</v>
       </c>
-      <c r="D7" s="29">
+      <c r="D7" s="28">
         <v>2</v>
       </c>
-      <c r="E7" s="29">
+      <c r="E7" s="28">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="F7" s="30"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="30">
+      <c r="F7" s="29"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="29">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I7" s="41">
+      <c r="I7" s="40">
         <v>1</v>
       </c>
-      <c r="J7" s="42">
+      <c r="J7" s="41">
         <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
-      <c r="K7" s="43">
+      <c r="K7" s="42">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="L7" s="44">
+      <c r="L7" s="43">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="M7" s="45">
+      <c r="M7" s="44">
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="100"/>
-      <c r="B8" s="73">
+      <c r="A8" s="101"/>
+      <c r="B8" s="70">
         <v>3</v>
       </c>
-      <c r="C8" s="28">
+      <c r="C8" s="27">
         <v>2</v>
       </c>
-      <c r="D8" s="29">
+      <c r="D8" s="28">
         <v>2</v>
       </c>
-      <c r="E8" s="29">
+      <c r="E8" s="28">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30">
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I8" s="41">
+      <c r="I8" s="40">
         <v>2</v>
       </c>
-      <c r="J8" s="67">
+      <c r="J8" s="64">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="K8" s="68">
+      <c r="K8" s="65">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="L8" s="69">
+      <c r="L8" s="66">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="M8" s="70">
+      <c r="M8" s="67">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="77"/>
-      <c r="B9" s="74">
+      <c r="A9" s="74"/>
+      <c r="B9" s="71">
         <v>4</v>
       </c>
-      <c r="C9" s="64">
+      <c r="C9" s="61">
         <v>1</v>
       </c>
-      <c r="D9" s="65">
+      <c r="D9" s="62">
         <v>1</v>
       </c>
-      <c r="E9" s="65">
+      <c r="E9" s="62">
         <f t="shared" ref="E9:E14" si="6">C9-D9</f>
         <v>0</v>
       </c>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31">
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30">
         <f>F9-G9</f>
         <v>0</v>
       </c>
-      <c r="I9" s="66">
+      <c r="I9" s="63">
         <v>1</v>
       </c>
-      <c r="J9" s="42">
+      <c r="J9" s="41">
         <f>I9/L9*100%</f>
         <v>1</v>
       </c>
-      <c r="K9" s="43">
+      <c r="K9" s="42">
         <f>C9+G9</f>
         <v>1</v>
       </c>
-      <c r="L9" s="44">
+      <c r="L9" s="43">
         <f>D9+G9</f>
         <v>1</v>
       </c>
-      <c r="M9" s="45">
+      <c r="M9" s="44">
         <f>L9/K9*100%</f>
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="78"/>
-      <c r="B10" s="73">
+      <c r="A10" s="75"/>
+      <c r="B10" s="70">
         <v>5</v>
       </c>
-      <c r="C10" s="28">
+      <c r="C10" s="27">
         <v>1</v>
       </c>
-      <c r="D10" s="29">
+      <c r="D10" s="28">
         <v>1</v>
       </c>
-      <c r="E10" s="29">
+      <c r="E10" s="28">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F10" s="30"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="30">
+      <c r="F10" s="29"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="29">
         <f t="shared" ref="H10:H14" si="7">F10-G10</f>
         <v>0</v>
       </c>
-      <c r="I10" s="41"/>
-      <c r="J10" s="42">
+      <c r="I10" s="40"/>
+      <c r="J10" s="41">
         <f>I10/L10*100%</f>
         <v>0</v>
       </c>
-      <c r="K10" s="43">
+      <c r="K10" s="42">
         <f t="shared" ref="K10:K14" si="8">C10+G10</f>
         <v>1</v>
       </c>
-      <c r="L10" s="44">
+      <c r="L10" s="43">
         <f t="shared" ref="L10:L14" si="9">D10+G10</f>
         <v>1</v>
       </c>
-      <c r="M10" s="45">
+      <c r="M10" s="44">
         <f t="shared" ref="M10:M14" si="10">L10/K10*100%</f>
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="78"/>
-      <c r="B11" s="73">
+      <c r="A11" s="75"/>
+      <c r="B11" s="70">
         <v>6</v>
       </c>
-      <c r="C11" s="28">
+      <c r="C11" s="27">
         <v>1</v>
       </c>
-      <c r="D11" s="29">
+      <c r="D11" s="28">
         <v>2</v>
       </c>
-      <c r="E11" s="29">
+      <c r="E11" s="28">
         <f>C11-D11</f>
         <v>-1</v>
       </c>
-      <c r="F11" s="30"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="30">
+      <c r="F11" s="29"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="29">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I11" s="41"/>
-      <c r="J11" s="42">
+      <c r="I11" s="40"/>
+      <c r="J11" s="41">
         <f t="shared" ref="J11:J14" si="11">I11/L11*100%</f>
         <v>0</v>
       </c>
-      <c r="K11" s="43">
+      <c r="K11" s="42">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="L11" s="44">
+      <c r="L11" s="43">
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="M11" s="45">
+      <c r="M11" s="44">
         <f t="shared" si="10"/>
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="78"/>
-      <c r="B12" s="73"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29">
+      <c r="A12" s="75"/>
+      <c r="B12" s="70">
+        <v>7</v>
+      </c>
+      <c r="C12" s="27">
+        <v>0</v>
+      </c>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F12" s="30"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="30">
+      <c r="F12" s="29"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="29">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I12" s="41"/>
-      <c r="J12" s="42" t="e">
+      <c r="I12" s="40"/>
+      <c r="J12" s="41" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K12" s="43">
+      <c r="K12" s="42">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="L12" s="44">
+      <c r="L12" s="43">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="M12" s="45" t="e">
+      <c r="M12" s="44" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="78"/>
-      <c r="B13" s="73"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29">
+      <c r="A13" s="75"/>
+      <c r="B13" s="70">
+        <v>8</v>
+      </c>
+      <c r="C13" s="27"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F13" s="30"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="30">
+      <c r="F13" s="29"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="29">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I13" s="41"/>
-      <c r="J13" s="42" t="e">
+      <c r="I13" s="40"/>
+      <c r="J13" s="41" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K13" s="43">
+      <c r="K13" s="42">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="L13" s="44">
+      <c r="L13" s="43">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="M13" s="45" t="e">
+      <c r="M13" s="44" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="14.25" thickBot="1">
-      <c r="A14" s="79"/>
-      <c r="B14" s="75"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="33">
+      <c r="A14" s="76"/>
+      <c r="B14" s="72">
+        <v>9</v>
+      </c>
+      <c r="C14" s="31"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F14" s="34"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="34">
+      <c r="F14" s="33"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="33">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I14" s="46"/>
-      <c r="J14" s="47" t="e">
+      <c r="I14" s="45"/>
+      <c r="J14" s="46" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K14" s="48">
+      <c r="K14" s="47">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="L14" s="49">
+      <c r="L14" s="48">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="M14" s="50" t="e">
+      <c r="M14" s="49" t="e">
         <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="14.25" thickBot="1">
+      <c r="B15" s="72"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="32">
+        <f t="shared" ref="E15:E20" si="12">C15-D15</f>
+        <v>0</v>
+      </c>
+      <c r="F15" s="33"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="33">
+        <f t="shared" ref="H15:H20" si="13">F15-G15</f>
+        <v>0</v>
+      </c>
+      <c r="I15" s="45"/>
+      <c r="J15" s="46" t="e">
+        <f t="shared" ref="J15:J20" si="14">I15/L15*100%</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K15" s="47">
+        <f t="shared" ref="K15:K20" si="15">C15+G15</f>
+        <v>0</v>
+      </c>
+      <c r="L15" s="48">
+        <f t="shared" ref="L15:L20" si="16">D15+G15</f>
+        <v>0</v>
+      </c>
+      <c r="M15" s="49" t="e">
+        <f t="shared" ref="M15:M20" si="17">L15/K15*100%</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="14.25" thickBot="1">
+      <c r="B16" s="72"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F16" s="33"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="33">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I16" s="45"/>
+      <c r="J16" s="46" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K16" s="47">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="L16" s="48">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="M16" s="49" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" ht="14.25" thickBot="1">
+      <c r="B17" s="72"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F17" s="33"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="33">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I17" s="45"/>
+      <c r="J17" s="46" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K17" s="47">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="L17" s="48">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="M17" s="49" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" ht="14.25" thickBot="1">
+      <c r="B18" s="72"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="32">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F18" s="33"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="33">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I18" s="45"/>
+      <c r="J18" s="46" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K18" s="47">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="L18" s="48">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="M18" s="49" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" ht="14.25" thickBot="1">
+      <c r="B19" s="72"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F19" s="33"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="33">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I19" s="45"/>
+      <c r="J19" s="46" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K19" s="47">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="L19" s="48">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="M19" s="49" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" ht="14.25" thickBot="1">
+      <c r="B20" s="72"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F20" s="33"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="33">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I20" s="45"/>
+      <c r="J20" s="46" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K20" s="47">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="L20" s="48">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="M20" s="49" t="e">
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2285,10 +2567,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O301"/>
+  <dimension ref="A1:O300"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2"/>
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.75" defaultRowHeight="13.5"/>
@@ -2306,91 +2588,91 @@
     <col min="12" max="14" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="17" customFormat="1" ht="27">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:15" s="16" customFormat="1" ht="27">
+      <c r="A1" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="I1" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="J1" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="K1" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="18" t="s">
+      <c r="L1" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="18" t="s">
+      <c r="M1" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="N1" s="18" t="s">
+      <c r="N1" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="18" t="s">
+      <c r="O1" s="17" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="101">
+      <c r="A2" s="102">
         <v>51</v>
       </c>
-      <c r="B2" s="61">
+      <c r="B2" s="59">
         <v>43085</v>
       </c>
-      <c r="C2" s="51" t="s">
+      <c r="C2" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="51" t="s">
+      <c r="D2" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="51" t="s">
+      <c r="E2" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="F2" s="51" t="s">
+      <c r="F2" s="50" t="s">
         <v>41</v>
       </c>
       <c r="G2" s="1">
         <v>76115600</v>
       </c>
-      <c r="H2" s="51" t="s">
+      <c r="H2" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="I2" s="51" t="s">
+      <c r="I2" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="J2" s="51" t="s">
+      <c r="J2" s="50" t="s">
         <v>44</v>
       </c>
       <c r="K2" s="1">
         <v>17602558329</v>
       </c>
-      <c r="L2" s="51" t="s">
+      <c r="L2" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="M2" s="51" t="s">
+      <c r="M2" s="50" t="s">
         <v>46</v>
       </c>
       <c r="N2" s="1">
@@ -2401,41 +2683,41 @@
       </c>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="102"/>
-      <c r="B3" s="61">
+      <c r="A3" s="103"/>
+      <c r="B3" s="59">
         <v>43085</v>
       </c>
-      <c r="C3" s="51" t="s">
+      <c r="C3" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="51" t="s">
+      <c r="D3" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="51" t="s">
+      <c r="E3" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="51" t="s">
+      <c r="F3" s="50" t="s">
         <v>48</v>
       </c>
       <c r="G3" s="1">
         <v>76116311</v>
       </c>
-      <c r="H3" s="51" t="s">
+      <c r="H3" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="I3" s="51" t="s">
+      <c r="I3" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="J3" s="51" t="s">
+      <c r="J3" s="50" t="s">
         <v>44</v>
       </c>
       <c r="K3" s="11">
         <v>17602558329</v>
       </c>
-      <c r="L3" s="51" t="s">
+      <c r="L3" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="M3" s="51" t="s">
+      <c r="M3" s="50" t="s">
         <v>46</v>
       </c>
       <c r="N3" s="1">
@@ -2446,91 +2728,93 @@
       </c>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="101">
+      <c r="A4" s="92">
         <v>52</v>
       </c>
-      <c r="B4" s="61">
-        <v>43084</v>
-      </c>
-      <c r="C4" s="51" t="s">
-        <v>62</v>
-      </c>
-      <c r="D4" s="51" t="s">
-        <v>63</v>
-      </c>
-      <c r="E4" s="51" t="s">
-        <v>64</v>
-      </c>
-      <c r="F4" s="51" t="s">
-        <v>66</v>
-      </c>
-      <c r="G4" s="11">
-        <v>76101513</v>
-      </c>
-      <c r="H4" s="51" t="s">
-        <v>65</v>
-      </c>
-      <c r="I4" s="51" t="s">
-        <v>66</v>
-      </c>
-      <c r="J4" s="51" t="s">
+      <c r="B4" s="59">
+        <v>43097</v>
+      </c>
+      <c r="C4" s="50" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" s="50" t="s">
+        <v>58</v>
+      </c>
+      <c r="F4" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" s="1">
+        <v>76119685</v>
+      </c>
+      <c r="H4" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="I4" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="J4" s="50" t="s">
         <v>44</v>
       </c>
       <c r="K4" s="11">
         <v>17602558329</v>
       </c>
-      <c r="L4" s="51" t="s">
-        <v>67</v>
-      </c>
-      <c r="M4" s="51" t="s">
-        <v>68</v>
-      </c>
-      <c r="N4" s="60" t="s">
-        <v>69</v>
+      <c r="L4" s="58" t="s">
+        <v>59</v>
+      </c>
+      <c r="M4" s="58" t="s">
+        <v>60</v>
+      </c>
+      <c r="N4" s="58">
+        <v>18601585219</v>
       </c>
       <c r="O4" s="11" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="102"/>
-      <c r="B5" s="61">
-        <v>43097</v>
-      </c>
-      <c r="C5" s="51" t="s">
+      <c r="A5" s="102">
+        <v>1</v>
+      </c>
+      <c r="B5" s="60">
+        <v>43103</v>
+      </c>
+      <c r="C5" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="51" t="s">
+      <c r="D5" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" s="50" t="s">
         <v>58</v>
       </c>
-      <c r="E5" s="51" t="s">
-        <v>59</v>
-      </c>
-      <c r="F5" s="51" t="s">
-        <v>70</v>
+      <c r="F5" s="50" t="s">
+        <v>62</v>
       </c>
       <c r="G5" s="1">
-        <v>76119685</v>
-      </c>
-      <c r="H5" s="51" t="s">
-        <v>57</v>
-      </c>
-      <c r="I5" s="51" t="s">
-        <v>40</v>
-      </c>
-      <c r="J5" s="51" t="s">
+        <v>76119689</v>
+      </c>
+      <c r="H5" s="50" t="s">
+        <v>63</v>
+      </c>
+      <c r="I5" s="50" t="s">
+        <v>64</v>
+      </c>
+      <c r="J5" s="50" t="s">
         <v>44</v>
       </c>
       <c r="K5" s="11">
         <v>17602558329</v>
       </c>
-      <c r="L5" s="59" t="s">
+      <c r="L5" s="58" t="s">
+        <v>59</v>
+      </c>
+      <c r="M5" s="58" t="s">
         <v>60</v>
       </c>
-      <c r="M5" s="59" t="s">
-        <v>61</v>
-      </c>
-      <c r="N5" s="59">
+      <c r="N5" s="58">
         <v>18601585219</v>
       </c>
       <c r="O5" s="11" t="s">
@@ -2538,46 +2822,44 @@
       </c>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="101">
-        <v>1</v>
-      </c>
-      <c r="B6" s="62">
+      <c r="A6" s="103"/>
+      <c r="B6" s="60">
         <v>43103</v>
       </c>
-      <c r="C6" s="51" t="s">
+      <c r="C6" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="51" t="s">
+      <c r="D6" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" s="50" t="s">
         <v>58</v>
       </c>
-      <c r="E6" s="51" t="s">
-        <v>59</v>
-      </c>
-      <c r="F6" s="51" t="s">
-        <v>71</v>
+      <c r="F6" s="50" t="s">
+        <v>67</v>
       </c>
       <c r="G6" s="1">
-        <v>76119689</v>
-      </c>
-      <c r="H6" s="51" t="s">
-        <v>72</v>
-      </c>
-      <c r="I6" s="51" t="s">
-        <v>73</v>
-      </c>
-      <c r="J6" s="51" t="s">
+        <v>76115775</v>
+      </c>
+      <c r="H6" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="I6" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="J6" s="50" t="s">
         <v>44</v>
       </c>
       <c r="K6" s="11">
         <v>17602558329</v>
       </c>
-      <c r="L6" s="59" t="s">
+      <c r="L6" s="58" t="s">
+        <v>59</v>
+      </c>
+      <c r="M6" s="58" t="s">
         <v>60</v>
       </c>
-      <c r="M6" s="59" t="s">
-        <v>61</v>
-      </c>
-      <c r="N6" s="59">
+      <c r="N6" s="58">
         <v>18601585219</v>
       </c>
       <c r="O6" s="11" t="s">
@@ -2585,323 +2867,323 @@
       </c>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="102"/>
-      <c r="B7" s="62">
-        <v>43103</v>
-      </c>
-      <c r="C7" s="51" t="s">
+      <c r="A7" s="102">
+        <v>2</v>
+      </c>
+      <c r="B7" s="60">
+        <v>43109</v>
+      </c>
+      <c r="C7" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="51" t="s">
-        <v>58</v>
-      </c>
-      <c r="E7" s="51" t="s">
-        <v>59</v>
-      </c>
-      <c r="F7" s="51" t="s">
-        <v>76</v>
+      <c r="D7" s="50" t="s">
+        <v>73</v>
+      </c>
+      <c r="E7" s="50" t="s">
+        <v>73</v>
+      </c>
+      <c r="F7" s="50" t="s">
+        <v>74</v>
       </c>
       <c r="G7" s="1">
-        <v>76115775</v>
-      </c>
-      <c r="H7" s="51" t="s">
-        <v>77</v>
-      </c>
-      <c r="I7" s="51" t="s">
-        <v>78</v>
-      </c>
-      <c r="J7" s="51" t="s">
+        <v>76120305</v>
+      </c>
+      <c r="H7" s="50" t="s">
+        <v>73</v>
+      </c>
+      <c r="I7" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="J7" s="50" t="s">
         <v>44</v>
       </c>
       <c r="K7" s="11">
         <v>17602558329</v>
       </c>
-      <c r="L7" s="59" t="s">
-        <v>60</v>
-      </c>
-      <c r="M7" s="59" t="s">
-        <v>61</v>
-      </c>
-      <c r="N7" s="59">
-        <v>18601585219</v>
+      <c r="L7" s="50" t="s">
+        <v>75</v>
+      </c>
+      <c r="M7" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="N7" s="1">
+        <v>13921387360</v>
       </c>
       <c r="O7" s="11" t="s">
-        <v>47</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="101">
-        <v>2</v>
-      </c>
-      <c r="B8" s="62">
+      <c r="A8" s="103"/>
+      <c r="B8" s="60">
         <v>43109</v>
       </c>
-      <c r="C8" s="51" t="s">
+      <c r="C8" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="51" t="s">
-        <v>82</v>
-      </c>
-      <c r="E8" s="51" t="s">
-        <v>82</v>
-      </c>
-      <c r="F8" s="51" t="s">
-        <v>83</v>
+      <c r="D8" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" s="50" t="s">
+        <v>58</v>
+      </c>
+      <c r="F8" s="50" t="s">
+        <v>71</v>
       </c>
       <c r="G8" s="1">
-        <v>76120305</v>
-      </c>
-      <c r="H8" s="51" t="s">
-        <v>82</v>
-      </c>
-      <c r="I8" s="51" t="s">
+        <v>76117397</v>
+      </c>
+      <c r="H8" s="50" t="s">
+        <v>70</v>
+      </c>
+      <c r="I8" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="J8" s="51" t="s">
+      <c r="J8" s="50" t="s">
         <v>44</v>
       </c>
       <c r="K8" s="11">
         <v>17602558329</v>
       </c>
-      <c r="L8" s="51" t="s">
-        <v>84</v>
-      </c>
-      <c r="M8" s="51" t="s">
-        <v>85</v>
+      <c r="L8" s="50" t="s">
+        <v>72</v>
+      </c>
+      <c r="M8" s="50" t="s">
+        <v>76</v>
       </c>
       <c r="N8" s="1">
-        <v>13921387360</v>
+        <v>13567912454</v>
       </c>
       <c r="O8" s="11" t="s">
-        <v>86</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:15">
-      <c r="A9" s="102"/>
-      <c r="B9" s="62">
-        <v>43109</v>
-      </c>
-      <c r="C9" s="51" t="s">
+      <c r="A9" s="102">
+        <v>3</v>
+      </c>
+      <c r="B9" s="60">
+        <v>43116</v>
+      </c>
+      <c r="C9" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="51" t="s">
-        <v>58</v>
-      </c>
-      <c r="E9" s="51" t="s">
-        <v>59</v>
-      </c>
-      <c r="F9" s="51" t="s">
+      <c r="D9" s="50" t="s">
+        <v>79</v>
+      </c>
+      <c r="E9" s="50" t="s">
         <v>80</v>
       </c>
+      <c r="F9" s="50" t="s">
+        <v>81</v>
+      </c>
       <c r="G9" s="1">
-        <v>76117397</v>
-      </c>
-      <c r="H9" s="51" t="s">
-        <v>79</v>
-      </c>
-      <c r="I9" s="51" t="s">
-        <v>40</v>
-      </c>
-      <c r="J9" s="51" t="s">
+        <v>76110597</v>
+      </c>
+      <c r="H9" s="50" t="s">
+        <v>82</v>
+      </c>
+      <c r="I9" s="50" t="s">
+        <v>83</v>
+      </c>
+      <c r="J9" s="50" t="s">
         <v>44</v>
       </c>
       <c r="K9" s="11">
         <v>17602558329</v>
       </c>
-      <c r="L9" s="51" t="s">
-        <v>81</v>
-      </c>
-      <c r="M9" s="51" t="s">
+      <c r="L9" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="M9" s="50" t="s">
         <v>85</v>
       </c>
-      <c r="N9" s="1">
-        <v>13567912454</v>
+      <c r="N9" s="77">
+        <v>15651888368</v>
       </c>
       <c r="O9" s="11" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="101">
-        <v>3</v>
-      </c>
-      <c r="B10" s="62">
+      <c r="A10" s="103"/>
+      <c r="B10" s="60">
         <v>43116</v>
       </c>
-      <c r="C10" s="51" t="s">
+      <c r="C10" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="51" t="s">
-        <v>92</v>
-      </c>
-      <c r="E10" s="51" t="s">
-        <v>93</v>
-      </c>
-      <c r="F10" s="51" t="s">
-        <v>94</v>
+      <c r="D10" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" s="50" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" s="50" t="s">
+        <v>86</v>
       </c>
       <c r="G10" s="1">
-        <v>76110597</v>
-      </c>
-      <c r="H10" s="51" t="s">
-        <v>95</v>
-      </c>
-      <c r="I10" s="51" t="s">
-        <v>96</v>
-      </c>
-      <c r="J10" s="51" t="s">
+        <v>76117399</v>
+      </c>
+      <c r="H10" s="50" t="s">
+        <v>87</v>
+      </c>
+      <c r="I10" s="50" t="s">
+        <v>83</v>
+      </c>
+      <c r="J10" s="50" t="s">
         <v>44</v>
       </c>
       <c r="K10" s="11">
         <v>17602558329</v>
       </c>
       <c r="L10" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="M10" s="51" t="s">
-        <v>98</v>
-      </c>
-      <c r="N10" s="80">
-        <v>15651888368</v>
+        <v>88</v>
+      </c>
+      <c r="M10" s="80" t="s">
+        <v>89</v>
+      </c>
+      <c r="N10" s="77">
+        <v>13780054964</v>
       </c>
       <c r="O10" s="11" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:15">
-      <c r="A11" s="102"/>
-      <c r="B11" s="62">
-        <v>43116</v>
-      </c>
-      <c r="C11" s="51" t="s">
+      <c r="A11" s="78">
+        <v>4</v>
+      </c>
+      <c r="B11" s="60">
+        <v>43122</v>
+      </c>
+      <c r="C11" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="51" t="s">
+      <c r="D11" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" s="50" t="s">
         <v>58</v>
       </c>
-      <c r="E11" s="51" t="s">
-        <v>59</v>
-      </c>
-      <c r="F11" s="51" t="s">
-        <v>99</v>
+      <c r="F11" s="50" t="s">
+        <v>90</v>
       </c>
       <c r="G11" s="1">
-        <v>76117399</v>
-      </c>
-      <c r="H11" s="51" t="s">
-        <v>100</v>
-      </c>
-      <c r="I11" s="51" t="s">
-        <v>96</v>
-      </c>
-      <c r="J11" s="51" t="s">
+        <v>76121691</v>
+      </c>
+      <c r="H11" s="50" t="s">
+        <v>91</v>
+      </c>
+      <c r="I11" s="50" t="s">
+        <v>83</v>
+      </c>
+      <c r="J11" s="50" t="s">
         <v>44</v>
       </c>
       <c r="K11" s="11">
         <v>17602558329</v>
       </c>
-      <c r="L11" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="M11" s="83" t="s">
-        <v>102</v>
-      </c>
-      <c r="N11" s="80">
-        <v>13780054964</v>
+      <c r="L11" t="s">
+        <v>92</v>
+      </c>
+      <c r="M11" s="80" t="s">
+        <v>93</v>
+      </c>
+      <c r="N11" s="79">
+        <v>18852665200</v>
       </c>
       <c r="O11" s="11" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:15">
-      <c r="A12" s="81">
-        <v>4</v>
-      </c>
-      <c r="B12" s="62">
-        <v>43122</v>
-      </c>
-      <c r="C12" s="51" t="s">
+      <c r="A12" s="102">
+        <v>5</v>
+      </c>
+      <c r="B12" s="60">
+        <v>43130</v>
+      </c>
+      <c r="C12" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="51" t="s">
+      <c r="D12" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" s="50" t="s">
         <v>58</v>
       </c>
-      <c r="E12" s="51" t="s">
-        <v>59</v>
-      </c>
-      <c r="F12" s="51" t="s">
-        <v>103</v>
+      <c r="F12" s="50" t="s">
+        <v>96</v>
       </c>
       <c r="G12" s="1">
-        <v>76121691</v>
-      </c>
-      <c r="H12" s="51" t="s">
-        <v>104</v>
-      </c>
-      <c r="I12" s="51" t="s">
-        <v>96</v>
-      </c>
-      <c r="J12" s="51" t="s">
+        <v>76121956</v>
+      </c>
+      <c r="H12" s="50" t="s">
+        <v>97</v>
+      </c>
+      <c r="I12" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="J12" s="50" t="s">
         <v>44</v>
       </c>
       <c r="K12" s="11">
         <v>17602558329</v>
       </c>
-      <c r="L12" t="s">
-        <v>105</v>
-      </c>
-      <c r="M12" s="83" t="s">
-        <v>106</v>
-      </c>
-      <c r="N12" s="82">
-        <v>18852665200</v>
+      <c r="L12" s="50" t="s">
+        <v>98</v>
+      </c>
+      <c r="M12" s="50" t="s">
+        <v>99</v>
+      </c>
+      <c r="N12" s="1">
+        <v>13921280802</v>
       </c>
       <c r="O12" s="11" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:15">
-      <c r="A13" s="101">
-        <v>5</v>
-      </c>
-      <c r="B13" s="62">
+      <c r="A13" s="104"/>
+      <c r="B13" s="60">
         <v>43130</v>
       </c>
-      <c r="C13" s="51" t="s">
+      <c r="C13" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="51" t="s">
-        <v>58</v>
-      </c>
-      <c r="E13" s="51" t="s">
-        <v>59</v>
-      </c>
-      <c r="F13" s="51" t="s">
-        <v>109</v>
+      <c r="D13" s="50" t="s">
+        <v>100</v>
+      </c>
+      <c r="E13" s="50" t="s">
+        <v>80</v>
+      </c>
+      <c r="F13" s="50" t="s">
+        <v>101</v>
       </c>
       <c r="G13" s="1">
-        <v>76121956</v>
-      </c>
-      <c r="H13" s="51" t="s">
-        <v>110</v>
-      </c>
-      <c r="I13" s="51" t="s">
+        <v>76121671</v>
+      </c>
+      <c r="H13" s="50" t="s">
+        <v>102</v>
+      </c>
+      <c r="I13" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="J13" s="51" t="s">
+      <c r="J13" s="50" t="s">
         <v>44</v>
       </c>
       <c r="K13" s="11">
         <v>17602558329</v>
       </c>
-      <c r="L13" s="51" t="s">
-        <v>111</v>
-      </c>
-      <c r="M13" s="51" t="s">
-        <v>112</v>
-      </c>
-      <c r="N13" s="1">
-        <v>13921280802</v>
+      <c r="L13" s="83" t="s">
+        <v>103</v>
+      </c>
+      <c r="M13" s="50" t="s">
+        <v>104</v>
+      </c>
+      <c r="N13" s="79">
+        <v>13605150024</v>
       </c>
       <c r="O13" s="11" t="s">
         <v>47</v>
@@ -2909,133 +3191,133 @@
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="103"/>
-      <c r="B14" s="62">
-        <v>43130</v>
-      </c>
-      <c r="C14" s="51" t="s">
+      <c r="B14" s="60">
+        <v>43131</v>
+      </c>
+      <c r="C14" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="51" t="s">
-        <v>113</v>
-      </c>
-      <c r="E14" s="51" t="s">
-        <v>93</v>
-      </c>
-      <c r="F14" s="51" t="s">
+      <c r="D14" s="50" t="s">
+        <v>105</v>
+      </c>
+      <c r="E14" s="50" t="s">
+        <v>106</v>
+      </c>
+      <c r="F14" s="50" t="s">
+        <v>107</v>
+      </c>
+      <c r="G14" s="1">
+        <v>76125223</v>
+      </c>
+      <c r="H14" s="50" t="s">
         <v>114</v>
       </c>
-      <c r="G14" s="1">
-        <v>76121671</v>
-      </c>
-      <c r="H14" s="51" t="s">
-        <v>115</v>
-      </c>
-      <c r="I14" s="51" t="s">
+      <c r="I14" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="J14" s="51" t="s">
+      <c r="J14" s="50" t="s">
         <v>44</v>
       </c>
       <c r="K14" s="11">
         <v>17602558329</v>
       </c>
-      <c r="L14" s="87" t="s">
-        <v>116</v>
-      </c>
-      <c r="M14" s="51" t="s">
-        <v>117</v>
-      </c>
-      <c r="N14" s="82">
-        <v>13605150024</v>
+      <c r="L14" s="50" t="s">
+        <v>108</v>
+      </c>
+      <c r="M14" s="50" t="s">
+        <v>109</v>
+      </c>
+      <c r="N14" s="1">
+        <v>18112604296</v>
       </c>
       <c r="O14" s="11" t="s">
-        <v>47</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:15">
-      <c r="A15" s="102"/>
-      <c r="B15" s="62">
-        <v>43131</v>
-      </c>
-      <c r="C15" s="51" t="s">
+      <c r="A15" s="102">
+        <v>6</v>
+      </c>
+      <c r="B15" s="60">
+        <v>43138</v>
+      </c>
+      <c r="C15" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="51" t="s">
-        <v>118</v>
-      </c>
-      <c r="E15" s="51" t="s">
-        <v>119</v>
-      </c>
-      <c r="F15" s="51" t="s">
-        <v>120</v>
+      <c r="D15" s="50" t="s">
+        <v>105</v>
+      </c>
+      <c r="E15" s="50" t="s">
+        <v>106</v>
+      </c>
+      <c r="F15" s="50" t="s">
+        <v>107</v>
       </c>
       <c r="G15" s="1">
-        <v>76125223</v>
-      </c>
-      <c r="H15" s="51" t="s">
-        <v>130</v>
-      </c>
-      <c r="I15" s="51" t="s">
+        <v>76128577</v>
+      </c>
+      <c r="H15" s="50" t="s">
+        <v>115</v>
+      </c>
+      <c r="I15" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="J15" s="51" t="s">
+      <c r="J15" s="50" t="s">
         <v>44</v>
       </c>
       <c r="K15" s="11">
         <v>17602558329</v>
       </c>
-      <c r="L15" s="51" t="s">
-        <v>121</v>
-      </c>
-      <c r="M15" s="51" t="s">
-        <v>122</v>
-      </c>
-      <c r="N15" s="1">
+      <c r="L15" s="50" t="s">
+        <v>108</v>
+      </c>
+      <c r="M15" s="50" t="s">
+        <v>109</v>
+      </c>
+      <c r="N15" s="11">
         <v>18112604296</v>
       </c>
       <c r="O15" s="11" t="s">
-        <v>86</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:15">
-      <c r="A16" s="101">
-        <v>6</v>
-      </c>
-      <c r="B16" s="62">
+      <c r="A16" s="103"/>
+      <c r="B16" s="60">
         <v>43138</v>
       </c>
-      <c r="C16" s="51" t="s">
+      <c r="C16" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="51" t="s">
-        <v>118</v>
-      </c>
-      <c r="E16" s="51" t="s">
-        <v>119</v>
-      </c>
-      <c r="F16" s="51" t="s">
-        <v>120</v>
+      <c r="D16" s="50" t="s">
+        <v>105</v>
+      </c>
+      <c r="E16" s="50" t="s">
+        <v>106</v>
+      </c>
+      <c r="F16" s="50" t="s">
+        <v>107</v>
       </c>
       <c r="G16" s="1">
-        <v>76128577</v>
-      </c>
-      <c r="H16" s="51" t="s">
-        <v>131</v>
-      </c>
-      <c r="I16" s="51" t="s">
+        <v>76128579</v>
+      </c>
+      <c r="H16" s="50" t="s">
+        <v>116</v>
+      </c>
+      <c r="I16" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="J16" s="51" t="s">
+      <c r="J16" s="50" t="s">
         <v>44</v>
       </c>
       <c r="K16" s="11">
         <v>17602558329</v>
       </c>
-      <c r="L16" s="51" t="s">
-        <v>121</v>
-      </c>
-      <c r="M16" s="51" t="s">
-        <v>122</v>
+      <c r="L16" s="50" t="s">
+        <v>108</v>
+      </c>
+      <c r="M16" s="50" t="s">
+        <v>109</v>
       </c>
       <c r="N16" s="11">
         <v>18112604296</v>
@@ -3045,42 +3327,44 @@
       </c>
     </row>
     <row r="17" spans="1:15">
-      <c r="A17" s="102"/>
-      <c r="B17" s="62">
-        <v>43138</v>
-      </c>
-      <c r="C17" s="51" t="s">
+      <c r="A17" s="102">
+        <v>8</v>
+      </c>
+      <c r="B17" s="60">
+        <v>43154</v>
+      </c>
+      <c r="C17" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="51" t="s">
-        <v>118</v>
-      </c>
-      <c r="E17" s="51" t="s">
-        <v>119</v>
-      </c>
-      <c r="F17" s="51" t="s">
-        <v>120</v>
+      <c r="D17" s="50" t="s">
+        <v>105</v>
+      </c>
+      <c r="E17" s="50" t="s">
+        <v>133</v>
+      </c>
+      <c r="F17" s="50" t="s">
+        <v>134</v>
       </c>
       <c r="G17" s="1">
-        <v>76128579</v>
-      </c>
-      <c r="H17" s="51" t="s">
-        <v>132</v>
-      </c>
-      <c r="I17" s="51" t="s">
+        <v>76127217</v>
+      </c>
+      <c r="H17" s="50" t="s">
+        <v>135</v>
+      </c>
+      <c r="I17" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="J17" s="51" t="s">
+      <c r="J17" s="50" t="s">
         <v>44</v>
       </c>
       <c r="K17" s="11">
         <v>17602558329</v>
       </c>
-      <c r="L17" s="51" t="s">
-        <v>121</v>
-      </c>
-      <c r="M17" s="51" t="s">
-        <v>122</v>
+      <c r="L17" s="50" t="s">
+        <v>108</v>
+      </c>
+      <c r="M17" s="50" t="s">
+        <v>109</v>
       </c>
       <c r="N17" s="11">
         <v>18112604296</v>
@@ -3090,123 +3374,321 @@
       </c>
     </row>
     <row r="18" spans="1:15">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
+      <c r="A18" s="104"/>
+      <c r="B18" s="60">
+        <v>43154</v>
+      </c>
+      <c r="C18" s="50" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="50" t="s">
+        <v>105</v>
+      </c>
+      <c r="E18" s="50" t="s">
+        <v>133</v>
+      </c>
+      <c r="F18" s="50" t="s">
+        <v>136</v>
+      </c>
+      <c r="G18" s="1">
+        <v>76128571</v>
+      </c>
+      <c r="H18" s="50" t="s">
+        <v>137</v>
+      </c>
+      <c r="I18" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="J18" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="K18" s="11">
+        <v>17602558329</v>
+      </c>
+      <c r="L18" s="50" t="s">
+        <v>108</v>
+      </c>
+      <c r="M18" s="50" t="s">
+        <v>109</v>
+      </c>
+      <c r="N18" s="11">
+        <v>18112604296</v>
+      </c>
+      <c r="O18" s="11" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="19" spans="1:15">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
+      <c r="A19" s="104"/>
+      <c r="B19" s="60">
+        <v>43154</v>
+      </c>
+      <c r="C19" s="50" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="50" t="s">
+        <v>105</v>
+      </c>
+      <c r="E19" s="50" t="s">
+        <v>138</v>
+      </c>
+      <c r="F19" s="50" t="s">
+        <v>136</v>
+      </c>
+      <c r="G19" s="90">
+        <v>76128575</v>
+      </c>
+      <c r="H19" s="50" t="s">
+        <v>139</v>
+      </c>
+      <c r="I19" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="J19" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="K19" s="11">
+        <v>17602558329</v>
+      </c>
+      <c r="L19" s="50" t="s">
+        <v>108</v>
+      </c>
+      <c r="M19" s="50" t="s">
+        <v>109</v>
+      </c>
+      <c r="N19" s="11">
+        <v>18112604296</v>
+      </c>
+      <c r="O19" s="11" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="20" spans="1:15">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
+      <c r="A20" s="104"/>
+      <c r="B20" s="60">
+        <v>43154</v>
+      </c>
+      <c r="C20" s="50" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="50" t="s">
+        <v>105</v>
+      </c>
+      <c r="E20" s="50" t="s">
+        <v>138</v>
+      </c>
+      <c r="F20" s="50" t="s">
+        <v>140</v>
+      </c>
+      <c r="G20" s="1">
+        <v>76128576</v>
+      </c>
+      <c r="H20" s="50" t="s">
+        <v>141</v>
+      </c>
+      <c r="I20" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="J20" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="K20" s="11">
+        <v>17602558329</v>
+      </c>
+      <c r="L20" s="50" t="s">
+        <v>108</v>
+      </c>
+      <c r="M20" s="50" t="s">
+        <v>109</v>
+      </c>
+      <c r="N20" s="11">
+        <v>18112604296</v>
+      </c>
+      <c r="O20" s="11" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="21" spans="1:15">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
+      <c r="A21" s="104"/>
+      <c r="B21" s="60">
+        <v>43154</v>
+      </c>
+      <c r="C21" s="50" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" s="50" t="s">
+        <v>105</v>
+      </c>
+      <c r="E21" s="50" t="s">
+        <v>138</v>
+      </c>
+      <c r="F21" s="50" t="s">
+        <v>136</v>
+      </c>
+      <c r="G21" s="1">
+        <v>76129762</v>
+      </c>
+      <c r="H21" s="50" t="s">
+        <v>142</v>
+      </c>
+      <c r="I21" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="J21" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="K21" s="11">
+        <v>17602558329</v>
+      </c>
+      <c r="L21" s="50" t="s">
+        <v>108</v>
+      </c>
+      <c r="M21" s="50" t="s">
+        <v>109</v>
+      </c>
+      <c r="N21" s="11">
+        <v>18112604296</v>
+      </c>
+      <c r="O21" s="11" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="22" spans="1:15">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
+      <c r="A22" s="103"/>
+      <c r="B22" s="60">
+        <v>43154</v>
+      </c>
+      <c r="C22" s="50" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" s="50" t="s">
+        <v>143</v>
+      </c>
+      <c r="E22" s="50" t="s">
+        <v>144</v>
+      </c>
+      <c r="F22" s="50" t="s">
+        <v>145</v>
+      </c>
+      <c r="G22" s="1">
+        <v>76127976</v>
+      </c>
+      <c r="H22" s="50" t="s">
+        <v>146</v>
+      </c>
+      <c r="I22" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="J22" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="K22" s="11">
+        <v>17602558329</v>
+      </c>
+      <c r="L22" s="91" t="s">
+        <v>147</v>
+      </c>
+      <c r="M22" s="50" t="s">
+        <v>148</v>
+      </c>
+      <c r="N22" s="1">
+        <v>15951677180</v>
+      </c>
+      <c r="O22" s="11" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="23" spans="1:15">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
+      <c r="A23" s="102">
+        <v>9</v>
+      </c>
+      <c r="B23" s="60">
+        <v>43159</v>
+      </c>
+      <c r="C23" s="50" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="E23" s="50" t="s">
+        <v>58</v>
+      </c>
+      <c r="F23" s="50" t="s">
+        <v>150</v>
+      </c>
+      <c r="G23" s="1">
+        <v>76122091</v>
+      </c>
+      <c r="H23" s="50" t="s">
+        <v>152</v>
+      </c>
+      <c r="I23" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="J23" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="K23" s="11">
+        <v>17602558329</v>
+      </c>
+      <c r="L23" s="50" t="s">
+        <v>98</v>
+      </c>
+      <c r="M23" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="N23" s="11">
+        <v>13921280802</v>
+      </c>
+      <c r="O23" s="11" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="24" spans="1:15">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
+      <c r="A24" s="103"/>
+      <c r="B24" s="60">
+        <v>43159</v>
+      </c>
+      <c r="C24" s="50" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="E24" s="50" t="s">
+        <v>58</v>
+      </c>
+      <c r="F24" s="50" t="s">
+        <v>151</v>
+      </c>
+      <c r="G24" s="1">
+        <v>76122096</v>
+      </c>
+      <c r="H24" s="50" t="s">
+        <v>153</v>
+      </c>
+      <c r="I24" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="J24" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="K24" s="11">
+        <v>17602558329</v>
+      </c>
+      <c r="L24" s="50" t="s">
+        <v>98</v>
+      </c>
+      <c r="M24" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="N24" s="11">
+        <v>13921280802</v>
+      </c>
+      <c r="O24" s="11" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="25" spans="1:15">
       <c r="A25" s="1"/>
@@ -7900,32 +8382,16 @@
       <c r="N300" s="1"/>
       <c r="O300" s="1"/>
     </row>
-    <row r="301" spans="1:15">
-      <c r="A301" s="1"/>
-      <c r="B301" s="1"/>
-      <c r="C301" s="1"/>
-      <c r="D301" s="1"/>
-      <c r="E301" s="1"/>
-      <c r="F301" s="1"/>
-      <c r="G301" s="1"/>
-      <c r="H301" s="1"/>
-      <c r="I301" s="1"/>
-      <c r="J301" s="1"/>
-      <c r="K301" s="1"/>
-      <c r="L301" s="1"/>
-      <c r="M301" s="1"/>
-      <c r="N301" s="1"/>
-      <c r="O301" s="1"/>
-    </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A13:A15"/>
+  <mergeCells count="8">
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A12:A14"/>
     <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A17:A22"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <dataValidations count="2">
@@ -7943,10 +8409,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G84"/>
+  <dimension ref="A1:G72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
@@ -7956,7 +8422,7 @@
     <col min="3" max="3" width="12.75" customWidth="1"/>
     <col min="4" max="4" width="35.25" style="6" customWidth="1"/>
     <col min="5" max="5" width="13.5" customWidth="1"/>
-    <col min="6" max="6" width="14" customWidth="1"/>
+    <col min="6" max="6" width="16.75" customWidth="1"/>
     <col min="7" max="7" width="11.375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -7984,38 +8450,40 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="101">
+      <c r="A2" s="88">
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="C2" s="91">
+        <v>65</v>
+      </c>
+      <c r="C2" s="87">
         <v>43102</v>
       </c>
-      <c r="D2" s="52" t="s">
-        <v>107</v>
+      <c r="D2" s="51" t="s">
+        <v>94</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F2" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="G2" s="51" t="s">
-        <v>75</v>
+      <c r="G2" s="50" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="103"/>
-      <c r="B3" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="C3" s="91">
-        <v>43105</v>
-      </c>
-      <c r="D3" s="52" t="s">
-        <v>89</v>
+      <c r="A3" s="104">
+        <v>4</v>
+      </c>
+      <c r="B3" s="85" t="s">
+        <v>111</v>
+      </c>
+      <c r="C3" s="87">
+        <v>43126</v>
+      </c>
+      <c r="D3" s="86" t="s">
+        <v>113</v>
       </c>
       <c r="E3" s="11" t="s">
         <v>51</v>
@@ -8023,20 +8491,20 @@
       <c r="F3" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="G3" s="51" t="s">
-        <v>53</v>
+      <c r="G3" s="50" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="102"/>
-      <c r="B4" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="C4" s="91">
-        <v>43105</v>
-      </c>
-      <c r="D4" s="52" t="s">
-        <v>89</v>
+      <c r="A4" s="103"/>
+      <c r="B4" s="85" t="s">
+        <v>112</v>
+      </c>
+      <c r="C4" s="87">
+        <v>43126</v>
+      </c>
+      <c r="D4" s="86" t="s">
+        <v>121</v>
       </c>
       <c r="E4" s="11" t="s">
         <v>51</v>
@@ -8044,45 +8512,43 @@
       <c r="F4" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="G4" s="51" t="s">
-        <v>53</v>
+      <c r="G4" s="50" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="63">
-        <v>2</v>
+      <c r="A5" s="102">
+        <v>6</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="C5" s="91">
-        <v>43111</v>
-      </c>
-      <c r="D5" s="52" t="s">
-        <v>124</v>
+        <v>120</v>
+      </c>
+      <c r="C5" s="87">
+        <v>43134</v>
+      </c>
+      <c r="D5" s="86" t="s">
+        <v>121</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="F5" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="G5" s="51" t="s">
-        <v>53</v>
+      <c r="G5" s="50" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="86">
-        <v>3</v>
-      </c>
-      <c r="B6" s="104" t="s">
-        <v>133</v>
-      </c>
-      <c r="C6" s="91">
-        <v>43119</v>
-      </c>
-      <c r="D6" s="52" t="s">
-        <v>107</v>
+      <c r="A6" s="104"/>
+      <c r="B6" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="C6" s="87">
+        <v>43137</v>
+      </c>
+      <c r="D6" s="86" t="s">
+        <v>121</v>
       </c>
       <c r="E6" s="11" t="s">
         <v>51</v>
@@ -8090,22 +8556,20 @@
       <c r="F6" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="G6" s="51" t="s">
-        <v>129</v>
+      <c r="G6" s="50" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="101">
-        <v>4</v>
-      </c>
+      <c r="A7" s="103"/>
       <c r="B7" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="C7" s="91">
-        <v>43126</v>
-      </c>
-      <c r="D7" s="52" t="s">
-        <v>89</v>
+      <c r="C7" s="87">
+        <v>43137</v>
+      </c>
+      <c r="D7" s="86" t="s">
+        <v>121</v>
       </c>
       <c r="E7" s="11" t="s">
         <v>51</v>
@@ -8113,126 +8577,176 @@
       <c r="F7" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="G7" s="51" t="s">
-        <v>125</v>
+      <c r="G7" s="50" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="103"/>
+      <c r="A8" s="105">
+        <v>8</v>
+      </c>
       <c r="B8" s="89" t="s">
-        <v>126</v>
-      </c>
-      <c r="C8" s="91">
-        <v>43126</v>
-      </c>
-      <c r="D8" s="90" t="s">
-        <v>128</v>
+        <v>124</v>
+      </c>
+      <c r="C8" s="87">
+        <v>43123</v>
+      </c>
+      <c r="D8" s="51" t="s">
+        <v>130</v>
       </c>
       <c r="E8" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="F8" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="G8" s="51" t="s">
+      <c r="F8" s="50" t="s">
+        <v>131</v>
+      </c>
+      <c r="G8" s="50" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="105"/>
+      <c r="B9" s="89" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="102"/>
-      <c r="B9" s="89" t="s">
-        <v>127</v>
-      </c>
-      <c r="C9" s="91">
-        <v>43126</v>
-      </c>
-      <c r="D9" s="90" t="s">
-        <v>128</v>
+      <c r="C9" s="87">
+        <v>43123</v>
+      </c>
+      <c r="D9" s="51" t="s">
+        <v>130</v>
       </c>
       <c r="E9" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="F9" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="G9" s="51" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="14.25">
-      <c r="A10" s="88"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="9"/>
+      <c r="F9" s="50" t="s">
+        <v>131</v>
+      </c>
+      <c r="G9" s="50" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="105"/>
+      <c r="B10" s="89" t="s">
+        <v>126</v>
+      </c>
+      <c r="C10" s="87">
+        <v>43123</v>
+      </c>
+      <c r="D10" s="51" t="s">
+        <v>130</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" s="50" t="s">
+        <v>131</v>
+      </c>
+      <c r="G10" s="50" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="88"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
+      <c r="A11" s="105"/>
+      <c r="B11" s="89" t="s">
+        <v>127</v>
+      </c>
+      <c r="C11" s="87">
+        <v>43123</v>
+      </c>
+      <c r="D11" s="51" t="s">
+        <v>130</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" s="50" t="s">
+        <v>131</v>
+      </c>
+      <c r="G11" s="50" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="88"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="88"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
+      <c r="A12" s="105"/>
+      <c r="B12" s="89" t="s">
+        <v>128</v>
+      </c>
+      <c r="C12" s="87">
+        <v>43123</v>
+      </c>
+      <c r="D12" s="51" t="s">
+        <v>130</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" s="50" t="s">
+        <v>131</v>
+      </c>
+      <c r="G12" s="50" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="27">
+      <c r="A13" s="105"/>
+      <c r="B13" s="57" t="s">
+        <v>129</v>
+      </c>
+      <c r="C13" s="87">
+        <v>43123</v>
+      </c>
+      <c r="D13" s="51" t="s">
+        <v>149</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="G13" s="50" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="88"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
+      <c r="A14" s="84"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
       <c r="D14" s="10"/>
       <c r="E14" s="11"/>
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="88"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
+      <c r="A15" s="84"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
       <c r="D15" s="10"/>
       <c r="E15" s="11"/>
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="88"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
+      <c r="A16" s="84"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
       <c r="D16" s="10"/>
       <c r="E16" s="11"/>
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="88"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
+      <c r="A17" s="84"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
       <c r="D17" s="10"/>
       <c r="E17" s="11"/>
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="88"/>
+      <c r="A18" s="84"/>
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
       <c r="D18" s="10"/>
@@ -8241,7 +8755,7 @@
       <c r="G18" s="11"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="88"/>
+      <c r="A19" s="84"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
       <c r="D19" s="10"/>
@@ -8250,7 +8764,7 @@
       <c r="G19" s="11"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="53"/>
+      <c r="A20" s="84"/>
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
       <c r="D20" s="10"/>
@@ -8258,71 +8772,71 @@
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
     </row>
-    <row r="21" spans="1:7" ht="14.25">
-      <c r="A21" s="101"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="13"/>
+    <row r="21" spans="1:7">
+      <c r="A21" s="84"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="10"/>
       <c r="E21" s="11"/>
       <c r="F21" s="11"/>
-      <c r="G21" s="12"/>
-    </row>
-    <row r="22" spans="1:7" ht="14.25">
-      <c r="A22" s="103"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="13"/>
+      <c r="G21" s="11"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="84"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="10"/>
       <c r="E22" s="11"/>
       <c r="F22" s="11"/>
-      <c r="G22" s="9"/>
+      <c r="G22" s="11"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="103"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
+      <c r="A23" s="52"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
       <c r="D23" s="10"/>
       <c r="E23" s="11"/>
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
     </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="103"/>
+    <row r="24" spans="1:7" ht="14.25">
+      <c r="A24" s="102"/>
       <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="10"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="12"/>
       <c r="E24" s="11"/>
       <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="103"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="10"/>
+      <c r="G24" s="9"/>
+    </row>
+    <row r="25" spans="1:7" ht="14.25">
+      <c r="A25" s="104"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="12"/>
       <c r="E25" s="11"/>
       <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
+      <c r="G25" s="4"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="103"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
+      <c r="A26" s="104"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
       <c r="D26" s="10"/>
       <c r="E26" s="11"/>
       <c r="F26" s="11"/>
       <c r="G26" s="11"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="103"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
+      <c r="A27" s="104"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
       <c r="D27" s="10"/>
       <c r="E27" s="11"/>
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="103"/>
+      <c r="A28" s="104"/>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
       <c r="D28" s="10"/>
@@ -8331,7 +8845,7 @@
       <c r="G28" s="11"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="103"/>
+      <c r="A29" s="104"/>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
       <c r="D29" s="10"/>
@@ -8340,25 +8854,25 @@
       <c r="G29" s="11"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="103"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
+      <c r="A30" s="104"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
       <c r="D30" s="10"/>
       <c r="E30" s="11"/>
       <c r="F30" s="11"/>
       <c r="G30" s="11"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="103"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
+      <c r="A31" s="104"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
       <c r="D31" s="10"/>
       <c r="E31" s="11"/>
       <c r="F31" s="11"/>
       <c r="G31" s="11"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="103"/>
+      <c r="A32" s="104"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
       <c r="D32" s="10"/>
@@ -8367,7 +8881,7 @@
       <c r="G32" s="11"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="103"/>
+      <c r="A33" s="104"/>
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
       <c r="D33" s="10"/>
@@ -8376,7 +8890,7 @@
       <c r="G33" s="11"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="103"/>
+      <c r="A34" s="104"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
       <c r="D34" s="10"/>
@@ -8385,7 +8899,7 @@
       <c r="G34" s="11"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="102"/>
+      <c r="A35" s="104"/>
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
       <c r="D35" s="10"/>
@@ -8393,23 +8907,23 @@
       <c r="F35" s="11"/>
       <c r="G35" s="11"/>
     </row>
-    <row r="36" spans="1:7" ht="14.25">
-      <c r="A36" s="101"/>
-      <c r="B36" s="9"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="13"/>
+    <row r="36" spans="1:7">
+      <c r="A36" s="104"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="10"/>
       <c r="E36" s="11"/>
       <c r="F36" s="11"/>
-      <c r="G36" s="9"/>
-    </row>
-    <row r="37" spans="1:7" ht="14.25">
-      <c r="A37" s="103"/>
-      <c r="B37" s="9"/>
-      <c r="C37" s="15"/>
-      <c r="D37" s="13"/>
+      <c r="G36" s="11"/>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="104"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="10"/>
       <c r="E37" s="11"/>
       <c r="F37" s="11"/>
-      <c r="G37" s="4"/>
+      <c r="G37" s="11"/>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="103"/>
@@ -8420,44 +8934,44 @@
       <c r="F38" s="11"/>
       <c r="G38" s="11"/>
     </row>
-    <row r="39" spans="1:7">
-      <c r="A39" s="103"/>
+    <row r="39" spans="1:7" ht="14.25">
+      <c r="A39" s="102"/>
       <c r="B39" s="9"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="10"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="12"/>
       <c r="E39" s="11"/>
       <c r="F39" s="11"/>
-      <c r="G39" s="11"/>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="A40" s="103"/>
+      <c r="G39" s="9"/>
+    </row>
+    <row r="40" spans="1:7" ht="14.25">
+      <c r="A40" s="104"/>
       <c r="B40" s="9"/>
-      <c r="C40" s="9"/>
-      <c r="D40" s="10"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="12"/>
       <c r="E40" s="11"/>
       <c r="F40" s="11"/>
-      <c r="G40" s="11"/>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="A41" s="103"/>
+      <c r="G40" s="4"/>
+    </row>
+    <row r="41" spans="1:7" ht="14.25">
+      <c r="A41" s="104"/>
       <c r="B41" s="9"/>
-      <c r="C41" s="9"/>
-      <c r="D41" s="10"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="12"/>
       <c r="E41" s="11"/>
       <c r="F41" s="11"/>
-      <c r="G41" s="11"/>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="103"/>
+      <c r="G41" s="4"/>
+    </row>
+    <row r="42" spans="1:7" ht="14.25">
+      <c r="A42" s="104"/>
       <c r="B42" s="9"/>
-      <c r="C42" s="9"/>
-      <c r="D42" s="10"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="12"/>
       <c r="E42" s="11"/>
       <c r="F42" s="11"/>
-      <c r="G42" s="11"/>
+      <c r="G42" s="15"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="103"/>
+      <c r="A43" s="104"/>
       <c r="B43" s="9"/>
       <c r="C43" s="9"/>
       <c r="D43" s="10"/>
@@ -8466,61 +8980,61 @@
       <c r="G43" s="11"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="103"/>
-      <c r="B44" s="11"/>
-      <c r="C44" s="11"/>
+      <c r="A44" s="104"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="9"/>
       <c r="D44" s="10"/>
       <c r="E44" s="11"/>
       <c r="F44" s="11"/>
       <c r="G44" s="11"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="103"/>
-      <c r="B45" s="11"/>
-      <c r="C45" s="11"/>
+      <c r="A45" s="104"/>
+      <c r="B45" s="9"/>
+      <c r="C45" s="9"/>
       <c r="D45" s="10"/>
       <c r="E45" s="11"/>
       <c r="F45" s="11"/>
       <c r="G45" s="11"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="103"/>
-      <c r="B46" s="11"/>
-      <c r="C46" s="11"/>
+      <c r="A46" s="104"/>
+      <c r="B46" s="9"/>
+      <c r="C46" s="9"/>
       <c r="D46" s="10"/>
       <c r="E46" s="11"/>
       <c r="F46" s="11"/>
       <c r="G46" s="11"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="103"/>
-      <c r="B47" s="11"/>
-      <c r="C47" s="11"/>
+      <c r="A47" s="104"/>
+      <c r="B47" s="9"/>
+      <c r="C47" s="9"/>
       <c r="D47" s="10"/>
       <c r="E47" s="11"/>
       <c r="F47" s="11"/>
       <c r="G47" s="11"/>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="103"/>
-      <c r="B48" s="11"/>
-      <c r="C48" s="11"/>
+      <c r="A48" s="104"/>
+      <c r="B48" s="9"/>
+      <c r="C48" s="9"/>
       <c r="D48" s="10"/>
       <c r="E48" s="11"/>
       <c r="F48" s="11"/>
       <c r="G48" s="11"/>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="103"/>
-      <c r="B49" s="11"/>
-      <c r="C49" s="11"/>
+      <c r="A49" s="104"/>
+      <c r="B49" s="9"/>
+      <c r="C49" s="9"/>
       <c r="D49" s="10"/>
       <c r="E49" s="11"/>
       <c r="F49" s="11"/>
       <c r="G49" s="11"/>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="102"/>
+      <c r="A50" s="103"/>
       <c r="B50" s="9"/>
       <c r="C50" s="9"/>
       <c r="D50" s="10"/>
@@ -8529,43 +9043,43 @@
       <c r="G50" s="11"/>
     </row>
     <row r="51" spans="1:7" ht="14.25">
-      <c r="A51" s="101"/>
+      <c r="A51" s="102"/>
       <c r="B51" s="9"/>
-      <c r="C51" s="14"/>
-      <c r="D51" s="13"/>
+      <c r="C51" s="13"/>
+      <c r="D51" s="12"/>
       <c r="E51" s="11"/>
       <c r="F51" s="11"/>
       <c r="G51" s="9"/>
     </row>
     <row r="52" spans="1:7" ht="14.25">
-      <c r="A52" s="103"/>
+      <c r="A52" s="104"/>
       <c r="B52" s="9"/>
-      <c r="C52" s="15"/>
-      <c r="D52" s="13"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="12"/>
       <c r="E52" s="11"/>
       <c r="F52" s="11"/>
       <c r="G52" s="4"/>
     </row>
     <row r="53" spans="1:7" ht="14.25">
-      <c r="A53" s="103"/>
+      <c r="A53" s="104"/>
       <c r="B53" s="9"/>
-      <c r="C53" s="15"/>
-      <c r="D53" s="13"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="12"/>
       <c r="E53" s="11"/>
       <c r="F53" s="11"/>
       <c r="G53" s="4"/>
     </row>
     <row r="54" spans="1:7" ht="14.25">
-      <c r="A54" s="103"/>
+      <c r="A54" s="104"/>
       <c r="B54" s="9"/>
-      <c r="C54" s="15"/>
-      <c r="D54" s="13"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="12"/>
       <c r="E54" s="11"/>
       <c r="F54" s="11"/>
-      <c r="G54" s="16"/>
+      <c r="G54" s="15"/>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="103"/>
+      <c r="A55" s="104"/>
       <c r="B55" s="9"/>
       <c r="C55" s="9"/>
       <c r="D55" s="10"/>
@@ -8574,7 +9088,7 @@
       <c r="G55" s="11"/>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="103"/>
+      <c r="A56" s="104"/>
       <c r="B56" s="9"/>
       <c r="C56" s="9"/>
       <c r="D56" s="10"/>
@@ -8583,7 +9097,7 @@
       <c r="G56" s="11"/>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="103"/>
+      <c r="A57" s="104"/>
       <c r="B57" s="9"/>
       <c r="C57" s="9"/>
       <c r="D57" s="10"/>
@@ -8592,7 +9106,7 @@
       <c r="G57" s="11"/>
     </row>
     <row r="58" spans="1:7">
-      <c r="A58" s="103"/>
+      <c r="A58" s="104"/>
       <c r="B58" s="9"/>
       <c r="C58" s="9"/>
       <c r="D58" s="10"/>
@@ -8601,7 +9115,7 @@
       <c r="G58" s="11"/>
     </row>
     <row r="59" spans="1:7">
-      <c r="A59" s="103"/>
+      <c r="A59" s="104"/>
       <c r="B59" s="9"/>
       <c r="C59" s="9"/>
       <c r="D59" s="10"/>
@@ -8610,7 +9124,7 @@
       <c r="G59" s="11"/>
     </row>
     <row r="60" spans="1:7">
-      <c r="A60" s="103"/>
+      <c r="A60" s="104"/>
       <c r="B60" s="9"/>
       <c r="C60" s="9"/>
       <c r="D60" s="10"/>
@@ -8619,7 +9133,7 @@
       <c r="G60" s="11"/>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="103"/>
+      <c r="A61" s="104"/>
       <c r="B61" s="9"/>
       <c r="C61" s="9"/>
       <c r="D61" s="10"/>
@@ -8628,7 +9142,7 @@
       <c r="G61" s="11"/>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" s="102"/>
+      <c r="A62" s="103"/>
       <c r="B62" s="9"/>
       <c r="C62" s="9"/>
       <c r="D62" s="10"/>
@@ -8637,43 +9151,43 @@
       <c r="G62" s="11"/>
     </row>
     <row r="63" spans="1:7" ht="14.25">
-      <c r="A63" s="101"/>
+      <c r="A63" s="104"/>
       <c r="B63" s="9"/>
       <c r="C63" s="14"/>
-      <c r="D63" s="13"/>
+      <c r="D63" s="12"/>
       <c r="E63" s="11"/>
       <c r="F63" s="11"/>
-      <c r="G63" s="9"/>
+      <c r="G63" s="4"/>
     </row>
     <row r="64" spans="1:7" ht="14.25">
-      <c r="A64" s="103"/>
+      <c r="A64" s="104"/>
       <c r="B64" s="9"/>
-      <c r="C64" s="15"/>
-      <c r="D64" s="13"/>
+      <c r="C64" s="14"/>
+      <c r="D64" s="12"/>
       <c r="E64" s="11"/>
       <c r="F64" s="11"/>
-      <c r="G64" s="4"/>
-    </row>
-    <row r="65" spans="1:7" ht="14.25">
-      <c r="A65" s="103"/>
+      <c r="G64" s="15"/>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" s="104"/>
       <c r="B65" s="9"/>
-      <c r="C65" s="15"/>
-      <c r="D65" s="13"/>
+      <c r="C65" s="9"/>
+      <c r="D65" s="10"/>
       <c r="E65" s="11"/>
       <c r="F65" s="11"/>
-      <c r="G65" s="4"/>
-    </row>
-    <row r="66" spans="1:7" ht="14.25">
-      <c r="A66" s="103"/>
+      <c r="G65" s="11"/>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" s="104"/>
       <c r="B66" s="9"/>
-      <c r="C66" s="15"/>
-      <c r="D66" s="13"/>
+      <c r="C66" s="9"/>
+      <c r="D66" s="10"/>
       <c r="E66" s="11"/>
       <c r="F66" s="11"/>
-      <c r="G66" s="16"/>
+      <c r="G66" s="11"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="103"/>
+      <c r="A67" s="104"/>
       <c r="B67" s="9"/>
       <c r="C67" s="9"/>
       <c r="D67" s="10"/>
@@ -8682,7 +9196,7 @@
       <c r="G67" s="11"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="103"/>
+      <c r="A68" s="104"/>
       <c r="B68" s="9"/>
       <c r="C68" s="9"/>
       <c r="D68" s="10"/>
@@ -8691,7 +9205,7 @@
       <c r="G68" s="11"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="103"/>
+      <c r="A69" s="104"/>
       <c r="B69" s="9"/>
       <c r="C69" s="9"/>
       <c r="D69" s="10"/>
@@ -8700,7 +9214,7 @@
       <c r="G69" s="11"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="103"/>
+      <c r="A70" s="104"/>
       <c r="B70" s="9"/>
       <c r="C70" s="9"/>
       <c r="D70" s="10"/>
@@ -8709,7 +9223,7 @@
       <c r="G70" s="11"/>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="103"/>
+      <c r="A71" s="104"/>
       <c r="B71" s="9"/>
       <c r="C71" s="9"/>
       <c r="D71" s="10"/>
@@ -8726,123 +9240,15 @@
       <c r="F72" s="11"/>
       <c r="G72" s="11"/>
     </row>
-    <row r="73" spans="1:7">
-      <c r="A73" s="103"/>
-      <c r="B73" s="9"/>
-      <c r="C73" s="9"/>
-      <c r="D73" s="10"/>
-      <c r="E73" s="11"/>
-      <c r="F73" s="11"/>
-      <c r="G73" s="11"/>
-    </row>
-    <row r="74" spans="1:7">
-      <c r="A74" s="102"/>
-      <c r="B74" s="9"/>
-      <c r="C74" s="9"/>
-      <c r="D74" s="10"/>
-      <c r="E74" s="11"/>
-      <c r="F74" s="11"/>
-      <c r="G74" s="11"/>
-    </row>
-    <row r="75" spans="1:7" ht="14.25">
-      <c r="A75" s="103"/>
-      <c r="B75" s="9"/>
-      <c r="C75" s="15"/>
-      <c r="D75" s="13"/>
-      <c r="E75" s="11"/>
-      <c r="F75" s="11"/>
-      <c r="G75" s="4"/>
-    </row>
-    <row r="76" spans="1:7" ht="14.25">
-      <c r="A76" s="103"/>
-      <c r="B76" s="9"/>
-      <c r="C76" s="15"/>
-      <c r="D76" s="13"/>
-      <c r="E76" s="11"/>
-      <c r="F76" s="11"/>
-      <c r="G76" s="16"/>
-    </row>
-    <row r="77" spans="1:7">
-      <c r="A77" s="103"/>
-      <c r="B77" s="9"/>
-      <c r="C77" s="9"/>
-      <c r="D77" s="10"/>
-      <c r="E77" s="11"/>
-      <c r="F77" s="11"/>
-      <c r="G77" s="11"/>
-    </row>
-    <row r="78" spans="1:7">
-      <c r="A78" s="103"/>
-      <c r="B78" s="9"/>
-      <c r="C78" s="9"/>
-      <c r="D78" s="10"/>
-      <c r="E78" s="11"/>
-      <c r="F78" s="11"/>
-      <c r="G78" s="11"/>
-    </row>
-    <row r="79" spans="1:7">
-      <c r="A79" s="103"/>
-      <c r="B79" s="9"/>
-      <c r="C79" s="9"/>
-      <c r="D79" s="10"/>
-      <c r="E79" s="11"/>
-      <c r="F79" s="11"/>
-      <c r="G79" s="11"/>
-    </row>
-    <row r="80" spans="1:7">
-      <c r="A80" s="103"/>
-      <c r="B80" s="9"/>
-      <c r="C80" s="9"/>
-      <c r="D80" s="10"/>
-      <c r="E80" s="11"/>
-      <c r="F80" s="11"/>
-      <c r="G80" s="11"/>
-    </row>
-    <row r="81" spans="1:7">
-      <c r="A81" s="103"/>
-      <c r="B81" s="9"/>
-      <c r="C81" s="9"/>
-      <c r="D81" s="10"/>
-      <c r="E81" s="11"/>
-      <c r="F81" s="11"/>
-      <c r="G81" s="11"/>
-    </row>
-    <row r="82" spans="1:7">
-      <c r="A82" s="103"/>
-      <c r="B82" s="9"/>
-      <c r="C82" s="9"/>
-      <c r="D82" s="10"/>
-      <c r="E82" s="11"/>
-      <c r="F82" s="11"/>
-      <c r="G82" s="11"/>
-    </row>
-    <row r="83" spans="1:7">
-      <c r="A83" s="103"/>
-      <c r="B83" s="9"/>
-      <c r="C83" s="9"/>
-      <c r="D83" s="10"/>
-      <c r="E83" s="11"/>
-      <c r="F83" s="11"/>
-      <c r="G83" s="11"/>
-    </row>
-    <row r="84" spans="1:7">
-      <c r="A84" s="102"/>
-      <c r="B84" s="9"/>
-      <c r="C84" s="9"/>
-      <c r="D84" s="10"/>
-      <c r="E84" s="11"/>
-      <c r="F84" s="11"/>
-      <c r="G84" s="11"/>
-    </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A63:A74"/>
-    <mergeCell ref="A75:A84"/>
-    <mergeCell ref="A21:A35"/>
-    <mergeCell ref="A36:A50"/>
+    <mergeCell ref="A3:A4"/>
     <mergeCell ref="A51:A62"/>
+    <mergeCell ref="A63:A72"/>
+    <mergeCell ref="A24:A38"/>
+    <mergeCell ref="A39:A50"/>
+    <mergeCell ref="A8:A13"/>
+    <mergeCell ref="A5:A7"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <dataValidations count="3">
@@ -8855,7 +9261,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8872,7 +9278,7 @@
     <col min="1" max="1" width="9.75" style="4" customWidth="1"/>
     <col min="2" max="2" width="15.125" style="1" customWidth="1"/>
     <col min="3" max="3" width="17" style="1" customWidth="1"/>
-    <col min="4" max="4" width="29.5" style="56" customWidth="1"/>
+    <col min="4" max="4" width="29.5" style="55" customWidth="1"/>
     <col min="5" max="5" width="16" style="4" customWidth="1"/>
     <col min="6" max="6" width="17.875" bestFit="1" customWidth="1"/>
   </cols>
@@ -8887,10 +9293,10 @@
       <c r="C1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="57" t="s">
-        <v>54</v>
-      </c>
-      <c r="E1" s="54" t="s">
+      <c r="D1" s="56" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="53" t="s">
         <v>36</v>
       </c>
     </row>
@@ -8901,65 +9307,76 @@
       <c r="B2" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="85">
+      <c r="C2" s="82">
         <v>43099</v>
       </c>
-      <c r="D2" s="76" t="s">
-        <v>91</v>
+      <c r="D2" s="73" t="s">
+        <v>78</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="B3" s="84" t="s">
+      <c r="B3" s="81" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="85">
+      <c r="C3" s="82">
         <v>43127</v>
       </c>
-      <c r="D3" s="76" t="s">
-        <v>108</v>
-      </c>
-      <c r="E3" s="84" t="s">
-        <v>55</v>
+      <c r="D3" s="73" t="s">
+        <v>95</v>
+      </c>
+      <c r="E3" s="81" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="4">
         <v>1</v>
       </c>
-      <c r="B4" s="84" t="s">
+      <c r="B4" s="81" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="85">
+      <c r="C4" s="82">
         <v>43128</v>
       </c>
-      <c r="D4" s="76" t="s">
-        <v>108</v>
-      </c>
-      <c r="E4" s="84" t="s">
-        <v>55</v>
+      <c r="D4" s="73" t="s">
+        <v>95</v>
+      </c>
+      <c r="E4" s="81" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="58"/>
+      <c r="A5" s="4">
+        <v>2</v>
+      </c>
+      <c r="B5" s="57" t="s">
+        <v>117</v>
+      </c>
+      <c r="C5" s="82">
+        <v>43144</v>
+      </c>
+      <c r="D5" s="73" t="s">
+        <v>118</v>
+      </c>
+      <c r="E5" s="57" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="6" spans="1:5">
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
-      <c r="D6" s="55"/>
+      <c r="D6" s="54"/>
     </row>
     <row r="7" spans="1:5">
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
-      <c r="D7" s="55"/>
+      <c r="D7" s="54"/>
     </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>

--- a/周数据/《个人上线率统计表》-黄纯伟.xlsx
+++ b/周数据/《个人上线率统计表》-黄纯伟.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="165">
   <si>
     <t>个人上线率分析表</t>
   </si>
@@ -600,6 +600,50 @@
   </si>
   <si>
     <t>沽凍无锡宝龙店</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>沽涷成都万达店</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>沽涷江阴精品店</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>沽涷江阴万达店</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>成都</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>江阴</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘烨腾</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>丁香华</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>金准</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>老板</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>老板娘</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>老板</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -3646,7 +3690,7 @@
       </c>
     </row>
     <row r="24" spans="1:15">
-      <c r="A24" s="103"/>
+      <c r="A24" s="104"/>
       <c r="B24" s="60">
         <v>43159</v>
       </c>
@@ -3691,55 +3735,139 @@
       </c>
     </row>
     <row r="25" spans="1:15">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-      <c r="O25" s="1"/>
+      <c r="A25" s="104"/>
+      <c r="B25" s="60">
+        <v>43159</v>
+      </c>
+      <c r="C25" s="50" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="E25" s="50" t="s">
+        <v>58</v>
+      </c>
+      <c r="F25" s="50" t="s">
+        <v>157</v>
+      </c>
+      <c r="G25" s="1">
+        <v>76123036</v>
+      </c>
+      <c r="H25" s="50" t="s">
+        <v>154</v>
+      </c>
+      <c r="I25" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="J25" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="K25" s="11">
+        <v>17602558329</v>
+      </c>
+      <c r="L25" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="M25" s="50" t="s">
+        <v>162</v>
+      </c>
+      <c r="N25" s="77">
+        <v>13709060302</v>
+      </c>
+      <c r="O25" s="11" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="26" spans="1:15">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
+      <c r="A26" s="104"/>
+      <c r="B26" s="60">
+        <v>43159</v>
+      </c>
+      <c r="C26" s="50" t="s">
+        <v>37</v>
+      </c>
+      <c r="D26" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="E26" s="50" t="s">
+        <v>58</v>
+      </c>
+      <c r="F26" s="50" t="s">
+        <v>158</v>
+      </c>
+      <c r="G26" s="1">
+        <v>76128273</v>
+      </c>
+      <c r="H26" s="50" t="s">
+        <v>155</v>
+      </c>
+      <c r="I26" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="J26" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="K26" s="11">
+        <v>17602558329</v>
+      </c>
+      <c r="L26" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="M26" s="50" t="s">
+        <v>163</v>
+      </c>
+      <c r="N26" s="77">
+        <v>13812586805</v>
+      </c>
+      <c r="O26" s="11" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="27" spans="1:15">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
-      <c r="O27" s="1"/>
+      <c r="A27" s="103"/>
+      <c r="B27" s="60">
+        <v>43159</v>
+      </c>
+      <c r="C27" s="50" t="s">
+        <v>37</v>
+      </c>
+      <c r="D27" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="E27" s="50" t="s">
+        <v>58</v>
+      </c>
+      <c r="F27" s="50" t="s">
+        <v>158</v>
+      </c>
+      <c r="G27" s="1">
+        <v>76132337</v>
+      </c>
+      <c r="H27" s="50" t="s">
+        <v>156</v>
+      </c>
+      <c r="I27" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="J27" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="K27" s="11">
+        <v>17602558329</v>
+      </c>
+      <c r="L27" s="50" t="s">
+        <v>161</v>
+      </c>
+      <c r="M27" s="50" t="s">
+        <v>164</v>
+      </c>
+      <c r="N27" s="1">
+        <v>13338730911</v>
+      </c>
+      <c r="O27" s="11" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="28" spans="1:15">
       <c r="A28" s="1"/>
@@ -8384,7 +8512,6 @@
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A23:A24"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="A12:A14"/>
     <mergeCell ref="A2:A3"/>
@@ -8392,6 +8519,7 @@
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="A17:A22"/>
+    <mergeCell ref="A23:A27"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <dataValidations count="2">

--- a/周数据/《个人上线率统计表》-黄纯伟.xlsx
+++ b/周数据/《个人上线率统计表》-黄纯伟.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="170">
   <si>
     <t>个人上线率分析表</t>
   </si>
@@ -644,6 +644,26 @@
   </si>
   <si>
     <t>老板</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>无数据</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>老魏生煎</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>南京</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>魏琼</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>老板娘</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -1264,7 +1284,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1542,6 +1562,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1572,10 +1601,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1876,21 +1905,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15" thickBot="1">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
-      <c r="J1" s="95"/>
-      <c r="K1" s="94"/>
-      <c r="L1" s="94"/>
-      <c r="M1" s="96"/>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="97"/>
+      <c r="L1" s="97"/>
+      <c r="M1" s="99"/>
     </row>
     <row r="2" spans="1:13" ht="14.25" thickBot="1">
       <c r="A2" s="68" t="s">
@@ -1934,7 +1963,7 @@
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="97">
+      <c r="A3" s="100">
         <v>12</v>
       </c>
       <c r="B3" s="69">
@@ -1975,7 +2004,7 @@
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="98"/>
+      <c r="A4" s="101"/>
       <c r="B4" s="70">
         <v>51</v>
       </c>
@@ -2014,7 +2043,7 @@
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="98"/>
+      <c r="A5" s="101"/>
       <c r="B5" s="70">
         <v>52</v>
       </c>
@@ -2055,7 +2084,7 @@
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="99">
+      <c r="A6" s="102">
         <v>1</v>
       </c>
       <c r="B6" s="70">
@@ -2098,7 +2127,7 @@
       </c>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="100"/>
+      <c r="A7" s="103"/>
       <c r="B7" s="70">
         <v>2</v>
       </c>
@@ -2139,7 +2168,7 @@
       </c>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="101"/>
+      <c r="A8" s="104"/>
       <c r="B8" s="70">
         <v>3</v>
       </c>
@@ -2611,7 +2640,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O300"/>
+  <dimension ref="A1:O301"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="P2" sqref="P2"/>
@@ -2680,7 +2709,7 @@
       </c>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="102">
+      <c r="A2" s="105">
         <v>51</v>
       </c>
       <c r="B2" s="59">
@@ -2727,7 +2756,7 @@
       </c>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="103"/>
+      <c r="A3" s="107"/>
       <c r="B3" s="59">
         <v>43085</v>
       </c>
@@ -2819,7 +2848,7 @@
       </c>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="102">
+      <c r="A5" s="105">
         <v>1</v>
       </c>
       <c r="B5" s="60">
@@ -2866,7 +2895,7 @@
       </c>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="103"/>
+      <c r="A6" s="107"/>
       <c r="B6" s="60">
         <v>43103</v>
       </c>
@@ -2911,7 +2940,7 @@
       </c>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="102">
+      <c r="A7" s="105">
         <v>2</v>
       </c>
       <c r="B7" s="60">
@@ -2958,7 +2987,7 @@
       </c>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="103"/>
+      <c r="A8" s="107"/>
       <c r="B8" s="60">
         <v>43109</v>
       </c>
@@ -3003,7 +3032,7 @@
       </c>
     </row>
     <row r="9" spans="1:15">
-      <c r="A9" s="102">
+      <c r="A9" s="105">
         <v>3</v>
       </c>
       <c r="B9" s="60">
@@ -3050,7 +3079,7 @@
       </c>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="103"/>
+      <c r="A10" s="107"/>
       <c r="B10" s="60">
         <v>43116</v>
       </c>
@@ -3142,7 +3171,7 @@
       </c>
     </row>
     <row r="12" spans="1:15">
-      <c r="A12" s="102">
+      <c r="A12" s="105">
         <v>5</v>
       </c>
       <c r="B12" s="60">
@@ -3189,7 +3218,7 @@
       </c>
     </row>
     <row r="13" spans="1:15">
-      <c r="A13" s="104"/>
+      <c r="A13" s="106"/>
       <c r="B13" s="60">
         <v>43130</v>
       </c>
@@ -3234,7 +3263,7 @@
       </c>
     </row>
     <row r="14" spans="1:15">
-      <c r="A14" s="103"/>
+      <c r="A14" s="107"/>
       <c r="B14" s="60">
         <v>43131</v>
       </c>
@@ -3279,7 +3308,7 @@
       </c>
     </row>
     <row r="15" spans="1:15">
-      <c r="A15" s="102">
+      <c r="A15" s="105">
         <v>6</v>
       </c>
       <c r="B15" s="60">
@@ -3326,7 +3355,7 @@
       </c>
     </row>
     <row r="16" spans="1:15">
-      <c r="A16" s="103"/>
+      <c r="A16" s="107"/>
       <c r="B16" s="60">
         <v>43138</v>
       </c>
@@ -3371,54 +3400,29 @@
       </c>
     </row>
     <row r="17" spans="1:15">
-      <c r="A17" s="102">
+      <c r="A17" s="93">
+        <v>7</v>
+      </c>
+      <c r="C17" s="50"/>
+      <c r="D17" s="95" t="s">
+        <v>165</v>
+      </c>
+      <c r="E17" s="50"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="50"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="50"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="50"/>
+      <c r="M17" s="50"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18" s="105">
         <v>8</v>
       </c>
-      <c r="B17" s="60">
-        <v>43154</v>
-      </c>
-      <c r="C17" s="50" t="s">
-        <v>37</v>
-      </c>
-      <c r="D17" s="50" t="s">
-        <v>105</v>
-      </c>
-      <c r="E17" s="50" t="s">
-        <v>133</v>
-      </c>
-      <c r="F17" s="50" t="s">
-        <v>134</v>
-      </c>
-      <c r="G17" s="1">
-        <v>76127217</v>
-      </c>
-      <c r="H17" s="50" t="s">
-        <v>135</v>
-      </c>
-      <c r="I17" s="50" t="s">
-        <v>40</v>
-      </c>
-      <c r="J17" s="50" t="s">
-        <v>44</v>
-      </c>
-      <c r="K17" s="11">
-        <v>17602558329</v>
-      </c>
-      <c r="L17" s="50" t="s">
-        <v>108</v>
-      </c>
-      <c r="M17" s="50" t="s">
-        <v>109</v>
-      </c>
-      <c r="N17" s="11">
-        <v>18112604296</v>
-      </c>
-      <c r="O17" s="11" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
-      <c r="A18" s="104"/>
       <c r="B18" s="60">
         <v>43154</v>
       </c>
@@ -3432,13 +3436,13 @@
         <v>133</v>
       </c>
       <c r="F18" s="50" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G18" s="1">
-        <v>76128571</v>
+        <v>76127217</v>
       </c>
       <c r="H18" s="50" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I18" s="50" t="s">
         <v>40</v>
@@ -3463,7 +3467,7 @@
       </c>
     </row>
     <row r="19" spans="1:15">
-      <c r="A19" s="104"/>
+      <c r="A19" s="106"/>
       <c r="B19" s="60">
         <v>43154</v>
       </c>
@@ -3474,16 +3478,16 @@
         <v>105</v>
       </c>
       <c r="E19" s="50" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="F19" s="50" t="s">
         <v>136</v>
       </c>
-      <c r="G19" s="90">
-        <v>76128575</v>
+      <c r="G19" s="1">
+        <v>76128571</v>
       </c>
       <c r="H19" s="50" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I19" s="50" t="s">
         <v>40</v>
@@ -3508,7 +3512,7 @@
       </c>
     </row>
     <row r="20" spans="1:15">
-      <c r="A20" s="104"/>
+      <c r="A20" s="106"/>
       <c r="B20" s="60">
         <v>43154</v>
       </c>
@@ -3522,13 +3526,13 @@
         <v>138</v>
       </c>
       <c r="F20" s="50" t="s">
-        <v>140</v>
-      </c>
-      <c r="G20" s="1">
-        <v>76128576</v>
+        <v>136</v>
+      </c>
+      <c r="G20" s="90">
+        <v>76128575</v>
       </c>
       <c r="H20" s="50" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I20" s="50" t="s">
         <v>40</v>
@@ -3553,7 +3557,7 @@
       </c>
     </row>
     <row r="21" spans="1:15">
-      <c r="A21" s="104"/>
+      <c r="A21" s="106"/>
       <c r="B21" s="60">
         <v>43154</v>
       </c>
@@ -3567,13 +3571,13 @@
         <v>138</v>
       </c>
       <c r="F21" s="50" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="G21" s="1">
-        <v>76129762</v>
+        <v>76128576</v>
       </c>
       <c r="H21" s="50" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I21" s="50" t="s">
         <v>40</v>
@@ -3598,7 +3602,7 @@
       </c>
     </row>
     <row r="22" spans="1:15">
-      <c r="A22" s="103"/>
+      <c r="A22" s="106"/>
       <c r="B22" s="60">
         <v>43154</v>
       </c>
@@ -3606,19 +3610,19 @@
         <v>37</v>
       </c>
       <c r="D22" s="50" t="s">
-        <v>143</v>
+        <v>105</v>
       </c>
       <c r="E22" s="50" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="F22" s="50" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="G22" s="1">
-        <v>76127976</v>
+        <v>76129762</v>
       </c>
       <c r="H22" s="50" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="I22" s="50" t="s">
         <v>40</v>
@@ -3629,43 +3633,41 @@
       <c r="K22" s="11">
         <v>17602558329</v>
       </c>
-      <c r="L22" s="91" t="s">
-        <v>147</v>
+      <c r="L22" s="50" t="s">
+        <v>108</v>
       </c>
       <c r="M22" s="50" t="s">
-        <v>148</v>
-      </c>
-      <c r="N22" s="1">
-        <v>15951677180</v>
+        <v>109</v>
+      </c>
+      <c r="N22" s="11">
+        <v>18112604296</v>
       </c>
       <c r="O22" s="11" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:15">
-      <c r="A23" s="102">
-        <v>9</v>
-      </c>
+      <c r="A23" s="107"/>
       <c r="B23" s="60">
-        <v>43159</v>
+        <v>43154</v>
       </c>
       <c r="C23" s="50" t="s">
         <v>37</v>
       </c>
       <c r="D23" s="50" t="s">
-        <v>57</v>
+        <v>143</v>
       </c>
       <c r="E23" s="50" t="s">
-        <v>58</v>
+        <v>144</v>
       </c>
       <c r="F23" s="50" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="G23" s="1">
-        <v>76122091</v>
+        <v>76127976</v>
       </c>
       <c r="H23" s="50" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="I23" s="50" t="s">
         <v>40</v>
@@ -3676,21 +3678,23 @@
       <c r="K23" s="11">
         <v>17602558329</v>
       </c>
-      <c r="L23" s="50" t="s">
-        <v>98</v>
+      <c r="L23" s="91" t="s">
+        <v>147</v>
       </c>
       <c r="M23" s="50" t="s">
-        <v>76</v>
-      </c>
-      <c r="N23" s="11">
-        <v>13921280802</v>
+        <v>148</v>
+      </c>
+      <c r="N23" s="1">
+        <v>15951677180</v>
       </c>
       <c r="O23" s="11" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:15">
-      <c r="A24" s="104"/>
+      <c r="A24" s="105">
+        <v>9</v>
+      </c>
       <c r="B24" s="60">
         <v>43159</v>
       </c>
@@ -3704,13 +3708,13 @@
         <v>58</v>
       </c>
       <c r="F24" s="50" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G24" s="1">
-        <v>76122096</v>
+        <v>76122091</v>
       </c>
       <c r="H24" s="50" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I24" s="50" t="s">
         <v>40</v>
@@ -3735,7 +3739,7 @@
       </c>
     </row>
     <row r="25" spans="1:15">
-      <c r="A25" s="104"/>
+      <c r="A25" s="106"/>
       <c r="B25" s="60">
         <v>43159</v>
       </c>
@@ -3749,13 +3753,13 @@
         <v>58</v>
       </c>
       <c r="F25" s="50" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="G25" s="1">
-        <v>76123036</v>
+        <v>76122096</v>
       </c>
       <c r="H25" s="50" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I25" s="50" t="s">
         <v>40</v>
@@ -3766,21 +3770,21 @@
       <c r="K25" s="11">
         <v>17602558329</v>
       </c>
-      <c r="L25" s="11" t="s">
-        <v>159</v>
+      <c r="L25" s="50" t="s">
+        <v>98</v>
       </c>
       <c r="M25" s="50" t="s">
-        <v>162</v>
-      </c>
-      <c r="N25" s="77">
-        <v>13709060302</v>
+        <v>76</v>
+      </c>
+      <c r="N25" s="11">
+        <v>13921280802</v>
       </c>
       <c r="O25" s="11" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:15">
-      <c r="A26" s="104"/>
+      <c r="A26" s="106"/>
       <c r="B26" s="60">
         <v>43159</v>
       </c>
@@ -3794,13 +3798,13 @@
         <v>58</v>
       </c>
       <c r="F26" s="50" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G26" s="1">
-        <v>76128273</v>
+        <v>76123036</v>
       </c>
       <c r="H26" s="50" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I26" s="50" t="s">
         <v>40</v>
@@ -3812,20 +3816,20 @@
         <v>17602558329</v>
       </c>
       <c r="L26" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="M26" s="50" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="N26" s="77">
-        <v>13812586805</v>
+        <v>13709060302</v>
       </c>
       <c r="O26" s="11" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:15">
-      <c r="A27" s="103"/>
+      <c r="A27" s="106"/>
       <c r="B27" s="60">
         <v>43159</v>
       </c>
@@ -3842,10 +3846,10 @@
         <v>158</v>
       </c>
       <c r="G27" s="1">
-        <v>76132337</v>
+        <v>76128273</v>
       </c>
       <c r="H27" s="50" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I27" s="50" t="s">
         <v>40</v>
@@ -3856,52 +3860,110 @@
       <c r="K27" s="11">
         <v>17602558329</v>
       </c>
-      <c r="L27" s="50" t="s">
-        <v>161</v>
+      <c r="L27" s="11" t="s">
+        <v>160</v>
       </c>
       <c r="M27" s="50" t="s">
-        <v>164</v>
-      </c>
-      <c r="N27" s="1">
-        <v>13338730911</v>
+        <v>163</v>
+      </c>
+      <c r="N27" s="77">
+        <v>13812586805</v>
       </c>
       <c r="O27" s="11" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:15">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
-      <c r="O28" s="1"/>
+      <c r="A28" s="107"/>
+      <c r="B28" s="60">
+        <v>43159</v>
+      </c>
+      <c r="C28" s="50" t="s">
+        <v>37</v>
+      </c>
+      <c r="D28" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="E28" s="50" t="s">
+        <v>58</v>
+      </c>
+      <c r="F28" s="50" t="s">
+        <v>158</v>
+      </c>
+      <c r="G28" s="1">
+        <v>76132337</v>
+      </c>
+      <c r="H28" s="50" t="s">
+        <v>156</v>
+      </c>
+      <c r="I28" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="J28" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="K28" s="11">
+        <v>17602558329</v>
+      </c>
+      <c r="L28" s="50" t="s">
+        <v>161</v>
+      </c>
+      <c r="M28" s="50" t="s">
+        <v>164</v>
+      </c>
+      <c r="N28" s="1">
+        <v>13338730911</v>
+      </c>
+      <c r="O28" s="11" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="29" spans="1:15">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
-      <c r="O29" s="1"/>
+      <c r="A29" s="94">
+        <v>10</v>
+      </c>
+      <c r="B29" s="60">
+        <v>43165</v>
+      </c>
+      <c r="C29" s="50" t="s">
+        <v>37</v>
+      </c>
+      <c r="D29" s="50" t="s">
+        <v>166</v>
+      </c>
+      <c r="E29" s="50" t="s">
+        <v>166</v>
+      </c>
+      <c r="F29" s="50" t="s">
+        <v>167</v>
+      </c>
+      <c r="G29" s="1">
+        <v>76121106</v>
+      </c>
+      <c r="H29" s="50" t="s">
+        <v>166</v>
+      </c>
+      <c r="I29" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="J29" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="K29" s="11">
+        <v>17602558329</v>
+      </c>
+      <c r="L29" s="91" t="s">
+        <v>168</v>
+      </c>
+      <c r="M29" s="50" t="s">
+        <v>169</v>
+      </c>
+      <c r="N29" s="77">
+        <v>13951396931</v>
+      </c>
+      <c r="O29" s="11" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="30" spans="1:15">
       <c r="A30" s="1"/>
@@ -8510,16 +8572,33 @@
       <c r="N300" s="1"/>
       <c r="O300" s="1"/>
     </row>
+    <row r="301" spans="1:15">
+      <c r="A301" s="1"/>
+      <c r="B301" s="1"/>
+      <c r="C301" s="1"/>
+      <c r="D301" s="1"/>
+      <c r="E301" s="1"/>
+      <c r="F301" s="1"/>
+      <c r="G301" s="1"/>
+      <c r="H301" s="1"/>
+      <c r="I301" s="1"/>
+      <c r="J301" s="1"/>
+      <c r="K301" s="1"/>
+      <c r="L301" s="1"/>
+      <c r="M301" s="1"/>
+      <c r="N301" s="1"/>
+      <c r="O301" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="A18:A23"/>
+    <mergeCell ref="A24:A28"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="A12:A14"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A17:A22"/>
-    <mergeCell ref="A23:A27"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <dataValidations count="2">
@@ -8601,7 +8680,7 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="104">
+      <c r="A3" s="106">
         <v>4</v>
       </c>
       <c r="B3" s="85" t="s">
@@ -8624,7 +8703,7 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="103"/>
+      <c r="A4" s="107"/>
       <c r="B4" s="85" t="s">
         <v>112</v>
       </c>
@@ -8645,7 +8724,7 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="102">
+      <c r="A5" s="105">
         <v>6</v>
       </c>
       <c r="B5" s="9" t="s">
@@ -8668,7 +8747,7 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="104"/>
+      <c r="A6" s="106"/>
       <c r="B6" s="9" t="s">
         <v>122</v>
       </c>
@@ -8689,7 +8768,7 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="103"/>
+      <c r="A7" s="107"/>
       <c r="B7" s="9" t="s">
         <v>123</v>
       </c>
@@ -8710,7 +8789,7 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="105">
+      <c r="A8" s="108">
         <v>8</v>
       </c>
       <c r="B8" s="89" t="s">
@@ -8733,7 +8812,7 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="105"/>
+      <c r="A9" s="108"/>
       <c r="B9" s="89" t="s">
         <v>125</v>
       </c>
@@ -8754,7 +8833,7 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="105"/>
+      <c r="A10" s="108"/>
       <c r="B10" s="89" t="s">
         <v>126</v>
       </c>
@@ -8775,7 +8854,7 @@
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="105"/>
+      <c r="A11" s="108"/>
       <c r="B11" s="89" t="s">
         <v>127</v>
       </c>
@@ -8796,7 +8875,7 @@
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="105"/>
+      <c r="A12" s="108"/>
       <c r="B12" s="89" t="s">
         <v>128</v>
       </c>
@@ -8817,7 +8896,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="27">
-      <c r="A13" s="105"/>
+      <c r="A13" s="108"/>
       <c r="B13" s="57" t="s">
         <v>129</v>
       </c>
@@ -8928,7 +9007,7 @@
       <c r="G23" s="11"/>
     </row>
     <row r="24" spans="1:7" ht="14.25">
-      <c r="A24" s="102"/>
+      <c r="A24" s="105"/>
       <c r="B24" s="9"/>
       <c r="C24" s="13"/>
       <c r="D24" s="12"/>
@@ -8937,7 +9016,7 @@
       <c r="G24" s="9"/>
     </row>
     <row r="25" spans="1:7" ht="14.25">
-      <c r="A25" s="104"/>
+      <c r="A25" s="106"/>
       <c r="B25" s="9"/>
       <c r="C25" s="14"/>
       <c r="D25" s="12"/>
@@ -8946,7 +9025,7 @@
       <c r="G25" s="4"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="104"/>
+      <c r="A26" s="106"/>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
       <c r="D26" s="10"/>
@@ -8955,7 +9034,7 @@
       <c r="G26" s="11"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="104"/>
+      <c r="A27" s="106"/>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
       <c r="D27" s="10"/>
@@ -8964,7 +9043,7 @@
       <c r="G27" s="11"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="104"/>
+      <c r="A28" s="106"/>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
       <c r="D28" s="10"/>
@@ -8973,7 +9052,7 @@
       <c r="G28" s="11"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="104"/>
+      <c r="A29" s="106"/>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
       <c r="D29" s="10"/>
@@ -8982,7 +9061,7 @@
       <c r="G29" s="11"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="104"/>
+      <c r="A30" s="106"/>
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
       <c r="D30" s="10"/>
@@ -8991,7 +9070,7 @@
       <c r="G30" s="11"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="104"/>
+      <c r="A31" s="106"/>
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
       <c r="D31" s="10"/>
@@ -9000,7 +9079,7 @@
       <c r="G31" s="11"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="104"/>
+      <c r="A32" s="106"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
       <c r="D32" s="10"/>
@@ -9009,7 +9088,7 @@
       <c r="G32" s="11"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="104"/>
+      <c r="A33" s="106"/>
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
       <c r="D33" s="10"/>
@@ -9018,7 +9097,7 @@
       <c r="G33" s="11"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="104"/>
+      <c r="A34" s="106"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
       <c r="D34" s="10"/>
@@ -9027,7 +9106,7 @@
       <c r="G34" s="11"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="104"/>
+      <c r="A35" s="106"/>
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
       <c r="D35" s="10"/>
@@ -9036,7 +9115,7 @@
       <c r="G35" s="11"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="104"/>
+      <c r="A36" s="106"/>
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
       <c r="D36" s="10"/>
@@ -9045,7 +9124,7 @@
       <c r="G36" s="11"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="104"/>
+      <c r="A37" s="106"/>
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
       <c r="D37" s="10"/>
@@ -9054,7 +9133,7 @@
       <c r="G37" s="11"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="103"/>
+      <c r="A38" s="107"/>
       <c r="B38" s="9"/>
       <c r="C38" s="9"/>
       <c r="D38" s="10"/>
@@ -9063,7 +9142,7 @@
       <c r="G38" s="11"/>
     </row>
     <row r="39" spans="1:7" ht="14.25">
-      <c r="A39" s="102"/>
+      <c r="A39" s="105"/>
       <c r="B39" s="9"/>
       <c r="C39" s="13"/>
       <c r="D39" s="12"/>
@@ -9072,7 +9151,7 @@
       <c r="G39" s="9"/>
     </row>
     <row r="40" spans="1:7" ht="14.25">
-      <c r="A40" s="104"/>
+      <c r="A40" s="106"/>
       <c r="B40" s="9"/>
       <c r="C40" s="14"/>
       <c r="D40" s="12"/>
@@ -9081,7 +9160,7 @@
       <c r="G40" s="4"/>
     </row>
     <row r="41" spans="1:7" ht="14.25">
-      <c r="A41" s="104"/>
+      <c r="A41" s="106"/>
       <c r="B41" s="9"/>
       <c r="C41" s="14"/>
       <c r="D41" s="12"/>
@@ -9090,7 +9169,7 @@
       <c r="G41" s="4"/>
     </row>
     <row r="42" spans="1:7" ht="14.25">
-      <c r="A42" s="104"/>
+      <c r="A42" s="106"/>
       <c r="B42" s="9"/>
       <c r="C42" s="14"/>
       <c r="D42" s="12"/>
@@ -9099,7 +9178,7 @@
       <c r="G42" s="15"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="104"/>
+      <c r="A43" s="106"/>
       <c r="B43" s="9"/>
       <c r="C43" s="9"/>
       <c r="D43" s="10"/>
@@ -9108,7 +9187,7 @@
       <c r="G43" s="11"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="104"/>
+      <c r="A44" s="106"/>
       <c r="B44" s="9"/>
       <c r="C44" s="9"/>
       <c r="D44" s="10"/>
@@ -9117,7 +9196,7 @@
       <c r="G44" s="11"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="104"/>
+      <c r="A45" s="106"/>
       <c r="B45" s="9"/>
       <c r="C45" s="9"/>
       <c r="D45" s="10"/>
@@ -9126,7 +9205,7 @@
       <c r="G45" s="11"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="104"/>
+      <c r="A46" s="106"/>
       <c r="B46" s="9"/>
       <c r="C46" s="9"/>
       <c r="D46" s="10"/>
@@ -9135,7 +9214,7 @@
       <c r="G46" s="11"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="104"/>
+      <c r="A47" s="106"/>
       <c r="B47" s="9"/>
       <c r="C47" s="9"/>
       <c r="D47" s="10"/>
@@ -9144,7 +9223,7 @@
       <c r="G47" s="11"/>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="104"/>
+      <c r="A48" s="106"/>
       <c r="B48" s="9"/>
       <c r="C48" s="9"/>
       <c r="D48" s="10"/>
@@ -9153,7 +9232,7 @@
       <c r="G48" s="11"/>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="104"/>
+      <c r="A49" s="106"/>
       <c r="B49" s="9"/>
       <c r="C49" s="9"/>
       <c r="D49" s="10"/>
@@ -9162,7 +9241,7 @@
       <c r="G49" s="11"/>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="103"/>
+      <c r="A50" s="107"/>
       <c r="B50" s="9"/>
       <c r="C50" s="9"/>
       <c r="D50" s="10"/>
@@ -9171,7 +9250,7 @@
       <c r="G50" s="11"/>
     </row>
     <row r="51" spans="1:7" ht="14.25">
-      <c r="A51" s="102"/>
+      <c r="A51" s="105"/>
       <c r="B51" s="9"/>
       <c r="C51" s="13"/>
       <c r="D51" s="12"/>
@@ -9180,7 +9259,7 @@
       <c r="G51" s="9"/>
     </row>
     <row r="52" spans="1:7" ht="14.25">
-      <c r="A52" s="104"/>
+      <c r="A52" s="106"/>
       <c r="B52" s="9"/>
       <c r="C52" s="14"/>
       <c r="D52" s="12"/>
@@ -9189,7 +9268,7 @@
       <c r="G52" s="4"/>
     </row>
     <row r="53" spans="1:7" ht="14.25">
-      <c r="A53" s="104"/>
+      <c r="A53" s="106"/>
       <c r="B53" s="9"/>
       <c r="C53" s="14"/>
       <c r="D53" s="12"/>
@@ -9198,7 +9277,7 @@
       <c r="G53" s="4"/>
     </row>
     <row r="54" spans="1:7" ht="14.25">
-      <c r="A54" s="104"/>
+      <c r="A54" s="106"/>
       <c r="B54" s="9"/>
       <c r="C54" s="14"/>
       <c r="D54" s="12"/>
@@ -9207,7 +9286,7 @@
       <c r="G54" s="15"/>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="104"/>
+      <c r="A55" s="106"/>
       <c r="B55" s="9"/>
       <c r="C55" s="9"/>
       <c r="D55" s="10"/>
@@ -9216,7 +9295,7 @@
       <c r="G55" s="11"/>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="104"/>
+      <c r="A56" s="106"/>
       <c r="B56" s="9"/>
       <c r="C56" s="9"/>
       <c r="D56" s="10"/>
@@ -9225,7 +9304,7 @@
       <c r="G56" s="11"/>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="104"/>
+      <c r="A57" s="106"/>
       <c r="B57" s="9"/>
       <c r="C57" s="9"/>
       <c r="D57" s="10"/>
@@ -9234,7 +9313,7 @@
       <c r="G57" s="11"/>
     </row>
     <row r="58" spans="1:7">
-      <c r="A58" s="104"/>
+      <c r="A58" s="106"/>
       <c r="B58" s="9"/>
       <c r="C58" s="9"/>
       <c r="D58" s="10"/>
@@ -9243,7 +9322,7 @@
       <c r="G58" s="11"/>
     </row>
     <row r="59" spans="1:7">
-      <c r="A59" s="104"/>
+      <c r="A59" s="106"/>
       <c r="B59" s="9"/>
       <c r="C59" s="9"/>
       <c r="D59" s="10"/>
@@ -9252,7 +9331,7 @@
       <c r="G59" s="11"/>
     </row>
     <row r="60" spans="1:7">
-      <c r="A60" s="104"/>
+      <c r="A60" s="106"/>
       <c r="B60" s="9"/>
       <c r="C60" s="9"/>
       <c r="D60" s="10"/>
@@ -9261,7 +9340,7 @@
       <c r="G60" s="11"/>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="104"/>
+      <c r="A61" s="106"/>
       <c r="B61" s="9"/>
       <c r="C61" s="9"/>
       <c r="D61" s="10"/>
@@ -9270,7 +9349,7 @@
       <c r="G61" s="11"/>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" s="103"/>
+      <c r="A62" s="107"/>
       <c r="B62" s="9"/>
       <c r="C62" s="9"/>
       <c r="D62" s="10"/>
@@ -9279,7 +9358,7 @@
       <c r="G62" s="11"/>
     </row>
     <row r="63" spans="1:7" ht="14.25">
-      <c r="A63" s="104"/>
+      <c r="A63" s="106"/>
       <c r="B63" s="9"/>
       <c r="C63" s="14"/>
       <c r="D63" s="12"/>
@@ -9288,7 +9367,7 @@
       <c r="G63" s="4"/>
     </row>
     <row r="64" spans="1:7" ht="14.25">
-      <c r="A64" s="104"/>
+      <c r="A64" s="106"/>
       <c r="B64" s="9"/>
       <c r="C64" s="14"/>
       <c r="D64" s="12"/>
@@ -9297,7 +9376,7 @@
       <c r="G64" s="15"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="104"/>
+      <c r="A65" s="106"/>
       <c r="B65" s="9"/>
       <c r="C65" s="9"/>
       <c r="D65" s="10"/>
@@ -9306,7 +9385,7 @@
       <c r="G65" s="11"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="104"/>
+      <c r="A66" s="106"/>
       <c r="B66" s="9"/>
       <c r="C66" s="9"/>
       <c r="D66" s="10"/>
@@ -9315,7 +9394,7 @@
       <c r="G66" s="11"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="104"/>
+      <c r="A67" s="106"/>
       <c r="B67" s="9"/>
       <c r="C67" s="9"/>
       <c r="D67" s="10"/>
@@ -9324,7 +9403,7 @@
       <c r="G67" s="11"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="104"/>
+      <c r="A68" s="106"/>
       <c r="B68" s="9"/>
       <c r="C68" s="9"/>
       <c r="D68" s="10"/>
@@ -9333,7 +9412,7 @@
       <c r="G68" s="11"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="104"/>
+      <c r="A69" s="106"/>
       <c r="B69" s="9"/>
       <c r="C69" s="9"/>
       <c r="D69" s="10"/>
@@ -9342,7 +9421,7 @@
       <c r="G69" s="11"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="104"/>
+      <c r="A70" s="106"/>
       <c r="B70" s="9"/>
       <c r="C70" s="9"/>
       <c r="D70" s="10"/>
@@ -9351,7 +9430,7 @@
       <c r="G70" s="11"/>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="104"/>
+      <c r="A71" s="106"/>
       <c r="B71" s="9"/>
       <c r="C71" s="9"/>
       <c r="D71" s="10"/>
@@ -9360,7 +9439,7 @@
       <c r="G71" s="11"/>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="103"/>
+      <c r="A72" s="107"/>
       <c r="B72" s="9"/>
       <c r="C72" s="9"/>
       <c r="D72" s="10"/>

--- a/周数据/《个人上线率统计表》-黄纯伟.xlsx
+++ b/周数据/《个人上线率统计表》-黄纯伟.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="167">
   <si>
     <t>个人上线率分析表</t>
   </si>
@@ -195,9 +195,6 @@
   </si>
   <si>
     <t>实施</t>
-  </si>
-  <si>
-    <t>单店</t>
   </si>
   <si>
     <t>沽涷泰兴店</t>
@@ -236,14 +233,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>老魏生煎</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>肖如梦</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>常州</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -348,10 +337,6 @@
   </si>
   <si>
     <t>老板</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>已到店实施，商户未开业</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
@@ -468,19 +453,7 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>鸡芝家（晓庄店）</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>跟商户约时间远程实施</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>沽涷成都万达店</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>沽涷江阴精品店</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
@@ -664,6 +637,22 @@
   </si>
   <si>
     <t>老板娘</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>南京鸡芝家</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>鸡芝家（晓庄店）</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>顾辉</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>老板</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -1547,28 +1536,28 @@
     <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="58" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1885,7 +1874,7 @@
   <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
@@ -2335,7 +2324,9 @@
       <c r="C12" s="27">
         <v>0</v>
       </c>
-      <c r="D12" s="28"/>
+      <c r="D12" s="28">
+        <v>0</v>
+      </c>
       <c r="E12" s="28">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -2369,11 +2360,15 @@
       <c r="B13" s="70">
         <v>8</v>
       </c>
-      <c r="C13" s="27"/>
-      <c r="D13" s="28"/>
+      <c r="C13" s="27">
+        <v>0</v>
+      </c>
+      <c r="D13" s="28">
+        <v>6</v>
+      </c>
       <c r="E13" s="28">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>-6</v>
       </c>
       <c r="F13" s="29"/>
       <c r="G13" s="30"/>
@@ -2382,9 +2377,9 @@
         <v>0</v>
       </c>
       <c r="I13" s="40"/>
-      <c r="J13" s="41" t="e">
+      <c r="J13" s="41">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="K13" s="42">
         <f t="shared" si="8"/>
@@ -2392,7 +2387,7 @@
       </c>
       <c r="L13" s="43">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M13" s="44" t="e">
         <f t="shared" si="10"/>
@@ -2404,11 +2399,15 @@
       <c r="B14" s="72">
         <v>9</v>
       </c>
-      <c r="C14" s="31"/>
-      <c r="D14" s="32"/>
+      <c r="C14" s="27">
+        <v>0</v>
+      </c>
+      <c r="D14" s="32">
+        <v>5</v>
+      </c>
       <c r="E14" s="32">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="F14" s="33"/>
       <c r="G14" s="34"/>
@@ -2417,9 +2416,9 @@
         <v>0</v>
       </c>
       <c r="I14" s="45"/>
-      <c r="J14" s="46" t="e">
+      <c r="J14" s="46">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="K14" s="47">
         <f t="shared" si="8"/>
@@ -2427,7 +2426,7 @@
       </c>
       <c r="L14" s="48">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M14" s="49" t="e">
         <f t="shared" si="10"/>
@@ -2435,12 +2434,18 @@
       </c>
     </row>
     <row r="15" spans="1:13" ht="14.25" thickBot="1">
-      <c r="B15" s="72"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="32"/>
+      <c r="B15" s="72">
+        <v>10</v>
+      </c>
+      <c r="C15" s="27">
+        <v>0</v>
+      </c>
+      <c r="D15" s="32">
+        <v>1</v>
+      </c>
       <c r="E15" s="32">
         <f t="shared" ref="E15:E20" si="12">C15-D15</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F15" s="33"/>
       <c r="G15" s="34"/>
@@ -2449,9 +2454,9 @@
         <v>0</v>
       </c>
       <c r="I15" s="45"/>
-      <c r="J15" s="46" t="e">
+      <c r="J15" s="46">
         <f t="shared" ref="J15:J20" si="14">I15/L15*100%</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="K15" s="47">
         <f t="shared" ref="K15:K20" si="15">C15+G15</f>
@@ -2459,7 +2464,7 @@
       </c>
       <c r="L15" s="48">
         <f t="shared" ref="L15:L20" si="16">D15+G15</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M15" s="49" t="e">
         <f t="shared" ref="M15:M20" si="17">L15/K15*100%</f>
@@ -2467,12 +2472,18 @@
       </c>
     </row>
     <row r="16" spans="1:13" ht="14.25" thickBot="1">
-      <c r="B16" s="72"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="32"/>
+      <c r="B16" s="72">
+        <v>11</v>
+      </c>
+      <c r="C16" s="27">
+        <v>0</v>
+      </c>
+      <c r="D16" s="32">
+        <v>1</v>
+      </c>
       <c r="E16" s="32">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F16" s="33"/>
       <c r="G16" s="34"/>
@@ -2481,9 +2492,9 @@
         <v>0</v>
       </c>
       <c r="I16" s="45"/>
-      <c r="J16" s="46" t="e">
+      <c r="J16" s="46">
         <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="K16" s="47">
         <f t="shared" si="15"/>
@@ -2491,7 +2502,7 @@
       </c>
       <c r="L16" s="48">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M16" s="49" t="e">
         <f t="shared" si="17"/>
@@ -2801,7 +2812,7 @@
       </c>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="92">
+      <c r="A4" s="91">
         <v>52</v>
       </c>
       <c r="B4" s="59">
@@ -2811,19 +2822,19 @@
         <v>37</v>
       </c>
       <c r="D4" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" s="50" t="s">
         <v>57</v>
       </c>
-      <c r="E4" s="50" t="s">
-        <v>58</v>
-      </c>
       <c r="F4" s="50" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G4" s="1">
         <v>76119685</v>
       </c>
       <c r="H4" s="50" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I4" s="50" t="s">
         <v>40</v>
@@ -2835,10 +2846,10 @@
         <v>17602558329</v>
       </c>
       <c r="L4" s="58" t="s">
+        <v>58</v>
+      </c>
+      <c r="M4" s="58" t="s">
         <v>59</v>
-      </c>
-      <c r="M4" s="58" t="s">
-        <v>60</v>
       </c>
       <c r="N4" s="58">
         <v>18601585219</v>
@@ -2858,22 +2869,22 @@
         <v>37</v>
       </c>
       <c r="D5" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" s="50" t="s">
         <v>57</v>
       </c>
-      <c r="E5" s="50" t="s">
-        <v>58</v>
-      </c>
       <c r="F5" s="50" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G5" s="1">
         <v>76119689</v>
       </c>
       <c r="H5" s="50" t="s">
+        <v>62</v>
+      </c>
+      <c r="I5" s="50" t="s">
         <v>63</v>
-      </c>
-      <c r="I5" s="50" t="s">
-        <v>64</v>
       </c>
       <c r="J5" s="50" t="s">
         <v>44</v>
@@ -2882,10 +2893,10 @@
         <v>17602558329</v>
       </c>
       <c r="L5" s="58" t="s">
+        <v>58</v>
+      </c>
+      <c r="M5" s="58" t="s">
         <v>59</v>
-      </c>
-      <c r="M5" s="58" t="s">
-        <v>60</v>
       </c>
       <c r="N5" s="58">
         <v>18601585219</v>
@@ -2903,22 +2914,22 @@
         <v>37</v>
       </c>
       <c r="D6" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" s="50" t="s">
         <v>57</v>
       </c>
-      <c r="E6" s="50" t="s">
-        <v>58</v>
-      </c>
       <c r="F6" s="50" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G6" s="1">
         <v>76115775</v>
       </c>
       <c r="H6" s="50" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I6" s="50" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="J6" s="50" t="s">
         <v>44</v>
@@ -2927,10 +2938,10 @@
         <v>17602558329</v>
       </c>
       <c r="L6" s="58" t="s">
+        <v>58</v>
+      </c>
+      <c r="M6" s="58" t="s">
         <v>59</v>
-      </c>
-      <c r="M6" s="58" t="s">
-        <v>60</v>
       </c>
       <c r="N6" s="58">
         <v>18601585219</v>
@@ -2950,19 +2961,19 @@
         <v>37</v>
       </c>
       <c r="D7" s="50" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E7" s="50" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F7" s="50" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G7" s="1">
         <v>76120305</v>
       </c>
       <c r="H7" s="50" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="I7" s="50" t="s">
         <v>40</v>
@@ -2974,16 +2985,16 @@
         <v>17602558329</v>
       </c>
       <c r="L7" s="50" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="M7" s="50" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="N7" s="1">
         <v>13921387360</v>
       </c>
       <c r="O7" s="11" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -2995,19 +3006,19 @@
         <v>37</v>
       </c>
       <c r="D8" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" s="50" t="s">
         <v>57</v>
       </c>
-      <c r="E8" s="50" t="s">
-        <v>58</v>
-      </c>
       <c r="F8" s="50" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G8" s="1">
         <v>76117397</v>
       </c>
       <c r="H8" s="50" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="I8" s="50" t="s">
         <v>40</v>
@@ -3019,10 +3030,10 @@
         <v>17602558329</v>
       </c>
       <c r="L8" s="50" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="M8" s="50" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="N8" s="1">
         <v>13567912454</v>
@@ -3042,22 +3053,22 @@
         <v>37</v>
       </c>
       <c r="D9" s="50" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E9" s="50" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F9" s="50" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G9" s="1">
         <v>76110597</v>
       </c>
       <c r="H9" s="50" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I9" s="50" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="J9" s="50" t="s">
         <v>44</v>
@@ -3066,10 +3077,10 @@
         <v>17602558329</v>
       </c>
       <c r="L9" s="11" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="M9" s="50" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="N9" s="77">
         <v>15651888368</v>
@@ -3087,22 +3098,22 @@
         <v>37</v>
       </c>
       <c r="D10" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" s="50" t="s">
         <v>57</v>
       </c>
-      <c r="E10" s="50" t="s">
-        <v>58</v>
-      </c>
       <c r="F10" s="50" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G10" s="1">
         <v>76117399</v>
       </c>
       <c r="H10" s="50" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="I10" s="50" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="J10" s="50" t="s">
         <v>44</v>
@@ -3111,10 +3122,10 @@
         <v>17602558329</v>
       </c>
       <c r="L10" s="11" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="M10" s="80" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="N10" s="77">
         <v>13780054964</v>
@@ -3134,22 +3145,22 @@
         <v>37</v>
       </c>
       <c r="D11" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" s="50" t="s">
         <v>57</v>
       </c>
-      <c r="E11" s="50" t="s">
-        <v>58</v>
-      </c>
       <c r="F11" s="50" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G11" s="1">
         <v>76121691</v>
       </c>
       <c r="H11" s="50" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="I11" s="50" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="J11" s="50" t="s">
         <v>44</v>
@@ -3158,10 +3169,10 @@
         <v>17602558329</v>
       </c>
       <c r="L11" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="M11" s="80" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="N11" s="79">
         <v>18852665200</v>
@@ -3181,19 +3192,19 @@
         <v>37</v>
       </c>
       <c r="D12" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" s="50" t="s">
         <v>57</v>
       </c>
-      <c r="E12" s="50" t="s">
-        <v>58</v>
-      </c>
       <c r="F12" s="50" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="G12" s="1">
         <v>76121956</v>
       </c>
       <c r="H12" s="50" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="I12" s="50" t="s">
         <v>40</v>
@@ -3205,10 +3216,10 @@
         <v>17602558329</v>
       </c>
       <c r="L12" s="50" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="M12" s="50" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="N12" s="1">
         <v>13921280802</v>
@@ -3226,19 +3237,19 @@
         <v>37</v>
       </c>
       <c r="D13" s="50" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E13" s="50" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F13" s="50" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G13" s="1">
         <v>76121671</v>
       </c>
       <c r="H13" s="50" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="I13" s="50" t="s">
         <v>40</v>
@@ -3250,10 +3261,10 @@
         <v>17602558329</v>
       </c>
       <c r="L13" s="83" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="M13" s="50" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="N13" s="79">
         <v>13605150024</v>
@@ -3271,19 +3282,19 @@
         <v>37</v>
       </c>
       <c r="D14" s="50" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E14" s="50" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F14" s="50" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G14" s="1">
         <v>76125223</v>
       </c>
       <c r="H14" s="50" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="I14" s="50" t="s">
         <v>40</v>
@@ -3295,16 +3306,16 @@
         <v>17602558329</v>
       </c>
       <c r="L14" s="50" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="M14" s="50" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="N14" s="1">
         <v>18112604296</v>
       </c>
       <c r="O14" s="11" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -3318,19 +3329,19 @@
         <v>37</v>
       </c>
       <c r="D15" s="50" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E15" s="50" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F15" s="50" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G15" s="1">
         <v>76128577</v>
       </c>
       <c r="H15" s="50" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="I15" s="50" t="s">
         <v>40</v>
@@ -3342,10 +3353,10 @@
         <v>17602558329</v>
       </c>
       <c r="L15" s="50" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="M15" s="50" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="N15" s="11">
         <v>18112604296</v>
@@ -3363,19 +3374,19 @@
         <v>37</v>
       </c>
       <c r="D16" s="50" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E16" s="50" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F16" s="50" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G16" s="1">
         <v>76128579</v>
       </c>
       <c r="H16" s="50" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="I16" s="50" t="s">
         <v>40</v>
@@ -3387,10 +3398,10 @@
         <v>17602558329</v>
       </c>
       <c r="L16" s="50" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="M16" s="50" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="N16" s="11">
         <v>18112604296</v>
@@ -3400,12 +3411,12 @@
       </c>
     </row>
     <row r="17" spans="1:15">
-      <c r="A17" s="93">
+      <c r="A17" s="92">
         <v>7</v>
       </c>
       <c r="C17" s="50"/>
-      <c r="D17" s="95" t="s">
-        <v>165</v>
+      <c r="D17" s="94" t="s">
+        <v>158</v>
       </c>
       <c r="E17" s="50"/>
       <c r="F17" s="50"/>
@@ -3430,19 +3441,19 @@
         <v>37</v>
       </c>
       <c r="D18" s="50" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E18" s="50" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="F18" s="50" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="G18" s="1">
         <v>76127217</v>
       </c>
       <c r="H18" s="50" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="I18" s="50" t="s">
         <v>40</v>
@@ -3454,10 +3465,10 @@
         <v>17602558329</v>
       </c>
       <c r="L18" s="50" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="M18" s="50" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="N18" s="11">
         <v>18112604296</v>
@@ -3475,19 +3486,19 @@
         <v>37</v>
       </c>
       <c r="D19" s="50" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E19" s="50" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="F19" s="50" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="G19" s="1">
         <v>76128571</v>
       </c>
       <c r="H19" s="50" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="I19" s="50" t="s">
         <v>40</v>
@@ -3499,10 +3510,10 @@
         <v>17602558329</v>
       </c>
       <c r="L19" s="50" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="M19" s="50" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="N19" s="11">
         <v>18112604296</v>
@@ -3520,19 +3531,19 @@
         <v>37</v>
       </c>
       <c r="D20" s="50" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E20" s="50" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="F20" s="50" t="s">
-        <v>136</v>
-      </c>
-      <c r="G20" s="90">
+        <v>129</v>
+      </c>
+      <c r="G20" s="89">
         <v>76128575</v>
       </c>
       <c r="H20" s="50" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="I20" s="50" t="s">
         <v>40</v>
@@ -3544,10 +3555,10 @@
         <v>17602558329</v>
       </c>
       <c r="L20" s="50" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="M20" s="50" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="N20" s="11">
         <v>18112604296</v>
@@ -3565,19 +3576,19 @@
         <v>37</v>
       </c>
       <c r="D21" s="50" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E21" s="50" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="F21" s="50" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="G21" s="1">
         <v>76128576</v>
       </c>
       <c r="H21" s="50" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="I21" s="50" t="s">
         <v>40</v>
@@ -3589,10 +3600,10 @@
         <v>17602558329</v>
       </c>
       <c r="L21" s="50" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="M21" s="50" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="N21" s="11">
         <v>18112604296</v>
@@ -3610,19 +3621,19 @@
         <v>37</v>
       </c>
       <c r="D22" s="50" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E22" s="50" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="F22" s="50" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="G22" s="1">
         <v>76129762</v>
       </c>
       <c r="H22" s="50" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="I22" s="50" t="s">
         <v>40</v>
@@ -3634,10 +3645,10 @@
         <v>17602558329</v>
       </c>
       <c r="L22" s="50" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="M22" s="50" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="N22" s="11">
         <v>18112604296</v>
@@ -3655,19 +3666,19 @@
         <v>37</v>
       </c>
       <c r="D23" s="50" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="E23" s="50" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="F23" s="50" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="G23" s="1">
         <v>76127976</v>
       </c>
       <c r="H23" s="50" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="I23" s="50" t="s">
         <v>40</v>
@@ -3678,11 +3689,11 @@
       <c r="K23" s="11">
         <v>17602558329</v>
       </c>
-      <c r="L23" s="91" t="s">
-        <v>147</v>
+      <c r="L23" s="90" t="s">
+        <v>140</v>
       </c>
       <c r="M23" s="50" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="N23" s="1">
         <v>15951677180</v>
@@ -3702,19 +3713,19 @@
         <v>37</v>
       </c>
       <c r="D24" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="E24" s="50" t="s">
         <v>57</v>
       </c>
-      <c r="E24" s="50" t="s">
-        <v>58</v>
-      </c>
       <c r="F24" s="50" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="G24" s="1">
         <v>76122091</v>
       </c>
       <c r="H24" s="50" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="I24" s="50" t="s">
         <v>40</v>
@@ -3726,10 +3737,10 @@
         <v>17602558329</v>
       </c>
       <c r="L24" s="50" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="M24" s="50" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="N24" s="11">
         <v>13921280802</v>
@@ -3747,19 +3758,19 @@
         <v>37</v>
       </c>
       <c r="D25" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="E25" s="50" t="s">
         <v>57</v>
       </c>
-      <c r="E25" s="50" t="s">
-        <v>58</v>
-      </c>
       <c r="F25" s="50" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="G25" s="1">
         <v>76122096</v>
       </c>
       <c r="H25" s="50" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="I25" s="50" t="s">
         <v>40</v>
@@ -3771,10 +3782,10 @@
         <v>17602558329</v>
       </c>
       <c r="L25" s="50" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="M25" s="50" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="N25" s="11">
         <v>13921280802</v>
@@ -3792,19 +3803,19 @@
         <v>37</v>
       </c>
       <c r="D26" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="E26" s="50" t="s">
         <v>57</v>
       </c>
-      <c r="E26" s="50" t="s">
-        <v>58</v>
-      </c>
       <c r="F26" s="50" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="G26" s="1">
         <v>76123036</v>
       </c>
       <c r="H26" s="50" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="I26" s="50" t="s">
         <v>40</v>
@@ -3816,10 +3827,10 @@
         <v>17602558329</v>
       </c>
       <c r="L26" s="11" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="M26" s="50" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="N26" s="77">
         <v>13709060302</v>
@@ -3837,19 +3848,19 @@
         <v>37</v>
       </c>
       <c r="D27" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="E27" s="50" t="s">
         <v>57</v>
       </c>
-      <c r="E27" s="50" t="s">
-        <v>58</v>
-      </c>
       <c r="F27" s="50" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="G27" s="1">
         <v>76128273</v>
       </c>
       <c r="H27" s="50" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="I27" s="50" t="s">
         <v>40</v>
@@ -3861,10 +3872,10 @@
         <v>17602558329</v>
       </c>
       <c r="L27" s="11" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="M27" s="50" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="N27" s="77">
         <v>13812586805</v>
@@ -3882,19 +3893,19 @@
         <v>37</v>
       </c>
       <c r="D28" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="E28" s="50" t="s">
         <v>57</v>
       </c>
-      <c r="E28" s="50" t="s">
-        <v>58</v>
-      </c>
       <c r="F28" s="50" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="G28" s="1">
         <v>76132337</v>
       </c>
       <c r="H28" s="50" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="I28" s="50" t="s">
         <v>40</v>
@@ -3906,10 +3917,10 @@
         <v>17602558329</v>
       </c>
       <c r="L28" s="50" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="M28" s="50" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="N28" s="1">
         <v>13338730911</v>
@@ -3919,7 +3930,7 @@
       </c>
     </row>
     <row r="29" spans="1:15">
-      <c r="A29" s="94">
+      <c r="A29" s="93">
         <v>10</v>
       </c>
       <c r="B29" s="60">
@@ -3929,19 +3940,19 @@
         <v>37</v>
       </c>
       <c r="D29" s="50" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="E29" s="50" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="F29" s="50" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="G29" s="1">
         <v>76121106</v>
       </c>
       <c r="H29" s="50" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="I29" s="50" t="s">
         <v>40</v>
@@ -3952,35 +3963,65 @@
       <c r="K29" s="11">
         <v>17602558329</v>
       </c>
-      <c r="L29" s="91" t="s">
-        <v>168</v>
+      <c r="L29" s="90" t="s">
+        <v>161</v>
       </c>
       <c r="M29" s="50" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="N29" s="77">
         <v>13951396931</v>
       </c>
       <c r="O29" s="11" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="30" spans="1:15">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
+      <c r="A30" s="95">
+        <v>11</v>
+      </c>
+      <c r="B30" s="60">
+        <v>43171</v>
+      </c>
+      <c r="C30" s="50" t="s">
+        <v>37</v>
+      </c>
+      <c r="D30" s="50" t="s">
+        <v>163</v>
+      </c>
+      <c r="E30" s="50" t="s">
+        <v>163</v>
+      </c>
+      <c r="F30" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="G30" s="1">
+        <v>76130116</v>
+      </c>
+      <c r="H30" s="50" t="s">
+        <v>164</v>
+      </c>
+      <c r="I30" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="J30" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="K30" s="11">
+        <v>17602558329</v>
+      </c>
+      <c r="L30" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="M30" s="50" t="s">
+        <v>166</v>
+      </c>
+      <c r="N30" s="77">
+        <v>13222071793</v>
+      </c>
+      <c r="O30" s="11" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="31" spans="1:15">
       <c r="A31" s="1"/>
@@ -8616,7 +8657,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G72"/>
+  <dimension ref="A1:G68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
@@ -8657,40 +8698,38 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="88">
-        <v>1</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>65</v>
+      <c r="A2" s="106">
+        <v>4</v>
+      </c>
+      <c r="B2" s="85" t="s">
+        <v>107</v>
       </c>
       <c r="C2" s="87">
-        <v>43102</v>
-      </c>
-      <c r="D2" s="51" t="s">
-        <v>94</v>
+        <v>43126</v>
+      </c>
+      <c r="D2" s="86" t="s">
+        <v>109</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F2" s="11" t="s">
         <v>52</v>
       </c>
       <c r="G2" s="50" t="s">
-        <v>66</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="106">
-        <v>4</v>
-      </c>
+      <c r="A3" s="107"/>
       <c r="B3" s="85" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C3" s="87">
         <v>43126</v>
       </c>
       <c r="D3" s="86" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E3" s="11" t="s">
         <v>51</v>
@@ -8699,222 +8738,172 @@
         <v>52</v>
       </c>
       <c r="G3" s="50" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="107"/>
-      <c r="B4" s="85" t="s">
-        <v>112</v>
+      <c r="A4" s="108">
+        <v>8</v>
+      </c>
+      <c r="B4" s="88" t="s">
+        <v>117</v>
       </c>
       <c r="C4" s="87">
-        <v>43126</v>
-      </c>
-      <c r="D4" s="86" t="s">
-        <v>121</v>
+        <v>43123</v>
+      </c>
+      <c r="D4" s="51" t="s">
+        <v>123</v>
       </c>
       <c r="E4" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="F4" s="11" t="s">
-        <v>52</v>
+      <c r="F4" s="50" t="s">
+        <v>124</v>
       </c>
       <c r="G4" s="50" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="105">
-        <v>6</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>120</v>
+      <c r="A5" s="108"/>
+      <c r="B5" s="88" t="s">
+        <v>118</v>
       </c>
       <c r="C5" s="87">
-        <v>43134</v>
-      </c>
-      <c r="D5" s="86" t="s">
-        <v>121</v>
+        <v>43123</v>
+      </c>
+      <c r="D5" s="51" t="s">
+        <v>123</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
+      </c>
+      <c r="F5" s="50" t="s">
+        <v>124</v>
       </c>
       <c r="G5" s="50" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="106"/>
-      <c r="B6" s="9" t="s">
-        <v>122</v>
+      <c r="A6" s="108"/>
+      <c r="B6" s="88" t="s">
+        <v>119</v>
       </c>
       <c r="C6" s="87">
-        <v>43137</v>
-      </c>
-      <c r="D6" s="86" t="s">
-        <v>121</v>
+        <v>43123</v>
+      </c>
+      <c r="D6" s="51" t="s">
+        <v>123</v>
       </c>
       <c r="E6" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="F6" s="11" t="s">
-        <v>52</v>
+      <c r="F6" s="50" t="s">
+        <v>124</v>
       </c>
       <c r="G6" s="50" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="107"/>
-      <c r="B7" s="9" t="s">
+      <c r="A7" s="108"/>
+      <c r="B7" s="88" t="s">
+        <v>120</v>
+      </c>
+      <c r="C7" s="87">
+        <v>43123</v>
+      </c>
+      <c r="D7" s="51" t="s">
         <v>123</v>
-      </c>
-      <c r="C7" s="87">
-        <v>43137</v>
-      </c>
-      <c r="D7" s="86" t="s">
-        <v>121</v>
       </c>
       <c r="E7" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="F7" s="11" t="s">
-        <v>52</v>
+      <c r="F7" s="50" t="s">
+        <v>124</v>
       </c>
       <c r="G7" s="50" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="108">
-        <v>8</v>
-      </c>
-      <c r="B8" s="89" t="s">
-        <v>124</v>
+      <c r="A8" s="108"/>
+      <c r="B8" s="88" t="s">
+        <v>121</v>
       </c>
       <c r="C8" s="87">
         <v>43123</v>
       </c>
       <c r="D8" s="51" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="E8" s="11" t="s">
         <v>51</v>
       </c>
       <c r="F8" s="50" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="G8" s="50" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="27">
       <c r="A9" s="108"/>
-      <c r="B9" s="89" t="s">
-        <v>125</v>
+      <c r="B9" s="57" t="s">
+        <v>122</v>
       </c>
       <c r="C9" s="87">
         <v>43123</v>
       </c>
       <c r="D9" s="51" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="E9" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="F9" s="50" t="s">
-        <v>131</v>
+      <c r="F9" s="11" t="s">
+        <v>124</v>
       </c>
       <c r="G9" s="50" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="108"/>
-      <c r="B10" s="89" t="s">
-        <v>126</v>
-      </c>
-      <c r="C10" s="87">
-        <v>43123</v>
-      </c>
-      <c r="D10" s="51" t="s">
-        <v>130</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="F10" s="50" t="s">
-        <v>131</v>
-      </c>
-      <c r="G10" s="50" t="s">
-        <v>132</v>
-      </c>
+      <c r="A10" s="84"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="108"/>
-      <c r="B11" s="89" t="s">
-        <v>127</v>
-      </c>
-      <c r="C11" s="87">
-        <v>43123</v>
-      </c>
-      <c r="D11" s="51" t="s">
-        <v>130</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="F11" s="50" t="s">
-        <v>131</v>
-      </c>
-      <c r="G11" s="50" t="s">
-        <v>132</v>
-      </c>
+      <c r="A11" s="84"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="108"/>
-      <c r="B12" s="89" t="s">
-        <v>128</v>
-      </c>
-      <c r="C12" s="87">
-        <v>43123</v>
-      </c>
-      <c r="D12" s="51" t="s">
-        <v>130</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="F12" s="50" t="s">
-        <v>131</v>
-      </c>
-      <c r="G12" s="50" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="27">
-      <c r="A13" s="108"/>
-      <c r="B13" s="57" t="s">
-        <v>129</v>
-      </c>
-      <c r="C13" s="87">
-        <v>43123</v>
-      </c>
-      <c r="D13" s="51" t="s">
-        <v>149</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="G13" s="50" t="s">
-        <v>132</v>
-      </c>
+      <c r="A12" s="84"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="84"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="84"/>
@@ -8936,8 +8925,8 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="84"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
       <c r="D16" s="10"/>
       <c r="E16" s="11"/>
       <c r="F16" s="11"/>
@@ -8945,8 +8934,8 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="84"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
       <c r="D17" s="10"/>
       <c r="E17" s="11"/>
       <c r="F17" s="11"/>
@@ -8962,7 +8951,7 @@
       <c r="G18" s="11"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="84"/>
+      <c r="A19" s="52"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
       <c r="D19" s="10"/>
@@ -8970,59 +8959,59 @@
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
     </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="84"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="10"/>
+    <row r="20" spans="1:7" ht="14.25">
+      <c r="A20" s="105"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="12"/>
       <c r="E20" s="11"/>
       <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="84"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="10"/>
+      <c r="G20" s="9"/>
+    </row>
+    <row r="21" spans="1:7" ht="14.25">
+      <c r="A21" s="106"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="12"/>
       <c r="E21" s="11"/>
       <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
+      <c r="G21" s="4"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="84"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
+      <c r="A22" s="106"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
       <c r="D22" s="10"/>
       <c r="E22" s="11"/>
       <c r="F22" s="11"/>
       <c r="G22" s="11"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="52"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
+      <c r="A23" s="106"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
       <c r="D23" s="10"/>
       <c r="E23" s="11"/>
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
     </row>
-    <row r="24" spans="1:7" ht="14.25">
-      <c r="A24" s="105"/>
+    <row r="24" spans="1:7">
+      <c r="A24" s="106"/>
       <c r="B24" s="9"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="12"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="10"/>
       <c r="E24" s="11"/>
       <c r="F24" s="11"/>
-      <c r="G24" s="9"/>
-    </row>
-    <row r="25" spans="1:7" ht="14.25">
+      <c r="G24" s="11"/>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="106"/>
       <c r="B25" s="9"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="12"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="10"/>
       <c r="E25" s="11"/>
       <c r="F25" s="11"/>
-      <c r="G25" s="4"/>
+      <c r="G25" s="11"/>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="106"/>
@@ -9044,8 +9033,8 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="106"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
       <c r="D28" s="10"/>
       <c r="E28" s="11"/>
       <c r="F28" s="11"/>
@@ -9053,8 +9042,8 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="106"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
       <c r="D29" s="10"/>
       <c r="E29" s="11"/>
       <c r="F29" s="11"/>
@@ -9062,8 +9051,8 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="106"/>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
       <c r="D30" s="10"/>
       <c r="E30" s="11"/>
       <c r="F30" s="11"/>
@@ -9071,8 +9060,8 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="106"/>
-      <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
       <c r="D31" s="10"/>
       <c r="E31" s="11"/>
       <c r="F31" s="11"/>
@@ -9097,85 +9086,85 @@
       <c r="G33" s="11"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="106"/>
-      <c r="B34" s="11"/>
-      <c r="C34" s="11"/>
+      <c r="A34" s="107"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
       <c r="D34" s="10"/>
       <c r="E34" s="11"/>
       <c r="F34" s="11"/>
       <c r="G34" s="11"/>
     </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="106"/>
-      <c r="B35" s="11"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="10"/>
+    <row r="35" spans="1:7" ht="14.25">
+      <c r="A35" s="105"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="12"/>
       <c r="E35" s="11"/>
       <c r="F35" s="11"/>
-      <c r="G35" s="11"/>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="G35" s="9"/>
+    </row>
+    <row r="36" spans="1:7" ht="14.25">
       <c r="A36" s="106"/>
-      <c r="B36" s="11"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="10"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="12"/>
       <c r="E36" s="11"/>
       <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
-    </row>
-    <row r="37" spans="1:7">
+      <c r="G36" s="4"/>
+    </row>
+    <row r="37" spans="1:7" ht="14.25">
       <c r="A37" s="106"/>
-      <c r="B37" s="11"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="10"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="12"/>
       <c r="E37" s="11"/>
       <c r="F37" s="11"/>
-      <c r="G37" s="11"/>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="107"/>
+      <c r="G37" s="4"/>
+    </row>
+    <row r="38" spans="1:7" ht="14.25">
+      <c r="A38" s="106"/>
       <c r="B38" s="9"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="10"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="12"/>
       <c r="E38" s="11"/>
       <c r="F38" s="11"/>
-      <c r="G38" s="11"/>
-    </row>
-    <row r="39" spans="1:7" ht="14.25">
-      <c r="A39" s="105"/>
+      <c r="G38" s="15"/>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="106"/>
       <c r="B39" s="9"/>
-      <c r="C39" s="13"/>
-      <c r="D39" s="12"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="10"/>
       <c r="E39" s="11"/>
       <c r="F39" s="11"/>
-      <c r="G39" s="9"/>
-    </row>
-    <row r="40" spans="1:7" ht="14.25">
+      <c r="G39" s="11"/>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="106"/>
       <c r="B40" s="9"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="12"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="10"/>
       <c r="E40" s="11"/>
       <c r="F40" s="11"/>
-      <c r="G40" s="4"/>
-    </row>
-    <row r="41" spans="1:7" ht="14.25">
+      <c r="G40" s="11"/>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="106"/>
       <c r="B41" s="9"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="12"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="10"/>
       <c r="E41" s="11"/>
       <c r="F41" s="11"/>
-      <c r="G41" s="4"/>
-    </row>
-    <row r="42" spans="1:7" ht="14.25">
+      <c r="G41" s="11"/>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="106"/>
       <c r="B42" s="9"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="12"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="10"/>
       <c r="E42" s="11"/>
       <c r="F42" s="11"/>
-      <c r="G42" s="15"/>
+      <c r="G42" s="11"/>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="106"/>
@@ -9205,7 +9194,7 @@
       <c r="G45" s="11"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="106"/>
+      <c r="A46" s="107"/>
       <c r="B46" s="9"/>
       <c r="C46" s="9"/>
       <c r="D46" s="10"/>
@@ -9213,77 +9202,77 @@
       <c r="F46" s="11"/>
       <c r="G46" s="11"/>
     </row>
-    <row r="47" spans="1:7">
-      <c r="A47" s="106"/>
+    <row r="47" spans="1:7" ht="14.25">
+      <c r="A47" s="105"/>
       <c r="B47" s="9"/>
-      <c r="C47" s="9"/>
-      <c r="D47" s="10"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="12"/>
       <c r="E47" s="11"/>
       <c r="F47" s="11"/>
-      <c r="G47" s="11"/>
-    </row>
-    <row r="48" spans="1:7">
+      <c r="G47" s="9"/>
+    </row>
+    <row r="48" spans="1:7" ht="14.25">
       <c r="A48" s="106"/>
       <c r="B48" s="9"/>
-      <c r="C48" s="9"/>
-      <c r="D48" s="10"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="12"/>
       <c r="E48" s="11"/>
       <c r="F48" s="11"/>
-      <c r="G48" s="11"/>
-    </row>
-    <row r="49" spans="1:7">
+      <c r="G48" s="4"/>
+    </row>
+    <row r="49" spans="1:7" ht="14.25">
       <c r="A49" s="106"/>
       <c r="B49" s="9"/>
-      <c r="C49" s="9"/>
-      <c r="D49" s="10"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="12"/>
       <c r="E49" s="11"/>
       <c r="F49" s="11"/>
-      <c r="G49" s="11"/>
-    </row>
-    <row r="50" spans="1:7">
-      <c r="A50" s="107"/>
+      <c r="G49" s="4"/>
+    </row>
+    <row r="50" spans="1:7" ht="14.25">
+      <c r="A50" s="106"/>
       <c r="B50" s="9"/>
-      <c r="C50" s="9"/>
-      <c r="D50" s="10"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="12"/>
       <c r="E50" s="11"/>
       <c r="F50" s="11"/>
-      <c r="G50" s="11"/>
-    </row>
-    <row r="51" spans="1:7" ht="14.25">
-      <c r="A51" s="105"/>
+      <c r="G50" s="15"/>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="106"/>
       <c r="B51" s="9"/>
-      <c r="C51" s="13"/>
-      <c r="D51" s="12"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="10"/>
       <c r="E51" s="11"/>
       <c r="F51" s="11"/>
-      <c r="G51" s="9"/>
-    </row>
-    <row r="52" spans="1:7" ht="14.25">
+      <c r="G51" s="11"/>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="106"/>
       <c r="B52" s="9"/>
-      <c r="C52" s="14"/>
-      <c r="D52" s="12"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="10"/>
       <c r="E52" s="11"/>
       <c r="F52" s="11"/>
-      <c r="G52" s="4"/>
-    </row>
-    <row r="53" spans="1:7" ht="14.25">
+      <c r="G52" s="11"/>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="106"/>
       <c r="B53" s="9"/>
-      <c r="C53" s="14"/>
-      <c r="D53" s="12"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="10"/>
       <c r="E53" s="11"/>
       <c r="F53" s="11"/>
-      <c r="G53" s="4"/>
-    </row>
-    <row r="54" spans="1:7" ht="14.25">
+      <c r="G53" s="11"/>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="106"/>
       <c r="B54" s="9"/>
-      <c r="C54" s="14"/>
-      <c r="D54" s="12"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="10"/>
       <c r="E54" s="11"/>
       <c r="F54" s="11"/>
-      <c r="G54" s="15"/>
+      <c r="G54" s="11"/>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="106"/>
@@ -9313,7 +9302,7 @@
       <c r="G57" s="11"/>
     </row>
     <row r="58" spans="1:7">
-      <c r="A58" s="106"/>
+      <c r="A58" s="107"/>
       <c r="B58" s="9"/>
       <c r="C58" s="9"/>
       <c r="D58" s="10"/>
@@ -9321,23 +9310,23 @@
       <c r="F58" s="11"/>
       <c r="G58" s="11"/>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:7" ht="14.25">
       <c r="A59" s="106"/>
       <c r="B59" s="9"/>
-      <c r="C59" s="9"/>
-      <c r="D59" s="10"/>
+      <c r="C59" s="14"/>
+      <c r="D59" s="12"/>
       <c r="E59" s="11"/>
       <c r="F59" s="11"/>
-      <c r="G59" s="11"/>
-    </row>
-    <row r="60" spans="1:7">
+      <c r="G59" s="4"/>
+    </row>
+    <row r="60" spans="1:7" ht="14.25">
       <c r="A60" s="106"/>
       <c r="B60" s="9"/>
-      <c r="C60" s="9"/>
-      <c r="D60" s="10"/>
+      <c r="C60" s="14"/>
+      <c r="D60" s="12"/>
       <c r="E60" s="11"/>
       <c r="F60" s="11"/>
-      <c r="G60" s="11"/>
+      <c r="G60" s="15"/>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="106"/>
@@ -9349,7 +9338,7 @@
       <c r="G61" s="11"/>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" s="107"/>
+      <c r="A62" s="106"/>
       <c r="B62" s="9"/>
       <c r="C62" s="9"/>
       <c r="D62" s="10"/>
@@ -9357,23 +9346,23 @@
       <c r="F62" s="11"/>
       <c r="G62" s="11"/>
     </row>
-    <row r="63" spans="1:7" ht="14.25">
+    <row r="63" spans="1:7">
       <c r="A63" s="106"/>
       <c r="B63" s="9"/>
-      <c r="C63" s="14"/>
-      <c r="D63" s="12"/>
+      <c r="C63" s="9"/>
+      <c r="D63" s="10"/>
       <c r="E63" s="11"/>
       <c r="F63" s="11"/>
-      <c r="G63" s="4"/>
-    </row>
-    <row r="64" spans="1:7" ht="14.25">
+      <c r="G63" s="11"/>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="106"/>
       <c r="B64" s="9"/>
-      <c r="C64" s="14"/>
-      <c r="D64" s="12"/>
+      <c r="C64" s="9"/>
+      <c r="D64" s="10"/>
       <c r="E64" s="11"/>
       <c r="F64" s="11"/>
-      <c r="G64" s="15"/>
+      <c r="G64" s="11"/>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="106"/>
@@ -9403,7 +9392,7 @@
       <c r="G67" s="11"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="106"/>
+      <c r="A68" s="107"/>
       <c r="B68" s="9"/>
       <c r="C68" s="9"/>
       <c r="D68" s="10"/>
@@ -9411,51 +9400,14 @@
       <c r="F68" s="11"/>
       <c r="G68" s="11"/>
     </row>
-    <row r="69" spans="1:7">
-      <c r="A69" s="106"/>
-      <c r="B69" s="9"/>
-      <c r="C69" s="9"/>
-      <c r="D69" s="10"/>
-      <c r="E69" s="11"/>
-      <c r="F69" s="11"/>
-      <c r="G69" s="11"/>
-    </row>
-    <row r="70" spans="1:7">
-      <c r="A70" s="106"/>
-      <c r="B70" s="9"/>
-      <c r="C70" s="9"/>
-      <c r="D70" s="10"/>
-      <c r="E70" s="11"/>
-      <c r="F70" s="11"/>
-      <c r="G70" s="11"/>
-    </row>
-    <row r="71" spans="1:7">
-      <c r="A71" s="106"/>
-      <c r="B71" s="9"/>
-      <c r="C71" s="9"/>
-      <c r="D71" s="10"/>
-      <c r="E71" s="11"/>
-      <c r="F71" s="11"/>
-      <c r="G71" s="11"/>
-    </row>
-    <row r="72" spans="1:7">
-      <c r="A72" s="107"/>
-      <c r="B72" s="9"/>
-      <c r="C72" s="9"/>
-      <c r="D72" s="10"/>
-      <c r="E72" s="11"/>
-      <c r="F72" s="11"/>
-      <c r="G72" s="11"/>
-    </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A51:A62"/>
-    <mergeCell ref="A63:A72"/>
-    <mergeCell ref="A24:A38"/>
-    <mergeCell ref="A39:A50"/>
-    <mergeCell ref="A8:A13"/>
-    <mergeCell ref="A5:A7"/>
+  <mergeCells count="6">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A47:A58"/>
+    <mergeCell ref="A59:A68"/>
+    <mergeCell ref="A20:A34"/>
+    <mergeCell ref="A35:A46"/>
+    <mergeCell ref="A4:A9"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <dataValidations count="3">
@@ -9477,7 +9429,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -9518,7 +9470,7 @@
         <v>43099</v>
       </c>
       <c r="D2" s="73" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>54</v>
@@ -9535,7 +9487,7 @@
         <v>43127</v>
       </c>
       <c r="D3" s="73" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E3" s="81" t="s">
         <v>54</v>
@@ -9552,7 +9504,7 @@
         <v>43128</v>
       </c>
       <c r="D4" s="73" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E4" s="81" t="s">
         <v>54</v>
@@ -9563,16 +9515,16 @@
         <v>2</v>
       </c>
       <c r="B5" s="57" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C5" s="82">
         <v>43144</v>
       </c>
       <c r="D5" s="73" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E5" s="57" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:5">

--- a/周数据/《个人上线率统计表》-黄纯伟.xlsx
+++ b/周数据/《个人上线率统计表》-黄纯伟.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="176">
   <si>
     <t>个人上线率分析表</t>
   </si>
@@ -653,6 +653,41 @@
   </si>
   <si>
     <t>老板</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>饺翻天金鸡湖欧尚城店</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>饺翻天相城欧尚店</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>饺翻天江都大润发店</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>饺翻天南京同曦假日百货店</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>苏州</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>扬州</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>南京</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>饺翻天</t>
+  </si>
+  <si>
+    <t>饺翻天</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -3534,7 +3569,7 @@
         <v>101</v>
       </c>
       <c r="E20" s="50" t="s">
-        <v>131</v>
+        <v>175</v>
       </c>
       <c r="F20" s="50" t="s">
         <v>129</v>
@@ -4024,123 +4059,321 @@
       </c>
     </row>
     <row r="31" spans="1:15">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
-      <c r="O31" s="1"/>
+      <c r="A31" s="105">
+        <v>12</v>
+      </c>
+      <c r="B31" s="60">
+        <v>43180</v>
+      </c>
+      <c r="C31" s="50" t="s">
+        <v>37</v>
+      </c>
+      <c r="D31" s="50" t="s">
+        <v>101</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="F31" s="50" t="s">
+        <v>171</v>
+      </c>
+      <c r="G31" s="77">
+        <v>76131267</v>
+      </c>
+      <c r="H31" s="50" t="s">
+        <v>167</v>
+      </c>
+      <c r="I31" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="J31" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="K31" s="11">
+        <v>17602558329</v>
+      </c>
+      <c r="L31" s="50" t="s">
+        <v>104</v>
+      </c>
+      <c r="M31" s="50" t="s">
+        <v>105</v>
+      </c>
+      <c r="N31" s="11">
+        <v>18112604296</v>
+      </c>
+      <c r="O31" s="11" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="32" spans="1:15">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
-      <c r="O32" s="1"/>
+      <c r="A32" s="106"/>
+      <c r="B32" s="60">
+        <v>43180</v>
+      </c>
+      <c r="C32" s="50" t="s">
+        <v>37</v>
+      </c>
+      <c r="D32" s="50" t="s">
+        <v>101</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="F32" s="50" t="s">
+        <v>171</v>
+      </c>
+      <c r="G32" s="77">
+        <v>76131269</v>
+      </c>
+      <c r="H32" s="90" t="s">
+        <v>118</v>
+      </c>
+      <c r="I32" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="J32" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="K32" s="11">
+        <v>17602558329</v>
+      </c>
+      <c r="L32" s="50" t="s">
+        <v>104</v>
+      </c>
+      <c r="M32" s="50" t="s">
+        <v>105</v>
+      </c>
+      <c r="N32" s="11">
+        <v>18112604296</v>
+      </c>
+      <c r="O32" s="11" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="33" spans="1:15">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
-      <c r="O33" s="1"/>
+      <c r="A33" s="106"/>
+      <c r="B33" s="60">
+        <v>43180</v>
+      </c>
+      <c r="C33" s="50" t="s">
+        <v>37</v>
+      </c>
+      <c r="D33" s="50" t="s">
+        <v>101</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="F33" s="50" t="s">
+        <v>171</v>
+      </c>
+      <c r="G33" s="77">
+        <v>76131270</v>
+      </c>
+      <c r="H33" s="90" t="s">
+        <v>119</v>
+      </c>
+      <c r="I33" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="J33" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="K33" s="11">
+        <v>17602558329</v>
+      </c>
+      <c r="L33" s="50" t="s">
+        <v>104</v>
+      </c>
+      <c r="M33" s="50" t="s">
+        <v>105</v>
+      </c>
+      <c r="N33" s="11">
+        <v>18112604296</v>
+      </c>
+      <c r="O33" s="11" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="34" spans="1:15">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
-      <c r="O34" s="1"/>
+      <c r="A34" s="106"/>
+      <c r="B34" s="60">
+        <v>43180</v>
+      </c>
+      <c r="C34" s="50" t="s">
+        <v>37</v>
+      </c>
+      <c r="D34" s="50" t="s">
+        <v>101</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="F34" s="50" t="s">
+        <v>171</v>
+      </c>
+      <c r="G34" s="77">
+        <v>76131271</v>
+      </c>
+      <c r="H34" s="90" t="s">
+        <v>120</v>
+      </c>
+      <c r="I34" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="J34" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="K34" s="11">
+        <v>17602558329</v>
+      </c>
+      <c r="L34" s="50" t="s">
+        <v>104</v>
+      </c>
+      <c r="M34" s="50" t="s">
+        <v>105</v>
+      </c>
+      <c r="N34" s="11">
+        <v>18112604296</v>
+      </c>
+      <c r="O34" s="11" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="35" spans="1:15">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
-      <c r="N35" s="1"/>
-      <c r="O35" s="1"/>
+      <c r="A35" s="106"/>
+      <c r="B35" s="60">
+        <v>43180</v>
+      </c>
+      <c r="C35" s="50" t="s">
+        <v>37</v>
+      </c>
+      <c r="D35" s="50" t="s">
+        <v>101</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="F35" s="50" t="s">
+        <v>171</v>
+      </c>
+      <c r="G35" s="1">
+        <v>76131272</v>
+      </c>
+      <c r="H35" s="50" t="s">
+        <v>168</v>
+      </c>
+      <c r="I35" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="J35" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="K35" s="11">
+        <v>17602558329</v>
+      </c>
+      <c r="L35" s="50" t="s">
+        <v>104</v>
+      </c>
+      <c r="M35" s="50" t="s">
+        <v>105</v>
+      </c>
+      <c r="N35" s="11">
+        <v>18112604296</v>
+      </c>
+      <c r="O35" s="11" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="36" spans="1:15">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
-      <c r="O36" s="1"/>
+      <c r="A36" s="106"/>
+      <c r="B36" s="60">
+        <v>43180</v>
+      </c>
+      <c r="C36" s="50" t="s">
+        <v>37</v>
+      </c>
+      <c r="D36" s="50" t="s">
+        <v>101</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="F36" s="50" t="s">
+        <v>172</v>
+      </c>
+      <c r="G36" s="1">
+        <v>76133009</v>
+      </c>
+      <c r="H36" s="50" t="s">
+        <v>169</v>
+      </c>
+      <c r="I36" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="J36" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="K36" s="11">
+        <v>17602558329</v>
+      </c>
+      <c r="L36" s="50" t="s">
+        <v>104</v>
+      </c>
+      <c r="M36" s="50" t="s">
+        <v>105</v>
+      </c>
+      <c r="N36" s="11">
+        <v>18112604296</v>
+      </c>
+      <c r="O36" s="11" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="37" spans="1:15">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
-      <c r="L37" s="1"/>
-      <c r="M37" s="1"/>
-      <c r="N37" s="1"/>
-      <c r="O37" s="1"/>
+      <c r="A37" s="107"/>
+      <c r="B37" s="60">
+        <v>43180</v>
+      </c>
+      <c r="C37" s="50" t="s">
+        <v>37</v>
+      </c>
+      <c r="D37" s="50" t="s">
+        <v>101</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="F37" s="50" t="s">
+        <v>173</v>
+      </c>
+      <c r="G37" s="1">
+        <v>76133013</v>
+      </c>
+      <c r="H37" s="50" t="s">
+        <v>170</v>
+      </c>
+      <c r="I37" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="J37" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="K37" s="11">
+        <v>17602558329</v>
+      </c>
+      <c r="L37" s="50" t="s">
+        <v>104</v>
+      </c>
+      <c r="M37" s="50" t="s">
+        <v>105</v>
+      </c>
+      <c r="N37" s="11">
+        <v>18112604296</v>
+      </c>
+      <c r="O37" s="11" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="38" spans="1:15">
       <c r="A38" s="1"/>
@@ -8631,7 +8864,8 @@
       <c r="O301" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="A31:A37"/>
     <mergeCell ref="A18:A23"/>
     <mergeCell ref="A24:A28"/>
     <mergeCell ref="A15:A16"/>

--- a/周数据/《个人上线率统计表》-黄纯伟.xlsx
+++ b/周数据/《个人上线率统计表》-黄纯伟.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="180">
   <si>
     <t>个人上线率分析表</t>
   </si>
@@ -274,10 +274,6 @@
   </si>
   <si>
     <t>新品牌</t>
-  </si>
-  <si>
-    <t>宜兴/巴适满堂美蛙鱼头火锅</t>
-    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>南京兴济鸿贸易有限公司</t>
@@ -441,24 +437,8 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>黄纯伟</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>南京/哈姆特天印大道店</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>售后</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>跟商户约时间远程实施</t>
     <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>饺翻天金鸡湖欧尚城店</t>
-    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>饺翻天印象城购物中心店</t>
@@ -473,15 +453,7 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>饺翻天相城欧尚店</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>两个天堂餐饮管理有限公司</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>跟商户约时间远程实施</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
@@ -556,10 +528,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>店铺签约100家，目前还有87家未开户，5家未装，8家已上线</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>无锡</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -689,6 +657,54 @@
   <si>
     <t>饺翻天</t>
     <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>店铺签约100家，目前还有62家未开户，23家未上线，15家已上线</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>三千粉</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>苏州</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>三千粉苏州丽丰购物中心店</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>三千粉苏州来客茂购物中心店</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>三千粉苏州绿宝广场店</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>三千粉苏州金鸡湖欧尚城店</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>三千粉苏州圆融星座购物中心店</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>三千粉苏州平江万达广场店</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>三千粉苏州津梁街华润万家店</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>三千粉苏州南门沃尔玛店</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>三千粉苏州东环路大润发店</t>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1571,14 +1587,56 @@
     <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="58" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1586,53 +1644,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1909,7 +1925,7 @@
   <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
@@ -2545,8 +2561,12 @@
       </c>
     </row>
     <row r="17" spans="2:13" ht="14.25" thickBot="1">
-      <c r="B17" s="72"/>
-      <c r="C17" s="31"/>
+      <c r="B17" s="72">
+        <v>12</v>
+      </c>
+      <c r="C17" s="31">
+        <v>0</v>
+      </c>
       <c r="D17" s="32"/>
       <c r="E17" s="32">
         <f t="shared" si="12"/>
@@ -2577,12 +2597,18 @@
       </c>
     </row>
     <row r="18" spans="2:13" ht="14.25" thickBot="1">
-      <c r="B18" s="72"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="32"/>
+      <c r="B18" s="72">
+        <v>13</v>
+      </c>
+      <c r="C18" s="31">
+        <v>100</v>
+      </c>
+      <c r="D18" s="32">
+        <v>12</v>
+      </c>
       <c r="E18" s="32">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="F18" s="33"/>
       <c r="G18" s="34"/>
@@ -2591,21 +2617,21 @@
         <v>0</v>
       </c>
       <c r="I18" s="45"/>
-      <c r="J18" s="46" t="e">
+      <c r="J18" s="46">
         <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="K18" s="47">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L18" s="48">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="M18" s="49" t="e">
+        <v>12</v>
+      </c>
+      <c r="M18" s="49">
         <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="19" spans="2:13" ht="14.25" thickBot="1">
@@ -2847,7 +2873,7 @@
       </c>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="91">
+      <c r="A4" s="90">
         <v>52</v>
       </c>
       <c r="B4" s="59">
@@ -3088,22 +3114,22 @@
         <v>37</v>
       </c>
       <c r="D9" s="50" t="s">
+        <v>75</v>
+      </c>
+      <c r="E9" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="E9" s="50" t="s">
+      <c r="F9" s="50" t="s">
         <v>77</v>
-      </c>
-      <c r="F9" s="50" t="s">
-        <v>78</v>
       </c>
       <c r="G9" s="1">
         <v>76110597</v>
       </c>
       <c r="H9" s="50" t="s">
+        <v>78</v>
+      </c>
+      <c r="I9" s="50" t="s">
         <v>79</v>
-      </c>
-      <c r="I9" s="50" t="s">
-        <v>80</v>
       </c>
       <c r="J9" s="50" t="s">
         <v>44</v>
@@ -3112,10 +3138,10 @@
         <v>17602558329</v>
       </c>
       <c r="L9" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="M9" s="50" t="s">
         <v>81</v>
-      </c>
-      <c r="M9" s="50" t="s">
-        <v>82</v>
       </c>
       <c r="N9" s="77">
         <v>15651888368</v>
@@ -3139,16 +3165,16 @@
         <v>57</v>
       </c>
       <c r="F10" s="50" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G10" s="1">
         <v>76117399</v>
       </c>
       <c r="H10" s="50" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I10" s="50" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J10" s="50" t="s">
         <v>44</v>
@@ -3157,10 +3183,10 @@
         <v>17602558329</v>
       </c>
       <c r="L10" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="M10" s="80" t="s">
         <v>85</v>
-      </c>
-      <c r="M10" s="80" t="s">
-        <v>86</v>
       </c>
       <c r="N10" s="77">
         <v>13780054964</v>
@@ -3186,16 +3212,16 @@
         <v>57</v>
       </c>
       <c r="F11" s="50" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G11" s="1">
         <v>76121691</v>
       </c>
       <c r="H11" s="50" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I11" s="50" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J11" s="50" t="s">
         <v>44</v>
@@ -3204,10 +3230,10 @@
         <v>17602558329</v>
       </c>
       <c r="L11" t="s">
+        <v>88</v>
+      </c>
+      <c r="M11" s="80" t="s">
         <v>89</v>
-      </c>
-      <c r="M11" s="80" t="s">
-        <v>90</v>
       </c>
       <c r="N11" s="79">
         <v>18852665200</v>
@@ -3233,13 +3259,13 @@
         <v>57</v>
       </c>
       <c r="F12" s="50" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G12" s="1">
         <v>76121956</v>
       </c>
       <c r="H12" s="50" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I12" s="50" t="s">
         <v>40</v>
@@ -3251,10 +3277,10 @@
         <v>17602558329</v>
       </c>
       <c r="L12" s="50" t="s">
+        <v>93</v>
+      </c>
+      <c r="M12" s="50" t="s">
         <v>94</v>
-      </c>
-      <c r="M12" s="50" t="s">
-        <v>95</v>
       </c>
       <c r="N12" s="1">
         <v>13921280802</v>
@@ -3272,19 +3298,19 @@
         <v>37</v>
       </c>
       <c r="D13" s="50" t="s">
+        <v>95</v>
+      </c>
+      <c r="E13" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="F13" s="50" t="s">
         <v>96</v>
-      </c>
-      <c r="E13" s="50" t="s">
-        <v>77</v>
-      </c>
-      <c r="F13" s="50" t="s">
-        <v>97</v>
       </c>
       <c r="G13" s="1">
         <v>76121671</v>
       </c>
       <c r="H13" s="50" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I13" s="50" t="s">
         <v>40</v>
@@ -3296,10 +3322,10 @@
         <v>17602558329</v>
       </c>
       <c r="L13" s="83" t="s">
+        <v>98</v>
+      </c>
+      <c r="M13" s="50" t="s">
         <v>99</v>
-      </c>
-      <c r="M13" s="50" t="s">
-        <v>100</v>
       </c>
       <c r="N13" s="79">
         <v>13605150024</v>
@@ -3317,19 +3343,19 @@
         <v>37</v>
       </c>
       <c r="D14" s="50" t="s">
+        <v>100</v>
+      </c>
+      <c r="E14" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="E14" s="50" t="s">
+      <c r="F14" s="50" t="s">
         <v>102</v>
-      </c>
-      <c r="F14" s="50" t="s">
-        <v>103</v>
       </c>
       <c r="G14" s="1">
         <v>76125223</v>
       </c>
       <c r="H14" s="50" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I14" s="50" t="s">
         <v>40</v>
@@ -3341,10 +3367,10 @@
         <v>17602558329</v>
       </c>
       <c r="L14" s="50" t="s">
+        <v>103</v>
+      </c>
+      <c r="M14" s="50" t="s">
         <v>104</v>
-      </c>
-      <c r="M14" s="50" t="s">
-        <v>105</v>
       </c>
       <c r="N14" s="1">
         <v>18112604296</v>
@@ -3364,19 +3390,19 @@
         <v>37</v>
       </c>
       <c r="D15" s="50" t="s">
+        <v>100</v>
+      </c>
+      <c r="E15" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="E15" s="50" t="s">
+      <c r="F15" s="50" t="s">
         <v>102</v>
-      </c>
-      <c r="F15" s="50" t="s">
-        <v>103</v>
       </c>
       <c r="G15" s="1">
         <v>76128577</v>
       </c>
       <c r="H15" s="50" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I15" s="50" t="s">
         <v>40</v>
@@ -3388,10 +3414,10 @@
         <v>17602558329</v>
       </c>
       <c r="L15" s="50" t="s">
+        <v>103</v>
+      </c>
+      <c r="M15" s="50" t="s">
         <v>104</v>
-      </c>
-      <c r="M15" s="50" t="s">
-        <v>105</v>
       </c>
       <c r="N15" s="11">
         <v>18112604296</v>
@@ -3409,19 +3435,19 @@
         <v>37</v>
       </c>
       <c r="D16" s="50" t="s">
+        <v>100</v>
+      </c>
+      <c r="E16" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="E16" s="50" t="s">
+      <c r="F16" s="50" t="s">
         <v>102</v>
-      </c>
-      <c r="F16" s="50" t="s">
-        <v>103</v>
       </c>
       <c r="G16" s="1">
         <v>76128579</v>
       </c>
       <c r="H16" s="50" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I16" s="50" t="s">
         <v>40</v>
@@ -3433,10 +3459,10 @@
         <v>17602558329</v>
       </c>
       <c r="L16" s="50" t="s">
+        <v>103</v>
+      </c>
+      <c r="M16" s="50" t="s">
         <v>104</v>
-      </c>
-      <c r="M16" s="50" t="s">
-        <v>105</v>
       </c>
       <c r="N16" s="11">
         <v>18112604296</v>
@@ -3446,12 +3472,12 @@
       </c>
     </row>
     <row r="17" spans="1:15">
-      <c r="A17" s="92">
+      <c r="A17" s="91">
         <v>7</v>
       </c>
       <c r="C17" s="50"/>
-      <c r="D17" s="94" t="s">
-        <v>158</v>
+      <c r="D17" s="93" t="s">
+        <v>150</v>
       </c>
       <c r="E17" s="50"/>
       <c r="F17" s="50"/>
@@ -3476,19 +3502,19 @@
         <v>37</v>
       </c>
       <c r="D18" s="50" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E18" s="50" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="F18" s="50" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="G18" s="1">
         <v>76127217</v>
       </c>
       <c r="H18" s="50" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="I18" s="50" t="s">
         <v>40</v>
@@ -3500,10 +3526,10 @@
         <v>17602558329</v>
       </c>
       <c r="L18" s="50" t="s">
+        <v>103</v>
+      </c>
+      <c r="M18" s="50" t="s">
         <v>104</v>
-      </c>
-      <c r="M18" s="50" t="s">
-        <v>105</v>
       </c>
       <c r="N18" s="11">
         <v>18112604296</v>
@@ -3521,19 +3547,19 @@
         <v>37</v>
       </c>
       <c r="D19" s="50" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E19" s="50" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="F19" s="50" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="G19" s="1">
         <v>76128571</v>
       </c>
       <c r="H19" s="50" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="I19" s="50" t="s">
         <v>40</v>
@@ -3545,10 +3571,10 @@
         <v>17602558329</v>
       </c>
       <c r="L19" s="50" t="s">
+        <v>103</v>
+      </c>
+      <c r="M19" s="50" t="s">
         <v>104</v>
-      </c>
-      <c r="M19" s="50" t="s">
-        <v>105</v>
       </c>
       <c r="N19" s="11">
         <v>18112604296</v>
@@ -3566,19 +3592,19 @@
         <v>37</v>
       </c>
       <c r="D20" s="50" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E20" s="50" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="F20" s="50" t="s">
-        <v>129</v>
-      </c>
-      <c r="G20" s="89">
+        <v>122</v>
+      </c>
+      <c r="G20" s="88">
         <v>76128575</v>
       </c>
       <c r="H20" s="50" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="I20" s="50" t="s">
         <v>40</v>
@@ -3590,10 +3616,10 @@
         <v>17602558329</v>
       </c>
       <c r="L20" s="50" t="s">
+        <v>103</v>
+      </c>
+      <c r="M20" s="50" t="s">
         <v>104</v>
-      </c>
-      <c r="M20" s="50" t="s">
-        <v>105</v>
       </c>
       <c r="N20" s="11">
         <v>18112604296</v>
@@ -3611,19 +3637,19 @@
         <v>37</v>
       </c>
       <c r="D21" s="50" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E21" s="50" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="F21" s="50" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="G21" s="1">
         <v>76128576</v>
       </c>
       <c r="H21" s="50" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="I21" s="50" t="s">
         <v>40</v>
@@ -3635,10 +3661,10 @@
         <v>17602558329</v>
       </c>
       <c r="L21" s="50" t="s">
+        <v>103</v>
+      </c>
+      <c r="M21" s="50" t="s">
         <v>104</v>
-      </c>
-      <c r="M21" s="50" t="s">
-        <v>105</v>
       </c>
       <c r="N21" s="11">
         <v>18112604296</v>
@@ -3656,19 +3682,19 @@
         <v>37</v>
       </c>
       <c r="D22" s="50" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E22" s="50" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="F22" s="50" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="G22" s="1">
         <v>76129762</v>
       </c>
       <c r="H22" s="50" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="I22" s="50" t="s">
         <v>40</v>
@@ -3680,10 +3706,10 @@
         <v>17602558329</v>
       </c>
       <c r="L22" s="50" t="s">
+        <v>103</v>
+      </c>
+      <c r="M22" s="50" t="s">
         <v>104</v>
-      </c>
-      <c r="M22" s="50" t="s">
-        <v>105</v>
       </c>
       <c r="N22" s="11">
         <v>18112604296</v>
@@ -3701,19 +3727,19 @@
         <v>37</v>
       </c>
       <c r="D23" s="50" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="E23" s="50" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="F23" s="50" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="G23" s="1">
         <v>76127976</v>
       </c>
       <c r="H23" s="50" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="I23" s="50" t="s">
         <v>40</v>
@@ -3724,11 +3750,11 @@
       <c r="K23" s="11">
         <v>17602558329</v>
       </c>
-      <c r="L23" s="90" t="s">
-        <v>140</v>
+      <c r="L23" s="89" t="s">
+        <v>133</v>
       </c>
       <c r="M23" s="50" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="N23" s="1">
         <v>15951677180</v>
@@ -3754,13 +3780,13 @@
         <v>57</v>
       </c>
       <c r="F24" s="50" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="G24" s="1">
         <v>76122091</v>
       </c>
       <c r="H24" s="50" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="I24" s="50" t="s">
         <v>40</v>
@@ -3772,7 +3798,7 @@
         <v>17602558329</v>
       </c>
       <c r="L24" s="50" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M24" s="50" t="s">
         <v>73</v>
@@ -3799,13 +3825,13 @@
         <v>57</v>
       </c>
       <c r="F25" s="50" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="G25" s="1">
         <v>76122096</v>
       </c>
       <c r="H25" s="50" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="I25" s="50" t="s">
         <v>40</v>
@@ -3817,7 +3843,7 @@
         <v>17602558329</v>
       </c>
       <c r="L25" s="50" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M25" s="50" t="s">
         <v>73</v>
@@ -3844,13 +3870,13 @@
         <v>57</v>
       </c>
       <c r="F26" s="50" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="G26" s="1">
         <v>76123036</v>
       </c>
       <c r="H26" s="50" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="I26" s="50" t="s">
         <v>40</v>
@@ -3862,10 +3888,10 @@
         <v>17602558329</v>
       </c>
       <c r="L26" s="11" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="M26" s="50" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="N26" s="77">
         <v>13709060302</v>
@@ -3889,13 +3915,13 @@
         <v>57</v>
       </c>
       <c r="F27" s="50" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="G27" s="1">
         <v>76128273</v>
       </c>
       <c r="H27" s="50" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="I27" s="50" t="s">
         <v>40</v>
@@ -3907,10 +3933,10 @@
         <v>17602558329</v>
       </c>
       <c r="L27" s="11" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="M27" s="50" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="N27" s="77">
         <v>13812586805</v>
@@ -3934,13 +3960,13 @@
         <v>57</v>
       </c>
       <c r="F28" s="50" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="G28" s="1">
         <v>76132337</v>
       </c>
       <c r="H28" s="50" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="I28" s="50" t="s">
         <v>40</v>
@@ -3952,10 +3978,10 @@
         <v>17602558329</v>
       </c>
       <c r="L28" s="50" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="M28" s="50" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="N28" s="1">
         <v>13338730911</v>
@@ -3965,7 +3991,7 @@
       </c>
     </row>
     <row r="29" spans="1:15">
-      <c r="A29" s="93">
+      <c r="A29" s="92">
         <v>10</v>
       </c>
       <c r="B29" s="60">
@@ -3975,19 +4001,19 @@
         <v>37</v>
       </c>
       <c r="D29" s="50" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="E29" s="50" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="F29" s="50" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="G29" s="1">
         <v>76121106</v>
       </c>
       <c r="H29" s="50" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="I29" s="50" t="s">
         <v>40</v>
@@ -3998,11 +4024,11 @@
       <c r="K29" s="11">
         <v>17602558329</v>
       </c>
-      <c r="L29" s="90" t="s">
-        <v>161</v>
+      <c r="L29" s="89" t="s">
+        <v>153</v>
       </c>
       <c r="M29" s="50" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="N29" s="77">
         <v>13951396931</v>
@@ -4012,7 +4038,7 @@
       </c>
     </row>
     <row r="30" spans="1:15">
-      <c r="A30" s="95">
+      <c r="A30" s="94">
         <v>11</v>
       </c>
       <c r="B30" s="60">
@@ -4022,10 +4048,10 @@
         <v>37</v>
       </c>
       <c r="D30" s="50" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="E30" s="50" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="F30" s="50" t="s">
         <v>40</v>
@@ -4034,7 +4060,7 @@
         <v>76130116</v>
       </c>
       <c r="H30" s="50" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="I30" s="50" t="s">
         <v>40</v>
@@ -4046,10 +4072,10 @@
         <v>17602558329</v>
       </c>
       <c r="L30" s="11" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="M30" s="50" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="N30" s="77">
         <v>13222071793</v>
@@ -4069,19 +4095,19 @@
         <v>37</v>
       </c>
       <c r="D31" s="50" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="F31" s="50" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="G31" s="77">
         <v>76131267</v>
       </c>
       <c r="H31" s="50" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="I31" s="50" t="s">
         <v>40</v>
@@ -4093,10 +4119,10 @@
         <v>17602558329</v>
       </c>
       <c r="L31" s="50" t="s">
+        <v>103</v>
+      </c>
+      <c r="M31" s="50" t="s">
         <v>104</v>
-      </c>
-      <c r="M31" s="50" t="s">
-        <v>105</v>
       </c>
       <c r="N31" s="11">
         <v>18112604296</v>
@@ -4114,19 +4140,19 @@
         <v>37</v>
       </c>
       <c r="D32" s="50" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="F32" s="50" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="G32" s="77">
         <v>76131269</v>
       </c>
-      <c r="H32" s="90" t="s">
-        <v>118</v>
+      <c r="H32" s="89" t="s">
+        <v>113</v>
       </c>
       <c r="I32" s="50" t="s">
         <v>40</v>
@@ -4138,10 +4164,10 @@
         <v>17602558329</v>
       </c>
       <c r="L32" s="50" t="s">
+        <v>103</v>
+      </c>
+      <c r="M32" s="50" t="s">
         <v>104</v>
-      </c>
-      <c r="M32" s="50" t="s">
-        <v>105</v>
       </c>
       <c r="N32" s="11">
         <v>18112604296</v>
@@ -4159,19 +4185,19 @@
         <v>37</v>
       </c>
       <c r="D33" s="50" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="F33" s="50" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="G33" s="77">
         <v>76131270</v>
       </c>
-      <c r="H33" s="90" t="s">
-        <v>119</v>
+      <c r="H33" s="89" t="s">
+        <v>114</v>
       </c>
       <c r="I33" s="50" t="s">
         <v>40</v>
@@ -4183,10 +4209,10 @@
         <v>17602558329</v>
       </c>
       <c r="L33" s="50" t="s">
+        <v>103</v>
+      </c>
+      <c r="M33" s="50" t="s">
         <v>104</v>
-      </c>
-      <c r="M33" s="50" t="s">
-        <v>105</v>
       </c>
       <c r="N33" s="11">
         <v>18112604296</v>
@@ -4204,19 +4230,19 @@
         <v>37</v>
       </c>
       <c r="D34" s="50" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="F34" s="50" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="G34" s="77">
         <v>76131271</v>
       </c>
-      <c r="H34" s="90" t="s">
-        <v>120</v>
+      <c r="H34" s="89" t="s">
+        <v>115</v>
       </c>
       <c r="I34" s="50" t="s">
         <v>40</v>
@@ -4228,10 +4254,10 @@
         <v>17602558329</v>
       </c>
       <c r="L34" s="50" t="s">
+        <v>103</v>
+      </c>
+      <c r="M34" s="50" t="s">
         <v>104</v>
-      </c>
-      <c r="M34" s="50" t="s">
-        <v>105</v>
       </c>
       <c r="N34" s="11">
         <v>18112604296</v>
@@ -4249,19 +4275,19 @@
         <v>37</v>
       </c>
       <c r="D35" s="50" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="F35" s="50" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="G35" s="1">
         <v>76131272</v>
       </c>
       <c r="H35" s="50" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="I35" s="50" t="s">
         <v>40</v>
@@ -4273,10 +4299,10 @@
         <v>17602558329</v>
       </c>
       <c r="L35" s="50" t="s">
+        <v>103</v>
+      </c>
+      <c r="M35" s="50" t="s">
         <v>104</v>
-      </c>
-      <c r="M35" s="50" t="s">
-        <v>105</v>
       </c>
       <c r="N35" s="11">
         <v>18112604296</v>
@@ -4294,19 +4320,19 @@
         <v>37</v>
       </c>
       <c r="D36" s="50" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="F36" s="50" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="G36" s="1">
         <v>76133009</v>
       </c>
       <c r="H36" s="50" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="I36" s="50" t="s">
         <v>40</v>
@@ -4318,10 +4344,10 @@
         <v>17602558329</v>
       </c>
       <c r="L36" s="50" t="s">
+        <v>103</v>
+      </c>
+      <c r="M36" s="50" t="s">
         <v>104</v>
-      </c>
-      <c r="M36" s="50" t="s">
-        <v>105</v>
       </c>
       <c r="N36" s="11">
         <v>18112604296</v>
@@ -4339,19 +4365,19 @@
         <v>37</v>
       </c>
       <c r="D37" s="50" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="F37" s="50" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="G37" s="1">
         <v>76133013</v>
       </c>
       <c r="H37" s="50" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="I37" s="50" t="s">
         <v>40</v>
@@ -4363,10 +4389,10 @@
         <v>17602558329</v>
       </c>
       <c r="L37" s="50" t="s">
+        <v>103</v>
+      </c>
+      <c r="M37" s="50" t="s">
         <v>104</v>
-      </c>
-      <c r="M37" s="50" t="s">
-        <v>105</v>
       </c>
       <c r="N37" s="11">
         <v>18112604296</v>
@@ -4376,208 +4402,462 @@
       </c>
     </row>
     <row r="38" spans="1:15">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
-      <c r="L38" s="1"/>
-      <c r="M38" s="1"/>
-      <c r="N38" s="1"/>
-      <c r="O38" s="1"/>
+      <c r="A38" s="105">
+        <v>13</v>
+      </c>
+      <c r="B38" s="60">
+        <v>43187</v>
+      </c>
+      <c r="C38" s="50" t="s">
+        <v>37</v>
+      </c>
+      <c r="D38" s="50" t="s">
+        <v>100</v>
+      </c>
+      <c r="E38" s="50" t="s">
+        <v>169</v>
+      </c>
+      <c r="F38" s="50" t="s">
+        <v>170</v>
+      </c>
+      <c r="G38" s="77">
+        <v>76132026</v>
+      </c>
+      <c r="H38" s="89" t="s">
+        <v>171</v>
+      </c>
+      <c r="I38" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="J38" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="K38" s="11">
+        <v>17602558329</v>
+      </c>
+      <c r="L38" s="50" t="s">
+        <v>103</v>
+      </c>
+      <c r="M38" s="50" t="s">
+        <v>104</v>
+      </c>
+      <c r="N38" s="1">
+        <v>18020275119</v>
+      </c>
+      <c r="O38" s="11" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="39" spans="1:15">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
-      <c r="L39" s="1"/>
-      <c r="M39" s="1"/>
-      <c r="N39" s="1"/>
-      <c r="O39" s="1"/>
+      <c r="A39" s="106"/>
+      <c r="B39" s="60">
+        <v>43187</v>
+      </c>
+      <c r="C39" s="50" t="s">
+        <v>37</v>
+      </c>
+      <c r="D39" s="50" t="s">
+        <v>100</v>
+      </c>
+      <c r="E39" s="50" t="s">
+        <v>169</v>
+      </c>
+      <c r="F39" s="50" t="s">
+        <v>170</v>
+      </c>
+      <c r="G39" s="77">
+        <v>76132028</v>
+      </c>
+      <c r="H39" s="89" t="s">
+        <v>172</v>
+      </c>
+      <c r="I39" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="J39" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="K39" s="11">
+        <v>17602558329</v>
+      </c>
+      <c r="L39" s="50" t="s">
+        <v>103</v>
+      </c>
+      <c r="M39" s="50" t="s">
+        <v>104</v>
+      </c>
+      <c r="N39" s="11">
+        <v>18020275119</v>
+      </c>
+      <c r="O39" s="11" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="40" spans="1:15">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
-      <c r="K40" s="1"/>
-      <c r="L40" s="1"/>
-      <c r="M40" s="1"/>
-      <c r="N40" s="1"/>
-      <c r="O40" s="1"/>
+      <c r="A40" s="106"/>
+      <c r="B40" s="60">
+        <v>43187</v>
+      </c>
+      <c r="C40" s="50" t="s">
+        <v>37</v>
+      </c>
+      <c r="D40" s="50" t="s">
+        <v>100</v>
+      </c>
+      <c r="E40" s="50" t="s">
+        <v>169</v>
+      </c>
+      <c r="F40" s="50" t="s">
+        <v>170</v>
+      </c>
+      <c r="G40" s="77">
+        <v>76132029</v>
+      </c>
+      <c r="H40" s="89" t="s">
+        <v>173</v>
+      </c>
+      <c r="I40" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="J40" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="K40" s="11">
+        <v>17602558329</v>
+      </c>
+      <c r="L40" s="50" t="s">
+        <v>103</v>
+      </c>
+      <c r="M40" s="50" t="s">
+        <v>104</v>
+      </c>
+      <c r="N40" s="11">
+        <v>18020275119</v>
+      </c>
+      <c r="O40" s="11" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="41" spans="1:15">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
-      <c r="K41" s="1"/>
-      <c r="L41" s="1"/>
-      <c r="M41" s="1"/>
-      <c r="N41" s="1"/>
-      <c r="O41" s="1"/>
+      <c r="A41" s="106"/>
+      <c r="B41" s="60">
+        <v>43187</v>
+      </c>
+      <c r="C41" s="50" t="s">
+        <v>37</v>
+      </c>
+      <c r="D41" s="50" t="s">
+        <v>100</v>
+      </c>
+      <c r="E41" s="50" t="s">
+        <v>169</v>
+      </c>
+      <c r="F41" s="50" t="s">
+        <v>170</v>
+      </c>
+      <c r="G41" s="77">
+        <v>76132057</v>
+      </c>
+      <c r="H41" s="89" t="s">
+        <v>174</v>
+      </c>
+      <c r="I41" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="J41" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="K41" s="11">
+        <v>17602558329</v>
+      </c>
+      <c r="L41" s="50" t="s">
+        <v>103</v>
+      </c>
+      <c r="M41" s="50" t="s">
+        <v>104</v>
+      </c>
+      <c r="N41" s="11">
+        <v>18020275119</v>
+      </c>
+      <c r="O41" s="11" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="42" spans="1:15">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
-      <c r="K42" s="1"/>
-      <c r="L42" s="1"/>
-      <c r="M42" s="1"/>
-      <c r="N42" s="1"/>
-      <c r="O42" s="1"/>
+      <c r="A42" s="106"/>
+      <c r="B42" s="60">
+        <v>43187</v>
+      </c>
+      <c r="C42" s="50" t="s">
+        <v>37</v>
+      </c>
+      <c r="D42" s="50" t="s">
+        <v>100</v>
+      </c>
+      <c r="E42" s="50" t="s">
+        <v>169</v>
+      </c>
+      <c r="F42" s="50" t="s">
+        <v>170</v>
+      </c>
+      <c r="G42" s="77">
+        <v>76132060</v>
+      </c>
+      <c r="H42" s="89" t="s">
+        <v>175</v>
+      </c>
+      <c r="I42" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="J42" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="K42" s="11">
+        <v>17602558329</v>
+      </c>
+      <c r="L42" s="50" t="s">
+        <v>103</v>
+      </c>
+      <c r="M42" s="50" t="s">
+        <v>104</v>
+      </c>
+      <c r="N42" s="11">
+        <v>18020275119</v>
+      </c>
+      <c r="O42" s="11" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="43" spans="1:15">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
-      <c r="K43" s="1"/>
-      <c r="L43" s="1"/>
-      <c r="M43" s="1"/>
-      <c r="N43" s="1"/>
-      <c r="O43" s="1"/>
+      <c r="A43" s="106"/>
+      <c r="B43" s="60">
+        <v>43187</v>
+      </c>
+      <c r="C43" s="50" t="s">
+        <v>37</v>
+      </c>
+      <c r="D43" s="50" t="s">
+        <v>100</v>
+      </c>
+      <c r="E43" s="50" t="s">
+        <v>169</v>
+      </c>
+      <c r="F43" s="50" t="s">
+        <v>170</v>
+      </c>
+      <c r="G43" s="77">
+        <v>76132061</v>
+      </c>
+      <c r="H43" s="89" t="s">
+        <v>176</v>
+      </c>
+      <c r="I43" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="J43" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="K43" s="11">
+        <v>17602558329</v>
+      </c>
+      <c r="L43" s="50" t="s">
+        <v>103</v>
+      </c>
+      <c r="M43" s="50" t="s">
+        <v>104</v>
+      </c>
+      <c r="N43" s="11">
+        <v>18020275119</v>
+      </c>
+      <c r="O43" s="11" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="44" spans="1:15">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
-      <c r="J44" s="1"/>
-      <c r="K44" s="1"/>
-      <c r="L44" s="1"/>
-      <c r="M44" s="1"/>
-      <c r="N44" s="1"/>
-      <c r="O44" s="1"/>
+      <c r="A44" s="106"/>
+      <c r="B44" s="60">
+        <v>43187</v>
+      </c>
+      <c r="C44" s="50" t="s">
+        <v>37</v>
+      </c>
+      <c r="D44" s="50" t="s">
+        <v>100</v>
+      </c>
+      <c r="E44" s="50" t="s">
+        <v>169</v>
+      </c>
+      <c r="F44" s="50" t="s">
+        <v>170</v>
+      </c>
+      <c r="G44" s="77">
+        <v>76132063</v>
+      </c>
+      <c r="H44" s="89" t="s">
+        <v>177</v>
+      </c>
+      <c r="I44" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="J44" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="K44" s="11">
+        <v>17602558329</v>
+      </c>
+      <c r="L44" s="50" t="s">
+        <v>103</v>
+      </c>
+      <c r="M44" s="50" t="s">
+        <v>104</v>
+      </c>
+      <c r="N44" s="11">
+        <v>18020275119</v>
+      </c>
+      <c r="O44" s="11" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="45" spans="1:15">
-      <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
-      <c r="I45" s="1"/>
-      <c r="J45" s="1"/>
-      <c r="K45" s="1"/>
-      <c r="L45" s="1"/>
-      <c r="M45" s="1"/>
-      <c r="N45" s="1"/>
-      <c r="O45" s="1"/>
+      <c r="A45" s="106"/>
+      <c r="B45" s="60">
+        <v>43187</v>
+      </c>
+      <c r="C45" s="50" t="s">
+        <v>37</v>
+      </c>
+      <c r="D45" s="50" t="s">
+        <v>100</v>
+      </c>
+      <c r="E45" s="50" t="s">
+        <v>169</v>
+      </c>
+      <c r="F45" s="50" t="s">
+        <v>170</v>
+      </c>
+      <c r="G45" s="77">
+        <v>76132065</v>
+      </c>
+      <c r="H45" s="89" t="s">
+        <v>178</v>
+      </c>
+      <c r="I45" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="J45" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="K45" s="11">
+        <v>17602558329</v>
+      </c>
+      <c r="L45" s="50" t="s">
+        <v>103</v>
+      </c>
+      <c r="M45" s="50" t="s">
+        <v>104</v>
+      </c>
+      <c r="N45" s="11">
+        <v>18020275119</v>
+      </c>
+      <c r="O45" s="11" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="46" spans="1:15">
-      <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
-      <c r="J46" s="1"/>
-      <c r="K46" s="1"/>
-      <c r="L46" s="1"/>
-      <c r="M46" s="1"/>
-      <c r="N46" s="1"/>
-      <c r="O46" s="1"/>
+      <c r="A46" s="106"/>
+      <c r="B46" s="60">
+        <v>43187</v>
+      </c>
+      <c r="C46" s="50" t="s">
+        <v>37</v>
+      </c>
+      <c r="D46" s="50" t="s">
+        <v>100</v>
+      </c>
+      <c r="E46" s="50" t="s">
+        <v>169</v>
+      </c>
+      <c r="F46" s="50" t="s">
+        <v>170</v>
+      </c>
+      <c r="G46" s="77">
+        <v>76132289</v>
+      </c>
+      <c r="H46" s="89" t="s">
+        <v>179</v>
+      </c>
+      <c r="I46" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="J46" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="K46" s="11">
+        <v>17602558329</v>
+      </c>
+      <c r="L46" s="50" t="s">
+        <v>103</v>
+      </c>
+      <c r="M46" s="50" t="s">
+        <v>104</v>
+      </c>
+      <c r="N46" s="11">
+        <v>18020275119</v>
+      </c>
+      <c r="O46" s="11" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="47" spans="1:15">
-      <c r="A47" s="1"/>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
-      <c r="I47" s="1"/>
-      <c r="J47" s="1"/>
-      <c r="K47" s="1"/>
-      <c r="L47" s="1"/>
-      <c r="M47" s="1"/>
-      <c r="N47" s="1"/>
-      <c r="O47" s="1"/>
+      <c r="A47" s="108"/>
+      <c r="B47" s="60"/>
+      <c r="C47" s="50"/>
+      <c r="D47" s="50"/>
+      <c r="E47" s="50"/>
+      <c r="F47" s="50"/>
+      <c r="G47" s="77"/>
+      <c r="H47" s="89"/>
+      <c r="I47" s="50"/>
+      <c r="J47" s="50"/>
+      <c r="K47" s="11"/>
+      <c r="L47" s="50"/>
+      <c r="M47" s="50"/>
+      <c r="N47" s="11"/>
+      <c r="O47" s="11"/>
     </row>
     <row r="48" spans="1:15">
       <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
-      <c r="H48" s="1"/>
-      <c r="I48" s="1"/>
-      <c r="J48" s="1"/>
-      <c r="K48" s="1"/>
-      <c r="L48" s="1"/>
-      <c r="M48" s="1"/>
-      <c r="N48" s="1"/>
-      <c r="O48" s="1"/>
+      <c r="B48" s="60"/>
+      <c r="C48" s="50"/>
+      <c r="D48" s="50"/>
+      <c r="E48" s="50"/>
+      <c r="F48" s="50"/>
+      <c r="G48" s="77"/>
+      <c r="H48" s="89"/>
+      <c r="I48" s="50"/>
+      <c r="J48" s="50"/>
+      <c r="K48" s="11"/>
+      <c r="L48" s="50"/>
+      <c r="M48" s="50"/>
+      <c r="N48" s="11"/>
+      <c r="O48" s="11"/>
     </row>
     <row r="49" spans="1:15">
       <c r="A49" s="1"/>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
-      <c r="I49" s="1"/>
-      <c r="J49" s="1"/>
-      <c r="K49" s="1"/>
-      <c r="L49" s="1"/>
-      <c r="M49" s="1"/>
-      <c r="N49" s="1"/>
-      <c r="O49" s="1"/>
+      <c r="B49" s="60"/>
+      <c r="C49" s="50"/>
+      <c r="D49" s="50"/>
+      <c r="E49" s="50"/>
+      <c r="F49" s="50"/>
+      <c r="G49" s="77"/>
+      <c r="H49" s="89"/>
+      <c r="I49" s="50"/>
+      <c r="J49" s="50"/>
+      <c r="K49" s="11"/>
+      <c r="L49" s="50"/>
+      <c r="M49" s="50"/>
+      <c r="N49" s="11"/>
+      <c r="O49" s="11"/>
     </row>
     <row r="50" spans="1:15">
       <c r="A50" s="1"/>
@@ -8864,16 +9144,17 @@
       <c r="O301" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
     <mergeCell ref="A31:A37"/>
     <mergeCell ref="A18:A23"/>
     <mergeCell ref="A24:A28"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="A12:A14"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A38:A46"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <dataValidations count="2">
@@ -8891,7 +9172,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G68"/>
+  <dimension ref="A1:G63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
@@ -8936,13 +9217,13 @@
         <v>4</v>
       </c>
       <c r="B2" s="85" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C2" s="87">
         <v>43126</v>
       </c>
       <c r="D2" s="86" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E2" s="11" t="s">
         <v>51</v>
@@ -8951,19 +9232,19 @@
         <v>52</v>
       </c>
       <c r="G2" s="50" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="107"/>
       <c r="B3" s="85" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C3" s="87">
         <v>43126</v>
       </c>
       <c r="D3" s="86" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E3" s="11" t="s">
         <v>51</v>
@@ -8972,136 +9253,74 @@
         <v>52</v>
       </c>
       <c r="G3" s="50" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="108">
-        <v>8</v>
-      </c>
-      <c r="B4" s="88" t="s">
-        <v>117</v>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="27">
+      <c r="A4" s="95"/>
+      <c r="B4" s="57" t="s">
+        <v>116</v>
       </c>
       <c r="C4" s="87">
         <v>43123</v>
       </c>
       <c r="D4" s="51" t="s">
-        <v>123</v>
+        <v>168</v>
       </c>
       <c r="E4" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="F4" s="50" t="s">
-        <v>124</v>
+      <c r="F4" s="11" t="s">
+        <v>117</v>
       </c>
       <c r="G4" s="50" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="108"/>
-      <c r="B5" s="88" t="s">
-        <v>118</v>
-      </c>
-      <c r="C5" s="87">
-        <v>43123</v>
-      </c>
-      <c r="D5" s="51" t="s">
-        <v>123</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="F5" s="50" t="s">
-        <v>124</v>
-      </c>
-      <c r="G5" s="50" t="s">
-        <v>125</v>
-      </c>
+      <c r="A5" s="84"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="108"/>
-      <c r="B6" s="88" t="s">
-        <v>119</v>
-      </c>
-      <c r="C6" s="87">
-        <v>43123</v>
-      </c>
-      <c r="D6" s="51" t="s">
-        <v>123</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="F6" s="50" t="s">
-        <v>124</v>
-      </c>
-      <c r="G6" s="50" t="s">
-        <v>125</v>
-      </c>
+      <c r="A6" s="84"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="108"/>
-      <c r="B7" s="88" t="s">
-        <v>120</v>
-      </c>
-      <c r="C7" s="87">
-        <v>43123</v>
-      </c>
-      <c r="D7" s="51" t="s">
-        <v>123</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="F7" s="50" t="s">
-        <v>124</v>
-      </c>
-      <c r="G7" s="50" t="s">
-        <v>125</v>
-      </c>
+      <c r="A7" s="84"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="108"/>
-      <c r="B8" s="88" t="s">
-        <v>121</v>
-      </c>
-      <c r="C8" s="87">
-        <v>43123</v>
-      </c>
-      <c r="D8" s="51" t="s">
-        <v>123</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="F8" s="50" t="s">
-        <v>124</v>
-      </c>
-      <c r="G8" s="50" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="27">
-      <c r="A9" s="108"/>
-      <c r="B9" s="57" t="s">
-        <v>122</v>
-      </c>
-      <c r="C9" s="87">
-        <v>43123</v>
-      </c>
-      <c r="D9" s="51" t="s">
-        <v>142</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="G9" s="50" t="s">
-        <v>125</v>
-      </c>
+      <c r="A8" s="84"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="84"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="84"/>
@@ -9123,8 +9342,8 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="84"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
       <c r="D12" s="10"/>
       <c r="E12" s="11"/>
       <c r="F12" s="11"/>
@@ -9132,15 +9351,15 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="84"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
       <c r="D13" s="10"/>
       <c r="E13" s="11"/>
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="84"/>
+      <c r="A14" s="52"/>
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
       <c r="D14" s="10"/>
@@ -9148,68 +9367,68 @@
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
     </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="84"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="10"/>
+    <row r="15" spans="1:7" ht="14.25">
+      <c r="A15" s="105"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="12"/>
       <c r="E15" s="11"/>
       <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="84"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="10"/>
+      <c r="G15" s="9"/>
+    </row>
+    <row r="16" spans="1:7" ht="14.25">
+      <c r="A16" s="106"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="12"/>
       <c r="E16" s="11"/>
       <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
+      <c r="G16" s="4"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="84"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
+      <c r="A17" s="106"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
       <c r="D17" s="10"/>
       <c r="E17" s="11"/>
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="84"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
+      <c r="A18" s="106"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
       <c r="D18" s="10"/>
       <c r="E18" s="11"/>
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="52"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
+      <c r="A19" s="106"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
       <c r="D19" s="10"/>
       <c r="E19" s="11"/>
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
     </row>
-    <row r="20" spans="1:7" ht="14.25">
-      <c r="A20" s="105"/>
+    <row r="20" spans="1:7">
+      <c r="A20" s="106"/>
       <c r="B20" s="9"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="12"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="10"/>
       <c r="E20" s="11"/>
       <c r="F20" s="11"/>
-      <c r="G20" s="9"/>
-    </row>
-    <row r="21" spans="1:7" ht="14.25">
+      <c r="G20" s="11"/>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="106"/>
       <c r="B21" s="9"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="12"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="10"/>
       <c r="E21" s="11"/>
       <c r="F21" s="11"/>
-      <c r="G21" s="4"/>
+      <c r="G21" s="11"/>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="106"/>
@@ -9222,8 +9441,8 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="106"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
       <c r="D23" s="10"/>
       <c r="E23" s="11"/>
       <c r="F23" s="11"/>
@@ -9231,8 +9450,8 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="106"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
       <c r="D24" s="10"/>
       <c r="E24" s="11"/>
       <c r="F24" s="11"/>
@@ -9240,8 +9459,8 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="106"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
       <c r="D25" s="10"/>
       <c r="E25" s="11"/>
       <c r="F25" s="11"/>
@@ -9249,8 +9468,8 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="106"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
       <c r="D26" s="10"/>
       <c r="E26" s="11"/>
       <c r="F26" s="11"/>
@@ -9258,8 +9477,8 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="106"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
       <c r="D27" s="10"/>
       <c r="E27" s="11"/>
       <c r="F27" s="11"/>
@@ -9275,52 +9494,52 @@
       <c r="G28" s="11"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="106"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="11"/>
+      <c r="A29" s="107"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
       <c r="D29" s="10"/>
       <c r="E29" s="11"/>
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
     </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="106"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="10"/>
+    <row r="30" spans="1:7" ht="14.25">
+      <c r="A30" s="105"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="12"/>
       <c r="E30" s="11"/>
       <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-    </row>
-    <row r="31" spans="1:7">
+      <c r="G30" s="9"/>
+    </row>
+    <row r="31" spans="1:7" ht="14.25">
       <c r="A31" s="106"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="10"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="12"/>
       <c r="E31" s="11"/>
       <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-    </row>
-    <row r="32" spans="1:7">
+      <c r="G31" s="4"/>
+    </row>
+    <row r="32" spans="1:7" ht="14.25">
       <c r="A32" s="106"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="10"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="12"/>
       <c r="E32" s="11"/>
       <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-    </row>
-    <row r="33" spans="1:7">
+      <c r="G32" s="4"/>
+    </row>
+    <row r="33" spans="1:7" ht="14.25">
       <c r="A33" s="106"/>
-      <c r="B33" s="11"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="10"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="12"/>
       <c r="E33" s="11"/>
       <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
+      <c r="G33" s="15"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="107"/>
+      <c r="A34" s="106"/>
       <c r="B34" s="9"/>
       <c r="C34" s="9"/>
       <c r="D34" s="10"/>
@@ -9328,41 +9547,41 @@
       <c r="F34" s="11"/>
       <c r="G34" s="11"/>
     </row>
-    <row r="35" spans="1:7" ht="14.25">
-      <c r="A35" s="105"/>
+    <row r="35" spans="1:7">
+      <c r="A35" s="106"/>
       <c r="B35" s="9"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="12"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="10"/>
       <c r="E35" s="11"/>
       <c r="F35" s="11"/>
-      <c r="G35" s="9"/>
-    </row>
-    <row r="36" spans="1:7" ht="14.25">
+      <c r="G35" s="11"/>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="106"/>
       <c r="B36" s="9"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="12"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="10"/>
       <c r="E36" s="11"/>
       <c r="F36" s="11"/>
-      <c r="G36" s="4"/>
-    </row>
-    <row r="37" spans="1:7" ht="14.25">
+      <c r="G36" s="11"/>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="106"/>
       <c r="B37" s="9"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="12"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="10"/>
       <c r="E37" s="11"/>
       <c r="F37" s="11"/>
-      <c r="G37" s="4"/>
-    </row>
-    <row r="38" spans="1:7" ht="14.25">
+      <c r="G37" s="11"/>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="106"/>
       <c r="B38" s="9"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="12"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="10"/>
       <c r="E38" s="11"/>
       <c r="F38" s="11"/>
-      <c r="G38" s="15"/>
+      <c r="G38" s="11"/>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="106"/>
@@ -9383,7 +9602,7 @@
       <c r="G40" s="11"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="106"/>
+      <c r="A41" s="107"/>
       <c r="B41" s="9"/>
       <c r="C41" s="9"/>
       <c r="D41" s="10"/>
@@ -9391,44 +9610,44 @@
       <c r="F41" s="11"/>
       <c r="G41" s="11"/>
     </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="106"/>
+    <row r="42" spans="1:7" ht="14.25">
+      <c r="A42" s="105"/>
       <c r="B42" s="9"/>
-      <c r="C42" s="9"/>
-      <c r="D42" s="10"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="12"/>
       <c r="E42" s="11"/>
       <c r="F42" s="11"/>
-      <c r="G42" s="11"/>
-    </row>
-    <row r="43" spans="1:7">
+      <c r="G42" s="9"/>
+    </row>
+    <row r="43" spans="1:7" ht="14.25">
       <c r="A43" s="106"/>
       <c r="B43" s="9"/>
-      <c r="C43" s="9"/>
-      <c r="D43" s="10"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="12"/>
       <c r="E43" s="11"/>
       <c r="F43" s="11"/>
-      <c r="G43" s="11"/>
-    </row>
-    <row r="44" spans="1:7">
+      <c r="G43" s="4"/>
+    </row>
+    <row r="44" spans="1:7" ht="14.25">
       <c r="A44" s="106"/>
       <c r="B44" s="9"/>
-      <c r="C44" s="9"/>
-      <c r="D44" s="10"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="12"/>
       <c r="E44" s="11"/>
       <c r="F44" s="11"/>
-      <c r="G44" s="11"/>
-    </row>
-    <row r="45" spans="1:7">
+      <c r="G44" s="4"/>
+    </row>
+    <row r="45" spans="1:7" ht="14.25">
       <c r="A45" s="106"/>
       <c r="B45" s="9"/>
-      <c r="C45" s="9"/>
-      <c r="D45" s="10"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="12"/>
       <c r="E45" s="11"/>
       <c r="F45" s="11"/>
-      <c r="G45" s="11"/>
+      <c r="G45" s="15"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="107"/>
+      <c r="A46" s="106"/>
       <c r="B46" s="9"/>
       <c r="C46" s="9"/>
       <c r="D46" s="10"/>
@@ -9436,41 +9655,41 @@
       <c r="F46" s="11"/>
       <c r="G46" s="11"/>
     </row>
-    <row r="47" spans="1:7" ht="14.25">
-      <c r="A47" s="105"/>
+    <row r="47" spans="1:7">
+      <c r="A47" s="106"/>
       <c r="B47" s="9"/>
-      <c r="C47" s="13"/>
-      <c r="D47" s="12"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="10"/>
       <c r="E47" s="11"/>
       <c r="F47" s="11"/>
-      <c r="G47" s="9"/>
-    </row>
-    <row r="48" spans="1:7" ht="14.25">
+      <c r="G47" s="11"/>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="106"/>
       <c r="B48" s="9"/>
-      <c r="C48" s="14"/>
-      <c r="D48" s="12"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="10"/>
       <c r="E48" s="11"/>
       <c r="F48" s="11"/>
-      <c r="G48" s="4"/>
-    </row>
-    <row r="49" spans="1:7" ht="14.25">
+      <c r="G48" s="11"/>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="106"/>
       <c r="B49" s="9"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="12"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="10"/>
       <c r="E49" s="11"/>
       <c r="F49" s="11"/>
-      <c r="G49" s="4"/>
-    </row>
-    <row r="50" spans="1:7" ht="14.25">
+      <c r="G49" s="11"/>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="106"/>
       <c r="B50" s="9"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="12"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="10"/>
       <c r="E50" s="11"/>
       <c r="F50" s="11"/>
-      <c r="G50" s="15"/>
+      <c r="G50" s="11"/>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="106"/>
@@ -9491,7 +9710,7 @@
       <c r="G52" s="11"/>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="106"/>
+      <c r="A53" s="107"/>
       <c r="B53" s="9"/>
       <c r="C53" s="9"/>
       <c r="D53" s="10"/>
@@ -9499,23 +9718,23 @@
       <c r="F53" s="11"/>
       <c r="G53" s="11"/>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" ht="14.25">
       <c r="A54" s="106"/>
       <c r="B54" s="9"/>
-      <c r="C54" s="9"/>
-      <c r="D54" s="10"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="12"/>
       <c r="E54" s="11"/>
       <c r="F54" s="11"/>
-      <c r="G54" s="11"/>
-    </row>
-    <row r="55" spans="1:7">
+      <c r="G54" s="4"/>
+    </row>
+    <row r="55" spans="1:7" ht="14.25">
       <c r="A55" s="106"/>
       <c r="B55" s="9"/>
-      <c r="C55" s="9"/>
-      <c r="D55" s="10"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="12"/>
       <c r="E55" s="11"/>
       <c r="F55" s="11"/>
-      <c r="G55" s="11"/>
+      <c r="G55" s="15"/>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="106"/>
@@ -9536,7 +9755,7 @@
       <c r="G57" s="11"/>
     </row>
     <row r="58" spans="1:7">
-      <c r="A58" s="107"/>
+      <c r="A58" s="106"/>
       <c r="B58" s="9"/>
       <c r="C58" s="9"/>
       <c r="D58" s="10"/>
@@ -9544,23 +9763,23 @@
       <c r="F58" s="11"/>
       <c r="G58" s="11"/>
     </row>
-    <row r="59" spans="1:7" ht="14.25">
+    <row r="59" spans="1:7">
       <c r="A59" s="106"/>
       <c r="B59" s="9"/>
-      <c r="C59" s="14"/>
-      <c r="D59" s="12"/>
+      <c r="C59" s="9"/>
+      <c r="D59" s="10"/>
       <c r="E59" s="11"/>
       <c r="F59" s="11"/>
-      <c r="G59" s="4"/>
-    </row>
-    <row r="60" spans="1:7" ht="14.25">
+      <c r="G59" s="11"/>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="106"/>
       <c r="B60" s="9"/>
-      <c r="C60" s="14"/>
-      <c r="D60" s="12"/>
+      <c r="C60" s="9"/>
+      <c r="D60" s="10"/>
       <c r="E60" s="11"/>
       <c r="F60" s="11"/>
-      <c r="G60" s="15"/>
+      <c r="G60" s="11"/>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="106"/>
@@ -9581,7 +9800,7 @@
       <c r="G62" s="11"/>
     </row>
     <row r="63" spans="1:7">
-      <c r="A63" s="106"/>
+      <c r="A63" s="107"/>
       <c r="B63" s="9"/>
       <c r="C63" s="9"/>
       <c r="D63" s="10"/>
@@ -9589,59 +9808,13 @@
       <c r="F63" s="11"/>
       <c r="G63" s="11"/>
     </row>
-    <row r="64" spans="1:7">
-      <c r="A64" s="106"/>
-      <c r="B64" s="9"/>
-      <c r="C64" s="9"/>
-      <c r="D64" s="10"/>
-      <c r="E64" s="11"/>
-      <c r="F64" s="11"/>
-      <c r="G64" s="11"/>
-    </row>
-    <row r="65" spans="1:7">
-      <c r="A65" s="106"/>
-      <c r="B65" s="9"/>
-      <c r="C65" s="9"/>
-      <c r="D65" s="10"/>
-      <c r="E65" s="11"/>
-      <c r="F65" s="11"/>
-      <c r="G65" s="11"/>
-    </row>
-    <row r="66" spans="1:7">
-      <c r="A66" s="106"/>
-      <c r="B66" s="9"/>
-      <c r="C66" s="9"/>
-      <c r="D66" s="10"/>
-      <c r="E66" s="11"/>
-      <c r="F66" s="11"/>
-      <c r="G66" s="11"/>
-    </row>
-    <row r="67" spans="1:7">
-      <c r="A67" s="106"/>
-      <c r="B67" s="9"/>
-      <c r="C67" s="9"/>
-      <c r="D67" s="10"/>
-      <c r="E67" s="11"/>
-      <c r="F67" s="11"/>
-      <c r="G67" s="11"/>
-    </row>
-    <row r="68" spans="1:7">
-      <c r="A68" s="107"/>
-      <c r="B68" s="9"/>
-      <c r="C68" s="9"/>
-      <c r="D68" s="10"/>
-      <c r="E68" s="11"/>
-      <c r="F68" s="11"/>
-      <c r="G68" s="11"/>
-    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="5">
     <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A47:A58"/>
-    <mergeCell ref="A59:A68"/>
-    <mergeCell ref="A20:A34"/>
-    <mergeCell ref="A35:A46"/>
-    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A42:A53"/>
+    <mergeCell ref="A54:A63"/>
+    <mergeCell ref="A15:A29"/>
+    <mergeCell ref="A30:A41"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <dataValidations count="3">
@@ -9660,7 +9833,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
@@ -9695,18 +9868,18 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="4">
-        <v>12</v>
-      </c>
-      <c r="B2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="81" t="s">
         <v>43</v>
       </c>
       <c r="C2" s="82">
-        <v>43099</v>
+        <v>43127</v>
       </c>
       <c r="D2" s="73" t="s">
-        <v>75</v>
-      </c>
-      <c r="E2" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E2" s="81" t="s">
         <v>54</v>
       </c>
     </row>
@@ -9718,58 +9891,24 @@
         <v>43</v>
       </c>
       <c r="C3" s="82">
-        <v>43127</v>
+        <v>43128</v>
       </c>
       <c r="D3" s="73" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E3" s="81" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="4">
-        <v>1</v>
-      </c>
-      <c r="B4" s="81" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" s="82">
-        <v>43128</v>
-      </c>
-      <c r="D4" s="73" t="s">
-        <v>91</v>
-      </c>
-      <c r="E4" s="81" t="s">
-        <v>54</v>
-      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="54"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="4">
-        <v>2</v>
-      </c>
-      <c r="B5" s="57" t="s">
-        <v>113</v>
-      </c>
-      <c r="C5" s="82">
-        <v>43144</v>
-      </c>
-      <c r="D5" s="73" t="s">
-        <v>114</v>
-      </c>
-      <c r="E5" s="57" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="54"/>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="54"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="54"/>
     </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>

--- a/周数据/《个人上线率统计表》-黄纯伟.xlsx
+++ b/周数据/《个人上线率统计表》-黄纯伟.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="193">
   <si>
     <t>个人上线率分析表</t>
   </si>
@@ -185,9 +185,6 @@
   </si>
   <si>
     <t>连锁</t>
-  </si>
-  <si>
-    <t>SAAS</t>
   </si>
   <si>
     <t>加班地点/商户名称</t>
@@ -409,22 +406,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>沈芳芳</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>怒烤烤串（南京富春江东街店）</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>怒烤烤串（慈溪银泰店）</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>跟商户约时间实施</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>有点烫金鸡湖欧尚店</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -434,10 +415,6 @@
   </si>
   <si>
     <t>有点烫苏州中心店</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>跟商户约时间远程实施</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
@@ -659,10 +636,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>店铺签约100家，目前还有62家未开户，23家未上线，15家已上线</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>三千粉</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -705,6 +678,132 @@
   <si>
     <t>三千粉苏州东环路大润发店</t>
     <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>三千粉苏州木渎大润发店</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>三千粉苏州三香路家乐福店</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>三千粉苏州相城圆融店</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>饺翻天</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>泰州</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>启东</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>饺翻天南通启东大润发店</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>饺翻天泰州万达广场店</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>店铺签约100家，目前还有59家未开户，12家未上线，29家已上线</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>无锡六府餐饮管理有限公司</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>店铺签约100家，目前还有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>96</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>家未开户，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>家未上线</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>无锡/六府餐饮</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>南京兴济鸿贸易有限公司</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>南京</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>慈溪</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>怒烤烤串（南京富春江东街店）</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>怒烤烤串（慈溪银泰店）</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>张立</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>叶佳宁</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>老板</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -714,7 +813,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -818,13 +917,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -882,7 +974,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="33">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -985,21 +1077,6 @@
       </right>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4" tint="0.39994506668294322"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1209,6 +1286,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -1218,104 +1304,18 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left/>
+      <right style="thin">
         <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
       </right>
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1324,7 +1324,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1364,7 +1364,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1391,7 +1391,7 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1403,37 +1403,37 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1448,31 +1448,31 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="8" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="8" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="9" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="8" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="8" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="9" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
@@ -1484,16 +1484,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1506,7 +1503,7 @@
     <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1515,140 +1512,140 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="8" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="9" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="9" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1922,9 +1919,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M20"/>
+  <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
@@ -1945,24 +1942,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15" thickBot="1">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97"/>
-      <c r="J1" s="98"/>
-      <c r="K1" s="97"/>
-      <c r="L1" s="97"/>
-      <c r="M1" s="99"/>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="90"/>
+      <c r="L1" s="90"/>
+      <c r="M1" s="92"/>
     </row>
     <row r="2" spans="1:13" ht="14.25" thickBot="1">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="98" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="22" t="s">
@@ -2006,8 +2003,8 @@
       <c r="A3" s="100">
         <v>12</v>
       </c>
-      <c r="B3" s="69">
-        <v>50</v>
+      <c r="B3" s="67">
+        <v>51</v>
       </c>
       <c r="C3" s="27">
         <v>3</v>
@@ -2022,7 +2019,7 @@
       <c r="F3" s="29"/>
       <c r="G3" s="30"/>
       <c r="H3" s="29">
-        <f>F3-G3</f>
+        <f t="shared" ref="H3:H7" si="0">F3-G3</f>
         <v>0</v>
       </c>
       <c r="I3" s="40"/>
@@ -2031,71 +2028,75 @@
         <v>0</v>
       </c>
       <c r="K3" s="42">
-        <f>C3+G3</f>
+        <f t="shared" ref="K3:K7" si="1">C3+G3</f>
         <v>3</v>
       </c>
       <c r="L3" s="43">
-        <f>D3+G3</f>
+        <f t="shared" ref="L3:L7" si="2">D3+G3</f>
         <v>2</v>
       </c>
       <c r="M3" s="44">
-        <f>L3/K3*100%</f>
+        <f t="shared" ref="M3:M7" si="3">L3/K3*100%</f>
         <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="101"/>
-      <c r="B4" s="70">
-        <v>51</v>
+      <c r="B4" s="67">
+        <v>52</v>
       </c>
       <c r="C4" s="27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" s="28">
-        <f>C4-D4</f>
-        <v>3</v>
+        <f t="shared" ref="E4:E7" si="4">C4-D4</f>
+        <v>1</v>
       </c>
       <c r="F4" s="29"/>
       <c r="G4" s="30"/>
       <c r="H4" s="29">
-        <f t="shared" ref="H4:H8" si="0">F4-G4</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I4" s="40"/>
-      <c r="J4" s="41" t="e">
-        <f>I4/L4*100%</f>
-        <v>#DIV/0!</v>
+      <c r="I4" s="40">
+        <v>1</v>
+      </c>
+      <c r="J4" s="41">
+        <f t="shared" ref="J4:J7" si="5">I4/L4*100%</f>
+        <v>1</v>
       </c>
       <c r="K4" s="42">
-        <f t="shared" ref="K4:K8" si="1">C4+G4</f>
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="L4" s="43">
-        <f t="shared" ref="L4:L8" si="2">D4+G4</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="M4" s="44">
-        <f t="shared" ref="M4:M8" si="3">L4/K4*100%</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>0.5</v>
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="101"/>
-      <c r="B5" s="70">
-        <v>52</v>
+      <c r="A5" s="97">
+        <v>1</v>
+      </c>
+      <c r="B5" s="67">
+        <v>1</v>
       </c>
       <c r="C5" s="27">
         <v>2</v>
       </c>
       <c r="D5" s="28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E5" s="28">
-        <f t="shared" ref="E5:E8" si="4">C5-D5</f>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="F5" s="29"/>
       <c r="G5" s="30"/>
@@ -2104,10 +2105,10 @@
         <v>0</v>
       </c>
       <c r="I5" s="40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J5" s="41">
-        <f t="shared" ref="J5:J8" si="5">I5/L5*100%</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="K5" s="42">
@@ -2116,25 +2117,23 @@
       </c>
       <c r="L5" s="43">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M5" s="44">
         <f t="shared" si="3"/>
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="102">
-        <v>1</v>
-      </c>
-      <c r="B6" s="70">
-        <v>1</v>
+      <c r="A6" s="97"/>
+      <c r="B6" s="67">
+        <v>2</v>
       </c>
       <c r="C6" s="27">
+        <v>4</v>
+      </c>
+      <c r="D6" s="28">
         <v>2</v>
-      </c>
-      <c r="D6" s="28">
-        <v>0</v>
       </c>
       <c r="E6" s="28">
         <f t="shared" si="4"/>
@@ -2147,201 +2146,205 @@
         <v>0</v>
       </c>
       <c r="I6" s="40">
-        <v>2</v>
-      </c>
-      <c r="J6" s="41" t="e">
+        <v>1</v>
+      </c>
+      <c r="J6" s="41">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>0.5</v>
       </c>
       <c r="K6" s="42">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L6" s="43">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M6" s="44">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="103"/>
-      <c r="B7" s="70">
+      <c r="A7" s="97"/>
+      <c r="B7" s="67">
+        <v>3</v>
+      </c>
+      <c r="C7" s="27">
         <v>2</v>
-      </c>
-      <c r="C7" s="27">
-        <v>4</v>
       </c>
       <c r="D7" s="28">
         <v>2</v>
       </c>
       <c r="E7" s="28">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F7" s="29"/>
-      <c r="G7" s="30"/>
+      <c r="G7" s="29"/>
       <c r="H7" s="29">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I7" s="40">
+        <v>2</v>
+      </c>
+      <c r="J7" s="63">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="J7" s="41">
-        <f t="shared" si="5"/>
-        <v>0.5</v>
-      </c>
-      <c r="K7" s="42">
+      <c r="K7" s="64">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="L7" s="43">
+        <v>2</v>
+      </c>
+      <c r="L7" s="65">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="M7" s="44">
-        <f t="shared" si="3"/>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="104"/>
-      <c r="B8" s="70">
-        <v>3</v>
-      </c>
-      <c r="C8" s="27">
-        <v>2</v>
-      </c>
-      <c r="D8" s="28">
-        <v>2</v>
-      </c>
-      <c r="E8" s="28">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I8" s="40">
-        <v>2</v>
-      </c>
-      <c r="J8" s="64">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="K8" s="65">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="L8" s="66">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="M8" s="67">
+      <c r="M7" s="66">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="97"/>
+      <c r="B8" s="68">
+        <v>4</v>
+      </c>
+      <c r="C8" s="60">
+        <v>100</v>
+      </c>
+      <c r="D8" s="61">
+        <v>1</v>
+      </c>
+      <c r="E8" s="61">
+        <f t="shared" ref="E8:E13" si="6">C8-D8</f>
+        <v>99</v>
+      </c>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30">
+        <f>F8-G8</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="62">
+        <v>1</v>
+      </c>
+      <c r="J8" s="41">
+        <f>I8/L8*100%</f>
+        <v>1</v>
+      </c>
+      <c r="K8" s="42">
+        <f>C8+G8</f>
+        <v>100</v>
+      </c>
+      <c r="L8" s="43">
+        <f>D8+G8</f>
+        <v>1</v>
+      </c>
+      <c r="M8" s="44">
+        <f>L8/K8*100%</f>
+        <v>0.01</v>
+      </c>
+    </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="74"/>
-      <c r="B9" s="71">
-        <v>4</v>
-      </c>
-      <c r="C9" s="61">
+      <c r="A9" s="97"/>
+      <c r="B9" s="67">
+        <v>5</v>
+      </c>
+      <c r="C9" s="27">
         <v>1</v>
       </c>
-      <c r="D9" s="62">
-        <v>1</v>
-      </c>
-      <c r="E9" s="62">
-        <f t="shared" ref="E9:E14" si="6">C9-D9</f>
+      <c r="D9" s="28">
+        <v>3</v>
+      </c>
+      <c r="E9" s="28">
+        <f t="shared" si="6"/>
+        <v>-2</v>
+      </c>
+      <c r="F9" s="29"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="29">
+        <f t="shared" ref="H9:H13" si="7">F9-G9</f>
         <v>0</v>
       </c>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30">
-        <f>F9-G9</f>
-        <v>0</v>
-      </c>
-      <c r="I9" s="63">
+      <c r="I9" s="40">
         <v>1</v>
       </c>
       <c r="J9" s="41">
         <f>I9/L9*100%</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="K9" s="42">
+        <f t="shared" ref="K9:K13" si="8">C9+G9</f>
         <v>1</v>
       </c>
-      <c r="K9" s="42">
-        <f>C9+G9</f>
-        <v>1</v>
-      </c>
       <c r="L9" s="43">
-        <f>D9+G9</f>
-        <v>1</v>
+        <f t="shared" ref="L9:L13" si="9">D9+G9</f>
+        <v>3</v>
       </c>
       <c r="M9" s="44">
-        <f>L9/K9*100%</f>
-        <v>1</v>
+        <f t="shared" ref="M9:M13" si="10">L9/K9*100%</f>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="75"/>
-      <c r="B10" s="70">
-        <v>5</v>
+      <c r="A10" s="99">
+        <v>2</v>
+      </c>
+      <c r="B10" s="67">
+        <v>6</v>
       </c>
       <c r="C10" s="27">
         <v>1</v>
       </c>
       <c r="D10" s="28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E10" s="28">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f>C10-D10</f>
+        <v>-1</v>
       </c>
       <c r="F10" s="29"/>
       <c r="G10" s="30"/>
       <c r="H10" s="29">
-        <f t="shared" ref="H10:H14" si="7">F10-G10</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I10" s="40"/>
+      <c r="I10" s="40">
+        <v>2</v>
+      </c>
       <c r="J10" s="41">
-        <f>I10/L10*100%</f>
+        <f t="shared" ref="J10:J13" si="11">I10/L10*100%</f>
+        <v>1</v>
+      </c>
+      <c r="K10" s="42">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="L10" s="43">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="M10" s="44">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="99"/>
+      <c r="B11" s="67">
+        <v>7</v>
+      </c>
+      <c r="C11" s="27">
         <v>0</v>
       </c>
-      <c r="K10" s="42">
-        <f t="shared" ref="K10:K14" si="8">C10+G10</f>
-        <v>1</v>
-      </c>
-      <c r="L10" s="43">
-        <f t="shared" ref="L10:L14" si="9">D10+G10</f>
-        <v>1</v>
-      </c>
-      <c r="M10" s="44">
-        <f t="shared" ref="M10:M14" si="10">L10/K10*100%</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" s="75"/>
-      <c r="B11" s="70">
-        <v>6</v>
-      </c>
-      <c r="C11" s="27">
-        <v>1</v>
-      </c>
       <c r="D11" s="28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E11" s="28">
-        <f>C11-D11</f>
-        <v>-1</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="F11" s="29"/>
       <c r="G11" s="30"/>
@@ -2350,37 +2353,37 @@
         <v>0</v>
       </c>
       <c r="I11" s="40"/>
-      <c r="J11" s="41">
-        <f t="shared" ref="J11:J14" si="11">I11/L11*100%</f>
-        <v>0</v>
+      <c r="J11" s="41" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="K11" s="42">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L11" s="43">
         <f t="shared" si="9"/>
-        <v>2</v>
-      </c>
-      <c r="M11" s="44">
+        <v>0</v>
+      </c>
+      <c r="M11" s="44" t="e">
         <f t="shared" si="10"/>
-        <v>2</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="75"/>
-      <c r="B12" s="70">
-        <v>7</v>
+      <c r="A12" s="99"/>
+      <c r="B12" s="67">
+        <v>8</v>
       </c>
       <c r="C12" s="27">
         <v>0</v>
       </c>
       <c r="D12" s="28">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E12" s="28">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>-6</v>
       </c>
       <c r="F12" s="29"/>
       <c r="G12" s="30"/>
@@ -2388,10 +2391,12 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I12" s="40"/>
-      <c r="J12" s="41" t="e">
+      <c r="I12" s="40">
+        <v>5</v>
+      </c>
+      <c r="J12" s="41">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="K12" s="42">
         <f t="shared" si="8"/>
@@ -2399,94 +2404,99 @@
       </c>
       <c r="L12" s="43">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M12" s="44" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
-      <c r="A13" s="75"/>
-      <c r="B13" s="70">
-        <v>8</v>
+    <row r="13" spans="1:13" ht="14.25" thickBot="1">
+      <c r="A13" s="99"/>
+      <c r="B13" s="69">
+        <v>9</v>
       </c>
       <c r="C13" s="27">
         <v>0</v>
       </c>
-      <c r="D13" s="28">
-        <v>6</v>
-      </c>
-      <c r="E13" s="28">
+      <c r="D13" s="32">
+        <v>5</v>
+      </c>
+      <c r="E13" s="32">
         <f t="shared" si="6"/>
-        <v>-6</v>
-      </c>
-      <c r="F13" s="29"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="29">
+        <v>-5</v>
+      </c>
+      <c r="F13" s="33"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="33">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I13" s="40"/>
-      <c r="J13" s="41">
+      <c r="I13" s="45">
+        <v>5</v>
+      </c>
+      <c r="J13" s="46">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="K13" s="42">
+        <v>1</v>
+      </c>
+      <c r="K13" s="47">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="L13" s="43">
+      <c r="L13" s="48">
         <f t="shared" si="9"/>
-        <v>6</v>
-      </c>
-      <c r="M13" s="44" t="e">
+        <v>5</v>
+      </c>
+      <c r="M13" s="49" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="14.25" thickBot="1">
-      <c r="A14" s="76"/>
-      <c r="B14" s="72">
-        <v>9</v>
+      <c r="A14" s="99">
+        <v>3</v>
+      </c>
+      <c r="B14" s="69">
+        <v>10</v>
       </c>
       <c r="C14" s="27">
         <v>0</v>
       </c>
       <c r="D14" s="32">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E14" s="32">
-        <f t="shared" si="6"/>
-        <v>-5</v>
+        <f t="shared" ref="E14:E24" si="12">C14-D14</f>
+        <v>-1</v>
       </c>
       <c r="F14" s="33"/>
       <c r="G14" s="34"/>
       <c r="H14" s="33">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="H14:H22" si="13">F14-G14</f>
         <v>0</v>
       </c>
       <c r="I14" s="45"/>
       <c r="J14" s="46">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="J14:J22" si="14">I14/L14*100%</f>
         <v>0</v>
       </c>
       <c r="K14" s="47">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="K14:K22" si="15">C14+G14</f>
         <v>0</v>
       </c>
       <c r="L14" s="48">
-        <f t="shared" si="9"/>
-        <v>5</v>
+        <f t="shared" ref="L14:L22" si="16">D14+G14</f>
+        <v>1</v>
       </c>
       <c r="M14" s="49" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="M14:M22" si="17">L14/K14*100%</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="14.25" thickBot="1">
-      <c r="B15" s="72">
-        <v>10</v>
+      <c r="A15" s="99"/>
+      <c r="B15" s="69">
+        <v>11</v>
       </c>
       <c r="C15" s="27">
         <v>0</v>
@@ -2495,46 +2505,49 @@
         <v>1</v>
       </c>
       <c r="E15" s="32">
-        <f t="shared" ref="E15:E20" si="12">C15-D15</f>
+        <f t="shared" si="12"/>
         <v>-1</v>
       </c>
       <c r="F15" s="33"/>
       <c r="G15" s="34"/>
       <c r="H15" s="33">
-        <f t="shared" ref="H15:H20" si="13">F15-G15</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="I15" s="45"/>
+      <c r="I15" s="45">
+        <v>1</v>
+      </c>
       <c r="J15" s="46">
-        <f t="shared" ref="J15:J20" si="14">I15/L15*100%</f>
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="K15" s="47">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="K15" s="47">
-        <f t="shared" ref="K15:K20" si="15">C15+G15</f>
+      <c r="L15" s="48">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="M15" s="49" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="14.25" thickBot="1">
+      <c r="A16" s="99"/>
+      <c r="B16" s="69">
+        <v>12</v>
+      </c>
+      <c r="C16" s="31">
         <v>0</v>
       </c>
-      <c r="L15" s="48">
-        <f t="shared" ref="L15:L20" si="16">D15+G15</f>
-        <v>1</v>
-      </c>
-      <c r="M15" s="49" t="e">
-        <f t="shared" ref="M15:M20" si="17">L15/K15*100%</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="14.25" thickBot="1">
-      <c r="B16" s="72">
-        <v>11</v>
-      </c>
-      <c r="C16" s="27">
-        <v>0</v>
-      </c>
       <c r="D16" s="32">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E16" s="32">
         <f t="shared" si="12"/>
-        <v>-1</v>
+        <v>-7</v>
       </c>
       <c r="F16" s="33"/>
       <c r="G16" s="34"/>
@@ -2542,10 +2555,12 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="I16" s="45"/>
+      <c r="I16" s="45">
+        <v>7</v>
+      </c>
       <c r="J16" s="46">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16" s="47">
         <f t="shared" si="15"/>
@@ -2553,24 +2568,27 @@
       </c>
       <c r="L16" s="48">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="M16" s="49" t="e">
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="17" spans="2:13" ht="14.25" thickBot="1">
-      <c r="B17" s="72">
+    <row r="17" spans="1:13" ht="14.25" thickBot="1">
+      <c r="A17" s="99"/>
+      <c r="B17" s="69">
+        <v>13</v>
+      </c>
+      <c r="C17" s="31">
+        <v>100</v>
+      </c>
+      <c r="D17" s="32">
         <v>12</v>
       </c>
-      <c r="C17" s="31">
-        <v>0</v>
-      </c>
-      <c r="D17" s="32"/>
       <c r="E17" s="32">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="F17" s="33"/>
       <c r="G17" s="34"/>
@@ -2578,37 +2596,42 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="I17" s="45"/>
-      <c r="J17" s="46" t="e">
+      <c r="I17" s="45">
+        <v>12</v>
+      </c>
+      <c r="J17" s="46">
         <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
       <c r="K17" s="47">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L17" s="48">
         <f t="shared" si="16"/>
+        <v>12</v>
+      </c>
+      <c r="M17" s="49">
+        <f t="shared" si="17"/>
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="14.25" thickBot="1">
+      <c r="A18" s="105">
+        <v>4</v>
+      </c>
+      <c r="B18" s="69">
+        <v>14</v>
+      </c>
+      <c r="C18" s="31">
         <v>0</v>
       </c>
-      <c r="M17" s="49" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" ht="14.25" thickBot="1">
-      <c r="B18" s="72">
-        <v>13</v>
-      </c>
-      <c r="C18" s="31">
-        <v>100</v>
-      </c>
       <c r="D18" s="32">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E18" s="32">
         <f t="shared" si="12"/>
-        <v>88</v>
+        <v>-4</v>
       </c>
       <c r="F18" s="33"/>
       <c r="G18" s="34"/>
@@ -2616,26 +2639,28 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="I18" s="45"/>
+      <c r="I18" s="45">
+        <v>3</v>
+      </c>
       <c r="J18" s="46">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="K18" s="47">
         <f t="shared" si="15"/>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L18" s="48">
         <f t="shared" si="16"/>
-        <v>12</v>
-      </c>
-      <c r="M18" s="49">
+        <v>4</v>
+      </c>
+      <c r="M18" s="49" t="e">
         <f t="shared" si="17"/>
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" ht="14.25" thickBot="1">
-      <c r="B19" s="72"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="14.25" thickBot="1">
+      <c r="B19" s="69"/>
       <c r="C19" s="31"/>
       <c r="D19" s="32"/>
       <c r="E19" s="32">
@@ -2666,43 +2691,163 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="20" spans="2:13" ht="14.25" thickBot="1">
-      <c r="B20" s="72"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="F20" s="33"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="33">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="I20" s="45"/>
-      <c r="J20" s="46" t="e">
-        <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K20" s="47">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="L20" s="48">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="M20" s="49" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
+    <row r="20" spans="1:13">
+      <c r="A20" s="102"/>
+      <c r="B20" s="67"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="40"/>
+      <c r="J20" s="41"/>
+      <c r="K20" s="42"/>
+      <c r="L20" s="43"/>
+      <c r="M20" s="44"/>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="103"/>
+      <c r="B21" s="67"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="40"/>
+      <c r="J21" s="41"/>
+      <c r="K21" s="42"/>
+      <c r="L21" s="43"/>
+      <c r="M21" s="44"/>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="103"/>
+      <c r="B22" s="67"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="40"/>
+      <c r="J22" s="63"/>
+      <c r="K22" s="64"/>
+      <c r="L22" s="65"/>
+      <c r="M22" s="66"/>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="103"/>
+      <c r="B23" s="68"/>
+      <c r="C23" s="60"/>
+      <c r="D23" s="61"/>
+      <c r="E23" s="61"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="62"/>
+      <c r="J23" s="41"/>
+      <c r="K23" s="42"/>
+      <c r="L23" s="43"/>
+      <c r="M23" s="44"/>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="104"/>
+      <c r="B24" s="67"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="40"/>
+      <c r="J24" s="41"/>
+      <c r="K24" s="42"/>
+      <c r="L24" s="43"/>
+      <c r="M24" s="44"/>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="102"/>
+      <c r="B25" s="67"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="40"/>
+      <c r="J25" s="41"/>
+      <c r="K25" s="42"/>
+      <c r="L25" s="43"/>
+      <c r="M25" s="44"/>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="103"/>
+      <c r="B26" s="67"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="29"/>
+      <c r="I26" s="40"/>
+      <c r="J26" s="41"/>
+      <c r="K26" s="42"/>
+      <c r="L26" s="43"/>
+      <c r="M26" s="44"/>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="103"/>
+      <c r="B27" s="67"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="40"/>
+      <c r="J27" s="63"/>
+      <c r="K27" s="64"/>
+      <c r="L27" s="65"/>
+      <c r="M27" s="66"/>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="103"/>
+      <c r="B28" s="68"/>
+      <c r="C28" s="60"/>
+      <c r="D28" s="61"/>
+      <c r="E28" s="61"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="62"/>
+      <c r="J28" s="41"/>
+      <c r="K28" s="42"/>
+      <c r="L28" s="43"/>
+      <c r="M28" s="44"/>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" s="104"/>
+      <c r="B29" s="67"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="30"/>
+      <c r="H29" s="29"/>
+      <c r="I29" s="40"/>
+      <c r="J29" s="41"/>
+      <c r="K29" s="42"/>
+      <c r="L29" s="43"/>
+      <c r="M29" s="44"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A3:A4"/>
     <mergeCell ref="A1:M1"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A5:A9"/>
+    <mergeCell ref="A10:A13"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
@@ -2712,7 +2857,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O301"/>
+  <dimension ref="A1:O303"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="P2" sqref="P2"/>
@@ -2781,10 +2926,10 @@
       </c>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="105">
+      <c r="A2" s="93">
         <v>51</v>
       </c>
-      <c r="B2" s="59">
+      <c r="B2" s="58">
         <v>43085</v>
       </c>
       <c r="C2" s="50" t="s">
@@ -2828,8 +2973,8 @@
       </c>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="107"/>
-      <c r="B3" s="59">
+      <c r="A3" s="95"/>
+      <c r="B3" s="58">
         <v>43085</v>
       </c>
       <c r="C3" s="50" t="s">
@@ -2873,29 +3018,29 @@
       </c>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="90">
+      <c r="A4" s="82">
         <v>52</v>
       </c>
-      <c r="B4" s="59">
+      <c r="B4" s="58">
         <v>43097</v>
       </c>
       <c r="C4" s="50" t="s">
         <v>37</v>
       </c>
       <c r="D4" s="50" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" s="50" t="s">
         <v>56</v>
       </c>
-      <c r="E4" s="50" t="s">
-        <v>57</v>
-      </c>
       <c r="F4" s="50" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G4" s="1">
         <v>76119685</v>
       </c>
       <c r="H4" s="50" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I4" s="50" t="s">
         <v>40</v>
@@ -2906,13 +3051,13 @@
       <c r="K4" s="11">
         <v>17602558329</v>
       </c>
-      <c r="L4" s="58" t="s">
+      <c r="L4" s="57" t="s">
+        <v>57</v>
+      </c>
+      <c r="M4" s="57" t="s">
         <v>58</v>
       </c>
-      <c r="M4" s="58" t="s">
-        <v>59</v>
-      </c>
-      <c r="N4" s="58">
+      <c r="N4" s="57">
         <v>18601585219</v>
       </c>
       <c r="O4" s="11" t="s">
@@ -2920,32 +3065,32 @@
       </c>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="105">
+      <c r="A5" s="93">
         <v>1</v>
       </c>
-      <c r="B5" s="60">
+      <c r="B5" s="59">
         <v>43103</v>
       </c>
       <c r="C5" s="50" t="s">
         <v>37</v>
       </c>
       <c r="D5" s="50" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" s="50" t="s">
         <v>56</v>
       </c>
-      <c r="E5" s="50" t="s">
-        <v>57</v>
-      </c>
       <c r="F5" s="50" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G5" s="1">
         <v>76119689</v>
       </c>
       <c r="H5" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="I5" s="50" t="s">
         <v>62</v>
-      </c>
-      <c r="I5" s="50" t="s">
-        <v>63</v>
       </c>
       <c r="J5" s="50" t="s">
         <v>44</v>
@@ -2953,13 +3098,13 @@
       <c r="K5" s="11">
         <v>17602558329</v>
       </c>
-      <c r="L5" s="58" t="s">
+      <c r="L5" s="57" t="s">
+        <v>57</v>
+      </c>
+      <c r="M5" s="57" t="s">
         <v>58</v>
       </c>
-      <c r="M5" s="58" t="s">
-        <v>59</v>
-      </c>
-      <c r="N5" s="58">
+      <c r="N5" s="57">
         <v>18601585219</v>
       </c>
       <c r="O5" s="11" t="s">
@@ -2967,30 +3112,30 @@
       </c>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="107"/>
-      <c r="B6" s="60">
+      <c r="A6" s="95"/>
+      <c r="B6" s="59">
         <v>43103</v>
       </c>
       <c r="C6" s="50" t="s">
         <v>37</v>
       </c>
       <c r="D6" s="50" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6" s="50" t="s">
         <v>56</v>
       </c>
-      <c r="E6" s="50" t="s">
-        <v>57</v>
-      </c>
       <c r="F6" s="50" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G6" s="1">
         <v>76115775</v>
       </c>
       <c r="H6" s="50" t="s">
+        <v>64</v>
+      </c>
+      <c r="I6" s="50" t="s">
         <v>65</v>
-      </c>
-      <c r="I6" s="50" t="s">
-        <v>66</v>
       </c>
       <c r="J6" s="50" t="s">
         <v>44</v>
@@ -2998,13 +3143,13 @@
       <c r="K6" s="11">
         <v>17602558329</v>
       </c>
-      <c r="L6" s="58" t="s">
+      <c r="L6" s="57" t="s">
+        <v>57</v>
+      </c>
+      <c r="M6" s="57" t="s">
         <v>58</v>
       </c>
-      <c r="M6" s="58" t="s">
-        <v>59</v>
-      </c>
-      <c r="N6" s="58">
+      <c r="N6" s="57">
         <v>18601585219</v>
       </c>
       <c r="O6" s="11" t="s">
@@ -3012,29 +3157,29 @@
       </c>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="105">
+      <c r="A7" s="93">
         <v>2</v>
       </c>
-      <c r="B7" s="60">
+      <c r="B7" s="59">
         <v>43109</v>
       </c>
       <c r="C7" s="50" t="s">
         <v>37</v>
       </c>
       <c r="D7" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="E7" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="F7" s="50" t="s">
         <v>70</v>
-      </c>
-      <c r="E7" s="50" t="s">
-        <v>70</v>
-      </c>
-      <c r="F7" s="50" t="s">
-        <v>71</v>
       </c>
       <c r="G7" s="1">
         <v>76120305</v>
       </c>
       <c r="H7" s="50" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I7" s="50" t="s">
         <v>40</v>
@@ -3046,40 +3191,40 @@
         <v>17602558329</v>
       </c>
       <c r="L7" s="50" t="s">
+        <v>71</v>
+      </c>
+      <c r="M7" s="50" t="s">
         <v>72</v>
-      </c>
-      <c r="M7" s="50" t="s">
-        <v>73</v>
       </c>
       <c r="N7" s="1">
         <v>13921387360</v>
       </c>
       <c r="O7" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="107"/>
-      <c r="B8" s="60">
+      <c r="A8" s="95"/>
+      <c r="B8" s="59">
         <v>43109</v>
       </c>
       <c r="C8" s="50" t="s">
         <v>37</v>
       </c>
       <c r="D8" s="50" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" s="50" t="s">
         <v>56</v>
       </c>
-      <c r="E8" s="50" t="s">
-        <v>57</v>
-      </c>
       <c r="F8" s="50" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G8" s="1">
         <v>76117397</v>
       </c>
       <c r="H8" s="50" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I8" s="50" t="s">
         <v>40</v>
@@ -3091,10 +3236,10 @@
         <v>17602558329</v>
       </c>
       <c r="L8" s="50" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M8" s="50" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N8" s="1">
         <v>13567912454</v>
@@ -3104,32 +3249,32 @@
       </c>
     </row>
     <row r="9" spans="1:15">
-      <c r="A9" s="105">
+      <c r="A9" s="93">
         <v>3</v>
       </c>
-      <c r="B9" s="60">
+      <c r="B9" s="59">
         <v>43116</v>
       </c>
       <c r="C9" s="50" t="s">
         <v>37</v>
       </c>
       <c r="D9" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="E9" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="E9" s="50" t="s">
+      <c r="F9" s="50" t="s">
         <v>76</v>
-      </c>
-      <c r="F9" s="50" t="s">
-        <v>77</v>
       </c>
       <c r="G9" s="1">
         <v>76110597</v>
       </c>
       <c r="H9" s="50" t="s">
+        <v>77</v>
+      </c>
+      <c r="I9" s="50" t="s">
         <v>78</v>
-      </c>
-      <c r="I9" s="50" t="s">
-        <v>79</v>
       </c>
       <c r="J9" s="50" t="s">
         <v>44</v>
@@ -3138,12 +3283,12 @@
         <v>17602558329</v>
       </c>
       <c r="L9" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="M9" s="50" t="s">
         <v>80</v>
       </c>
-      <c r="M9" s="50" t="s">
-        <v>81</v>
-      </c>
-      <c r="N9" s="77">
+      <c r="N9" s="71">
         <v>15651888368</v>
       </c>
       <c r="O9" s="11" t="s">
@@ -3151,30 +3296,30 @@
       </c>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="107"/>
-      <c r="B10" s="60">
+      <c r="A10" s="95"/>
+      <c r="B10" s="59">
         <v>43116</v>
       </c>
       <c r="C10" s="50" t="s">
         <v>37</v>
       </c>
       <c r="D10" s="50" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" s="50" t="s">
         <v>56</v>
       </c>
-      <c r="E10" s="50" t="s">
-        <v>57</v>
-      </c>
       <c r="F10" s="50" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G10" s="1">
         <v>76117399</v>
       </c>
       <c r="H10" s="50" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I10" s="50" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J10" s="50" t="s">
         <v>44</v>
@@ -3183,12 +3328,12 @@
         <v>17602558329</v>
       </c>
       <c r="L10" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="M10" s="74" t="s">
         <v>84</v>
       </c>
-      <c r="M10" s="80" t="s">
-        <v>85</v>
-      </c>
-      <c r="N10" s="77">
+      <c r="N10" s="71">
         <v>13780054964</v>
       </c>
       <c r="O10" s="11" t="s">
@@ -3196,32 +3341,32 @@
       </c>
     </row>
     <row r="11" spans="1:15">
-      <c r="A11" s="78">
+      <c r="A11" s="72">
         <v>4</v>
       </c>
-      <c r="B11" s="60">
+      <c r="B11" s="59">
         <v>43122</v>
       </c>
       <c r="C11" s="50" t="s">
         <v>37</v>
       </c>
       <c r="D11" s="50" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" s="50" t="s">
         <v>56</v>
       </c>
-      <c r="E11" s="50" t="s">
-        <v>57</v>
-      </c>
       <c r="F11" s="50" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G11" s="1">
         <v>76121691</v>
       </c>
       <c r="H11" s="50" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I11" s="50" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J11" s="50" t="s">
         <v>44</v>
@@ -3230,12 +3375,12 @@
         <v>17602558329</v>
       </c>
       <c r="L11" t="s">
+        <v>87</v>
+      </c>
+      <c r="M11" s="74" t="s">
         <v>88</v>
       </c>
-      <c r="M11" s="80" t="s">
-        <v>89</v>
-      </c>
-      <c r="N11" s="79">
+      <c r="N11" s="73">
         <v>18852665200</v>
       </c>
       <c r="O11" s="11" t="s">
@@ -3243,29 +3388,29 @@
       </c>
     </row>
     <row r="12" spans="1:15">
-      <c r="A12" s="105">
+      <c r="A12" s="93">
         <v>5</v>
       </c>
-      <c r="B12" s="60">
+      <c r="B12" s="59">
         <v>43130</v>
       </c>
       <c r="C12" s="50" t="s">
         <v>37</v>
       </c>
       <c r="D12" s="50" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" s="50" t="s">
         <v>56</v>
       </c>
-      <c r="E12" s="50" t="s">
-        <v>57</v>
-      </c>
       <c r="F12" s="50" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G12" s="1">
         <v>76121956</v>
       </c>
       <c r="H12" s="50" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I12" s="50" t="s">
         <v>40</v>
@@ -3277,10 +3422,10 @@
         <v>17602558329</v>
       </c>
       <c r="L12" s="50" t="s">
+        <v>92</v>
+      </c>
+      <c r="M12" s="50" t="s">
         <v>93</v>
-      </c>
-      <c r="M12" s="50" t="s">
-        <v>94</v>
       </c>
       <c r="N12" s="1">
         <v>13921280802</v>
@@ -3290,27 +3435,27 @@
       </c>
     </row>
     <row r="13" spans="1:15">
-      <c r="A13" s="106"/>
-      <c r="B13" s="60">
+      <c r="A13" s="94"/>
+      <c r="B13" s="59">
         <v>43130</v>
       </c>
       <c r="C13" s="50" t="s">
         <v>37</v>
       </c>
       <c r="D13" s="50" t="s">
+        <v>94</v>
+      </c>
+      <c r="E13" s="50" t="s">
+        <v>75</v>
+      </c>
+      <c r="F13" s="50" t="s">
         <v>95</v>
-      </c>
-      <c r="E13" s="50" t="s">
-        <v>76</v>
-      </c>
-      <c r="F13" s="50" t="s">
-        <v>96</v>
       </c>
       <c r="G13" s="1">
         <v>76121671</v>
       </c>
       <c r="H13" s="50" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I13" s="50" t="s">
         <v>40</v>
@@ -3321,13 +3466,13 @@
       <c r="K13" s="11">
         <v>17602558329</v>
       </c>
-      <c r="L13" s="83" t="s">
+      <c r="L13" s="77" t="s">
+        <v>97</v>
+      </c>
+      <c r="M13" s="50" t="s">
         <v>98</v>
       </c>
-      <c r="M13" s="50" t="s">
-        <v>99</v>
-      </c>
-      <c r="N13" s="79">
+      <c r="N13" s="73">
         <v>13605150024</v>
       </c>
       <c r="O13" s="11" t="s">
@@ -3335,27 +3480,27 @@
       </c>
     </row>
     <row r="14" spans="1:15">
-      <c r="A14" s="107"/>
-      <c r="B14" s="60">
+      <c r="A14" s="95"/>
+      <c r="B14" s="59">
         <v>43131</v>
       </c>
       <c r="C14" s="50" t="s">
         <v>37</v>
       </c>
       <c r="D14" s="50" t="s">
+        <v>99</v>
+      </c>
+      <c r="E14" s="50" t="s">
         <v>100</v>
       </c>
-      <c r="E14" s="50" t="s">
+      <c r="F14" s="50" t="s">
         <v>101</v>
-      </c>
-      <c r="F14" s="50" t="s">
-        <v>102</v>
       </c>
       <c r="G14" s="1">
         <v>76125223</v>
       </c>
       <c r="H14" s="50" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="I14" s="50" t="s">
         <v>40</v>
@@ -3367,42 +3512,42 @@
         <v>17602558329</v>
       </c>
       <c r="L14" s="50" t="s">
+        <v>102</v>
+      </c>
+      <c r="M14" s="50" t="s">
         <v>103</v>
-      </c>
-      <c r="M14" s="50" t="s">
-        <v>104</v>
       </c>
       <c r="N14" s="1">
         <v>18112604296</v>
       </c>
       <c r="O14" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:15">
-      <c r="A15" s="105">
+      <c r="A15" s="93">
         <v>6</v>
       </c>
-      <c r="B15" s="60">
+      <c r="B15" s="59">
         <v>43138</v>
       </c>
       <c r="C15" s="50" t="s">
         <v>37</v>
       </c>
       <c r="D15" s="50" t="s">
+        <v>99</v>
+      </c>
+      <c r="E15" s="50" t="s">
         <v>100</v>
       </c>
-      <c r="E15" s="50" t="s">
+      <c r="F15" s="50" t="s">
         <v>101</v>
-      </c>
-      <c r="F15" s="50" t="s">
-        <v>102</v>
       </c>
       <c r="G15" s="1">
         <v>76128577</v>
       </c>
       <c r="H15" s="50" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="I15" s="50" t="s">
         <v>40</v>
@@ -3414,10 +3559,10 @@
         <v>17602558329</v>
       </c>
       <c r="L15" s="50" t="s">
+        <v>102</v>
+      </c>
+      <c r="M15" s="50" t="s">
         <v>103</v>
-      </c>
-      <c r="M15" s="50" t="s">
-        <v>104</v>
       </c>
       <c r="N15" s="11">
         <v>18112604296</v>
@@ -3427,27 +3572,27 @@
       </c>
     </row>
     <row r="16" spans="1:15">
-      <c r="A16" s="107"/>
-      <c r="B16" s="60">
+      <c r="A16" s="95"/>
+      <c r="B16" s="59">
         <v>43138</v>
       </c>
       <c r="C16" s="50" t="s">
         <v>37</v>
       </c>
       <c r="D16" s="50" t="s">
+        <v>99</v>
+      </c>
+      <c r="E16" s="50" t="s">
         <v>100</v>
       </c>
-      <c r="E16" s="50" t="s">
+      <c r="F16" s="50" t="s">
         <v>101</v>
-      </c>
-      <c r="F16" s="50" t="s">
-        <v>102</v>
       </c>
       <c r="G16" s="1">
         <v>76128579</v>
       </c>
       <c r="H16" s="50" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="I16" s="50" t="s">
         <v>40</v>
@@ -3459,10 +3604,10 @@
         <v>17602558329</v>
       </c>
       <c r="L16" s="50" t="s">
+        <v>102</v>
+      </c>
+      <c r="M16" s="50" t="s">
         <v>103</v>
-      </c>
-      <c r="M16" s="50" t="s">
-        <v>104</v>
       </c>
       <c r="N16" s="11">
         <v>18112604296</v>
@@ -3472,12 +3617,12 @@
       </c>
     </row>
     <row r="17" spans="1:15">
-      <c r="A17" s="91">
+      <c r="A17" s="83">
         <v>7</v>
       </c>
       <c r="C17" s="50"/>
-      <c r="D17" s="93" t="s">
-        <v>150</v>
+      <c r="D17" s="85" t="s">
+        <v>144</v>
       </c>
       <c r="E17" s="50"/>
       <c r="F17" s="50"/>
@@ -3492,29 +3637,29 @@
       <c r="O17" s="11"/>
     </row>
     <row r="18" spans="1:15">
-      <c r="A18" s="105">
+      <c r="A18" s="93">
         <v>8</v>
       </c>
-      <c r="B18" s="60">
+      <c r="B18" s="59">
         <v>43154</v>
       </c>
       <c r="C18" s="50" t="s">
         <v>37</v>
       </c>
       <c r="D18" s="50" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E18" s="50" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="F18" s="50" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="G18" s="1">
         <v>76127217</v>
       </c>
       <c r="H18" s="50" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="I18" s="50" t="s">
         <v>40</v>
@@ -3526,10 +3671,10 @@
         <v>17602558329</v>
       </c>
       <c r="L18" s="50" t="s">
+        <v>102</v>
+      </c>
+      <c r="M18" s="50" t="s">
         <v>103</v>
-      </c>
-      <c r="M18" s="50" t="s">
-        <v>104</v>
       </c>
       <c r="N18" s="11">
         <v>18112604296</v>
@@ -3539,27 +3684,27 @@
       </c>
     </row>
     <row r="19" spans="1:15">
-      <c r="A19" s="106"/>
-      <c r="B19" s="60">
+      <c r="A19" s="94"/>
+      <c r="B19" s="59">
         <v>43154</v>
       </c>
       <c r="C19" s="50" t="s">
         <v>37</v>
       </c>
       <c r="D19" s="50" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E19" s="50" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="F19" s="50" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="G19" s="1">
         <v>76128571</v>
       </c>
       <c r="H19" s="50" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="I19" s="50" t="s">
         <v>40</v>
@@ -3571,10 +3716,10 @@
         <v>17602558329</v>
       </c>
       <c r="L19" s="50" t="s">
+        <v>102</v>
+      </c>
+      <c r="M19" s="50" t="s">
         <v>103</v>
-      </c>
-      <c r="M19" s="50" t="s">
-        <v>104</v>
       </c>
       <c r="N19" s="11">
         <v>18112604296</v>
@@ -3584,27 +3729,27 @@
       </c>
     </row>
     <row r="20" spans="1:15">
-      <c r="A20" s="106"/>
-      <c r="B20" s="60">
+      <c r="A20" s="94"/>
+      <c r="B20" s="59">
         <v>43154</v>
       </c>
       <c r="C20" s="50" t="s">
         <v>37</v>
       </c>
       <c r="D20" s="50" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E20" s="50" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="F20" s="50" t="s">
-        <v>122</v>
-      </c>
-      <c r="G20" s="88">
+        <v>116</v>
+      </c>
+      <c r="G20" s="80">
         <v>76128575</v>
       </c>
       <c r="H20" s="50" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="I20" s="50" t="s">
         <v>40</v>
@@ -3616,10 +3761,10 @@
         <v>17602558329</v>
       </c>
       <c r="L20" s="50" t="s">
+        <v>102</v>
+      </c>
+      <c r="M20" s="50" t="s">
         <v>103</v>
-      </c>
-      <c r="M20" s="50" t="s">
-        <v>104</v>
       </c>
       <c r="N20" s="11">
         <v>18112604296</v>
@@ -3629,27 +3774,27 @@
       </c>
     </row>
     <row r="21" spans="1:15">
-      <c r="A21" s="106"/>
-      <c r="B21" s="60">
+      <c r="A21" s="94"/>
+      <c r="B21" s="59">
         <v>43154</v>
       </c>
       <c r="C21" s="50" t="s">
         <v>37</v>
       </c>
       <c r="D21" s="50" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E21" s="50" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F21" s="50" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="G21" s="1">
         <v>76128576</v>
       </c>
       <c r="H21" s="50" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="I21" s="50" t="s">
         <v>40</v>
@@ -3661,10 +3806,10 @@
         <v>17602558329</v>
       </c>
       <c r="L21" s="50" t="s">
+        <v>102</v>
+      </c>
+      <c r="M21" s="50" t="s">
         <v>103</v>
-      </c>
-      <c r="M21" s="50" t="s">
-        <v>104</v>
       </c>
       <c r="N21" s="11">
         <v>18112604296</v>
@@ -3674,27 +3819,27 @@
       </c>
     </row>
     <row r="22" spans="1:15">
-      <c r="A22" s="106"/>
-      <c r="B22" s="60">
+      <c r="A22" s="94"/>
+      <c r="B22" s="59">
         <v>43154</v>
       </c>
       <c r="C22" s="50" t="s">
         <v>37</v>
       </c>
       <c r="D22" s="50" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E22" s="50" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F22" s="50" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="G22" s="1">
         <v>76129762</v>
       </c>
       <c r="H22" s="50" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="I22" s="50" t="s">
         <v>40</v>
@@ -3706,10 +3851,10 @@
         <v>17602558329</v>
       </c>
       <c r="L22" s="50" t="s">
+        <v>102</v>
+      </c>
+      <c r="M22" s="50" t="s">
         <v>103</v>
-      </c>
-      <c r="M22" s="50" t="s">
-        <v>104</v>
       </c>
       <c r="N22" s="11">
         <v>18112604296</v>
@@ -3719,27 +3864,27 @@
       </c>
     </row>
     <row r="23" spans="1:15">
-      <c r="A23" s="107"/>
-      <c r="B23" s="60">
+      <c r="A23" s="95"/>
+      <c r="B23" s="59">
         <v>43154</v>
       </c>
       <c r="C23" s="50" t="s">
         <v>37</v>
       </c>
       <c r="D23" s="50" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="E23" s="50" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="F23" s="50" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="G23" s="1">
         <v>76127976</v>
       </c>
       <c r="H23" s="50" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="I23" s="50" t="s">
         <v>40</v>
@@ -3750,11 +3895,11 @@
       <c r="K23" s="11">
         <v>17602558329</v>
       </c>
-      <c r="L23" s="89" t="s">
-        <v>133</v>
+      <c r="L23" s="81" t="s">
+        <v>127</v>
       </c>
       <c r="M23" s="50" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="N23" s="1">
         <v>15951677180</v>
@@ -3764,29 +3909,29 @@
       </c>
     </row>
     <row r="24" spans="1:15">
-      <c r="A24" s="105">
+      <c r="A24" s="93">
         <v>9</v>
       </c>
-      <c r="B24" s="60">
+      <c r="B24" s="59">
         <v>43159</v>
       </c>
       <c r="C24" s="50" t="s">
         <v>37</v>
       </c>
       <c r="D24" s="50" t="s">
+        <v>55</v>
+      </c>
+      <c r="E24" s="50" t="s">
         <v>56</v>
       </c>
-      <c r="E24" s="50" t="s">
-        <v>57</v>
-      </c>
       <c r="F24" s="50" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="G24" s="1">
         <v>76122091</v>
       </c>
       <c r="H24" s="50" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="I24" s="50" t="s">
         <v>40</v>
@@ -3798,10 +3943,10 @@
         <v>17602558329</v>
       </c>
       <c r="L24" s="50" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M24" s="50" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N24" s="11">
         <v>13921280802</v>
@@ -3811,27 +3956,27 @@
       </c>
     </row>
     <row r="25" spans="1:15">
-      <c r="A25" s="106"/>
-      <c r="B25" s="60">
+      <c r="A25" s="94"/>
+      <c r="B25" s="59">
         <v>43159</v>
       </c>
       <c r="C25" s="50" t="s">
         <v>37</v>
       </c>
       <c r="D25" s="50" t="s">
+        <v>55</v>
+      </c>
+      <c r="E25" s="50" t="s">
         <v>56</v>
       </c>
-      <c r="E25" s="50" t="s">
-        <v>57</v>
-      </c>
       <c r="F25" s="50" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="G25" s="1">
         <v>76122096</v>
       </c>
       <c r="H25" s="50" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="I25" s="50" t="s">
         <v>40</v>
@@ -3843,10 +3988,10 @@
         <v>17602558329</v>
       </c>
       <c r="L25" s="50" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M25" s="50" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N25" s="11">
         <v>13921280802</v>
@@ -3856,27 +4001,27 @@
       </c>
     </row>
     <row r="26" spans="1:15">
-      <c r="A26" s="106"/>
-      <c r="B26" s="60">
+      <c r="A26" s="94"/>
+      <c r="B26" s="59">
         <v>43159</v>
       </c>
       <c r="C26" s="50" t="s">
         <v>37</v>
       </c>
       <c r="D26" s="50" t="s">
+        <v>55</v>
+      </c>
+      <c r="E26" s="50" t="s">
         <v>56</v>
       </c>
-      <c r="E26" s="50" t="s">
-        <v>57</v>
-      </c>
       <c r="F26" s="50" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="G26" s="1">
         <v>76123036</v>
       </c>
       <c r="H26" s="50" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="I26" s="50" t="s">
         <v>40</v>
@@ -3888,12 +4033,12 @@
         <v>17602558329</v>
       </c>
       <c r="L26" s="11" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="M26" s="50" t="s">
-        <v>147</v>
-      </c>
-      <c r="N26" s="77">
+        <v>141</v>
+      </c>
+      <c r="N26" s="71">
         <v>13709060302</v>
       </c>
       <c r="O26" s="11" t="s">
@@ -3901,27 +4046,27 @@
       </c>
     </row>
     <row r="27" spans="1:15">
-      <c r="A27" s="106"/>
-      <c r="B27" s="60">
+      <c r="A27" s="94"/>
+      <c r="B27" s="59">
         <v>43159</v>
       </c>
       <c r="C27" s="50" t="s">
         <v>37</v>
       </c>
       <c r="D27" s="50" t="s">
+        <v>55</v>
+      </c>
+      <c r="E27" s="50" t="s">
         <v>56</v>
       </c>
-      <c r="E27" s="50" t="s">
-        <v>57</v>
-      </c>
       <c r="F27" s="50" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="G27" s="1">
         <v>76128273</v>
       </c>
       <c r="H27" s="50" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="I27" s="50" t="s">
         <v>40</v>
@@ -3933,12 +4078,12 @@
         <v>17602558329</v>
       </c>
       <c r="L27" s="11" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="M27" s="50" t="s">
-        <v>148</v>
-      </c>
-      <c r="N27" s="77">
+        <v>142</v>
+      </c>
+      <c r="N27" s="71">
         <v>13812586805</v>
       </c>
       <c r="O27" s="11" t="s">
@@ -3946,27 +4091,27 @@
       </c>
     </row>
     <row r="28" spans="1:15">
-      <c r="A28" s="107"/>
-      <c r="B28" s="60">
+      <c r="A28" s="95"/>
+      <c r="B28" s="59">
         <v>43159</v>
       </c>
       <c r="C28" s="50" t="s">
         <v>37</v>
       </c>
       <c r="D28" s="50" t="s">
+        <v>55</v>
+      </c>
+      <c r="E28" s="50" t="s">
         <v>56</v>
       </c>
-      <c r="E28" s="50" t="s">
-        <v>57</v>
-      </c>
       <c r="F28" s="50" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="G28" s="1">
         <v>76132337</v>
       </c>
       <c r="H28" s="50" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="I28" s="50" t="s">
         <v>40</v>
@@ -3978,10 +4123,10 @@
         <v>17602558329</v>
       </c>
       <c r="L28" s="50" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="M28" s="50" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="N28" s="1">
         <v>13338730911</v>
@@ -3991,29 +4136,29 @@
       </c>
     </row>
     <row r="29" spans="1:15">
-      <c r="A29" s="92">
+      <c r="A29" s="84">
         <v>10</v>
       </c>
-      <c r="B29" s="60">
+      <c r="B29" s="59">
         <v>43165</v>
       </c>
       <c r="C29" s="50" t="s">
         <v>37</v>
       </c>
       <c r="D29" s="50" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="E29" s="50" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="F29" s="50" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="G29" s="1">
         <v>76121106</v>
       </c>
       <c r="H29" s="50" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="I29" s="50" t="s">
         <v>40</v>
@@ -4024,34 +4169,34 @@
       <c r="K29" s="11">
         <v>17602558329</v>
       </c>
-      <c r="L29" s="89" t="s">
-        <v>153</v>
+      <c r="L29" s="81" t="s">
+        <v>147</v>
       </c>
       <c r="M29" s="50" t="s">
-        <v>154</v>
-      </c>
-      <c r="N29" s="77">
+        <v>148</v>
+      </c>
+      <c r="N29" s="71">
         <v>13951396931</v>
       </c>
       <c r="O29" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="30" spans="1:15">
-      <c r="A30" s="94">
+      <c r="A30" s="86">
         <v>11</v>
       </c>
-      <c r="B30" s="60">
+      <c r="B30" s="59">
         <v>43171</v>
       </c>
       <c r="C30" s="50" t="s">
         <v>37</v>
       </c>
       <c r="D30" s="50" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="E30" s="50" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="F30" s="50" t="s">
         <v>40</v>
@@ -4060,7 +4205,7 @@
         <v>76130116</v>
       </c>
       <c r="H30" s="50" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="I30" s="50" t="s">
         <v>40</v>
@@ -4072,12 +4217,12 @@
         <v>17602558329</v>
       </c>
       <c r="L30" s="11" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="M30" s="50" t="s">
-        <v>158</v>
-      </c>
-      <c r="N30" s="77">
+        <v>152</v>
+      </c>
+      <c r="N30" s="71">
         <v>13222071793</v>
       </c>
       <c r="O30" s="11" t="s">
@@ -4085,29 +4230,29 @@
       </c>
     </row>
     <row r="31" spans="1:15">
-      <c r="A31" s="105">
+      <c r="A31" s="93">
         <v>12</v>
       </c>
-      <c r="B31" s="60">
+      <c r="B31" s="59">
         <v>43180</v>
       </c>
       <c r="C31" s="50" t="s">
         <v>37</v>
       </c>
       <c r="D31" s="50" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="F31" s="50" t="s">
-        <v>163</v>
-      </c>
-      <c r="G31" s="77">
+        <v>157</v>
+      </c>
+      <c r="G31" s="71">
         <v>76131267</v>
       </c>
       <c r="H31" s="50" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="I31" s="50" t="s">
         <v>40</v>
@@ -4119,10 +4264,10 @@
         <v>17602558329</v>
       </c>
       <c r="L31" s="50" t="s">
+        <v>102</v>
+      </c>
+      <c r="M31" s="50" t="s">
         <v>103</v>
-      </c>
-      <c r="M31" s="50" t="s">
-        <v>104</v>
       </c>
       <c r="N31" s="11">
         <v>18112604296</v>
@@ -4132,27 +4277,27 @@
       </c>
     </row>
     <row r="32" spans="1:15">
-      <c r="A32" s="106"/>
-      <c r="B32" s="60">
+      <c r="A32" s="94"/>
+      <c r="B32" s="59">
         <v>43180</v>
       </c>
       <c r="C32" s="50" t="s">
         <v>37</v>
       </c>
       <c r="D32" s="50" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="F32" s="50" t="s">
-        <v>163</v>
-      </c>
-      <c r="G32" s="77">
+        <v>157</v>
+      </c>
+      <c r="G32" s="71">
         <v>76131269</v>
       </c>
-      <c r="H32" s="89" t="s">
-        <v>113</v>
+      <c r="H32" s="81" t="s">
+        <v>107</v>
       </c>
       <c r="I32" s="50" t="s">
         <v>40</v>
@@ -4164,10 +4309,10 @@
         <v>17602558329</v>
       </c>
       <c r="L32" s="50" t="s">
+        <v>102</v>
+      </c>
+      <c r="M32" s="50" t="s">
         <v>103</v>
-      </c>
-      <c r="M32" s="50" t="s">
-        <v>104</v>
       </c>
       <c r="N32" s="11">
         <v>18112604296</v>
@@ -4177,27 +4322,27 @@
       </c>
     </row>
     <row r="33" spans="1:15">
-      <c r="A33" s="106"/>
-      <c r="B33" s="60">
+      <c r="A33" s="94"/>
+      <c r="B33" s="59">
         <v>43180</v>
       </c>
       <c r="C33" s="50" t="s">
         <v>37</v>
       </c>
       <c r="D33" s="50" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="F33" s="50" t="s">
-        <v>163</v>
-      </c>
-      <c r="G33" s="77">
+        <v>157</v>
+      </c>
+      <c r="G33" s="71">
         <v>76131270</v>
       </c>
-      <c r="H33" s="89" t="s">
-        <v>114</v>
+      <c r="H33" s="81" t="s">
+        <v>108</v>
       </c>
       <c r="I33" s="50" t="s">
         <v>40</v>
@@ -4209,10 +4354,10 @@
         <v>17602558329</v>
       </c>
       <c r="L33" s="50" t="s">
+        <v>102</v>
+      </c>
+      <c r="M33" s="50" t="s">
         <v>103</v>
-      </c>
-      <c r="M33" s="50" t="s">
-        <v>104</v>
       </c>
       <c r="N33" s="11">
         <v>18112604296</v>
@@ -4222,27 +4367,27 @@
       </c>
     </row>
     <row r="34" spans="1:15">
-      <c r="A34" s="106"/>
-      <c r="B34" s="60">
+      <c r="A34" s="94"/>
+      <c r="B34" s="59">
         <v>43180</v>
       </c>
       <c r="C34" s="50" t="s">
         <v>37</v>
       </c>
       <c r="D34" s="50" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="F34" s="50" t="s">
-        <v>163</v>
-      </c>
-      <c r="G34" s="77">
+        <v>157</v>
+      </c>
+      <c r="G34" s="71">
         <v>76131271</v>
       </c>
-      <c r="H34" s="89" t="s">
-        <v>115</v>
+      <c r="H34" s="81" t="s">
+        <v>109</v>
       </c>
       <c r="I34" s="50" t="s">
         <v>40</v>
@@ -4254,10 +4399,10 @@
         <v>17602558329</v>
       </c>
       <c r="L34" s="50" t="s">
+        <v>102</v>
+      </c>
+      <c r="M34" s="50" t="s">
         <v>103</v>
-      </c>
-      <c r="M34" s="50" t="s">
-        <v>104</v>
       </c>
       <c r="N34" s="11">
         <v>18112604296</v>
@@ -4267,27 +4412,27 @@
       </c>
     </row>
     <row r="35" spans="1:15">
-      <c r="A35" s="106"/>
-      <c r="B35" s="60">
+      <c r="A35" s="94"/>
+      <c r="B35" s="59">
         <v>43180</v>
       </c>
       <c r="C35" s="50" t="s">
         <v>37</v>
       </c>
       <c r="D35" s="50" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="F35" s="50" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="G35" s="1">
         <v>76131272</v>
       </c>
       <c r="H35" s="50" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="I35" s="50" t="s">
         <v>40</v>
@@ -4299,10 +4444,10 @@
         <v>17602558329</v>
       </c>
       <c r="L35" s="50" t="s">
+        <v>102</v>
+      </c>
+      <c r="M35" s="50" t="s">
         <v>103</v>
-      </c>
-      <c r="M35" s="50" t="s">
-        <v>104</v>
       </c>
       <c r="N35" s="11">
         <v>18112604296</v>
@@ -4312,27 +4457,27 @@
       </c>
     </row>
     <row r="36" spans="1:15">
-      <c r="A36" s="106"/>
-      <c r="B36" s="60">
+      <c r="A36" s="94"/>
+      <c r="B36" s="59">
         <v>43180</v>
       </c>
       <c r="C36" s="50" t="s">
         <v>37</v>
       </c>
       <c r="D36" s="50" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="F36" s="50" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="G36" s="1">
         <v>76133009</v>
       </c>
       <c r="H36" s="50" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="I36" s="50" t="s">
         <v>40</v>
@@ -4344,10 +4489,10 @@
         <v>17602558329</v>
       </c>
       <c r="L36" s="50" t="s">
+        <v>102</v>
+      </c>
+      <c r="M36" s="50" t="s">
         <v>103</v>
-      </c>
-      <c r="M36" s="50" t="s">
-        <v>104</v>
       </c>
       <c r="N36" s="11">
         <v>18112604296</v>
@@ -4357,27 +4502,27 @@
       </c>
     </row>
     <row r="37" spans="1:15">
-      <c r="A37" s="107"/>
-      <c r="B37" s="60">
+      <c r="A37" s="95"/>
+      <c r="B37" s="59">
         <v>43180</v>
       </c>
       <c r="C37" s="50" t="s">
         <v>37</v>
       </c>
       <c r="D37" s="50" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="F37" s="50" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="G37" s="1">
         <v>76133013</v>
       </c>
       <c r="H37" s="50" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="I37" s="50" t="s">
         <v>40</v>
@@ -4389,10 +4534,10 @@
         <v>17602558329</v>
       </c>
       <c r="L37" s="50" t="s">
+        <v>102</v>
+      </c>
+      <c r="M37" s="50" t="s">
         <v>103</v>
-      </c>
-      <c r="M37" s="50" t="s">
-        <v>104</v>
       </c>
       <c r="N37" s="11">
         <v>18112604296</v>
@@ -4402,29 +4547,29 @@
       </c>
     </row>
     <row r="38" spans="1:15">
-      <c r="A38" s="105">
+      <c r="A38" s="93">
         <v>13</v>
       </c>
-      <c r="B38" s="60">
+      <c r="B38" s="59">
         <v>43187</v>
       </c>
       <c r="C38" s="50" t="s">
         <v>37</v>
       </c>
       <c r="D38" s="50" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E38" s="50" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="F38" s="50" t="s">
-        <v>170</v>
-      </c>
-      <c r="G38" s="77">
+        <v>163</v>
+      </c>
+      <c r="G38" s="71">
         <v>76132026</v>
       </c>
-      <c r="H38" s="89" t="s">
-        <v>171</v>
+      <c r="H38" s="81" t="s">
+        <v>164</v>
       </c>
       <c r="I38" s="50" t="s">
         <v>40</v>
@@ -4436,10 +4581,10 @@
         <v>17602558329</v>
       </c>
       <c r="L38" s="50" t="s">
+        <v>102</v>
+      </c>
+      <c r="M38" s="50" t="s">
         <v>103</v>
-      </c>
-      <c r="M38" s="50" t="s">
-        <v>104</v>
       </c>
       <c r="N38" s="1">
         <v>18020275119</v>
@@ -4449,27 +4594,27 @@
       </c>
     </row>
     <row r="39" spans="1:15">
-      <c r="A39" s="106"/>
-      <c r="B39" s="60">
+      <c r="A39" s="94"/>
+      <c r="B39" s="59">
         <v>43187</v>
       </c>
       <c r="C39" s="50" t="s">
         <v>37</v>
       </c>
       <c r="D39" s="50" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E39" s="50" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="F39" s="50" t="s">
-        <v>170</v>
-      </c>
-      <c r="G39" s="77">
+        <v>163</v>
+      </c>
+      <c r="G39" s="71">
         <v>76132028</v>
       </c>
-      <c r="H39" s="89" t="s">
-        <v>172</v>
+      <c r="H39" s="81" t="s">
+        <v>165</v>
       </c>
       <c r="I39" s="50" t="s">
         <v>40</v>
@@ -4481,10 +4626,10 @@
         <v>17602558329</v>
       </c>
       <c r="L39" s="50" t="s">
+        <v>102</v>
+      </c>
+      <c r="M39" s="50" t="s">
         <v>103</v>
-      </c>
-      <c r="M39" s="50" t="s">
-        <v>104</v>
       </c>
       <c r="N39" s="11">
         <v>18020275119</v>
@@ -4494,27 +4639,27 @@
       </c>
     </row>
     <row r="40" spans="1:15">
-      <c r="A40" s="106"/>
-      <c r="B40" s="60">
+      <c r="A40" s="94"/>
+      <c r="B40" s="59">
         <v>43187</v>
       </c>
       <c r="C40" s="50" t="s">
         <v>37</v>
       </c>
       <c r="D40" s="50" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E40" s="50" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="F40" s="50" t="s">
-        <v>170</v>
-      </c>
-      <c r="G40" s="77">
+        <v>163</v>
+      </c>
+      <c r="G40" s="71">
         <v>76132029</v>
       </c>
-      <c r="H40" s="89" t="s">
-        <v>173</v>
+      <c r="H40" s="81" t="s">
+        <v>166</v>
       </c>
       <c r="I40" s="50" t="s">
         <v>40</v>
@@ -4526,10 +4671,10 @@
         <v>17602558329</v>
       </c>
       <c r="L40" s="50" t="s">
+        <v>102</v>
+      </c>
+      <c r="M40" s="50" t="s">
         <v>103</v>
-      </c>
-      <c r="M40" s="50" t="s">
-        <v>104</v>
       </c>
       <c r="N40" s="11">
         <v>18020275119</v>
@@ -4539,27 +4684,27 @@
       </c>
     </row>
     <row r="41" spans="1:15">
-      <c r="A41" s="106"/>
-      <c r="B41" s="60">
+      <c r="A41" s="94"/>
+      <c r="B41" s="59">
         <v>43187</v>
       </c>
       <c r="C41" s="50" t="s">
         <v>37</v>
       </c>
       <c r="D41" s="50" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E41" s="50" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="F41" s="50" t="s">
-        <v>170</v>
-      </c>
-      <c r="G41" s="77">
+        <v>163</v>
+      </c>
+      <c r="G41" s="71">
         <v>76132057</v>
       </c>
-      <c r="H41" s="89" t="s">
-        <v>174</v>
+      <c r="H41" s="81" t="s">
+        <v>167</v>
       </c>
       <c r="I41" s="50" t="s">
         <v>40</v>
@@ -4571,10 +4716,10 @@
         <v>17602558329</v>
       </c>
       <c r="L41" s="50" t="s">
+        <v>102</v>
+      </c>
+      <c r="M41" s="50" t="s">
         <v>103</v>
-      </c>
-      <c r="M41" s="50" t="s">
-        <v>104</v>
       </c>
       <c r="N41" s="11">
         <v>18020275119</v>
@@ -4584,27 +4729,27 @@
       </c>
     </row>
     <row r="42" spans="1:15">
-      <c r="A42" s="106"/>
-      <c r="B42" s="60">
+      <c r="A42" s="94"/>
+      <c r="B42" s="59">
         <v>43187</v>
       </c>
       <c r="C42" s="50" t="s">
         <v>37</v>
       </c>
       <c r="D42" s="50" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E42" s="50" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="F42" s="50" t="s">
-        <v>170</v>
-      </c>
-      <c r="G42" s="77">
+        <v>163</v>
+      </c>
+      <c r="G42" s="71">
         <v>76132060</v>
       </c>
-      <c r="H42" s="89" t="s">
-        <v>175</v>
+      <c r="H42" s="81" t="s">
+        <v>168</v>
       </c>
       <c r="I42" s="50" t="s">
         <v>40</v>
@@ -4616,10 +4761,10 @@
         <v>17602558329</v>
       </c>
       <c r="L42" s="50" t="s">
+        <v>102</v>
+      </c>
+      <c r="M42" s="50" t="s">
         <v>103</v>
-      </c>
-      <c r="M42" s="50" t="s">
-        <v>104</v>
       </c>
       <c r="N42" s="11">
         <v>18020275119</v>
@@ -4629,27 +4774,27 @@
       </c>
     </row>
     <row r="43" spans="1:15">
-      <c r="A43" s="106"/>
-      <c r="B43" s="60">
+      <c r="A43" s="94"/>
+      <c r="B43" s="59">
         <v>43187</v>
       </c>
       <c r="C43" s="50" t="s">
         <v>37</v>
       </c>
       <c r="D43" s="50" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E43" s="50" t="s">
+        <v>162</v>
+      </c>
+      <c r="F43" s="50" t="s">
+        <v>163</v>
+      </c>
+      <c r="G43" s="71">
+        <v>76132061</v>
+      </c>
+      <c r="H43" s="81" t="s">
         <v>169</v>
-      </c>
-      <c r="F43" s="50" t="s">
-        <v>170</v>
-      </c>
-      <c r="G43" s="77">
-        <v>76132061</v>
-      </c>
-      <c r="H43" s="89" t="s">
-        <v>176</v>
       </c>
       <c r="I43" s="50" t="s">
         <v>40</v>
@@ -4661,10 +4806,10 @@
         <v>17602558329</v>
       </c>
       <c r="L43" s="50" t="s">
+        <v>102</v>
+      </c>
+      <c r="M43" s="50" t="s">
         <v>103</v>
-      </c>
-      <c r="M43" s="50" t="s">
-        <v>104</v>
       </c>
       <c r="N43" s="11">
         <v>18020275119</v>
@@ -4674,27 +4819,27 @@
       </c>
     </row>
     <row r="44" spans="1:15">
-      <c r="A44" s="106"/>
-      <c r="B44" s="60">
+      <c r="A44" s="94"/>
+      <c r="B44" s="59">
         <v>43187</v>
       </c>
       <c r="C44" s="50" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="50" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E44" s="50" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="F44" s="50" t="s">
+        <v>163</v>
+      </c>
+      <c r="G44" s="71">
+        <v>76132063</v>
+      </c>
+      <c r="H44" s="81" t="s">
         <v>170</v>
-      </c>
-      <c r="G44" s="77">
-        <v>76132063</v>
-      </c>
-      <c r="H44" s="89" t="s">
-        <v>177</v>
       </c>
       <c r="I44" s="50" t="s">
         <v>40</v>
@@ -4706,10 +4851,10 @@
         <v>17602558329</v>
       </c>
       <c r="L44" s="50" t="s">
+        <v>102</v>
+      </c>
+      <c r="M44" s="50" t="s">
         <v>103</v>
-      </c>
-      <c r="M44" s="50" t="s">
-        <v>104</v>
       </c>
       <c r="N44" s="11">
         <v>18020275119</v>
@@ -4719,27 +4864,27 @@
       </c>
     </row>
     <row r="45" spans="1:15">
-      <c r="A45" s="106"/>
-      <c r="B45" s="60">
+      <c r="A45" s="94"/>
+      <c r="B45" s="59">
         <v>43187</v>
       </c>
       <c r="C45" s="50" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="50" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E45" s="50" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="F45" s="50" t="s">
-        <v>170</v>
-      </c>
-      <c r="G45" s="77">
+        <v>163</v>
+      </c>
+      <c r="G45" s="71">
         <v>76132065</v>
       </c>
-      <c r="H45" s="89" t="s">
-        <v>178</v>
+      <c r="H45" s="81" t="s">
+        <v>171</v>
       </c>
       <c r="I45" s="50" t="s">
         <v>40</v>
@@ -4751,10 +4896,10 @@
         <v>17602558329</v>
       </c>
       <c r="L45" s="50" t="s">
+        <v>102</v>
+      </c>
+      <c r="M45" s="50" t="s">
         <v>103</v>
-      </c>
-      <c r="M45" s="50" t="s">
-        <v>104</v>
       </c>
       <c r="N45" s="11">
         <v>18020275119</v>
@@ -4764,27 +4909,27 @@
       </c>
     </row>
     <row r="46" spans="1:15">
-      <c r="A46" s="106"/>
-      <c r="B46" s="60">
+      <c r="A46" s="94"/>
+      <c r="B46" s="59">
         <v>43187</v>
       </c>
       <c r="C46" s="50" t="s">
         <v>37</v>
       </c>
       <c r="D46" s="50" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E46" s="50" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="F46" s="50" t="s">
-        <v>170</v>
-      </c>
-      <c r="G46" s="77">
+        <v>163</v>
+      </c>
+      <c r="G46" s="71">
         <v>76132289</v>
       </c>
-      <c r="H46" s="89" t="s">
-        <v>179</v>
+      <c r="H46" s="81" t="s">
+        <v>172</v>
       </c>
       <c r="I46" s="50" t="s">
         <v>40</v>
@@ -4796,10 +4941,10 @@
         <v>17602558329</v>
       </c>
       <c r="L46" s="50" t="s">
+        <v>102</v>
+      </c>
+      <c r="M46" s="50" t="s">
         <v>103</v>
-      </c>
-      <c r="M46" s="50" t="s">
-        <v>104</v>
       </c>
       <c r="N46" s="11">
         <v>18020275119</v>
@@ -4809,123 +4954,321 @@
       </c>
     </row>
     <row r="47" spans="1:15">
-      <c r="A47" s="108"/>
-      <c r="B47" s="60"/>
-      <c r="C47" s="50"/>
-      <c r="D47" s="50"/>
-      <c r="E47" s="50"/>
-      <c r="F47" s="50"/>
-      <c r="G47" s="77"/>
-      <c r="H47" s="89"/>
-      <c r="I47" s="50"/>
-      <c r="J47" s="50"/>
-      <c r="K47" s="11"/>
-      <c r="L47" s="50"/>
-      <c r="M47" s="50"/>
-      <c r="N47" s="11"/>
-      <c r="O47" s="11"/>
+      <c r="A47" s="94"/>
+      <c r="B47" s="59">
+        <v>43187</v>
+      </c>
+      <c r="C47" s="50" t="s">
+        <v>37</v>
+      </c>
+      <c r="D47" s="50" t="s">
+        <v>99</v>
+      </c>
+      <c r="E47" s="50" t="s">
+        <v>113</v>
+      </c>
+      <c r="F47" s="50" t="s">
+        <v>163</v>
+      </c>
+      <c r="G47" s="71">
+        <v>76132952</v>
+      </c>
+      <c r="H47" s="88" t="s">
+        <v>173</v>
+      </c>
+      <c r="I47" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="J47" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="K47" s="11">
+        <v>17602558329</v>
+      </c>
+      <c r="L47" s="50" t="s">
+        <v>102</v>
+      </c>
+      <c r="M47" s="50" t="s">
+        <v>103</v>
+      </c>
+      <c r="N47" s="11">
+        <v>18020275119</v>
+      </c>
+      <c r="O47" s="11" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="48" spans="1:15">
-      <c r="A48" s="1"/>
-      <c r="B48" s="60"/>
-      <c r="C48" s="50"/>
-      <c r="D48" s="50"/>
-      <c r="E48" s="50"/>
-      <c r="F48" s="50"/>
-      <c r="G48" s="77"/>
-      <c r="H48" s="89"/>
-      <c r="I48" s="50"/>
-      <c r="J48" s="50"/>
-      <c r="K48" s="11"/>
-      <c r="L48" s="50"/>
-      <c r="M48" s="50"/>
-      <c r="N48" s="11"/>
-      <c r="O48" s="11"/>
+      <c r="A48" s="94"/>
+      <c r="B48" s="59">
+        <v>43187</v>
+      </c>
+      <c r="C48" s="50" t="s">
+        <v>37</v>
+      </c>
+      <c r="D48" s="50" t="s">
+        <v>99</v>
+      </c>
+      <c r="E48" s="50" t="s">
+        <v>113</v>
+      </c>
+      <c r="F48" s="50" t="s">
+        <v>163</v>
+      </c>
+      <c r="G48" s="71">
+        <v>76132962</v>
+      </c>
+      <c r="H48" s="88" t="s">
+        <v>174</v>
+      </c>
+      <c r="I48" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="J48" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="K48" s="11">
+        <v>17602558329</v>
+      </c>
+      <c r="L48" s="50" t="s">
+        <v>102</v>
+      </c>
+      <c r="M48" s="50" t="s">
+        <v>103</v>
+      </c>
+      <c r="N48" s="11">
+        <v>18020275119</v>
+      </c>
+      <c r="O48" s="11" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="49" spans="1:15">
-      <c r="A49" s="1"/>
-      <c r="B49" s="60"/>
-      <c r="C49" s="50"/>
-      <c r="D49" s="50"/>
-      <c r="E49" s="50"/>
-      <c r="F49" s="50"/>
-      <c r="G49" s="77"/>
-      <c r="H49" s="89"/>
-      <c r="I49" s="50"/>
-      <c r="J49" s="50"/>
-      <c r="K49" s="11"/>
-      <c r="L49" s="50"/>
-      <c r="M49" s="50"/>
-      <c r="N49" s="11"/>
-      <c r="O49" s="11"/>
+      <c r="A49" s="95"/>
+      <c r="B49" s="59">
+        <v>43187</v>
+      </c>
+      <c r="C49" s="50" t="s">
+        <v>37</v>
+      </c>
+      <c r="D49" s="50" t="s">
+        <v>99</v>
+      </c>
+      <c r="E49" s="50" t="s">
+        <v>113</v>
+      </c>
+      <c r="F49" s="50" t="s">
+        <v>163</v>
+      </c>
+      <c r="G49" s="71">
+        <v>76132980</v>
+      </c>
+      <c r="H49" s="88" t="s">
+        <v>175</v>
+      </c>
+      <c r="I49" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="J49" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="K49" s="11">
+        <v>17602558329</v>
+      </c>
+      <c r="L49" s="50" t="s">
+        <v>102</v>
+      </c>
+      <c r="M49" s="50" t="s">
+        <v>103</v>
+      </c>
+      <c r="N49" s="11">
+        <v>18020275119</v>
+      </c>
+      <c r="O49" s="11" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="50" spans="1:15">
-      <c r="A50" s="1"/>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
-      <c r="H50" s="1"/>
-      <c r="I50" s="1"/>
-      <c r="J50" s="1"/>
-      <c r="K50" s="1"/>
-      <c r="L50" s="1"/>
-      <c r="M50" s="1"/>
-      <c r="N50" s="1"/>
-      <c r="O50" s="1"/>
+      <c r="A50" s="106">
+        <v>14</v>
+      </c>
+      <c r="B50" s="59">
+        <v>43194</v>
+      </c>
+      <c r="C50" s="50" t="s">
+        <v>37</v>
+      </c>
+      <c r="D50" s="50" t="s">
+        <v>185</v>
+      </c>
+      <c r="E50" s="50" t="s">
+        <v>75</v>
+      </c>
+      <c r="F50" s="50" t="s">
+        <v>186</v>
+      </c>
+      <c r="G50" s="71">
+        <v>76128879</v>
+      </c>
+      <c r="H50" s="88" t="s">
+        <v>188</v>
+      </c>
+      <c r="I50" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="J50" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="K50" s="11">
+        <v>17602558329</v>
+      </c>
+      <c r="L50" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="M50" s="50" t="s">
+        <v>192</v>
+      </c>
+      <c r="N50" s="71">
+        <v>13913957701</v>
+      </c>
+      <c r="O50" s="11" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="51" spans="1:15">
-      <c r="A51" s="1"/>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
-      <c r="G51" s="1"/>
-      <c r="H51" s="1"/>
-      <c r="I51" s="1"/>
-      <c r="J51" s="1"/>
-      <c r="K51" s="1"/>
-      <c r="L51" s="1"/>
-      <c r="M51" s="1"/>
-      <c r="N51" s="1"/>
-      <c r="O51" s="1"/>
+      <c r="A51" s="96"/>
+      <c r="B51" s="59">
+        <v>43194</v>
+      </c>
+      <c r="C51" s="50" t="s">
+        <v>37</v>
+      </c>
+      <c r="D51" s="50" t="s">
+        <v>185</v>
+      </c>
+      <c r="E51" s="50" t="s">
+        <v>75</v>
+      </c>
+      <c r="F51" s="50" t="s">
+        <v>187</v>
+      </c>
+      <c r="G51" s="71">
+        <v>76128880</v>
+      </c>
+      <c r="H51" s="88" t="s">
+        <v>189</v>
+      </c>
+      <c r="I51" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="J51" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="K51" s="11">
+        <v>17602558329</v>
+      </c>
+      <c r="L51" s="50" t="s">
+        <v>191</v>
+      </c>
+      <c r="M51" s="50" t="s">
+        <v>192</v>
+      </c>
+      <c r="N51" s="71">
+        <v>18806742898</v>
+      </c>
+      <c r="O51" s="11" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="52" spans="1:15">
-      <c r="A52" s="1"/>
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
-      <c r="G52" s="1"/>
-      <c r="H52" s="1"/>
-      <c r="I52" s="1"/>
-      <c r="J52" s="1"/>
-      <c r="K52" s="1"/>
-      <c r="L52" s="1"/>
-      <c r="M52" s="1"/>
-      <c r="N52" s="1"/>
-      <c r="O52" s="1"/>
+      <c r="A52" s="96"/>
+      <c r="B52" s="59">
+        <v>43194</v>
+      </c>
+      <c r="C52" s="50" t="s">
+        <v>37</v>
+      </c>
+      <c r="D52" s="50" t="s">
+        <v>99</v>
+      </c>
+      <c r="E52" s="50" t="s">
+        <v>176</v>
+      </c>
+      <c r="F52" s="50" t="s">
+        <v>177</v>
+      </c>
+      <c r="G52" s="1">
+        <v>76133752</v>
+      </c>
+      <c r="H52" s="50" t="s">
+        <v>180</v>
+      </c>
+      <c r="I52" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="J52" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="K52" s="11">
+        <v>17602558329</v>
+      </c>
+      <c r="L52" s="50" t="s">
+        <v>102</v>
+      </c>
+      <c r="M52" s="50" t="s">
+        <v>103</v>
+      </c>
+      <c r="N52" s="11">
+        <v>18020275119</v>
+      </c>
+      <c r="O52" s="11" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="53" spans="1:15">
-      <c r="A53" s="1"/>
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
-      <c r="G53" s="1"/>
-      <c r="H53" s="1"/>
-      <c r="I53" s="1"/>
-      <c r="J53" s="1"/>
-      <c r="K53" s="1"/>
-      <c r="L53" s="1"/>
-      <c r="M53" s="1"/>
-      <c r="N53" s="1"/>
-      <c r="O53" s="1"/>
+      <c r="A53" s="107"/>
+      <c r="B53" s="59">
+        <v>43194</v>
+      </c>
+      <c r="C53" s="50" t="s">
+        <v>37</v>
+      </c>
+      <c r="D53" s="50" t="s">
+        <v>99</v>
+      </c>
+      <c r="E53" s="50" t="s">
+        <v>176</v>
+      </c>
+      <c r="F53" s="50" t="s">
+        <v>178</v>
+      </c>
+      <c r="G53" s="1">
+        <v>76153237</v>
+      </c>
+      <c r="H53" s="50" t="s">
+        <v>179</v>
+      </c>
+      <c r="I53" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="J53" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="K53" s="11">
+        <v>17602558329</v>
+      </c>
+      <c r="L53" s="50" t="s">
+        <v>102</v>
+      </c>
+      <c r="M53" s="50" t="s">
+        <v>103</v>
+      </c>
+      <c r="N53" s="11">
+        <v>18020275119</v>
+      </c>
+      <c r="O53" s="11" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="54" spans="1:15">
       <c r="A54" s="1"/>
@@ -9143,8 +9486,44 @@
       <c r="N301" s="1"/>
       <c r="O301" s="1"/>
     </row>
+    <row r="302" spans="1:15">
+      <c r="A302" s="1"/>
+      <c r="B302" s="1"/>
+      <c r="C302" s="1"/>
+      <c r="D302" s="1"/>
+      <c r="E302" s="1"/>
+      <c r="F302" s="1"/>
+      <c r="G302" s="1"/>
+      <c r="H302" s="1"/>
+      <c r="I302" s="1"/>
+      <c r="J302" s="1"/>
+      <c r="K302" s="1"/>
+      <c r="L302" s="1"/>
+      <c r="M302" s="1"/>
+      <c r="N302" s="1"/>
+      <c r="O302" s="1"/>
+    </row>
+    <row r="303" spans="1:15">
+      <c r="A303" s="1"/>
+      <c r="B303" s="1"/>
+      <c r="C303" s="1"/>
+      <c r="D303" s="1"/>
+      <c r="E303" s="1"/>
+      <c r="F303" s="1"/>
+      <c r="G303" s="1"/>
+      <c r="H303" s="1"/>
+      <c r="I303" s="1"/>
+      <c r="J303" s="1"/>
+      <c r="K303" s="1"/>
+      <c r="L303" s="1"/>
+      <c r="M303" s="1"/>
+      <c r="N303" s="1"/>
+      <c r="O303" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
+    <mergeCell ref="A50:A53"/>
+    <mergeCell ref="A38:A49"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="A7:A8"/>
@@ -9154,7 +9533,6 @@
     <mergeCell ref="A24:A28"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="A12:A14"/>
-    <mergeCell ref="A38:A46"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <dataValidations count="2">
@@ -9172,7 +9550,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G63"/>
+  <dimension ref="A1:G61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
@@ -9183,7 +9561,7 @@
     <col min="1" max="1" width="8.625" style="5"/>
     <col min="2" max="2" width="27.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.75" customWidth="1"/>
-    <col min="4" max="4" width="35.25" style="6" customWidth="1"/>
+    <col min="4" max="4" width="34.875" style="6" customWidth="1"/>
     <col min="5" max="5" width="13.5" customWidth="1"/>
     <col min="6" max="6" width="16.75" customWidth="1"/>
     <col min="7" max="7" width="11.375" customWidth="1"/>
@@ -9212,109 +9590,99 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="106">
+    <row r="2" spans="1:7" ht="27">
+      <c r="A2" s="87">
         <v>4</v>
       </c>
-      <c r="B2" s="85" t="s">
-        <v>106</v>
-      </c>
-      <c r="C2" s="87">
-        <v>43126</v>
-      </c>
-      <c r="D2" s="86" t="s">
-        <v>108</v>
+      <c r="B2" s="56" t="s">
+        <v>110</v>
+      </c>
+      <c r="C2" s="79">
+        <v>43123</v>
+      </c>
+      <c r="D2" s="51" t="s">
+        <v>181</v>
       </c>
       <c r="E2" s="11" t="s">
         <v>51</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>52</v>
+        <v>111</v>
       </c>
       <c r="G2" s="50" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="107"/>
-      <c r="B3" s="85" t="s">
-        <v>107</v>
-      </c>
-      <c r="C3" s="87">
-        <v>43126</v>
-      </c>
-      <c r="D3" s="86" t="s">
         <v>112</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="27">
+      <c r="A3" s="87">
+        <v>13</v>
+      </c>
+      <c r="B3" s="56" t="s">
+        <v>182</v>
+      </c>
+      <c r="C3" s="79">
+        <v>43186</v>
+      </c>
+      <c r="D3" s="51" t="s">
+        <v>183</v>
       </c>
       <c r="E3" s="11" t="s">
         <v>51</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>52</v>
+        <v>111</v>
       </c>
       <c r="G3" s="50" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="27">
-      <c r="A4" s="95"/>
-      <c r="B4" s="57" t="s">
-        <v>116</v>
-      </c>
-      <c r="C4" s="87">
-        <v>43123</v>
-      </c>
-      <c r="D4" s="51" t="s">
-        <v>168</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="G4" s="50" t="s">
-        <v>118</v>
-      </c>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="78"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="84"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
+      <c r="A5" s="78"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
       <c r="D5" s="10"/>
       <c r="E5" s="11"/>
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="84"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
+      <c r="A6" s="78"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
       <c r="D6" s="10"/>
       <c r="E6" s="11"/>
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="84"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
+      <c r="A7" s="78"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
       <c r="D7" s="10"/>
       <c r="E7" s="11"/>
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="84"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
+      <c r="A8" s="78"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
       <c r="D8" s="10"/>
       <c r="E8" s="11"/>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="84"/>
+      <c r="A9" s="78"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
       <c r="D9" s="10"/>
@@ -9323,7 +9691,7 @@
       <c r="G9" s="11"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="84"/>
+      <c r="A10" s="78"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
       <c r="D10" s="10"/>
@@ -9332,7 +9700,7 @@
       <c r="G10" s="11"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="84"/>
+      <c r="A11" s="78"/>
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
       <c r="D11" s="10"/>
@@ -9341,7 +9709,7 @@
       <c r="G11" s="11"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="84"/>
+      <c r="A12" s="52"/>
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
       <c r="D12" s="10"/>
@@ -9349,44 +9717,44 @@
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
     </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="84"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="10"/>
+    <row r="13" spans="1:7" ht="14.25">
+      <c r="A13" s="93"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="12"/>
       <c r="E13" s="11"/>
       <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="52"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="10"/>
+      <c r="G13" s="9"/>
+    </row>
+    <row r="14" spans="1:7" ht="14.25">
+      <c r="A14" s="94"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="12"/>
       <c r="E14" s="11"/>
       <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-    </row>
-    <row r="15" spans="1:7" ht="14.25">
-      <c r="A15" s="105"/>
+      <c r="G14" s="4"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="94"/>
       <c r="B15" s="9"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="12"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="10"/>
       <c r="E15" s="11"/>
       <c r="F15" s="11"/>
-      <c r="G15" s="9"/>
-    </row>
-    <row r="16" spans="1:7" ht="14.25">
-      <c r="A16" s="106"/>
+      <c r="G15" s="11"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="94"/>
       <c r="B16" s="9"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="12"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="10"/>
       <c r="E16" s="11"/>
       <c r="F16" s="11"/>
-      <c r="G16" s="4"/>
+      <c r="G16" s="11"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="106"/>
+      <c r="A17" s="94"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
       <c r="D17" s="10"/>
@@ -9395,7 +9763,7 @@
       <c r="G17" s="11"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="106"/>
+      <c r="A18" s="94"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
       <c r="D18" s="10"/>
@@ -9404,7 +9772,7 @@
       <c r="G18" s="11"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="106"/>
+      <c r="A19" s="94"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
       <c r="D19" s="10"/>
@@ -9413,7 +9781,7 @@
       <c r="G19" s="11"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="106"/>
+      <c r="A20" s="94"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
       <c r="D20" s="10"/>
@@ -9422,25 +9790,25 @@
       <c r="G20" s="11"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="106"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
+      <c r="A21" s="94"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
       <c r="D21" s="10"/>
       <c r="E21" s="11"/>
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="106"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
+      <c r="A22" s="94"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
       <c r="D22" s="10"/>
       <c r="E22" s="11"/>
       <c r="F22" s="11"/>
       <c r="G22" s="11"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="106"/>
+      <c r="A23" s="94"/>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
       <c r="D23" s="10"/>
@@ -9449,7 +9817,7 @@
       <c r="G23" s="11"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="106"/>
+      <c r="A24" s="94"/>
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
       <c r="D24" s="10"/>
@@ -9458,7 +9826,7 @@
       <c r="G24" s="11"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="106"/>
+      <c r="A25" s="94"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
       <c r="D25" s="10"/>
@@ -9467,7 +9835,7 @@
       <c r="G25" s="11"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="106"/>
+      <c r="A26" s="94"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
       <c r="D26" s="10"/>
@@ -9476,70 +9844,70 @@
       <c r="G26" s="11"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="106"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
+      <c r="A27" s="95"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
       <c r="D27" s="10"/>
       <c r="E27" s="11"/>
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
     </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="106"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="10"/>
+    <row r="28" spans="1:7" ht="14.25">
+      <c r="A28" s="93"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="12"/>
       <c r="E28" s="11"/>
       <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="107"/>
+      <c r="G28" s="9"/>
+    </row>
+    <row r="29" spans="1:7" ht="14.25">
+      <c r="A29" s="94"/>
       <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="10"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="12"/>
       <c r="E29" s="11"/>
       <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
+      <c r="G29" s="4"/>
     </row>
     <row r="30" spans="1:7" ht="14.25">
-      <c r="A30" s="105"/>
+      <c r="A30" s="94"/>
       <c r="B30" s="9"/>
-      <c r="C30" s="13"/>
+      <c r="C30" s="14"/>
       <c r="D30" s="12"/>
       <c r="E30" s="11"/>
       <c r="F30" s="11"/>
-      <c r="G30" s="9"/>
+      <c r="G30" s="4"/>
     </row>
     <row r="31" spans="1:7" ht="14.25">
-      <c r="A31" s="106"/>
+      <c r="A31" s="94"/>
       <c r="B31" s="9"/>
       <c r="C31" s="14"/>
       <c r="D31" s="12"/>
       <c r="E31" s="11"/>
       <c r="F31" s="11"/>
-      <c r="G31" s="4"/>
-    </row>
-    <row r="32" spans="1:7" ht="14.25">
-      <c r="A32" s="106"/>
+      <c r="G31" s="15"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="94"/>
       <c r="B32" s="9"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="12"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="10"/>
       <c r="E32" s="11"/>
       <c r="F32" s="11"/>
-      <c r="G32" s="4"/>
-    </row>
-    <row r="33" spans="1:7" ht="14.25">
-      <c r="A33" s="106"/>
+      <c r="G32" s="11"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="94"/>
       <c r="B33" s="9"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="12"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="10"/>
       <c r="E33" s="11"/>
       <c r="F33" s="11"/>
-      <c r="G33" s="15"/>
+      <c r="G33" s="11"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="106"/>
+      <c r="A34" s="94"/>
       <c r="B34" s="9"/>
       <c r="C34" s="9"/>
       <c r="D34" s="10"/>
@@ -9548,7 +9916,7 @@
       <c r="G34" s="11"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="106"/>
+      <c r="A35" s="94"/>
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
       <c r="D35" s="10"/>
@@ -9557,7 +9925,7 @@
       <c r="G35" s="11"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="106"/>
+      <c r="A36" s="94"/>
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
       <c r="D36" s="10"/>
@@ -9566,7 +9934,7 @@
       <c r="G36" s="11"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="106"/>
+      <c r="A37" s="94"/>
       <c r="B37" s="9"/>
       <c r="C37" s="9"/>
       <c r="D37" s="10"/>
@@ -9575,7 +9943,7 @@
       <c r="G37" s="11"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="106"/>
+      <c r="A38" s="94"/>
       <c r="B38" s="9"/>
       <c r="C38" s="9"/>
       <c r="D38" s="10"/>
@@ -9584,7 +9952,7 @@
       <c r="G38" s="11"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="106"/>
+      <c r="A39" s="95"/>
       <c r="B39" s="9"/>
       <c r="C39" s="9"/>
       <c r="D39" s="10"/>
@@ -9592,62 +9960,62 @@
       <c r="F39" s="11"/>
       <c r="G39" s="11"/>
     </row>
-    <row r="40" spans="1:7">
-      <c r="A40" s="106"/>
+    <row r="40" spans="1:7" ht="14.25">
+      <c r="A40" s="93"/>
       <c r="B40" s="9"/>
-      <c r="C40" s="9"/>
-      <c r="D40" s="10"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="12"/>
       <c r="E40" s="11"/>
       <c r="F40" s="11"/>
-      <c r="G40" s="11"/>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="A41" s="107"/>
+      <c r="G40" s="9"/>
+    </row>
+    <row r="41" spans="1:7" ht="14.25">
+      <c r="A41" s="94"/>
       <c r="B41" s="9"/>
-      <c r="C41" s="9"/>
-      <c r="D41" s="10"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="12"/>
       <c r="E41" s="11"/>
       <c r="F41" s="11"/>
-      <c r="G41" s="11"/>
+      <c r="G41" s="4"/>
     </row>
     <row r="42" spans="1:7" ht="14.25">
-      <c r="A42" s="105"/>
+      <c r="A42" s="94"/>
       <c r="B42" s="9"/>
-      <c r="C42" s="13"/>
+      <c r="C42" s="14"/>
       <c r="D42" s="12"/>
       <c r="E42" s="11"/>
       <c r="F42" s="11"/>
-      <c r="G42" s="9"/>
+      <c r="G42" s="4"/>
     </row>
     <row r="43" spans="1:7" ht="14.25">
-      <c r="A43" s="106"/>
+      <c r="A43" s="94"/>
       <c r="B43" s="9"/>
       <c r="C43" s="14"/>
       <c r="D43" s="12"/>
       <c r="E43" s="11"/>
       <c r="F43" s="11"/>
-      <c r="G43" s="4"/>
-    </row>
-    <row r="44" spans="1:7" ht="14.25">
-      <c r="A44" s="106"/>
+      <c r="G43" s="15"/>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="94"/>
       <c r="B44" s="9"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="12"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="10"/>
       <c r="E44" s="11"/>
       <c r="F44" s="11"/>
-      <c r="G44" s="4"/>
-    </row>
-    <row r="45" spans="1:7" ht="14.25">
-      <c r="A45" s="106"/>
+      <c r="G44" s="11"/>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="94"/>
       <c r="B45" s="9"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="12"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="10"/>
       <c r="E45" s="11"/>
       <c r="F45" s="11"/>
-      <c r="G45" s="15"/>
+      <c r="G45" s="11"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="106"/>
+      <c r="A46" s="94"/>
       <c r="B46" s="9"/>
       <c r="C46" s="9"/>
       <c r="D46" s="10"/>
@@ -9656,7 +10024,7 @@
       <c r="G46" s="11"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="106"/>
+      <c r="A47" s="94"/>
       <c r="B47" s="9"/>
       <c r="C47" s="9"/>
       <c r="D47" s="10"/>
@@ -9665,7 +10033,7 @@
       <c r="G47" s="11"/>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="106"/>
+      <c r="A48" s="94"/>
       <c r="B48" s="9"/>
       <c r="C48" s="9"/>
       <c r="D48" s="10"/>
@@ -9674,7 +10042,7 @@
       <c r="G48" s="11"/>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="106"/>
+      <c r="A49" s="94"/>
       <c r="B49" s="9"/>
       <c r="C49" s="9"/>
       <c r="D49" s="10"/>
@@ -9683,7 +10051,7 @@
       <c r="G49" s="11"/>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="106"/>
+      <c r="A50" s="94"/>
       <c r="B50" s="9"/>
       <c r="C50" s="9"/>
       <c r="D50" s="10"/>
@@ -9692,7 +10060,7 @@
       <c r="G50" s="11"/>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="106"/>
+      <c r="A51" s="95"/>
       <c r="B51" s="9"/>
       <c r="C51" s="9"/>
       <c r="D51" s="10"/>
@@ -9700,44 +10068,44 @@
       <c r="F51" s="11"/>
       <c r="G51" s="11"/>
     </row>
-    <row r="52" spans="1:7">
-      <c r="A52" s="106"/>
+    <row r="52" spans="1:7" ht="14.25">
+      <c r="A52" s="94"/>
       <c r="B52" s="9"/>
-      <c r="C52" s="9"/>
-      <c r="D52" s="10"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="12"/>
       <c r="E52" s="11"/>
       <c r="F52" s="11"/>
-      <c r="G52" s="11"/>
-    </row>
-    <row r="53" spans="1:7">
-      <c r="A53" s="107"/>
+      <c r="G52" s="4"/>
+    </row>
+    <row r="53" spans="1:7" ht="14.25">
+      <c r="A53" s="94"/>
       <c r="B53" s="9"/>
-      <c r="C53" s="9"/>
-      <c r="D53" s="10"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="12"/>
       <c r="E53" s="11"/>
       <c r="F53" s="11"/>
-      <c r="G53" s="11"/>
-    </row>
-    <row r="54" spans="1:7" ht="14.25">
-      <c r="A54" s="106"/>
+      <c r="G53" s="15"/>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="94"/>
       <c r="B54" s="9"/>
-      <c r="C54" s="14"/>
-      <c r="D54" s="12"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="10"/>
       <c r="E54" s="11"/>
       <c r="F54" s="11"/>
-      <c r="G54" s="4"/>
-    </row>
-    <row r="55" spans="1:7" ht="14.25">
-      <c r="A55" s="106"/>
+      <c r="G54" s="11"/>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="94"/>
       <c r="B55" s="9"/>
-      <c r="C55" s="14"/>
-      <c r="D55" s="12"/>
+      <c r="C55" s="9"/>
+      <c r="D55" s="10"/>
       <c r="E55" s="11"/>
       <c r="F55" s="11"/>
-      <c r="G55" s="15"/>
+      <c r="G55" s="11"/>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="106"/>
+      <c r="A56" s="94"/>
       <c r="B56" s="9"/>
       <c r="C56" s="9"/>
       <c r="D56" s="10"/>
@@ -9746,7 +10114,7 @@
       <c r="G56" s="11"/>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="106"/>
+      <c r="A57" s="94"/>
       <c r="B57" s="9"/>
       <c r="C57" s="9"/>
       <c r="D57" s="10"/>
@@ -9755,7 +10123,7 @@
       <c r="G57" s="11"/>
     </row>
     <row r="58" spans="1:7">
-      <c r="A58" s="106"/>
+      <c r="A58" s="94"/>
       <c r="B58" s="9"/>
       <c r="C58" s="9"/>
       <c r="D58" s="10"/>
@@ -9764,7 +10132,7 @@
       <c r="G58" s="11"/>
     </row>
     <row r="59" spans="1:7">
-      <c r="A59" s="106"/>
+      <c r="A59" s="94"/>
       <c r="B59" s="9"/>
       <c r="C59" s="9"/>
       <c r="D59" s="10"/>
@@ -9773,7 +10141,7 @@
       <c r="G59" s="11"/>
     </row>
     <row r="60" spans="1:7">
-      <c r="A60" s="106"/>
+      <c r="A60" s="94"/>
       <c r="B60" s="9"/>
       <c r="C60" s="9"/>
       <c r="D60" s="10"/>
@@ -9782,7 +10150,7 @@
       <c r="G60" s="11"/>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="106"/>
+      <c r="A61" s="95"/>
       <c r="B61" s="9"/>
       <c r="C61" s="9"/>
       <c r="D61" s="10"/>
@@ -9790,31 +10158,12 @@
       <c r="F61" s="11"/>
       <c r="G61" s="11"/>
     </row>
-    <row r="62" spans="1:7">
-      <c r="A62" s="106"/>
-      <c r="B62" s="9"/>
-      <c r="C62" s="9"/>
-      <c r="D62" s="10"/>
-      <c r="E62" s="11"/>
-      <c r="F62" s="11"/>
-      <c r="G62" s="11"/>
-    </row>
-    <row r="63" spans="1:7">
-      <c r="A63" s="107"/>
-      <c r="B63" s="9"/>
-      <c r="C63" s="9"/>
-      <c r="D63" s="10"/>
-      <c r="E63" s="11"/>
-      <c r="F63" s="11"/>
-      <c r="G63" s="11"/>
-    </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A42:A53"/>
-    <mergeCell ref="A54:A63"/>
-    <mergeCell ref="A15:A29"/>
-    <mergeCell ref="A30:A41"/>
+  <mergeCells count="4">
+    <mergeCell ref="A40:A51"/>
+    <mergeCell ref="A52:A61"/>
+    <mergeCell ref="A13:A27"/>
+    <mergeCell ref="A28:A39"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <dataValidations count="3">
@@ -9844,7 +10193,7 @@
     <col min="1" max="1" width="9.75" style="4" customWidth="1"/>
     <col min="2" max="2" width="15.125" style="1" customWidth="1"/>
     <col min="3" max="3" width="17" style="1" customWidth="1"/>
-    <col min="4" max="4" width="29.5" style="55" customWidth="1"/>
+    <col min="4" max="4" width="29.5" style="54" customWidth="1"/>
     <col min="5" max="5" width="16" style="4" customWidth="1"/>
     <col min="6" max="6" width="17.875" bestFit="1" customWidth="1"/>
   </cols>
@@ -9859,8 +10208,8 @@
       <c r="C1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="56" t="s">
-        <v>53</v>
+      <c r="D1" s="55" t="s">
+        <v>52</v>
       </c>
       <c r="E1" s="53" t="s">
         <v>36</v>
@@ -9870,45 +10219,69 @@
       <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="81" t="s">
+      <c r="B2" s="75" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="82">
+      <c r="C2" s="76">
         <v>43127</v>
       </c>
-      <c r="D2" s="73" t="s">
-        <v>90</v>
-      </c>
-      <c r="E2" s="81" t="s">
-        <v>54</v>
+      <c r="D2" s="70" t="s">
+        <v>89</v>
+      </c>
+      <c r="E2" s="75" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="B3" s="81" t="s">
+      <c r="B3" s="75" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="82">
+      <c r="C3" s="76">
         <v>43128</v>
       </c>
-      <c r="D3" s="73" t="s">
-        <v>90</v>
-      </c>
-      <c r="E3" s="81" t="s">
-        <v>54</v>
+      <c r="D3" s="70" t="s">
+        <v>89</v>
+      </c>
+      <c r="E3" s="75" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="54"/>
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="87" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="76">
+        <v>43190</v>
+      </c>
+      <c r="D4" s="70" t="s">
+        <v>184</v>
+      </c>
+      <c r="E4" s="87" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="54"/>
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="87" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="76">
+        <v>43191</v>
+      </c>
+      <c r="D5" s="70" t="s">
+        <v>184</v>
+      </c>
+      <c r="E5" s="87" t="s">
+        <v>53</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>

--- a/周数据/《个人上线率统计表》-黄纯伟.xlsx
+++ b/周数据/《个人上线率统计表》-黄纯伟.xlsx
@@ -12,12 +12,12 @@
     <sheet name="未上线项目明细" sheetId="3" r:id="rId3"/>
     <sheet name="加班明细" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="125725" concurrentCalc="0"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="203">
   <si>
     <t>个人上线率分析表</t>
   </si>
@@ -709,10 +709,6 @@
   </si>
   <si>
     <t>饺翻天泰州万达广场店</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>店铺签约100家，目前还有59家未开户，12家未上线，29家已上线</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
@@ -803,6 +799,50 @@
   </si>
   <si>
     <t>老板</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>南京/百鹅汇</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>售后</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>三千粉</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>三千粉杭州铭德利星广场店</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>三千粉杭州湖滨银泰二期店</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>三千粉南京江宁欧尚店</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>三千粉相城欧尚店</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>杭州</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>南京</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>苏州</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>店铺签约100家，目前还有54家未开户，13家未上线，33家已上线</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -1590,6 +1630,30 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1602,6 +1666,18 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1609,42 +1685,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1942,24 +1982,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15" thickBot="1">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="97" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
-      <c r="J1" s="91"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="90"/>
-      <c r="M1" s="92"/>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="99"/>
+      <c r="K1" s="98"/>
+      <c r="L1" s="98"/>
+      <c r="M1" s="100"/>
     </row>
     <row r="2" spans="1:13" ht="14.25" thickBot="1">
-      <c r="A2" s="98" t="s">
+      <c r="A2" s="89" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="22" t="s">
@@ -2000,7 +2040,7 @@
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="100">
+      <c r="A3" s="95">
         <v>12</v>
       </c>
       <c r="B3" s="67">
@@ -2041,7 +2081,7 @@
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="101"/>
+      <c r="A4" s="96"/>
       <c r="B4" s="67">
         <v>52</v>
       </c>
@@ -2082,7 +2122,7 @@
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="97">
+      <c r="A5" s="101">
         <v>1</v>
       </c>
       <c r="B5" s="67">
@@ -2125,7 +2165,7 @@
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="97"/>
+      <c r="A6" s="101"/>
       <c r="B6" s="67">
         <v>2</v>
       </c>
@@ -2166,7 +2206,7 @@
       </c>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="97"/>
+      <c r="A7" s="101"/>
       <c r="B7" s="67">
         <v>3</v>
       </c>
@@ -2207,7 +2247,7 @@
       </c>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="97"/>
+      <c r="A8" s="101"/>
       <c r="B8" s="68">
         <v>4</v>
       </c>
@@ -2248,7 +2288,7 @@
       </c>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="97"/>
+      <c r="A9" s="101"/>
       <c r="B9" s="67">
         <v>5</v>
       </c>
@@ -2289,7 +2329,7 @@
       </c>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="99">
+      <c r="A10" s="94">
         <v>2</v>
       </c>
       <c r="B10" s="67">
@@ -2332,7 +2372,7 @@
       </c>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="99"/>
+      <c r="A11" s="94"/>
       <c r="B11" s="67">
         <v>7</v>
       </c>
@@ -2371,7 +2411,7 @@
       </c>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="99"/>
+      <c r="A12" s="94"/>
       <c r="B12" s="67">
         <v>8</v>
       </c>
@@ -2412,7 +2452,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" ht="14.25" thickBot="1">
-      <c r="A13" s="99"/>
+      <c r="A13" s="94"/>
       <c r="B13" s="69">
         <v>9</v>
       </c>
@@ -2453,7 +2493,7 @@
       </c>
     </row>
     <row r="14" spans="1:13" ht="14.25" thickBot="1">
-      <c r="A14" s="99">
+      <c r="A14" s="94">
         <v>3</v>
       </c>
       <c r="B14" s="69">
@@ -2466,35 +2506,35 @@
         <v>1</v>
       </c>
       <c r="E14" s="32">
-        <f t="shared" ref="E14:E24" si="12">C14-D14</f>
+        <f t="shared" ref="E14:E19" si="12">C14-D14</f>
         <v>-1</v>
       </c>
       <c r="F14" s="33"/>
       <c r="G14" s="34"/>
       <c r="H14" s="33">
-        <f t="shared" ref="H14:H22" si="13">F14-G14</f>
+        <f t="shared" ref="H14:H19" si="13">F14-G14</f>
         <v>0</v>
       </c>
       <c r="I14" s="45"/>
       <c r="J14" s="46">
-        <f t="shared" ref="J14:J22" si="14">I14/L14*100%</f>
+        <f t="shared" ref="J14:J19" si="14">I14/L14*100%</f>
         <v>0</v>
       </c>
       <c r="K14" s="47">
-        <f t="shared" ref="K14:K22" si="15">C14+G14</f>
+        <f t="shared" ref="K14:K19" si="15">C14+G14</f>
         <v>0</v>
       </c>
       <c r="L14" s="48">
-        <f t="shared" ref="L14:L22" si="16">D14+G14</f>
+        <f t="shared" ref="L14:L19" si="16">D14+G14</f>
         <v>1</v>
       </c>
       <c r="M14" s="49" t="e">
-        <f t="shared" ref="M14:M22" si="17">L14/K14*100%</f>
+        <f t="shared" ref="M14:M19" si="17">L14/K14*100%</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="14.25" thickBot="1">
-      <c r="A15" s="99"/>
+      <c r="A15" s="94"/>
       <c r="B15" s="69">
         <v>11</v>
       </c>
@@ -2535,7 +2575,7 @@
       </c>
     </row>
     <row r="16" spans="1:13" ht="14.25" thickBot="1">
-      <c r="A16" s="99"/>
+      <c r="A16" s="94"/>
       <c r="B16" s="69">
         <v>12</v>
       </c>
@@ -2576,7 +2616,7 @@
       </c>
     </row>
     <row r="17" spans="1:13" ht="14.25" thickBot="1">
-      <c r="A17" s="99"/>
+      <c r="A17" s="94"/>
       <c r="B17" s="69">
         <v>13</v>
       </c>
@@ -2617,21 +2657,21 @@
       </c>
     </row>
     <row r="18" spans="1:13" ht="14.25" thickBot="1">
-      <c r="A18" s="105">
+      <c r="A18" s="93">
         <v>4</v>
       </c>
       <c r="B18" s="69">
         <v>14</v>
       </c>
       <c r="C18" s="31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D18" s="32">
         <v>4</v>
       </c>
       <c r="E18" s="32">
         <f t="shared" si="12"/>
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="F18" s="33"/>
       <c r="G18" s="34"/>
@@ -2648,24 +2688,30 @@
       </c>
       <c r="K18" s="47">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L18" s="48">
         <f t="shared" si="16"/>
         <v>4</v>
       </c>
-      <c r="M18" s="49" t="e">
+      <c r="M18" s="49">
         <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="14.25" thickBot="1">
-      <c r="B19" s="69"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="32"/>
+      <c r="B19" s="69">
+        <v>15</v>
+      </c>
+      <c r="C19" s="31">
+        <v>0</v>
+      </c>
+      <c r="D19" s="32">
+        <v>4</v>
+      </c>
       <c r="E19" s="32">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="F19" s="33"/>
       <c r="G19" s="34"/>
@@ -2673,10 +2719,12 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="I19" s="45"/>
-      <c r="J19" s="46" t="e">
+      <c r="I19" s="45">
+        <v>4</v>
+      </c>
+      <c r="J19" s="46">
         <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
       <c r="K19" s="47">
         <f t="shared" si="15"/>
@@ -2684,7 +2732,7 @@
       </c>
       <c r="L19" s="48">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M19" s="49" t="e">
         <f t="shared" si="17"/>
@@ -2692,7 +2740,7 @@
       </c>
     </row>
     <row r="20" spans="1:13">
-      <c r="A20" s="102"/>
+      <c r="A20" s="90"/>
       <c r="B20" s="67"/>
       <c r="C20" s="27"/>
       <c r="D20" s="28"/>
@@ -2707,7 +2755,7 @@
       <c r="M20" s="44"/>
     </row>
     <row r="21" spans="1:13">
-      <c r="A21" s="103"/>
+      <c r="A21" s="91"/>
       <c r="B21" s="67"/>
       <c r="C21" s="27"/>
       <c r="D21" s="28"/>
@@ -2722,7 +2770,7 @@
       <c r="M21" s="44"/>
     </row>
     <row r="22" spans="1:13">
-      <c r="A22" s="103"/>
+      <c r="A22" s="91"/>
       <c r="B22" s="67"/>
       <c r="C22" s="27"/>
       <c r="D22" s="28"/>
@@ -2737,7 +2785,7 @@
       <c r="M22" s="66"/>
     </row>
     <row r="23" spans="1:13">
-      <c r="A23" s="103"/>
+      <c r="A23" s="91"/>
       <c r="B23" s="68"/>
       <c r="C23" s="60"/>
       <c r="D23" s="61"/>
@@ -2752,7 +2800,7 @@
       <c r="M23" s="44"/>
     </row>
     <row r="24" spans="1:13">
-      <c r="A24" s="104"/>
+      <c r="A24" s="92"/>
       <c r="B24" s="67"/>
       <c r="C24" s="27"/>
       <c r="D24" s="28"/>
@@ -2767,7 +2815,7 @@
       <c r="M24" s="44"/>
     </row>
     <row r="25" spans="1:13">
-      <c r="A25" s="102"/>
+      <c r="A25" s="90"/>
       <c r="B25" s="67"/>
       <c r="C25" s="27"/>
       <c r="D25" s="28"/>
@@ -2782,7 +2830,7 @@
       <c r="M25" s="44"/>
     </row>
     <row r="26" spans="1:13">
-      <c r="A26" s="103"/>
+      <c r="A26" s="91"/>
       <c r="B26" s="67"/>
       <c r="C26" s="27"/>
       <c r="D26" s="28"/>
@@ -2797,7 +2845,7 @@
       <c r="M26" s="44"/>
     </row>
     <row r="27" spans="1:13">
-      <c r="A27" s="103"/>
+      <c r="A27" s="91"/>
       <c r="B27" s="67"/>
       <c r="C27" s="27"/>
       <c r="D27" s="28"/>
@@ -2812,7 +2860,7 @@
       <c r="M27" s="66"/>
     </row>
     <row r="28" spans="1:13">
-      <c r="A28" s="103"/>
+      <c r="A28" s="91"/>
       <c r="B28" s="68"/>
       <c r="C28" s="60"/>
       <c r="D28" s="61"/>
@@ -2827,7 +2875,7 @@
       <c r="M28" s="44"/>
     </row>
     <row r="29" spans="1:13">
-      <c r="A29" s="104"/>
+      <c r="A29" s="92"/>
       <c r="B29" s="67"/>
       <c r="C29" s="27"/>
       <c r="D29" s="28"/>
@@ -2926,7 +2974,7 @@
       </c>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="93">
+      <c r="A2" s="105">
         <v>51</v>
       </c>
       <c r="B2" s="58">
@@ -2973,7 +3021,7 @@
       </c>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="95"/>
+      <c r="A3" s="107"/>
       <c r="B3" s="58">
         <v>43085</v>
       </c>
@@ -3065,7 +3113,7 @@
       </c>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="93">
+      <c r="A5" s="105">
         <v>1</v>
       </c>
       <c r="B5" s="59">
@@ -3112,7 +3160,7 @@
       </c>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="95"/>
+      <c r="A6" s="107"/>
       <c r="B6" s="59">
         <v>43103</v>
       </c>
@@ -3157,7 +3205,7 @@
       </c>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="93">
+      <c r="A7" s="105">
         <v>2</v>
       </c>
       <c r="B7" s="59">
@@ -3204,7 +3252,7 @@
       </c>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="95"/>
+      <c r="A8" s="107"/>
       <c r="B8" s="59">
         <v>43109</v>
       </c>
@@ -3249,7 +3297,7 @@
       </c>
     </row>
     <row r="9" spans="1:15">
-      <c r="A9" s="93">
+      <c r="A9" s="105">
         <v>3</v>
       </c>
       <c r="B9" s="59">
@@ -3296,7 +3344,7 @@
       </c>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="95"/>
+      <c r="A10" s="107"/>
       <c r="B10" s="59">
         <v>43116</v>
       </c>
@@ -3388,7 +3436,7 @@
       </c>
     </row>
     <row r="12" spans="1:15">
-      <c r="A12" s="93">
+      <c r="A12" s="105">
         <v>5</v>
       </c>
       <c r="B12" s="59">
@@ -3435,7 +3483,7 @@
       </c>
     </row>
     <row r="13" spans="1:15">
-      <c r="A13" s="94"/>
+      <c r="A13" s="106"/>
       <c r="B13" s="59">
         <v>43130</v>
       </c>
@@ -3480,7 +3528,7 @@
       </c>
     </row>
     <row r="14" spans="1:15">
-      <c r="A14" s="95"/>
+      <c r="A14" s="107"/>
       <c r="B14" s="59">
         <v>43131</v>
       </c>
@@ -3525,7 +3573,7 @@
       </c>
     </row>
     <row r="15" spans="1:15">
-      <c r="A15" s="93">
+      <c r="A15" s="105">
         <v>6</v>
       </c>
       <c r="B15" s="59">
@@ -3572,7 +3620,7 @@
       </c>
     </row>
     <row r="16" spans="1:15">
-      <c r="A16" s="95"/>
+      <c r="A16" s="107"/>
       <c r="B16" s="59">
         <v>43138</v>
       </c>
@@ -3637,7 +3685,7 @@
       <c r="O17" s="11"/>
     </row>
     <row r="18" spans="1:15">
-      <c r="A18" s="93">
+      <c r="A18" s="105">
         <v>8</v>
       </c>
       <c r="B18" s="59">
@@ -3684,7 +3732,7 @@
       </c>
     </row>
     <row r="19" spans="1:15">
-      <c r="A19" s="94"/>
+      <c r="A19" s="106"/>
       <c r="B19" s="59">
         <v>43154</v>
       </c>
@@ -3729,7 +3777,7 @@
       </c>
     </row>
     <row r="20" spans="1:15">
-      <c r="A20" s="94"/>
+      <c r="A20" s="106"/>
       <c r="B20" s="59">
         <v>43154</v>
       </c>
@@ -3774,7 +3822,7 @@
       </c>
     </row>
     <row r="21" spans="1:15">
-      <c r="A21" s="94"/>
+      <c r="A21" s="106"/>
       <c r="B21" s="59">
         <v>43154</v>
       </c>
@@ -3819,7 +3867,7 @@
       </c>
     </row>
     <row r="22" spans="1:15">
-      <c r="A22" s="94"/>
+      <c r="A22" s="106"/>
       <c r="B22" s="59">
         <v>43154</v>
       </c>
@@ -3864,7 +3912,7 @@
       </c>
     </row>
     <row r="23" spans="1:15">
-      <c r="A23" s="95"/>
+      <c r="A23" s="107"/>
       <c r="B23" s="59">
         <v>43154</v>
       </c>
@@ -3909,7 +3957,7 @@
       </c>
     </row>
     <row r="24" spans="1:15">
-      <c r="A24" s="93">
+      <c r="A24" s="105">
         <v>9</v>
       </c>
       <c r="B24" s="59">
@@ -3956,7 +4004,7 @@
       </c>
     </row>
     <row r="25" spans="1:15">
-      <c r="A25" s="94"/>
+      <c r="A25" s="106"/>
       <c r="B25" s="59">
         <v>43159</v>
       </c>
@@ -4001,7 +4049,7 @@
       </c>
     </row>
     <row r="26" spans="1:15">
-      <c r="A26" s="94"/>
+      <c r="A26" s="106"/>
       <c r="B26" s="59">
         <v>43159</v>
       </c>
@@ -4046,7 +4094,7 @@
       </c>
     </row>
     <row r="27" spans="1:15">
-      <c r="A27" s="94"/>
+      <c r="A27" s="106"/>
       <c r="B27" s="59">
         <v>43159</v>
       </c>
@@ -4091,7 +4139,7 @@
       </c>
     </row>
     <row r="28" spans="1:15">
-      <c r="A28" s="95"/>
+      <c r="A28" s="107"/>
       <c r="B28" s="59">
         <v>43159</v>
       </c>
@@ -4230,7 +4278,7 @@
       </c>
     </row>
     <row r="31" spans="1:15">
-      <c r="A31" s="93">
+      <c r="A31" s="105">
         <v>12</v>
       </c>
       <c r="B31" s="59">
@@ -4277,7 +4325,7 @@
       </c>
     </row>
     <row r="32" spans="1:15">
-      <c r="A32" s="94"/>
+      <c r="A32" s="106"/>
       <c r="B32" s="59">
         <v>43180</v>
       </c>
@@ -4322,7 +4370,7 @@
       </c>
     </row>
     <row r="33" spans="1:15">
-      <c r="A33" s="94"/>
+      <c r="A33" s="106"/>
       <c r="B33" s="59">
         <v>43180</v>
       </c>
@@ -4367,7 +4415,7 @@
       </c>
     </row>
     <row r="34" spans="1:15">
-      <c r="A34" s="94"/>
+      <c r="A34" s="106"/>
       <c r="B34" s="59">
         <v>43180</v>
       </c>
@@ -4412,7 +4460,7 @@
       </c>
     </row>
     <row r="35" spans="1:15">
-      <c r="A35" s="94"/>
+      <c r="A35" s="106"/>
       <c r="B35" s="59">
         <v>43180</v>
       </c>
@@ -4457,7 +4505,7 @@
       </c>
     </row>
     <row r="36" spans="1:15">
-      <c r="A36" s="94"/>
+      <c r="A36" s="106"/>
       <c r="B36" s="59">
         <v>43180</v>
       </c>
@@ -4502,7 +4550,7 @@
       </c>
     </row>
     <row r="37" spans="1:15">
-      <c r="A37" s="95"/>
+      <c r="A37" s="107"/>
       <c r="B37" s="59">
         <v>43180</v>
       </c>
@@ -4547,7 +4595,7 @@
       </c>
     </row>
     <row r="38" spans="1:15">
-      <c r="A38" s="93">
+      <c r="A38" s="105">
         <v>13</v>
       </c>
       <c r="B38" s="59">
@@ -4594,7 +4642,7 @@
       </c>
     </row>
     <row r="39" spans="1:15">
-      <c r="A39" s="94"/>
+      <c r="A39" s="106"/>
       <c r="B39" s="59">
         <v>43187</v>
       </c>
@@ -4639,7 +4687,7 @@
       </c>
     </row>
     <row r="40" spans="1:15">
-      <c r="A40" s="94"/>
+      <c r="A40" s="106"/>
       <c r="B40" s="59">
         <v>43187</v>
       </c>
@@ -4684,7 +4732,7 @@
       </c>
     </row>
     <row r="41" spans="1:15">
-      <c r="A41" s="94"/>
+      <c r="A41" s="106"/>
       <c r="B41" s="59">
         <v>43187</v>
       </c>
@@ -4729,7 +4777,7 @@
       </c>
     </row>
     <row r="42" spans="1:15">
-      <c r="A42" s="94"/>
+      <c r="A42" s="106"/>
       <c r="B42" s="59">
         <v>43187</v>
       </c>
@@ -4774,7 +4822,7 @@
       </c>
     </row>
     <row r="43" spans="1:15">
-      <c r="A43" s="94"/>
+      <c r="A43" s="106"/>
       <c r="B43" s="59">
         <v>43187</v>
       </c>
@@ -4819,7 +4867,7 @@
       </c>
     </row>
     <row r="44" spans="1:15">
-      <c r="A44" s="94"/>
+      <c r="A44" s="106"/>
       <c r="B44" s="59">
         <v>43187</v>
       </c>
@@ -4864,7 +4912,7 @@
       </c>
     </row>
     <row r="45" spans="1:15">
-      <c r="A45" s="94"/>
+      <c r="A45" s="106"/>
       <c r="B45" s="59">
         <v>43187</v>
       </c>
@@ -4909,7 +4957,7 @@
       </c>
     </row>
     <row r="46" spans="1:15">
-      <c r="A46" s="94"/>
+      <c r="A46" s="106"/>
       <c r="B46" s="59">
         <v>43187</v>
       </c>
@@ -4954,7 +5002,7 @@
       </c>
     </row>
     <row r="47" spans="1:15">
-      <c r="A47" s="94"/>
+      <c r="A47" s="106"/>
       <c r="B47" s="59">
         <v>43187</v>
       </c>
@@ -4999,7 +5047,7 @@
       </c>
     </row>
     <row r="48" spans="1:15">
-      <c r="A48" s="94"/>
+      <c r="A48" s="106"/>
       <c r="B48" s="59">
         <v>43187</v>
       </c>
@@ -5044,7 +5092,7 @@
       </c>
     </row>
     <row r="49" spans="1:15">
-      <c r="A49" s="95"/>
+      <c r="A49" s="107"/>
       <c r="B49" s="59">
         <v>43187</v>
       </c>
@@ -5089,7 +5137,7 @@
       </c>
     </row>
     <row r="50" spans="1:15">
-      <c r="A50" s="106">
+      <c r="A50" s="102">
         <v>14</v>
       </c>
       <c r="B50" s="59">
@@ -5099,19 +5147,19 @@
         <v>37</v>
       </c>
       <c r="D50" s="50" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E50" s="50" t="s">
         <v>75</v>
       </c>
       <c r="F50" s="50" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G50" s="71">
         <v>76128879</v>
       </c>
       <c r="H50" s="88" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I50" s="50" t="s">
         <v>40</v>
@@ -5123,10 +5171,10 @@
         <v>17602558329</v>
       </c>
       <c r="L50" s="11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M50" s="50" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="N50" s="71">
         <v>13913957701</v>
@@ -5136,7 +5184,7 @@
       </c>
     </row>
     <row r="51" spans="1:15">
-      <c r="A51" s="96"/>
+      <c r="A51" s="103"/>
       <c r="B51" s="59">
         <v>43194</v>
       </c>
@@ -5144,19 +5192,19 @@
         <v>37</v>
       </c>
       <c r="D51" s="50" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E51" s="50" t="s">
         <v>75</v>
       </c>
       <c r="F51" s="50" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G51" s="71">
         <v>76128880</v>
       </c>
       <c r="H51" s="88" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I51" s="50" t="s">
         <v>40</v>
@@ -5168,10 +5216,10 @@
         <v>17602558329</v>
       </c>
       <c r="L51" s="50" t="s">
+        <v>190</v>
+      </c>
+      <c r="M51" s="50" t="s">
         <v>191</v>
-      </c>
-      <c r="M51" s="50" t="s">
-        <v>192</v>
       </c>
       <c r="N51" s="71">
         <v>18806742898</v>
@@ -5181,7 +5229,7 @@
       </c>
     </row>
     <row r="52" spans="1:15">
-      <c r="A52" s="96"/>
+      <c r="A52" s="103"/>
       <c r="B52" s="59">
         <v>43194</v>
       </c>
@@ -5226,7 +5274,7 @@
       </c>
     </row>
     <row r="53" spans="1:15">
-      <c r="A53" s="107"/>
+      <c r="A53" s="104"/>
       <c r="B53" s="59">
         <v>43194</v>
       </c>
@@ -5271,72 +5319,186 @@
       </c>
     </row>
     <row r="54" spans="1:15">
-      <c r="A54" s="1"/>
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
-      <c r="G54" s="1"/>
-      <c r="H54" s="1"/>
-      <c r="I54" s="1"/>
-      <c r="J54" s="1"/>
-      <c r="K54" s="1"/>
-      <c r="L54" s="1"/>
-      <c r="M54" s="1"/>
-      <c r="N54" s="1"/>
-      <c r="O54" s="1"/>
+      <c r="A54" s="105">
+        <v>15</v>
+      </c>
+      <c r="B54" s="59">
+        <v>43201</v>
+      </c>
+      <c r="C54" s="50" t="s">
+        <v>37</v>
+      </c>
+      <c r="D54" s="50" t="s">
+        <v>99</v>
+      </c>
+      <c r="E54" s="50" t="s">
+        <v>194</v>
+      </c>
+      <c r="F54" s="50" t="s">
+        <v>199</v>
+      </c>
+      <c r="G54" s="1">
+        <v>76132983</v>
+      </c>
+      <c r="H54" s="50" t="s">
+        <v>195</v>
+      </c>
+      <c r="I54" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="J54" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="K54" s="11">
+        <v>17602558329</v>
+      </c>
+      <c r="L54" s="50" t="s">
+        <v>102</v>
+      </c>
+      <c r="M54" s="50" t="s">
+        <v>103</v>
+      </c>
+      <c r="N54" s="11">
+        <v>18020275119</v>
+      </c>
+      <c r="O54" s="11" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="55" spans="1:15">
-      <c r="A55" s="1"/>
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
-      <c r="F55" s="1"/>
-      <c r="G55" s="1"/>
-      <c r="H55" s="1"/>
-      <c r="I55" s="1"/>
-      <c r="J55" s="1"/>
-      <c r="K55" s="1"/>
-      <c r="L55" s="1"/>
-      <c r="M55" s="1"/>
-      <c r="N55" s="1"/>
-      <c r="O55" s="1"/>
+      <c r="A55" s="106"/>
+      <c r="B55" s="59">
+        <v>43201</v>
+      </c>
+      <c r="C55" s="50" t="s">
+        <v>37</v>
+      </c>
+      <c r="D55" s="50" t="s">
+        <v>99</v>
+      </c>
+      <c r="E55" s="50" t="s">
+        <v>194</v>
+      </c>
+      <c r="F55" s="50" t="s">
+        <v>199</v>
+      </c>
+      <c r="G55" s="1">
+        <v>76132985</v>
+      </c>
+      <c r="H55" s="50" t="s">
+        <v>196</v>
+      </c>
+      <c r="I55" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="J55" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="K55" s="11">
+        <v>17602558329</v>
+      </c>
+      <c r="L55" s="50" t="s">
+        <v>102</v>
+      </c>
+      <c r="M55" s="50" t="s">
+        <v>103</v>
+      </c>
+      <c r="N55" s="11">
+        <v>18020275119</v>
+      </c>
+      <c r="O55" s="11" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="56" spans="1:15">
-      <c r="A56" s="1"/>
-      <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
-      <c r="F56" s="1"/>
-      <c r="G56" s="1"/>
-      <c r="H56" s="1"/>
-      <c r="I56" s="1"/>
-      <c r="J56" s="1"/>
-      <c r="K56" s="1"/>
-      <c r="L56" s="1"/>
-      <c r="M56" s="1"/>
-      <c r="N56" s="1"/>
-      <c r="O56" s="1"/>
+      <c r="A56" s="106"/>
+      <c r="B56" s="59">
+        <v>43201</v>
+      </c>
+      <c r="C56" s="50" t="s">
+        <v>37</v>
+      </c>
+      <c r="D56" s="50" t="s">
+        <v>99</v>
+      </c>
+      <c r="E56" s="50" t="s">
+        <v>194</v>
+      </c>
+      <c r="F56" s="50" t="s">
+        <v>200</v>
+      </c>
+      <c r="G56" s="1">
+        <v>76132987</v>
+      </c>
+      <c r="H56" s="50" t="s">
+        <v>197</v>
+      </c>
+      <c r="I56" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="J56" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="K56" s="11">
+        <v>17602558329</v>
+      </c>
+      <c r="L56" s="50" t="s">
+        <v>102</v>
+      </c>
+      <c r="M56" s="50" t="s">
+        <v>103</v>
+      </c>
+      <c r="N56" s="11">
+        <v>18020275119</v>
+      </c>
+      <c r="O56" s="11" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="57" spans="1:15">
-      <c r="A57" s="1"/>
-      <c r="B57" s="1"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
-      <c r="F57" s="1"/>
-      <c r="G57" s="1"/>
-      <c r="H57" s="1"/>
-      <c r="I57" s="1"/>
-      <c r="J57" s="1"/>
-      <c r="K57" s="1"/>
-      <c r="L57" s="1"/>
-      <c r="M57" s="1"/>
-      <c r="N57" s="1"/>
-      <c r="O57" s="1"/>
+      <c r="A57" s="107"/>
+      <c r="B57" s="59">
+        <v>43201</v>
+      </c>
+      <c r="C57" s="50" t="s">
+        <v>37</v>
+      </c>
+      <c r="D57" s="50" t="s">
+        <v>99</v>
+      </c>
+      <c r="E57" s="50" t="s">
+        <v>194</v>
+      </c>
+      <c r="F57" s="50" t="s">
+        <v>201</v>
+      </c>
+      <c r="G57" s="1">
+        <v>76138839</v>
+      </c>
+      <c r="H57" s="50" t="s">
+        <v>198</v>
+      </c>
+      <c r="I57" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="J57" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="K57" s="11">
+        <v>17602558329</v>
+      </c>
+      <c r="L57" s="50" t="s">
+        <v>102</v>
+      </c>
+      <c r="M57" s="50" t="s">
+        <v>103</v>
+      </c>
+      <c r="N57" s="11">
+        <v>18020275119</v>
+      </c>
+      <c r="O57" s="11" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="58" spans="1:15">
       <c r="A58" s="1"/>
@@ -9521,7 +9683,8 @@
       <c r="O303" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="A54:A57"/>
     <mergeCell ref="A50:A53"/>
     <mergeCell ref="A38:A49"/>
     <mergeCell ref="A2:A3"/>
@@ -9601,7 +9764,7 @@
         <v>43123</v>
       </c>
       <c r="D2" s="51" t="s">
-        <v>181</v>
+        <v>202</v>
       </c>
       <c r="E2" s="11" t="s">
         <v>51</v>
@@ -9618,13 +9781,13 @@
         <v>13</v>
       </c>
       <c r="B3" s="56" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C3" s="79">
         <v>43186</v>
       </c>
       <c r="D3" s="51" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E3" s="11" t="s">
         <v>51</v>
@@ -9718,7 +9881,7 @@
       <c r="G12" s="11"/>
     </row>
     <row r="13" spans="1:7" ht="14.25">
-      <c r="A13" s="93"/>
+      <c r="A13" s="105"/>
       <c r="B13" s="9"/>
       <c r="C13" s="13"/>
       <c r="D13" s="12"/>
@@ -9727,7 +9890,7 @@
       <c r="G13" s="9"/>
     </row>
     <row r="14" spans="1:7" ht="14.25">
-      <c r="A14" s="94"/>
+      <c r="A14" s="106"/>
       <c r="B14" s="9"/>
       <c r="C14" s="14"/>
       <c r="D14" s="12"/>
@@ -9736,7 +9899,7 @@
       <c r="G14" s="4"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="94"/>
+      <c r="A15" s="106"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
       <c r="D15" s="10"/>
@@ -9745,7 +9908,7 @@
       <c r="G15" s="11"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="94"/>
+      <c r="A16" s="106"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
       <c r="D16" s="10"/>
@@ -9754,7 +9917,7 @@
       <c r="G16" s="11"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="94"/>
+      <c r="A17" s="106"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
       <c r="D17" s="10"/>
@@ -9763,7 +9926,7 @@
       <c r="G17" s="11"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="94"/>
+      <c r="A18" s="106"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
       <c r="D18" s="10"/>
@@ -9772,7 +9935,7 @@
       <c r="G18" s="11"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="94"/>
+      <c r="A19" s="106"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
       <c r="D19" s="10"/>
@@ -9781,7 +9944,7 @@
       <c r="G19" s="11"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="94"/>
+      <c r="A20" s="106"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
       <c r="D20" s="10"/>
@@ -9790,7 +9953,7 @@
       <c r="G20" s="11"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="94"/>
+      <c r="A21" s="106"/>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
       <c r="D21" s="10"/>
@@ -9799,7 +9962,7 @@
       <c r="G21" s="11"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="94"/>
+      <c r="A22" s="106"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
       <c r="D22" s="10"/>
@@ -9808,7 +9971,7 @@
       <c r="G22" s="11"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="94"/>
+      <c r="A23" s="106"/>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
       <c r="D23" s="10"/>
@@ -9817,7 +9980,7 @@
       <c r="G23" s="11"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="94"/>
+      <c r="A24" s="106"/>
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
       <c r="D24" s="10"/>
@@ -9826,7 +9989,7 @@
       <c r="G24" s="11"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="94"/>
+      <c r="A25" s="106"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
       <c r="D25" s="10"/>
@@ -9835,7 +9998,7 @@
       <c r="G25" s="11"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="94"/>
+      <c r="A26" s="106"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
       <c r="D26" s="10"/>
@@ -9844,7 +10007,7 @@
       <c r="G26" s="11"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="95"/>
+      <c r="A27" s="107"/>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
       <c r="D27" s="10"/>
@@ -9853,7 +10016,7 @@
       <c r="G27" s="11"/>
     </row>
     <row r="28" spans="1:7" ht="14.25">
-      <c r="A28" s="93"/>
+      <c r="A28" s="105"/>
       <c r="B28" s="9"/>
       <c r="C28" s="13"/>
       <c r="D28" s="12"/>
@@ -9862,7 +10025,7 @@
       <c r="G28" s="9"/>
     </row>
     <row r="29" spans="1:7" ht="14.25">
-      <c r="A29" s="94"/>
+      <c r="A29" s="106"/>
       <c r="B29" s="9"/>
       <c r="C29" s="14"/>
       <c r="D29" s="12"/>
@@ -9871,7 +10034,7 @@
       <c r="G29" s="4"/>
     </row>
     <row r="30" spans="1:7" ht="14.25">
-      <c r="A30" s="94"/>
+      <c r="A30" s="106"/>
       <c r="B30" s="9"/>
       <c r="C30" s="14"/>
       <c r="D30" s="12"/>
@@ -9880,7 +10043,7 @@
       <c r="G30" s="4"/>
     </row>
     <row r="31" spans="1:7" ht="14.25">
-      <c r="A31" s="94"/>
+      <c r="A31" s="106"/>
       <c r="B31" s="9"/>
       <c r="C31" s="14"/>
       <c r="D31" s="12"/>
@@ -9889,7 +10052,7 @@
       <c r="G31" s="15"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="94"/>
+      <c r="A32" s="106"/>
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
       <c r="D32" s="10"/>
@@ -9898,7 +10061,7 @@
       <c r="G32" s="11"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="94"/>
+      <c r="A33" s="106"/>
       <c r="B33" s="9"/>
       <c r="C33" s="9"/>
       <c r="D33" s="10"/>
@@ -9907,7 +10070,7 @@
       <c r="G33" s="11"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="94"/>
+      <c r="A34" s="106"/>
       <c r="B34" s="9"/>
       <c r="C34" s="9"/>
       <c r="D34" s="10"/>
@@ -9916,7 +10079,7 @@
       <c r="G34" s="11"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="94"/>
+      <c r="A35" s="106"/>
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
       <c r="D35" s="10"/>
@@ -9925,7 +10088,7 @@
       <c r="G35" s="11"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="94"/>
+      <c r="A36" s="106"/>
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
       <c r="D36" s="10"/>
@@ -9934,7 +10097,7 @@
       <c r="G36" s="11"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="94"/>
+      <c r="A37" s="106"/>
       <c r="B37" s="9"/>
       <c r="C37" s="9"/>
       <c r="D37" s="10"/>
@@ -9943,7 +10106,7 @@
       <c r="G37" s="11"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="94"/>
+      <c r="A38" s="106"/>
       <c r="B38" s="9"/>
       <c r="C38" s="9"/>
       <c r="D38" s="10"/>
@@ -9952,7 +10115,7 @@
       <c r="G38" s="11"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="95"/>
+      <c r="A39" s="107"/>
       <c r="B39" s="9"/>
       <c r="C39" s="9"/>
       <c r="D39" s="10"/>
@@ -9961,7 +10124,7 @@
       <c r="G39" s="11"/>
     </row>
     <row r="40" spans="1:7" ht="14.25">
-      <c r="A40" s="93"/>
+      <c r="A40" s="105"/>
       <c r="B40" s="9"/>
       <c r="C40" s="13"/>
       <c r="D40" s="12"/>
@@ -9970,7 +10133,7 @@
       <c r="G40" s="9"/>
     </row>
     <row r="41" spans="1:7" ht="14.25">
-      <c r="A41" s="94"/>
+      <c r="A41" s="106"/>
       <c r="B41" s="9"/>
       <c r="C41" s="14"/>
       <c r="D41" s="12"/>
@@ -9979,7 +10142,7 @@
       <c r="G41" s="4"/>
     </row>
     <row r="42" spans="1:7" ht="14.25">
-      <c r="A42" s="94"/>
+      <c r="A42" s="106"/>
       <c r="B42" s="9"/>
       <c r="C42" s="14"/>
       <c r="D42" s="12"/>
@@ -9988,7 +10151,7 @@
       <c r="G42" s="4"/>
     </row>
     <row r="43" spans="1:7" ht="14.25">
-      <c r="A43" s="94"/>
+      <c r="A43" s="106"/>
       <c r="B43" s="9"/>
       <c r="C43" s="14"/>
       <c r="D43" s="12"/>
@@ -9997,7 +10160,7 @@
       <c r="G43" s="15"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="94"/>
+      <c r="A44" s="106"/>
       <c r="B44" s="9"/>
       <c r="C44" s="9"/>
       <c r="D44" s="10"/>
@@ -10006,7 +10169,7 @@
       <c r="G44" s="11"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="94"/>
+      <c r="A45" s="106"/>
       <c r="B45" s="9"/>
       <c r="C45" s="9"/>
       <c r="D45" s="10"/>
@@ -10015,7 +10178,7 @@
       <c r="G45" s="11"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="94"/>
+      <c r="A46" s="106"/>
       <c r="B46" s="9"/>
       <c r="C46" s="9"/>
       <c r="D46" s="10"/>
@@ -10024,7 +10187,7 @@
       <c r="G46" s="11"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="94"/>
+      <c r="A47" s="106"/>
       <c r="B47" s="9"/>
       <c r="C47" s="9"/>
       <c r="D47" s="10"/>
@@ -10033,7 +10196,7 @@
       <c r="G47" s="11"/>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="94"/>
+      <c r="A48" s="106"/>
       <c r="B48" s="9"/>
       <c r="C48" s="9"/>
       <c r="D48" s="10"/>
@@ -10042,7 +10205,7 @@
       <c r="G48" s="11"/>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="94"/>
+      <c r="A49" s="106"/>
       <c r="B49" s="9"/>
       <c r="C49" s="9"/>
       <c r="D49" s="10"/>
@@ -10051,7 +10214,7 @@
       <c r="G49" s="11"/>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="94"/>
+      <c r="A50" s="106"/>
       <c r="B50" s="9"/>
       <c r="C50" s="9"/>
       <c r="D50" s="10"/>
@@ -10060,7 +10223,7 @@
       <c r="G50" s="11"/>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="95"/>
+      <c r="A51" s="107"/>
       <c r="B51" s="9"/>
       <c r="C51" s="9"/>
       <c r="D51" s="10"/>
@@ -10069,7 +10232,7 @@
       <c r="G51" s="11"/>
     </row>
     <row r="52" spans="1:7" ht="14.25">
-      <c r="A52" s="94"/>
+      <c r="A52" s="106"/>
       <c r="B52" s="9"/>
       <c r="C52" s="14"/>
       <c r="D52" s="12"/>
@@ -10078,7 +10241,7 @@
       <c r="G52" s="4"/>
     </row>
     <row r="53" spans="1:7" ht="14.25">
-      <c r="A53" s="94"/>
+      <c r="A53" s="106"/>
       <c r="B53" s="9"/>
       <c r="C53" s="14"/>
       <c r="D53" s="12"/>
@@ -10087,7 +10250,7 @@
       <c r="G53" s="15"/>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="94"/>
+      <c r="A54" s="106"/>
       <c r="B54" s="9"/>
       <c r="C54" s="9"/>
       <c r="D54" s="10"/>
@@ -10096,7 +10259,7 @@
       <c r="G54" s="11"/>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="94"/>
+      <c r="A55" s="106"/>
       <c r="B55" s="9"/>
       <c r="C55" s="9"/>
       <c r="D55" s="10"/>
@@ -10105,7 +10268,7 @@
       <c r="G55" s="11"/>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="94"/>
+      <c r="A56" s="106"/>
       <c r="B56" s="9"/>
       <c r="C56" s="9"/>
       <c r="D56" s="10"/>
@@ -10114,7 +10277,7 @@
       <c r="G56" s="11"/>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="94"/>
+      <c r="A57" s="106"/>
       <c r="B57" s="9"/>
       <c r="C57" s="9"/>
       <c r="D57" s="10"/>
@@ -10123,7 +10286,7 @@
       <c r="G57" s="11"/>
     </row>
     <row r="58" spans="1:7">
-      <c r="A58" s="94"/>
+      <c r="A58" s="106"/>
       <c r="B58" s="9"/>
       <c r="C58" s="9"/>
       <c r="D58" s="10"/>
@@ -10132,7 +10295,7 @@
       <c r="G58" s="11"/>
     </row>
     <row r="59" spans="1:7">
-      <c r="A59" s="94"/>
+      <c r="A59" s="106"/>
       <c r="B59" s="9"/>
       <c r="C59" s="9"/>
       <c r="D59" s="10"/>
@@ -10141,7 +10304,7 @@
       <c r="G59" s="11"/>
     </row>
     <row r="60" spans="1:7">
-      <c r="A60" s="94"/>
+      <c r="A60" s="106"/>
       <c r="B60" s="9"/>
       <c r="C60" s="9"/>
       <c r="D60" s="10"/>
@@ -10150,7 +10313,7 @@
       <c r="G60" s="11"/>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="95"/>
+      <c r="A61" s="107"/>
       <c r="B61" s="9"/>
       <c r="C61" s="9"/>
       <c r="D61" s="10"/>
@@ -10182,7 +10345,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
@@ -10260,7 +10423,7 @@
         <v>43190</v>
       </c>
       <c r="D4" s="70" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E4" s="87" t="s">
         <v>53</v>
@@ -10277,10 +10440,27 @@
         <v>43191</v>
       </c>
       <c r="D5" s="70" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E5" s="87" t="s">
         <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="4">
+        <v>4</v>
+      </c>
+      <c r="B6" s="87" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="76">
+        <v>43197</v>
+      </c>
+      <c r="D6" s="70" t="s">
+        <v>192</v>
+      </c>
+      <c r="E6" s="56" t="s">
+        <v>193</v>
       </c>
     </row>
   </sheetData>

--- a/周数据/《个人上线率统计表》-黄纯伟.xlsx
+++ b/周数据/《个人上线率统计表》-黄纯伟.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="219">
   <si>
     <t>个人上线率分析表</t>
   </si>
@@ -843,6 +843,68 @@
   </si>
   <si>
     <t>店铺签约100家，目前还有54家未开户，13家未上线，33家已上线</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>鸡芝家（柏庄店）</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>商户未开业</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>单店</t>
+  </si>
+  <si>
+    <t>SAAS</t>
+  </si>
+  <si>
+    <t>武耀</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>沽涷常熟世茂中心店</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>沈芳芳</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>鸭得堡（常州店）</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>跟商户约时间实施</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>堵雪军</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>南京诱色餐饮管理有限公司</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>一勺鲜</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>南京</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>一勺鲜（老浦口1914总店）</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>张总</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>负责人</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -1364,7 +1426,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1642,9 +1704,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1669,6 +1728,15 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1678,13 +1746,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1962,7 +2027,7 @@
   <dimension ref="A1:M29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
@@ -1982,21 +2047,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15" thickBot="1">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="98"/>
-      <c r="J1" s="99"/>
-      <c r="K1" s="98"/>
-      <c r="L1" s="98"/>
-      <c r="M1" s="100"/>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="97"/>
+      <c r="L1" s="97"/>
+      <c r="M1" s="99"/>
     </row>
     <row r="2" spans="1:13" ht="14.25" thickBot="1">
       <c r="A2" s="89" t="s">
@@ -2040,7 +2105,7 @@
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="95">
+      <c r="A3" s="94">
         <v>12</v>
       </c>
       <c r="B3" s="67">
@@ -2081,7 +2146,7 @@
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="96"/>
+      <c r="A4" s="95"/>
       <c r="B4" s="67">
         <v>52</v>
       </c>
@@ -2122,7 +2187,7 @@
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="101">
+      <c r="A5" s="100">
         <v>1</v>
       </c>
       <c r="B5" s="67">
@@ -2165,7 +2230,7 @@
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="101"/>
+      <c r="A6" s="100"/>
       <c r="B6" s="67">
         <v>2</v>
       </c>
@@ -2206,7 +2271,7 @@
       </c>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="101"/>
+      <c r="A7" s="100"/>
       <c r="B7" s="67">
         <v>3</v>
       </c>
@@ -2247,7 +2312,7 @@
       </c>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="101"/>
+      <c r="A8" s="100"/>
       <c r="B8" s="68">
         <v>4</v>
       </c>
@@ -2288,7 +2353,7 @@
       </c>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="101"/>
+      <c r="A9" s="100"/>
       <c r="B9" s="67">
         <v>5</v>
       </c>
@@ -2329,7 +2394,7 @@
       </c>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="94">
+      <c r="A10" s="93">
         <v>2</v>
       </c>
       <c r="B10" s="67">
@@ -2372,7 +2437,7 @@
       </c>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="94"/>
+      <c r="A11" s="93"/>
       <c r="B11" s="67">
         <v>7</v>
       </c>
@@ -2411,7 +2476,7 @@
       </c>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="94"/>
+      <c r="A12" s="93"/>
       <c r="B12" s="67">
         <v>8</v>
       </c>
@@ -2452,7 +2517,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" ht="14.25" thickBot="1">
-      <c r="A13" s="94"/>
+      <c r="A13" s="93"/>
       <c r="B13" s="69">
         <v>9</v>
       </c>
@@ -2493,7 +2558,7 @@
       </c>
     </row>
     <row r="14" spans="1:13" ht="14.25" thickBot="1">
-      <c r="A14" s="94">
+      <c r="A14" s="93">
         <v>3</v>
       </c>
       <c r="B14" s="69">
@@ -2506,7 +2571,7 @@
         <v>1</v>
       </c>
       <c r="E14" s="32">
-        <f t="shared" ref="E14:E19" si="12">C14-D14</f>
+        <f t="shared" ref="E14:E20" si="12">C14-D14</f>
         <v>-1</v>
       </c>
       <c r="F14" s="33"/>
@@ -2521,20 +2586,20 @@
         <v>0</v>
       </c>
       <c r="K14" s="47">
-        <f t="shared" ref="K14:K19" si="15">C14+G14</f>
+        <f t="shared" ref="K14:K20" si="15">C14+G14</f>
         <v>0</v>
       </c>
       <c r="L14" s="48">
-        <f t="shared" ref="L14:L19" si="16">D14+G14</f>
+        <f t="shared" ref="L14:L20" si="16">D14+G14</f>
         <v>1</v>
       </c>
       <c r="M14" s="49" t="e">
-        <f t="shared" ref="M14:M19" si="17">L14/K14*100%</f>
+        <f t="shared" ref="M14:M20" si="17">L14/K14*100%</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="14.25" thickBot="1">
-      <c r="A15" s="94"/>
+      <c r="A15" s="93"/>
       <c r="B15" s="69">
         <v>11</v>
       </c>
@@ -2575,7 +2640,7 @@
       </c>
     </row>
     <row r="16" spans="1:13" ht="14.25" thickBot="1">
-      <c r="A16" s="94"/>
+      <c r="A16" s="93"/>
       <c r="B16" s="69">
         <v>12</v>
       </c>
@@ -2616,7 +2681,7 @@
       </c>
     </row>
     <row r="17" spans="1:13" ht="14.25" thickBot="1">
-      <c r="A17" s="94"/>
+      <c r="A17" s="93"/>
       <c r="B17" s="69">
         <v>13</v>
       </c>
@@ -2657,7 +2722,7 @@
       </c>
     </row>
     <row r="18" spans="1:13" ht="14.25" thickBot="1">
-      <c r="A18" s="93">
+      <c r="A18" s="107">
         <v>4</v>
       </c>
       <c r="B18" s="69">
@@ -2700,18 +2765,19 @@
       </c>
     </row>
     <row r="19" spans="1:13" ht="14.25" thickBot="1">
+      <c r="A19" s="108"/>
       <c r="B19" s="69">
         <v>15</v>
       </c>
       <c r="C19" s="31">
+        <v>1</v>
+      </c>
+      <c r="D19" s="32">
         <v>0</v>
-      </c>
-      <c r="D19" s="32">
-        <v>4</v>
       </c>
       <c r="E19" s="32">
         <f t="shared" si="12"/>
-        <v>-4</v>
+        <v>1</v>
       </c>
       <c r="F19" s="33"/>
       <c r="G19" s="34"/>
@@ -2720,39 +2786,57 @@
         <v>0</v>
       </c>
       <c r="I19" s="45">
-        <v>4</v>
-      </c>
-      <c r="J19" s="46">
+        <v>0</v>
+      </c>
+      <c r="J19" s="46" t="e">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="K19" s="47">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L19" s="48">
         <f t="shared" si="16"/>
-        <v>4</v>
-      </c>
-      <c r="M19" s="49" t="e">
+        <v>0</v>
+      </c>
+      <c r="M19" s="49">
         <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:13">
-      <c r="A20" s="90"/>
-      <c r="B20" s="67"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="28"/>
+      <c r="A20" s="108"/>
+      <c r="B20" s="67">
+        <v>16</v>
+      </c>
+      <c r="C20" s="27">
+        <v>2</v>
+      </c>
+      <c r="D20" s="28">
+        <v>1</v>
+      </c>
+      <c r="E20" s="28">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
       <c r="F20" s="29"/>
       <c r="G20" s="30"/>
       <c r="H20" s="29"/>
       <c r="I20" s="40"/>
       <c r="J20" s="41"/>
-      <c r="K20" s="42"/>
-      <c r="L20" s="43"/>
-      <c r="M20" s="44"/>
+      <c r="K20" s="42">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="L20" s="43">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="M20" s="44">
+        <f t="shared" si="17"/>
+        <v>0.5</v>
+      </c>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="91"/>
@@ -2890,7 +2974,8 @@
       <c r="M29" s="44"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="A18:A20"/>
     <mergeCell ref="A14:A17"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A1:M1"/>
@@ -2974,7 +3059,7 @@
       </c>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="105">
+      <c r="A2" s="101">
         <v>51</v>
       </c>
       <c r="B2" s="58">
@@ -3021,7 +3106,7 @@
       </c>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="107"/>
+      <c r="A3" s="103"/>
       <c r="B3" s="58">
         <v>43085</v>
       </c>
@@ -3113,7 +3198,7 @@
       </c>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="105">
+      <c r="A5" s="101">
         <v>1</v>
       </c>
       <c r="B5" s="59">
@@ -3160,7 +3245,7 @@
       </c>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="107"/>
+      <c r="A6" s="103"/>
       <c r="B6" s="59">
         <v>43103</v>
       </c>
@@ -3205,7 +3290,7 @@
       </c>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="105">
+      <c r="A7" s="101">
         <v>2</v>
       </c>
       <c r="B7" s="59">
@@ -3252,7 +3337,7 @@
       </c>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="107"/>
+      <c r="A8" s="103"/>
       <c r="B8" s="59">
         <v>43109</v>
       </c>
@@ -3297,7 +3382,7 @@
       </c>
     </row>
     <row r="9" spans="1:15">
-      <c r="A9" s="105">
+      <c r="A9" s="101">
         <v>3</v>
       </c>
       <c r="B9" s="59">
@@ -3344,7 +3429,7 @@
       </c>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="107"/>
+      <c r="A10" s="103"/>
       <c r="B10" s="59">
         <v>43116</v>
       </c>
@@ -3436,7 +3521,7 @@
       </c>
     </row>
     <row r="12" spans="1:15">
-      <c r="A12" s="105">
+      <c r="A12" s="101">
         <v>5</v>
       </c>
       <c r="B12" s="59">
@@ -3483,7 +3568,7 @@
       </c>
     </row>
     <row r="13" spans="1:15">
-      <c r="A13" s="106"/>
+      <c r="A13" s="102"/>
       <c r="B13" s="59">
         <v>43130</v>
       </c>
@@ -3528,7 +3613,7 @@
       </c>
     </row>
     <row r="14" spans="1:15">
-      <c r="A14" s="107"/>
+      <c r="A14" s="103"/>
       <c r="B14" s="59">
         <v>43131</v>
       </c>
@@ -3573,7 +3658,7 @@
       </c>
     </row>
     <row r="15" spans="1:15">
-      <c r="A15" s="105">
+      <c r="A15" s="101">
         <v>6</v>
       </c>
       <c r="B15" s="59">
@@ -3620,7 +3705,7 @@
       </c>
     </row>
     <row r="16" spans="1:15">
-      <c r="A16" s="107"/>
+      <c r="A16" s="103"/>
       <c r="B16" s="59">
         <v>43138</v>
       </c>
@@ -3685,7 +3770,7 @@
       <c r="O17" s="11"/>
     </row>
     <row r="18" spans="1:15">
-      <c r="A18" s="105">
+      <c r="A18" s="101">
         <v>8</v>
       </c>
       <c r="B18" s="59">
@@ -3732,7 +3817,7 @@
       </c>
     </row>
     <row r="19" spans="1:15">
-      <c r="A19" s="106"/>
+      <c r="A19" s="102"/>
       <c r="B19" s="59">
         <v>43154</v>
       </c>
@@ -3777,7 +3862,7 @@
       </c>
     </row>
     <row r="20" spans="1:15">
-      <c r="A20" s="106"/>
+      <c r="A20" s="102"/>
       <c r="B20" s="59">
         <v>43154</v>
       </c>
@@ -3822,7 +3907,7 @@
       </c>
     </row>
     <row r="21" spans="1:15">
-      <c r="A21" s="106"/>
+      <c r="A21" s="102"/>
       <c r="B21" s="59">
         <v>43154</v>
       </c>
@@ -3867,7 +3952,7 @@
       </c>
     </row>
     <row r="22" spans="1:15">
-      <c r="A22" s="106"/>
+      <c r="A22" s="102"/>
       <c r="B22" s="59">
         <v>43154</v>
       </c>
@@ -3912,7 +3997,7 @@
       </c>
     </row>
     <row r="23" spans="1:15">
-      <c r="A23" s="107"/>
+      <c r="A23" s="103"/>
       <c r="B23" s="59">
         <v>43154</v>
       </c>
@@ -3957,7 +4042,7 @@
       </c>
     </row>
     <row r="24" spans="1:15">
-      <c r="A24" s="105">
+      <c r="A24" s="101">
         <v>9</v>
       </c>
       <c r="B24" s="59">
@@ -4004,7 +4089,7 @@
       </c>
     </row>
     <row r="25" spans="1:15">
-      <c r="A25" s="106"/>
+      <c r="A25" s="102"/>
       <c r="B25" s="59">
         <v>43159</v>
       </c>
@@ -4049,7 +4134,7 @@
       </c>
     </row>
     <row r="26" spans="1:15">
-      <c r="A26" s="106"/>
+      <c r="A26" s="102"/>
       <c r="B26" s="59">
         <v>43159</v>
       </c>
@@ -4094,7 +4179,7 @@
       </c>
     </row>
     <row r="27" spans="1:15">
-      <c r="A27" s="106"/>
+      <c r="A27" s="102"/>
       <c r="B27" s="59">
         <v>43159</v>
       </c>
@@ -4139,7 +4224,7 @@
       </c>
     </row>
     <row r="28" spans="1:15">
-      <c r="A28" s="107"/>
+      <c r="A28" s="103"/>
       <c r="B28" s="59">
         <v>43159</v>
       </c>
@@ -4278,7 +4363,7 @@
       </c>
     </row>
     <row r="31" spans="1:15">
-      <c r="A31" s="105">
+      <c r="A31" s="101">
         <v>12</v>
       </c>
       <c r="B31" s="59">
@@ -4325,7 +4410,7 @@
       </c>
     </row>
     <row r="32" spans="1:15">
-      <c r="A32" s="106"/>
+      <c r="A32" s="102"/>
       <c r="B32" s="59">
         <v>43180</v>
       </c>
@@ -4370,7 +4455,7 @@
       </c>
     </row>
     <row r="33" spans="1:15">
-      <c r="A33" s="106"/>
+      <c r="A33" s="102"/>
       <c r="B33" s="59">
         <v>43180</v>
       </c>
@@ -4415,7 +4500,7 @@
       </c>
     </row>
     <row r="34" spans="1:15">
-      <c r="A34" s="106"/>
+      <c r="A34" s="102"/>
       <c r="B34" s="59">
         <v>43180</v>
       </c>
@@ -4460,7 +4545,7 @@
       </c>
     </row>
     <row r="35" spans="1:15">
-      <c r="A35" s="106"/>
+      <c r="A35" s="102"/>
       <c r="B35" s="59">
         <v>43180</v>
       </c>
@@ -4505,7 +4590,7 @@
       </c>
     </row>
     <row r="36" spans="1:15">
-      <c r="A36" s="106"/>
+      <c r="A36" s="102"/>
       <c r="B36" s="59">
         <v>43180</v>
       </c>
@@ -4550,7 +4635,7 @@
       </c>
     </row>
     <row r="37" spans="1:15">
-      <c r="A37" s="107"/>
+      <c r="A37" s="103"/>
       <c r="B37" s="59">
         <v>43180</v>
       </c>
@@ -4595,7 +4680,7 @@
       </c>
     </row>
     <row r="38" spans="1:15">
-      <c r="A38" s="105">
+      <c r="A38" s="101">
         <v>13</v>
       </c>
       <c r="B38" s="59">
@@ -4642,7 +4727,7 @@
       </c>
     </row>
     <row r="39" spans="1:15">
-      <c r="A39" s="106"/>
+      <c r="A39" s="102"/>
       <c r="B39" s="59">
         <v>43187</v>
       </c>
@@ -4687,7 +4772,7 @@
       </c>
     </row>
     <row r="40" spans="1:15">
-      <c r="A40" s="106"/>
+      <c r="A40" s="102"/>
       <c r="B40" s="59">
         <v>43187</v>
       </c>
@@ -4732,7 +4817,7 @@
       </c>
     </row>
     <row r="41" spans="1:15">
-      <c r="A41" s="106"/>
+      <c r="A41" s="102"/>
       <c r="B41" s="59">
         <v>43187</v>
       </c>
@@ -4777,7 +4862,7 @@
       </c>
     </row>
     <row r="42" spans="1:15">
-      <c r="A42" s="106"/>
+      <c r="A42" s="102"/>
       <c r="B42" s="59">
         <v>43187</v>
       </c>
@@ -4822,7 +4907,7 @@
       </c>
     </row>
     <row r="43" spans="1:15">
-      <c r="A43" s="106"/>
+      <c r="A43" s="102"/>
       <c r="B43" s="59">
         <v>43187</v>
       </c>
@@ -4867,7 +4952,7 @@
       </c>
     </row>
     <row r="44" spans="1:15">
-      <c r="A44" s="106"/>
+      <c r="A44" s="102"/>
       <c r="B44" s="59">
         <v>43187</v>
       </c>
@@ -4912,7 +4997,7 @@
       </c>
     </row>
     <row r="45" spans="1:15">
-      <c r="A45" s="106"/>
+      <c r="A45" s="102"/>
       <c r="B45" s="59">
         <v>43187</v>
       </c>
@@ -4957,7 +5042,7 @@
       </c>
     </row>
     <row r="46" spans="1:15">
-      <c r="A46" s="106"/>
+      <c r="A46" s="102"/>
       <c r="B46" s="59">
         <v>43187</v>
       </c>
@@ -5002,7 +5087,7 @@
       </c>
     </row>
     <row r="47" spans="1:15">
-      <c r="A47" s="106"/>
+      <c r="A47" s="102"/>
       <c r="B47" s="59">
         <v>43187</v>
       </c>
@@ -5047,7 +5132,7 @@
       </c>
     </row>
     <row r="48" spans="1:15">
-      <c r="A48" s="106"/>
+      <c r="A48" s="102"/>
       <c r="B48" s="59">
         <v>43187</v>
       </c>
@@ -5092,7 +5177,7 @@
       </c>
     </row>
     <row r="49" spans="1:15">
-      <c r="A49" s="107"/>
+      <c r="A49" s="103"/>
       <c r="B49" s="59">
         <v>43187</v>
       </c>
@@ -5137,7 +5222,7 @@
       </c>
     </row>
     <row r="50" spans="1:15">
-      <c r="A50" s="102">
+      <c r="A50" s="104">
         <v>14</v>
       </c>
       <c r="B50" s="59">
@@ -5184,7 +5269,7 @@
       </c>
     </row>
     <row r="51" spans="1:15">
-      <c r="A51" s="103"/>
+      <c r="A51" s="105"/>
       <c r="B51" s="59">
         <v>43194</v>
       </c>
@@ -5229,7 +5314,7 @@
       </c>
     </row>
     <row r="52" spans="1:15">
-      <c r="A52" s="103"/>
+      <c r="A52" s="105"/>
       <c r="B52" s="59">
         <v>43194</v>
       </c>
@@ -5274,7 +5359,7 @@
       </c>
     </row>
     <row r="53" spans="1:15">
-      <c r="A53" s="104"/>
+      <c r="A53" s="106"/>
       <c r="B53" s="59">
         <v>43194</v>
       </c>
@@ -5319,7 +5404,7 @@
       </c>
     </row>
     <row r="54" spans="1:15">
-      <c r="A54" s="105">
+      <c r="A54" s="101">
         <v>15</v>
       </c>
       <c r="B54" s="59">
@@ -5366,7 +5451,7 @@
       </c>
     </row>
     <row r="55" spans="1:15">
-      <c r="A55" s="106"/>
+      <c r="A55" s="102"/>
       <c r="B55" s="59">
         <v>43201</v>
       </c>
@@ -5411,7 +5496,7 @@
       </c>
     </row>
     <row r="56" spans="1:15">
-      <c r="A56" s="106"/>
+      <c r="A56" s="102"/>
       <c r="B56" s="59">
         <v>43201</v>
       </c>
@@ -5456,7 +5541,7 @@
       </c>
     </row>
     <row r="57" spans="1:15">
-      <c r="A57" s="107"/>
+      <c r="A57" s="103"/>
       <c r="B57" s="59">
         <v>43201</v>
       </c>
@@ -5501,21 +5586,51 @@
       </c>
     </row>
     <row r="58" spans="1:15">
-      <c r="A58" s="1"/>
-      <c r="B58" s="1"/>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
-      <c r="F58" s="1"/>
-      <c r="G58" s="1"/>
-      <c r="H58" s="1"/>
-      <c r="I58" s="1"/>
-      <c r="J58" s="1"/>
-      <c r="K58" s="1"/>
-      <c r="L58" s="1"/>
-      <c r="M58" s="1"/>
-      <c r="N58" s="1"/>
-      <c r="O58" s="1"/>
+      <c r="A58" s="87">
+        <v>16</v>
+      </c>
+      <c r="B58" s="59">
+        <v>43208</v>
+      </c>
+      <c r="C58" s="50" t="s">
+        <v>37</v>
+      </c>
+      <c r="D58" s="50" t="s">
+        <v>213</v>
+      </c>
+      <c r="E58" s="50" t="s">
+        <v>214</v>
+      </c>
+      <c r="F58" s="50" t="s">
+        <v>215</v>
+      </c>
+      <c r="G58" s="1">
+        <v>76159127</v>
+      </c>
+      <c r="H58" s="50" t="s">
+        <v>216</v>
+      </c>
+      <c r="I58" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="J58" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="K58" s="11">
+        <v>17602558329</v>
+      </c>
+      <c r="L58" s="50" t="s">
+        <v>217</v>
+      </c>
+      <c r="M58" s="50" t="s">
+        <v>218</v>
+      </c>
+      <c r="N58" s="1">
+        <v>18750225127</v>
+      </c>
+      <c r="O58" s="11" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="59" spans="1:15">
       <c r="A59" s="1"/>
@@ -9713,7 +9828,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G61"/>
+  <dimension ref="A1:G62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
@@ -9800,36 +9915,76 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="78"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
+      <c r="A4" s="101">
+        <v>15</v>
+      </c>
+      <c r="B4" s="56" t="s">
+        <v>208</v>
+      </c>
+      <c r="C4" s="79">
+        <v>43199</v>
+      </c>
+      <c r="D4" s="51" t="s">
+        <v>204</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="G4" s="50" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="78"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
+      <c r="A5" s="103"/>
+      <c r="B5" s="56" t="s">
+        <v>203</v>
+      </c>
+      <c r="C5" s="79">
+        <v>43202</v>
+      </c>
+      <c r="D5" s="51" t="s">
+        <v>204</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="G5" s="50" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="78"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
+      <c r="A6" s="87">
+        <v>16</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="C6" s="79">
+        <v>43206</v>
+      </c>
+      <c r="D6" s="51" t="s">
+        <v>211</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="G6" s="50" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="78"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
       <c r="D7" s="10"/>
       <c r="E7" s="11"/>
       <c r="F7" s="11"/>
@@ -9872,7 +10027,7 @@
       <c r="G11" s="11"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="52"/>
+      <c r="A12" s="78"/>
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
       <c r="D12" s="10"/>
@@ -9880,35 +10035,35 @@
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
     </row>
-    <row r="13" spans="1:7" ht="14.25">
-      <c r="A13" s="105"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="12"/>
+    <row r="13" spans="1:7">
+      <c r="A13" s="52"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="10"/>
       <c r="E13" s="11"/>
       <c r="F13" s="11"/>
-      <c r="G13" s="9"/>
+      <c r="G13" s="11"/>
     </row>
     <row r="14" spans="1:7" ht="14.25">
-      <c r="A14" s="106"/>
+      <c r="A14" s="101"/>
       <c r="B14" s="9"/>
-      <c r="C14" s="14"/>
+      <c r="C14" s="13"/>
       <c r="D14" s="12"/>
       <c r="E14" s="11"/>
       <c r="F14" s="11"/>
-      <c r="G14" s="4"/>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="106"/>
+      <c r="G14" s="9"/>
+    </row>
+    <row r="15" spans="1:7" ht="14.25">
+      <c r="A15" s="102"/>
       <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="10"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="12"/>
       <c r="E15" s="11"/>
       <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
+      <c r="G15" s="4"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="106"/>
+      <c r="A16" s="102"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
       <c r="D16" s="10"/>
@@ -9917,7 +10072,7 @@
       <c r="G16" s="11"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="106"/>
+      <c r="A17" s="102"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
       <c r="D17" s="10"/>
@@ -9926,7 +10081,7 @@
       <c r="G17" s="11"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="106"/>
+      <c r="A18" s="102"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
       <c r="D18" s="10"/>
@@ -9935,7 +10090,7 @@
       <c r="G18" s="11"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="106"/>
+      <c r="A19" s="102"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
       <c r="D19" s="10"/>
@@ -9944,7 +10099,7 @@
       <c r="G19" s="11"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="106"/>
+      <c r="A20" s="102"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
       <c r="D20" s="10"/>
@@ -9953,16 +10108,16 @@
       <c r="G20" s="11"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="106"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
+      <c r="A21" s="102"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
       <c r="D21" s="10"/>
       <c r="E21" s="11"/>
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="106"/>
+      <c r="A22" s="102"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
       <c r="D22" s="10"/>
@@ -9971,7 +10126,7 @@
       <c r="G22" s="11"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="106"/>
+      <c r="A23" s="102"/>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
       <c r="D23" s="10"/>
@@ -9980,7 +10135,7 @@
       <c r="G23" s="11"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="106"/>
+      <c r="A24" s="102"/>
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
       <c r="D24" s="10"/>
@@ -9989,7 +10144,7 @@
       <c r="G24" s="11"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="106"/>
+      <c r="A25" s="102"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
       <c r="D25" s="10"/>
@@ -9998,7 +10153,7 @@
       <c r="G25" s="11"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="106"/>
+      <c r="A26" s="102"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
       <c r="D26" s="10"/>
@@ -10007,34 +10162,34 @@
       <c r="G26" s="11"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="107"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
+      <c r="A27" s="102"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
       <c r="D27" s="10"/>
       <c r="E27" s="11"/>
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
     </row>
-    <row r="28" spans="1:7" ht="14.25">
-      <c r="A28" s="105"/>
+    <row r="28" spans="1:7">
+      <c r="A28" s="103"/>
       <c r="B28" s="9"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="12"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="10"/>
       <c r="E28" s="11"/>
       <c r="F28" s="11"/>
-      <c r="G28" s="9"/>
+      <c r="G28" s="11"/>
     </row>
     <row r="29" spans="1:7" ht="14.25">
-      <c r="A29" s="106"/>
+      <c r="A29" s="101"/>
       <c r="B29" s="9"/>
-      <c r="C29" s="14"/>
+      <c r="C29" s="13"/>
       <c r="D29" s="12"/>
       <c r="E29" s="11"/>
       <c r="F29" s="11"/>
-      <c r="G29" s="4"/>
+      <c r="G29" s="9"/>
     </row>
     <row r="30" spans="1:7" ht="14.25">
-      <c r="A30" s="106"/>
+      <c r="A30" s="102"/>
       <c r="B30" s="9"/>
       <c r="C30" s="14"/>
       <c r="D30" s="12"/>
@@ -10043,25 +10198,25 @@
       <c r="G30" s="4"/>
     </row>
     <row r="31" spans="1:7" ht="14.25">
-      <c r="A31" s="106"/>
+      <c r="A31" s="102"/>
       <c r="B31" s="9"/>
       <c r="C31" s="14"/>
       <c r="D31" s="12"/>
       <c r="E31" s="11"/>
       <c r="F31" s="11"/>
-      <c r="G31" s="15"/>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="106"/>
+      <c r="G31" s="4"/>
+    </row>
+    <row r="32" spans="1:7" ht="14.25">
+      <c r="A32" s="102"/>
       <c r="B32" s="9"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="10"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="12"/>
       <c r="E32" s="11"/>
       <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
+      <c r="G32" s="15"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="106"/>
+      <c r="A33" s="102"/>
       <c r="B33" s="9"/>
       <c r="C33" s="9"/>
       <c r="D33" s="10"/>
@@ -10070,7 +10225,7 @@
       <c r="G33" s="11"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="106"/>
+      <c r="A34" s="102"/>
       <c r="B34" s="9"/>
       <c r="C34" s="9"/>
       <c r="D34" s="10"/>
@@ -10079,7 +10234,7 @@
       <c r="G34" s="11"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="106"/>
+      <c r="A35" s="102"/>
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
       <c r="D35" s="10"/>
@@ -10088,7 +10243,7 @@
       <c r="G35" s="11"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="106"/>
+      <c r="A36" s="102"/>
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
       <c r="D36" s="10"/>
@@ -10097,7 +10252,7 @@
       <c r="G36" s="11"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="106"/>
+      <c r="A37" s="102"/>
       <c r="B37" s="9"/>
       <c r="C37" s="9"/>
       <c r="D37" s="10"/>
@@ -10106,7 +10261,7 @@
       <c r="G37" s="11"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="106"/>
+      <c r="A38" s="102"/>
       <c r="B38" s="9"/>
       <c r="C38" s="9"/>
       <c r="D38" s="10"/>
@@ -10115,7 +10270,7 @@
       <c r="G38" s="11"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="107"/>
+      <c r="A39" s="102"/>
       <c r="B39" s="9"/>
       <c r="C39" s="9"/>
       <c r="D39" s="10"/>
@@ -10123,26 +10278,26 @@
       <c r="F39" s="11"/>
       <c r="G39" s="11"/>
     </row>
-    <row r="40" spans="1:7" ht="14.25">
-      <c r="A40" s="105"/>
+    <row r="40" spans="1:7">
+      <c r="A40" s="103"/>
       <c r="B40" s="9"/>
-      <c r="C40" s="13"/>
-      <c r="D40" s="12"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="10"/>
       <c r="E40" s="11"/>
       <c r="F40" s="11"/>
-      <c r="G40" s="9"/>
+      <c r="G40" s="11"/>
     </row>
     <row r="41" spans="1:7" ht="14.25">
-      <c r="A41" s="106"/>
+      <c r="A41" s="101"/>
       <c r="B41" s="9"/>
-      <c r="C41" s="14"/>
+      <c r="C41" s="13"/>
       <c r="D41" s="12"/>
       <c r="E41" s="11"/>
       <c r="F41" s="11"/>
-      <c r="G41" s="4"/>
+      <c r="G41" s="9"/>
     </row>
     <row r="42" spans="1:7" ht="14.25">
-      <c r="A42" s="106"/>
+      <c r="A42" s="102"/>
       <c r="B42" s="9"/>
       <c r="C42" s="14"/>
       <c r="D42" s="12"/>
@@ -10151,25 +10306,25 @@
       <c r="G42" s="4"/>
     </row>
     <row r="43" spans="1:7" ht="14.25">
-      <c r="A43" s="106"/>
+      <c r="A43" s="102"/>
       <c r="B43" s="9"/>
       <c r="C43" s="14"/>
       <c r="D43" s="12"/>
       <c r="E43" s="11"/>
       <c r="F43" s="11"/>
-      <c r="G43" s="15"/>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="A44" s="106"/>
+      <c r="G43" s="4"/>
+    </row>
+    <row r="44" spans="1:7" ht="14.25">
+      <c r="A44" s="102"/>
       <c r="B44" s="9"/>
-      <c r="C44" s="9"/>
-      <c r="D44" s="10"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="12"/>
       <c r="E44" s="11"/>
       <c r="F44" s="11"/>
-      <c r="G44" s="11"/>
+      <c r="G44" s="15"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="106"/>
+      <c r="A45" s="102"/>
       <c r="B45" s="9"/>
       <c r="C45" s="9"/>
       <c r="D45" s="10"/>
@@ -10178,7 +10333,7 @@
       <c r="G45" s="11"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="106"/>
+      <c r="A46" s="102"/>
       <c r="B46" s="9"/>
       <c r="C46" s="9"/>
       <c r="D46" s="10"/>
@@ -10187,7 +10342,7 @@
       <c r="G46" s="11"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="106"/>
+      <c r="A47" s="102"/>
       <c r="B47" s="9"/>
       <c r="C47" s="9"/>
       <c r="D47" s="10"/>
@@ -10196,7 +10351,7 @@
       <c r="G47" s="11"/>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="106"/>
+      <c r="A48" s="102"/>
       <c r="B48" s="9"/>
       <c r="C48" s="9"/>
       <c r="D48" s="10"/>
@@ -10205,7 +10360,7 @@
       <c r="G48" s="11"/>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="106"/>
+      <c r="A49" s="102"/>
       <c r="B49" s="9"/>
       <c r="C49" s="9"/>
       <c r="D49" s="10"/>
@@ -10214,7 +10369,7 @@
       <c r="G49" s="11"/>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="106"/>
+      <c r="A50" s="102"/>
       <c r="B50" s="9"/>
       <c r="C50" s="9"/>
       <c r="D50" s="10"/>
@@ -10223,7 +10378,7 @@
       <c r="G50" s="11"/>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="107"/>
+      <c r="A51" s="102"/>
       <c r="B51" s="9"/>
       <c r="C51" s="9"/>
       <c r="D51" s="10"/>
@@ -10231,35 +10386,35 @@
       <c r="F51" s="11"/>
       <c r="G51" s="11"/>
     </row>
-    <row r="52" spans="1:7" ht="14.25">
-      <c r="A52" s="106"/>
+    <row r="52" spans="1:7">
+      <c r="A52" s="103"/>
       <c r="B52" s="9"/>
-      <c r="C52" s="14"/>
-      <c r="D52" s="12"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="10"/>
       <c r="E52" s="11"/>
       <c r="F52" s="11"/>
-      <c r="G52" s="4"/>
+      <c r="G52" s="11"/>
     </row>
     <row r="53" spans="1:7" ht="14.25">
-      <c r="A53" s="106"/>
+      <c r="A53" s="102"/>
       <c r="B53" s="9"/>
       <c r="C53" s="14"/>
       <c r="D53" s="12"/>
       <c r="E53" s="11"/>
       <c r="F53" s="11"/>
-      <c r="G53" s="15"/>
-    </row>
-    <row r="54" spans="1:7">
-      <c r="A54" s="106"/>
+      <c r="G53" s="4"/>
+    </row>
+    <row r="54" spans="1:7" ht="14.25">
+      <c r="A54" s="102"/>
       <c r="B54" s="9"/>
-      <c r="C54" s="9"/>
-      <c r="D54" s="10"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="12"/>
       <c r="E54" s="11"/>
       <c r="F54" s="11"/>
-      <c r="G54" s="11"/>
+      <c r="G54" s="15"/>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="106"/>
+      <c r="A55" s="102"/>
       <c r="B55" s="9"/>
       <c r="C55" s="9"/>
       <c r="D55" s="10"/>
@@ -10268,7 +10423,7 @@
       <c r="G55" s="11"/>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="106"/>
+      <c r="A56" s="102"/>
       <c r="B56" s="9"/>
       <c r="C56" s="9"/>
       <c r="D56" s="10"/>
@@ -10277,7 +10432,7 @@
       <c r="G56" s="11"/>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="106"/>
+      <c r="A57" s="102"/>
       <c r="B57" s="9"/>
       <c r="C57" s="9"/>
       <c r="D57" s="10"/>
@@ -10286,7 +10441,7 @@
       <c r="G57" s="11"/>
     </row>
     <row r="58" spans="1:7">
-      <c r="A58" s="106"/>
+      <c r="A58" s="102"/>
       <c r="B58" s="9"/>
       <c r="C58" s="9"/>
       <c r="D58" s="10"/>
@@ -10295,7 +10450,7 @@
       <c r="G58" s="11"/>
     </row>
     <row r="59" spans="1:7">
-      <c r="A59" s="106"/>
+      <c r="A59" s="102"/>
       <c r="B59" s="9"/>
       <c r="C59" s="9"/>
       <c r="D59" s="10"/>
@@ -10304,7 +10459,7 @@
       <c r="G59" s="11"/>
     </row>
     <row r="60" spans="1:7">
-      <c r="A60" s="106"/>
+      <c r="A60" s="102"/>
       <c r="B60" s="9"/>
       <c r="C60" s="9"/>
       <c r="D60" s="10"/>
@@ -10313,7 +10468,7 @@
       <c r="G60" s="11"/>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="107"/>
+      <c r="A61" s="102"/>
       <c r="B61" s="9"/>
       <c r="C61" s="9"/>
       <c r="D61" s="10"/>
@@ -10321,22 +10476,32 @@
       <c r="F61" s="11"/>
       <c r="G61" s="11"/>
     </row>
+    <row r="62" spans="1:7">
+      <c r="A62" s="103"/>
+      <c r="B62" s="9"/>
+      <c r="C62" s="9"/>
+      <c r="D62" s="10"/>
+      <c r="E62" s="11"/>
+      <c r="F62" s="11"/>
+      <c r="G62" s="11"/>
+    </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A40:A51"/>
-    <mergeCell ref="A52:A61"/>
-    <mergeCell ref="A13:A27"/>
-    <mergeCell ref="A28:A39"/>
+  <mergeCells count="5">
+    <mergeCell ref="A41:A52"/>
+    <mergeCell ref="A53:A62"/>
+    <mergeCell ref="A14:A28"/>
+    <mergeCell ref="A29:A40"/>
+    <mergeCell ref="A4:A5"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576">
       <formula1>"单店,连锁,KA,供应链"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="saas" sqref="F2:F1048576">
       <formula1>"SAAS,供应链,SAAS+微信,SAAS+供应链,SAAS+微信+供应链"</formula1>
     </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1"/>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/周数据/《个人上线率统计表》-黄纯伟.xlsx
+++ b/周数据/《个人上线率统计表》-黄纯伟.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="234">
   <si>
     <t>个人上线率分析表</t>
   </si>
@@ -842,10 +842,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>店铺签约100家，目前还有54家未开户，13家未上线，33家已上线</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>鸡芝家（柏庄店）</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -905,6 +901,118 @@
   </si>
   <si>
     <t>负责人</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>南京市历久鲜餐饮管理公司</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>鸭得堡老鸭粉丝汤</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>鸭得堡（金融中心店）</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘超</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>运营负责人</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>昆山</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>无锡</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>饺翻天昆山九方城店</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>饺翻天无锡凤宾路大润发店</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>K</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A项目之前已回访，后期</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>无需回访</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>跟商户约时间远程实施</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>沽涷上海临空店</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>怒烤烤串（南京1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>912</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>店）</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨州</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>鸡芝家（苏宁店）</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>店铺签约100家，目前还有54家未开户，9家未上线，37家已上线</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -1426,7 +1534,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1704,6 +1812,15 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1746,10 +1863,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2027,7 +2141,7 @@
   <dimension ref="A1:M29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
@@ -2047,21 +2161,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15" thickBot="1">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97"/>
-      <c r="J1" s="98"/>
-      <c r="K1" s="97"/>
-      <c r="L1" s="97"/>
-      <c r="M1" s="99"/>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="101"/>
+      <c r="K1" s="100"/>
+      <c r="L1" s="100"/>
+      <c r="M1" s="102"/>
     </row>
     <row r="2" spans="1:13" ht="14.25" thickBot="1">
       <c r="A2" s="89" t="s">
@@ -2105,26 +2219,26 @@
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="94">
-        <v>12</v>
+      <c r="A3" s="97">
+        <v>4</v>
       </c>
       <c r="B3" s="67">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="C3" s="27">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D3" s="28">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E3" s="28">
         <f>C3-D3</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F3" s="29"/>
       <c r="G3" s="30"/>
       <c r="H3" s="29">
-        <f t="shared" ref="H3:H7" si="0">F3-G3</f>
+        <f t="shared" ref="H3" si="0">F3-G3</f>
         <v>0</v>
       </c>
       <c r="I3" s="40"/>
@@ -2133,710 +2247,272 @@
         <v>0</v>
       </c>
       <c r="K3" s="42">
-        <f t="shared" ref="K3:K7" si="1">C3+G3</f>
-        <v>3</v>
+        <f t="shared" ref="K3" si="1">C3+G3</f>
+        <v>8</v>
       </c>
       <c r="L3" s="43">
-        <f t="shared" ref="L3:L7" si="2">D3+G3</f>
-        <v>2</v>
+        <f t="shared" ref="L3" si="2">D3+G3</f>
+        <v>4</v>
       </c>
       <c r="M3" s="44">
-        <f t="shared" ref="M3:M7" si="3">L3/K3*100%</f>
-        <v>0.66666666666666663</v>
+        <f t="shared" ref="M3" si="3">L3/K3*100%</f>
+        <v>0.5</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="95"/>
-      <c r="B4" s="67">
-        <v>52</v>
-      </c>
-      <c r="C4" s="27">
-        <v>2</v>
-      </c>
-      <c r="D4" s="28">
-        <v>1</v>
-      </c>
-      <c r="E4" s="28">
-        <f t="shared" ref="E4:E7" si="4">C4-D4</f>
-        <v>1</v>
-      </c>
+      <c r="A4" s="98"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
       <c r="F4" s="29"/>
       <c r="G4" s="30"/>
-      <c r="H4" s="29">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I4" s="40">
-        <v>1</v>
-      </c>
-      <c r="J4" s="41">
-        <f t="shared" ref="J4:J7" si="5">I4/L4*100%</f>
-        <v>1</v>
-      </c>
-      <c r="K4" s="42">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="L4" s="43">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="M4" s="44">
-        <f t="shared" si="3"/>
-        <v>0.5</v>
-      </c>
+      <c r="H4" s="29"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="43"/>
+      <c r="M4" s="44"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="100">
-        <v>1</v>
-      </c>
-      <c r="B5" s="67">
-        <v>1</v>
-      </c>
-      <c r="C5" s="27">
-        <v>2</v>
-      </c>
-      <c r="D5" s="28">
-        <v>2</v>
-      </c>
-      <c r="E5" s="28">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="A5" s="103"/>
+      <c r="B5" s="67"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
       <c r="F5" s="29"/>
       <c r="G5" s="30"/>
-      <c r="H5" s="29">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I5" s="40">
-        <v>2</v>
-      </c>
-      <c r="J5" s="41">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="K5" s="42">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="L5" s="43">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="M5" s="44">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
+      <c r="H5" s="29"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="43"/>
+      <c r="M5" s="44"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="100"/>
-      <c r="B6" s="67">
-        <v>2</v>
-      </c>
-      <c r="C6" s="27">
-        <v>4</v>
-      </c>
-      <c r="D6" s="28">
-        <v>2</v>
-      </c>
-      <c r="E6" s="28">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
+      <c r="A6" s="103"/>
+      <c r="B6" s="67"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
       <c r="F6" s="29"/>
       <c r="G6" s="30"/>
-      <c r="H6" s="29">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I6" s="40">
-        <v>1</v>
-      </c>
-      <c r="J6" s="41">
-        <f t="shared" si="5"/>
-        <v>0.5</v>
-      </c>
-      <c r="K6" s="42">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="L6" s="43">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="M6" s="44">
-        <f t="shared" si="3"/>
-        <v>0.5</v>
-      </c>
+      <c r="H6" s="29"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="42"/>
+      <c r="L6" s="43"/>
+      <c r="M6" s="44"/>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="100"/>
-      <c r="B7" s="67">
-        <v>3</v>
-      </c>
-      <c r="C7" s="27">
-        <v>2</v>
-      </c>
-      <c r="D7" s="28">
-        <v>2</v>
-      </c>
-      <c r="E7" s="28">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="A7" s="103"/>
+      <c r="B7" s="67"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
       <c r="F7" s="29"/>
       <c r="G7" s="29"/>
-      <c r="H7" s="29">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I7" s="40">
-        <v>2</v>
-      </c>
-      <c r="J7" s="63">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="K7" s="64">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="L7" s="65">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="M7" s="66">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
+      <c r="H7" s="29"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="63"/>
+      <c r="K7" s="64"/>
+      <c r="L7" s="65"/>
+      <c r="M7" s="66"/>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="100"/>
-      <c r="B8" s="68">
-        <v>4</v>
-      </c>
-      <c r="C8" s="60">
-        <v>100</v>
-      </c>
-      <c r="D8" s="61">
-        <v>1</v>
-      </c>
-      <c r="E8" s="61">
-        <f t="shared" ref="E8:E13" si="6">C8-D8</f>
-        <v>99</v>
-      </c>
+      <c r="A8" s="103"/>
+      <c r="B8" s="68"/>
+      <c r="C8" s="60"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="61"/>
       <c r="F8" s="30"/>
       <c r="G8" s="30"/>
-      <c r="H8" s="30">
-        <f>F8-G8</f>
-        <v>0</v>
-      </c>
-      <c r="I8" s="62">
-        <v>1</v>
-      </c>
-      <c r="J8" s="41">
-        <f>I8/L8*100%</f>
-        <v>1</v>
-      </c>
-      <c r="K8" s="42">
-        <f>C8+G8</f>
-        <v>100</v>
-      </c>
-      <c r="L8" s="43">
-        <f>D8+G8</f>
-        <v>1</v>
-      </c>
-      <c r="M8" s="44">
-        <f>L8/K8*100%</f>
-        <v>0.01</v>
-      </c>
+      <c r="H8" s="30"/>
+      <c r="I8" s="62"/>
+      <c r="J8" s="41"/>
+      <c r="K8" s="42"/>
+      <c r="L8" s="43"/>
+      <c r="M8" s="44"/>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="100"/>
-      <c r="B9" s="67">
-        <v>5</v>
-      </c>
-      <c r="C9" s="27">
-        <v>1</v>
-      </c>
-      <c r="D9" s="28">
-        <v>3</v>
-      </c>
-      <c r="E9" s="28">
-        <f t="shared" si="6"/>
-        <v>-2</v>
-      </c>
+      <c r="A9" s="103"/>
+      <c r="B9" s="67"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
       <c r="F9" s="29"/>
       <c r="G9" s="30"/>
-      <c r="H9" s="29">
-        <f t="shared" ref="H9:H13" si="7">F9-G9</f>
-        <v>0</v>
-      </c>
-      <c r="I9" s="40">
-        <v>1</v>
-      </c>
-      <c r="J9" s="41">
-        <f>I9/L9*100%</f>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="K9" s="42">
-        <f t="shared" ref="K9:K13" si="8">C9+G9</f>
-        <v>1</v>
-      </c>
-      <c r="L9" s="43">
-        <f t="shared" ref="L9:L13" si="9">D9+G9</f>
-        <v>3</v>
-      </c>
-      <c r="M9" s="44">
-        <f t="shared" ref="M9:M13" si="10">L9/K9*100%</f>
-        <v>3</v>
-      </c>
+      <c r="H9" s="29"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="41"/>
+      <c r="K9" s="42"/>
+      <c r="L9" s="43"/>
+      <c r="M9" s="44"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="93">
-        <v>2</v>
-      </c>
-      <c r="B10" s="67">
-        <v>6</v>
-      </c>
-      <c r="C10" s="27">
-        <v>1</v>
-      </c>
-      <c r="D10" s="28">
-        <v>2</v>
-      </c>
-      <c r="E10" s="28">
-        <f>C10-D10</f>
-        <v>-1</v>
-      </c>
+      <c r="A10" s="96"/>
+      <c r="B10" s="67"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
       <c r="F10" s="29"/>
       <c r="G10" s="30"/>
-      <c r="H10" s="29">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I10" s="40">
-        <v>2</v>
-      </c>
-      <c r="J10" s="41">
-        <f t="shared" ref="J10:J13" si="11">I10/L10*100%</f>
-        <v>1</v>
-      </c>
-      <c r="K10" s="42">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="L10" s="43">
-        <f t="shared" si="9"/>
-        <v>2</v>
-      </c>
-      <c r="M10" s="44">
-        <f t="shared" si="10"/>
-        <v>2</v>
-      </c>
+      <c r="H10" s="29"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="41"/>
+      <c r="K10" s="42"/>
+      <c r="L10" s="43"/>
+      <c r="M10" s="44"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="93"/>
-      <c r="B11" s="67">
-        <v>7</v>
-      </c>
-      <c r="C11" s="27">
-        <v>0</v>
-      </c>
-      <c r="D11" s="28">
-        <v>0</v>
-      </c>
-      <c r="E11" s="28">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
+      <c r="A11" s="96"/>
+      <c r="B11" s="67"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
       <c r="F11" s="29"/>
       <c r="G11" s="30"/>
-      <c r="H11" s="29">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
+      <c r="H11" s="29"/>
       <c r="I11" s="40"/>
-      <c r="J11" s="41" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K11" s="42">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="L11" s="43">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="M11" s="44" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="J11" s="41"/>
+      <c r="K11" s="42"/>
+      <c r="L11" s="43"/>
+      <c r="M11" s="44"/>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="93"/>
-      <c r="B12" s="67">
-        <v>8</v>
-      </c>
-      <c r="C12" s="27">
-        <v>0</v>
-      </c>
-      <c r="D12" s="28">
-        <v>6</v>
-      </c>
-      <c r="E12" s="28">
-        <f t="shared" si="6"/>
-        <v>-6</v>
-      </c>
+      <c r="A12" s="96"/>
+      <c r="B12" s="67"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
       <c r="F12" s="29"/>
       <c r="G12" s="30"/>
-      <c r="H12" s="29">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I12" s="40">
-        <v>5</v>
-      </c>
-      <c r="J12" s="41">
-        <f t="shared" si="11"/>
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="K12" s="42">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="L12" s="43">
-        <f t="shared" si="9"/>
-        <v>6</v>
-      </c>
-      <c r="M12" s="44" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="H12" s="29"/>
+      <c r="I12" s="40"/>
+      <c r="J12" s="41"/>
+      <c r="K12" s="42"/>
+      <c r="L12" s="43"/>
+      <c r="M12" s="44"/>
     </row>
     <row r="13" spans="1:13" ht="14.25" thickBot="1">
-      <c r="A13" s="93"/>
-      <c r="B13" s="69">
-        <v>9</v>
-      </c>
-      <c r="C13" s="27">
-        <v>0</v>
-      </c>
-      <c r="D13" s="32">
-        <v>5</v>
-      </c>
-      <c r="E13" s="32">
-        <f t="shared" si="6"/>
-        <v>-5</v>
-      </c>
+      <c r="A13" s="96"/>
+      <c r="B13" s="69"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
       <c r="F13" s="33"/>
       <c r="G13" s="34"/>
-      <c r="H13" s="33">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I13" s="45">
-        <v>5</v>
-      </c>
-      <c r="J13" s="46">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="K13" s="47">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="L13" s="48">
-        <f t="shared" si="9"/>
-        <v>5</v>
-      </c>
-      <c r="M13" s="49" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="H13" s="33"/>
+      <c r="I13" s="45"/>
+      <c r="J13" s="46"/>
+      <c r="K13" s="47"/>
+      <c r="L13" s="48"/>
+      <c r="M13" s="49"/>
     </row>
     <row r="14" spans="1:13" ht="14.25" thickBot="1">
-      <c r="A14" s="93">
-        <v>3</v>
-      </c>
-      <c r="B14" s="69">
-        <v>10</v>
-      </c>
-      <c r="C14" s="27">
-        <v>0</v>
-      </c>
-      <c r="D14" s="32">
-        <v>1</v>
-      </c>
-      <c r="E14" s="32">
-        <f t="shared" ref="E14:E20" si="12">C14-D14</f>
-        <v>-1</v>
-      </c>
+      <c r="A14" s="96"/>
+      <c r="B14" s="69"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
       <c r="F14" s="33"/>
       <c r="G14" s="34"/>
-      <c r="H14" s="33">
-        <f t="shared" ref="H14:H19" si="13">F14-G14</f>
-        <v>0</v>
-      </c>
+      <c r="H14" s="33"/>
       <c r="I14" s="45"/>
-      <c r="J14" s="46">
-        <f t="shared" ref="J14:J19" si="14">I14/L14*100%</f>
-        <v>0</v>
-      </c>
-      <c r="K14" s="47">
-        <f t="shared" ref="K14:K20" si="15">C14+G14</f>
-        <v>0</v>
-      </c>
-      <c r="L14" s="48">
-        <f t="shared" ref="L14:L20" si="16">D14+G14</f>
-        <v>1</v>
-      </c>
-      <c r="M14" s="49" t="e">
-        <f t="shared" ref="M14:M20" si="17">L14/K14*100%</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="J14" s="46"/>
+      <c r="K14" s="47"/>
+      <c r="L14" s="48"/>
+      <c r="M14" s="49"/>
     </row>
     <row r="15" spans="1:13" ht="14.25" thickBot="1">
-      <c r="A15" s="93"/>
-      <c r="B15" s="69">
-        <v>11</v>
-      </c>
-      <c r="C15" s="27">
-        <v>0</v>
-      </c>
-      <c r="D15" s="32">
-        <v>1</v>
-      </c>
-      <c r="E15" s="32">
-        <f t="shared" si="12"/>
-        <v>-1</v>
-      </c>
+      <c r="A15" s="96"/>
+      <c r="B15" s="69"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
       <c r="F15" s="33"/>
       <c r="G15" s="34"/>
-      <c r="H15" s="33">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="I15" s="45">
-        <v>1</v>
-      </c>
-      <c r="J15" s="46">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="K15" s="47">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="L15" s="48">
-        <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="M15" s="49" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="H15" s="33"/>
+      <c r="I15" s="45"/>
+      <c r="J15" s="46"/>
+      <c r="K15" s="47"/>
+      <c r="L15" s="48"/>
+      <c r="M15" s="49"/>
     </row>
     <row r="16" spans="1:13" ht="14.25" thickBot="1">
-      <c r="A16" s="93"/>
-      <c r="B16" s="69">
-        <v>12</v>
-      </c>
-      <c r="C16" s="31">
-        <v>0</v>
-      </c>
-      <c r="D16" s="32">
-        <v>7</v>
-      </c>
-      <c r="E16" s="32">
-        <f t="shared" si="12"/>
-        <v>-7</v>
-      </c>
+      <c r="A16" s="96"/>
+      <c r="B16" s="69"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
       <c r="F16" s="33"/>
       <c r="G16" s="34"/>
-      <c r="H16" s="33">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="I16" s="45">
-        <v>7</v>
-      </c>
-      <c r="J16" s="46">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="K16" s="47">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="L16" s="48">
-        <f t="shared" si="16"/>
-        <v>7</v>
-      </c>
-      <c r="M16" s="49" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="H16" s="33"/>
+      <c r="I16" s="45"/>
+      <c r="J16" s="46"/>
+      <c r="K16" s="47"/>
+      <c r="L16" s="48"/>
+      <c r="M16" s="49"/>
     </row>
     <row r="17" spans="1:13" ht="14.25" thickBot="1">
-      <c r="A17" s="93"/>
-      <c r="B17" s="69">
-        <v>13</v>
-      </c>
-      <c r="C17" s="31">
-        <v>100</v>
-      </c>
-      <c r="D17" s="32">
-        <v>12</v>
-      </c>
-      <c r="E17" s="32">
-        <f t="shared" si="12"/>
-        <v>88</v>
-      </c>
+      <c r="A17" s="96"/>
+      <c r="B17" s="69"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
       <c r="F17" s="33"/>
       <c r="G17" s="34"/>
-      <c r="H17" s="33">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="I17" s="45">
-        <v>12</v>
-      </c>
-      <c r="J17" s="46">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="K17" s="47">
-        <f t="shared" si="15"/>
-        <v>100</v>
-      </c>
-      <c r="L17" s="48">
-        <f t="shared" si="16"/>
-        <v>12</v>
-      </c>
-      <c r="M17" s="49">
-        <f t="shared" si="17"/>
-        <v>0.12</v>
-      </c>
+      <c r="H17" s="33"/>
+      <c r="I17" s="45"/>
+      <c r="J17" s="46"/>
+      <c r="K17" s="47"/>
+      <c r="L17" s="48"/>
+      <c r="M17" s="49"/>
     </row>
     <row r="18" spans="1:13" ht="14.25" thickBot="1">
-      <c r="A18" s="107">
-        <v>4</v>
-      </c>
-      <c r="B18" s="69">
-        <v>14</v>
-      </c>
-      <c r="C18" s="31">
-        <v>2</v>
-      </c>
-      <c r="D18" s="32">
-        <v>4</v>
-      </c>
-      <c r="E18" s="32">
-        <f t="shared" si="12"/>
-        <v>-2</v>
-      </c>
+      <c r="A18" s="94"/>
+      <c r="B18" s="69"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="32"/>
       <c r="F18" s="33"/>
       <c r="G18" s="34"/>
-      <c r="H18" s="33">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="I18" s="45">
-        <v>3</v>
-      </c>
-      <c r="J18" s="46">
-        <f t="shared" si="14"/>
-        <v>0.75</v>
-      </c>
-      <c r="K18" s="47">
-        <f t="shared" si="15"/>
-        <v>2</v>
-      </c>
-      <c r="L18" s="48">
-        <f t="shared" si="16"/>
-        <v>4</v>
-      </c>
-      <c r="M18" s="49">
-        <f t="shared" si="17"/>
-        <v>2</v>
-      </c>
+      <c r="H18" s="33"/>
+      <c r="I18" s="45"/>
+      <c r="J18" s="46"/>
+      <c r="K18" s="47"/>
+      <c r="L18" s="48"/>
+      <c r="M18" s="49"/>
     </row>
     <row r="19" spans="1:13" ht="14.25" thickBot="1">
-      <c r="A19" s="108"/>
-      <c r="B19" s="69">
-        <v>15</v>
-      </c>
-      <c r="C19" s="31">
-        <v>1</v>
-      </c>
-      <c r="D19" s="32">
-        <v>0</v>
-      </c>
-      <c r="E19" s="32">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
+      <c r="A19" s="95"/>
+      <c r="B19" s="69"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
       <c r="F19" s="33"/>
       <c r="G19" s="34"/>
-      <c r="H19" s="33">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="I19" s="45">
-        <v>0</v>
-      </c>
-      <c r="J19" s="46" t="e">
-        <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K19" s="47">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="L19" s="48">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="M19" s="49">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
+      <c r="H19" s="33"/>
+      <c r="I19" s="45"/>
+      <c r="J19" s="46"/>
+      <c r="K19" s="47"/>
+      <c r="L19" s="48"/>
+      <c r="M19" s="49"/>
     </row>
     <row r="20" spans="1:13">
-      <c r="A20" s="108"/>
-      <c r="B20" s="67">
-        <v>16</v>
-      </c>
-      <c r="C20" s="27">
-        <v>2</v>
-      </c>
-      <c r="D20" s="28">
-        <v>1</v>
-      </c>
-      <c r="E20" s="28">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
+      <c r="A20" s="95"/>
+      <c r="B20" s="67"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
       <c r="F20" s="29"/>
       <c r="G20" s="30"/>
       <c r="H20" s="29"/>
       <c r="I20" s="40"/>
       <c r="J20" s="41"/>
-      <c r="K20" s="42">
-        <f t="shared" si="15"/>
-        <v>2</v>
-      </c>
-      <c r="L20" s="43">
-        <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="M20" s="44">
-        <f t="shared" si="17"/>
-        <v>0.5</v>
-      </c>
+      <c r="K20" s="42"/>
+      <c r="L20" s="43"/>
+      <c r="M20" s="44"/>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="91"/>
@@ -2990,7 +2666,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O303"/>
+  <dimension ref="A1:P303"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="P2" sqref="P2"/>
@@ -3009,6 +2685,7 @@
     <col min="10" max="10" width="13.875" customWidth="1"/>
     <col min="11" max="11" width="18" customWidth="1"/>
     <col min="12" max="14" width="15" customWidth="1"/>
+    <col min="16" max="16" width="31.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="16" customFormat="1" ht="27">
@@ -3059,7 +2736,7 @@
       </c>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="101">
+      <c r="A2" s="104">
         <v>51</v>
       </c>
       <c r="B2" s="58">
@@ -3106,7 +2783,7 @@
       </c>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="103"/>
+      <c r="A3" s="106"/>
       <c r="B3" s="58">
         <v>43085</v>
       </c>
@@ -3198,7 +2875,7 @@
       </c>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="101">
+      <c r="A5" s="104">
         <v>1</v>
       </c>
       <c r="B5" s="59">
@@ -3245,7 +2922,7 @@
       </c>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="103"/>
+      <c r="A6" s="106"/>
       <c r="B6" s="59">
         <v>43103</v>
       </c>
@@ -3290,7 +2967,7 @@
       </c>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="101">
+      <c r="A7" s="104">
         <v>2</v>
       </c>
       <c r="B7" s="59">
@@ -3337,7 +3014,7 @@
       </c>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="103"/>
+      <c r="A8" s="106"/>
       <c r="B8" s="59">
         <v>43109</v>
       </c>
@@ -3382,7 +3059,7 @@
       </c>
     </row>
     <row r="9" spans="1:15">
-      <c r="A9" s="101">
+      <c r="A9" s="104">
         <v>3</v>
       </c>
       <c r="B9" s="59">
@@ -3429,7 +3106,7 @@
       </c>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="103"/>
+      <c r="A10" s="106"/>
       <c r="B10" s="59">
         <v>43116</v>
       </c>
@@ -3521,7 +3198,7 @@
       </c>
     </row>
     <row r="12" spans="1:15">
-      <c r="A12" s="101">
+      <c r="A12" s="104">
         <v>5</v>
       </c>
       <c r="B12" s="59">
@@ -3568,7 +3245,7 @@
       </c>
     </row>
     <row r="13" spans="1:15">
-      <c r="A13" s="102"/>
+      <c r="A13" s="105"/>
       <c r="B13" s="59">
         <v>43130</v>
       </c>
@@ -3613,7 +3290,7 @@
       </c>
     </row>
     <row r="14" spans="1:15">
-      <c r="A14" s="103"/>
+      <c r="A14" s="106"/>
       <c r="B14" s="59">
         <v>43131</v>
       </c>
@@ -3658,7 +3335,7 @@
       </c>
     </row>
     <row r="15" spans="1:15">
-      <c r="A15" s="101">
+      <c r="A15" s="104">
         <v>6</v>
       </c>
       <c r="B15" s="59">
@@ -3705,7 +3382,7 @@
       </c>
     </row>
     <row r="16" spans="1:15">
-      <c r="A16" s="103"/>
+      <c r="A16" s="106"/>
       <c r="B16" s="59">
         <v>43138</v>
       </c>
@@ -3770,7 +3447,7 @@
       <c r="O17" s="11"/>
     </row>
     <row r="18" spans="1:15">
-      <c r="A18" s="101">
+      <c r="A18" s="104">
         <v>8</v>
       </c>
       <c r="B18" s="59">
@@ -3817,7 +3494,7 @@
       </c>
     </row>
     <row r="19" spans="1:15">
-      <c r="A19" s="102"/>
+      <c r="A19" s="105"/>
       <c r="B19" s="59">
         <v>43154</v>
       </c>
@@ -3862,7 +3539,7 @@
       </c>
     </row>
     <row r="20" spans="1:15">
-      <c r="A20" s="102"/>
+      <c r="A20" s="105"/>
       <c r="B20" s="59">
         <v>43154</v>
       </c>
@@ -3907,7 +3584,7 @@
       </c>
     </row>
     <row r="21" spans="1:15">
-      <c r="A21" s="102"/>
+      <c r="A21" s="105"/>
       <c r="B21" s="59">
         <v>43154</v>
       </c>
@@ -3952,7 +3629,7 @@
       </c>
     </row>
     <row r="22" spans="1:15">
-      <c r="A22" s="102"/>
+      <c r="A22" s="105"/>
       <c r="B22" s="59">
         <v>43154</v>
       </c>
@@ -3997,7 +3674,7 @@
       </c>
     </row>
     <row r="23" spans="1:15">
-      <c r="A23" s="103"/>
+      <c r="A23" s="106"/>
       <c r="B23" s="59">
         <v>43154</v>
       </c>
@@ -4042,7 +3719,7 @@
       </c>
     </row>
     <row r="24" spans="1:15">
-      <c r="A24" s="101">
+      <c r="A24" s="104">
         <v>9</v>
       </c>
       <c r="B24" s="59">
@@ -4089,7 +3766,7 @@
       </c>
     </row>
     <row r="25" spans="1:15">
-      <c r="A25" s="102"/>
+      <c r="A25" s="105"/>
       <c r="B25" s="59">
         <v>43159</v>
       </c>
@@ -4134,7 +3811,7 @@
       </c>
     </row>
     <row r="26" spans="1:15">
-      <c r="A26" s="102"/>
+      <c r="A26" s="105"/>
       <c r="B26" s="59">
         <v>43159</v>
       </c>
@@ -4179,7 +3856,7 @@
       </c>
     </row>
     <row r="27" spans="1:15">
-      <c r="A27" s="102"/>
+      <c r="A27" s="105"/>
       <c r="B27" s="59">
         <v>43159</v>
       </c>
@@ -4224,7 +3901,7 @@
       </c>
     </row>
     <row r="28" spans="1:15">
-      <c r="A28" s="103"/>
+      <c r="A28" s="106"/>
       <c r="B28" s="59">
         <v>43159</v>
       </c>
@@ -4363,7 +4040,7 @@
       </c>
     </row>
     <row r="31" spans="1:15">
-      <c r="A31" s="101">
+      <c r="A31" s="104">
         <v>12</v>
       </c>
       <c r="B31" s="59">
@@ -4410,7 +4087,7 @@
       </c>
     </row>
     <row r="32" spans="1:15">
-      <c r="A32" s="102"/>
+      <c r="A32" s="105"/>
       <c r="B32" s="59">
         <v>43180</v>
       </c>
@@ -4455,7 +4132,7 @@
       </c>
     </row>
     <row r="33" spans="1:15">
-      <c r="A33" s="102"/>
+      <c r="A33" s="105"/>
       <c r="B33" s="59">
         <v>43180</v>
       </c>
@@ -4500,7 +4177,7 @@
       </c>
     </row>
     <row r="34" spans="1:15">
-      <c r="A34" s="102"/>
+      <c r="A34" s="105"/>
       <c r="B34" s="59">
         <v>43180</v>
       </c>
@@ -4545,7 +4222,7 @@
       </c>
     </row>
     <row r="35" spans="1:15">
-      <c r="A35" s="102"/>
+      <c r="A35" s="105"/>
       <c r="B35" s="59">
         <v>43180</v>
       </c>
@@ -4590,7 +4267,7 @@
       </c>
     </row>
     <row r="36" spans="1:15">
-      <c r="A36" s="102"/>
+      <c r="A36" s="105"/>
       <c r="B36" s="59">
         <v>43180</v>
       </c>
@@ -4635,7 +4312,7 @@
       </c>
     </row>
     <row r="37" spans="1:15">
-      <c r="A37" s="103"/>
+      <c r="A37" s="106"/>
       <c r="B37" s="59">
         <v>43180</v>
       </c>
@@ -4680,7 +4357,7 @@
       </c>
     </row>
     <row r="38" spans="1:15">
-      <c r="A38" s="101">
+      <c r="A38" s="104">
         <v>13</v>
       </c>
       <c r="B38" s="59">
@@ -4727,7 +4404,7 @@
       </c>
     </row>
     <row r="39" spans="1:15">
-      <c r="A39" s="102"/>
+      <c r="A39" s="105"/>
       <c r="B39" s="59">
         <v>43187</v>
       </c>
@@ -4772,7 +4449,7 @@
       </c>
     </row>
     <row r="40" spans="1:15">
-      <c r="A40" s="102"/>
+      <c r="A40" s="105"/>
       <c r="B40" s="59">
         <v>43187</v>
       </c>
@@ -4817,7 +4494,7 @@
       </c>
     </row>
     <row r="41" spans="1:15">
-      <c r="A41" s="102"/>
+      <c r="A41" s="105"/>
       <c r="B41" s="59">
         <v>43187</v>
       </c>
@@ -4862,7 +4539,7 @@
       </c>
     </row>
     <row r="42" spans="1:15">
-      <c r="A42" s="102"/>
+      <c r="A42" s="105"/>
       <c r="B42" s="59">
         <v>43187</v>
       </c>
@@ -4907,7 +4584,7 @@
       </c>
     </row>
     <row r="43" spans="1:15">
-      <c r="A43" s="102"/>
+      <c r="A43" s="105"/>
       <c r="B43" s="59">
         <v>43187</v>
       </c>
@@ -4952,7 +4629,7 @@
       </c>
     </row>
     <row r="44" spans="1:15">
-      <c r="A44" s="102"/>
+      <c r="A44" s="105"/>
       <c r="B44" s="59">
         <v>43187</v>
       </c>
@@ -4997,7 +4674,7 @@
       </c>
     </row>
     <row r="45" spans="1:15">
-      <c r="A45" s="102"/>
+      <c r="A45" s="105"/>
       <c r="B45" s="59">
         <v>43187</v>
       </c>
@@ -5042,7 +4719,7 @@
       </c>
     </row>
     <row r="46" spans="1:15">
-      <c r="A46" s="102"/>
+      <c r="A46" s="105"/>
       <c r="B46" s="59">
         <v>43187</v>
       </c>
@@ -5087,7 +4764,7 @@
       </c>
     </row>
     <row r="47" spans="1:15">
-      <c r="A47" s="102"/>
+      <c r="A47" s="105"/>
       <c r="B47" s="59">
         <v>43187</v>
       </c>
@@ -5132,7 +4809,7 @@
       </c>
     </row>
     <row r="48" spans="1:15">
-      <c r="A48" s="102"/>
+      <c r="A48" s="105"/>
       <c r="B48" s="59">
         <v>43187</v>
       </c>
@@ -5176,8 +4853,8 @@
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:15">
-      <c r="A49" s="103"/>
+    <row r="49" spans="1:16">
+      <c r="A49" s="106"/>
       <c r="B49" s="59">
         <v>43187</v>
       </c>
@@ -5221,8 +4898,8 @@
         <v>47</v>
       </c>
     </row>
-    <row r="50" spans="1:15">
-      <c r="A50" s="104">
+    <row r="50" spans="1:16">
+      <c r="A50" s="107">
         <v>14</v>
       </c>
       <c r="B50" s="59">
@@ -5268,8 +4945,8 @@
         <v>47</v>
       </c>
     </row>
-    <row r="51" spans="1:15">
-      <c r="A51" s="105"/>
+    <row r="51" spans="1:16">
+      <c r="A51" s="108"/>
       <c r="B51" s="59">
         <v>43194</v>
       </c>
@@ -5313,8 +4990,8 @@
         <v>47</v>
       </c>
     </row>
-    <row r="52" spans="1:15">
-      <c r="A52" s="105"/>
+    <row r="52" spans="1:16">
+      <c r="A52" s="108"/>
       <c r="B52" s="59">
         <v>43194</v>
       </c>
@@ -5358,8 +5035,8 @@
         <v>47</v>
       </c>
     </row>
-    <row r="53" spans="1:15">
-      <c r="A53" s="106"/>
+    <row r="53" spans="1:16">
+      <c r="A53" s="109"/>
       <c r="B53" s="59">
         <v>43194</v>
       </c>
@@ -5403,8 +5080,8 @@
         <v>47</v>
       </c>
     </row>
-    <row r="54" spans="1:15">
-      <c r="A54" s="101">
+    <row r="54" spans="1:16">
+      <c r="A54" s="104">
         <v>15</v>
       </c>
       <c r="B54" s="59">
@@ -5450,8 +5127,8 @@
         <v>47</v>
       </c>
     </row>
-    <row r="55" spans="1:15">
-      <c r="A55" s="102"/>
+    <row r="55" spans="1:16">
+      <c r="A55" s="105"/>
       <c r="B55" s="59">
         <v>43201</v>
       </c>
@@ -5495,8 +5172,8 @@
         <v>47</v>
       </c>
     </row>
-    <row r="56" spans="1:15">
-      <c r="A56" s="102"/>
+    <row r="56" spans="1:16">
+      <c r="A56" s="105"/>
       <c r="B56" s="59">
         <v>43201</v>
       </c>
@@ -5540,8 +5217,8 @@
         <v>47</v>
       </c>
     </row>
-    <row r="57" spans="1:15">
-      <c r="A57" s="103"/>
+    <row r="57" spans="1:16">
+      <c r="A57" s="106"/>
       <c r="B57" s="59">
         <v>43201</v>
       </c>
@@ -5585,7 +5262,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="58" spans="1:15">
+    <row r="58" spans="1:16">
       <c r="A58" s="87">
         <v>16</v>
       </c>
@@ -5596,19 +5273,19 @@
         <v>37</v>
       </c>
       <c r="D58" s="50" t="s">
+        <v>212</v>
+      </c>
+      <c r="E58" s="50" t="s">
         <v>213</v>
       </c>
-      <c r="E58" s="50" t="s">
+      <c r="F58" s="50" t="s">
         <v>214</v>
-      </c>
-      <c r="F58" s="50" t="s">
-        <v>215</v>
       </c>
       <c r="G58" s="1">
         <v>76159127</v>
       </c>
       <c r="H58" s="50" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I58" s="50" t="s">
         <v>40</v>
@@ -5620,10 +5297,10 @@
         <v>17602558329</v>
       </c>
       <c r="L58" s="50" t="s">
+        <v>216</v>
+      </c>
+      <c r="M58" s="50" t="s">
         <v>217</v>
-      </c>
-      <c r="M58" s="50" t="s">
-        <v>218</v>
       </c>
       <c r="N58" s="1">
         <v>18750225127</v>
@@ -5632,58 +5309,150 @@
         <v>47</v>
       </c>
     </row>
-    <row r="59" spans="1:15">
-      <c r="A59" s="1"/>
-      <c r="B59" s="1"/>
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
-      <c r="F59" s="1"/>
-      <c r="G59" s="1"/>
-      <c r="H59" s="1"/>
-      <c r="I59" s="1"/>
-      <c r="J59" s="1"/>
-      <c r="K59" s="1"/>
-      <c r="L59" s="1"/>
-      <c r="M59" s="1"/>
-      <c r="N59" s="1"/>
-      <c r="O59" s="1"/>
-    </row>
-    <row r="60" spans="1:15">
-      <c r="A60" s="1"/>
-      <c r="B60" s="1"/>
-      <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
-      <c r="E60" s="1"/>
-      <c r="F60" s="1"/>
-      <c r="G60" s="1"/>
-      <c r="H60" s="1"/>
-      <c r="I60" s="1"/>
-      <c r="J60" s="1"/>
-      <c r="K60" s="1"/>
-      <c r="L60" s="1"/>
-      <c r="M60" s="1"/>
-      <c r="N60" s="1"/>
-      <c r="O60" s="1"/>
-    </row>
-    <row r="61" spans="1:15">
-      <c r="A61" s="1"/>
-      <c r="B61" s="1"/>
-      <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
-      <c r="E61" s="1"/>
-      <c r="F61" s="1"/>
-      <c r="G61" s="1"/>
-      <c r="H61" s="1"/>
-      <c r="I61" s="1"/>
-      <c r="J61" s="1"/>
-      <c r="K61" s="1"/>
-      <c r="L61" s="1"/>
-      <c r="M61" s="1"/>
-      <c r="N61" s="1"/>
-      <c r="O61" s="1"/>
-    </row>
-    <row r="62" spans="1:15">
+    <row r="59" spans="1:16">
+      <c r="A59" s="104">
+        <v>17</v>
+      </c>
+      <c r="B59" s="59">
+        <v>43215</v>
+      </c>
+      <c r="C59" s="50" t="s">
+        <v>37</v>
+      </c>
+      <c r="D59" s="50" t="s">
+        <v>218</v>
+      </c>
+      <c r="E59" s="50" t="s">
+        <v>219</v>
+      </c>
+      <c r="F59" s="50" t="s">
+        <v>65</v>
+      </c>
+      <c r="G59" s="1">
+        <v>76155318</v>
+      </c>
+      <c r="H59" s="50" t="s">
+        <v>220</v>
+      </c>
+      <c r="I59" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="J59" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="K59" s="11">
+        <v>17602558329</v>
+      </c>
+      <c r="L59" s="50" t="s">
+        <v>221</v>
+      </c>
+      <c r="M59" s="50" t="s">
+        <v>222</v>
+      </c>
+      <c r="N59" s="71">
+        <v>17327996435</v>
+      </c>
+      <c r="O59" s="11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16">
+      <c r="A60" s="105"/>
+      <c r="B60" s="59">
+        <v>43215</v>
+      </c>
+      <c r="C60" s="50" t="s">
+        <v>37</v>
+      </c>
+      <c r="D60" s="50" t="s">
+        <v>99</v>
+      </c>
+      <c r="E60" s="50" t="s">
+        <v>176</v>
+      </c>
+      <c r="F60" s="50" t="s">
+        <v>223</v>
+      </c>
+      <c r="G60" s="1">
+        <v>76156911</v>
+      </c>
+      <c r="H60" s="50" t="s">
+        <v>225</v>
+      </c>
+      <c r="I60" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="J60" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="K60" s="11">
+        <v>17602558329</v>
+      </c>
+      <c r="L60" s="50" t="s">
+        <v>102</v>
+      </c>
+      <c r="M60" s="50" t="s">
+        <v>103</v>
+      </c>
+      <c r="N60" s="11">
+        <v>18020275119</v>
+      </c>
+      <c r="O60" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="P60" s="93" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16">
+      <c r="A61" s="106"/>
+      <c r="B61" s="59">
+        <v>43215</v>
+      </c>
+      <c r="C61" s="50" t="s">
+        <v>37</v>
+      </c>
+      <c r="D61" s="50" t="s">
+        <v>99</v>
+      </c>
+      <c r="E61" s="50" t="s">
+        <v>176</v>
+      </c>
+      <c r="F61" s="50" t="s">
+        <v>224</v>
+      </c>
+      <c r="G61" s="1">
+        <v>76157133</v>
+      </c>
+      <c r="H61" s="50" t="s">
+        <v>226</v>
+      </c>
+      <c r="I61" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="J61" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="K61" s="11">
+        <v>17602558329</v>
+      </c>
+      <c r="L61" s="50" t="s">
+        <v>102</v>
+      </c>
+      <c r="M61" s="50" t="s">
+        <v>103</v>
+      </c>
+      <c r="N61" s="11">
+        <v>18020275119</v>
+      </c>
+      <c r="O61" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="P61" s="93" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -5700,7 +5469,7 @@
       <c r="N62" s="1"/>
       <c r="O62" s="1"/>
     </row>
-    <row r="63" spans="1:15">
+    <row r="63" spans="1:16">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -5717,7 +5486,7 @@
       <c r="N63" s="1"/>
       <c r="O63" s="1"/>
     </row>
-    <row r="64" spans="1:15">
+    <row r="64" spans="1:16">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -9798,7 +9567,8 @@
       <c r="O303" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="13">
+    <mergeCell ref="A59:A61"/>
     <mergeCell ref="A54:A57"/>
     <mergeCell ref="A50:A53"/>
     <mergeCell ref="A38:A49"/>
@@ -9879,7 +9649,7 @@
         <v>43123</v>
       </c>
       <c r="D2" s="51" t="s">
-        <v>202</v>
+        <v>233</v>
       </c>
       <c r="E2" s="11" t="s">
         <v>51</v>
@@ -9915,47 +9685,47 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="101">
+      <c r="A4" s="104">
         <v>15</v>
       </c>
       <c r="B4" s="56" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C4" s="79">
         <v>43199</v>
       </c>
       <c r="D4" s="51" t="s">
+        <v>203</v>
+      </c>
+      <c r="E4" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="F4" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="F4" s="11" t="s">
-        <v>206</v>
-      </c>
       <c r="G4" s="50" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="103"/>
+      <c r="A5" s="106"/>
       <c r="B5" s="56" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C5" s="79">
         <v>43202</v>
       </c>
       <c r="D5" s="51" t="s">
+        <v>203</v>
+      </c>
+      <c r="E5" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="F5" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="G5" s="50" t="s">
         <v>206</v>
-      </c>
-      <c r="G5" s="50" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -9963,50 +9733,88 @@
         <v>16</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C6" s="79">
         <v>43206</v>
       </c>
       <c r="D6" s="51" t="s">
+        <v>203</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="G6" s="50" t="s">
         <v>211</v>
       </c>
-      <c r="E6" s="11" t="s">
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="110">
+        <v>17</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="C7" s="79">
+        <v>43213</v>
+      </c>
+      <c r="D7" s="51" t="s">
+        <v>228</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="F7" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="F6" s="11" t="s">
-        <v>206</v>
-      </c>
-      <c r="G6" s="50" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="78"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
+      <c r="G7" s="50" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="78"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
+      <c r="A8" s="110"/>
+      <c r="B8" s="56" t="s">
+        <v>230</v>
+      </c>
+      <c r="C8" s="79">
+        <v>43213</v>
+      </c>
+      <c r="D8" s="51" t="s">
+        <v>210</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="G8" s="50" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="78"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
+      <c r="A9" s="110"/>
+      <c r="B9" s="56" t="s">
+        <v>232</v>
+      </c>
+      <c r="C9" s="79">
+        <v>43213</v>
+      </c>
+      <c r="D9" s="51" t="s">
+        <v>228</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="G9" s="50" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="78"/>
@@ -10045,7 +9853,7 @@
       <c r="G13" s="11"/>
     </row>
     <row r="14" spans="1:7" ht="14.25">
-      <c r="A14" s="101"/>
+      <c r="A14" s="104"/>
       <c r="B14" s="9"/>
       <c r="C14" s="13"/>
       <c r="D14" s="12"/>
@@ -10054,7 +9862,7 @@
       <c r="G14" s="9"/>
     </row>
     <row r="15" spans="1:7" ht="14.25">
-      <c r="A15" s="102"/>
+      <c r="A15" s="105"/>
       <c r="B15" s="9"/>
       <c r="C15" s="14"/>
       <c r="D15" s="12"/>
@@ -10063,7 +9871,7 @@
       <c r="G15" s="4"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="102"/>
+      <c r="A16" s="105"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
       <c r="D16" s="10"/>
@@ -10072,7 +9880,7 @@
       <c r="G16" s="11"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="102"/>
+      <c r="A17" s="105"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
       <c r="D17" s="10"/>
@@ -10081,7 +9889,7 @@
       <c r="G17" s="11"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="102"/>
+      <c r="A18" s="105"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
       <c r="D18" s="10"/>
@@ -10090,7 +9898,7 @@
       <c r="G18" s="11"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="102"/>
+      <c r="A19" s="105"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
       <c r="D19" s="10"/>
@@ -10099,7 +9907,7 @@
       <c r="G19" s="11"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="102"/>
+      <c r="A20" s="105"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
       <c r="D20" s="10"/>
@@ -10108,7 +9916,7 @@
       <c r="G20" s="11"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="102"/>
+      <c r="A21" s="105"/>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
       <c r="D21" s="10"/>
@@ -10117,7 +9925,7 @@
       <c r="G21" s="11"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="102"/>
+      <c r="A22" s="105"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
       <c r="D22" s="10"/>
@@ -10126,7 +9934,7 @@
       <c r="G22" s="11"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="102"/>
+      <c r="A23" s="105"/>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
       <c r="D23" s="10"/>
@@ -10135,7 +9943,7 @@
       <c r="G23" s="11"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="102"/>
+      <c r="A24" s="105"/>
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
       <c r="D24" s="10"/>
@@ -10144,7 +9952,7 @@
       <c r="G24" s="11"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="102"/>
+      <c r="A25" s="105"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
       <c r="D25" s="10"/>
@@ -10153,7 +9961,7 @@
       <c r="G25" s="11"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="102"/>
+      <c r="A26" s="105"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
       <c r="D26" s="10"/>
@@ -10162,7 +9970,7 @@
       <c r="G26" s="11"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="102"/>
+      <c r="A27" s="105"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
       <c r="D27" s="10"/>
@@ -10171,7 +9979,7 @@
       <c r="G27" s="11"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="103"/>
+      <c r="A28" s="106"/>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
       <c r="D28" s="10"/>
@@ -10180,7 +9988,7 @@
       <c r="G28" s="11"/>
     </row>
     <row r="29" spans="1:7" ht="14.25">
-      <c r="A29" s="101"/>
+      <c r="A29" s="104"/>
       <c r="B29" s="9"/>
       <c r="C29" s="13"/>
       <c r="D29" s="12"/>
@@ -10189,7 +9997,7 @@
       <c r="G29" s="9"/>
     </row>
     <row r="30" spans="1:7" ht="14.25">
-      <c r="A30" s="102"/>
+      <c r="A30" s="105"/>
       <c r="B30" s="9"/>
       <c r="C30" s="14"/>
       <c r="D30" s="12"/>
@@ -10198,7 +10006,7 @@
       <c r="G30" s="4"/>
     </row>
     <row r="31" spans="1:7" ht="14.25">
-      <c r="A31" s="102"/>
+      <c r="A31" s="105"/>
       <c r="B31" s="9"/>
       <c r="C31" s="14"/>
       <c r="D31" s="12"/>
@@ -10207,7 +10015,7 @@
       <c r="G31" s="4"/>
     </row>
     <row r="32" spans="1:7" ht="14.25">
-      <c r="A32" s="102"/>
+      <c r="A32" s="105"/>
       <c r="B32" s="9"/>
       <c r="C32" s="14"/>
       <c r="D32" s="12"/>
@@ -10216,7 +10024,7 @@
       <c r="G32" s="15"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="102"/>
+      <c r="A33" s="105"/>
       <c r="B33" s="9"/>
       <c r="C33" s="9"/>
       <c r="D33" s="10"/>
@@ -10225,7 +10033,7 @@
       <c r="G33" s="11"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="102"/>
+      <c r="A34" s="105"/>
       <c r="B34" s="9"/>
       <c r="C34" s="9"/>
       <c r="D34" s="10"/>
@@ -10234,7 +10042,7 @@
       <c r="G34" s="11"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="102"/>
+      <c r="A35" s="105"/>
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
       <c r="D35" s="10"/>
@@ -10243,7 +10051,7 @@
       <c r="G35" s="11"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="102"/>
+      <c r="A36" s="105"/>
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
       <c r="D36" s="10"/>
@@ -10252,7 +10060,7 @@
       <c r="G36" s="11"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="102"/>
+      <c r="A37" s="105"/>
       <c r="B37" s="9"/>
       <c r="C37" s="9"/>
       <c r="D37" s="10"/>
@@ -10261,7 +10069,7 @@
       <c r="G37" s="11"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="102"/>
+      <c r="A38" s="105"/>
       <c r="B38" s="9"/>
       <c r="C38" s="9"/>
       <c r="D38" s="10"/>
@@ -10270,7 +10078,7 @@
       <c r="G38" s="11"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="102"/>
+      <c r="A39" s="105"/>
       <c r="B39" s="9"/>
       <c r="C39" s="9"/>
       <c r="D39" s="10"/>
@@ -10279,7 +10087,7 @@
       <c r="G39" s="11"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="103"/>
+      <c r="A40" s="106"/>
       <c r="B40" s="9"/>
       <c r="C40" s="9"/>
       <c r="D40" s="10"/>
@@ -10288,7 +10096,7 @@
       <c r="G40" s="11"/>
     </row>
     <row r="41" spans="1:7" ht="14.25">
-      <c r="A41" s="101"/>
+      <c r="A41" s="104"/>
       <c r="B41" s="9"/>
       <c r="C41" s="13"/>
       <c r="D41" s="12"/>
@@ -10297,7 +10105,7 @@
       <c r="G41" s="9"/>
     </row>
     <row r="42" spans="1:7" ht="14.25">
-      <c r="A42" s="102"/>
+      <c r="A42" s="105"/>
       <c r="B42" s="9"/>
       <c r="C42" s="14"/>
       <c r="D42" s="12"/>
@@ -10306,7 +10114,7 @@
       <c r="G42" s="4"/>
     </row>
     <row r="43" spans="1:7" ht="14.25">
-      <c r="A43" s="102"/>
+      <c r="A43" s="105"/>
       <c r="B43" s="9"/>
       <c r="C43" s="14"/>
       <c r="D43" s="12"/>
@@ -10315,7 +10123,7 @@
       <c r="G43" s="4"/>
     </row>
     <row r="44" spans="1:7" ht="14.25">
-      <c r="A44" s="102"/>
+      <c r="A44" s="105"/>
       <c r="B44" s="9"/>
       <c r="C44" s="14"/>
       <c r="D44" s="12"/>
@@ -10324,7 +10132,7 @@
       <c r="G44" s="15"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="102"/>
+      <c r="A45" s="105"/>
       <c r="B45" s="9"/>
       <c r="C45" s="9"/>
       <c r="D45" s="10"/>
@@ -10333,7 +10141,7 @@
       <c r="G45" s="11"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="102"/>
+      <c r="A46" s="105"/>
       <c r="B46" s="9"/>
       <c r="C46" s="9"/>
       <c r="D46" s="10"/>
@@ -10342,7 +10150,7 @@
       <c r="G46" s="11"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="102"/>
+      <c r="A47" s="105"/>
       <c r="B47" s="9"/>
       <c r="C47" s="9"/>
       <c r="D47" s="10"/>
@@ -10351,7 +10159,7 @@
       <c r="G47" s="11"/>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="102"/>
+      <c r="A48" s="105"/>
       <c r="B48" s="9"/>
       <c r="C48" s="9"/>
       <c r="D48" s="10"/>
@@ -10360,7 +10168,7 @@
       <c r="G48" s="11"/>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="102"/>
+      <c r="A49" s="105"/>
       <c r="B49" s="9"/>
       <c r="C49" s="9"/>
       <c r="D49" s="10"/>
@@ -10369,7 +10177,7 @@
       <c r="G49" s="11"/>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="102"/>
+      <c r="A50" s="105"/>
       <c r="B50" s="9"/>
       <c r="C50" s="9"/>
       <c r="D50" s="10"/>
@@ -10378,7 +10186,7 @@
       <c r="G50" s="11"/>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="102"/>
+      <c r="A51" s="105"/>
       <c r="B51" s="9"/>
       <c r="C51" s="9"/>
       <c r="D51" s="10"/>
@@ -10387,7 +10195,7 @@
       <c r="G51" s="11"/>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="103"/>
+      <c r="A52" s="106"/>
       <c r="B52" s="9"/>
       <c r="C52" s="9"/>
       <c r="D52" s="10"/>
@@ -10396,7 +10204,7 @@
       <c r="G52" s="11"/>
     </row>
     <row r="53" spans="1:7" ht="14.25">
-      <c r="A53" s="102"/>
+      <c r="A53" s="105"/>
       <c r="B53" s="9"/>
       <c r="C53" s="14"/>
       <c r="D53" s="12"/>
@@ -10405,7 +10213,7 @@
       <c r="G53" s="4"/>
     </row>
     <row r="54" spans="1:7" ht="14.25">
-      <c r="A54" s="102"/>
+      <c r="A54" s="105"/>
       <c r="B54" s="9"/>
       <c r="C54" s="14"/>
       <c r="D54" s="12"/>
@@ -10414,7 +10222,7 @@
       <c r="G54" s="15"/>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="102"/>
+      <c r="A55" s="105"/>
       <c r="B55" s="9"/>
       <c r="C55" s="9"/>
       <c r="D55" s="10"/>
@@ -10423,7 +10231,7 @@
       <c r="G55" s="11"/>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="102"/>
+      <c r="A56" s="105"/>
       <c r="B56" s="9"/>
       <c r="C56" s="9"/>
       <c r="D56" s="10"/>
@@ -10432,7 +10240,7 @@
       <c r="G56" s="11"/>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="102"/>
+      <c r="A57" s="105"/>
       <c r="B57" s="9"/>
       <c r="C57" s="9"/>
       <c r="D57" s="10"/>
@@ -10441,7 +10249,7 @@
       <c r="G57" s="11"/>
     </row>
     <row r="58" spans="1:7">
-      <c r="A58" s="102"/>
+      <c r="A58" s="105"/>
       <c r="B58" s="9"/>
       <c r="C58" s="9"/>
       <c r="D58" s="10"/>
@@ -10450,7 +10258,7 @@
       <c r="G58" s="11"/>
     </row>
     <row r="59" spans="1:7">
-      <c r="A59" s="102"/>
+      <c r="A59" s="105"/>
       <c r="B59" s="9"/>
       <c r="C59" s="9"/>
       <c r="D59" s="10"/>
@@ -10459,7 +10267,7 @@
       <c r="G59" s="11"/>
     </row>
     <row r="60" spans="1:7">
-      <c r="A60" s="102"/>
+      <c r="A60" s="105"/>
       <c r="B60" s="9"/>
       <c r="C60" s="9"/>
       <c r="D60" s="10"/>
@@ -10468,7 +10276,7 @@
       <c r="G60" s="11"/>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="102"/>
+      <c r="A61" s="105"/>
       <c r="B61" s="9"/>
       <c r="C61" s="9"/>
       <c r="D61" s="10"/>
@@ -10477,7 +10285,7 @@
       <c r="G61" s="11"/>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" s="103"/>
+      <c r="A62" s="106"/>
       <c r="B62" s="9"/>
       <c r="C62" s="9"/>
       <c r="D62" s="10"/>
@@ -10486,12 +10294,13 @@
       <c r="G62" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A41:A52"/>
     <mergeCell ref="A53:A62"/>
     <mergeCell ref="A14:A28"/>
     <mergeCell ref="A29:A40"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <dataValidations count="3">

--- a/周数据/《个人上线率统计表》-黄纯伟.xlsx
+++ b/周数据/《个人上线率统计表》-黄纯伟.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="237">
   <si>
     <t>个人上线率分析表</t>
   </si>
@@ -868,14 +868,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>鸭得堡（常州店）</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>跟商户约时间实施</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>堵雪军</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -940,39 +932,7 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>K</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>A项目之前已回访，后期</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>无需回访</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>跟商户约时间远程实施</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>沽涷上海临空店</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
@@ -1013,6 +973,34 @@
   </si>
   <si>
     <t>店铺签约100家，目前还有54家未开户，9家未上线，37家已上线</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>无需回访</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>沽涷成都茂业店</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>鸭得堡（常州吾悦广场店）</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>晨旺土菜馆</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>南京</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>毕总</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>老板</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -1534,7 +1522,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1814,6 +1802,9 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2161,21 +2152,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15" thickBot="1">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="100" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-      <c r="H1" s="100"/>
-      <c r="I1" s="100"/>
-      <c r="J1" s="101"/>
-      <c r="K1" s="100"/>
-      <c r="L1" s="100"/>
-      <c r="M1" s="102"/>
+      <c r="B1" s="101"/>
+      <c r="C1" s="101"/>
+      <c r="D1" s="101"/>
+      <c r="E1" s="101"/>
+      <c r="F1" s="101"/>
+      <c r="G1" s="101"/>
+      <c r="H1" s="101"/>
+      <c r="I1" s="101"/>
+      <c r="J1" s="102"/>
+      <c r="K1" s="101"/>
+      <c r="L1" s="101"/>
+      <c r="M1" s="103"/>
     </row>
     <row r="2" spans="1:13" ht="14.25" thickBot="1">
       <c r="A2" s="89" t="s">
@@ -2219,7 +2210,7 @@
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="97">
+      <c r="A3" s="98">
         <v>4</v>
       </c>
       <c r="B3" s="67">
@@ -2260,7 +2251,7 @@
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="98"/>
+      <c r="A4" s="99"/>
       <c r="B4" s="67"/>
       <c r="C4" s="27"/>
       <c r="D4" s="28"/>
@@ -2275,7 +2266,7 @@
       <c r="M4" s="44"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="103"/>
+      <c r="A5" s="104"/>
       <c r="B5" s="67"/>
       <c r="C5" s="27"/>
       <c r="D5" s="28"/>
@@ -2290,7 +2281,7 @@
       <c r="M5" s="44"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="103"/>
+      <c r="A6" s="104"/>
       <c r="B6" s="67"/>
       <c r="C6" s="27"/>
       <c r="D6" s="28"/>
@@ -2305,7 +2296,7 @@
       <c r="M6" s="44"/>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="103"/>
+      <c r="A7" s="104"/>
       <c r="B7" s="67"/>
       <c r="C7" s="27"/>
       <c r="D7" s="28"/>
@@ -2320,7 +2311,7 @@
       <c r="M7" s="66"/>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="103"/>
+      <c r="A8" s="104"/>
       <c r="B8" s="68"/>
       <c r="C8" s="60"/>
       <c r="D8" s="61"/>
@@ -2335,7 +2326,7 @@
       <c r="M8" s="44"/>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="103"/>
+      <c r="A9" s="104"/>
       <c r="B9" s="67"/>
       <c r="C9" s="27"/>
       <c r="D9" s="28"/>
@@ -2350,7 +2341,7 @@
       <c r="M9" s="44"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="96"/>
+      <c r="A10" s="97"/>
       <c r="B10" s="67"/>
       <c r="C10" s="27"/>
       <c r="D10" s="28"/>
@@ -2365,7 +2356,7 @@
       <c r="M10" s="44"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="96"/>
+      <c r="A11" s="97"/>
       <c r="B11" s="67"/>
       <c r="C11" s="27"/>
       <c r="D11" s="28"/>
@@ -2380,7 +2371,7 @@
       <c r="M11" s="44"/>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="96"/>
+      <c r="A12" s="97"/>
       <c r="B12" s="67"/>
       <c r="C12" s="27"/>
       <c r="D12" s="28"/>
@@ -2395,7 +2386,7 @@
       <c r="M12" s="44"/>
     </row>
     <row r="13" spans="1:13" ht="14.25" thickBot="1">
-      <c r="A13" s="96"/>
+      <c r="A13" s="97"/>
       <c r="B13" s="69"/>
       <c r="C13" s="27"/>
       <c r="D13" s="32"/>
@@ -2410,7 +2401,7 @@
       <c r="M13" s="49"/>
     </row>
     <row r="14" spans="1:13" ht="14.25" thickBot="1">
-      <c r="A14" s="96"/>
+      <c r="A14" s="97"/>
       <c r="B14" s="69"/>
       <c r="C14" s="27"/>
       <c r="D14" s="32"/>
@@ -2425,7 +2416,7 @@
       <c r="M14" s="49"/>
     </row>
     <row r="15" spans="1:13" ht="14.25" thickBot="1">
-      <c r="A15" s="96"/>
+      <c r="A15" s="97"/>
       <c r="B15" s="69"/>
       <c r="C15" s="27"/>
       <c r="D15" s="32"/>
@@ -2440,7 +2431,7 @@
       <c r="M15" s="49"/>
     </row>
     <row r="16" spans="1:13" ht="14.25" thickBot="1">
-      <c r="A16" s="96"/>
+      <c r="A16" s="97"/>
       <c r="B16" s="69"/>
       <c r="C16" s="31"/>
       <c r="D16" s="32"/>
@@ -2455,7 +2446,7 @@
       <c r="M16" s="49"/>
     </row>
     <row r="17" spans="1:13" ht="14.25" thickBot="1">
-      <c r="A17" s="96"/>
+      <c r="A17" s="97"/>
       <c r="B17" s="69"/>
       <c r="C17" s="31"/>
       <c r="D17" s="32"/>
@@ -2470,7 +2461,7 @@
       <c r="M17" s="49"/>
     </row>
     <row r="18" spans="1:13" ht="14.25" thickBot="1">
-      <c r="A18" s="94"/>
+      <c r="A18" s="95"/>
       <c r="B18" s="69"/>
       <c r="C18" s="31"/>
       <c r="D18" s="32"/>
@@ -2485,7 +2476,7 @@
       <c r="M18" s="49"/>
     </row>
     <row r="19" spans="1:13" ht="14.25" thickBot="1">
-      <c r="A19" s="95"/>
+      <c r="A19" s="96"/>
       <c r="B19" s="69"/>
       <c r="C19" s="31"/>
       <c r="D19" s="32"/>
@@ -2500,7 +2491,7 @@
       <c r="M19" s="49"/>
     </row>
     <row r="20" spans="1:13">
-      <c r="A20" s="95"/>
+      <c r="A20" s="96"/>
       <c r="B20" s="67"/>
       <c r="C20" s="27"/>
       <c r="D20" s="28"/>
@@ -2685,7 +2676,7 @@
     <col min="10" max="10" width="13.875" customWidth="1"/>
     <col min="11" max="11" width="18" customWidth="1"/>
     <col min="12" max="14" width="15" customWidth="1"/>
-    <col min="16" max="16" width="31.875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="16" customFormat="1" ht="27">
@@ -2736,7 +2727,7 @@
       </c>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="104">
+      <c r="A2" s="105">
         <v>51</v>
       </c>
       <c r="B2" s="58">
@@ -2783,7 +2774,7 @@
       </c>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="106"/>
+      <c r="A3" s="107"/>
       <c r="B3" s="58">
         <v>43085</v>
       </c>
@@ -2875,7 +2866,7 @@
       </c>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="104">
+      <c r="A5" s="105">
         <v>1</v>
       </c>
       <c r="B5" s="59">
@@ -2922,7 +2913,7 @@
       </c>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="106"/>
+      <c r="A6" s="107"/>
       <c r="B6" s="59">
         <v>43103</v>
       </c>
@@ -2967,7 +2958,7 @@
       </c>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="104">
+      <c r="A7" s="105">
         <v>2</v>
       </c>
       <c r="B7" s="59">
@@ -3014,7 +3005,7 @@
       </c>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="106"/>
+      <c r="A8" s="107"/>
       <c r="B8" s="59">
         <v>43109</v>
       </c>
@@ -3059,7 +3050,7 @@
       </c>
     </row>
     <row r="9" spans="1:15">
-      <c r="A9" s="104">
+      <c r="A9" s="105">
         <v>3</v>
       </c>
       <c r="B9" s="59">
@@ -3106,7 +3097,7 @@
       </c>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="106"/>
+      <c r="A10" s="107"/>
       <c r="B10" s="59">
         <v>43116</v>
       </c>
@@ -3198,7 +3189,7 @@
       </c>
     </row>
     <row r="12" spans="1:15">
-      <c r="A12" s="104">
+      <c r="A12" s="105">
         <v>5</v>
       </c>
       <c r="B12" s="59">
@@ -3245,7 +3236,7 @@
       </c>
     </row>
     <row r="13" spans="1:15">
-      <c r="A13" s="105"/>
+      <c r="A13" s="106"/>
       <c r="B13" s="59">
         <v>43130</v>
       </c>
@@ -3290,7 +3281,7 @@
       </c>
     </row>
     <row r="14" spans="1:15">
-      <c r="A14" s="106"/>
+      <c r="A14" s="107"/>
       <c r="B14" s="59">
         <v>43131</v>
       </c>
@@ -3335,7 +3326,7 @@
       </c>
     </row>
     <row r="15" spans="1:15">
-      <c r="A15" s="104">
+      <c r="A15" s="105">
         <v>6</v>
       </c>
       <c r="B15" s="59">
@@ -3382,7 +3373,7 @@
       </c>
     </row>
     <row r="16" spans="1:15">
-      <c r="A16" s="106"/>
+      <c r="A16" s="107"/>
       <c r="B16" s="59">
         <v>43138</v>
       </c>
@@ -3447,7 +3438,7 @@
       <c r="O17" s="11"/>
     </row>
     <row r="18" spans="1:15">
-      <c r="A18" s="104">
+      <c r="A18" s="105">
         <v>8</v>
       </c>
       <c r="B18" s="59">
@@ -3494,7 +3485,7 @@
       </c>
     </row>
     <row r="19" spans="1:15">
-      <c r="A19" s="105"/>
+      <c r="A19" s="106"/>
       <c r="B19" s="59">
         <v>43154</v>
       </c>
@@ -3539,7 +3530,7 @@
       </c>
     </row>
     <row r="20" spans="1:15">
-      <c r="A20" s="105"/>
+      <c r="A20" s="106"/>
       <c r="B20" s="59">
         <v>43154</v>
       </c>
@@ -3584,7 +3575,7 @@
       </c>
     </row>
     <row r="21" spans="1:15">
-      <c r="A21" s="105"/>
+      <c r="A21" s="106"/>
       <c r="B21" s="59">
         <v>43154</v>
       </c>
@@ -3629,7 +3620,7 @@
       </c>
     </row>
     <row r="22" spans="1:15">
-      <c r="A22" s="105"/>
+      <c r="A22" s="106"/>
       <c r="B22" s="59">
         <v>43154</v>
       </c>
@@ -3674,7 +3665,7 @@
       </c>
     </row>
     <row r="23" spans="1:15">
-      <c r="A23" s="106"/>
+      <c r="A23" s="107"/>
       <c r="B23" s="59">
         <v>43154</v>
       </c>
@@ -3719,7 +3710,7 @@
       </c>
     </row>
     <row r="24" spans="1:15">
-      <c r="A24" s="104">
+      <c r="A24" s="105">
         <v>9</v>
       </c>
       <c r="B24" s="59">
@@ -3766,7 +3757,7 @@
       </c>
     </row>
     <row r="25" spans="1:15">
-      <c r="A25" s="105"/>
+      <c r="A25" s="106"/>
       <c r="B25" s="59">
         <v>43159</v>
       </c>
@@ -3811,7 +3802,7 @@
       </c>
     </row>
     <row r="26" spans="1:15">
-      <c r="A26" s="105"/>
+      <c r="A26" s="106"/>
       <c r="B26" s="59">
         <v>43159</v>
       </c>
@@ -3856,7 +3847,7 @@
       </c>
     </row>
     <row r="27" spans="1:15">
-      <c r="A27" s="105"/>
+      <c r="A27" s="106"/>
       <c r="B27" s="59">
         <v>43159</v>
       </c>
@@ -3901,7 +3892,7 @@
       </c>
     </row>
     <row r="28" spans="1:15">
-      <c r="A28" s="106"/>
+      <c r="A28" s="107"/>
       <c r="B28" s="59">
         <v>43159</v>
       </c>
@@ -4040,7 +4031,7 @@
       </c>
     </row>
     <row r="31" spans="1:15">
-      <c r="A31" s="104">
+      <c r="A31" s="105">
         <v>12</v>
       </c>
       <c r="B31" s="59">
@@ -4087,7 +4078,7 @@
       </c>
     </row>
     <row r="32" spans="1:15">
-      <c r="A32" s="105"/>
+      <c r="A32" s="106"/>
       <c r="B32" s="59">
         <v>43180</v>
       </c>
@@ -4132,7 +4123,7 @@
       </c>
     </row>
     <row r="33" spans="1:15">
-      <c r="A33" s="105"/>
+      <c r="A33" s="106"/>
       <c r="B33" s="59">
         <v>43180</v>
       </c>
@@ -4177,7 +4168,7 @@
       </c>
     </row>
     <row r="34" spans="1:15">
-      <c r="A34" s="105"/>
+      <c r="A34" s="106"/>
       <c r="B34" s="59">
         <v>43180</v>
       </c>
@@ -4222,7 +4213,7 @@
       </c>
     </row>
     <row r="35" spans="1:15">
-      <c r="A35" s="105"/>
+      <c r="A35" s="106"/>
       <c r="B35" s="59">
         <v>43180</v>
       </c>
@@ -4267,7 +4258,7 @@
       </c>
     </row>
     <row r="36" spans="1:15">
-      <c r="A36" s="105"/>
+      <c r="A36" s="106"/>
       <c r="B36" s="59">
         <v>43180</v>
       </c>
@@ -4312,7 +4303,7 @@
       </c>
     </row>
     <row r="37" spans="1:15">
-      <c r="A37" s="106"/>
+      <c r="A37" s="107"/>
       <c r="B37" s="59">
         <v>43180</v>
       </c>
@@ -4357,7 +4348,7 @@
       </c>
     </row>
     <row r="38" spans="1:15">
-      <c r="A38" s="104">
+      <c r="A38" s="105">
         <v>13</v>
       </c>
       <c r="B38" s="59">
@@ -4404,7 +4395,7 @@
       </c>
     </row>
     <row r="39" spans="1:15">
-      <c r="A39" s="105"/>
+      <c r="A39" s="106"/>
       <c r="B39" s="59">
         <v>43187</v>
       </c>
@@ -4449,7 +4440,7 @@
       </c>
     </row>
     <row r="40" spans="1:15">
-      <c r="A40" s="105"/>
+      <c r="A40" s="106"/>
       <c r="B40" s="59">
         <v>43187</v>
       </c>
@@ -4494,7 +4485,7 @@
       </c>
     </row>
     <row r="41" spans="1:15">
-      <c r="A41" s="105"/>
+      <c r="A41" s="106"/>
       <c r="B41" s="59">
         <v>43187</v>
       </c>
@@ -4539,7 +4530,7 @@
       </c>
     </row>
     <row r="42" spans="1:15">
-      <c r="A42" s="105"/>
+      <c r="A42" s="106"/>
       <c r="B42" s="59">
         <v>43187</v>
       </c>
@@ -4584,7 +4575,7 @@
       </c>
     </row>
     <row r="43" spans="1:15">
-      <c r="A43" s="105"/>
+      <c r="A43" s="106"/>
       <c r="B43" s="59">
         <v>43187</v>
       </c>
@@ -4629,7 +4620,7 @@
       </c>
     </row>
     <row r="44" spans="1:15">
-      <c r="A44" s="105"/>
+      <c r="A44" s="106"/>
       <c r="B44" s="59">
         <v>43187</v>
       </c>
@@ -4674,7 +4665,7 @@
       </c>
     </row>
     <row r="45" spans="1:15">
-      <c r="A45" s="105"/>
+      <c r="A45" s="106"/>
       <c r="B45" s="59">
         <v>43187</v>
       </c>
@@ -4719,7 +4710,7 @@
       </c>
     </row>
     <row r="46" spans="1:15">
-      <c r="A46" s="105"/>
+      <c r="A46" s="106"/>
       <c r="B46" s="59">
         <v>43187</v>
       </c>
@@ -4764,7 +4755,7 @@
       </c>
     </row>
     <row r="47" spans="1:15">
-      <c r="A47" s="105"/>
+      <c r="A47" s="106"/>
       <c r="B47" s="59">
         <v>43187</v>
       </c>
@@ -4809,7 +4800,7 @@
       </c>
     </row>
     <row r="48" spans="1:15">
-      <c r="A48" s="105"/>
+      <c r="A48" s="106"/>
       <c r="B48" s="59">
         <v>43187</v>
       </c>
@@ -4854,7 +4845,7 @@
       </c>
     </row>
     <row r="49" spans="1:16">
-      <c r="A49" s="106"/>
+      <c r="A49" s="107"/>
       <c r="B49" s="59">
         <v>43187</v>
       </c>
@@ -4899,7 +4890,7 @@
       </c>
     </row>
     <row r="50" spans="1:16">
-      <c r="A50" s="107">
+      <c r="A50" s="108">
         <v>14</v>
       </c>
       <c r="B50" s="59">
@@ -4946,7 +4937,7 @@
       </c>
     </row>
     <row r="51" spans="1:16">
-      <c r="A51" s="108"/>
+      <c r="A51" s="109"/>
       <c r="B51" s="59">
         <v>43194</v>
       </c>
@@ -4991,7 +4982,7 @@
       </c>
     </row>
     <row r="52" spans="1:16">
-      <c r="A52" s="108"/>
+      <c r="A52" s="109"/>
       <c r="B52" s="59">
         <v>43194</v>
       </c>
@@ -5036,7 +5027,7 @@
       </c>
     </row>
     <row r="53" spans="1:16">
-      <c r="A53" s="109"/>
+      <c r="A53" s="110"/>
       <c r="B53" s="59">
         <v>43194</v>
       </c>
@@ -5081,7 +5072,7 @@
       </c>
     </row>
     <row r="54" spans="1:16">
-      <c r="A54" s="104">
+      <c r="A54" s="105">
         <v>15</v>
       </c>
       <c r="B54" s="59">
@@ -5128,7 +5119,7 @@
       </c>
     </row>
     <row r="55" spans="1:16">
-      <c r="A55" s="105"/>
+      <c r="A55" s="106"/>
       <c r="B55" s="59">
         <v>43201</v>
       </c>
@@ -5173,7 +5164,7 @@
       </c>
     </row>
     <row r="56" spans="1:16">
-      <c r="A56" s="105"/>
+      <c r="A56" s="106"/>
       <c r="B56" s="59">
         <v>43201</v>
       </c>
@@ -5218,7 +5209,7 @@
       </c>
     </row>
     <row r="57" spans="1:16">
-      <c r="A57" s="106"/>
+      <c r="A57" s="107"/>
       <c r="B57" s="59">
         <v>43201</v>
       </c>
@@ -5273,19 +5264,19 @@
         <v>37</v>
       </c>
       <c r="D58" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="E58" s="50" t="s">
+        <v>211</v>
+      </c>
+      <c r="F58" s="50" t="s">
         <v>212</v>
-      </c>
-      <c r="E58" s="50" t="s">
-        <v>213</v>
-      </c>
-      <c r="F58" s="50" t="s">
-        <v>214</v>
       </c>
       <c r="G58" s="1">
         <v>76159127</v>
       </c>
       <c r="H58" s="50" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="I58" s="50" t="s">
         <v>40</v>
@@ -5297,10 +5288,10 @@
         <v>17602558329</v>
       </c>
       <c r="L58" s="50" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="M58" s="50" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="N58" s="1">
         <v>18750225127</v>
@@ -5310,7 +5301,7 @@
       </c>
     </row>
     <row r="59" spans="1:16">
-      <c r="A59" s="104">
+      <c r="A59" s="105">
         <v>17</v>
       </c>
       <c r="B59" s="59">
@@ -5320,10 +5311,10 @@
         <v>37</v>
       </c>
       <c r="D59" s="50" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E59" s="50" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F59" s="50" t="s">
         <v>65</v>
@@ -5332,7 +5323,7 @@
         <v>76155318</v>
       </c>
       <c r="H59" s="50" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="I59" s="50" t="s">
         <v>40</v>
@@ -5344,10 +5335,10 @@
         <v>17602558329</v>
       </c>
       <c r="L59" s="50" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="M59" s="50" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="N59" s="71">
         <v>17327996435</v>
@@ -5357,7 +5348,7 @@
       </c>
     </row>
     <row r="60" spans="1:16">
-      <c r="A60" s="105"/>
+      <c r="A60" s="106"/>
       <c r="B60" s="59">
         <v>43215</v>
       </c>
@@ -5371,13 +5362,13 @@
         <v>176</v>
       </c>
       <c r="F60" s="50" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G60" s="1">
         <v>76156911</v>
       </c>
       <c r="H60" s="50" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="I60" s="50" t="s">
         <v>40</v>
@@ -5401,11 +5392,11 @@
         <v>47</v>
       </c>
       <c r="P60" s="93" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
     </row>
     <row r="61" spans="1:16">
-      <c r="A61" s="106"/>
+      <c r="A61" s="107"/>
       <c r="B61" s="59">
         <v>43215</v>
       </c>
@@ -5419,13 +5410,13 @@
         <v>176</v>
       </c>
       <c r="F61" s="50" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G61" s="1">
         <v>76157133</v>
       </c>
       <c r="H61" s="50" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="I61" s="50" t="s">
         <v>40</v>
@@ -5449,25 +5440,55 @@
         <v>47</v>
       </c>
       <c r="P61" s="93" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
     </row>
     <row r="62" spans="1:16">
-      <c r="A62" s="1"/>
-      <c r="B62" s="1"/>
-      <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
-      <c r="E62" s="1"/>
-      <c r="F62" s="1"/>
-      <c r="G62" s="1"/>
-      <c r="H62" s="1"/>
-      <c r="I62" s="1"/>
-      <c r="J62" s="1"/>
-      <c r="K62" s="1"/>
-      <c r="L62" s="1"/>
-      <c r="M62" s="1"/>
-      <c r="N62" s="1"/>
-      <c r="O62" s="1"/>
+      <c r="A62" s="94">
+        <v>18</v>
+      </c>
+      <c r="B62" s="59">
+        <v>43220</v>
+      </c>
+      <c r="C62" s="50" t="s">
+        <v>37</v>
+      </c>
+      <c r="D62" s="50" t="s">
+        <v>233</v>
+      </c>
+      <c r="E62" s="50" t="s">
+        <v>233</v>
+      </c>
+      <c r="F62" s="50" t="s">
+        <v>234</v>
+      </c>
+      <c r="G62" s="1">
+        <v>76163685</v>
+      </c>
+      <c r="H62" s="50" t="s">
+        <v>233</v>
+      </c>
+      <c r="I62" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="J62" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="K62" s="11">
+        <v>17602558329</v>
+      </c>
+      <c r="L62" s="50" t="s">
+        <v>235</v>
+      </c>
+      <c r="M62" s="50" t="s">
+        <v>236</v>
+      </c>
+      <c r="N62" s="1">
+        <v>15380862222</v>
+      </c>
+      <c r="O62" s="11" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="63" spans="1:16">
       <c r="A63" s="1"/>
@@ -9649,7 +9670,7 @@
         <v>43123</v>
       </c>
       <c r="D2" s="51" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E2" s="11" t="s">
         <v>51</v>
@@ -9685,7 +9706,7 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="104">
+      <c r="A4" s="105">
         <v>15</v>
       </c>
       <c r="B4" s="56" t="s">
@@ -9708,7 +9729,7 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="106"/>
+      <c r="A5" s="107"/>
       <c r="B5" s="56" t="s">
         <v>202</v>
       </c>
@@ -9733,7 +9754,7 @@
         <v>16</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>209</v>
+        <v>232</v>
       </c>
       <c r="C6" s="79">
         <v>43206</v>
@@ -9748,21 +9769,21 @@
         <v>205</v>
       </c>
       <c r="G6" s="50" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="110">
+      <c r="A7" s="111">
         <v>17</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C7" s="79">
         <v>43213</v>
       </c>
       <c r="D7" s="51" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="E7" s="11" t="s">
         <v>204</v>
@@ -9775,15 +9796,15 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="110"/>
+      <c r="A8" s="111"/>
       <c r="B8" s="56" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C8" s="79">
         <v>43213</v>
       </c>
       <c r="D8" s="51" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="E8" s="11" t="s">
         <v>204</v>
@@ -9796,15 +9817,15 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="110"/>
+      <c r="A9" s="111"/>
       <c r="B9" s="56" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C9" s="79">
         <v>43213</v>
       </c>
       <c r="D9" s="51" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="E9" s="11" t="s">
         <v>204</v>
@@ -9813,7 +9834,7 @@
         <v>205</v>
       </c>
       <c r="G9" s="50" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -9853,7 +9874,7 @@
       <c r="G13" s="11"/>
     </row>
     <row r="14" spans="1:7" ht="14.25">
-      <c r="A14" s="104"/>
+      <c r="A14" s="105"/>
       <c r="B14" s="9"/>
       <c r="C14" s="13"/>
       <c r="D14" s="12"/>
@@ -9862,7 +9883,7 @@
       <c r="G14" s="9"/>
     </row>
     <row r="15" spans="1:7" ht="14.25">
-      <c r="A15" s="105"/>
+      <c r="A15" s="106"/>
       <c r="B15" s="9"/>
       <c r="C15" s="14"/>
       <c r="D15" s="12"/>
@@ -9871,7 +9892,7 @@
       <c r="G15" s="4"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="105"/>
+      <c r="A16" s="106"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
       <c r="D16" s="10"/>
@@ -9880,7 +9901,7 @@
       <c r="G16" s="11"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="105"/>
+      <c r="A17" s="106"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
       <c r="D17" s="10"/>
@@ -9889,7 +9910,7 @@
       <c r="G17" s="11"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="105"/>
+      <c r="A18" s="106"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
       <c r="D18" s="10"/>
@@ -9898,7 +9919,7 @@
       <c r="G18" s="11"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="105"/>
+      <c r="A19" s="106"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
       <c r="D19" s="10"/>
@@ -9907,7 +9928,7 @@
       <c r="G19" s="11"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="105"/>
+      <c r="A20" s="106"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
       <c r="D20" s="10"/>
@@ -9916,7 +9937,7 @@
       <c r="G20" s="11"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="105"/>
+      <c r="A21" s="106"/>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
       <c r="D21" s="10"/>
@@ -9925,7 +9946,7 @@
       <c r="G21" s="11"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="105"/>
+      <c r="A22" s="106"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
       <c r="D22" s="10"/>
@@ -9934,7 +9955,7 @@
       <c r="G22" s="11"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="105"/>
+      <c r="A23" s="106"/>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
       <c r="D23" s="10"/>
@@ -9943,7 +9964,7 @@
       <c r="G23" s="11"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="105"/>
+      <c r="A24" s="106"/>
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
       <c r="D24" s="10"/>
@@ -9952,7 +9973,7 @@
       <c r="G24" s="11"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="105"/>
+      <c r="A25" s="106"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
       <c r="D25" s="10"/>
@@ -9961,7 +9982,7 @@
       <c r="G25" s="11"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="105"/>
+      <c r="A26" s="106"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
       <c r="D26" s="10"/>
@@ -9970,7 +9991,7 @@
       <c r="G26" s="11"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="105"/>
+      <c r="A27" s="106"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
       <c r="D27" s="10"/>
@@ -9979,7 +10000,7 @@
       <c r="G27" s="11"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="106"/>
+      <c r="A28" s="107"/>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
       <c r="D28" s="10"/>
@@ -9988,7 +10009,7 @@
       <c r="G28" s="11"/>
     </row>
     <row r="29" spans="1:7" ht="14.25">
-      <c r="A29" s="104"/>
+      <c r="A29" s="105"/>
       <c r="B29" s="9"/>
       <c r="C29" s="13"/>
       <c r="D29" s="12"/>
@@ -9997,7 +10018,7 @@
       <c r="G29" s="9"/>
     </row>
     <row r="30" spans="1:7" ht="14.25">
-      <c r="A30" s="105"/>
+      <c r="A30" s="106"/>
       <c r="B30" s="9"/>
       <c r="C30" s="14"/>
       <c r="D30" s="12"/>
@@ -10006,7 +10027,7 @@
       <c r="G30" s="4"/>
     </row>
     <row r="31" spans="1:7" ht="14.25">
-      <c r="A31" s="105"/>
+      <c r="A31" s="106"/>
       <c r="B31" s="9"/>
       <c r="C31" s="14"/>
       <c r="D31" s="12"/>
@@ -10015,7 +10036,7 @@
       <c r="G31" s="4"/>
     </row>
     <row r="32" spans="1:7" ht="14.25">
-      <c r="A32" s="105"/>
+      <c r="A32" s="106"/>
       <c r="B32" s="9"/>
       <c r="C32" s="14"/>
       <c r="D32" s="12"/>
@@ -10024,7 +10045,7 @@
       <c r="G32" s="15"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="105"/>
+      <c r="A33" s="106"/>
       <c r="B33" s="9"/>
       <c r="C33" s="9"/>
       <c r="D33" s="10"/>
@@ -10033,7 +10054,7 @@
       <c r="G33" s="11"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="105"/>
+      <c r="A34" s="106"/>
       <c r="B34" s="9"/>
       <c r="C34" s="9"/>
       <c r="D34" s="10"/>
@@ -10042,7 +10063,7 @@
       <c r="G34" s="11"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="105"/>
+      <c r="A35" s="106"/>
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
       <c r="D35" s="10"/>
@@ -10051,7 +10072,7 @@
       <c r="G35" s="11"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="105"/>
+      <c r="A36" s="106"/>
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
       <c r="D36" s="10"/>
@@ -10060,7 +10081,7 @@
       <c r="G36" s="11"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="105"/>
+      <c r="A37" s="106"/>
       <c r="B37" s="9"/>
       <c r="C37" s="9"/>
       <c r="D37" s="10"/>
@@ -10069,7 +10090,7 @@
       <c r="G37" s="11"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="105"/>
+      <c r="A38" s="106"/>
       <c r="B38" s="9"/>
       <c r="C38" s="9"/>
       <c r="D38" s="10"/>
@@ -10078,7 +10099,7 @@
       <c r="G38" s="11"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="105"/>
+      <c r="A39" s="106"/>
       <c r="B39" s="9"/>
       <c r="C39" s="9"/>
       <c r="D39" s="10"/>
@@ -10087,7 +10108,7 @@
       <c r="G39" s="11"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="106"/>
+      <c r="A40" s="107"/>
       <c r="B40" s="9"/>
       <c r="C40" s="9"/>
       <c r="D40" s="10"/>
@@ -10096,7 +10117,7 @@
       <c r="G40" s="11"/>
     </row>
     <row r="41" spans="1:7" ht="14.25">
-      <c r="A41" s="104"/>
+      <c r="A41" s="105"/>
       <c r="B41" s="9"/>
       <c r="C41" s="13"/>
       <c r="D41" s="12"/>
@@ -10105,7 +10126,7 @@
       <c r="G41" s="9"/>
     </row>
     <row r="42" spans="1:7" ht="14.25">
-      <c r="A42" s="105"/>
+      <c r="A42" s="106"/>
       <c r="B42" s="9"/>
       <c r="C42" s="14"/>
       <c r="D42" s="12"/>
@@ -10114,7 +10135,7 @@
       <c r="G42" s="4"/>
     </row>
     <row r="43" spans="1:7" ht="14.25">
-      <c r="A43" s="105"/>
+      <c r="A43" s="106"/>
       <c r="B43" s="9"/>
       <c r="C43" s="14"/>
       <c r="D43" s="12"/>
@@ -10123,7 +10144,7 @@
       <c r="G43" s="4"/>
     </row>
     <row r="44" spans="1:7" ht="14.25">
-      <c r="A44" s="105"/>
+      <c r="A44" s="106"/>
       <c r="B44" s="9"/>
       <c r="C44" s="14"/>
       <c r="D44" s="12"/>
@@ -10132,7 +10153,7 @@
       <c r="G44" s="15"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="105"/>
+      <c r="A45" s="106"/>
       <c r="B45" s="9"/>
       <c r="C45" s="9"/>
       <c r="D45" s="10"/>
@@ -10141,7 +10162,7 @@
       <c r="G45" s="11"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="105"/>
+      <c r="A46" s="106"/>
       <c r="B46" s="9"/>
       <c r="C46" s="9"/>
       <c r="D46" s="10"/>
@@ -10150,7 +10171,7 @@
       <c r="G46" s="11"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="105"/>
+      <c r="A47" s="106"/>
       <c r="B47" s="9"/>
       <c r="C47" s="9"/>
       <c r="D47" s="10"/>
@@ -10159,7 +10180,7 @@
       <c r="G47" s="11"/>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="105"/>
+      <c r="A48" s="106"/>
       <c r="B48" s="9"/>
       <c r="C48" s="9"/>
       <c r="D48" s="10"/>
@@ -10168,7 +10189,7 @@
       <c r="G48" s="11"/>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="105"/>
+      <c r="A49" s="106"/>
       <c r="B49" s="9"/>
       <c r="C49" s="9"/>
       <c r="D49" s="10"/>
@@ -10177,7 +10198,7 @@
       <c r="G49" s="11"/>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="105"/>
+      <c r="A50" s="106"/>
       <c r="B50" s="9"/>
       <c r="C50" s="9"/>
       <c r="D50" s="10"/>
@@ -10186,7 +10207,7 @@
       <c r="G50" s="11"/>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="105"/>
+      <c r="A51" s="106"/>
       <c r="B51" s="9"/>
       <c r="C51" s="9"/>
       <c r="D51" s="10"/>
@@ -10195,7 +10216,7 @@
       <c r="G51" s="11"/>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="106"/>
+      <c r="A52" s="107"/>
       <c r="B52" s="9"/>
       <c r="C52" s="9"/>
       <c r="D52" s="10"/>
@@ -10204,7 +10225,7 @@
       <c r="G52" s="11"/>
     </row>
     <row r="53" spans="1:7" ht="14.25">
-      <c r="A53" s="105"/>
+      <c r="A53" s="106"/>
       <c r="B53" s="9"/>
       <c r="C53" s="14"/>
       <c r="D53" s="12"/>
@@ -10213,7 +10234,7 @@
       <c r="G53" s="4"/>
     </row>
     <row r="54" spans="1:7" ht="14.25">
-      <c r="A54" s="105"/>
+      <c r="A54" s="106"/>
       <c r="B54" s="9"/>
       <c r="C54" s="14"/>
       <c r="D54" s="12"/>
@@ -10222,7 +10243,7 @@
       <c r="G54" s="15"/>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="105"/>
+      <c r="A55" s="106"/>
       <c r="B55" s="9"/>
       <c r="C55" s="9"/>
       <c r="D55" s="10"/>
@@ -10231,7 +10252,7 @@
       <c r="G55" s="11"/>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="105"/>
+      <c r="A56" s="106"/>
       <c r="B56" s="9"/>
       <c r="C56" s="9"/>
       <c r="D56" s="10"/>
@@ -10240,7 +10261,7 @@
       <c r="G56" s="11"/>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="105"/>
+      <c r="A57" s="106"/>
       <c r="B57" s="9"/>
       <c r="C57" s="9"/>
       <c r="D57" s="10"/>
@@ -10249,7 +10270,7 @@
       <c r="G57" s="11"/>
     </row>
     <row r="58" spans="1:7">
-      <c r="A58" s="105"/>
+      <c r="A58" s="106"/>
       <c r="B58" s="9"/>
       <c r="C58" s="9"/>
       <c r="D58" s="10"/>
@@ -10258,7 +10279,7 @@
       <c r="G58" s="11"/>
     </row>
     <row r="59" spans="1:7">
-      <c r="A59" s="105"/>
+      <c r="A59" s="106"/>
       <c r="B59" s="9"/>
       <c r="C59" s="9"/>
       <c r="D59" s="10"/>
@@ -10267,7 +10288,7 @@
       <c r="G59" s="11"/>
     </row>
     <row r="60" spans="1:7">
-      <c r="A60" s="105"/>
+      <c r="A60" s="106"/>
       <c r="B60" s="9"/>
       <c r="C60" s="9"/>
       <c r="D60" s="10"/>
@@ -10276,7 +10297,7 @@
       <c r="G60" s="11"/>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="105"/>
+      <c r="A61" s="106"/>
       <c r="B61" s="9"/>
       <c r="C61" s="9"/>
       <c r="D61" s="10"/>
@@ -10285,7 +10306,7 @@
       <c r="G61" s="11"/>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" s="106"/>
+      <c r="A62" s="107"/>
       <c r="B62" s="9"/>
       <c r="C62" s="9"/>
       <c r="D62" s="10"/>

--- a/周数据/《个人上线率统计表》-黄纯伟.xlsx
+++ b/周数据/《个人上线率统计表》-黄纯伟.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="244">
   <si>
     <t>个人上线率分析表</t>
   </si>
@@ -972,10 +972,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>店铺签约100家，目前还有54家未开户，9家未上线，37家已上线</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>无需回访</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -1001,6 +997,38 @@
   </si>
   <si>
     <t>老板</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>怒烤烤串（南京1912曼度店）</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘婷婷</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>老板娘</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>常州</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>鸭得堡（常州吾悦广场店）</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄大滨</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>老板</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>店铺签约100家，目前还有50家未开户，13家未上线，37家已上线</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -1172,7 +1200,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -1368,47 +1396,6 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="medium">
         <color auto="1"/>
       </right>
@@ -1440,30 +1427,6 @@
       </right>
       <top/>
       <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="medium">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -1522,7 +1485,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1616,18 +1579,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1646,31 +1597,16 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="8" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="8" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="9" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="8" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
@@ -1701,7 +1637,7 @@
     <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1719,16 +1655,13 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="9" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="9" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1788,7 +1721,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1806,19 +1739,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1830,28 +1754,31 @@
     <xf numFmtId="9" fontId="8" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2129,7 +2056,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M29"/>
+  <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="N3" sqref="N3"/>
@@ -2152,24 +2079,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15" thickBot="1">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
-      <c r="G1" s="101"/>
-      <c r="H1" s="101"/>
-      <c r="I1" s="101"/>
-      <c r="J1" s="102"/>
-      <c r="K1" s="101"/>
-      <c r="L1" s="101"/>
-      <c r="M1" s="103"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="90"/>
     </row>
     <row r="2" spans="1:13" ht="14.25" thickBot="1">
-      <c r="A2" s="89" t="s">
+      <c r="A2" s="79" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="22" t="s">
@@ -2193,38 +2120,38 @@
       <c r="H2" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="35" t="s">
+      <c r="I2" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="36" t="s">
+      <c r="J2" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="37" t="s">
+      <c r="K2" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="38" t="s">
+      <c r="L2" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="39" t="s">
+      <c r="M2" s="35" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="98">
+      <c r="A3" s="86">
         <v>4</v>
       </c>
-      <c r="B3" s="67">
+      <c r="B3" s="58">
         <v>17</v>
       </c>
       <c r="C3" s="27">
         <v>8</v>
       </c>
       <c r="D3" s="28">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E3" s="28">
         <f>C3-D3</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F3" s="29"/>
       <c r="G3" s="30"/>
@@ -2232,422 +2159,364 @@
         <f t="shared" ref="H3" si="0">F3-G3</f>
         <v>0</v>
       </c>
-      <c r="I3" s="40"/>
-      <c r="J3" s="41">
+      <c r="I3" s="36"/>
+      <c r="J3" s="37">
         <f>I3/L3*100%</f>
         <v>0</v>
       </c>
-      <c r="K3" s="42">
+      <c r="K3" s="38">
         <f t="shared" ref="K3" si="1">C3+G3</f>
         <v>8</v>
       </c>
-      <c r="L3" s="43">
+      <c r="L3" s="39">
         <f t="shared" ref="L3" si="2">D3+G3</f>
-        <v>4</v>
-      </c>
-      <c r="M3" s="44">
+        <v>5</v>
+      </c>
+      <c r="M3" s="40">
         <f t="shared" ref="M3" si="3">L3/K3*100%</f>
-        <v>0.5</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="99"/>
-      <c r="B4" s="67"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
+      <c r="A4" s="86">
+        <v>5</v>
+      </c>
+      <c r="B4" s="58">
+        <v>18</v>
+      </c>
+      <c r="C4" s="27">
+        <v>0</v>
+      </c>
+      <c r="D4" s="28">
+        <v>0</v>
+      </c>
+      <c r="E4" s="28">
+        <f>C4-D4</f>
+        <v>0</v>
+      </c>
       <c r="F4" s="29"/>
       <c r="G4" s="30"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="42"/>
-      <c r="L4" s="43"/>
-      <c r="M4" s="44"/>
+      <c r="H4" s="29">
+        <f t="shared" ref="H4" si="4">F4-G4</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="36"/>
+      <c r="J4" s="37" t="e">
+        <f>I4/L4*100%</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K4" s="38">
+        <f t="shared" ref="K4" si="5">C4+G4</f>
+        <v>0</v>
+      </c>
+      <c r="L4" s="39">
+        <f t="shared" ref="L4" si="6">D4+G4</f>
+        <v>0</v>
+      </c>
+      <c r="M4" s="40" t="e">
+        <f t="shared" ref="M4" si="7">L4/K4*100%</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="104"/>
-      <c r="B5" s="67"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
+      <c r="A5" s="91"/>
+      <c r="B5" s="58">
+        <v>19</v>
+      </c>
+      <c r="C5" s="27">
+        <v>2</v>
+      </c>
+      <c r="D5" s="28">
+        <v>2</v>
+      </c>
+      <c r="E5" s="28">
+        <f>C5-D5</f>
+        <v>0</v>
+      </c>
       <c r="F5" s="29"/>
       <c r="G5" s="30"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="42"/>
-      <c r="L5" s="43"/>
-      <c r="M5" s="44"/>
+      <c r="H5" s="29">
+        <f t="shared" ref="H5" si="8">F5-G5</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="36"/>
+      <c r="J5" s="37">
+        <f>I5/L5*100%</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="38">
+        <f t="shared" ref="K5" si="9">C5+G5</f>
+        <v>2</v>
+      </c>
+      <c r="L5" s="39">
+        <f t="shared" ref="L5" si="10">D5+G5</f>
+        <v>2</v>
+      </c>
+      <c r="M5" s="40">
+        <f t="shared" ref="M5" si="11">L5/K5*100%</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="104"/>
-      <c r="B6" s="67"/>
+      <c r="A6" s="91"/>
+      <c r="B6" s="58"/>
       <c r="C6" s="27"/>
       <c r="D6" s="28"/>
       <c r="E6" s="28"/>
       <c r="F6" s="29"/>
       <c r="G6" s="30"/>
       <c r="H6" s="29"/>
-      <c r="I6" s="40"/>
-      <c r="J6" s="41"/>
-      <c r="K6" s="42"/>
-      <c r="L6" s="43"/>
-      <c r="M6" s="44"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="39"/>
+      <c r="M6" s="40"/>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="104"/>
-      <c r="B7" s="67"/>
+      <c r="A7" s="91"/>
+      <c r="B7" s="58"/>
       <c r="C7" s="27"/>
       <c r="D7" s="28"/>
       <c r="E7" s="28"/>
       <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
+      <c r="G7" s="30"/>
       <c r="H7" s="29"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="63"/>
-      <c r="K7" s="64"/>
-      <c r="L7" s="65"/>
-      <c r="M7" s="66"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="39"/>
+      <c r="M7" s="40"/>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="104"/>
-      <c r="B8" s="68"/>
-      <c r="C8" s="60"/>
-      <c r="D8" s="61"/>
-      <c r="E8" s="61"/>
+      <c r="A8" s="91"/>
+      <c r="B8" s="59"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="52"/>
       <c r="F8" s="30"/>
       <c r="G8" s="30"/>
       <c r="H8" s="30"/>
-      <c r="I8" s="62"/>
-      <c r="J8" s="41"/>
-      <c r="K8" s="42"/>
-      <c r="L8" s="43"/>
-      <c r="M8" s="44"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="37"/>
+      <c r="K8" s="38"/>
+      <c r="L8" s="39"/>
+      <c r="M8" s="40"/>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="104"/>
-      <c r="B9" s="67"/>
+      <c r="A9" s="91"/>
+      <c r="B9" s="58"/>
       <c r="C9" s="27"/>
       <c r="D9" s="28"/>
       <c r="E9" s="28"/>
       <c r="F9" s="29"/>
       <c r="G9" s="30"/>
       <c r="H9" s="29"/>
-      <c r="I9" s="40"/>
-      <c r="J9" s="41"/>
-      <c r="K9" s="42"/>
-      <c r="L9" s="43"/>
-      <c r="M9" s="44"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="38"/>
+      <c r="L9" s="39"/>
+      <c r="M9" s="40"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="97"/>
-      <c r="B10" s="67"/>
+      <c r="A10" s="92"/>
+      <c r="B10" s="58"/>
       <c r="C10" s="27"/>
       <c r="D10" s="28"/>
       <c r="E10" s="28"/>
       <c r="F10" s="29"/>
       <c r="G10" s="30"/>
       <c r="H10" s="29"/>
-      <c r="I10" s="40"/>
-      <c r="J10" s="41"/>
-      <c r="K10" s="42"/>
-      <c r="L10" s="43"/>
-      <c r="M10" s="44"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="37"/>
+      <c r="K10" s="38"/>
+      <c r="L10" s="39"/>
+      <c r="M10" s="40"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="97"/>
-      <c r="B11" s="67"/>
+      <c r="A11" s="92"/>
+      <c r="B11" s="58"/>
       <c r="C11" s="27"/>
       <c r="D11" s="28"/>
       <c r="E11" s="28"/>
       <c r="F11" s="29"/>
       <c r="G11" s="30"/>
       <c r="H11" s="29"/>
-      <c r="I11" s="40"/>
-      <c r="J11" s="41"/>
-      <c r="K11" s="42"/>
-      <c r="L11" s="43"/>
-      <c r="M11" s="44"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="37"/>
+      <c r="K11" s="38"/>
+      <c r="L11" s="39"/>
+      <c r="M11" s="40"/>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="97"/>
-      <c r="B12" s="67"/>
+      <c r="A12" s="92"/>
+      <c r="B12" s="58"/>
       <c r="C12" s="27"/>
       <c r="D12" s="28"/>
       <c r="E12" s="28"/>
       <c r="F12" s="29"/>
       <c r="G12" s="30"/>
       <c r="H12" s="29"/>
-      <c r="I12" s="40"/>
-      <c r="J12" s="41"/>
-      <c r="K12" s="42"/>
-      <c r="L12" s="43"/>
-      <c r="M12" s="44"/>
-    </row>
-    <row r="13" spans="1:13" ht="14.25" thickBot="1">
-      <c r="A13" s="97"/>
-      <c r="B13" s="69"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="37"/>
+      <c r="K12" s="38"/>
+      <c r="L12" s="39"/>
+      <c r="M12" s="40"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="85"/>
+      <c r="B13" s="58"/>
       <c r="C13" s="27"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="33"/>
-      <c r="I13" s="45"/>
-      <c r="J13" s="46"/>
-      <c r="K13" s="47"/>
-      <c r="L13" s="48"/>
-      <c r="M13" s="49"/>
-    </row>
-    <row r="14" spans="1:13" ht="14.25" thickBot="1">
-      <c r="A14" s="97"/>
-      <c r="B14" s="69"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="37"/>
+      <c r="K13" s="38"/>
+      <c r="L13" s="39"/>
+      <c r="M13" s="40"/>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="81"/>
+      <c r="B14" s="58"/>
       <c r="C14" s="27"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="33"/>
-      <c r="I14" s="45"/>
-      <c r="J14" s="46"/>
-      <c r="K14" s="47"/>
-      <c r="L14" s="48"/>
-      <c r="M14" s="49"/>
-    </row>
-    <row r="15" spans="1:13" ht="14.25" thickBot="1">
-      <c r="A15" s="97"/>
-      <c r="B15" s="69"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="37"/>
+      <c r="K14" s="38"/>
+      <c r="L14" s="39"/>
+      <c r="M14" s="40"/>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="81"/>
+      <c r="B15" s="58"/>
       <c r="C15" s="27"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="33"/>
-      <c r="I15" s="45"/>
-      <c r="J15" s="46"/>
-      <c r="K15" s="47"/>
-      <c r="L15" s="48"/>
-      <c r="M15" s="49"/>
-    </row>
-    <row r="16" spans="1:13" ht="14.25" thickBot="1">
-      <c r="A16" s="97"/>
-      <c r="B16" s="69"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="33"/>
-      <c r="I16" s="45"/>
-      <c r="J16" s="46"/>
-      <c r="K16" s="47"/>
-      <c r="L16" s="48"/>
-      <c r="M16" s="49"/>
-    </row>
-    <row r="17" spans="1:13" ht="14.25" thickBot="1">
-      <c r="A17" s="97"/>
-      <c r="B17" s="69"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="33"/>
-      <c r="I17" s="45"/>
-      <c r="J17" s="46"/>
-      <c r="K17" s="47"/>
-      <c r="L17" s="48"/>
-      <c r="M17" s="49"/>
-    </row>
-    <row r="18" spans="1:13" ht="14.25" thickBot="1">
-      <c r="A18" s="95"/>
-      <c r="B18" s="69"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="33"/>
-      <c r="I18" s="45"/>
-      <c r="J18" s="46"/>
-      <c r="K18" s="47"/>
-      <c r="L18" s="48"/>
-      <c r="M18" s="49"/>
-    </row>
-    <row r="19" spans="1:13" ht="14.25" thickBot="1">
-      <c r="A19" s="96"/>
-      <c r="B19" s="69"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="33"/>
-      <c r="I19" s="45"/>
-      <c r="J19" s="46"/>
-      <c r="K19" s="47"/>
-      <c r="L19" s="48"/>
-      <c r="M19" s="49"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="54"/>
+      <c r="K15" s="55"/>
+      <c r="L15" s="56"/>
+      <c r="M15" s="57"/>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="81"/>
+      <c r="B16" s="59"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="53"/>
+      <c r="J16" s="37"/>
+      <c r="K16" s="38"/>
+      <c r="L16" s="39"/>
+      <c r="M16" s="40"/>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="82"/>
+      <c r="B17" s="58"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="37"/>
+      <c r="K17" s="38"/>
+      <c r="L17" s="39"/>
+      <c r="M17" s="40"/>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="80"/>
+      <c r="B18" s="58"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="37"/>
+      <c r="K18" s="38"/>
+      <c r="L18" s="39"/>
+      <c r="M18" s="40"/>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="81"/>
+      <c r="B19" s="58"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="37"/>
+      <c r="K19" s="38"/>
+      <c r="L19" s="39"/>
+      <c r="M19" s="40"/>
     </row>
     <row r="20" spans="1:13">
-      <c r="A20" s="96"/>
-      <c r="B20" s="67"/>
+      <c r="A20" s="81"/>
+      <c r="B20" s="58"/>
       <c r="C20" s="27"/>
       <c r="D20" s="28"/>
       <c r="E20" s="28"/>
       <c r="F20" s="29"/>
-      <c r="G20" s="30"/>
+      <c r="G20" s="29"/>
       <c r="H20" s="29"/>
-      <c r="I20" s="40"/>
-      <c r="J20" s="41"/>
-      <c r="K20" s="42"/>
-      <c r="L20" s="43"/>
-      <c r="M20" s="44"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="54"/>
+      <c r="K20" s="55"/>
+      <c r="L20" s="56"/>
+      <c r="M20" s="57"/>
     </row>
     <row r="21" spans="1:13">
-      <c r="A21" s="91"/>
-      <c r="B21" s="67"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="29"/>
+      <c r="A21" s="81"/>
+      <c r="B21" s="59"/>
+      <c r="C21" s="51"/>
+      <c r="D21" s="52"/>
+      <c r="E21" s="52"/>
+      <c r="F21" s="30"/>
       <c r="G21" s="30"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="40"/>
-      <c r="J21" s="41"/>
-      <c r="K21" s="42"/>
-      <c r="L21" s="43"/>
-      <c r="M21" s="44"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="53"/>
+      <c r="J21" s="37"/>
+      <c r="K21" s="38"/>
+      <c r="L21" s="39"/>
+      <c r="M21" s="40"/>
     </row>
     <row r="22" spans="1:13">
-      <c r="A22" s="91"/>
-      <c r="B22" s="67"/>
+      <c r="A22" s="82"/>
+      <c r="B22" s="58"/>
       <c r="C22" s="27"/>
       <c r="D22" s="28"/>
       <c r="E22" s="28"/>
       <c r="F22" s="29"/>
-      <c r="G22" s="29"/>
+      <c r="G22" s="30"/>
       <c r="H22" s="29"/>
-      <c r="I22" s="40"/>
-      <c r="J22" s="63"/>
-      <c r="K22" s="64"/>
-      <c r="L22" s="65"/>
-      <c r="M22" s="66"/>
-    </row>
-    <row r="23" spans="1:13">
-      <c r="A23" s="91"/>
-      <c r="B23" s="68"/>
-      <c r="C23" s="60"/>
-      <c r="D23" s="61"/>
-      <c r="E23" s="61"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="62"/>
-      <c r="J23" s="41"/>
-      <c r="K23" s="42"/>
-      <c r="L23" s="43"/>
-      <c r="M23" s="44"/>
-    </row>
-    <row r="24" spans="1:13">
-      <c r="A24" s="92"/>
-      <c r="B24" s="67"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="30"/>
-      <c r="H24" s="29"/>
-      <c r="I24" s="40"/>
-      <c r="J24" s="41"/>
-      <c r="K24" s="42"/>
-      <c r="L24" s="43"/>
-      <c r="M24" s="44"/>
-    </row>
-    <row r="25" spans="1:13">
-      <c r="A25" s="90"/>
-      <c r="B25" s="67"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="30"/>
-      <c r="H25" s="29"/>
-      <c r="I25" s="40"/>
-      <c r="J25" s="41"/>
-      <c r="K25" s="42"/>
-      <c r="L25" s="43"/>
-      <c r="M25" s="44"/>
-    </row>
-    <row r="26" spans="1:13">
-      <c r="A26" s="91"/>
-      <c r="B26" s="67"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="30"/>
-      <c r="H26" s="29"/>
-      <c r="I26" s="40"/>
-      <c r="J26" s="41"/>
-      <c r="K26" s="42"/>
-      <c r="L26" s="43"/>
-      <c r="M26" s="44"/>
-    </row>
-    <row r="27" spans="1:13">
-      <c r="A27" s="91"/>
-      <c r="B27" s="67"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="29"/>
-      <c r="H27" s="29"/>
-      <c r="I27" s="40"/>
-      <c r="J27" s="63"/>
-      <c r="K27" s="64"/>
-      <c r="L27" s="65"/>
-      <c r="M27" s="66"/>
-    </row>
-    <row r="28" spans="1:13">
-      <c r="A28" s="91"/>
-      <c r="B28" s="68"/>
-      <c r="C28" s="60"/>
-      <c r="D28" s="61"/>
-      <c r="E28" s="61"/>
-      <c r="F28" s="30"/>
-      <c r="G28" s="30"/>
-      <c r="H28" s="30"/>
-      <c r="I28" s="62"/>
-      <c r="J28" s="41"/>
-      <c r="K28" s="42"/>
-      <c r="L28" s="43"/>
-      <c r="M28" s="44"/>
-    </row>
-    <row r="29" spans="1:13">
-      <c r="A29" s="92"/>
-      <c r="B29" s="67"/>
-      <c r="C29" s="27"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="30"/>
-      <c r="H29" s="29"/>
-      <c r="I29" s="40"/>
-      <c r="J29" s="41"/>
-      <c r="K29" s="42"/>
-      <c r="L29" s="43"/>
-      <c r="M29" s="44"/>
+      <c r="I22" s="36"/>
+      <c r="J22" s="37"/>
+      <c r="K22" s="38"/>
+      <c r="L22" s="39"/>
+      <c r="M22" s="40"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="A3:A4"/>
+  <mergeCells count="3">
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="A5:A9"/>
-    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A10:A12"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
@@ -2727,43 +2596,43 @@
       </c>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="105">
+      <c r="A2" s="93">
         <v>51</v>
       </c>
-      <c r="B2" s="58">
+      <c r="B2" s="49">
         <v>43085</v>
       </c>
-      <c r="C2" s="50" t="s">
+      <c r="C2" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="50" t="s">
+      <c r="D2" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="50" t="s">
+      <c r="E2" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="F2" s="50" t="s">
+      <c r="F2" s="41" t="s">
         <v>41</v>
       </c>
       <c r="G2" s="1">
         <v>76115600</v>
       </c>
-      <c r="H2" s="50" t="s">
+      <c r="H2" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="I2" s="50" t="s">
+      <c r="I2" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="J2" s="50" t="s">
+      <c r="J2" s="41" t="s">
         <v>44</v>
       </c>
       <c r="K2" s="1">
         <v>17602558329</v>
       </c>
-      <c r="L2" s="50" t="s">
+      <c r="L2" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="M2" s="50" t="s">
+      <c r="M2" s="41" t="s">
         <v>46</v>
       </c>
       <c r="N2" s="1">
@@ -2774,41 +2643,41 @@
       </c>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="107"/>
-      <c r="B3" s="58">
+      <c r="A3" s="94"/>
+      <c r="B3" s="49">
         <v>43085</v>
       </c>
-      <c r="C3" s="50" t="s">
+      <c r="C3" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="50" t="s">
+      <c r="D3" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="50" t="s">
+      <c r="E3" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="50" t="s">
+      <c r="F3" s="41" t="s">
         <v>48</v>
       </c>
       <c r="G3" s="1">
         <v>76116311</v>
       </c>
-      <c r="H3" s="50" t="s">
+      <c r="H3" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="I3" s="50" t="s">
+      <c r="I3" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="J3" s="50" t="s">
+      <c r="J3" s="41" t="s">
         <v>44</v>
       </c>
       <c r="K3" s="11">
         <v>17602558329</v>
       </c>
-      <c r="L3" s="50" t="s">
+      <c r="L3" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="M3" s="50" t="s">
+      <c r="M3" s="41" t="s">
         <v>46</v>
       </c>
       <c r="N3" s="1">
@@ -2819,46 +2688,46 @@
       </c>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="82">
+      <c r="A4" s="72">
         <v>52</v>
       </c>
-      <c r="B4" s="58">
+      <c r="B4" s="49">
         <v>43097</v>
       </c>
-      <c r="C4" s="50" t="s">
+      <c r="C4" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="50" t="s">
+      <c r="D4" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="E4" s="50" t="s">
+      <c r="E4" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="F4" s="50" t="s">
+      <c r="F4" s="41" t="s">
         <v>59</v>
       </c>
       <c r="G4" s="1">
         <v>76119685</v>
       </c>
-      <c r="H4" s="50" t="s">
+      <c r="H4" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="I4" s="50" t="s">
+      <c r="I4" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="J4" s="50" t="s">
+      <c r="J4" s="41" t="s">
         <v>44</v>
       </c>
       <c r="K4" s="11">
         <v>17602558329</v>
       </c>
-      <c r="L4" s="57" t="s">
+      <c r="L4" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="M4" s="57" t="s">
+      <c r="M4" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="N4" s="57">
+      <c r="N4" s="48">
         <v>18601585219</v>
       </c>
       <c r="O4" s="11" t="s">
@@ -2866,46 +2735,46 @@
       </c>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="105">
+      <c r="A5" s="93">
         <v>1</v>
       </c>
-      <c r="B5" s="59">
+      <c r="B5" s="50">
         <v>43103</v>
       </c>
-      <c r="C5" s="50" t="s">
+      <c r="C5" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="50" t="s">
+      <c r="D5" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="E5" s="50" t="s">
+      <c r="E5" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="F5" s="50" t="s">
+      <c r="F5" s="41" t="s">
         <v>60</v>
       </c>
       <c r="G5" s="1">
         <v>76119689</v>
       </c>
-      <c r="H5" s="50" t="s">
+      <c r="H5" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="I5" s="50" t="s">
+      <c r="I5" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="J5" s="50" t="s">
+      <c r="J5" s="41" t="s">
         <v>44</v>
       </c>
       <c r="K5" s="11">
         <v>17602558329</v>
       </c>
-      <c r="L5" s="57" t="s">
+      <c r="L5" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="M5" s="57" t="s">
+      <c r="M5" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="N5" s="57">
+      <c r="N5" s="48">
         <v>18601585219</v>
       </c>
       <c r="O5" s="11" t="s">
@@ -2913,44 +2782,44 @@
       </c>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="107"/>
-      <c r="B6" s="59">
+      <c r="A6" s="94"/>
+      <c r="B6" s="50">
         <v>43103</v>
       </c>
-      <c r="C6" s="50" t="s">
+      <c r="C6" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="50" t="s">
+      <c r="D6" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="E6" s="50" t="s">
+      <c r="E6" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="F6" s="50" t="s">
+      <c r="F6" s="41" t="s">
         <v>63</v>
       </c>
       <c r="G6" s="1">
         <v>76115775</v>
       </c>
-      <c r="H6" s="50" t="s">
+      <c r="H6" s="41" t="s">
         <v>64</v>
       </c>
-      <c r="I6" s="50" t="s">
+      <c r="I6" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="J6" s="50" t="s">
+      <c r="J6" s="41" t="s">
         <v>44</v>
       </c>
       <c r="K6" s="11">
         <v>17602558329</v>
       </c>
-      <c r="L6" s="57" t="s">
+      <c r="L6" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="M6" s="57" t="s">
+      <c r="M6" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="N6" s="57">
+      <c r="N6" s="48">
         <v>18601585219</v>
       </c>
       <c r="O6" s="11" t="s">
@@ -2958,43 +2827,43 @@
       </c>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="105">
+      <c r="A7" s="93">
         <v>2</v>
       </c>
-      <c r="B7" s="59">
+      <c r="B7" s="50">
         <v>43109</v>
       </c>
-      <c r="C7" s="50" t="s">
+      <c r="C7" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="50" t="s">
+      <c r="D7" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="E7" s="50" t="s">
+      <c r="E7" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="F7" s="50" t="s">
+      <c r="F7" s="41" t="s">
         <v>70</v>
       </c>
       <c r="G7" s="1">
         <v>76120305</v>
       </c>
-      <c r="H7" s="50" t="s">
+      <c r="H7" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="I7" s="50" t="s">
+      <c r="I7" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="J7" s="50" t="s">
+      <c r="J7" s="41" t="s">
         <v>44</v>
       </c>
       <c r="K7" s="11">
         <v>17602558329</v>
       </c>
-      <c r="L7" s="50" t="s">
+      <c r="L7" s="41" t="s">
         <v>71</v>
       </c>
-      <c r="M7" s="50" t="s">
+      <c r="M7" s="41" t="s">
         <v>72</v>
       </c>
       <c r="N7" s="1">
@@ -3005,41 +2874,41 @@
       </c>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="107"/>
-      <c r="B8" s="59">
+      <c r="A8" s="94"/>
+      <c r="B8" s="50">
         <v>43109</v>
       </c>
-      <c r="C8" s="50" t="s">
+      <c r="C8" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="50" t="s">
+      <c r="D8" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="E8" s="50" t="s">
+      <c r="E8" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="F8" s="50" t="s">
+      <c r="F8" s="41" t="s">
         <v>67</v>
       </c>
       <c r="G8" s="1">
         <v>76117397</v>
       </c>
-      <c r="H8" s="50" t="s">
+      <c r="H8" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="I8" s="50" t="s">
+      <c r="I8" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="J8" s="50" t="s">
+      <c r="J8" s="41" t="s">
         <v>44</v>
       </c>
       <c r="K8" s="11">
         <v>17602558329</v>
       </c>
-      <c r="L8" s="50" t="s">
+      <c r="L8" s="41" t="s">
         <v>68</v>
       </c>
-      <c r="M8" s="50" t="s">
+      <c r="M8" s="41" t="s">
         <v>72</v>
       </c>
       <c r="N8" s="1">
@@ -3050,34 +2919,34 @@
       </c>
     </row>
     <row r="9" spans="1:15">
-      <c r="A9" s="105">
+      <c r="A9" s="93">
         <v>3</v>
       </c>
-      <c r="B9" s="59">
+      <c r="B9" s="50">
         <v>43116</v>
       </c>
-      <c r="C9" s="50" t="s">
+      <c r="C9" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="50" t="s">
+      <c r="D9" s="41" t="s">
         <v>74</v>
       </c>
-      <c r="E9" s="50" t="s">
+      <c r="E9" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="F9" s="50" t="s">
+      <c r="F9" s="41" t="s">
         <v>76</v>
       </c>
       <c r="G9" s="1">
         <v>76110597</v>
       </c>
-      <c r="H9" s="50" t="s">
+      <c r="H9" s="41" t="s">
         <v>77</v>
       </c>
-      <c r="I9" s="50" t="s">
+      <c r="I9" s="41" t="s">
         <v>78</v>
       </c>
-      <c r="J9" s="50" t="s">
+      <c r="J9" s="41" t="s">
         <v>44</v>
       </c>
       <c r="K9" s="11">
@@ -3086,10 +2955,10 @@
       <c r="L9" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="M9" s="50" t="s">
+      <c r="M9" s="41" t="s">
         <v>80</v>
       </c>
-      <c r="N9" s="71">
+      <c r="N9" s="61">
         <v>15651888368</v>
       </c>
       <c r="O9" s="11" t="s">
@@ -3097,32 +2966,32 @@
       </c>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="107"/>
-      <c r="B10" s="59">
+      <c r="A10" s="94"/>
+      <c r="B10" s="50">
         <v>43116</v>
       </c>
-      <c r="C10" s="50" t="s">
+      <c r="C10" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="50" t="s">
+      <c r="D10" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="E10" s="50" t="s">
+      <c r="E10" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="F10" s="50" t="s">
+      <c r="F10" s="41" t="s">
         <v>81</v>
       </c>
       <c r="G10" s="1">
         <v>76117399</v>
       </c>
-      <c r="H10" s="50" t="s">
+      <c r="H10" s="41" t="s">
         <v>82</v>
       </c>
-      <c r="I10" s="50" t="s">
+      <c r="I10" s="41" t="s">
         <v>78</v>
       </c>
-      <c r="J10" s="50" t="s">
+      <c r="J10" s="41" t="s">
         <v>44</v>
       </c>
       <c r="K10" s="11">
@@ -3131,10 +3000,10 @@
       <c r="L10" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="M10" s="74" t="s">
+      <c r="M10" s="64" t="s">
         <v>84</v>
       </c>
-      <c r="N10" s="71">
+      <c r="N10" s="61">
         <v>13780054964</v>
       </c>
       <c r="O10" s="11" t="s">
@@ -3142,34 +3011,34 @@
       </c>
     </row>
     <row r="11" spans="1:15">
-      <c r="A11" s="72">
+      <c r="A11" s="62">
         <v>4</v>
       </c>
-      <c r="B11" s="59">
+      <c r="B11" s="50">
         <v>43122</v>
       </c>
-      <c r="C11" s="50" t="s">
+      <c r="C11" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="50" t="s">
+      <c r="D11" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="E11" s="50" t="s">
+      <c r="E11" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="F11" s="50" t="s">
+      <c r="F11" s="41" t="s">
         <v>85</v>
       </c>
       <c r="G11" s="1">
         <v>76121691</v>
       </c>
-      <c r="H11" s="50" t="s">
+      <c r="H11" s="41" t="s">
         <v>86</v>
       </c>
-      <c r="I11" s="50" t="s">
+      <c r="I11" s="41" t="s">
         <v>78</v>
       </c>
-      <c r="J11" s="50" t="s">
+      <c r="J11" s="41" t="s">
         <v>44</v>
       </c>
       <c r="K11" s="11">
@@ -3178,10 +3047,10 @@
       <c r="L11" t="s">
         <v>87</v>
       </c>
-      <c r="M11" s="74" t="s">
+      <c r="M11" s="64" t="s">
         <v>88</v>
       </c>
-      <c r="N11" s="73">
+      <c r="N11" s="63">
         <v>18852665200</v>
       </c>
       <c r="O11" s="11" t="s">
@@ -3189,43 +3058,43 @@
       </c>
     </row>
     <row r="12" spans="1:15">
-      <c r="A12" s="105">
+      <c r="A12" s="93">
         <v>5</v>
       </c>
-      <c r="B12" s="59">
+      <c r="B12" s="50">
         <v>43130</v>
       </c>
-      <c r="C12" s="50" t="s">
+      <c r="C12" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="50" t="s">
+      <c r="D12" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="E12" s="50" t="s">
+      <c r="E12" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="F12" s="50" t="s">
+      <c r="F12" s="41" t="s">
         <v>90</v>
       </c>
       <c r="G12" s="1">
         <v>76121956</v>
       </c>
-      <c r="H12" s="50" t="s">
+      <c r="H12" s="41" t="s">
         <v>91</v>
       </c>
-      <c r="I12" s="50" t="s">
+      <c r="I12" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="J12" s="50" t="s">
+      <c r="J12" s="41" t="s">
         <v>44</v>
       </c>
       <c r="K12" s="11">
         <v>17602558329</v>
       </c>
-      <c r="L12" s="50" t="s">
+      <c r="L12" s="41" t="s">
         <v>92</v>
       </c>
-      <c r="M12" s="50" t="s">
+      <c r="M12" s="41" t="s">
         <v>93</v>
       </c>
       <c r="N12" s="1">
@@ -3236,44 +3105,44 @@
       </c>
     </row>
     <row r="13" spans="1:15">
-      <c r="A13" s="106"/>
-      <c r="B13" s="59">
+      <c r="A13" s="95"/>
+      <c r="B13" s="50">
         <v>43130</v>
       </c>
-      <c r="C13" s="50" t="s">
+      <c r="C13" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="50" t="s">
+      <c r="D13" s="41" t="s">
         <v>94</v>
       </c>
-      <c r="E13" s="50" t="s">
+      <c r="E13" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="F13" s="50" t="s">
+      <c r="F13" s="41" t="s">
         <v>95</v>
       </c>
       <c r="G13" s="1">
         <v>76121671</v>
       </c>
-      <c r="H13" s="50" t="s">
+      <c r="H13" s="41" t="s">
         <v>96</v>
       </c>
-      <c r="I13" s="50" t="s">
+      <c r="I13" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="J13" s="50" t="s">
+      <c r="J13" s="41" t="s">
         <v>44</v>
       </c>
       <c r="K13" s="11">
         <v>17602558329</v>
       </c>
-      <c r="L13" s="77" t="s">
+      <c r="L13" s="67" t="s">
         <v>97</v>
       </c>
-      <c r="M13" s="50" t="s">
+      <c r="M13" s="41" t="s">
         <v>98</v>
       </c>
-      <c r="N13" s="73">
+      <c r="N13" s="63">
         <v>13605150024</v>
       </c>
       <c r="O13" s="11" t="s">
@@ -3281,41 +3150,41 @@
       </c>
     </row>
     <row r="14" spans="1:15">
-      <c r="A14" s="107"/>
-      <c r="B14" s="59">
+      <c r="A14" s="94"/>
+      <c r="B14" s="50">
         <v>43131</v>
       </c>
-      <c r="C14" s="50" t="s">
+      <c r="C14" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="50" t="s">
+      <c r="D14" s="41" t="s">
         <v>99</v>
       </c>
-      <c r="E14" s="50" t="s">
+      <c r="E14" s="41" t="s">
         <v>100</v>
       </c>
-      <c r="F14" s="50" t="s">
+      <c r="F14" s="41" t="s">
         <v>101</v>
       </c>
       <c r="G14" s="1">
         <v>76125223</v>
       </c>
-      <c r="H14" s="50" t="s">
+      <c r="H14" s="41" t="s">
         <v>104</v>
       </c>
-      <c r="I14" s="50" t="s">
+      <c r="I14" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="J14" s="50" t="s">
+      <c r="J14" s="41" t="s">
         <v>44</v>
       </c>
       <c r="K14" s="11">
         <v>17602558329</v>
       </c>
-      <c r="L14" s="50" t="s">
+      <c r="L14" s="41" t="s">
         <v>102</v>
       </c>
-      <c r="M14" s="50" t="s">
+      <c r="M14" s="41" t="s">
         <v>103</v>
       </c>
       <c r="N14" s="1">
@@ -3326,43 +3195,43 @@
       </c>
     </row>
     <row r="15" spans="1:15">
-      <c r="A15" s="105">
+      <c r="A15" s="93">
         <v>6</v>
       </c>
-      <c r="B15" s="59">
+      <c r="B15" s="50">
         <v>43138</v>
       </c>
-      <c r="C15" s="50" t="s">
+      <c r="C15" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="50" t="s">
+      <c r="D15" s="41" t="s">
         <v>99</v>
       </c>
-      <c r="E15" s="50" t="s">
+      <c r="E15" s="41" t="s">
         <v>100</v>
       </c>
-      <c r="F15" s="50" t="s">
+      <c r="F15" s="41" t="s">
         <v>101</v>
       </c>
       <c r="G15" s="1">
         <v>76128577</v>
       </c>
-      <c r="H15" s="50" t="s">
+      <c r="H15" s="41" t="s">
         <v>105</v>
       </c>
-      <c r="I15" s="50" t="s">
+      <c r="I15" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="J15" s="50" t="s">
+      <c r="J15" s="41" t="s">
         <v>44</v>
       </c>
       <c r="K15" s="11">
         <v>17602558329</v>
       </c>
-      <c r="L15" s="50" t="s">
+      <c r="L15" s="41" t="s">
         <v>102</v>
       </c>
-      <c r="M15" s="50" t="s">
+      <c r="M15" s="41" t="s">
         <v>103</v>
       </c>
       <c r="N15" s="11">
@@ -3373,41 +3242,41 @@
       </c>
     </row>
     <row r="16" spans="1:15">
-      <c r="A16" s="107"/>
-      <c r="B16" s="59">
+      <c r="A16" s="94"/>
+      <c r="B16" s="50">
         <v>43138</v>
       </c>
-      <c r="C16" s="50" t="s">
+      <c r="C16" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="50" t="s">
+      <c r="D16" s="41" t="s">
         <v>99</v>
       </c>
-      <c r="E16" s="50" t="s">
+      <c r="E16" s="41" t="s">
         <v>100</v>
       </c>
-      <c r="F16" s="50" t="s">
+      <c r="F16" s="41" t="s">
         <v>101</v>
       </c>
       <c r="G16" s="1">
         <v>76128579</v>
       </c>
-      <c r="H16" s="50" t="s">
+      <c r="H16" s="41" t="s">
         <v>106</v>
       </c>
-      <c r="I16" s="50" t="s">
+      <c r="I16" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="J16" s="50" t="s">
+      <c r="J16" s="41" t="s">
         <v>44</v>
       </c>
       <c r="K16" s="11">
         <v>17602558329</v>
       </c>
-      <c r="L16" s="50" t="s">
+      <c r="L16" s="41" t="s">
         <v>102</v>
       </c>
-      <c r="M16" s="50" t="s">
+      <c r="M16" s="41" t="s">
         <v>103</v>
       </c>
       <c r="N16" s="11">
@@ -3418,63 +3287,63 @@
       </c>
     </row>
     <row r="17" spans="1:15">
-      <c r="A17" s="83">
+      <c r="A17" s="73">
         <v>7</v>
       </c>
-      <c r="C17" s="50"/>
-      <c r="D17" s="85" t="s">
+      <c r="C17" s="41"/>
+      <c r="D17" s="75" t="s">
         <v>144</v>
       </c>
-      <c r="E17" s="50"/>
-      <c r="F17" s="50"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
       <c r="G17" s="11"/>
-      <c r="H17" s="50"/>
-      <c r="I17" s="50"/>
-      <c r="J17" s="50"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="41"/>
+      <c r="J17" s="41"/>
       <c r="K17" s="11"/>
-      <c r="L17" s="50"/>
-      <c r="M17" s="50"/>
+      <c r="L17" s="41"/>
+      <c r="M17" s="41"/>
       <c r="N17" s="11"/>
       <c r="O17" s="11"/>
     </row>
     <row r="18" spans="1:15">
-      <c r="A18" s="105">
+      <c r="A18" s="93">
         <v>8</v>
       </c>
-      <c r="B18" s="59">
+      <c r="B18" s="50">
         <v>43154</v>
       </c>
-      <c r="C18" s="50" t="s">
+      <c r="C18" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="D18" s="50" t="s">
+      <c r="D18" s="41" t="s">
         <v>99</v>
       </c>
-      <c r="E18" s="50" t="s">
+      <c r="E18" s="41" t="s">
         <v>113</v>
       </c>
-      <c r="F18" s="50" t="s">
+      <c r="F18" s="41" t="s">
         <v>114</v>
       </c>
       <c r="G18" s="1">
         <v>76127217</v>
       </c>
-      <c r="H18" s="50" t="s">
+      <c r="H18" s="41" t="s">
         <v>115</v>
       </c>
-      <c r="I18" s="50" t="s">
+      <c r="I18" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="J18" s="50" t="s">
+      <c r="J18" s="41" t="s">
         <v>44</v>
       </c>
       <c r="K18" s="11">
         <v>17602558329</v>
       </c>
-      <c r="L18" s="50" t="s">
+      <c r="L18" s="41" t="s">
         <v>102</v>
       </c>
-      <c r="M18" s="50" t="s">
+      <c r="M18" s="41" t="s">
         <v>103</v>
       </c>
       <c r="N18" s="11">
@@ -3485,41 +3354,41 @@
       </c>
     </row>
     <row r="19" spans="1:15">
-      <c r="A19" s="106"/>
-      <c r="B19" s="59">
+      <c r="A19" s="95"/>
+      <c r="B19" s="50">
         <v>43154</v>
       </c>
-      <c r="C19" s="50" t="s">
+      <c r="C19" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="D19" s="50" t="s">
+      <c r="D19" s="41" t="s">
         <v>99</v>
       </c>
-      <c r="E19" s="50" t="s">
+      <c r="E19" s="41" t="s">
         <v>113</v>
       </c>
-      <c r="F19" s="50" t="s">
+      <c r="F19" s="41" t="s">
         <v>116</v>
       </c>
       <c r="G19" s="1">
         <v>76128571</v>
       </c>
-      <c r="H19" s="50" t="s">
+      <c r="H19" s="41" t="s">
         <v>117</v>
       </c>
-      <c r="I19" s="50" t="s">
+      <c r="I19" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="J19" s="50" t="s">
+      <c r="J19" s="41" t="s">
         <v>44</v>
       </c>
       <c r="K19" s="11">
         <v>17602558329</v>
       </c>
-      <c r="L19" s="50" t="s">
+      <c r="L19" s="41" t="s">
         <v>102</v>
       </c>
-      <c r="M19" s="50" t="s">
+      <c r="M19" s="41" t="s">
         <v>103</v>
       </c>
       <c r="N19" s="11">
@@ -3530,41 +3399,41 @@
       </c>
     </row>
     <row r="20" spans="1:15">
-      <c r="A20" s="106"/>
-      <c r="B20" s="59">
+      <c r="A20" s="95"/>
+      <c r="B20" s="50">
         <v>43154</v>
       </c>
-      <c r="C20" s="50" t="s">
+      <c r="C20" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="D20" s="50" t="s">
+      <c r="D20" s="41" t="s">
         <v>99</v>
       </c>
-      <c r="E20" s="50" t="s">
+      <c r="E20" s="41" t="s">
         <v>161</v>
       </c>
-      <c r="F20" s="50" t="s">
+      <c r="F20" s="41" t="s">
         <v>116</v>
       </c>
-      <c r="G20" s="80">
+      <c r="G20" s="70">
         <v>76128575</v>
       </c>
-      <c r="H20" s="50" t="s">
+      <c r="H20" s="41" t="s">
         <v>119</v>
       </c>
-      <c r="I20" s="50" t="s">
+      <c r="I20" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="J20" s="50" t="s">
+      <c r="J20" s="41" t="s">
         <v>44</v>
       </c>
       <c r="K20" s="11">
         <v>17602558329</v>
       </c>
-      <c r="L20" s="50" t="s">
+      <c r="L20" s="41" t="s">
         <v>102</v>
       </c>
-      <c r="M20" s="50" t="s">
+      <c r="M20" s="41" t="s">
         <v>103</v>
       </c>
       <c r="N20" s="11">
@@ -3575,41 +3444,41 @@
       </c>
     </row>
     <row r="21" spans="1:15">
-      <c r="A21" s="106"/>
-      <c r="B21" s="59">
+      <c r="A21" s="95"/>
+      <c r="B21" s="50">
         <v>43154</v>
       </c>
-      <c r="C21" s="50" t="s">
+      <c r="C21" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="D21" s="50" t="s">
+      <c r="D21" s="41" t="s">
         <v>99</v>
       </c>
-      <c r="E21" s="50" t="s">
+      <c r="E21" s="41" t="s">
         <v>118</v>
       </c>
-      <c r="F21" s="50" t="s">
+      <c r="F21" s="41" t="s">
         <v>120</v>
       </c>
       <c r="G21" s="1">
         <v>76128576</v>
       </c>
-      <c r="H21" s="50" t="s">
+      <c r="H21" s="41" t="s">
         <v>121</v>
       </c>
-      <c r="I21" s="50" t="s">
+      <c r="I21" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="J21" s="50" t="s">
+      <c r="J21" s="41" t="s">
         <v>44</v>
       </c>
       <c r="K21" s="11">
         <v>17602558329</v>
       </c>
-      <c r="L21" s="50" t="s">
+      <c r="L21" s="41" t="s">
         <v>102</v>
       </c>
-      <c r="M21" s="50" t="s">
+      <c r="M21" s="41" t="s">
         <v>103</v>
       </c>
       <c r="N21" s="11">
@@ -3620,41 +3489,41 @@
       </c>
     </row>
     <row r="22" spans="1:15">
-      <c r="A22" s="106"/>
-      <c r="B22" s="59">
+      <c r="A22" s="95"/>
+      <c r="B22" s="50">
         <v>43154</v>
       </c>
-      <c r="C22" s="50" t="s">
+      <c r="C22" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="D22" s="50" t="s">
+      <c r="D22" s="41" t="s">
         <v>99</v>
       </c>
-      <c r="E22" s="50" t="s">
+      <c r="E22" s="41" t="s">
         <v>118</v>
       </c>
-      <c r="F22" s="50" t="s">
+      <c r="F22" s="41" t="s">
         <v>116</v>
       </c>
       <c r="G22" s="1">
         <v>76129762</v>
       </c>
-      <c r="H22" s="50" t="s">
+      <c r="H22" s="41" t="s">
         <v>122</v>
       </c>
-      <c r="I22" s="50" t="s">
+      <c r="I22" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="J22" s="50" t="s">
+      <c r="J22" s="41" t="s">
         <v>44</v>
       </c>
       <c r="K22" s="11">
         <v>17602558329</v>
       </c>
-      <c r="L22" s="50" t="s">
+      <c r="L22" s="41" t="s">
         <v>102</v>
       </c>
-      <c r="M22" s="50" t="s">
+      <c r="M22" s="41" t="s">
         <v>103</v>
       </c>
       <c r="N22" s="11">
@@ -3665,41 +3534,41 @@
       </c>
     </row>
     <row r="23" spans="1:15">
-      <c r="A23" s="107"/>
-      <c r="B23" s="59">
+      <c r="A23" s="94"/>
+      <c r="B23" s="50">
         <v>43154</v>
       </c>
-      <c r="C23" s="50" t="s">
+      <c r="C23" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="50" t="s">
+      <c r="D23" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="E23" s="50" t="s">
+      <c r="E23" s="41" t="s">
         <v>124</v>
       </c>
-      <c r="F23" s="50" t="s">
+      <c r="F23" s="41" t="s">
         <v>125</v>
       </c>
       <c r="G23" s="1">
         <v>76127976</v>
       </c>
-      <c r="H23" s="50" t="s">
+      <c r="H23" s="41" t="s">
         <v>126</v>
       </c>
-      <c r="I23" s="50" t="s">
+      <c r="I23" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="J23" s="50" t="s">
+      <c r="J23" s="41" t="s">
         <v>44</v>
       </c>
       <c r="K23" s="11">
         <v>17602558329</v>
       </c>
-      <c r="L23" s="81" t="s">
+      <c r="L23" s="71" t="s">
         <v>127</v>
       </c>
-      <c r="M23" s="50" t="s">
+      <c r="M23" s="41" t="s">
         <v>128</v>
       </c>
       <c r="N23" s="1">
@@ -3710,43 +3579,43 @@
       </c>
     </row>
     <row r="24" spans="1:15">
-      <c r="A24" s="105">
+      <c r="A24" s="93">
         <v>9</v>
       </c>
-      <c r="B24" s="59">
+      <c r="B24" s="50">
         <v>43159</v>
       </c>
-      <c r="C24" s="50" t="s">
+      <c r="C24" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="D24" s="50" t="s">
+      <c r="D24" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="E24" s="50" t="s">
+      <c r="E24" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="F24" s="50" t="s">
+      <c r="F24" s="41" t="s">
         <v>129</v>
       </c>
       <c r="G24" s="1">
         <v>76122091</v>
       </c>
-      <c r="H24" s="50" t="s">
+      <c r="H24" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="I24" s="50" t="s">
+      <c r="I24" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="J24" s="50" t="s">
+      <c r="J24" s="41" t="s">
         <v>44</v>
       </c>
       <c r="K24" s="11">
         <v>17602558329</v>
       </c>
-      <c r="L24" s="50" t="s">
+      <c r="L24" s="41" t="s">
         <v>92</v>
       </c>
-      <c r="M24" s="50" t="s">
+      <c r="M24" s="41" t="s">
         <v>72</v>
       </c>
       <c r="N24" s="11">
@@ -3757,41 +3626,41 @@
       </c>
     </row>
     <row r="25" spans="1:15">
-      <c r="A25" s="106"/>
-      <c r="B25" s="59">
+      <c r="A25" s="95"/>
+      <c r="B25" s="50">
         <v>43159</v>
       </c>
-      <c r="C25" s="50" t="s">
+      <c r="C25" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="D25" s="50" t="s">
+      <c r="D25" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="E25" s="50" t="s">
+      <c r="E25" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="F25" s="50" t="s">
+      <c r="F25" s="41" t="s">
         <v>130</v>
       </c>
       <c r="G25" s="1">
         <v>76122096</v>
       </c>
-      <c r="H25" s="50" t="s">
+      <c r="H25" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="I25" s="50" t="s">
+      <c r="I25" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="J25" s="50" t="s">
+      <c r="J25" s="41" t="s">
         <v>44</v>
       </c>
       <c r="K25" s="11">
         <v>17602558329</v>
       </c>
-      <c r="L25" s="50" t="s">
+      <c r="L25" s="41" t="s">
         <v>92</v>
       </c>
-      <c r="M25" s="50" t="s">
+      <c r="M25" s="41" t="s">
         <v>72</v>
       </c>
       <c r="N25" s="11">
@@ -3802,32 +3671,32 @@
       </c>
     </row>
     <row r="26" spans="1:15">
-      <c r="A26" s="106"/>
-      <c r="B26" s="59">
+      <c r="A26" s="95"/>
+      <c r="B26" s="50">
         <v>43159</v>
       </c>
-      <c r="C26" s="50" t="s">
+      <c r="C26" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="D26" s="50" t="s">
+      <c r="D26" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="E26" s="50" t="s">
+      <c r="E26" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="F26" s="50" t="s">
+      <c r="F26" s="41" t="s">
         <v>136</v>
       </c>
       <c r="G26" s="1">
         <v>76123036</v>
       </c>
-      <c r="H26" s="50" t="s">
+      <c r="H26" s="41" t="s">
         <v>133</v>
       </c>
-      <c r="I26" s="50" t="s">
+      <c r="I26" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="J26" s="50" t="s">
+      <c r="J26" s="41" t="s">
         <v>44</v>
       </c>
       <c r="K26" s="11">
@@ -3836,10 +3705,10 @@
       <c r="L26" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="M26" s="50" t="s">
+      <c r="M26" s="41" t="s">
         <v>141</v>
       </c>
-      <c r="N26" s="71">
+      <c r="N26" s="61">
         <v>13709060302</v>
       </c>
       <c r="O26" s="11" t="s">
@@ -3847,32 +3716,32 @@
       </c>
     </row>
     <row r="27" spans="1:15">
-      <c r="A27" s="106"/>
-      <c r="B27" s="59">
+      <c r="A27" s="95"/>
+      <c r="B27" s="50">
         <v>43159</v>
       </c>
-      <c r="C27" s="50" t="s">
+      <c r="C27" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="D27" s="50" t="s">
+      <c r="D27" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="E27" s="50" t="s">
+      <c r="E27" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="F27" s="50" t="s">
+      <c r="F27" s="41" t="s">
         <v>137</v>
       </c>
       <c r="G27" s="1">
         <v>76128273</v>
       </c>
-      <c r="H27" s="50" t="s">
+      <c r="H27" s="41" t="s">
         <v>134</v>
       </c>
-      <c r="I27" s="50" t="s">
+      <c r="I27" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="J27" s="50" t="s">
+      <c r="J27" s="41" t="s">
         <v>44</v>
       </c>
       <c r="K27" s="11">
@@ -3881,10 +3750,10 @@
       <c r="L27" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="M27" s="50" t="s">
+      <c r="M27" s="41" t="s">
         <v>142</v>
       </c>
-      <c r="N27" s="71">
+      <c r="N27" s="61">
         <v>13812586805</v>
       </c>
       <c r="O27" s="11" t="s">
@@ -3892,41 +3761,41 @@
       </c>
     </row>
     <row r="28" spans="1:15">
-      <c r="A28" s="107"/>
-      <c r="B28" s="59">
+      <c r="A28" s="94"/>
+      <c r="B28" s="50">
         <v>43159</v>
       </c>
-      <c r="C28" s="50" t="s">
+      <c r="C28" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="D28" s="50" t="s">
+      <c r="D28" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="E28" s="50" t="s">
+      <c r="E28" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="F28" s="50" t="s">
+      <c r="F28" s="41" t="s">
         <v>137</v>
       </c>
       <c r="G28" s="1">
         <v>76132337</v>
       </c>
-      <c r="H28" s="50" t="s">
+      <c r="H28" s="41" t="s">
         <v>135</v>
       </c>
-      <c r="I28" s="50" t="s">
+      <c r="I28" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="J28" s="50" t="s">
+      <c r="J28" s="41" t="s">
         <v>44</v>
       </c>
       <c r="K28" s="11">
         <v>17602558329</v>
       </c>
-      <c r="L28" s="50" t="s">
+      <c r="L28" s="41" t="s">
         <v>140</v>
       </c>
-      <c r="M28" s="50" t="s">
+      <c r="M28" s="41" t="s">
         <v>143</v>
       </c>
       <c r="N28" s="1">
@@ -3937,46 +3806,46 @@
       </c>
     </row>
     <row r="29" spans="1:15">
-      <c r="A29" s="84">
+      <c r="A29" s="74">
         <v>10</v>
       </c>
-      <c r="B29" s="59">
+      <c r="B29" s="50">
         <v>43165</v>
       </c>
-      <c r="C29" s="50" t="s">
+      <c r="C29" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="D29" s="50" t="s">
+      <c r="D29" s="41" t="s">
         <v>145</v>
       </c>
-      <c r="E29" s="50" t="s">
+      <c r="E29" s="41" t="s">
         <v>145</v>
       </c>
-      <c r="F29" s="50" t="s">
+      <c r="F29" s="41" t="s">
         <v>146</v>
       </c>
       <c r="G29" s="1">
         <v>76121106</v>
       </c>
-      <c r="H29" s="50" t="s">
+      <c r="H29" s="41" t="s">
         <v>145</v>
       </c>
-      <c r="I29" s="50" t="s">
+      <c r="I29" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="J29" s="50" t="s">
+      <c r="J29" s="41" t="s">
         <v>44</v>
       </c>
       <c r="K29" s="11">
         <v>17602558329</v>
       </c>
-      <c r="L29" s="81" t="s">
+      <c r="L29" s="71" t="s">
         <v>147</v>
       </c>
-      <c r="M29" s="50" t="s">
+      <c r="M29" s="41" t="s">
         <v>148</v>
       </c>
-      <c r="N29" s="71">
+      <c r="N29" s="61">
         <v>13951396931</v>
       </c>
       <c r="O29" s="11" t="s">
@@ -3984,34 +3853,34 @@
       </c>
     </row>
     <row r="30" spans="1:15">
-      <c r="A30" s="86">
+      <c r="A30" s="76">
         <v>11</v>
       </c>
-      <c r="B30" s="59">
+      <c r="B30" s="50">
         <v>43171</v>
       </c>
-      <c r="C30" s="50" t="s">
+      <c r="C30" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="D30" s="50" t="s">
+      <c r="D30" s="41" t="s">
         <v>149</v>
       </c>
-      <c r="E30" s="50" t="s">
+      <c r="E30" s="41" t="s">
         <v>149</v>
       </c>
-      <c r="F30" s="50" t="s">
+      <c r="F30" s="41" t="s">
         <v>40</v>
       </c>
       <c r="G30" s="1">
         <v>76130116</v>
       </c>
-      <c r="H30" s="50" t="s">
+      <c r="H30" s="41" t="s">
         <v>150</v>
       </c>
-      <c r="I30" s="50" t="s">
+      <c r="I30" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="J30" s="50" t="s">
+      <c r="J30" s="41" t="s">
         <v>44</v>
       </c>
       <c r="K30" s="11">
@@ -4020,10 +3889,10 @@
       <c r="L30" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="M30" s="50" t="s">
+      <c r="M30" s="41" t="s">
         <v>152</v>
       </c>
-      <c r="N30" s="71">
+      <c r="N30" s="61">
         <v>13222071793</v>
       </c>
       <c r="O30" s="11" t="s">
@@ -4031,43 +3900,43 @@
       </c>
     </row>
     <row r="31" spans="1:15">
-      <c r="A31" s="105">
+      <c r="A31" s="93">
         <v>12</v>
       </c>
-      <c r="B31" s="59">
+      <c r="B31" s="50">
         <v>43180</v>
       </c>
-      <c r="C31" s="50" t="s">
+      <c r="C31" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="D31" s="50" t="s">
+      <c r="D31" s="41" t="s">
         <v>99</v>
       </c>
       <c r="E31" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="F31" s="50" t="s">
+      <c r="F31" s="41" t="s">
         <v>157</v>
       </c>
-      <c r="G31" s="71">
+      <c r="G31" s="61">
         <v>76131267</v>
       </c>
-      <c r="H31" s="50" t="s">
+      <c r="H31" s="41" t="s">
         <v>153</v>
       </c>
-      <c r="I31" s="50" t="s">
+      <c r="I31" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="J31" s="50" t="s">
+      <c r="J31" s="41" t="s">
         <v>44</v>
       </c>
       <c r="K31" s="11">
         <v>17602558329</v>
       </c>
-      <c r="L31" s="50" t="s">
+      <c r="L31" s="41" t="s">
         <v>102</v>
       </c>
-      <c r="M31" s="50" t="s">
+      <c r="M31" s="41" t="s">
         <v>103</v>
       </c>
       <c r="N31" s="11">
@@ -4078,41 +3947,41 @@
       </c>
     </row>
     <row r="32" spans="1:15">
-      <c r="A32" s="106"/>
-      <c r="B32" s="59">
+      <c r="A32" s="95"/>
+      <c r="B32" s="50">
         <v>43180</v>
       </c>
-      <c r="C32" s="50" t="s">
+      <c r="C32" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="D32" s="50" t="s">
+      <c r="D32" s="41" t="s">
         <v>99</v>
       </c>
       <c r="E32" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="F32" s="50" t="s">
+      <c r="F32" s="41" t="s">
         <v>157</v>
       </c>
-      <c r="G32" s="71">
+      <c r="G32" s="61">
         <v>76131269</v>
       </c>
-      <c r="H32" s="81" t="s">
+      <c r="H32" s="71" t="s">
         <v>107</v>
       </c>
-      <c r="I32" s="50" t="s">
+      <c r="I32" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="J32" s="50" t="s">
+      <c r="J32" s="41" t="s">
         <v>44</v>
       </c>
       <c r="K32" s="11">
         <v>17602558329</v>
       </c>
-      <c r="L32" s="50" t="s">
+      <c r="L32" s="41" t="s">
         <v>102</v>
       </c>
-      <c r="M32" s="50" t="s">
+      <c r="M32" s="41" t="s">
         <v>103</v>
       </c>
       <c r="N32" s="11">
@@ -4123,41 +3992,41 @@
       </c>
     </row>
     <row r="33" spans="1:15">
-      <c r="A33" s="106"/>
-      <c r="B33" s="59">
+      <c r="A33" s="95"/>
+      <c r="B33" s="50">
         <v>43180</v>
       </c>
-      <c r="C33" s="50" t="s">
+      <c r="C33" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="D33" s="50" t="s">
+      <c r="D33" s="41" t="s">
         <v>99</v>
       </c>
       <c r="E33" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="F33" s="50" t="s">
+      <c r="F33" s="41" t="s">
         <v>157</v>
       </c>
-      <c r="G33" s="71">
+      <c r="G33" s="61">
         <v>76131270</v>
       </c>
-      <c r="H33" s="81" t="s">
+      <c r="H33" s="71" t="s">
         <v>108</v>
       </c>
-      <c r="I33" s="50" t="s">
+      <c r="I33" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="J33" s="50" t="s">
+      <c r="J33" s="41" t="s">
         <v>44</v>
       </c>
       <c r="K33" s="11">
         <v>17602558329</v>
       </c>
-      <c r="L33" s="50" t="s">
+      <c r="L33" s="41" t="s">
         <v>102</v>
       </c>
-      <c r="M33" s="50" t="s">
+      <c r="M33" s="41" t="s">
         <v>103</v>
       </c>
       <c r="N33" s="11">
@@ -4168,41 +4037,41 @@
       </c>
     </row>
     <row r="34" spans="1:15">
-      <c r="A34" s="106"/>
-      <c r="B34" s="59">
+      <c r="A34" s="95"/>
+      <c r="B34" s="50">
         <v>43180</v>
       </c>
-      <c r="C34" s="50" t="s">
+      <c r="C34" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="D34" s="50" t="s">
+      <c r="D34" s="41" t="s">
         <v>99</v>
       </c>
       <c r="E34" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="F34" s="50" t="s">
+      <c r="F34" s="41" t="s">
         <v>157</v>
       </c>
-      <c r="G34" s="71">
+      <c r="G34" s="61">
         <v>76131271</v>
       </c>
-      <c r="H34" s="81" t="s">
+      <c r="H34" s="71" t="s">
         <v>109</v>
       </c>
-      <c r="I34" s="50" t="s">
+      <c r="I34" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="J34" s="50" t="s">
+      <c r="J34" s="41" t="s">
         <v>44</v>
       </c>
       <c r="K34" s="11">
         <v>17602558329</v>
       </c>
-      <c r="L34" s="50" t="s">
+      <c r="L34" s="41" t="s">
         <v>102</v>
       </c>
-      <c r="M34" s="50" t="s">
+      <c r="M34" s="41" t="s">
         <v>103</v>
       </c>
       <c r="N34" s="11">
@@ -4213,41 +4082,41 @@
       </c>
     </row>
     <row r="35" spans="1:15">
-      <c r="A35" s="106"/>
-      <c r="B35" s="59">
+      <c r="A35" s="95"/>
+      <c r="B35" s="50">
         <v>43180</v>
       </c>
-      <c r="C35" s="50" t="s">
+      <c r="C35" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="D35" s="50" t="s">
+      <c r="D35" s="41" t="s">
         <v>99</v>
       </c>
       <c r="E35" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="F35" s="50" t="s">
+      <c r="F35" s="41" t="s">
         <v>157</v>
       </c>
       <c r="G35" s="1">
         <v>76131272</v>
       </c>
-      <c r="H35" s="50" t="s">
+      <c r="H35" s="41" t="s">
         <v>154</v>
       </c>
-      <c r="I35" s="50" t="s">
+      <c r="I35" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="J35" s="50" t="s">
+      <c r="J35" s="41" t="s">
         <v>44</v>
       </c>
       <c r="K35" s="11">
         <v>17602558329</v>
       </c>
-      <c r="L35" s="50" t="s">
+      <c r="L35" s="41" t="s">
         <v>102</v>
       </c>
-      <c r="M35" s="50" t="s">
+      <c r="M35" s="41" t="s">
         <v>103</v>
       </c>
       <c r="N35" s="11">
@@ -4258,41 +4127,41 @@
       </c>
     </row>
     <row r="36" spans="1:15">
-      <c r="A36" s="106"/>
-      <c r="B36" s="59">
+      <c r="A36" s="95"/>
+      <c r="B36" s="50">
         <v>43180</v>
       </c>
-      <c r="C36" s="50" t="s">
+      <c r="C36" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="D36" s="50" t="s">
+      <c r="D36" s="41" t="s">
         <v>99</v>
       </c>
       <c r="E36" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="F36" s="50" t="s">
+      <c r="F36" s="41" t="s">
         <v>158</v>
       </c>
       <c r="G36" s="1">
         <v>76133009</v>
       </c>
-      <c r="H36" s="50" t="s">
+      <c r="H36" s="41" t="s">
         <v>155</v>
       </c>
-      <c r="I36" s="50" t="s">
+      <c r="I36" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="J36" s="50" t="s">
+      <c r="J36" s="41" t="s">
         <v>44</v>
       </c>
       <c r="K36" s="11">
         <v>17602558329</v>
       </c>
-      <c r="L36" s="50" t="s">
+      <c r="L36" s="41" t="s">
         <v>102</v>
       </c>
-      <c r="M36" s="50" t="s">
+      <c r="M36" s="41" t="s">
         <v>103</v>
       </c>
       <c r="N36" s="11">
@@ -4303,41 +4172,41 @@
       </c>
     </row>
     <row r="37" spans="1:15">
-      <c r="A37" s="107"/>
-      <c r="B37" s="59">
+      <c r="A37" s="94"/>
+      <c r="B37" s="50">
         <v>43180</v>
       </c>
-      <c r="C37" s="50" t="s">
+      <c r="C37" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="D37" s="50" t="s">
+      <c r="D37" s="41" t="s">
         <v>99</v>
       </c>
       <c r="E37" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="F37" s="50" t="s">
+      <c r="F37" s="41" t="s">
         <v>159</v>
       </c>
       <c r="G37" s="1">
         <v>76133013</v>
       </c>
-      <c r="H37" s="50" t="s">
+      <c r="H37" s="41" t="s">
         <v>156</v>
       </c>
-      <c r="I37" s="50" t="s">
+      <c r="I37" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="J37" s="50" t="s">
+      <c r="J37" s="41" t="s">
         <v>44</v>
       </c>
       <c r="K37" s="11">
         <v>17602558329</v>
       </c>
-      <c r="L37" s="50" t="s">
+      <c r="L37" s="41" t="s">
         <v>102</v>
       </c>
-      <c r="M37" s="50" t="s">
+      <c r="M37" s="41" t="s">
         <v>103</v>
       </c>
       <c r="N37" s="11">
@@ -4348,43 +4217,43 @@
       </c>
     </row>
     <row r="38" spans="1:15">
-      <c r="A38" s="105">
+      <c r="A38" s="93">
         <v>13</v>
       </c>
-      <c r="B38" s="59">
+      <c r="B38" s="50">
         <v>43187</v>
       </c>
-      <c r="C38" s="50" t="s">
+      <c r="C38" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="D38" s="50" t="s">
+      <c r="D38" s="41" t="s">
         <v>99</v>
       </c>
-      <c r="E38" s="50" t="s">
+      <c r="E38" s="41" t="s">
         <v>162</v>
       </c>
-      <c r="F38" s="50" t="s">
+      <c r="F38" s="41" t="s">
         <v>163</v>
       </c>
-      <c r="G38" s="71">
+      <c r="G38" s="61">
         <v>76132026</v>
       </c>
-      <c r="H38" s="81" t="s">
+      <c r="H38" s="71" t="s">
         <v>164</v>
       </c>
-      <c r="I38" s="50" t="s">
+      <c r="I38" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="J38" s="50" t="s">
+      <c r="J38" s="41" t="s">
         <v>44</v>
       </c>
       <c r="K38" s="11">
         <v>17602558329</v>
       </c>
-      <c r="L38" s="50" t="s">
+      <c r="L38" s="41" t="s">
         <v>102</v>
       </c>
-      <c r="M38" s="50" t="s">
+      <c r="M38" s="41" t="s">
         <v>103</v>
       </c>
       <c r="N38" s="1">
@@ -4395,41 +4264,41 @@
       </c>
     </row>
     <row r="39" spans="1:15">
-      <c r="A39" s="106"/>
-      <c r="B39" s="59">
+      <c r="A39" s="95"/>
+      <c r="B39" s="50">
         <v>43187</v>
       </c>
-      <c r="C39" s="50" t="s">
+      <c r="C39" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="D39" s="50" t="s">
+      <c r="D39" s="41" t="s">
         <v>99</v>
       </c>
-      <c r="E39" s="50" t="s">
+      <c r="E39" s="41" t="s">
         <v>162</v>
       </c>
-      <c r="F39" s="50" t="s">
+      <c r="F39" s="41" t="s">
         <v>163</v>
       </c>
-      <c r="G39" s="71">
+      <c r="G39" s="61">
         <v>76132028</v>
       </c>
-      <c r="H39" s="81" t="s">
+      <c r="H39" s="71" t="s">
         <v>165</v>
       </c>
-      <c r="I39" s="50" t="s">
+      <c r="I39" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="J39" s="50" t="s">
+      <c r="J39" s="41" t="s">
         <v>44</v>
       </c>
       <c r="K39" s="11">
         <v>17602558329</v>
       </c>
-      <c r="L39" s="50" t="s">
+      <c r="L39" s="41" t="s">
         <v>102</v>
       </c>
-      <c r="M39" s="50" t="s">
+      <c r="M39" s="41" t="s">
         <v>103</v>
       </c>
       <c r="N39" s="11">
@@ -4440,41 +4309,41 @@
       </c>
     </row>
     <row r="40" spans="1:15">
-      <c r="A40" s="106"/>
-      <c r="B40" s="59">
+      <c r="A40" s="95"/>
+      <c r="B40" s="50">
         <v>43187</v>
       </c>
-      <c r="C40" s="50" t="s">
+      <c r="C40" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="D40" s="50" t="s">
+      <c r="D40" s="41" t="s">
         <v>99</v>
       </c>
-      <c r="E40" s="50" t="s">
+      <c r="E40" s="41" t="s">
         <v>162</v>
       </c>
-      <c r="F40" s="50" t="s">
+      <c r="F40" s="41" t="s">
         <v>163</v>
       </c>
-      <c r="G40" s="71">
+      <c r="G40" s="61">
         <v>76132029</v>
       </c>
-      <c r="H40" s="81" t="s">
+      <c r="H40" s="71" t="s">
         <v>166</v>
       </c>
-      <c r="I40" s="50" t="s">
+      <c r="I40" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="J40" s="50" t="s">
+      <c r="J40" s="41" t="s">
         <v>44</v>
       </c>
       <c r="K40" s="11">
         <v>17602558329</v>
       </c>
-      <c r="L40" s="50" t="s">
+      <c r="L40" s="41" t="s">
         <v>102</v>
       </c>
-      <c r="M40" s="50" t="s">
+      <c r="M40" s="41" t="s">
         <v>103</v>
       </c>
       <c r="N40" s="11">
@@ -4485,41 +4354,41 @@
       </c>
     </row>
     <row r="41" spans="1:15">
-      <c r="A41" s="106"/>
-      <c r="B41" s="59">
+      <c r="A41" s="95"/>
+      <c r="B41" s="50">
         <v>43187</v>
       </c>
-      <c r="C41" s="50" t="s">
+      <c r="C41" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="D41" s="50" t="s">
+      <c r="D41" s="41" t="s">
         <v>99</v>
       </c>
-      <c r="E41" s="50" t="s">
+      <c r="E41" s="41" t="s">
         <v>162</v>
       </c>
-      <c r="F41" s="50" t="s">
+      <c r="F41" s="41" t="s">
         <v>163</v>
       </c>
-      <c r="G41" s="71">
+      <c r="G41" s="61">
         <v>76132057</v>
       </c>
-      <c r="H41" s="81" t="s">
+      <c r="H41" s="71" t="s">
         <v>167</v>
       </c>
-      <c r="I41" s="50" t="s">
+      <c r="I41" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="J41" s="50" t="s">
+      <c r="J41" s="41" t="s">
         <v>44</v>
       </c>
       <c r="K41" s="11">
         <v>17602558329</v>
       </c>
-      <c r="L41" s="50" t="s">
+      <c r="L41" s="41" t="s">
         <v>102</v>
       </c>
-      <c r="M41" s="50" t="s">
+      <c r="M41" s="41" t="s">
         <v>103</v>
       </c>
       <c r="N41" s="11">
@@ -4530,41 +4399,41 @@
       </c>
     </row>
     <row r="42" spans="1:15">
-      <c r="A42" s="106"/>
-      <c r="B42" s="59">
+      <c r="A42" s="95"/>
+      <c r="B42" s="50">
         <v>43187</v>
       </c>
-      <c r="C42" s="50" t="s">
+      <c r="C42" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="D42" s="50" t="s">
+      <c r="D42" s="41" t="s">
         <v>99</v>
       </c>
-      <c r="E42" s="50" t="s">
+      <c r="E42" s="41" t="s">
         <v>162</v>
       </c>
-      <c r="F42" s="50" t="s">
+      <c r="F42" s="41" t="s">
         <v>163</v>
       </c>
-      <c r="G42" s="71">
+      <c r="G42" s="61">
         <v>76132060</v>
       </c>
-      <c r="H42" s="81" t="s">
+      <c r="H42" s="71" t="s">
         <v>168</v>
       </c>
-      <c r="I42" s="50" t="s">
+      <c r="I42" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="J42" s="50" t="s">
+      <c r="J42" s="41" t="s">
         <v>44</v>
       </c>
       <c r="K42" s="11">
         <v>17602558329</v>
       </c>
-      <c r="L42" s="50" t="s">
+      <c r="L42" s="41" t="s">
         <v>102</v>
       </c>
-      <c r="M42" s="50" t="s">
+      <c r="M42" s="41" t="s">
         <v>103</v>
       </c>
       <c r="N42" s="11">
@@ -4575,41 +4444,41 @@
       </c>
     </row>
     <row r="43" spans="1:15">
-      <c r="A43" s="106"/>
-      <c r="B43" s="59">
+      <c r="A43" s="95"/>
+      <c r="B43" s="50">
         <v>43187</v>
       </c>
-      <c r="C43" s="50" t="s">
+      <c r="C43" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="D43" s="50" t="s">
+      <c r="D43" s="41" t="s">
         <v>99</v>
       </c>
-      <c r="E43" s="50" t="s">
+      <c r="E43" s="41" t="s">
         <v>162</v>
       </c>
-      <c r="F43" s="50" t="s">
+      <c r="F43" s="41" t="s">
         <v>163</v>
       </c>
-      <c r="G43" s="71">
+      <c r="G43" s="61">
         <v>76132061</v>
       </c>
-      <c r="H43" s="81" t="s">
+      <c r="H43" s="71" t="s">
         <v>169</v>
       </c>
-      <c r="I43" s="50" t="s">
+      <c r="I43" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="J43" s="50" t="s">
+      <c r="J43" s="41" t="s">
         <v>44</v>
       </c>
       <c r="K43" s="11">
         <v>17602558329</v>
       </c>
-      <c r="L43" s="50" t="s">
+      <c r="L43" s="41" t="s">
         <v>102</v>
       </c>
-      <c r="M43" s="50" t="s">
+      <c r="M43" s="41" t="s">
         <v>103</v>
       </c>
       <c r="N43" s="11">
@@ -4620,41 +4489,41 @@
       </c>
     </row>
     <row r="44" spans="1:15">
-      <c r="A44" s="106"/>
-      <c r="B44" s="59">
+      <c r="A44" s="95"/>
+      <c r="B44" s="50">
         <v>43187</v>
       </c>
-      <c r="C44" s="50" t="s">
+      <c r="C44" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="50" t="s">
+      <c r="D44" s="41" t="s">
         <v>99</v>
       </c>
-      <c r="E44" s="50" t="s">
+      <c r="E44" s="41" t="s">
         <v>162</v>
       </c>
-      <c r="F44" s="50" t="s">
+      <c r="F44" s="41" t="s">
         <v>163</v>
       </c>
-      <c r="G44" s="71">
+      <c r="G44" s="61">
         <v>76132063</v>
       </c>
-      <c r="H44" s="81" t="s">
+      <c r="H44" s="71" t="s">
         <v>170</v>
       </c>
-      <c r="I44" s="50" t="s">
+      <c r="I44" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="J44" s="50" t="s">
+      <c r="J44" s="41" t="s">
         <v>44</v>
       </c>
       <c r="K44" s="11">
         <v>17602558329</v>
       </c>
-      <c r="L44" s="50" t="s">
+      <c r="L44" s="41" t="s">
         <v>102</v>
       </c>
-      <c r="M44" s="50" t="s">
+      <c r="M44" s="41" t="s">
         <v>103</v>
       </c>
       <c r="N44" s="11">
@@ -4665,41 +4534,41 @@
       </c>
     </row>
     <row r="45" spans="1:15">
-      <c r="A45" s="106"/>
-      <c r="B45" s="59">
+      <c r="A45" s="95"/>
+      <c r="B45" s="50">
         <v>43187</v>
       </c>
-      <c r="C45" s="50" t="s">
+      <c r="C45" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="D45" s="50" t="s">
+      <c r="D45" s="41" t="s">
         <v>99</v>
       </c>
-      <c r="E45" s="50" t="s">
+      <c r="E45" s="41" t="s">
         <v>162</v>
       </c>
-      <c r="F45" s="50" t="s">
+      <c r="F45" s="41" t="s">
         <v>163</v>
       </c>
-      <c r="G45" s="71">
+      <c r="G45" s="61">
         <v>76132065</v>
       </c>
-      <c r="H45" s="81" t="s">
+      <c r="H45" s="71" t="s">
         <v>171</v>
       </c>
-      <c r="I45" s="50" t="s">
+      <c r="I45" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="J45" s="50" t="s">
+      <c r="J45" s="41" t="s">
         <v>44</v>
       </c>
       <c r="K45" s="11">
         <v>17602558329</v>
       </c>
-      <c r="L45" s="50" t="s">
+      <c r="L45" s="41" t="s">
         <v>102</v>
       </c>
-      <c r="M45" s="50" t="s">
+      <c r="M45" s="41" t="s">
         <v>103</v>
       </c>
       <c r="N45" s="11">
@@ -4710,41 +4579,41 @@
       </c>
     </row>
     <row r="46" spans="1:15">
-      <c r="A46" s="106"/>
-      <c r="B46" s="59">
+      <c r="A46" s="95"/>
+      <c r="B46" s="50">
         <v>43187</v>
       </c>
-      <c r="C46" s="50" t="s">
+      <c r="C46" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="D46" s="50" t="s">
+      <c r="D46" s="41" t="s">
         <v>99</v>
       </c>
-      <c r="E46" s="50" t="s">
+      <c r="E46" s="41" t="s">
         <v>162</v>
       </c>
-      <c r="F46" s="50" t="s">
+      <c r="F46" s="41" t="s">
         <v>163</v>
       </c>
-      <c r="G46" s="71">
+      <c r="G46" s="61">
         <v>76132289</v>
       </c>
-      <c r="H46" s="81" t="s">
+      <c r="H46" s="71" t="s">
         <v>172</v>
       </c>
-      <c r="I46" s="50" t="s">
+      <c r="I46" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="J46" s="50" t="s">
+      <c r="J46" s="41" t="s">
         <v>44</v>
       </c>
       <c r="K46" s="11">
         <v>17602558329</v>
       </c>
-      <c r="L46" s="50" t="s">
+      <c r="L46" s="41" t="s">
         <v>102</v>
       </c>
-      <c r="M46" s="50" t="s">
+      <c r="M46" s="41" t="s">
         <v>103</v>
       </c>
       <c r="N46" s="11">
@@ -4755,41 +4624,41 @@
       </c>
     </row>
     <row r="47" spans="1:15">
-      <c r="A47" s="106"/>
-      <c r="B47" s="59">
+      <c r="A47" s="95"/>
+      <c r="B47" s="50">
         <v>43187</v>
       </c>
-      <c r="C47" s="50" t="s">
+      <c r="C47" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="D47" s="50" t="s">
+      <c r="D47" s="41" t="s">
         <v>99</v>
       </c>
-      <c r="E47" s="50" t="s">
+      <c r="E47" s="41" t="s">
         <v>113</v>
       </c>
-      <c r="F47" s="50" t="s">
+      <c r="F47" s="41" t="s">
         <v>163</v>
       </c>
-      <c r="G47" s="71">
+      <c r="G47" s="61">
         <v>76132952</v>
       </c>
-      <c r="H47" s="88" t="s">
+      <c r="H47" s="78" t="s">
         <v>173</v>
       </c>
-      <c r="I47" s="50" t="s">
+      <c r="I47" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="J47" s="50" t="s">
+      <c r="J47" s="41" t="s">
         <v>44</v>
       </c>
       <c r="K47" s="11">
         <v>17602558329</v>
       </c>
-      <c r="L47" s="50" t="s">
+      <c r="L47" s="41" t="s">
         <v>102</v>
       </c>
-      <c r="M47" s="50" t="s">
+      <c r="M47" s="41" t="s">
         <v>103</v>
       </c>
       <c r="N47" s="11">
@@ -4800,41 +4669,41 @@
       </c>
     </row>
     <row r="48" spans="1:15">
-      <c r="A48" s="106"/>
-      <c r="B48" s="59">
+      <c r="A48" s="95"/>
+      <c r="B48" s="50">
         <v>43187</v>
       </c>
-      <c r="C48" s="50" t="s">
+      <c r="C48" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="D48" s="50" t="s">
+      <c r="D48" s="41" t="s">
         <v>99</v>
       </c>
-      <c r="E48" s="50" t="s">
+      <c r="E48" s="41" t="s">
         <v>113</v>
       </c>
-      <c r="F48" s="50" t="s">
+      <c r="F48" s="41" t="s">
         <v>163</v>
       </c>
-      <c r="G48" s="71">
+      <c r="G48" s="61">
         <v>76132962</v>
       </c>
-      <c r="H48" s="88" t="s">
+      <c r="H48" s="78" t="s">
         <v>174</v>
       </c>
-      <c r="I48" s="50" t="s">
+      <c r="I48" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="J48" s="50" t="s">
+      <c r="J48" s="41" t="s">
         <v>44</v>
       </c>
       <c r="K48" s="11">
         <v>17602558329</v>
       </c>
-      <c r="L48" s="50" t="s">
+      <c r="L48" s="41" t="s">
         <v>102</v>
       </c>
-      <c r="M48" s="50" t="s">
+      <c r="M48" s="41" t="s">
         <v>103</v>
       </c>
       <c r="N48" s="11">
@@ -4845,41 +4714,41 @@
       </c>
     </row>
     <row r="49" spans="1:16">
-      <c r="A49" s="107"/>
-      <c r="B49" s="59">
+      <c r="A49" s="94"/>
+      <c r="B49" s="50">
         <v>43187</v>
       </c>
-      <c r="C49" s="50" t="s">
+      <c r="C49" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="D49" s="50" t="s">
+      <c r="D49" s="41" t="s">
         <v>99</v>
       </c>
-      <c r="E49" s="50" t="s">
+      <c r="E49" s="41" t="s">
         <v>113</v>
       </c>
-      <c r="F49" s="50" t="s">
+      <c r="F49" s="41" t="s">
         <v>163</v>
       </c>
-      <c r="G49" s="71">
+      <c r="G49" s="61">
         <v>76132980</v>
       </c>
-      <c r="H49" s="88" t="s">
+      <c r="H49" s="78" t="s">
         <v>175</v>
       </c>
-      <c r="I49" s="50" t="s">
+      <c r="I49" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="J49" s="50" t="s">
+      <c r="J49" s="41" t="s">
         <v>44</v>
       </c>
       <c r="K49" s="11">
         <v>17602558329</v>
       </c>
-      <c r="L49" s="50" t="s">
+      <c r="L49" s="41" t="s">
         <v>102</v>
       </c>
-      <c r="M49" s="50" t="s">
+      <c r="M49" s="41" t="s">
         <v>103</v>
       </c>
       <c r="N49" s="11">
@@ -4890,34 +4759,34 @@
       </c>
     </row>
     <row r="50" spans="1:16">
-      <c r="A50" s="108">
+      <c r="A50" s="96">
         <v>14</v>
       </c>
-      <c r="B50" s="59">
+      <c r="B50" s="50">
         <v>43194</v>
       </c>
-      <c r="C50" s="50" t="s">
+      <c r="C50" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="D50" s="50" t="s">
+      <c r="D50" s="41" t="s">
         <v>184</v>
       </c>
-      <c r="E50" s="50" t="s">
+      <c r="E50" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="F50" s="50" t="s">
+      <c r="F50" s="41" t="s">
         <v>185</v>
       </c>
-      <c r="G50" s="71">
+      <c r="G50" s="61">
         <v>76128879</v>
       </c>
-      <c r="H50" s="88" t="s">
+      <c r="H50" s="78" t="s">
         <v>187</v>
       </c>
-      <c r="I50" s="50" t="s">
+      <c r="I50" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="J50" s="50" t="s">
+      <c r="J50" s="41" t="s">
         <v>44</v>
       </c>
       <c r="K50" s="11">
@@ -4926,10 +4795,10 @@
       <c r="L50" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="M50" s="50" t="s">
+      <c r="M50" s="41" t="s">
         <v>191</v>
       </c>
-      <c r="N50" s="71">
+      <c r="N50" s="61">
         <v>13913957701</v>
       </c>
       <c r="O50" s="11" t="s">
@@ -4937,44 +4806,44 @@
       </c>
     </row>
     <row r="51" spans="1:16">
-      <c r="A51" s="109"/>
-      <c r="B51" s="59">
+      <c r="A51" s="97"/>
+      <c r="B51" s="50">
         <v>43194</v>
       </c>
-      <c r="C51" s="50" t="s">
+      <c r="C51" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="D51" s="50" t="s">
+      <c r="D51" s="41" t="s">
         <v>184</v>
       </c>
-      <c r="E51" s="50" t="s">
+      <c r="E51" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="F51" s="50" t="s">
+      <c r="F51" s="41" t="s">
         <v>186</v>
       </c>
-      <c r="G51" s="71">
+      <c r="G51" s="61">
         <v>76128880</v>
       </c>
-      <c r="H51" s="88" t="s">
+      <c r="H51" s="78" t="s">
         <v>188</v>
       </c>
-      <c r="I51" s="50" t="s">
+      <c r="I51" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="J51" s="50" t="s">
+      <c r="J51" s="41" t="s">
         <v>44</v>
       </c>
       <c r="K51" s="11">
         <v>17602558329</v>
       </c>
-      <c r="L51" s="50" t="s">
+      <c r="L51" s="41" t="s">
         <v>190</v>
       </c>
-      <c r="M51" s="50" t="s">
+      <c r="M51" s="41" t="s">
         <v>191</v>
       </c>
-      <c r="N51" s="71">
+      <c r="N51" s="61">
         <v>18806742898</v>
       </c>
       <c r="O51" s="11" t="s">
@@ -4982,41 +4851,41 @@
       </c>
     </row>
     <row r="52" spans="1:16">
-      <c r="A52" s="109"/>
-      <c r="B52" s="59">
+      <c r="A52" s="97"/>
+      <c r="B52" s="50">
         <v>43194</v>
       </c>
-      <c r="C52" s="50" t="s">
+      <c r="C52" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="D52" s="50" t="s">
+      <c r="D52" s="41" t="s">
         <v>99</v>
       </c>
-      <c r="E52" s="50" t="s">
+      <c r="E52" s="41" t="s">
         <v>176</v>
       </c>
-      <c r="F52" s="50" t="s">
+      <c r="F52" s="41" t="s">
         <v>177</v>
       </c>
       <c r="G52" s="1">
         <v>76133752</v>
       </c>
-      <c r="H52" s="50" t="s">
+      <c r="H52" s="41" t="s">
         <v>180</v>
       </c>
-      <c r="I52" s="50" t="s">
+      <c r="I52" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="J52" s="50" t="s">
+      <c r="J52" s="41" t="s">
         <v>44</v>
       </c>
       <c r="K52" s="11">
         <v>17602558329</v>
       </c>
-      <c r="L52" s="50" t="s">
+      <c r="L52" s="41" t="s">
         <v>102</v>
       </c>
-      <c r="M52" s="50" t="s">
+      <c r="M52" s="41" t="s">
         <v>103</v>
       </c>
       <c r="N52" s="11">
@@ -5027,41 +4896,41 @@
       </c>
     </row>
     <row r="53" spans="1:16">
-      <c r="A53" s="110"/>
-      <c r="B53" s="59">
+      <c r="A53" s="98"/>
+      <c r="B53" s="50">
         <v>43194</v>
       </c>
-      <c r="C53" s="50" t="s">
+      <c r="C53" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="D53" s="50" t="s">
+      <c r="D53" s="41" t="s">
         <v>99</v>
       </c>
-      <c r="E53" s="50" t="s">
+      <c r="E53" s="41" t="s">
         <v>176</v>
       </c>
-      <c r="F53" s="50" t="s">
+      <c r="F53" s="41" t="s">
         <v>178</v>
       </c>
       <c r="G53" s="1">
         <v>76153237</v>
       </c>
-      <c r="H53" s="50" t="s">
+      <c r="H53" s="41" t="s">
         <v>179</v>
       </c>
-      <c r="I53" s="50" t="s">
+      <c r="I53" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="J53" s="50" t="s">
+      <c r="J53" s="41" t="s">
         <v>44</v>
       </c>
       <c r="K53" s="11">
         <v>17602558329</v>
       </c>
-      <c r="L53" s="50" t="s">
+      <c r="L53" s="41" t="s">
         <v>102</v>
       </c>
-      <c r="M53" s="50" t="s">
+      <c r="M53" s="41" t="s">
         <v>103</v>
       </c>
       <c r="N53" s="11">
@@ -5072,43 +4941,43 @@
       </c>
     </row>
     <row r="54" spans="1:16">
-      <c r="A54" s="105">
+      <c r="A54" s="93">
         <v>15</v>
       </c>
-      <c r="B54" s="59">
+      <c r="B54" s="50">
         <v>43201</v>
       </c>
-      <c r="C54" s="50" t="s">
+      <c r="C54" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="D54" s="50" t="s">
+      <c r="D54" s="41" t="s">
         <v>99</v>
       </c>
-      <c r="E54" s="50" t="s">
+      <c r="E54" s="41" t="s">
         <v>194</v>
       </c>
-      <c r="F54" s="50" t="s">
+      <c r="F54" s="41" t="s">
         <v>199</v>
       </c>
       <c r="G54" s="1">
         <v>76132983</v>
       </c>
-      <c r="H54" s="50" t="s">
+      <c r="H54" s="41" t="s">
         <v>195</v>
       </c>
-      <c r="I54" s="50" t="s">
+      <c r="I54" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="J54" s="50" t="s">
+      <c r="J54" s="41" t="s">
         <v>44</v>
       </c>
       <c r="K54" s="11">
         <v>17602558329</v>
       </c>
-      <c r="L54" s="50" t="s">
+      <c r="L54" s="41" t="s">
         <v>102</v>
       </c>
-      <c r="M54" s="50" t="s">
+      <c r="M54" s="41" t="s">
         <v>103</v>
       </c>
       <c r="N54" s="11">
@@ -5119,41 +4988,41 @@
       </c>
     </row>
     <row r="55" spans="1:16">
-      <c r="A55" s="106"/>
-      <c r="B55" s="59">
+      <c r="A55" s="95"/>
+      <c r="B55" s="50">
         <v>43201</v>
       </c>
-      <c r="C55" s="50" t="s">
+      <c r="C55" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="D55" s="50" t="s">
+      <c r="D55" s="41" t="s">
         <v>99</v>
       </c>
-      <c r="E55" s="50" t="s">
+      <c r="E55" s="41" t="s">
         <v>194</v>
       </c>
-      <c r="F55" s="50" t="s">
+      <c r="F55" s="41" t="s">
         <v>199</v>
       </c>
       <c r="G55" s="1">
         <v>76132985</v>
       </c>
-      <c r="H55" s="50" t="s">
+      <c r="H55" s="41" t="s">
         <v>196</v>
       </c>
-      <c r="I55" s="50" t="s">
+      <c r="I55" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="J55" s="50" t="s">
+      <c r="J55" s="41" t="s">
         <v>44</v>
       </c>
       <c r="K55" s="11">
         <v>17602558329</v>
       </c>
-      <c r="L55" s="50" t="s">
+      <c r="L55" s="41" t="s">
         <v>102</v>
       </c>
-      <c r="M55" s="50" t="s">
+      <c r="M55" s="41" t="s">
         <v>103</v>
       </c>
       <c r="N55" s="11">
@@ -5164,41 +5033,41 @@
       </c>
     </row>
     <row r="56" spans="1:16">
-      <c r="A56" s="106"/>
-      <c r="B56" s="59">
+      <c r="A56" s="95"/>
+      <c r="B56" s="50">
         <v>43201</v>
       </c>
-      <c r="C56" s="50" t="s">
+      <c r="C56" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="D56" s="50" t="s">
+      <c r="D56" s="41" t="s">
         <v>99</v>
       </c>
-      <c r="E56" s="50" t="s">
+      <c r="E56" s="41" t="s">
         <v>194</v>
       </c>
-      <c r="F56" s="50" t="s">
+      <c r="F56" s="41" t="s">
         <v>200</v>
       </c>
       <c r="G56" s="1">
         <v>76132987</v>
       </c>
-      <c r="H56" s="50" t="s">
+      <c r="H56" s="41" t="s">
         <v>197</v>
       </c>
-      <c r="I56" s="50" t="s">
+      <c r="I56" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="J56" s="50" t="s">
+      <c r="J56" s="41" t="s">
         <v>44</v>
       </c>
       <c r="K56" s="11">
         <v>17602558329</v>
       </c>
-      <c r="L56" s="50" t="s">
+      <c r="L56" s="41" t="s">
         <v>102</v>
       </c>
-      <c r="M56" s="50" t="s">
+      <c r="M56" s="41" t="s">
         <v>103</v>
       </c>
       <c r="N56" s="11">
@@ -5209,41 +5078,41 @@
       </c>
     </row>
     <row r="57" spans="1:16">
-      <c r="A57" s="107"/>
-      <c r="B57" s="59">
+      <c r="A57" s="94"/>
+      <c r="B57" s="50">
         <v>43201</v>
       </c>
-      <c r="C57" s="50" t="s">
+      <c r="C57" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="D57" s="50" t="s">
+      <c r="D57" s="41" t="s">
         <v>99</v>
       </c>
-      <c r="E57" s="50" t="s">
+      <c r="E57" s="41" t="s">
         <v>194</v>
       </c>
-      <c r="F57" s="50" t="s">
+      <c r="F57" s="41" t="s">
         <v>201</v>
       </c>
       <c r="G57" s="1">
         <v>76138839</v>
       </c>
-      <c r="H57" s="50" t="s">
+      <c r="H57" s="41" t="s">
         <v>198</v>
       </c>
-      <c r="I57" s="50" t="s">
+      <c r="I57" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="J57" s="50" t="s">
+      <c r="J57" s="41" t="s">
         <v>44</v>
       </c>
       <c r="K57" s="11">
         <v>17602558329</v>
       </c>
-      <c r="L57" s="50" t="s">
+      <c r="L57" s="41" t="s">
         <v>102</v>
       </c>
-      <c r="M57" s="50" t="s">
+      <c r="M57" s="41" t="s">
         <v>103</v>
       </c>
       <c r="N57" s="11">
@@ -5254,43 +5123,43 @@
       </c>
     </row>
     <row r="58" spans="1:16">
-      <c r="A58" s="87">
+      <c r="A58" s="77">
         <v>16</v>
       </c>
-      <c r="B58" s="59">
+      <c r="B58" s="50">
         <v>43208</v>
       </c>
-      <c r="C58" s="50" t="s">
+      <c r="C58" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="D58" s="50" t="s">
+      <c r="D58" s="41" t="s">
         <v>210</v>
       </c>
-      <c r="E58" s="50" t="s">
+      <c r="E58" s="41" t="s">
         <v>211</v>
       </c>
-      <c r="F58" s="50" t="s">
+      <c r="F58" s="41" t="s">
         <v>212</v>
       </c>
       <c r="G58" s="1">
         <v>76159127</v>
       </c>
-      <c r="H58" s="50" t="s">
+      <c r="H58" s="41" t="s">
         <v>213</v>
       </c>
-      <c r="I58" s="50" t="s">
+      <c r="I58" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="J58" s="50" t="s">
+      <c r="J58" s="41" t="s">
         <v>44</v>
       </c>
       <c r="K58" s="11">
         <v>17602558329</v>
       </c>
-      <c r="L58" s="50" t="s">
+      <c r="L58" s="41" t="s">
         <v>214</v>
       </c>
-      <c r="M58" s="50" t="s">
+      <c r="M58" s="41" t="s">
         <v>215</v>
       </c>
       <c r="N58" s="1">
@@ -5301,46 +5170,46 @@
       </c>
     </row>
     <row r="59" spans="1:16">
-      <c r="A59" s="105">
+      <c r="A59" s="93">
         <v>17</v>
       </c>
-      <c r="B59" s="59">
+      <c r="B59" s="50">
         <v>43215</v>
       </c>
-      <c r="C59" s="50" t="s">
+      <c r="C59" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="D59" s="50" t="s">
+      <c r="D59" s="41" t="s">
         <v>216</v>
       </c>
-      <c r="E59" s="50" t="s">
+      <c r="E59" s="41" t="s">
         <v>217</v>
       </c>
-      <c r="F59" s="50" t="s">
+      <c r="F59" s="41" t="s">
         <v>65</v>
       </c>
       <c r="G59" s="1">
         <v>76155318</v>
       </c>
-      <c r="H59" s="50" t="s">
+      <c r="H59" s="41" t="s">
         <v>218</v>
       </c>
-      <c r="I59" s="50" t="s">
+      <c r="I59" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="J59" s="50" t="s">
+      <c r="J59" s="41" t="s">
         <v>44</v>
       </c>
       <c r="K59" s="11">
         <v>17602558329</v>
       </c>
-      <c r="L59" s="50" t="s">
+      <c r="L59" s="41" t="s">
         <v>219</v>
       </c>
-      <c r="M59" s="50" t="s">
+      <c r="M59" s="41" t="s">
         <v>220</v>
       </c>
-      <c r="N59" s="71">
+      <c r="N59" s="61">
         <v>17327996435</v>
       </c>
       <c r="O59" s="11" t="s">
@@ -5348,41 +5217,41 @@
       </c>
     </row>
     <row r="60" spans="1:16">
-      <c r="A60" s="106"/>
-      <c r="B60" s="59">
+      <c r="A60" s="95"/>
+      <c r="B60" s="50">
         <v>43215</v>
       </c>
-      <c r="C60" s="50" t="s">
+      <c r="C60" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="D60" s="50" t="s">
+      <c r="D60" s="41" t="s">
         <v>99</v>
       </c>
-      <c r="E60" s="50" t="s">
+      <c r="E60" s="41" t="s">
         <v>176</v>
       </c>
-      <c r="F60" s="50" t="s">
+      <c r="F60" s="41" t="s">
         <v>221</v>
       </c>
       <c r="G60" s="1">
         <v>76156911</v>
       </c>
-      <c r="H60" s="50" t="s">
+      <c r="H60" s="41" t="s">
         <v>223</v>
       </c>
-      <c r="I60" s="50" t="s">
+      <c r="I60" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="J60" s="50" t="s">
+      <c r="J60" s="41" t="s">
         <v>44</v>
       </c>
       <c r="K60" s="11">
         <v>17602558329</v>
       </c>
-      <c r="L60" s="50" t="s">
+      <c r="L60" s="41" t="s">
         <v>102</v>
       </c>
-      <c r="M60" s="50" t="s">
+      <c r="M60" s="41" t="s">
         <v>103</v>
       </c>
       <c r="N60" s="11">
@@ -5391,46 +5260,46 @@
       <c r="O60" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="P60" s="93" t="s">
-        <v>230</v>
+      <c r="P60" s="83" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="61" spans="1:16">
-      <c r="A61" s="107"/>
-      <c r="B61" s="59">
+      <c r="A61" s="94"/>
+      <c r="B61" s="50">
         <v>43215</v>
       </c>
-      <c r="C61" s="50" t="s">
+      <c r="C61" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="D61" s="50" t="s">
+      <c r="D61" s="41" t="s">
         <v>99</v>
       </c>
-      <c r="E61" s="50" t="s">
+      <c r="E61" s="41" t="s">
         <v>176</v>
       </c>
-      <c r="F61" s="50" t="s">
+      <c r="F61" s="41" t="s">
         <v>222</v>
       </c>
       <c r="G61" s="1">
         <v>76157133</v>
       </c>
-      <c r="H61" s="50" t="s">
+      <c r="H61" s="41" t="s">
         <v>224</v>
       </c>
-      <c r="I61" s="50" t="s">
+      <c r="I61" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="J61" s="50" t="s">
+      <c r="J61" s="41" t="s">
         <v>44</v>
       </c>
       <c r="K61" s="11">
         <v>17602558329</v>
       </c>
-      <c r="L61" s="50" t="s">
+      <c r="L61" s="41" t="s">
         <v>102</v>
       </c>
-      <c r="M61" s="50" t="s">
+      <c r="M61" s="41" t="s">
         <v>103</v>
       </c>
       <c r="N61" s="11">
@@ -5439,49 +5308,49 @@
       <c r="O61" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="P61" s="93" t="s">
-        <v>230</v>
+      <c r="P61" s="83" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="62" spans="1:16">
-      <c r="A62" s="94">
+      <c r="A62" s="84">
         <v>18</v>
       </c>
-      <c r="B62" s="59">
+      <c r="B62" s="50">
         <v>43220</v>
       </c>
-      <c r="C62" s="50" t="s">
+      <c r="C62" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="D62" s="50" t="s">
+      <c r="D62" s="41" t="s">
+        <v>232</v>
+      </c>
+      <c r="E62" s="41" t="s">
+        <v>232</v>
+      </c>
+      <c r="F62" s="41" t="s">
         <v>233</v>
-      </c>
-      <c r="E62" s="50" t="s">
-        <v>233</v>
-      </c>
-      <c r="F62" s="50" t="s">
-        <v>234</v>
       </c>
       <c r="G62" s="1">
         <v>76163685</v>
       </c>
-      <c r="H62" s="50" t="s">
-        <v>233</v>
-      </c>
-      <c r="I62" s="50" t="s">
+      <c r="H62" s="41" t="s">
+        <v>232</v>
+      </c>
+      <c r="I62" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="J62" s="50" t="s">
+      <c r="J62" s="41" t="s">
         <v>44</v>
       </c>
       <c r="K62" s="11">
         <v>17602558329</v>
       </c>
-      <c r="L62" s="50" t="s">
+      <c r="L62" s="41" t="s">
+        <v>234</v>
+      </c>
+      <c r="M62" s="41" t="s">
         <v>235</v>
-      </c>
-      <c r="M62" s="50" t="s">
-        <v>236</v>
       </c>
       <c r="N62" s="1">
         <v>15380862222</v>
@@ -5491,38 +5360,96 @@
       </c>
     </row>
     <row r="63" spans="1:16">
-      <c r="A63" s="1"/>
-      <c r="B63" s="1"/>
-      <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
-      <c r="F63" s="1"/>
-      <c r="G63" s="1"/>
-      <c r="H63" s="1"/>
-      <c r="I63" s="1"/>
-      <c r="J63" s="1"/>
-      <c r="K63" s="1"/>
-      <c r="L63" s="1"/>
-      <c r="M63" s="1"/>
-      <c r="N63" s="1"/>
-      <c r="O63" s="1"/>
+      <c r="A63" s="93">
+        <v>19</v>
+      </c>
+      <c r="B63" s="50">
+        <v>43229</v>
+      </c>
+      <c r="C63" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="D63" s="41" t="s">
+        <v>74</v>
+      </c>
+      <c r="E63" s="41" t="s">
+        <v>75</v>
+      </c>
+      <c r="F63" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="G63" s="1">
+        <v>76161175</v>
+      </c>
+      <c r="H63" s="41" t="s">
+        <v>236</v>
+      </c>
+      <c r="I63" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="J63" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="K63" s="11">
+        <v>17602558329</v>
+      </c>
+      <c r="L63" s="41" t="s">
+        <v>237</v>
+      </c>
+      <c r="M63" s="41" t="s">
+        <v>238</v>
+      </c>
+      <c r="N63" s="1">
+        <v>13813957852</v>
+      </c>
+      <c r="O63" s="11" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="64" spans="1:16">
-      <c r="A64" s="1"/>
-      <c r="B64" s="1"/>
-      <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
-      <c r="E64" s="1"/>
-      <c r="F64" s="1"/>
-      <c r="G64" s="1"/>
-      <c r="H64" s="1"/>
-      <c r="I64" s="1"/>
-      <c r="J64" s="1"/>
-      <c r="K64" s="1"/>
-      <c r="L64" s="1"/>
-      <c r="M64" s="1"/>
-      <c r="N64" s="1"/>
-      <c r="O64" s="1"/>
+      <c r="A64" s="94"/>
+      <c r="B64" s="50">
+        <v>43229</v>
+      </c>
+      <c r="C64" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="D64" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="E64" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="F64" s="41" t="s">
+        <v>239</v>
+      </c>
+      <c r="G64" s="1">
+        <v>76161228</v>
+      </c>
+      <c r="H64" s="41" t="s">
+        <v>240</v>
+      </c>
+      <c r="I64" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="J64" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="K64" s="11">
+        <v>17602558329</v>
+      </c>
+      <c r="L64" s="41" t="s">
+        <v>241</v>
+      </c>
+      <c r="M64" s="41" t="s">
+        <v>242</v>
+      </c>
+      <c r="N64" s="1">
+        <v>18661144557</v>
+      </c>
+      <c r="O64" s="11" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="65" spans="1:15">
       <c r="A65" s="1"/>
@@ -9588,11 +9515,7 @@
       <c r="O303" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="A59:A61"/>
-    <mergeCell ref="A54:A57"/>
-    <mergeCell ref="A50:A53"/>
-    <mergeCell ref="A38:A49"/>
+  <mergeCells count="14">
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="A7:A8"/>
@@ -9602,6 +9525,11 @@
     <mergeCell ref="A24:A28"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="A59:A61"/>
+    <mergeCell ref="A54:A57"/>
+    <mergeCell ref="A50:A53"/>
+    <mergeCell ref="A38:A49"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <dataValidations count="2">
@@ -9660,17 +9588,17 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="27">
-      <c r="A2" s="87">
+      <c r="A2" s="77">
         <v>4</v>
       </c>
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="47" t="s">
         <v>110</v>
       </c>
-      <c r="C2" s="79">
+      <c r="C2" s="69">
         <v>43123</v>
       </c>
-      <c r="D2" s="51" t="s">
-        <v>229</v>
+      <c r="D2" s="42" t="s">
+        <v>243</v>
       </c>
       <c r="E2" s="11" t="s">
         <v>51</v>
@@ -9678,21 +9606,21 @@
       <c r="F2" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="G2" s="50" t="s">
+      <c r="G2" s="41" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="27">
-      <c r="A3" s="87">
+      <c r="A3" s="77">
         <v>13</v>
       </c>
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="47" t="s">
         <v>181</v>
       </c>
-      <c r="C3" s="79">
+      <c r="C3" s="69">
         <v>43186</v>
       </c>
-      <c r="D3" s="51" t="s">
+      <c r="D3" s="42" t="s">
         <v>182</v>
       </c>
       <c r="E3" s="11" t="s">
@@ -9701,21 +9629,21 @@
       <c r="F3" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="G3" s="50" t="s">
+      <c r="G3" s="41" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="105">
+      <c r="A4" s="93">
         <v>15</v>
       </c>
-      <c r="B4" s="56" t="s">
+      <c r="B4" s="47" t="s">
         <v>207</v>
       </c>
-      <c r="C4" s="79">
+      <c r="C4" s="69">
         <v>43199</v>
       </c>
-      <c r="D4" s="51" t="s">
+      <c r="D4" s="42" t="s">
         <v>203</v>
       </c>
       <c r="E4" s="11" t="s">
@@ -9724,19 +9652,19 @@
       <c r="F4" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="G4" s="50" t="s">
+      <c r="G4" s="41" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="107"/>
-      <c r="B5" s="56" t="s">
+      <c r="A5" s="94"/>
+      <c r="B5" s="47" t="s">
         <v>202</v>
       </c>
-      <c r="C5" s="79">
+      <c r="C5" s="69">
         <v>43202</v>
       </c>
-      <c r="D5" s="51" t="s">
+      <c r="D5" s="42" t="s">
         <v>203</v>
       </c>
       <c r="E5" s="11" t="s">
@@ -9745,21 +9673,21 @@
       <c r="F5" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="G5" s="50" t="s">
+      <c r="G5" s="41" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="87">
+      <c r="A6" s="77">
         <v>16</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>232</v>
-      </c>
-      <c r="C6" s="79">
+        <v>231</v>
+      </c>
+      <c r="C6" s="69">
         <v>43206</v>
       </c>
-      <c r="D6" s="51" t="s">
+      <c r="D6" s="42" t="s">
         <v>203</v>
       </c>
       <c r="E6" s="11" t="s">
@@ -9768,21 +9696,21 @@
       <c r="F6" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="G6" s="50" t="s">
+      <c r="G6" s="41" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="111">
+      <c r="A7" s="99">
         <v>17</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>231</v>
-      </c>
-      <c r="C7" s="79">
+        <v>230</v>
+      </c>
+      <c r="C7" s="69">
         <v>43213</v>
       </c>
-      <c r="D7" s="51" t="s">
+      <c r="D7" s="42" t="s">
         <v>225</v>
       </c>
       <c r="E7" s="11" t="s">
@@ -9791,19 +9719,19 @@
       <c r="F7" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="G7" s="50" t="s">
+      <c r="G7" s="41" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="111"/>
-      <c r="B8" s="56" t="s">
+      <c r="A8" s="99"/>
+      <c r="B8" s="47" t="s">
         <v>226</v>
       </c>
-      <c r="C8" s="79">
+      <c r="C8" s="69">
         <v>43213</v>
       </c>
-      <c r="D8" s="51" t="s">
+      <c r="D8" s="42" t="s">
         <v>203</v>
       </c>
       <c r="E8" s="11" t="s">
@@ -9812,19 +9740,19 @@
       <c r="F8" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="G8" s="50" t="s">
+      <c r="G8" s="41" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="111"/>
-      <c r="B9" s="56" t="s">
+      <c r="A9" s="99"/>
+      <c r="B9" s="47" t="s">
         <v>228</v>
       </c>
-      <c r="C9" s="79">
+      <c r="C9" s="69">
         <v>43213</v>
       </c>
-      <c r="D9" s="51" t="s">
+      <c r="D9" s="42" t="s">
         <v>225</v>
       </c>
       <c r="E9" s="11" t="s">
@@ -9833,12 +9761,12 @@
       <c r="F9" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="G9" s="50" t="s">
+      <c r="G9" s="41" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="78"/>
+      <c r="A10" s="68"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
       <c r="D10" s="10"/>
@@ -9847,7 +9775,7 @@
       <c r="G10" s="11"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="78"/>
+      <c r="A11" s="68"/>
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
       <c r="D11" s="10"/>
@@ -9856,7 +9784,7 @@
       <c r="G11" s="11"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="78"/>
+      <c r="A12" s="68"/>
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
       <c r="D12" s="10"/>
@@ -9865,7 +9793,7 @@
       <c r="G12" s="11"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="52"/>
+      <c r="A13" s="43"/>
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
       <c r="D13" s="10"/>
@@ -9874,7 +9802,7 @@
       <c r="G13" s="11"/>
     </row>
     <row r="14" spans="1:7" ht="14.25">
-      <c r="A14" s="105"/>
+      <c r="A14" s="93"/>
       <c r="B14" s="9"/>
       <c r="C14" s="13"/>
       <c r="D14" s="12"/>
@@ -9883,7 +9811,7 @@
       <c r="G14" s="9"/>
     </row>
     <row r="15" spans="1:7" ht="14.25">
-      <c r="A15" s="106"/>
+      <c r="A15" s="95"/>
       <c r="B15" s="9"/>
       <c r="C15" s="14"/>
       <c r="D15" s="12"/>
@@ -9892,7 +9820,7 @@
       <c r="G15" s="4"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="106"/>
+      <c r="A16" s="95"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
       <c r="D16" s="10"/>
@@ -9901,7 +9829,7 @@
       <c r="G16" s="11"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="106"/>
+      <c r="A17" s="95"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
       <c r="D17" s="10"/>
@@ -9910,7 +9838,7 @@
       <c r="G17" s="11"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="106"/>
+      <c r="A18" s="95"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
       <c r="D18" s="10"/>
@@ -9919,7 +9847,7 @@
       <c r="G18" s="11"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="106"/>
+      <c r="A19" s="95"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
       <c r="D19" s="10"/>
@@ -9928,7 +9856,7 @@
       <c r="G19" s="11"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="106"/>
+      <c r="A20" s="95"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
       <c r="D20" s="10"/>
@@ -9937,7 +9865,7 @@
       <c r="G20" s="11"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="106"/>
+      <c r="A21" s="95"/>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
       <c r="D21" s="10"/>
@@ -9946,7 +9874,7 @@
       <c r="G21" s="11"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="106"/>
+      <c r="A22" s="95"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
       <c r="D22" s="10"/>
@@ -9955,7 +9883,7 @@
       <c r="G22" s="11"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="106"/>
+      <c r="A23" s="95"/>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
       <c r="D23" s="10"/>
@@ -9964,7 +9892,7 @@
       <c r="G23" s="11"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="106"/>
+      <c r="A24" s="95"/>
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
       <c r="D24" s="10"/>
@@ -9973,7 +9901,7 @@
       <c r="G24" s="11"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="106"/>
+      <c r="A25" s="95"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
       <c r="D25" s="10"/>
@@ -9982,7 +9910,7 @@
       <c r="G25" s="11"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="106"/>
+      <c r="A26" s="95"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
       <c r="D26" s="10"/>
@@ -9991,7 +9919,7 @@
       <c r="G26" s="11"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="106"/>
+      <c r="A27" s="95"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
       <c r="D27" s="10"/>
@@ -10000,7 +9928,7 @@
       <c r="G27" s="11"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="107"/>
+      <c r="A28" s="94"/>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
       <c r="D28" s="10"/>
@@ -10009,7 +9937,7 @@
       <c r="G28" s="11"/>
     </row>
     <row r="29" spans="1:7" ht="14.25">
-      <c r="A29" s="105"/>
+      <c r="A29" s="93"/>
       <c r="B29" s="9"/>
       <c r="C29" s="13"/>
       <c r="D29" s="12"/>
@@ -10018,7 +9946,7 @@
       <c r="G29" s="9"/>
     </row>
     <row r="30" spans="1:7" ht="14.25">
-      <c r="A30" s="106"/>
+      <c r="A30" s="95"/>
       <c r="B30" s="9"/>
       <c r="C30" s="14"/>
       <c r="D30" s="12"/>
@@ -10027,7 +9955,7 @@
       <c r="G30" s="4"/>
     </row>
     <row r="31" spans="1:7" ht="14.25">
-      <c r="A31" s="106"/>
+      <c r="A31" s="95"/>
       <c r="B31" s="9"/>
       <c r="C31" s="14"/>
       <c r="D31" s="12"/>
@@ -10036,7 +9964,7 @@
       <c r="G31" s="4"/>
     </row>
     <row r="32" spans="1:7" ht="14.25">
-      <c r="A32" s="106"/>
+      <c r="A32" s="95"/>
       <c r="B32" s="9"/>
       <c r="C32" s="14"/>
       <c r="D32" s="12"/>
@@ -10045,7 +9973,7 @@
       <c r="G32" s="15"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="106"/>
+      <c r="A33" s="95"/>
       <c r="B33" s="9"/>
       <c r="C33" s="9"/>
       <c r="D33" s="10"/>
@@ -10054,7 +9982,7 @@
       <c r="G33" s="11"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="106"/>
+      <c r="A34" s="95"/>
       <c r="B34" s="9"/>
       <c r="C34" s="9"/>
       <c r="D34" s="10"/>
@@ -10063,7 +9991,7 @@
       <c r="G34" s="11"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="106"/>
+      <c r="A35" s="95"/>
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
       <c r="D35" s="10"/>
@@ -10072,7 +10000,7 @@
       <c r="G35" s="11"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="106"/>
+      <c r="A36" s="95"/>
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
       <c r="D36" s="10"/>
@@ -10081,7 +10009,7 @@
       <c r="G36" s="11"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="106"/>
+      <c r="A37" s="95"/>
       <c r="B37" s="9"/>
       <c r="C37" s="9"/>
       <c r="D37" s="10"/>
@@ -10090,7 +10018,7 @@
       <c r="G37" s="11"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="106"/>
+      <c r="A38" s="95"/>
       <c r="B38" s="9"/>
       <c r="C38" s="9"/>
       <c r="D38" s="10"/>
@@ -10099,7 +10027,7 @@
       <c r="G38" s="11"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="106"/>
+      <c r="A39" s="95"/>
       <c r="B39" s="9"/>
       <c r="C39" s="9"/>
       <c r="D39" s="10"/>
@@ -10108,7 +10036,7 @@
       <c r="G39" s="11"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="107"/>
+      <c r="A40" s="94"/>
       <c r="B40" s="9"/>
       <c r="C40" s="9"/>
       <c r="D40" s="10"/>
@@ -10117,7 +10045,7 @@
       <c r="G40" s="11"/>
     </row>
     <row r="41" spans="1:7" ht="14.25">
-      <c r="A41" s="105"/>
+      <c r="A41" s="93"/>
       <c r="B41" s="9"/>
       <c r="C41" s="13"/>
       <c r="D41" s="12"/>
@@ -10126,7 +10054,7 @@
       <c r="G41" s="9"/>
     </row>
     <row r="42" spans="1:7" ht="14.25">
-      <c r="A42" s="106"/>
+      <c r="A42" s="95"/>
       <c r="B42" s="9"/>
       <c r="C42" s="14"/>
       <c r="D42" s="12"/>
@@ -10135,7 +10063,7 @@
       <c r="G42" s="4"/>
     </row>
     <row r="43" spans="1:7" ht="14.25">
-      <c r="A43" s="106"/>
+      <c r="A43" s="95"/>
       <c r="B43" s="9"/>
       <c r="C43" s="14"/>
       <c r="D43" s="12"/>
@@ -10144,7 +10072,7 @@
       <c r="G43" s="4"/>
     </row>
     <row r="44" spans="1:7" ht="14.25">
-      <c r="A44" s="106"/>
+      <c r="A44" s="95"/>
       <c r="B44" s="9"/>
       <c r="C44" s="14"/>
       <c r="D44" s="12"/>
@@ -10153,7 +10081,7 @@
       <c r="G44" s="15"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="106"/>
+      <c r="A45" s="95"/>
       <c r="B45" s="9"/>
       <c r="C45" s="9"/>
       <c r="D45" s="10"/>
@@ -10162,7 +10090,7 @@
       <c r="G45" s="11"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="106"/>
+      <c r="A46" s="95"/>
       <c r="B46" s="9"/>
       <c r="C46" s="9"/>
       <c r="D46" s="10"/>
@@ -10171,7 +10099,7 @@
       <c r="G46" s="11"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="106"/>
+      <c r="A47" s="95"/>
       <c r="B47" s="9"/>
       <c r="C47" s="9"/>
       <c r="D47" s="10"/>
@@ -10180,7 +10108,7 @@
       <c r="G47" s="11"/>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="106"/>
+      <c r="A48" s="95"/>
       <c r="B48" s="9"/>
       <c r="C48" s="9"/>
       <c r="D48" s="10"/>
@@ -10189,7 +10117,7 @@
       <c r="G48" s="11"/>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="106"/>
+      <c r="A49" s="95"/>
       <c r="B49" s="9"/>
       <c r="C49" s="9"/>
       <c r="D49" s="10"/>
@@ -10198,7 +10126,7 @@
       <c r="G49" s="11"/>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="106"/>
+      <c r="A50" s="95"/>
       <c r="B50" s="9"/>
       <c r="C50" s="9"/>
       <c r="D50" s="10"/>
@@ -10207,7 +10135,7 @@
       <c r="G50" s="11"/>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="106"/>
+      <c r="A51" s="95"/>
       <c r="B51" s="9"/>
       <c r="C51" s="9"/>
       <c r="D51" s="10"/>
@@ -10216,7 +10144,7 @@
       <c r="G51" s="11"/>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="107"/>
+      <c r="A52" s="94"/>
       <c r="B52" s="9"/>
       <c r="C52" s="9"/>
       <c r="D52" s="10"/>
@@ -10225,7 +10153,7 @@
       <c r="G52" s="11"/>
     </row>
     <row r="53" spans="1:7" ht="14.25">
-      <c r="A53" s="106"/>
+      <c r="A53" s="95"/>
       <c r="B53" s="9"/>
       <c r="C53" s="14"/>
       <c r="D53" s="12"/>
@@ -10234,7 +10162,7 @@
       <c r="G53" s="4"/>
     </row>
     <row r="54" spans="1:7" ht="14.25">
-      <c r="A54" s="106"/>
+      <c r="A54" s="95"/>
       <c r="B54" s="9"/>
       <c r="C54" s="14"/>
       <c r="D54" s="12"/>
@@ -10243,7 +10171,7 @@
       <c r="G54" s="15"/>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="106"/>
+      <c r="A55" s="95"/>
       <c r="B55" s="9"/>
       <c r="C55" s="9"/>
       <c r="D55" s="10"/>
@@ -10252,7 +10180,7 @@
       <c r="G55" s="11"/>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="106"/>
+      <c r="A56" s="95"/>
       <c r="B56" s="9"/>
       <c r="C56" s="9"/>
       <c r="D56" s="10"/>
@@ -10261,7 +10189,7 @@
       <c r="G56" s="11"/>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="106"/>
+      <c r="A57" s="95"/>
       <c r="B57" s="9"/>
       <c r="C57" s="9"/>
       <c r="D57" s="10"/>
@@ -10270,7 +10198,7 @@
       <c r="G57" s="11"/>
     </row>
     <row r="58" spans="1:7">
-      <c r="A58" s="106"/>
+      <c r="A58" s="95"/>
       <c r="B58" s="9"/>
       <c r="C58" s="9"/>
       <c r="D58" s="10"/>
@@ -10279,7 +10207,7 @@
       <c r="G58" s="11"/>
     </row>
     <row r="59" spans="1:7">
-      <c r="A59" s="106"/>
+      <c r="A59" s="95"/>
       <c r="B59" s="9"/>
       <c r="C59" s="9"/>
       <c r="D59" s="10"/>
@@ -10288,7 +10216,7 @@
       <c r="G59" s="11"/>
     </row>
     <row r="60" spans="1:7">
-      <c r="A60" s="106"/>
+      <c r="A60" s="95"/>
       <c r="B60" s="9"/>
       <c r="C60" s="9"/>
       <c r="D60" s="10"/>
@@ -10297,7 +10225,7 @@
       <c r="G60" s="11"/>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="106"/>
+      <c r="A61" s="95"/>
       <c r="B61" s="9"/>
       <c r="C61" s="9"/>
       <c r="D61" s="10"/>
@@ -10306,7 +10234,7 @@
       <c r="G61" s="11"/>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" s="107"/>
+      <c r="A62" s="94"/>
       <c r="B62" s="9"/>
       <c r="C62" s="9"/>
       <c r="D62" s="10"/>
@@ -10351,7 +10279,7 @@
     <col min="1" max="1" width="9.75" style="4" customWidth="1"/>
     <col min="2" max="2" width="15.125" style="1" customWidth="1"/>
     <col min="3" max="3" width="17" style="1" customWidth="1"/>
-    <col min="4" max="4" width="29.5" style="54" customWidth="1"/>
+    <col min="4" max="4" width="29.5" style="45" customWidth="1"/>
     <col min="5" max="5" width="16" style="4" customWidth="1"/>
     <col min="6" max="6" width="17.875" bestFit="1" customWidth="1"/>
   </cols>
@@ -10366,10 +10294,10 @@
       <c r="C1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="55" t="s">
+      <c r="D1" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="E1" s="53" t="s">
+      <c r="E1" s="44" t="s">
         <v>36</v>
       </c>
     </row>
@@ -10377,16 +10305,16 @@
       <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="76">
+      <c r="C2" s="66">
         <v>43127</v>
       </c>
-      <c r="D2" s="70" t="s">
+      <c r="D2" s="60" t="s">
         <v>89</v>
       </c>
-      <c r="E2" s="75" t="s">
+      <c r="E2" s="65" t="s">
         <v>53</v>
       </c>
     </row>
@@ -10394,16 +10322,16 @@
       <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="B3" s="75" t="s">
+      <c r="B3" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="76">
+      <c r="C3" s="66">
         <v>43128</v>
       </c>
-      <c r="D3" s="70" t="s">
+      <c r="D3" s="60" t="s">
         <v>89</v>
       </c>
-      <c r="E3" s="75" t="s">
+      <c r="E3" s="65" t="s">
         <v>53</v>
       </c>
     </row>
@@ -10411,16 +10339,16 @@
       <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="87" t="s">
+      <c r="B4" s="77" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="76">
+      <c r="C4" s="66">
         <v>43190</v>
       </c>
-      <c r="D4" s="70" t="s">
+      <c r="D4" s="60" t="s">
         <v>183</v>
       </c>
-      <c r="E4" s="87" t="s">
+      <c r="E4" s="77" t="s">
         <v>53</v>
       </c>
     </row>
@@ -10428,16 +10356,16 @@
       <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="87" t="s">
+      <c r="B5" s="77" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="76">
+      <c r="C5" s="66">
         <v>43191</v>
       </c>
-      <c r="D5" s="70" t="s">
+      <c r="D5" s="60" t="s">
         <v>183</v>
       </c>
-      <c r="E5" s="87" t="s">
+      <c r="E5" s="77" t="s">
         <v>53</v>
       </c>
     </row>
@@ -10445,16 +10373,16 @@
       <c r="A6" s="4">
         <v>4</v>
       </c>
-      <c r="B6" s="87" t="s">
+      <c r="B6" s="77" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="76">
+      <c r="C6" s="66">
         <v>43197</v>
       </c>
-      <c r="D6" s="70" t="s">
+      <c r="D6" s="60" t="s">
         <v>192</v>
       </c>
-      <c r="E6" s="56" t="s">
+      <c r="E6" s="47" t="s">
         <v>193</v>
       </c>
     </row>
